--- a/output/Total_time_range_data/山西省/临汾市_学习考察.xlsx
+++ b/output/Total_time_range_data/山西省/临汾市_学习考察.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F189"/>
+  <dimension ref="A1:G189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,6046 +436,6615 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>province</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>city</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>topic</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>content</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A2" t="n">
+        <v>23</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>陕西省渭南市潼关县考察组来我县考察学习</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-07-01</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>http://www.puxian.gov.cn/xwzx/zwyw/202407/t20240701_369604.html</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>['6月28日，由陕西省渭南市潼关县委常委、县纪委书记、监委会主任张新峰，县委常委、县政府党组成员王世辉带队一行13人来我县考察学习交流。市村发集团、临汾经济开发区人才公司董事长李雪，县委常委、常务副县长任丽岗，县委常委、组织部部长宗燕军，县委常委、纪委书记、监委主任张明一同前往。', '考察组一行先后深入我县薛关村果蔬大棚种植基地、被子垣玉露香梨产业联盟种植基地、村发公司，分别就产业联盟发展集体经济工作及市县联合村发项目、组建发展村级集体经济工作、组建产业联盟发展村级集体经济工作情况进行交流学习。', '座谈会上，任丽岗对考察组一行到来表示热烈欢迎，他指出，壮大提质村级集体经济，“壮大”是前提，“提质”是关键，培育市场主体、提高经营性收入是基础。同所有生产经营活动一样，发展农村集体经济也需要解决好本钱从哪来、怎么赚到钱、利益咋分配三个关键问题。围绕这三个问题，蒲县县委、县政府以抓党建促基层治理能力提升为契机，锐意进取、勇于创新，在临汾市率先成立农村集体经济发展投资有限责任公司（简称村投公司），并探索一条“产业联盟+农村集体经济发展服务中心+村投公司”的集体经济发展创新之路，较好地回答了本钱从哪来、怎么赚到钱、利益咋分配的问题。', '张新峰表示，蒲县结合地域优势，积极探索发展模式、调整产业结构，着力发展特色产业，拓宽农民增收渠道，经验做法值得学习，回去后，潼关县将认真学习经验结合农业产业发展实际，因地制宜，因势利导，有力有效推动“三农”工作迈出新步伐。']</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A3" t="n">
+        <v>23</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>金湘军率团在湖南学习考察</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2024-06-03</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>http://www.guxian.gov.cn/xwzx/szfyw/202406/t20240603_358503.html</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>['5月31日至6月2日，省委副书记、省长金湘军率我省代表团参加第十三届中部博览会，并在湖南学习考察，进一步深化晋湘两省交流合作。其间，省政府与中南大学签约战略合作协议。湖南省委常委、长沙市委书记吴桂英，中南大学校长、中国工程院院士李建成，中国工程院院士田红旗，副省长汤志平参加有关活动。', '在湘期间，金湘军一行考察了三一集团有限公司、中联智慧产业城、国家网络安全产业园区、马栏山视频文创园、中南大学铁道校区，了解制造业智能化数字化绿色化发展、国家新一代自主安全计算系统产业集群建设、数字视频产业链基地建设、轨道交通安全国家重点实验室自主创新等情况，实地察看湖南省以科技创新引领产业创新的成果展示，与企业家、科技工作者深入交流。他说，近年来，湖南深入贯彻习近平总书记考察湖南重要讲话和指示精神，锚定“三高四新”美好蓝图，推动经济社会高质量发展取得新突破，成绩令人振奋。当前，山西全省上下正在深入学习贯彻习近平总书记在新时代推动中部地区崛起座谈会上的重要讲话精神和对山西工作的重要讲话重要指示精神，牢牢把握在国家构建新发展格局中的战略定位，因地制宜培育发展新质生产力，以先进制造业为主攻方向，着力打造高端装备制造等省级重点产业链，建设中部地区先进制造业基地，构建体现山西特色优势的现代化产业体系，加快推动高质量发展、深化全方位转型。希望晋湘两地企业、高校及科研院所围绕项目投资、产业协作、科技创新、文化新业态发展等方面深化交流合作，实现共赢发展。', '6月2日，省政府与中南大学在长沙签约战略合作协议。根据协议，省校双方将在决策咨询、科技创新与成果转化、人才交流培养、高水平大学建设等领域开展全方位合作。', '考察中，金湘军强调，推动中部地区崛起是以习近平同志为核心的党中央作出的重大战略决策。全省各级各部门要深刻领会党中央战略意图，切实紧抓重大机遇，始终紧扣发展定位，扛牢主体责任，主动对接其他区域发展战略，加强区域内省际合作，着力推进各项重点工作任务落地落实，在合力推动中国式现代化建设、谱写中部地区崛起新篇章中彰显山西作为。（张巨峰）']</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A4" t="n">
+        <v>23</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>四川东辰教育集团来蒲学习考察</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2024-05-25</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>http://www.puxian.gov.cn/xwzx/zwyw/202405/t20240528_355997.html</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>['5月22日至23日，四川东辰教育管理集团有限公司副总经理鲜于龙一行来我县学习考察。县委副书记、县长薛向阳，副县长李中暄，县政协副主席贺振英出席座谈会或陪同考察。', '鲜于龙一行先后前往县高级中学、县东关小学、县一中等地，通过实地观看、翻阅资料、交流座谈等方式，就我县教育发展规划、学校布局、教情学情、队伍建设、德育培养等情况进行详细了解。', '座谈会上，县教科局负责同志简要介绍了蒲县教育基本情况，与会人员围绕教育现状、深化改革、未来发展等进行深入交流。', '鲜于龙简要介绍了集团发展历程及取得的成果，并围绕此次学习考察所看所思结合蒲县教育发展实际做了深入交流及探讨。他说东辰教育深耕教育能级、厚植教育情怀，坚持高质量、高素质发展，提倡“开放办学、合作共赢”的办学思路，坚持“办学一方、造福一方”的办学宗旨，为助力教育发展贡献了东辰力量。希望以此考察为契机，不断加强沟通交流，增进共识，积极开展务实合作，共同推动区域教育高质量发展。', '薛向阳对东辰教育集团取得的成绩表示赞许，并表示蒲县教育教学体制改革势在必行。当前蒲县正全力打造沿黄板块区域中心，产业转型、城市更新、文旅康养“三大行动”势头强劲、如火如荼、见行见效。高质量的发展更离不开高质量的教育，要进一步深化教育综合改革，注重改革的系统性、整体性、协同性，强调全盘观察、整体思考、系统设计，切实把教育事业的发展与经济社会的变革联系起来。教育合作托管是必由之路，采取“走出去，请进来”的方式，积极学习借鉴外地先进的管理经验和教学方式，持续推动教育工作补短强弱，努力办好“家门口”的教育。期待双方精诚合作未来可期，共同探讨教育发展面临的新挑战与新机遇，广泛凝聚推动教育发展的合力，不断开创蒲县教育事业新局面。']</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A5" t="n">
+        <v>23</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>王进军带队赴四川达州陕西安康等地考察学习</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2024-06-15</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>http://www.fenxi.gov.cn/zzzb/fxyw/202406/t20240618_364205.html</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>['为进一步加强本土企业发展，加快企业落地建设，优化我县营商环境，激发市场活力，全面提升经济，切实解决民生就业问题，日前，政府副县长王进军带队赴四川达州、陕西安康等地考察学习。', '考察组一行先后来到四川省达州市志宏布艺玩具厂、宣汉县联发玩具厂、达州兆纪光电、新达泵阀股份有限公司、新达泵阀股份有限公司，陕西安康恒安毛绒玩具公司、悠源食品有限公司进行了实地考察，了解了企业管理运营、培训工作和人员务工等情况。', '王进军表示要结合我县现有优势，合理利用对方优势资源，加强交流与合作。在企业的管理中，要学习先进的管理模式，注重员工培训，建立完善的质量管理体系，加强与供应商、客户的沟通与协作，确保供应链稳定、销售渠道畅通，实现互利共赢。']</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A6" t="n">
+        <v>23</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>晋中市政协来翼考察学习</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2024-05-29</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>http://www.yicheng.gov.cn/xwzx/zwyw/202405/t20240529_356481.html</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>['5月28日，晋中市政协副主席岳志坚一行到我县专题考察学习有机旱作农业发展工作。县政协主席张新民、副县长高伟、县政协副主席杜芳芳、政协秘书长梁俊陪同。', '岳志坚一行先后到唐兴镇石桥村集体全产业链托管有机旱作小麦示范基地、山西东方乐耕农业发展有限公司有机旱作甜糯玉米生产加工基地、山西新翔丰农业科技有限公司、山西邦正农业服务有限公司，就发展有机旱作农业生产体系、产业体系、经营体系等方面经验做法及主要成效进行考察学习。', '岳志坚一行认为我县村集体全产业链托管有机旱作小麦推广“水肥一体化（自动伸缩式喷灌）+宽幅精播+绿色防控+三次叶面喷肥”四项有机旱作主推技术，扎实推进水、种、肥、技、防高效集成利用；东方乐耕鲜食玉米绿色食品发展以集培育、种植、生产、加工、销售为一体的大农业产业，聚焦从农田到餐桌的全产业链，运用科技手段，带动鲜食玉米产业升级；新翔丰农业重点围绕粮食作物，主要从耕种防收四个环节方面组织开展农业生产托管服务，形成“三级体系强组织、四化建设保服务、五个降减重落实”的农业生产托管翼城模式；邦正农业农作物种植、农作物深加工、畜牧养殖等循环农业产业链等形成的一系列好经验、好做法，值得认真学习借鉴，为“特”“优”现代农业发展夯实了基础；为发展有机旱作农业，全面实施“特”“优”战略，蹚出了发展新路，是推进有机旱作农业向高优发展的生动实践。希望两地政协今后多交流多来往，互相学习、互相借鉴，实现互促进、共提高，为推进政协工作再上新台阶共同努力。']</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A7" t="n">
+        <v>23</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>襄垣县考察团来我县考察学习</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2024-05-11</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>http://www.zgjx.gov.cn/zzzb/jxyw/202405/t20240513_350245.html</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>['5月9日，襄垣县委书记李瑜带领的考察团一行来我县考察学习。县委书记赵松强，县委副书记安娜，现代农业产业示范区党工委书记、管委会主任王志宏，县委常委、县委办主任、宣传部部长刘晓军，副县长邱肖宾、葛宏，现代农业产业示范区党工委副书记、管委会副主任赵洪文，现代农业产业示范区管委会副主任、县果业中心主任党建明陪同考察。', '考察团先后在吉昌镇上东村考察学习村集体经济发展壮大情况，在壶口镇社堤村吉县苹果优质苗木繁育中心考察学习苹果优质苗木培育情况，在壶口镇柏东村吉县苹果现代高效实践基地考察学习苹果矮化密植栽培模式发展情况，在壶口镇柏东村吉县苹果产业高质量发展研究院考察学习苹果产业高质量发展情况，在吉县现代农业产业示范区吉美鲜公司、吉美御坊公司、吉美宠物食品公司、吉美牧业公司考察学习农业产业联农带农增收情况，在屯里镇太度村伍度朝华乡村振兴技能培训学院考察学习学院运营情况和农民技能培训开展情况，在屯里镇太度村考察学习省级乡村振兴示范村建设和特色民宿发展情况。', '考察团对我县在村集体经济发展、苹果产业发展、农业产业联农带农增收、乡村振兴示范村建设等方面取得的成效给予高度评价。认为，吉县以乡村振兴为抓手，坚持把富民增收放在首位，为实施乡村振兴打下了良好的基础。考察团表示，此次考察收获颇丰，吉县的好经验、好做法值得借鉴，襄垣县将结合自身实际，融合自身优势，将考察学习成果吸收并应用到乡村振兴战略实施过程中，探索推出适合襄垣县乡村振兴的方法和措施。']</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A8" t="n">
+        <v>23</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>胡晓刚带队赴晋城市考察学习开发区建设工作</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2024-05-23</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>http://www.linfen.gov.cn/yw/zwyw/202405/t20240523_354337.html</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>['5月21日至22日，副市长胡晓刚带队赴晋城市考察学习开发区建设、产业发展、招商引资、项目建设等方面先进经验做法。市政府办公室、市商务局负责人和全市工业类开发区主要负责人参加。', '考察团一行先后来到晋城经济技术开发区光机电产业园“以光逐梦”展厅、晋钢光伏装备产业园、高平经济技术开发区不锈钢智慧产业园及阳城经济技术开发区演礼新兴科技产业园等地，详细了解有关经验做法，并与相关开发区负责同志进行沟通交流。', '胡晓刚指出，全市各开发区要认真学习借鉴晋城市在开发区建设、产业链精准招商、科创成果转化应用、培育壮大新兴产业等方面的先进理念经验和创新举措，把学习收获转化为工作实践，创新发展思路，强化顶层设计，发挥主观能动性，全力破解产业发展、招商引资、项目建设等方面遇到的问题，推动各项工作不断迈上新台阶，努力把开发区打造成为全市经济社会发展的主战场、主引擎、主阵地。']</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A9" t="n">
+        <v>23</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>杨晓舟薛向阳带领考察团赴临汾市区考察学习</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2024-04-02</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>http://www.puxian.gov.cn/zzzb/pxyw/202404/t20240402_334645.html</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>['3月31日，县委书记杨晓舟，县委副书记、县长薛向阳带领考察团在尧都高新区、贡院街、临汾经济开发区等地考察，交流经验做法，进一步深化合作关系、拓宽合作领域。县人大常委会主任宋蒲刚，县委常委、常务副县长任丽岗，副县长刘俊明，县政协副主席、县委办主任杜建设以及有关部门负责同志参加。', '尧都高新区云商产业园是市委、市政府和尧都区委、区政府倾力打造的数字经济和信创产业基地。目前，已引进字节跳动、百度、360、优炫等全国知名数字经济标杆企业入驻，发展势头良好。在尧都区委副书记刘磊、尧都高新区党工委书记、管委会主任赖兴国的陪同下，考察团来到华汉云极信创产业中心、山西正合天科技股份有限公司、山西优炫凌云信息技术有限公司、尧都区乡村e镇公共服务中心、百度智能云人工智能基础数据产业基地、阿里云双碳数字经济产业园，通过观看宣传片、听取介绍等方式，详细了解园区发展、企业生产经营、主营产品业务、市场开拓等情况。', '在随后召开的座谈会上，刘磊对考察团一行表示欢迎，希望高新区与蒲县在产业发展、资源共享等方面进一步加强合作交流，共同助力临汾高质量发展提质提效。', '杨晓舟、薛向阳表示，高新区区位优势明显、产业基础扎实、营商环境良好，尧都云商产业园在园区建设、运营、管理、服务等方面具有许多值得学习的经验做法，希望双方能够进一步加强沟通联系，互相学习经验、取长补短、共同提高，为经济高质量发展贡献力量。', '城市更新一头连着民生、一头连着发展，是完善城市综合功能、提升公共服务水平的重要抓手。在贡院街、彩虹龙街，考察团成员边听介绍边仔细察看，详细了解城市立体建设、整体绿化、公园布局等工作情况。大家表示，要继续结合好县域实际，坚定信心、明确目标、对标先进、开拓创新，一如既往把学习到的好经验、好做法运用到各项工作中，让蒲县的发展空间得到拓展、公共设施得到完善、居住品质得到提升，更好满足市民群众对美好生活的需要。', '在临汾经济开发区，考察团实地参观了数字经济产业园，走进360集团、浪潮云洲等企业，了解智慧城市、智慧园区、企业数字化转型等数字经济应用场景，考察团成员与企业负责人深入交流，了解临汾经济开发区在优化营商环境为企业做好服务等方面好的经验做法。期间，临汾经济开发区党工委书记、管委会主任白建成详细介绍了临汾经济开发区经济社会发展情况、建设情况及数字产业在安全生产、智慧矿山等行业领域的应用场景情况。', '在随后召开的座谈会上，双方就废旧金属物资综合利用优惠政策措施进行了深入交流，围绕招商引资、营商环境、项目建设等工作进行了深入探讨。', '白建成表示，近年来，蒲县城市发展日新月异，朝着“沿黄板块区域中心”确定的目标定位稳步前进。蒲县与临汾经济开发区有着紧密严实的合作基础，希望双方继续加强谋划，在招商引资、“飞地”经济、助企服务等领域开展务实合作，临汾经济开发区将充分发挥经济发展的主阵地、主引擎、主战场作用，利用日渐完善的产业基础，为兄弟县市全力以赴提供支持与服务，实现联动共赢，为临汾实现“三个努力成为”共同作出贡献。', '杨晓舟对临汾经济开发区给予蒲县经济社会发展的支持表示感谢，对临汾经济开发区近年来各项工作取得的成果表示高度评价，他指出，此次考察交流，是一次大开眼界的头脑风暴之旅，临汾经济开发区作为全市对外开放的主窗口，在经济社会发展中涌现了许多好的经验做法，特别是对政策的把握利用，以及在各项工作中展现的速度、效率和质量，都是全省学习的样板，为蒲县发展提供了思路和启发，希望双方进一步加强沟通协作，互相交流学习、优势互补，不断提升发展水平，主动发扬“临汾干部”的样子，开创区县携手推动更高质量发展新局面。']</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A10" t="n">
+        <v>23</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>杨景宁带队赴陕西考察学习对接项目</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2024-04-11</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>http://www.sxyh.gov.cn/zzzb/yhyw/202404/t20240422_341845.html</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>['详细介绍了永和在交通区位、产业发展、工业基础、营商环境等方面的优势，诚挚邀请各企业负责人来永考察投资。', '持续打造政策最优、成本最低、服务最好、办事最快的政务环境、法治环境、社会环境，统筹做好', '希望企业对标一流、追求品质，注重人才引进和技术创新，不断降低生产成本、提升经营效益', '加强红色资源挖掘整理，精心设计研学线路、开发特色课程、培养文旅人才，推动红色文化与旅游产业深度融合发展。']</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A11" t="n">
+        <v>23</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>我省在广东学习考察并举办山西之夜</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2024-04-16</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>https://www.shanxi.gov.cn/jrtt/202404/t20240416_9538934.shtml</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>['以更加开放姿态拥抱粤港澳大湾区 携手谱写晋粤全面战略合作新篇章 - 山西省人民政府', '4月15日晚间，广东省委副书记、省长王伟中，省委副书记、省长金湘军察看“山西之夜”特色产品展区。（阮洋摄）', '4月13日至16日，在第135届中国进出口商品交易会（以下简称“广交会”）开幕之际，省政府代表团在广东学习考察并举办以“相‘粤’珠江，共‘晋’未来”为主题的“山西之夜”，深入贯彻习近平总书记对山西工作的重要讲话重要指示精神，主动对接建设粤港澳大湾区重大国家战略，学习借鉴广东先进经验，加快打造内陆地区对外开放新高地，携手谱写晋粤全面战略合作新篇章。广东省委副书记、省长王伟中，省委副书记、省长金湘军参加活动，并签署全面战略合作框架协议。广东省委副书记、深圳市委书记孟凡利参加有关活动。', '受省委书记黄坤明委托，王伟中代表广东省委、省政府，对山西省代表团来粤考察表示欢迎，对山西长期以来给予广东的大力支持表示感谢。他说，当前，广东正全面贯彻党的二十大精神和习近平总书记视察广东重要讲话、重要指示精神，认真落实省委“1310”具体部署，把坚持高质量发展作为新时代的硬道理，加快产业科技互促双强、培育发展新质生产力，奋力在推进中国式现代化建设中走在前列。广东与山西合作基础扎实、空间广阔、未来可期。希望进一步加强粤港澳大湾区建设与中部地区崛起等重大战略对接，加强产业创新协作和能源、文旅、康养、就业等领域交流合作，加强合作机制建设，拓展协同发展新空间，共同为强国建设、民族复兴伟业作出更大贡献。', '受省委书记唐登杰委托，金湘军代表省委、省政府向广东长期以来给予山西的大力支持表示感谢，对广东推动高质量发展和现代化建设取得的重大成就表示祝贺。他说，当前，全省上下深入贯彻习近平总书记在新时代推动中部地区崛起座谈会上的重要讲话精神，积极培育和发展新质生产力，加快建设“三区三地”，努力在新时代推动中部地区崛起中奋勇争先。晋粤两省人缘相亲、商缘相连，希望双方在打造开放平台、培育发展新质生产力等多方面加强交流合作，取得更多丰硕成果。我们要认真学习借鉴广东先进经验，深度对接粤港澳大湾区，推动晋粤全面战略合作行稳致远，更好谱写中国式现代化山西篇章。', '15日晚间，夜幕下的珠江畔，地标建筑广州塔灯光璀璨、流光溢彩，“山西之夜”在此精彩举办。金湘军、王伟中分别致辞，部分外国驻华使节，粤港澳大湾区及珠三角地区重点企业、商协会、国际组织代表等300余名海内外嘉宾济济一堂，在充满晋风晋韵的活动中感受山西悠久历史、灿烂文化和发展成果，共同度过难忘时光。作为我省塑造对外开放形象的新名片，本次“山西之夜”设重点产业链、特色专业镇、中华老字号、名优特产品、非遗及山西精品等展区，全省42家企业230余种产品参展，通过嘉宾致辞、晋粤故事汇、宣传推介、特色美食展示、文艺展演等形式，全方位多角度展示新时代表里山河的魅力风采。现场，山西籍歌唱家阎维文讲述“晋粤故事”并演唱《人说山西好风光》。高福、王淏、李文静分别代表家乡朔州、太原、大同作宣传推介。', '在粤期间，省政府代表团在深圳、广州等地考察学习，实地感受习近平新时代中国特色社会主义思想在南粤大地的火热实践，先后来到腾讯计算机系统有限公司、前海深港现代服务业合作区、中国科学院深圳先进技术研究院、广汽埃安新能源汽车股份有限公司和广汽研究院、亿航智能设备（广州）有限公司，了解数字经济发展、制度创新和现代服务业集聚发展、科创平台建设、制造业高端化智能化绿色化、低空经济发展等情况，并实地参观了广交会展馆，察看能源装备参展企业、跨境电商山西展厅，推介投资机遇，促进务实合作，更好推动对外开放和新质生产力发展。', '广东省领导陈建文、张虎，广州市市长孙志洋、深圳市市长覃伟中，副省长汤志平参加有关活动。（张巨峰）']</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A12" t="n">
+        <v>23</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>白建成带队在横店通用机场考察学习</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2024-04-11</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>https://mp.weixin.qq.com/s/1vY_2VoBwtt3q0e7t_N6VQ</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>['4月10日，临汾经济开发区党工委书记、管委会主任白建成带队，赴浙江省金华市东阳市横店通用机场考察学习。临汾经济开发区党工委委员、管委会副主任孙星鹏；中联恒创董事长药玲萍、上海桥枫航空科技有限公司总经理宋志满、中国航天十二院航天工程咨询公司董事长张亮一行、山西空天宇航技术有限公司总经理耿铁旦；霍州经开区管委会副主任梁冰一行、洪洞经开区投资促进部部长赵志坚一行；临汾开发区投资合作促进部部长冯国明等一同考察。', '在横店通用机场，考察团一行实地参观了塔台、飞行区、机库等地，对机场的建设运营发展、配套设施建设、通航服务保障等情况进行了解学习。当前，“航空+文旅”以交通运输和旅游融合发展的方式，已在航空业发展带动旅游资源上取得了典型成果，小分队认真学习横店结合当地产业特点，大力推动以“航空+旅游”为特色的发展模式以及在通用航空全产业链发展方面的经验。', '通过考察学习，小分队充分认识到，通用航空产业作为国家战略性新兴产业和新质生产力的重要组成部分，是完善短途运输的需要、培育新兴消费的需要、提高群众美好生活的需要，也是产业转型的需要，对改善区域交通、优化投资环境、加快旅游业发展、提高应急处突能力、加强区域开发等方面具有重要意义。', '当前，各地争相角逐低空经济发展的“新赛道”，哪里抢抓了先机，哪里就能够获得先发优势。临汾经济开发区作为经济发展的主阵地、主引擎、排头兵，更需要进一步解放思想，锚定新质生产力，认真学习借鉴、总结梳理成功的经验和先进的方法，抢抓低空经济发展的政策机遇，带动经济高质量发展，为全市“三个努力成为”作出积极贡献。', '东阳横店通用机场于2012年6月启动建设，2017年10月完工，12月获民航华东地区管理局颁发的A1类通用机场使用许可证，2018年3月机场正式通航。由横店集团投资建设、横店机场有限公司管理运营。机场占地面积521.4亩，飞行区等级2B，设计最大机型', ')、短途运输、航空研学、高空跳伞、航拍航测、国产飞机试飞、飞行培训、低空旅游等通航业务。']</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A13" t="n">
+        <v>23</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>我省广大党员干部深入学习领会习近平总书记在山东考察及在企业和专家座谈会上的重要讲话精神以全面深化改革助推高质量发展奋力谱写中国式现代化山西篇章</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>2024-05-27</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>https://www.shanxi.gov.cn/ywdt/sxyw/202405/t20240527_9568224.shtml</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>['我省广大党员干部深入学习领会习近平总书记在山东考察及在企业和专家座谈会上的重要讲话精神——', '5月22日至24日，习近平总书记在山东考察，深入日照、济南等地进行调研，主持召开企业和专家座谈会，发表重要讲话，作出重要指示。', '我省广大党员干部深入学习领会习近平总书记重要讲话精神，大家一致认为，习近平总书记的重要讲话，为山西更好发挥比较优势、服务和融入新发展格局、着力推动高质量发展，进一步指明了前进方向、提供了根本遵循。纷纷表示，要完整准确全面贯彻新发展理念，以进一步全面深化改革为动力，扛牢转型发展、能源革命、内陆地区对外开放新高地建设、黄河流域生态保护和高质量发展等重大使命任务，奋力谱写中国式现代化山西篇章。', '习近平总书记强调，进一步全面深化改革，要紧扣推进中国式现代化这个主题，突出改革重点，把牢价值取向，讲求方式方法，为完成中心任务、实现战略目标增添动力。', '“我们要深入学习贯彻习近平总书记重要讲话精神，按照省委部署要求，不折不扣全面落实党中央部署的重大改革任务，紧扣推进中国式现代化主题，聚焦加快培育新质生产力和扎实推动高质量发展，聚焦民生需求，统筹谋划推进我省进一步全面深化改革的重大举措，推进一批‘小切口’重点改革举措尽快取得成果。”省委政研室（省委改革办）改革处处长郭妙卿表示，要完善改革推进落实机制，强化改革创新的政治自觉和行动自觉，在推动系统集成、协同配套、精准高效上下功夫，强化督促协调，确保各项改革任务落地见效。', '当前，我省积极融入京津冀协同发展重大国家战略，努力打造京津冀重要的保障基地、联动发展的战略腹地。加强与长三角、粤港澳大湾区、长江经济带的交流合作，复制推广自贸区建设、对外开放等方面的经验做法，引进更多先进生产要素。', '省商务厅外事处处长崔钟丹表示，将认真贯彻落实习近平总书记重要讲话精神，在主动融入重大国家战略中找准定位。积极申建中国（山西）自由贸易试验区，提升和拓展开放通道功能，对接落实高质量共建“一带一路”八项行动，深化与RCEP国家的区域合作，推进公铁、铁海、空铁多式联运，提升综合保税区、跨境电商综试区、航空口岸、国际陆港、海外仓等平台功能，不断推动我省高水平对外开放迈上新台阶。', '习近平总书记强调，要着眼国家战略需求，统筹推进传统产业改造提升、新兴产业培育壮大、未来产业超前布局，全面释放实体经济和数字经济融合效能，因地制宜发展新质生产力。', '近年来，太重集团利用创新研发平台，持续打造智能化装备产品、车间产线和灯塔工厂，推出全球首款24吨氢燃料液压挖掘机、国内首款3.6吨全电动智能遥控挖掘机等一批原创性成果。“太重坚持把创新作为引领发展的第一动力，做强传统产品、做优战新产品、做精批量产品。”太原重工技术中心党委副书记王东表示，将继续聚焦新能源产品开发，打造竞争优势，为推动山西制造业高端化、智能化、绿色化发展贡献力量。', '“习近平总书记重要讲话精神对我市进一步加快转型发展具有重要指导意义。”晋城市工信局（国资委）党委书记、党组书记、局长席学武介绍，一季度晋城多措并举稳住工业经济基本盘，实现了首季“开门红”。下一步将牢牢把握高质量发展这个首要任务，以科技创新推动产业创新，聚焦产业高端化、智能化、绿色化、融合化发展方向，改造提升六大优势产业、发展壮大四大新兴产业、培育布局两大未来产业，全力推进新型工业化，加快培育发展新质生产力。', '古交市立足绿色能源及新材料产业集群的定位，统筹推进传统产业改造提升、新兴产业培育壮大、未来产业超前布局。古交市委书记李卫平说，将以高端化、智能化、绿色化为方向推动煤炭产业改造，积极布局新能源项目，推动煤矸石、粉煤灰等固废多元化、资源化、高值化利用，依托石英石、铝土矿等资源优势布局硅基新材料、铝镁新材料、智能装备等产业。发挥交通、区位和生态优势，培育壮大文旅康养产业，大力发展新质生产力。', '去年5月，山西中医药大学药食同源功能食品学院入选第二批省级现代产业学院。一年来，该学院开发或转让20余种药食同源功能食品，深入企业进行技术指导，开展企业员工专场业务知识培训，形成了良好的产教融合氛围。“推进科技创新与产业创新深度融合、发展新质生产力，正是我们的努力方向。”学院负责人秦楠副教授表示，将带领团队成员继续在校企间开展药食同源功能食品功效评价、作用机制揭示及高科技含量药食同源功能食品研究开发等核心业务研究，力求在药食同源领域取得新进展、新突破。', '“十四五”以来，我省制造业和战略性新兴产业增加值持续增长，“新三样”产品、智能手机、半导体新材料、高端装备、生物产业发展跑出加速度，成为转型发展的重要新动能。山西智杰软件工程有限公司董事长韩温说，企业逐年加大科技创新投入，通过院士专家工作站、企业技术中心、工程研究中心等科技创新平台，不断突破新技术，拓展“互联网+医疗健康”等新模式，以改革激发创新活力、创新点燃改革引擎，为医疗卫生体系智慧化发展注入新活力，争当发展新质生产力的生力军。', '习近平总书记强调，人民对美好生活的向往就是我们的奋斗目标，抓改革、促发展，归根到底就是为了让人民过上更好的日子。', '推进基本公共服务均等化，农村是短板。我省将“就业社保服务社区村村全覆盖”确定为2024年民生实事。吕梁市出台实施方案，市人社局依托乡镇（街道）和行政村（社区）现有公共服务资源，全面建立基层就业社保服务点，开通就业社保40项高频服务事项。', '“目前，就业社保服务全覆盖实施基础工作已初步完成，满足了群众‘就近能办、多点可办’的需求。”吕梁市人社局局长刘智平表示，将积极统筹基层资源，加强基层服务队伍培训，常态化开展逐级跟踪问效，确保实现五级互联互通，把民生实事办实办好，惠及广大群众。', '建设山清水秀、天蓝地净的美丽山西是习近平总书记对山西的殷殷嘱托。省生态环境厅宣传教育处处长张赟说，我们将坚持稳中求进、以进促稳、先立后破，突出精准治污、科学治污、依法治污，以生态环境质量改善为核心，集中力量打好污染防治攻坚战标志性战役，协同推进降碳、减污、扩绿、增长，加快推动发展方式绿色低碳转型，以高水平保护支撑和推动高质量发展、助力深化全方位转型。', '发展乡村特色产业是巩固拓展脱贫攻坚成果的关键一招。省农业农村厅乡村产业发展处处长岳磊表示，将以“千万工程”经验为引领，以发展现代化大产业为目标，深入实施“特”“优”战略，大力发展现代农业，积极发展乡村特色产业和农产品加工业，延长产业链、提升价值链，着力在有机旱作、精深加工、品牌营销上求突破，不断提升乡村特色优势产业发展水平，推动农业增效益、农民增收入、农村增活力。', '5月20日至26日，省文化馆采取馆际联动、线上线下互动等方式，组织开展了2024年文化馆服务宣传周活动，集中推出展演、展览、讲座、直播等百余项群众喜闻乐见的文化活动，满足人民群众精神文化生活需求。“习近平总书记的重要讲话，对我们文化工作者提出了更高要求。”省文化馆馆长黎凤来说，文化馆是人民终身美育学校，我们将运用阵地服务、流动服务、互联网服务等多种手段，推进全民艺术普及。', '习近平总书记强调，正在全党开展的党纪学习教育是今年党建工作的重点任务，各级党组织要精心组织、扎实推动、务求实效。', '省公安厅坚持把《中国共产党纪律处分条例》学习作为重点，通过原原本本学、逐章逐条学、联系实际学，推动党员干部全面掌握了解，增强遵规守纪自觉。厅属各基层党组织积极落实政治责任，全力以赴推进实施。机关党委副书记刘振华表示：“我们将深入学习贯彻习近平总书记重要讲话精神，落实各项要求，确保党纪学习教育取得扎实成效。”', '党纪学习教育开展以来，稷山县纪委监委精心组织实施，聚焦重点发力。稷山县委常委、县纪委书记、县监委主任马巍表示，要把党纪学习教育融入日常，力戒形式主义，把遵守党的政治纪律和政治规矩落实到各项工作中，用心答好对党忠诚的“政治卷”、为民服务的“初心卷”、推动发展的“实干卷”。', '大同市委成立党纪学习教育工作专班，建立协调联络、工作调度等10项制度。大同市委组织部部务委员马晶晶说：“作为市委党纪学习教育工作专班成员，我们坚持先学一步，学深一层，切实把思想和行动统一到党中央及省委、市委决策部署上来，科学谋划，精心组织，推动全市党纪学习教育走深走实。”（杨文俊 陈俊琦 李炼 高建华 郭宁 王秀娟 李林霞 程国媛 丁园 闫杰 孙蕊 晋帅妮 杜鹃 周明飞 李强）']</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A14" t="n">
+        <v>23</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>乔飞鸿带队赴陕西省延安市考察学习果业产业发展</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>2024-03-23</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>https://mp.weixin.qq.com/s/ofPv9jibGLfVaS3VOzadwQ</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>['深入推进农业供给侧结构性改革 加快培育农业农村发展新动能 开创农业现代化建设新局面', '3月21日-22日，市政府副市长乔飞鸿带队赴陕西省延安市宜川县、洛川县考察学习果业产业发展情况。', '市农业农村局党组书记、局长、二级巡视员栗俊昌，市政府副秘书长、办公室副主任白浩钰，市气象局局长相铭等参加考察学习。', '延安市政府副市长魏延安，延安市果业中心副主任高明，洛川县委书记张继东，洛川县委副书记、县长张晶，宜川县委副书记、县长薛延飞等人向乔飞鸿一行介绍当地果业产业发展情况。', '乔飞鸿指出，这次考察学习是贯彻落实省委领导指示、积极做好可能出现的“倒春寒”极端天气对我市农业生产的影响、借鉴应用延安市在果业产业发展方面的先进管理经验和防灾减灾的好做法、推动我市果业产业高质量发展的一个实际举措。通过实地察看触动很大,感受很深,受益匪浅。', '乔飞鸿强调，沿黄板块7个县要提高思想认识，坚定发展梨果产业的信心，立足资源优势，按照市委、市政府安排部署，把梨果产业作为产业转型升级、农民增收致富的重点，全力培育打造具有区域优势的水果产业集群。要加大投入力度，在现有条件下，坚持政策、资金、人才、技术等要素向梨果产业倾斜。要系统推进，分管农业的副县长要从育种、生产、加工、销售、营销等各个方面详细谋划，当好主要领导的参谋助手，统筹推进梨果产业高质量发展。', '栗俊昌要求，市农业农村局和沿黄板块7个县农业农村局要认真总结提升，从政策支持、规模经营、标准化生产、主体培育、龙头企业引领、技术创新、品牌营销、防灾减灾、产业体系建设、绿色循环农业发展等各个方面，结合各自实际，找差距、补短板，撰写一篇契合实际、行之有效的调研报告指导全市梨果产业高质量发展。要抓好成果转化，借鉴洛川县“八链同构、三产融合”的经验做法，有条件的县整体谋划、快速推广、提升效益；条件有限的县局部推进、打造亮点、示范带动，切实把先进经验转化为行动举措。要积极干事创业，不仅限于完成领导交代的任务，更要提升能力素质，解放思想，开拓创新，坚持系统思维，积极谋事创业，当好领导的“智囊团”。以敢为、敢闯、敢干、敢首创的担当作为，攻坚克难，直面各种艰难险阻,不断探索,以十足的闯劲开辟新天地、开创新局面。要凝聚共识谋发展，争取主要领导支持，达成发展果业产业的共识，形成工作合力，推动我市的果业产业发展实现大跨越，以一域之光为全局添彩。', '乔飞鸿一行先后赴延安市宜川县云岩镇千亩苹果示范园，洛川县苹果科技示范基地、陕西王掌柜农业发展有限公司、西北农林科技大学延安市洛川苹果试验站、国家级洛川苹果科技创新中心、延刚经贸果业有限公司、陕西顶端果业有限公司、园哈哈农业科技开发有限公司等地考察学习，随后在吉县召开总结座谈会。', '市农业农村局二级调研员王红，市乡村振兴研究院副院长杨清，吉县、乡宁县、永和县、隰县、汾西县、大宁县分管农业的副县长，吉县、乡宁县、永和县、隰县、汾西县、大宁县、蒲县7个县的农业农村局长、气象局长，市农业农村局和市气象局相关科室负责同志一同参加考察学习。']</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A15" t="n">
+        <v>23</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>卢正中带队赴曲沃县就乡村振兴和农文旅融合发展工作进行考察学习</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>2024-04-15</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>http://www.anze.gov.cn/xwzx/zwyw/202404/t20240416_339941.html</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>['4月13日，县委副书记、县长卢正中带队赴曲沃县就乡村振兴和农文旅融合发展工作进行考察学习。安泽经济技术开发区党工委书记、管委会主任、政府党组成员刘合生，政府副县长张国强、刘宁，政协副主席、府城镇党委书记翟海元及相关部门负责人参加考察。曲沃县委副书记、县长孙惠生，曲沃经济技术开发区党工委书记、管委会主任孟海河，县委常委、常务副县长杨洋，副县长樊奇选，政协副主席、住建局局长武勇刚及相关部门负责人陪同。', '卢正中一行先后来到晋南钢铁集团、曲沃智慧果蔬产业示范区、智慧菜谷发展服务中心、国胜渔业养殖基地、供港蔬菜基地、张范村新型日光温室彩椒种植基地、诗经山水田园综合体、山西沃美源饮品有限公司等地，详细了解曲沃县设重钢别墅、智慧农业、规模化养鱼、粮菜轮作、大棚彩椒种植和文旅+农旅融合等方面情况。每到一处卢正中都与相关负责人沟通交流，详细询问果蔬种植品种、园区建设规模、销售渠道等内容，深入了解曲沃县在农文旅融合发展方面的实践经验和成功做法。', '孙惠生对卢正中一行表示欢迎，希望进一步加深两县合作交流，互相学习、互相借鉴，共同发展，一道为全市乡村振兴和农文旅融合发展作出积极贡献。', '卢正中表示曲沃县在文旅+农旅融合发展方面产业集聚、优势明显，为乡村振兴注入了强大动能。我县与曲沃地理位置相邻，气候接近，要以此次考察学习为契机，纵深推进“一核两翼”战略，拓展农文旅发展空间，不断提高农文旅特色品牌，推动我县农文旅产业实现更高质量发展']</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A16" t="n">
+        <v>23</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>霍俊波带领考察团赴大同市江苏省开展考察学习和招商引资</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>2024-03-24</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>http://www.fenxi.gov.cn/xwzx/zwyw/202403/t20240325_331317.html</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>['“走出去”学习借鉴经验，“请进来”招商共赢发展。3月18日-21日，县委副书记、政府县长霍俊波带领考察团赴大同市、江苏省扬州市、常州市等地考察学习有机农业、装备制造、智能算力、新能源、“光储直柔”等产业并开展招商引资活动。县委常委、政府副县长王文娟，县直相关单位、勍香镇、佃坪乡负责人参加。', '在大同市灵丘县，考察团一行先后深入大同秦淮数据有限公司，京东集团华北（大同灵丘）智能算力数据中心，红石塄乡车河有机社区、万鑫渔业、云朵驿栈，佳农牧业等地进行考察学习。与相关项目负责人深入交流，详细了解大数据产业项目规划设计、管理运行、经济效益和有机农业、生态旅游、美丽乡村建设等情况。考察团认为灵丘县充分发挥自己的独特优势，优化营商环境，吸引数字信息、大数据等朝阳产业落户建厂，扶持本地企业发展壮大，大力发展特色有机农业产业，这些经验和做法值得学习和借鉴。希望双方今后能开展广泛的交流与合作，共同助力两县经济高质量发展。', '在江苏省扬州市、常州市，考察团实地考察了仪征大数据产业园、中国移动长三角（扬州）算力中心、江苏中兴派能电池有限公司、丰尚农牧装备有限公司、扬州牧美文化科技有限公司、江苏三笑集团有限公司、江苏国强兴晟能源科技有限公司等企业，参观各企业生产车间、展示中心、创新中心等，并与企业负责人深入沟通、座谈交流，详细了解企业发展历程、生产销售、产品研发、经营模式和投资意向等情况。', '霍俊波向各企业介绍了我县经济社会发展情况，他指出，汾西县域资源禀赋、区位优势明显，发展潜力强劲，投资环境优良，诚邀各企业来汾参观考察，期望与各企业开展更多领域的项目合作，共享发展红利，共赢合作未来。汾西将聚焦市场主体需求，丰富完善服务内容，进一步强化项目包装谋划、考察对接、跟踪服务，全流程做好招商引资服务保障工作，加快项目签约和落地建设，为县域经济高质量发展注入强劲动力。', '考察结束后，霍俊波立即主持召开招商引资工作总结会，对外出考察工作进行盘点总结，安排部署下一步招商引资工作。霍俊波强调，分管领导要把招商引资作为一项重要工作，列入重要议事日程，亲自安排部署，常态化调度招商引资项目建设，全力推动招商引资项目落地开工、尽快投产、产生效益。各乡镇要深度挖掘乡贤资源，为“乡贤”搭建沟通交流平台，引导在外“乡贤”返乡投资建设，促进“以乡招商”“以情招商”，切实提升招商引资工作实效；要深度梳理本地资源，进一步围绕香菇、肉牛、清洁能源、装备制造、以工代赈等领域，细化形成招商对标企业，落实好招商引资各项工作。要确定招商工作目标，制定招商工作方案，乡镇党政一把手要亲自谋划，亲自研究，制定好招商计划，主动走出去引进来，真正做到亲力亲为，用心用力抓实抓好，确保项目快落地、快建成、快见效，为全县经济转型发展、高质量发展提供强劲动力。']</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A17" t="n">
+        <v>23</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>杨海林带队到上海市张江科学城学习考察</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>2024-03-18</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>http://www.yicheng.gov.cn/zzzb/ycyw/202403/t20240318_327990.html</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>['3月13日，县委副书记、县长杨海林带队到上海市张江科学城，就科技创新、数字经济、人工智能等方面进行学习考察。县委常委、副县长石广武以及政府办、工信、林业、文旅、产业集聚区、促投等部门负责人参加。', '在张江科学城展示厅，杨海林听取了科学城发展历程及规划建设情况介绍，实地参观了上海光源、上海超强超导激光实验装置以及科学设施、集成电路、航空航天、生物医药、信息技术等重点产业领域的领先成果。', '杨海林还来到张江智荟科技有限公司、上海数据交易所以及张江人工智能岛，详细了解了通过物联感知、能源运营、资产经营等大数据的方式服务园区管理，多元化的数据交易服务、AI医疗、AI教育、数字孪生等方面的内容，与相关负责人进行了座谈交流。', '杨海林表示，张江科学城是中国科技创新的前沿阵地，承载了建设具有全球影响力科技创新中心核心区、张江综合性国家科学中心、国家自主创新示范区和上海自贸试验区等诸多国家战略，被誉为“中国硅谷”。当前翼城正在布局建设“数智云谷”智慧产业园，拓展数字赋能科技应用，诚挚邀请张江科学城高新技术、人工智能、数字信创等前沿高新企业到翼城考察洽谈、深度合作，抢占未来发展制高点。', '杨海林强调，我们不仅要学习先进地区科技创新的好经验好做法，更要学习先进的发展理念，要深入贯彻落实中央、省、市两会精神，准确把握新质生产力的科学内涵，抢抓新一轮科技革命和产业变革机遇，进一步解放思想、开拓视野，大力发展数字经济、未来产业，实现弯道超车、换道领跑，为实现“三个努力成为”贡献翼城力量。']</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A18" t="n">
+        <v>23</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>深入学习贯彻习近平总书记在全国科技大会和在青海宁夏考察时的重要讲话精神</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>2024-06-28</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>https://www.shanxi.gov.cn/ywdt/zwhd/202406/t20240628_9597372.shtml</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>['深入学习贯彻习近平总书记在全国科技大会和在青海宁夏考察时的重要讲话精神 - 山西省人民政府', '研究部署防汛抗旱、耕地保护和粮食安全、巩固拓展脱贫攻坚成果同乡村振兴有效衔接等工作 省委书记唐登杰主持召开省委常委会会议', '6月27日，省委召开常委会会议，传达学习贯彻习近平总书记在全国科技大会上、在青海宁夏考察时的重要讲话精神和对防汛抗旱工作的重要指示精神，听取我省耕地保护和粮食安全责任制工作落实、2023年度市县党委和政府巩固拓展脱贫攻坚成果同乡村振兴有效衔接考核情况汇报，审议通过《山西省2023年度国家巩固拓展脱贫攻坚成果同乡村振兴有效衔接考核评估反馈问题整改工作方案》。省委书记唐登杰主持会议。', '会议指出，习近平总书记在全国科技大会上的重要讲话，为做好新时代科技工作指明了前进方向、提供了根本遵循。要深刻领会习近平总书记重要讲话精神的丰富内涵、精髓要义和实践要求，立足山西实际，发挥比较优势，不断强化科技的战略先导地位和根本支撑作用，为加快实现高水平科技自立自强、建设科技强国作出山西贡献。要扎实推动新型举国体制山西实践，完善党对科技工作领导的体制机制，积极融入国家战略科技力量建设，构建具有山西特色的区域科技创新体系。要推动科技创新和产业创新深度融合，强化企业科技创新主体地位，因地制宜培育和发展新质生产力。要以高质量建设晋创谷等创新平台为抓手，加强创新资源优化配置，进一步完善省域科技创新布局。要深化教育科技人才体制机制一体改革，完善科教协同育人机制，加快培养造就创新型人才队伍。要加强科技领域对外开放合作，主动对接国内外创新资源，更好承接产业转移和人才流动。', '会议指出，要把深入学习贯彻习近平总书记在青海、宁夏考察时的重要讲话精神，同学习贯彻习近平总书记对山西工作的重要讲话重要指示精神结合起来，坚持以科技创新引领产业创新，加快构建体现山西特色和优势的现代化产业体系。着力深化重点领域改革，打造更具竞争力的内陆地区对外开放新高地。加强普惠性、基础性、兜底性民生事业建设，不断增进民生福祉。全方位、全地域、全过程开展生态文明建设，筑牢黄河中游和京津冀地区重要生态屏障。全面贯彻新时代党的民族工作大政方针和宗教工作理论、方针政策，切实维护宗教和顺、社会和谐、民族和睦。深入开展党纪学习教育，持续深化整治形式主义为基层减负，以优良党风凝聚人心、引领社会风气。', '会议指出，要认真贯彻落实习近平总书记对防汛抗旱工作的重要指示精神，准确把握今年汛情旱情的复杂性严峻性，强化风险意识、底线思维，进一步强化监测预警，排查风险隐患，备足装备物资，完善工作预案，认真做好防汛抗旱各项工作。当前要扎实抓好抗旱保灌溉保供水工作，确保城乡居民饮水安全。', '会议指出，要深入学习贯彻习近平总书记关于耕地保护和保障国家粮食安全的重要论述，提高政治站位，心怀“国之大者”，落实党政同责，深入实施藏粮于地、藏粮于技战略，持续推进耕地保护整治提升行动，加大高标准农田建设投入和管护力度，着力提升粮食生产能力，为保障国家粮食安全作出山西贡献。', '会议指出，要全面贯彻落实党中央关于巩固拓展脱贫攻坚成果同乡村振兴有效衔接的决策部署和工作要求，扎实推进防止返贫动态监测帮扶、强化产业就业支撑、促进脱贫人口持续稳定增收、建设宜居宜业和美乡村等重点工作，较真碰硬抓好问题整改，牢牢守住不发生规模性返贫的底线，长效巩固拓展脱贫攻坚成果，为推进乡村全面振兴打下坚实基础。']</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A19" t="n">
+        <v>23</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>采撷他山之石共促全面发展我县组织考察团赴乡宁县考察学习</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>2024-05-20</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>http://www.puxian.gov.cn/xwzx/zwyw/202405/t20240520_352931.html</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>['5月17日，县委书记杨晓舟，县委副书记、县长薛向阳带领考察团赴乡宁县就学习运用“千万工程”经验推进农村人居环境整治、产业发展、乡村振兴、文旅融合、城市建设等方面典型经验进行考察学习，进一步解放思想、转变观念、改进作风，将“他山之石”化作奋进的不竭动力，推动我县高质量发展全面提质提速。县领导邱波、宋蒲刚、张鹏，县直有关部门及各乡镇主要负责同志参加考察。乡宁县县委书记杨建军，县委副书记、组织部长张曙光，县人大常委会主任刘建平，县政协主席高国荣，县委常委、政法委书记张保平陪同考察。', '考察团一行先后前往乡宁县戎子酒庄、昌宁镇龙鼻村省级乡村振兴示范村、乡宁生态文化旅游示范区黄河特色生态产业园紫砂陶小镇等地进行实地考察学习。每到一处，大家都仔细听、认真看，详细了解乡宁县在农村人居环境整治、产业发展、乡村振兴、文旅融合、城市建设等方面的成果和经验，并就相关工作进行深入交流。', '考察团成员纷纷表示，乡宁县在践行“千万工程”经验、推动产业发展、谋划城市建设上定位高、思路清、举措实、成效显著，值得认真学习借鉴。此次考察开阔了视野、拓展了思路，将以此次考察为契机，认真学习兄弟县（市、区）先进的发展思路、超前的发展意识和干事创业的决心，对照先进寻不足，依托资源谋发展，进一步解放思想、认真研究、归纳总结，真正把考察学习成果转化为创新思路和务实举措；将结合我县实际，加快培育新产业、新业态，全力构建现代农业产业体系；将围绕群众所需所盼，找准发力点，切实抓好农村人居环境整治和美丽乡村建设。']</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A20" t="n">
+        <v>23</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>我市考察团赴晋城考察学习</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>2024-04-20</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>https://www.houmatv.com.cn/web_uni/#/pages/news/news-detail/news-detail?news_id=22623</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>['4月18日，市委书记吴勇带领考察团到晋城城区、晋城泽州县、沁水县，围绕文旅振兴、公共服务、基础设施一体化发展乡村治理、人居环境改善、改革赋能、古镇复兴、沁河生态经济带生态综合治理、沁河流域古堡保护及活化利用进行考察学习。泽州县委书记张军，城区区委副书记、区长范永星，沁水县委副书记、县长闫晋中先后陪同考察，我市领导陈艳刚、白永明、田伟、梁效杰及相关部门负责人一同考察。', '吴勇一行先后来到晋城城区司徒村、大张村，泽州县巴公镇南山村、大阳等地实地考察，深入学习了解城区、泽州县文旅康养融合发展、乡村振兴等工作。', '司徒村依托千年古村落的优势，深入挖掘本土历史民俗文化，加快推进文旅产业发展，壮大了村集体经济，带动了村民就业增收。2021年，司徒村探索“文化输出”发展模式，将司徒小镇的成功经验输向全国市场，迈出了品牌输出、产业盘活、托管运营、共同实现乡村振兴的步伐。考察团一行来到司徒村，深入了解该村以产业为支撑实现村民共同富裕的情况。吴勇指出，“千万工程”是习近平总书记在浙江工作时亲自谋划、亲自部署、亲自推动的一项重大决策。要以此次考察为契机，认真学习借鉴泽州的先进经验和成功做法，结合我市实际与当前工作重点，找准突破口，切实将学习成果转化为促进发展的实际行动。要强化产业带动，因地制宜，积极谋划，做大做强文旅康养产业，大力实施“特”“优”战略，加快推动我市文化旅游和乡村振兴高质量发展。', '北石店镇大张村和巴公镇南山村深入推进自治、法治、德治三治融合，大力推进文明城市创建，成为了全国文明村庄。考察团一行边走边看，实地察看村庄公共服务、基础设施⼀体化发展、乡村治理和人居环境改善等情况。吴勇指出，泽州县坚持党建引领，加快推进乡村善治，一批村庄取得了显著成效。我市要认真借鉴泽州县的好经验、好做法，不断完善基础设施，加快推进城乡基础设施、交通、教育、医疗、治理一体化，进一步推动基础设施向农村延伸、公共服务向农村覆盖、要素资源向农村流动。要综合分类施策，结合村庄特色，推出一批示范村庄，引领推进环境整治、产业振兴、基层治理、激发活力等方面重点任务，实现农业生产、农村建设、乡村生活生态良性循环，全力绘就乡村振兴美丽画卷。', '大阳古镇积极探索实践“四块地”改革，通过“整治入市、租赁流转、作价入股、自我盘活”四种模式，盘活土地资源，创新联农带农机制，发展文旅康养产业，成功打造国家4A级旅游景区，成为观光、演艺、餐饮、住宿、文创、购物等业态齐全的旅游集散地。在大阳镇区，考察团一行参观了改革赋能和古镇复兴情况。吴勇要求，要借鉴大阳古镇在改革创新发展方面的经验做法，因地制宜，突出特色，立足我市文旅康养产业发展实际，找准功能定位、合理布局业态，不断提升内涵品质，加快推动文旅康养产业、一二三产业融合发展。要完善利益联结机制，吸引企业、社会共同参与，尊重农民主体地位和首创精神，让广大农民成为乡村发展、建设、治理的参与者和受益者，努力建设宜居宜业和美乡村，合力推进乡村振兴出成果、见实效。', '在沁水县，考察团先后来到三河口湿地公园、郑村镇湘峪村等地，详细了解沁水县沁河流域水生态综合治理、古堡保护及活化利用工作。', '三河口节点水生态综合治理项目总投资2.9亿元，是百里沁河生态经济带建设先行区的重点项目。沁水县坚持“提品质、出精品、创经典”，围绕“两山七河一流域”生态保护修复工作的部署要求，将百里沁河生态经济带沁水段建设积极融入“大盘子”，仅仅5个多月时间，百里沁河生态经济带（沁水段）水生态综合治理项目主体完工，沁河（沁水段）实现了“河畅、水清、岸绿、景美、人和”愿景。吴勇指出，沁水县立足实际，充分发挥资源禀赋、产业基础和区位优势，因地制宜推进水生态治理、人居环境整治、古堡保护及活化利用和文旅康养提档升级，成绩斐然、成效显著。要充分借鉴沁水水生态治理的先进经验，结合我市实际，在汾河和浍河水生态治理上下功夫，强化基础设施建设，改善公共设施，做到连片开发、整体推进、集中整治。要将河道作为一种可利用的资源，用足用活国家财政政策、土地政策、融资政策，加快破解资金短缺、土地制约等方面难题，高起点、高标准实施汾浍综合治理工程，全力打造河畅、水清、岸绿、景美的风情线，实现保护治理与高质量发展的有机统一。要将大保护的理念走深走实，坚持在开发中保护，在保护中开发，做足做活水文章。要精心组织施工，高标准、高效率、高质量推进汾浍水生态治理工程建设，实现河道生态治理、景观打造、乡村振兴，形成生态产业带。']</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A21" t="n">
+        <v>23</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>拓宽视野谋发展探访名校取真经我县赴晋城市名校考察学习</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>2024-05-20</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>http://www.puxian.gov.cn/xwzx/zwyw/202405/t20240522_354108.html</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>['5月17日，副县长李中暄，县政协副主席贺振英带领县教科局负责同志及中学校长赴晋城市考察学习。走进名校、悉心取经，旨在进一步开阔视野，深度学习名校办学理念和办学特色创建的成功经验，体验优秀校长丰富的管理内涵和精湛的管理技巧，切实提高现代学校的管理水平，从而推动我县教育高质量发展和全面提升。', '考察学习中，李中暄、贺振英一行前往晋城市晋城一中丹河校区、实验中学、晋城一中主校区，通过实地参观、座谈、交流等方式，一路看一路学一路思，先后参观了校园环境，了解了学校发展历史和校园文化建设，领略了学校的历史和近年来取得的成就；观看了学校特色文化宣传片；听取了学校育人理念、办学特色、培优培尖经验、班级管理和家校协同共育经验。', '李中暄指出，晋城名校多元培优、文化润心、课程建设、特色育人、教研增效、管理提效、队伍建设、平台搭建等都是此行学习的主要成果。希望通过此次考察学习，与晋城市名校在教育领域建立更紧密的交流合作关系，紧跟名校步伐，要学习先进学校的理念、智慧和创新精神，对教育要有独特的体悟、治学的策略。学习名校精细化管理举措，推动我县教育管理、教学教研等工作走更精、更细、更严、更实之路。学习名校挖掘本校特色文化，系统化创设校园育人环境的做法，树立文化理念，凝聚文化力量，形成文化精神，推动学校内涵发展。下一步，将学习的成果转化成蒲县教育高质量发展的营养补剂，在巩固好自身优势的基础上，提升学校办学质量，推出有针对性的举措措施，推动蒲县教育工作再上新台阶。']</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A22" t="n">
+        <v>23</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>胡晓刚副市长带队赴晋城市考察学习开发区建设工作</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>2024-05-24</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>http://swj.linfen.gov.cn/xwzx/swdt/202405/t20240524_354862.html</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>['5月21日-22日，胡晓刚副市长带队赴晋城市考察学习开发区建设、产业发展、招商引资、项目建设等方面先进经验做法。市政府副秘书长、办公室副主任胡建军，市商务局局长白岗峰和全市工业类开发区主要负责人参加。', '不锈钢智慧产业园考察了精密不锈钢制品项目、蔡志忠美术馆、山西众禾壹心集团有限责任公司日产', '参观了光机电产业园“以光逐梦”展厅、学习晋钢光伏装备产业园以商招商经验，在山西智绘沧穹科技有限公司调研智能商用机器人和人工智能项目，学习把握消费品以旧换新政策机遇、完善产业布局经验；', '考察演礼新兴科技产业园征弘农产品深加工项目、龙焱碲化镉薄膜光伏生产项目、华冠陶瓷展厅及生产线项目等。', '考察过程中，大家边走边看边交流，边学边记边思考，并就相关具体问题进行深入交流探讨。大家纷纷表示，要以此次考察学习为契机，加强与兄弟地市沟通联系，认真借鉴晋城市开发区在产业布局、科技创新、招商模式等方面的好经验、好做法，充分将此次考察成果运用到具体工作中，全力推动我市开发区提质升级。', '胡晓刚副市长指出，全市各开发区要认真学习借鉴晋城市在开发区建设、产业链精准招商、科创成果转化应用、培育壮大新兴产业等方面的先进理念经验和创新举措，把学习收获转化为工作实践，创新发展思路，强化顶层设计，发挥主观能动性，全力破解产业发展、招商引资、项目建设等方面遇到的问题，推动各项工作不断迈上新台阶，努力把开发区打造成为全市经济社会发展的主战场、主引擎、主阵地。']</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A23" t="n">
+        <v>23</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>赵松强带队赴山东青岛市明月海藻集团考察学习对接项目</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>2024-04-16</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>http://www.zgjx.gov.cn/xwzx/zwyw/202404/t20240417_340377.html</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>['4月15日，县委书记赵松强带队赴山东青岛市明月海藻集团考察学习、对接项目。现代农业产业示范区党工委书记、管委会主任王志宏，政府副县长葛宏，现代农业产业示范区党工委副书记、管委会副主任赵洪文一同考察对接。', '青岛明月海藻集团是一家以大型褐藻为原料生产海藻生物制品的高技术企业，公司致力于海藻活性物质的深度开发和应用，是全球规模最大的海藻生物制品生产企业。集团拥有海藻功能原料产业、海洋健康产品产业、海洋生物医药产业、海洋生态肥料产业、海洋文化旅游产业五大产业板块，在以海藻基因为蓝本的高端宠物食品的研发行业中，处于全国领先水平，打造了行业内独有的海藻活性类宠物食品。', '赵松强一行先后参观了明月海藻生物科技馆、海洋食品加工与安全控制全国重点实验室以及海与宝宝果泥、安欣宠物食品、藻源海藻肥等生产线。随后，与集团负责人召开座谈会，就苹果果酱果汁、冻干宠物食品、海藻有机肥、产学研文旅融合等项目进行对接交流，并达成战略合作协议。赵松强指出，现代农业产业示范区管委会及相关职能部门要主动跟进，加强后续对接，推动意向项目尽快签约落地，并欢迎企业来吉参观考察、投资兴业，吉县将全力提供最好服务和最优环境，不断深化拓展合作领域，推动双方合作实现互利共赢。']</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A24" t="n">
+        <v>23</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>晋城市政府考察组来临考察学习</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>2024-03-11</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>http://www.linfen.gov.cn/yw/zwyw/202403/t20240311_325335.html</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>['3月8日，晋城市副市长黄登宇率队来我市考察学习医保DRG支付方式改革、长护险、医保反欺诈大数据应用监管等方面的先进经验。市委常委、洪洞县委书记张潞萍，市政府办公室、市医保局相关负责人陪同。', '考察组一行先后来到洪洞县人民医院和洪洞县中医医院新址实地参观，现场听取医疗保障工作开展情况、管理经验及先进理念。', '座谈会上，双方围绕医疗保障工作进行了深入交流。市医保局负责人详细介绍了我市DRG支付方式改革、长护险、医保反欺诈大数据应用监管等方面工作的主要做法、工作成效等，洪洞县人民医院负责人介绍了实施DRG支付方式改革后，医院在医疗费用、次均费用、运营效率、成本控制以及医保基金使用效能等方面的情况。', '考察组表示，临汾市在医保支付方式改革方面积累了宝贵经验，在保障参保人员权益、控制医保基金不合理支出等方面取得积极成效，非常值得学习和借鉴。双方表示将进一步加强经验交流，进一步做好医疗保障工作，为参保人提供更高质量、更加便捷的医疗保障服务。']</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A25" t="n">
+        <v>23</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>薛向阳带队赴广灵县考察学习教育高质量发展工作</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>2024-03-08</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>http://www.puxian.gov.cn/zzzb/pxyw/202403/t20240308_324327.html</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>['3月5日，县委副书记、县长薛向阳带领相关部门负责同志赴大同市广灵县考察学习教育高质量发展工作，副县长李中暄、县政协副主席贺振英一同考察，广灵县委常委、副县长曹利强等陪同考察。', '薛向阳一行先后来到广灵三中、广灵一中，实地观摩了学校基础设施建设、教育教学工作开展等情况，并与各学校负责人深入交流探讨，详细了解该县教育发展历程、办学理念、教育教学管理、教师队伍建设等教育工作方面的先进做法和特色亮点。', '在随后召开的座谈会上，薛向阳一行听取了教育质量长效机制的建立健全、教师队伍优秀人才引进和高中考备考、教育教学管理等方面的先进经验介绍，与会人员与广灵县各学校校长围绕如何做好教育教学工作进行了互动交流。', '薛向阳对广灵县委、县政府高度重视、优先发展教育给予高度评价。希望双方以此次考察为契机，拓宽合作领域、丰富合作形式，持续加强交流沟通，实现优势互补。', '薛向阳强调，教育是民族振兴、社会进步的重要基石。此次外出考察学习到的先进经验、创新做法是推动教育高质量发展的有益参考。在今后工作中，要坚持把教育作为全局性、战略性、基础性工程，加大投入，改善条件，不断健全学校管理机制，创新办学理念，加强师资队伍建设，努力办好人民满意的教育。考察团成员要虚心学习、认真思考，消化吸收、主动求变，结合我县教育事业发展实际，明确方法路径，确保将学习成果转化为推动全县教育事业高质量发展的生动实践。']</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A26" t="n">
+        <v>23</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>赵晨伟一行赴河南省兰考县考察学习</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>2024-03-05</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>http://www.fushan.gov.cn/xwzx/zwyw/202403/t20240305_322926.html</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>['3月1日，县委书记赵晨伟一行前往河南省兰考县，就农村能源革命试点建设、零碳村庄建设、新能源产业发展等工作开展考察调研。临汾市能源局党组书记、局长刘鹏，国网山西临汾供电公司总经理韩丽，临汾市能源局党组成员、副局长张俊林，政府副县长李晶及国网山西经研院规划中心、县委办、县产业集聚区发展服务中心、县发改工信和科技商务局、国网浮山供电公司相关负责人参加考察。', '赵晨伟一行先后前往兰考县国电投清洁能源创新中心、兰考三农职业学院地热站、三义寨乡付楼村、国电投产业园、智慧能源馆等地，通过实地查看、现场交流、观看成果展示，详细了解农村能源革命、农村能源互联网平台建设、地热应用示范项目、零碳村庄建设和新能源产业发展等情况。', '赵晨伟指出，开展能源革命综合改革试点、保障国家能源安全是山西的重大使命任务。要深入学习领会习近平总书记关于能源革命的重要论述，以打造农村能源革命试点县为契机，将能源转型视为发展重点，助力农民增收、农业增产和农村社会建设，推动乡村振兴战略实施。我县将以此次观摩学习为契机，进一步加强与兰考县沟通，在能源产业和招商引资等方面加深交流，互相学习、共同进步，把此次学习成果转化为生动实践，努力探索一条可复制、可推广的农村能源科学发展之路，推动县域经济发展再上新台阶。']</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A27" t="n">
+        <v>23</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>县政府赴平遥古城考察学习</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>2024-02-21</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>http://www.guxian.gov.cn/xwzx/zwyw/202402/t20240222_318158.html</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>['具有2800多年历史的平遥古城是山西境内仅有的三个世界文化遗产之一，也是中国目前保存最为完整的四座古城之一。“平遥中国年”在2015年被选为中国首家全球中华春节文化符号推广基地后，已逐渐成为海内外游客的春节“打卡地”。平遥古城的年味儿如何打造？文旅活动有哪些值得学习借鉴的地方？2月19日，县委副书记、政府县长刘泳带队赴平遥古城考察学习文化旅游、节气活动、城市建设等工作。他强调，要持续深入学习贯彻党的二十大精神和习近平总书记对山西工作的重要讲话重要指示精神，全面落实省委十二届七次全会暨省委经济工作会议、市委五届七次全会暨市委经济工作会议精神，紧紧围绕县委“1234”工作重心，立足县域实际，主动学习借鉴，创新思路措施，推动文旅融合发展走深走实，全力打造“一城一区一园四地”，勇当沿太岳板块高质量发展全面提质提速排头兵。平遥县县委副书记、县长冯玉全，平遥县县委常委、副县长杜晓宇热情陪同相关活动。县委常委、宣传部部长李国锋，副县长周兴、刘红亮，县住建、文旅、文联、融媒体等部门主要负责同志，岳阳镇、三合镇镇长，牡丹景区旅游开发公司主要负责人参加。', '人称平遥有三宝，古城墙便是其一。济济城垣，环周屹立，横亘绵延的平遥古城墙用险制塞，风华褪尽，余韵仍在，见证时代的变迁，至今保持着明清两代的城墙风貌，六座瓮形城门布局独特，使古城呈乌龟形状，城墙上还排列着整齐的“马面”。考察团成员拾级而上，登上城墙，俯瞰古城全貌，了解古代筑城的构思、艺术及平遥古城独有的寓意文化，遥想当年攻守之战的场景。大家一致认为，要坚守为国家、为民族保护文物遗产的情怀，统筹好文物资源开发保护，筑牢文物安全底线，守护好宝贵财富，做中华优秀传统文化的保护者和传承者。', '平遥县衙坐落于平遥古城中心，始建于北魏，定型于元明清，距今已有六百多年的历史。是中国现有保存完整的四大古衙之一，也是全国现存规模最大的县衙。整个建筑群主从有序，错落有致，结构合理。绵延几百年的朝代更迭，留下了独特而厚重的历史文化，后世誉为“平遥县衙，古衙之最”。县衙大堂前，一位“县令”操着抑扬顿挫的北方音腔升堂断案，干练睿智的断案技巧、抽丝剥茧式的缜密推理，令人为之击节叹服。听到景区负责人介绍尽管表演情景时常变换，但清政为民、惩恶扬善却是不变的主题，加之随处可见的关于爱民勤政的楹联、格言等，成员们内心深受触动，在仔细了解县衙保护管理、廉洁文化传承等经验做法的同时，更是对进一步挖掘弘扬我县红色文化提出自己的见解建议。', '日昇昌票号，中国历史上第一家票号，是专营银两异地汇兑、存放款业务的私人金融机构，由山西平遥商人李大全、雷履泰创办，从清道光初年成立票号到歇业，历经一百多年，曾经“执中国金融之牛耳”，分号遍布全国35个大中城市，业务远至欧美、东南亚等国，以“汇通天下”著称于世，在中国近代史上独领百年风骚，在中国乃至世界金融史上写下了卓越篇章。如今，日昇昌票号已经不再是商业机构，而是被改造成了中国票号博物馆，成为了展示中国古代银行业发展历史的场所。置身于博物馆内，成员们不时驻足细细参观陈列的丰富展品，感悟晋商精准审度的眼光和敢为人先的胆量魄力，学习与现代企业制度相近的企业结构和管理运作模式，并就如何提升牡丹景区管理运营，与管理人员进行深入探讨请教。', '天色渐晚，张灯结彩的古城街巷，游客摩肩接踵，处处弥漫着祥和欢乐的氛围。恰逢2024“平遥中国年”活动举办期间，平遥3D灯光秀在迎熏门城楼前准时上演，“混沌、势起、成就、万象、归一”五个篇章，从地域历史、社会文化、民风民俗、今日辉煌、美好未来等方面全方位展示了平遥古城，真正通过科技手法让千年古城“活”了起来。短短的18分钟，考察团成员目不转睛，切身感受这震撼人心的光与影、声与图的完美结合。', '时间虽短、收获颇丰。成员们你一言、我一语，相互交流所见所想、所思所感，表示要立足我县历史文化底蕴和旅游资源禀赋，在旅游业态打造、文物保护、商业开发等方面再下功夫，推动文旅深度融合发展，全力释放城市发展新动能。（王 琬）']</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A28" t="n">
+        <v>23</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
           <t>山西省赴京津冀学习考察团在北京天津河北学习考察</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>2024-02-28</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>https://www.shanxi.gov.cn/ywdt/zwhd/202402/t20240227_9509059.shtml</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>['服务重大国家战略 携手共赢美好未来 高站位宽视野实举措深度融入京津冀 - 山西省人民政府', '在京津冀协同发展重大国家战略实施10周年的重要时刻，2月26日至27日，山西省赴京津冀学习考察团先后在北京、天津、河北学习考察，并分别召开工作座谈会，深入贯彻习近平总书记关于京津冀协同发展的重要论述精神，把握国家支持山西省与京津冀地区加强协作实现联动发展重大机遇，学习借鉴三省市推动高质量发展和现代化建设的好经验好做法，以更加积极主动的姿态加快融入京津冀协同发展，共同谱写合作交流新篇章。天津市委书记陈敏尔，市委副书记、市长张工，北京市委副书记、市长殷勇，河北省委副书记、省长王正谱，山西省委副书记、省长金湘军分别参加有关活动及座谈交流。', '工作座谈会上，北京、天津、河北三省市负责同志充分肯定山西各方面工作。指出，三晋大地是华夏文明发祥地之一。近年来，山西省坚决落实习近平总书记对山西工作的重要讲话重要指示精神，聚焦“三区三地”建设，推动能源革命、产业升级、民生保障、生态环保等各项事业取得新成就。京津冀协同发展是习近平总书记亲自谋划、亲自部署、亲自推动的重大国家战略，也为进一步深化京津冀与山西合作带来了机遇、指明了方向。京津冀与山西地缘相近、人缘相亲、渊源深厚，合作基础扎实、前景广阔。要进一步发挥各自优势，密切交流交往，加强互学互鉴，深化各领域务实合作，更好探索发展新质生产力的新路径，共同为推进中国式现代化贡献力量。', '受省委书记唐登杰委托，金湘军代表省委、省政府对京津冀三地经济社会发展取得的重大成就表示祝贺，对长期以来给予山西发展的大力支持表示感谢。他说，近年来，北京、天津、河北在以习近平同志为核心的党中央坚强领导下，高质量发展成果丰硕，创造的好经验好做法值得我们学习借鉴。山西毗邻京津冀，加强协作实现联动发展，是服务重大国家战略、加快转型发展的题中之义。当前，全省上下正深入贯彻习近平总书记对山西工作的重要讲话重要指示精神，久久为功推动高质量发展，深化全方位转型。山西与京津冀合作基础坚实、潜力巨大、前景广阔。希望在能源绿色发展、产业升级、生态环保、教育科技人才、交通基础设施、文旅康养、对外开放等领域加强高水平务实合作，以协同联动发展新成效为全国发展大局作出更大贡献。', '在北京期间，学习考察团参观了中关村国家自主创新示范区展示中心，实地察看区块链、人工智能、智能制造、氢能储能等前沿科技成果，了解京晋科技合作情况。在天津期间，学习考察团参观了国家会展中心（天津）、天津软件园河西园、哈电国际工程（天津）有限责任公司。其间，省政府与天津市政府签署了战略合作框架协议。在河北期间，学习考察团走进雄安规划展示中心、容东片区城市建设现场、雄安科创中心、东西轴线调度中心，了解雄安新区规划建设、科技创新等情况，零距离感受雄安新区“千年大计、国家大事”由宏伟蓝图变美好现实的生动实践。', '北京市领导夏林茂、于英杰，天津市领导刘桂平、王力军、朱鹏，河北省领导赵大春，省领导吴伟、卢东亮，京津冀及我省相关部门单位负责同志参加有关活动。（张巨峰）']</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A29" t="n">
+        <v>23</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t>我县考察团赴临汾市考察学习市政工程绿化建设及跨年活动等工作</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>2024-01-01</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>http://www.guxian.gov.cn/zzzb/gxyw/202401/t20240102_297022.html</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>['城市更新一头连着民生、一头连着发展，是完善城市综合功能、提升公共服务水平的重要抓手。为持续深入学习贯彻党的二十大精神和习近平总书记对山西工作的重要讲话重要指示精神，全面落实省市部署要求，紧紧围绕县委“1234”工作重心，锚定“一城一区一园四地”战略定位，高标高质推进北城新区规划建设和相如里步行街运营管理，12月31日，县委副书记、政府县长刘泳带领考察团赴临汾市考察学习市政工程、绿化建设等工作，参观贡院街跨年活动，实地借鉴城市烟火气打造、城市管理等经验做法。县委常委、宣传部部长李国锋，县住建、工信、文旅、园林中心、文物中心等部门主要负责同志，牡丹景区、紫光公司等企业主要负责人参加。', '城市更新一头连着民生、一头连着发展，是完善城市综合功能、提升公共服务水平的重要抓手。为持续深入学习贯彻党的二十大精神和习近平总书记对山西工作的重要讲话重要指示精神，全面落实省市部署要求，紧紧围绕县委', '战略定位，高标高质推进北城新区规划建设和相如里步行街运营管理，12月31日，县委副书记、政府县长刘泳带领考察团赴临汾市考察学习市政工程、绿化建设等工作，参观贡院街跨年活动，实地借鉴城市烟火气打造、城市管理等经验做法。县委常委、宣传部部长李国锋，县住建、工信、文旅、园林中心、文物中心等部门主要负责同志，牡丹景区、紫光公司等企业主要负责人参加。', '在临汾市城管局副局长洪文斌和市园林中心主任宁良杰的热情陪同下，考察团成员先后来到古城公园三期、西关花苑小区，边听介绍边仔细察看，详细了解城市立体建设、整体绿化、公园布局等工作情况。部分考察团成员表示，虽然实地学习过不止一次，并且常常与上级部门的领导专家请教沟通，但每次都有不同的感受，尤其是从绿化设计、小区亮化、运营管理等方面，更直观系统地学习到做实做好城市建设管理工作的逻辑规律、科学方法、体制机制及工作作风，受益匪浅、获益良多。', '河汾一路快速路，西起滨河东路、东至河汾一路跨铁路桥起点，与河汾一路跨汾河大桥相接，全长3321m。“西起滨河东路由中建三局临汾项目部承建标段，东至鼓楼北大街，总长1742m”“主线桥依次横跨常兴西街、常兴中街、东大街（规划路）、鼓楼北大街，最大跨度72m，建设工期18个月，建设内容包括桥梁工程、交通工程、照明工程及其他附属工程等”，在市政府工程建设服务中心工程建设科负责人侯福林的亲切介绍下，考察团一行认真查看图纸，实地了解工程基本情况、建设进度及施工安全措施落实等情况，纷纷表示，要抢抓“冬季行动”有利契机，千方百计克服困难、合力抓好要素保障，高标准、高质量、高水平推进北城新区规划建设，为高质量发展全面提质提速奠定坚实基础。', '汾河文化生态景区依托临汾城区汾河段而建，东临“卧牛古城”，西临河西新城，北起屯里大桥，南至108国道大桥，全长17.5公里，管辖面积10.6平方公里，其中水域面积3.89平方公里，陆地面积6.71平方公里，陆地绿化面积为3.29平方公里，绿化栽植各种苗木1200万余株，铺筑三级道路100余公里，分为精品治理区和上、下游生态湿地治理区，不仅是临汾的一张绿色生态名片、城市示范区，更是临汾人民的“会客厅”，是临汾人民心中最大的幸福指数。汾河公园管委会主任范维胜对考察团的到来表示热烈欢迎，并陪同成员们漫步其中，从历史沿革、园林布局、园林建筑、绿化设计、苗木种植搭配等进行介绍。大家一致表示，要结合相如公园、十里长廊生态公园、口袋公园等绿化管护现状，不断科学布局、统筹规划，进一步优化园林建设。', '随后，考察团还来到彩虹御苑小区外围台地景观处，现场参观利用梯田式分级落差，采取小龙柏、丛生紫荆、竹子、白蜡树等植物打造出的花墙景观，感受蕴含东方美学、中式园林风格的小区绿化景观设计，并举一反三，就我县住宅小区、园区企业的绿化美化工作提出意见建议。', '贡院是指古代开科取士的地方，临汾贡院街因明清时代的平阳府贡院而得名。作为实施临汾市城市“双品质”建设的成果，经过9个多月的靓城提质改造，如今崭新的贡院街文化气息浓厚，融合了科举、古建、商贾文化，既突出了时代特色又营造出文明古都的深厚底蕴。下午5点半的贡院街，参加跨年活动的人群络绎不绝，沿街商铺的招呼声此起彼伏，可口小吃的香味扑鼻而来......考察团成员置身其中，边走边看边思考，不时被多彩有趣、互动性强的街头灯光艺术装置吸引目光，驻足孔子文化园、舞台表演、街头乐队前，结合我县相如里商业步行街活动策划、运营管理、细节完善等进行现场探讨。大家纷纷表示，节日氛围特别浓厚，“沉浸式”体验感十足，活动热闹又有序，无论是从建筑特色、文化内涵、绿化巧妙组合方面，还是在活动的创意亮点、社会宣传、现场细节把控上，对于相如里商业步行街“烟火气”打造，都有很大的借鉴意义。', '听完大家的发言，刘泳说，不畏差距，但恐自足。差距不找不明，问题不攻不破。新的一年，要继续结合好县域实际，坚定信心、明确目标、对标先进、开拓创新，一如既往把学习到的好经验、好做法运用到各项工作中，以踏踏实实的态度，实实在在的举措，切实为群众幸福生活持续添彩。']</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A30" t="n">
+        <v>23</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
           <t>永和县考察团赴我县考察学习</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>2023-12-31</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>http://www.fenxi.gov.cn/xwzx/zwyw/202401/t20240102_296763.html</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>['为认真落实全市“冬季行动”专题汇报会精神，12月29日，永和县委副书记、政府县长杨景宁带领考察团赴我县，围绕畜牧业提质增效以及全产业链建设等工作进行考察学习。县委副书记、政府县长霍俊波，政府副县长梁虎生一同。', '考察团一行先后来到县气象局、永安镇太阳山村，详细了解气象防灾减灾指挥中心运行及相关业务平台使用情况，实地参观了永安肉牛养殖标准化基地和新希望六和食品有限公司肉鸡屠宰、熟食调理品生产线，以及配套人才公寓、仁和小院、火车景点片区、仟那观山酒店等示范村创建项目。', '考察团认为，我县与永和同处黄金畜牧生产带，自然、地理、人文等条件一致，发展经验可参考、能共享。希望通过考察学习，借鉴我县在畜牧业特色产业标准化、品牌化、智慧化发展方面的好经验、好办法，夯实产业发展基础，提高项目资金投入的精准度和实效性，持续发挥带农助农富农机制，把永和畜禽养殖规模做大、品质做优、管理做细、品牌做强。']</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A31" t="n">
+        <v>23</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
           <t>杨景宁带队到汾西县考察学习交流</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>2023-12-30</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>http://www.sxyh.gov.cn/zfxxgk/zdlyxxgk/zdhyxx/202312/t20231230_296124.html</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>['日，县委副书记、政府县长杨景宁带队到汾西县，围绕畜牧业提质增效以及全产业链建设等工作进行考察学习。县', '贾晓廷，县政府办、农业农村局、乡村振兴局、畜牧中心、发改局、气象局、村投公司及芝河镇、望海寺乡主要负责人参加。汾西县委副书记、政府县长霍俊波，副县长梁虎生陪同。', '统筹抓好县域行政资源融合发展，大力提升气象、消防、森防、应急、耕地、资源等领域信息化综合管理效能，', '和新希望六和食品有限公司肉鸡屠宰、熟食调理品生产线，以及配套人才公寓、仁和小院、火车景点片区、仟那观山酒店等示范村创建项目，详细了解', '夯实产业基础，在品种选育、技术提升、精深加工等方面狠下功夫，着力构建集繁育、屠宰、加工、销售为一体的畜禽养殖全产业链体系']</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A32" t="n">
+        <v>23</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
           <t>习近平在山东日照市考察调研</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>2024-05-24</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>https://mp.weixin.qq.com/s/X1Bogpy1JaB9Q1U8em6vag</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>['22日下午，习近平总书记在山东省日照市考察调研。他先后来到日照港和阳光海岸绿道，了解当地推进港口智慧化绿色化建设、扩大对外开放和加强海岸线生态保护修复、提高人民生活品质等情况。']</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A33" t="n">
+        <v>23</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
           <t>刘泳带队赴临汾经济开发区尧都高新技术产业开发区考察学习</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>2023-11-24</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>http://www.guxian.gov.cn/xwzx/zwyw/202311/t20231127_273259.html</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>['为深入贯彻市委五届六次全会精神和市委、市政府关于“冬季行动”部署要求，落实市委李云峰书记在古县调研时的重要指示精神。11月24日，县委副书记、政府县长刘泳带队赴临汾经济开发区、尧都高新技术产业开发区考察学习。他强调，要持续深入学习贯彻党的二十大精神和习近平总书记考察调研山西重要讲话重要指示精神，全面落实省市部署要求，紧紧围绕县委“1234”工作重心，锚定“一城一区一园四地”战略定位，对标先进、查找差距，开拓思路、谋求突破，全力推动各项工作再上新台阶。县委常委、常务副县长李晶，县开发区管委会副主任马玉林、刘国强、孟繁盛，县工信、统计、大数据中心、项目推进中心、促投等部门及开发区相关部室主要负责同志，盛隆泰达、宏源新能源、新源盛、京合生物等企业主要及业务负责人参加。', '部署要求，落实市委李云峰书记在古县调研时的重要指示精神。11月24日，县委副书记、政府县长刘泳带队赴临汾经济开发区、尧都高新技术产业开发区考察学习。他强调，要持续深入学习贯彻党的二十大精神和习近平总书记考察调研山西重要讲话重要指示精神，全面落实省市部署要求，紧紧围绕县委', '战略定位，对标先进、查找差距，开拓思路、谋求突破，全力推动各项工作再上新台阶。县委常委、常务副县长李晶，县开发区管委会副主任马玉林、刘国强、孟繁盛，县工信、统计、大数据中心、项目推进中心、促投等部门及开发区相关部室主要负责同志，盛隆泰达、宏源新能源、新源盛、京合生物等企业主要及业务负责人参加。', '在临开党工委书记、管委会主任白建成，党工委委员侯剑虹，副科级干部党国栋的热情陪同下，考察团先后来到山西华翔集团股份有限公司、临宜环保产业园、晶旭新能源科技有限公司、尧兴新能源科技有限公司、中部智造科技有限公司、数字产业园等地实地考察。', '山西华翔集团股份有限公司是中国行业百强企业，产品聚焦于白色家电、工程机械、汽车零部件三大行业，多年来白色家电零部件全球市场占有率全球第一，并获得工信部颁发的中国单项冠军示范企业、绿色铸造企业等称号。考察团走进企业车间，实地参观数字化管控系统、华翔精益学校-机加工道场等，看着一台台机器如火如荼运转、一条条生产线开足马力生产，大家纷纷表示，华翔集团作为“5G+工业互联网+智能制造”的标杆为我们的制造业发展提供了有益借鉴和启示，尤其是深耕传统铸造业，深度践行精益管理，使企业效益倍增的做法经验值得每个企业思考学习。', '在临宜环保产业园，考察团一行先后来到大禹治水复合材料有限公司、中凌水环境设备有限公司、临汾农村集体经济格林环保公司、临汾农村集体经济泽江环保科技发展有限公司、临汾农村集体经济泽江环保科技发展有限公司、临汾农村集体经济越华环保科技有限公司，边走边看、边看边问，详细了解企业入驻、发展历程、经营理念、设备生产、产品工艺等，重点询问市村发集团与各公司合作模式。大家饶有兴趣观看洗涤废水通过家电式净化箱生物反应的出水过程，成员们一致表示，要把“千万工程”经验与先进做法结合起来，结合镇村实际，共同促进农村集体不断发展壮大。', '随后，在晶旭新能源科技有限公司、尧兴新能源科技有限公司、中部智造科技有限公司，考察团成员认真考察太阳能光伏组件、BIPV建材系列、太阳能技术和应用产品研发及生产、新能源车辆拆解、智能化轻钢生产线等内容，并结合我县经济技术开发区产业发展现状，与企业负责人围绕紧密结合“双碳”目标，以技术创新和产品创新为先导，整合产业链中下游优势，致力打造研产一体、特色鲜明、助推产业、贡献地方的行业标杆基地进行深入探讨交流。', '临开数字产业园是以数字政府、数字社区、数字工厂为抓手，重点引进和发展电子信息制造、工业互联网、软件、大数据、云计算、人工智能等核心产业，积极对接“360”“浪潮”等链主企业，打造百亿级数字产业园区，引领临汾数字产业新标杆。在360数字安全科技集团有限公司、浪潮云洲（山东）工业互联网有限公司，考察团成员先后参观了360临汾数字城市安全大脑、老虎工业云大数据、数字城市安全运营中心等，深切感受到数字经济带来的强烈冲击。尤其是在参观智慧矿山解决方案模块后，刘泳现场交办政府办公室工作人员与企业负责人互加微信，要求在县煤矿安全周例会上进行详细讲解相关业务，结合数字经济和企业需求，科学设计、合理规划，不断提升煤矿企业本质安全水平，确保社会大局持续稳定。', '彩虹桥东南角彩虹御苑小区外围景观采取台地景观模式，利用梯田式分级落差来修复生态、稳固坡面结构，依势造出台地、梯田、坡地、小丘陵等景观，自下而上层层递进、借势建园，主要采取小龙柏、丛生紫荆、竹子、白蜡树等植物进行设计，打造花墙景观。根据11月21日，市委李云峰书记在盛隆泰达新能源有限公司调研时的讲话精神，在平阳房地产公司董事长任建辉、市园林专家李如意的陪同下，考察团现场参观小区园林绿化景观设计，并纷纷拍照记录，结合企业绿化美化设计现场取经问道，共商企业生态效益与经济效益互动式发展。', '古城公园三期公园以点、线、面为基本的构图元素，以城墙为背景，苍松绿荫与古朴庄严的城墙相互映衬、相得益彰，营造出简洁明快、疏朗大气的景观效果。“整体设计风格是充分借鉴国内外优秀案例”“将采取定期开放公园绿地，让群众更好享受绿色生活”，随着市政府工程建设服务中心主任杨文的详尽介绍，考察团成员置身其中，穿插于阳光草坪，感受简约统一的现代风格景观设计，和在繁华的闹市中营造出清新、雅致、飘逸、现代的城市环境。不禁感慨道，整洁、和谐、绿意盎然的厂区环境不仅可以提升企业形象，更加有利于员工身心健康，助推企业高质量发展行稳致远。', '尧都云商产业园是市委、市政府和尧都区委、区政府倾力打造的数字经济和信创产业基地。目前，已引进字节跳动、百度、360、优炫等全国知名数字经济标杆企业入驻，发展势头良好。在尧都区区委常委、常务副区长马平，副区长孔令泽，尧都高新区管委会副主任马建华的亲切接待下，考察团来到华汉云极信创产业中心、山西正合天科技股份有限公司、山西优炫凌云信息技术有限公司、尧都区乡村e镇公共服务中心、百度智能云（山西临汾）人工智能基础数据产业基地、阿里云（临汾）双碳数字经济产业园，深入了解云商产业园的创立发展、产品体系、研发实力、工作环境等情况，直观感受到大数据发展为社会治理、经济发展、居民生活等提供的便利服务，体会到科技发展对现代生活的重大影响。', '“今天的学习内容丰富又紧密贴合企业需要”“看了这么多行业，启发非常大”“我们还需要组织业务人员深入对接学习细节关键”，你一言我一语，短短半天时间的考察结束，刘泳同考察团成员们站在院落中互相探讨交流心得感受。他叮嘱大家，科技发展日新月异，技术更迭风云变幻，一定不能固步自封，要主动开拓思维、积极学习借鉴，从“小切口”入手，结合各自实际，探索实践符合自身发展的技术方法，确保各项工作落到实处、取得实效。（王 琬）']</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A34" t="n">
+        <v>23</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
           <t>习近平在青海考察时强调持续推进青藏高原生态保护和高质量发展奋力谱写中国式现代化青海篇章</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>2024-06-20</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>https://h.xinhuaxmt.com/vh512/share/12065438?d=134d8ec&amp;channel=weixin</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>['习近平在青海考察时强调 持续推进青藏高原生态保护和高质量发展 奋力谱写中国式现代化青海篇章 - 新华社客户端', '习近平在青海考察时强调 持续推进青藏高原生态保护和高质量发展 奋力谱写中国式现代化青海篇章', '新华社西宁6月20日电 中共中央总书记、国家主席、中央军委主席习近平近日在青海考察时强调，青海要认真贯彻党中央决策部署，完整准确全面贯彻新发展理念，牢牢把握青海在全国发展大局中的战略定位，充分发挥自身优势，坚持深化改革、扩大开放，坚持生态优先、绿色发展，坚持民族团结、共同富裕，在推进青藏高原生态保护和高质量发展上取得更大进展，奋力谱写中国式现代化青海篇章。', '6月18日至19日，习近平在青海省委书记陈刚和省长吴晓军陪同下，深入西宁市的学校、宗教场所等进行调研。', '在果洛西宁民族中学高一（1）班观摩“新时代、新家乡”主题思政课时，同学生亲切交流。 新华社记者 鞠鹏 摄', '在果洛西宁民族中学高一（1）班观摩“新时代、新家乡”主题思政课。 新华社记者 鞠鹏 摄', '6月18日至19日，中共中央总书记、国家主席、中央军委主席习近平在青海考察。这是18日下午，习近平在果洛西宁民族中学高一（1）班观摩“新时代、新家乡”主题思政课。 新华社记者 谢环驰 摄', '6月18日至19日，中共中央总书记、国家主席、中央军委主席习近平在青海考察。这是18日下午，习近平在果洛西宁民族中学高一（1）班观摩“新时代、新家乡”主题思政课时，同学生亲切交流。 新华社记者 谢环驰 摄', '18日下午，习近平首先来到果洛西宁民族中学考察。这是一所隶属于果洛藏族自治州的寄宿制中学，由上海市投资援建。习近平听取上海等东部地区援助青海教育工作和学校建设情况介绍，详细询问学生构成、课程设置、体育锻炼、普通话水平等情况，走进食堂、宿舍楼察看学生就餐和住宿条件，嘱咐食堂工作人员一定要确保学生饮食安全、营养可口。之后，他来到高一（1）班教室，观摩“新时代、新家乡”主题思政课。了解到学校将思政课内容融入日常教学，听了孩子们讲述新时代家乡的可喜变化，看了孩子们的画作，习近平十分高兴。他说，包括教育在内的东西部协作和对口支援取得显著成效，充分彰显了中国共产党领导和中国特色社会主义制度的优势，充分体现了中华民族大家庭的温暖。要把铸牢中华民族共同体意识作为学校思政课的一个重点，讲好中国共产党和中国特色社会主义的故事，讲好新时代以中国式现代化全面推进强国建设、民族复兴伟业的故事，讲好中华民族共同体和民族团结进步的故事，把中华民族共同体意识从小就植入孩子们的心灵。', '6月18日至19日，中共中央总书记、国家主席、中央军委主席习近平在青海考察。这是18日下午，习近平在果洛西宁民族中学考察时，同师生们亲切交流。 新华社记者 鞠鹏 摄', '6月18日至19日，中共中央总书记、国家主席、中央军委主席习近平在青海考察。这是18日下午，习近平在果洛西宁民族中学考察时，同师生们亲切交流。 新华社记者 谢环驰 摄', '6月18日至19日，中共中央总书记、国家主席、中央军委主席习近平在青海考察。这是18日下午，习近平在果洛西宁民族中学考察时，向师生们挥手致意。 新华社记者 谢环驰 摄', '教学楼前广场上，师生们纷纷围拢过来，高声向总书记问好。习近平亲切地对大家说，我到西宁第一站就来看望老师和同学们。上海援建的这所中学，培养来自果洛牧区的各民族孩子，成效明显，意义深远。希望孩子们倍加珍惜这里的良好条件，心怀感恩、好好学习，德智体美劳全面发展，立志成为中国特色社会主义事业的接班人和建设者，努力为自己赢得人生出彩的机会。他祝孩子们学有所成、健康成长。', '6月18日至19日，中共中央总书记、国家主席、中央军委主席习近平在青海考察。这是18日下午，习近平在位于西宁市城中区的宏觉寺考察。 新华社记者 谢环驰 摄', '随后，习近平来到位于西宁市城中区的宏觉寺。在寺前院落，宏觉寺民主管理委员会负责人向总书记敬献哈达，僧人提香炉、持宝伞迎接总书记。习近平参观青海省民族团结进步教育基地展陈等，了解寺庙历史沿革、老一辈革命家关心推动民族工作和宗教工作的情况。他走进大殿，听取寺庙加强日常管理、促进民族团结进步等情况介绍。习近平指出，宏觉寺这座千年古刹，在增进历代中央政府与藏传佛教联系方面发挥了重要的桥梁纽带作用。要保护好这份珍贵的历史文化遗产，为铸牢中华民族共同体意识、促进民族团结进步作出新贡献。要向老一辈革命家学习，把新时代党的统战工作、民族工作、宗教工作做得更好。习近平强调，以中国式现代化全面推进强国建设、民族复兴伟业，需要全国各族人民包括广大信教群众团结奋斗。希望青海藏传佛教界弘扬爱国爱教优良传统，促进宗教和顺、社会和谐、民族和睦，在中国式现代化进程中发挥积极作用。', '19日上午，习近平听取青海省委和省政府工作汇报，对青海各项工作取得的成绩给予肯定。', '习近平指出，青海承担着维护生态安全的重大使命，产业发展必须坚持有所为、有所不为，着力培育体现本地特色和优势的现代化产业体系。要有效集聚资源要素，加快建设世界级盐湖产业基地，打造国家清洁能源产业高地、国际生态旅游目的地、绿色有机农畜产品输出地。坚持科技研发和成果转化两手抓，广泛应用新技术，因地制宜改造提升传统产业、发展战略性新兴产业，培育新质生产力。进一步全面深化改革、扩大开放，优化营商环境，主动对接长江经济带发展等重大战略，推动绿色丝绸之路建设。统筹省内区域协调发展，发挥好西宁、海东、海西支撑作用，因地制宜发展县域经济、特色产业。', '习近平强调，青藏高原生态系统丰富多样、也十分脆弱，加强生态环境保护，实现生态功能最大化，是这一区域的主要任务。要始终坚持生态优先、绿色发展，认真实施青藏高原生态保护法，全面落实主体功能区规划要求，把青藏高原建设成为生态文明高地。坚持山水林田湖草沙一体化保护和系统治理，加快实施重要生态系统保护和修复重大工程，巩固提升生态环境保护成效。重中之重是把三江源这个“中华水塔”守护好，保护生物多样性，提升水源涵养能力。加强以国家公园为主体的自然保护地体系建设，打造具有国家代表性和世界影响力的自然保护地典范。有序推进重点领域节能降碳，发展生态友好型产业，加快构建新型能源体系。', '习近平指出，要切实保障和改善民生，尽力而为、量力而行，多办顺民意、惠民生、暖民心的实事，扎实解决群众急难愁盼问题。统筹谋划基本公共服务设施布局，着力增强基本公共服务的均衡性可及性。乡村振兴要突出农牧民增收这个重点，加快推进高原特色种业振兴行动，发展绿色有机农牧业，打响高原土特产品牌。推进高原美丽乡村建设，推动移风易俗。落实防止返贫监测帮扶机制，确保不发生规模性返贫。继续做好积石山地震灾后恢复重建工作，加强防灾减灾救灾能力建设。', '习近平强调，青海是我国少数民族分布集中的省份，要继续做好民族工作和宗教工作。全面贯彻新时代党的民族工作大政方针，坚持以铸牢中华民族共同体意识为主线，广泛开展民族团结进步创建工作，促进各民族全方位嵌入、广泛交往交流交融。全面贯彻新时代党的宗教工作理论和方针政策，坚持我国宗教中国化方向，依法加强宗教事务管理特别是宗教活动场所管理。', '习近平指出，目前正在开展党纪学习教育，要真抓实学、善始善终，以学纪知纪明纪促进遵纪守纪执纪。大力弘扬以改革创新为核心的时代精神和青藏高原精神，激励党员、干部进一步解放思想、转变观念，锐意进取、担当作为。坚持党性党风党纪一起抓、正风肃纪反腐相贯通，推进作风建设常态化长效化，持续深化整治形式主义为基层减负。完善一体推进不敢腐、不能腐、不想腐工作机制，以风清气正的政治生态引领形成正气充盈的社会生态。', '新华社客户端提供的所有原创内容与设计均受相关法律保护，为新华社客户端及/或相关权利人专属所有或持有。未经许可或明确书面授权，任何人不得复制、转载、摘编、修改、链接新华社客户端内容，违反上述声明者，我们将依法追究其相关法律责任。', '新华社全民拍欢迎广大网民爆料，爆料内容请严格遵守国家法律法规，我们将根据审核制度，及时调查追踪。']</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A35" t="n">
+        <v>23</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
           <t>习近平在宁夏考察调研</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>2024-06-21</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>https://www.gov.cn/yaowen/liebiao/202406/content_6958436.htm</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>['19日下午，习近平总书记在宁夏回族自治区考察调研。他来到银川市金凤区长城花园社区，了解社区发挥基层党组织作用、优化便民惠民服务、推动各族群众交往交流交融等情况。（文字记者：张晓松、朱基钗；摄影记者：鞠鹏、谢环驰、燕雁、翟健岚）']</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A36" t="n">
+        <v>23</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
           <t>习近平在青海考察调研</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>2024-06-20</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>https://www.gov.cn/yaowen/liebiao/202406/content_6958106.htm</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>['18日下午，习近平总书记在青海省考察调研。他先后来到西宁市的果洛西宁民族中学和宏觉寺，了解当地深入推进教育工作东西部协作和对口支援、加强铸牢中华民族共同体意识教育和藏传佛教界弘扬爱国爱教优良传统、促进民族团结进步等情况。（文字记者：张晓松、朱基钗；摄影记者：鞠鹏、谢环驰、燕雁、岳月伟、翟健岚）', '6月18日下午，习近平先后来到西宁市的果洛西宁民族中学和宏觉寺，了解当地深入推进教育工作东西部协作和对口支援、加强铸牢中华民族共同体意识教育和藏传佛教界弘扬爱国爱教优良传统、促进民族团结进步等情况。']</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A37" t="n">
+        <v>23</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
           <t>习近平在青海考察时强调持续推进青藏高原生态保护和高质量发展奋力谱写中国式现代化青海篇章</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>2024-06-21</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>http://www.linfen.gov.cn/zt/qllf/202406/t20240621_365597.html</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>['习近平在青海考察时强调持续推进青藏高原生态保护和高质量发展奋力谱写中国式现代化青海篇章', '中共中央总书记、国家主席、中央军委主席习近平近日在青海考察时强调，青海要认真贯彻党中央决策部署，完整准确全面贯彻新发展理念，牢牢把握青海在全国发展大局中的战略定位，充分发挥自身优势，坚持深化改革、扩大开放，坚持生态优先、绿色发展，坚持民族团结、共同富裕，在推进青藏高原生态保护和高质量发展上取得更大进展，奋力谱写中国式现代化青海篇章。', '6月18日至19日，习近平在青海省委书记陈刚和省长吴晓军陪同下，深入西宁市的学校、宗教场所等进行调研。', '18日下午，习近平首先来到果洛西宁民族中学考察。这是一所隶属于果洛藏族自治州的寄宿制中学，由上海市投资援建。习近平听取上海等东部地区援助青海教育工作和学校建设情况介绍，详细询问学生构成、课程设置、体育锻炼、普通话水平等情况，走进食堂、宿舍楼察看学生就餐和住宿条件，嘱咐食堂工作人员一定要确保学生饮食安全、营养可口。之后，他来到高一（1）班教室，观摩“新时代、新家乡”主题思政课。了解到学校将思政课内容融入日常教学，听了孩子们讲述新时代家乡的可喜变化，看了孩子们的画作，习近平十分高兴。他说，包括教育在内的东西部协作和对口支援取得显著成效，充分彰显了中国共产党领导和中国特色社会主义制度的优势，充分体现了中华民族大家庭的温暖。要把铸牢中华民族共同体意识作为学校思政课的一个重点，讲好中国共产党和中国特色社会主义的故事，讲好新时代以中国式现代化全面推进强国建设、民族复兴伟业的故事，讲好中华民族共同体和民族团结进步的故事，把中华民族共同体意识从小就植入孩子们的心灵。', '教学楼前广场上，师生们纷纷围拢过来，高声向总书记问好。习近平亲切地对大家说，我到西宁第一站就来看望老师和同学们。上海援建的这所中学，培养来自果洛牧区的各民族孩子，成效明显，意义深远。希望孩子们倍加珍惜这里的良好条件，心怀感恩、好好学习，德智体美劳全面发展，立志成为中国特色社会主义事业的接班人和建设者，努力为自己赢得人生出彩的机会。他祝孩子们学有所成、健康成长。', '随后，习近平来到位于西宁市城中区的宏觉寺。在寺前院落，宏觉寺民主管理委员会负责人向总书记敬献哈达，僧人提香炉、持宝伞迎接总书记。习近平参观青海省民族团结进步教育基地展陈等，了解寺庙历史沿革、老一辈革命家关心推动民族工作和宗教工作的情况。他走进大殿，听取寺庙加强日常管理、促进民族团结进步等情况介绍。习近平指出，宏觉寺这座千年古刹，在增进历代中央政府与藏传佛教联系方面发挥了重要的桥梁纽带作用。要保护好这份珍贵的历史文化遗产，为铸牢中华民族共同体意识、促进民族团结进步作出新贡献。要向老一辈革命家学习，把新时代党的统战工作、民族工作、宗教工作做得更好。习近平强调，以中国式现代化全面推进强国建设、民族复兴伟业，需要全国各族人民包括广大信教群众团结奋斗。希望青海藏传佛教界弘扬爱国爱教优良传统，促进宗教和顺、社会和谐、民族和睦，在中国式现代化进程中发挥积极作用。', '19日上午，习近平听取青海省委和省政府工作汇报，对青海各项工作取得的成绩给予肯定。', '习近平指出，青海承担着维护生态安全的重大使命，产业发展必须坚持有所为、有所不为，着力培育体现本地特色和优势的现代化产业体系。要有效集聚资源要素，加快建设世界级盐湖产业基地，打造国家清洁能源产业高地、国际生态旅游目的地、绿色有机农畜产品输出地。坚持科技研发和成果转化两手抓，广泛应用新技术，因地制宜改造提升传统产业、发展战略性新兴产业，培育新质生产力。进一步全面深化改革、扩大开放，优化营商环境，主动对接长江经济带发展等重大战略，推动绿色丝绸之路建设。统筹省内区域协调发展，发挥好西宁、海东、海西支撑作用，因地制宜发展县域经济、特色产业。', '习近平强调，青藏高原生态系统丰富多样、也十分脆弱，加强生态环境保护，实现生态功能最大化，是这一区域的主要任务。要始终坚持生态优先、绿色发展，认真实施青藏高原生态保护法，全面落实主体功能区规划要求，把青藏高原建设成为生态文明高地。坚持山水林田湖草沙一体化保护和系统治理，加快实施重要生态系统保护和修复重大工程，巩固提升生态环境保护成效。重中之重是把三江源这个“中华水塔”守护好，保护生物多样性，提升水源涵养能力。加强以国家公园为主体的自然保护地体系建设，打造具有国家代表性和世界影响力的自然保护地典范。有序推进重点领域节能降碳，发展生态友好型产业，加快构建新型能源体系。', '习近平指出，要切实保障和改善民生，尽力而为、量力而行，多办顺民意、惠民生、暖民心的实事，扎实解决群众急难愁盼问题。统筹谋划基本公共服务设施布局，着力增强基本公共服务的均衡性可及性。乡村振兴要突出农牧民增收这个重点，加快推进高原特色种业振兴行动，发展绿色有机农牧业，打响高原土特产品牌。推进高原美丽乡村建设，推动移风易俗。落实防止返贫监测帮扶机制，确保不发生规模性返贫。继续做好积石山地震灾后恢复重建工作，加强防灾减灾救灾能力建设。', '习近平强调，青海是我国少数民族分布集中的省份，要继续做好民族工作和宗教工作。全面贯彻新时代党的民族工作大政方针，坚持以铸牢中华民族共同体意识为主线，广泛开展民族团结进步创建工作，促进各民族全方位嵌入、广泛交往交流交融。全面贯彻新时代党的宗教工作理论和方针政策，坚持我国宗教中国化方向，依法加强宗教事务管理特别是宗教活动场所管理。', '习近平指出，目前正在开展党纪学习教育，要真抓实学、善始善终，以学纪知纪明纪促进遵纪守纪执纪。大力弘扬以改革创新为核心的时代精神和青藏高原精神，激励党员、干部进一步解放思想、转变观念，锐意进取、担当作为。坚持党性党风党纪一起抓、正风肃纪反腐相贯通，推进作风建设常态化长效化，持续深化整治形式主义为基层减负。完善一体推进不敢腐、不能腐、不想腐工作机制，以风清气正的政治生态引领形成正气充盈的社会生态。']</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A38" t="n">
+        <v>23</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
           <t>五十六个民族凝聚在一起就是中华民族共同体习近平总书记青海宁夏考察纪实</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>2024-06-23</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>http://www.guxian.gov.cn/xwzx/gwyyw/202406/t20240623_365906.html</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>['新华社西宁/银川6月22日电 题：“五十六个民族凝聚在一起就是中华民族共同体”——习近平总书记青海、宁夏考察纪实', '火车在宏阔的黄土高原上疾驰。它穿过山峁，同江河擦肩，驶过沉淀了厚重历史与璀璨文明的黄土地。', '在延安出席中央军委政治工作会议之后，习近平总书记马不停蹄来到青海、宁夏。这次来西北，一条“铸牢中华民族共同体意识”的主线，贯穿始终。', '“邦畿千里，维民所止。”辽阔的疆域是各民族共同开拓的。此刻，正是在共同开拓、耕耘、奋斗的土地上，去思考民族关系、民族工作，去探寻中华民族追求团结统一、矢志伟大复兴的内生动力。', '今年是新中国成立75周年。75年来，我国民族团结进步事业接续发展。五十六个民族如何在多元中铸就一体、在一体中百花齐放？调研，给出了答案。', '下个月，进一步全面深化改革大幕将启。如何为推进中国式现代化进一步凝聚民族团结进步的力量？调研，给出了指引。', '青海和宁夏同属西部。就在两个月前，新时代推动西部大开发座谈会召开。在中国式现代化建设中奋力谱写西部大开发新篇章，调研进一步指明了方向。', '学校、古刹、社区，察情、问计、明理，习近平总书记感慨：“五十六个民族，无论是这个民族还是那个民族，我们都是同一个大家庭，中华民族大家庭。要把中华民族共同体建设好。团结在一起，像石榴籽一样紧紧抱在一起。”', '果洛，地处青海东南部，海拔高、气候恶劣、环境艰苦。上海投资，为果洛在西宁援建了一所寄宿制中学。', '从1996年东西部扶贫协作拉开帷幕，到新时代升级为东西部协作；从给钱给物，到多层次、多形式、全方位的协作格局，资金流、资源流、技术流、人才流向西部奔涌。就拿青海来说，“党中央部署北京等6省市、清华大学等23所高校对口援青，其中教育援青实现了各学段、各地区、人才资金项目全覆盖”。', '习近平总书记是亲历者、推动者。就在前不久，总书记还给四川省南充市之江小学学生写了回信，那正是他在浙江工作时关心推动的对口帮扶学校。', '果洛西宁民族中学的校长常途来自上海。食堂、宿舍、教室，学生构成、课程设置、体育锻炼，他将这里的情况详细介绍给总书记。', '听了介绍，总书记叮嘱道：“孩子们正是长身体的时候。一定要注意饮食卫生。首先是原料采购，一定要是合格的、没有问题、安全的。然后储藏的过程、制作的过程都要注意卫生。在这个基础上饭菜可口，让孩子们吃得营养健康。”', '宿舍窗明几净，房间里还有洗手间。隔壁盥洗室内，洗衣机、吹风机也一应俱全。总书记关切地问：“冬天都有热水吗？”', '教学楼内书声琅琅。走廊上挂着书法作品，笔墨或遒劲或娟秀，有的略显稚嫩。总书记放慢了脚步端详。', '高一（1）班的孩子正上思政课，主题是“新时代、新家乡”。小德川流，大德敦化。国家观、民族观，要从第一颗扣子扣起。', '“我的家乡在果洛州班玛县。”起身说话的女孩名叫尼东拉毛。她举起一幅画作，云端下如诗如画，“以前去放牧的时候要紧跟在牛群后面，牛丢了要满山去找。从骑马放牧，到后来骑摩托车放牧，再到现在有的人家用上了无人机放牧，我的家乡更现代化了。”', '“家里这些电器都有吧？”习近平总书记指着画作问。“有！洗衣机、电视机，样样齐全。”', '总书记亲切地说：“从牧区来到这里，生活习惯会有一些改变，但你们的人生会有更多的机会。”', '高个头的男孩杨顶站起身来：“习爷爷好，我的家乡是果洛州久治县。以前因为交通运输条件差、冷藏技术差，牛羊肉不容易保存。现在，日子大变样……”', '把目光望向历史，能更深切感受到新中国成立以来天翻地覆的改变。“思政课讲近代史吗？”总书记询问。', '习近平总书记颔首赞许：“要把铸牢中华民族共同体意识作为学校思政课的一个重点，讲好中国共产党和中国特色社会主义的故事，讲好新时代以中国式现代化全面推进强国建设、民族复兴伟业的故事，讲好中华民族共同体和民族团结进步的故事，把中华民族共同体意识从小就植入孩子们的心灵。”', '“坚持全国一盘棋，相互帮助，特别是沿海地区要帮助西部地区，发达地区要帮助欠发达地区，都要找准角色。这其中，很重要的一个就是教育对口帮扶，要把孩子们培养好，这有深远的意义。”', '“要珍惜这样的好条件。要立志成为中国特色社会主义事业的接班人和建设者，努力为自己赢得人生出彩的机会。”', '在福建工作期间，习近平同志牵头负责闽宁协作对口帮扶。从“干沙滩”到“金沙滩”，从“移民吊庄”建闽宁村到发展振兴成为闽宁镇，20多年过去了，总书记一直挂念着那里的乡亲们。', '“听说现在建设得很好，也有了特色产业。过去这么艰苦的一个地方，变成了出葡萄美酒的地方，令人感慨和欣慰啊！”', '西宁，地处壮美的达坂山和拉脊山之间。聆听过唐蕃古道上的驼铃声，见证过历史风云的宏觉寺，就坐落在古城西宁的城中区。', '寺前院落，宏觉寺民主管理委员会主任噶尔哇·阿旺桑波敬献哈达，僧人们提香炉、持宝伞，迎接习近平总书记。', '宏觉寺这座千年古刹，在增进历代中央政府与藏传佛教联系方面发挥了重要的桥梁纽带作用，也见证了我们党的老一辈革命家关心推动民族工作和宗教工作的光辉历史。', '国家观、民族观、历史观、文化观、宗教观，一座古寺映照出历史演进和变迁的规律。习近平总书记强调：“要保护好这份珍贵的历史文化遗产，为铸牢中华民族共同体意识、促进民族团结进步作出新贡献。”', '习近平总书记深刻指出：“以中国式现代化全面推进强国建设、民族复兴伟业，需要全国各族人民包括广大信教群众团结奋斗。希望青海藏传佛教界弘扬爱国爱教优良传统，促进宗教和顺、社会和谐、民族和睦，在中国式现代化进程中发挥积极作用。”', '查朗寺，见证了五星红旗升起后果洛草原翻天覆地的变化，也承载着宗教界人士和信教群众对党的拥戴之情。70多年来，查朗寺始终弘扬光荣传统，把爱国爱教作为立寺之本。', '“这对做好民族工作、宗教工作还是有启发意义的。”习近平总书记强调，“要全面贯彻新时代党的宗教工作理论和方针政策，加强对宗教界思想政治引领。”', '70多年来，各民族联系的广度、深度前所未有，我国大散居、小聚居、交错杂居的民族人口分布格局不断深化。互嵌式的社会结构下，如何有序运行、和睦相处？百姓日子过得怎么样？', '社区党群服务中心，一楼的便民服务厅、社区卫生站、爱心超市，二楼的“才艺堂”、舞蹈室，总书记挨个屋子看。', '便民服务厅内，社区工作人员紧忙活。有的做社保，有的沟通妇联的事，有的正处理老兵热线，有的刚入户家访回来。', '老家在哪里，学什么专业，在社区干了多久，收入怎么样，属于什么用工性质，下一步有什么打算……习近平总书记问得格外细。', '“社会治理的重心应该放在基层，城市里社区为老百姓服务最直接。”总书记亲切地说，“一个社区像一个大家庭一样。看到社区的队伍比较稳定，工作热情很高，我还是比较放心的。社区党组织是党联系基层群众的神经末梢。社区党组织建好建强了，社区工作就有了主心骨。”', '“才艺堂”里剪纸、刺绣、纳鞋垫，舞蹈室里的民族歌舞节奏欢快。一静一动，勾勒了社区老年人的美好生活。', '“社区要总结经验、创新思路，把为居民群众的服务做深做细做到位，努力越做越好。让退休居民既要老有所养、老有所乐，又要老有所为。”', '走在社区，阳光、绿道、楼房，处处是生机。汉、回、满、蒙、藏等各族群众在这里和睦相处。', '赵守成的孙子上五年级，一堆奖状里最耀眼的是年级跑步第一名。总书记肯定道：“孩子要德智体美劳全面发展。”', '“民族团结非常重要，我们五十六个民族要像石榴籽一样紧紧抱在一起。五十六个民族凝聚在一起就是中华民族共同体，中华民族是一个大家庭。我们共同奋斗，一起推进中国式现代化，实现中华民族伟大复兴！”', '艰苦卓绝的脱贫攻坚战，总书记盯紧了民族地区、民族群众。2016年在宁夏考察，他曾“就地取材”比喻道：“就像六盘山是当年红军长征要翻越的最后一座高山一样，让贫困人口全部脱贫，是我们全面建成小康社会必须翻越的最后一座高山。”', '在青海省委和省政府工作汇报会上，习近平总书记强调：“青海45个县市区，有42个脱贫县。巩固拓展脱贫攻坚成果这个任务要始终抓在手里，决不能出现成规模的返贫。在乡村振兴任务中整体推动。”', '“安民可与为义”。做民族工作，习近平总书记格外强调为民情怀：“要多办一些顺民意、惠民生、暖民心的实事，多解决一些各族群众牵肠挂肚的问题。”', '去年12月的积石山地震，灾后恢复重建的进度，总书记一直放在心上。这次来，他叮嘱要继续做好积石山地震灾后恢复重建工作，加强防灾减灾救灾能力建设。', '党的二十大后，每到各地调研，习近平总书记都在谋划部署中国式现代化的地方篇章怎么去谱写。把握战略定位、结合本地特点，既展所长，又聚合力。', '这次对青海，总书记在汇报会上提出了四点要求，事关产业、生态、民生、民族，环环相扣、统筹兼顾。', '统筹高质量发展和高水平保护，是中国发展到今天面临的一个大课题。对青海而言，长江、黄河、澜沧江从这里浩荡东去，哺育中华民族。三江源生态攸关民族安危。', '听闻当地致力于“把青藏高原建设成为生态文明的高地”，习近平总书记指出：“这就是你们最大的贡献。重中之重是把三江源这个‘中华水塔’守护好，保护生物多样性，提升水源涵养能力。”', '青海正着力培育现代化产业体系，清洁能源、盐湖化工、生态旅游、有机农畜、数字经济、生物医药等特色优势产业齐头并进。亘古的高原，借风光之势，将绿电外送范围拓展到15个省份。', '汇报会上，总书记进一步明确青海产业“四地”建设方向：“加快建设世界级盐湖产业基地，打造国家清洁能源产业高地、国际生态旅游目的地、绿色有机农畜产品输出地。”', '2016年到青海考察时，他专程去了趟盐湖，提出明确要求。这一次，当地负责同志汇报了新进展，依托储量居全国第一的盐湖钾、镁、锂资源，支撑新能源新材料产业发展，全国钾肥77%是青海提供的。', '总书记强调：“要着眼全国发展大局，充分考虑青海独特的资源禀赋。”“不是什么都能做的，要有选择性地有所作为。必须坚持有所为、有所不为。”', '自治区负责同志介绍了去年的规上工业增加值，“增长12.4%”。总书记问道：“主要的增长点是什么？”', '“新材料、新能源占大头。煤制油产量居全国首位，煤制烯烃产能占全国1/5；新材料连续3年实现30%以上增长。还建成我国西部算力和互联网交换‘双中心’。”', '总书记勉励他们说：“要深入思考如何才能在竞争中持续发展。品牌塑造需要久久为功。一定不要有浮躁心理，脚踏实地去积累，酒好不怕巷子深。”', '地处黄河“几字弯”，鎏金的九曲黄河给宁夏浇灌出千里沃野，这里却同时也遭遇着缺水难题。', '区里提起“与同处黄河流域的四川阿坝签订跨省区水权交易”，习近平总书记对此事饶有兴致，鼓励他们积极探索、规范推进。', '“黄河宁夏段水质连续保持Ⅱ类进出，这个不容易，保持了7年！”宁夏生态还比较脆弱，发展中既要谋民生之利，也要保护好生态。总书记语气坚定：“生态保护永远在路上，就像隔三差五要洗洗澡、扫扫地、擦擦桌子。生态保护哪能一劳永逸！”', '团结依靠人，发展依靠人。每到一地，习近平总书记总是很关注党员干部的工作状态，也会有的放矢地勉励和提醒。', '全党正在进行的这一次党纪学习教育，离收官只有一个多月时间。“真抓实学、善始善终。”“安心工作、放手干事。”习近平总书记言简意赅指出：“要以风清气正的政治生态引领形成正气充盈的社会生态。任何时候都有手电筒照不到的地方。新时代全面从严治党大见成效，还要一以贯之、坚定不移抓下去。”']</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A39" t="n">
+        <v>23</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
           <t>五十六个民族凝聚在一起就是中华民族共同体习近平总书记青海宁夏考察纪实</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>2024-06-24</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>https://www.gov.cn/yaowen/liebiao/202406/content_6958881.htm</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>['“五十六个民族凝聚在一起就是中华民族共同体”——习近平总书记青海、宁夏考察纪实__中国政府网', '新华社西宁/银川6月22日电 题：“五十六个民族凝聚在一起就是中华民族共同体”——习近平总书记青海、宁夏考察纪实', '火车在宏阔的黄土高原上疾驰。它穿过山峁，同江河擦肩，驶过沉淀了厚重历史与璀璨文明的黄土地。', '在延安出席中央军委政治工作会议之后，习近平总书记马不停蹄来到青海、宁夏。这次来西北，一条“铸牢中华民族共同体意识”的主线，贯穿始终。', '“邦畿千里，维民所止。”辽阔的疆域是各民族共同开拓的。此刻，正是在共同开拓、耕耘、奋斗的土地上，去思考民族关系、民族工作，去探寻中华民族追求团结统一、矢志伟大复兴的内生动力。', '今年是新中国成立75周年。75年来，我国民族团结进步事业接续发展。五十六个民族如何在多元中铸就一体、在一体中百花齐放？调研，给出了答案。', '下个月，进一步全面深化改革大幕将启。如何为推进中国式现代化进一步凝聚民族团结进步的力量？调研，给出了指引。', '青海和宁夏同属西部。就在两个月前，新时代推动西部大开发座谈会召开。在中国式现代化建设中奋力谱写西部大开发新篇章，调研进一步指明了方向。', '学校、古刹、社区，察情、问计、明理，习近平总书记感慨：“五十六个民族，无论是这个民族还是那个民族，我们都是同一个大家庭，中华民族大家庭。要把中华民族共同体建设好。团结在一起，像石榴籽一样紧紧抱在一起。”', '果洛，地处青海东南部，海拔高、气候恶劣、环境艰苦。上海投资，为果洛在西宁援建了一所寄宿制中学。', '从1996年东西部扶贫协作拉开帷幕，到新时代升级为东西部协作；从给钱给物，到多层次、多形式、全方位的协作格局，资金流、资源流、技术流、人才流向西部奔涌。就拿青海来说，“党中央部署北京等6省市、清华大学等23所高校对口援青，其中教育援青实现了各学段、各地区、人才资金项目全覆盖”。', '习近平总书记是亲历者、推动者。就在前不久，总书记还给四川省南充市之江小学学生写了回信，那正是他在浙江工作时关心推动的对口帮扶学校。', '果洛西宁民族中学的校长常途来自上海。食堂、宿舍、教室，学生构成、课程设置、体育锻炼，他将这里的情况详细介绍给总书记。', '听了介绍，总书记叮嘱道：“孩子们正是长身体的时候。一定要注意饮食卫生。首先是原料采购，一定要是合格的、没有问题、安全的。然后储藏的过程、制作的过程都要注意卫生。在这个基础上饭菜可口，让孩子们吃得营养健康。”', '宿舍窗明几净，房间里还有洗手间。隔壁盥洗室内，洗衣机、吹风机也一应俱全。总书记关切地问：“冬天都有热水吗？”', '教学楼内书声琅琅。走廊上挂着书法作品，笔墨或遒劲或娟秀，有的略显稚嫩。总书记放慢了脚步端详。', '高一（1）班的孩子正上思政课，主题是“新时代、新家乡”。小德川流，大德敦化。国家观、民族观，要从第一颗扣子扣起。', '“我的家乡在果洛州班玛县。”起身说话的女孩名叫尼东拉毛。她举起一幅画作，云端下如诗如画，“以前去放牧的时候要紧跟在牛群后面，牛丢了要满山去找。从骑马放牧，到后来骑摩托车放牧，再到现在有的人家用上了无人机放牧，我的家乡更现代化了。”', '“家里这些电器都有吧？”习近平总书记指着画作问。“有！洗衣机、电视机，样样齐全。”', '总书记亲切地说：“从牧区来到这里，生活习惯会有一些改变，但你们的人生会有更多的机会。”', '高个头的男孩杨顶站起身来：“习爷爷好，我的家乡是果洛州久治县。以前因为交通运输条件差、冷藏技术差，牛羊肉不容易保存。现在，日子大变样……”', '把目光望向历史，能更深切感受到新中国成立以来天翻地覆的改变。“思政课讲近代史吗？”总书记询问。', '习近平总书记颔首赞许：“要把铸牢中华民族共同体意识作为学校思政课的一个重点，讲好中国共产党和中国特色社会主义的故事，讲好新时代以中国式现代化全面推进强国建设、民族复兴伟业的故事，讲好中华民族共同体和民族团结进步的故事，把中华民族共同体意识从小就植入孩子们的心灵。”', '“坚持全国一盘棋，相互帮助，特别是沿海地区要帮助西部地区，发达地区要帮助欠发达地区，都要找准角色。这其中，很重要的一个就是教育对口帮扶，要把孩子们培养好，这有深远的意义。”', '“要珍惜这样的好条件。要立志成为中国特色社会主义事业的接班人和建设者，努力为自己赢得人生出彩的机会。”', '在福建工作期间，习近平同志牵头负责闽宁协作对口帮扶。从“干沙滩”到“金沙滩”，从“移民吊庄”建闽宁村到发展振兴成为闽宁镇，20多年过去了，总书记一直挂念着那里的乡亲们。', '“听说现在建设得很好，也有了特色产业。过去这么艰苦的一个地方，变成了出葡萄美酒的地方，令人感慨和欣慰啊！”', '西宁，地处壮美的达坂山和拉脊山之间。聆听过唐蕃古道上的驼铃声，见证过历史风云的宏觉寺，就坐落在古城西宁的城中区。', '寺前院落，宏觉寺民主管理委员会主任噶尔哇·阿旺桑波敬献哈达，僧人们提香炉、持宝伞，迎接习近平总书记。', '宏觉寺这座千年古刹，在增进历代中央政府与藏传佛教联系方面发挥了重要的桥梁纽带作用，也见证了我们党的老一辈革命家关心推动民族工作和宗教工作的光辉历史。', '国家观、民族观、历史观、文化观、宗教观，一座古寺映照出历史演进和变迁的规律。习近平总书记强调：“要保护好这份珍贵的历史文化遗产，为铸牢中华民族共同体意识、促进民族团结进步作出新贡献。”', '习近平总书记深刻指出：“以中国式现代化全面推进强国建设、民族复兴伟业，需要全国各族人民包括广大信教群众团结奋斗。希望青海藏传佛教界弘扬爱国爱教优良传统，促进宗教和顺、社会和谐、民族和睦，在中国式现代化进程中发挥积极作用。”', '查朗寺，见证了五星红旗升起后果洛草原翻天覆地的变化，也承载着宗教界人士和信教群众对党的拥戴之情。70多年来，查朗寺始终弘扬光荣传统，把爱国爱教作为立寺之本。', '“这对做好民族工作、宗教工作还是有启发意义的。”习近平总书记强调，“要全面贯彻新时代党的宗教工作理论和方针政策，加强对宗教界思想政治引领。”', '70多年来，各民族联系的广度、深度前所未有，我国大散居、小聚居、交错杂居的民族人口分布格局不断深化。互嵌式的社会结构下，如何有序运行、和睦相处？百姓日子过得怎么样？', '社区党群服务中心，一楼的便民服务厅、社区卫生站、爱心超市，二楼的“才艺堂”、舞蹈室，总书记挨个屋子看。', '便民服务厅内，社区工作人员紧忙活。有的做社保，有的沟通妇联的事，有的正处理老兵热线，有的刚入户家访回来。', '老家在哪里，学什么专业，在社区干了多久，收入怎么样，属于什么用工性质，下一步有什么打算……习近平总书记问得格外细。', '“社会治理的重心应该放在基层，城市里社区为老百姓服务最直接。”总书记亲切地说，“一个社区像一个大家庭一样。看到社区的队伍比较稳定，工作热情很高，我还是比较放心的。社区党组织是党联系基层群众的神经末梢。社区党组织建好建强了，社区工作就有了主心骨。”', '“才艺堂”里剪纸、刺绣、纳鞋垫，舞蹈室里的民族歌舞节奏欢快。一静一动，勾勒了社区老年人的美好生活。', '“社区要总结经验、创新思路，把为居民群众的服务做深做细做到位，努力越做越好。让退休居民既要老有所养、老有所乐，又要老有所为。”', '走在社区，阳光、绿道、楼房，处处是生机。汉、回、满、蒙、藏等各族群众在这里和睦相处。', '赵守成的孙子上五年级，一堆奖状里最耀眼的是年级跑步第一名。总书记肯定道：“孩子要德智体美劳全面发展。”', '“民族团结非常重要，我们五十六个民族要像石榴籽一样紧紧抱在一起。五十六个民族凝聚在一起就是中华民族共同体，中华民族是一个大家庭。我们共同奋斗，一起推进中国式现代化，实现中华民族伟大复兴！”', '艰苦卓绝的脱贫攻坚战，总书记盯紧了民族地区、民族群众。2016年在宁夏考察，他曾“就地取材”比喻道：“就像六盘山是当年红军长征要翻越的最后一座高山一样，让贫困人口全部脱贫，是我们全面建成小康社会必须翻越的最后一座高山。”', '在青海省委和省政府工作汇报会上，习近平总书记强调：“青海45个县市区，有42个脱贫县。巩固拓展脱贫攻坚成果这个任务要始终抓在手里，决不能出现成规模的返贫。在乡村振兴任务中整体推动。”', '“安民可与为义”。做民族工作，习近平总书记格外强调为民情怀：“要多办一些顺民意、惠民生、暖民心的实事，多解决一些各族群众牵肠挂肚的问题。”', '去年12月的积石山地震，灾后恢复重建的进度，总书记一直放在心上。这次来，他叮嘱要继续做好积石山地震灾后恢复重建工作，加强防灾减灾救灾能力建设。', '党的二十大后，每到各地调研，习近平总书记都在谋划部署中国式现代化的地方篇章怎么去谱写。把握战略定位、结合本地特点，既展所长，又聚合力。', '这次对青海，总书记在汇报会上提出了四点要求，事关产业、生态、民生、民族，环环相扣、统筹兼顾。', '统筹高质量发展和高水平保护，是中国发展到今天面临的一个大课题。对青海而言，长江、黄河、澜沧江从这里浩荡东去，哺育中华民族。三江源生态攸关民族安危。', '听闻当地致力于“把青藏高原建设成为生态文明的高地”，习近平总书记指出：“这就是你们最大的贡献。重中之重是把三江源这个‘中华水塔’守护好，保护生物多样性，提升水源涵养能力。”', '青海正着力培育现代化产业体系，清洁能源、盐湖化工、生态旅游、有机农畜、数字经济、生物医药等特色优势产业齐头并进。亘古的高原，借风光之势，将绿电外送范围拓展到15个省份。', '汇报会上，总书记进一步明确青海产业“四地”建设方向：“加快建设世界级盐湖产业基地，打造国家清洁能源产业高地、国际生态旅游目的地、绿色有机农畜产品输出地。”', '2016年到青海考察时，他专程去了趟盐湖，提出明确要求。这一次，当地负责同志汇报了新进展，依托储量居全国第一的盐湖钾、镁、锂资源，支撑新能源新材料产业发展，全国钾肥77%是青海提供的。', '总书记强调：“要着眼全国发展大局，充分考虑青海独特的资源禀赋。”“不是什么都能做的，要有选择性地有所作为。必须坚持有所为、有所不为。”', '自治区负责同志介绍了去年的规上工业增加值，“增长12.4%”。总书记问道：“主要的增长点是什么？”', '“新材料、新能源占大头。煤制油产量居全国首位，煤制烯烃产能占全国1/5；新材料连续3年实现30%以上增长。还建成我国西部算力和互联网交换‘双中心’。”', '总书记勉励他们说：“要深入思考如何才能在竞争中持续发展。品牌塑造需要久久为功。一定不要有浮躁心理，脚踏实地去积累，酒好不怕巷子深。”', '地处黄河“几字弯”，鎏金的九曲黄河给宁夏浇灌出千里沃野，这里却同时也遭遇着缺水难题。', '区里提起“与同处黄河流域的四川阿坝签订跨省区水权交易”，习近平总书记对此事饶有兴致，鼓励他们积极探索、规范推进。', '“黄河宁夏段水质连续保持Ⅱ类进出，这个不容易，保持了7年！”宁夏生态还比较脆弱，发展中既要谋民生之利，也要保护好生态。总书记语气坚定：“生态保护永远在路上，就像隔三差五要洗洗澡、扫扫地、擦擦桌子。生态保护哪能一劳永逸！”', '团结依靠人，发展依靠人。每到一地，习近平总书记总是很关注党员干部的工作状态，也会有的放矢地勉励和提醒。', '全党正在进行的这一次党纪学习教育，离收官只有一个多月时间。“真抓实学、善始善终。”“安心工作、放手干事。”习近平总书记言简意赅指出：“要以风清气正的政治生态引领形成正气充盈的社会生态。任何时候都有手电筒照不到的地方。新时代全面从严治党大见成效，还要一以贯之、坚定不移抓下去。”']</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A40" t="n">
+        <v>23</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
           <t>临汾市科学技术局所属事业单位年度公开招聘工作人员体检及考察公告</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>2024-07-05</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>http://kjj.linfen.gov.cn/zzzb/tzgg_10452/202407/t20240705_371361.html</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>['临汾市科学技术局所属事业单位2024年度公开招聘工作人员体检及考察公告-通知公告_10452-临汾市科技局', '临汾市科学技术局所属事业单位体检考察工作定于2024年7月8日起进行。现将有关事项公告如下：', '根据考试总成绩（考试总成绩=笔试成绩×60%+面试成绩×40%）从高分到低分的顺序，按照岗位计划招聘人数等额确定体检考察人选。', '体检标准及项目参照《公务员录用体检通用标准（试行）》执行。体检费用考生自理，现金缴费，由体检医院按国家规定的收费标准向考生统一收取并出具票据。', '1.参加体检的考生须携带本人有效身份证、笔试准考证在指定时间指定地点集中报到。凡迟到15分钟或未按规定时间、地点报到的，视为自愿放弃。凡证件与本人不符或证件不全者不得参加体检。', '2.体检应保持平和心态，不要过于紧张，不要熬夜。体检前，要注意饮食，不要吃过多油腻、不易消化的食物，禁食血块、菠菜等深绿色蔬菜，不饮酒，不要服用对肝、肾功能有损害的药物。避免剧烈运动和情绪激动，保证充足睡眠，以免影响体检结果。体检前8-12小时内应禁食、禁水，保持空腹。', '3.要注意个人卫生。体检当日请着轻便服装，请勿佩戴首饰，勿穿有金属扣子的内衣裤，勿穿连衣裙、连体裤、长筒袜及胸口带有金属、水钻、亮片等衣服（物品），请勿化妆、佩戴美瞳及隐形眼镜。', '4.体检期间实行封闭管理，考生应严格遵守体检纪律，接受工作人员的统一管理，不准携带各种通讯、电子设备进行体检，已带入医院的按要求统一存放，接受工作人员检测。考生亲属及其他无关人员不得前往体检地点，考生不得以任何方式与外界联系，违者取消录用资格。', '5.在体检过程中，考生不得向医务人员透露本人姓名、报考岗位等信息；不得弄虚作假、不得隐瞒病史，一经发现有舞弊行为的，取消其聘用资格。', '6.女性考生月经期间勿做妇科及尿液检查，统一进行登记，待经期完毕后再补检。怀孕或可能已受孕的考生，事先告知医护人员，勿做X光及妇科检查。其他考生不安排补检。', '体检合格者确定为考察对象。用人单位组织对其思想政治表现、道德品质、遵纪守法、自律意识、能力素质、工作态度、学习及工作表现以及需要回避的情况等进行考察。']</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A41" t="n">
+        <v>23</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
           <t>团结奋进共创美好未来习近平总书记在青海考察时的重要讲话鼓舞广大干部群众同心筑梦勇毅前行</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>2024-06-21</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>https://www.gov.cn/yaowen/liebiao/202406/content_6958523.htm</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>['团结奋进，共创美好未来——习近平总书记在青海考察时的重要讲话鼓舞广大干部群众同心筑梦勇毅前行__中国政府网', '团结奋进，共创美好未来——习近平总书记在青海考察时的重要讲话鼓舞广大干部群众同心筑梦勇毅前行', '新华社北京6月20日电题：团结奋进，共创美好未来——习近平总书记在青海考察时的重要讲话鼓舞广大干部群众同心筑梦勇毅前行', '题：团结奋进，共创美好未来——习近平总书记在青海考察时的重要讲话鼓舞广大干部群众同心筑梦勇毅前行', '习近平总书记近日在青海考察时发表重要讲话，强调坚持深化改革、扩大开放，坚持生态优先、绿色发展，坚持民族团结、共同富裕，奋力谱写中国式现代化青海篇章。广大干部群众认真学习领会重要讲话精神，表示要以习近平新时代中国特色社会主义思想为指引，锚定高质量发展、强化实干担当，团结一心、奋发进取，以中国式现代化共圆民族复兴梦。', '“习近平总书记对‘青海承担着维护生态安全的重大使命’念兹在兹，让我们深感责任重大、使命光荣。”在三江源国家公园管理局长江源园区可可西里管理处五道梁保护站工作了8年的巡山队员德尕说，“经过一代代巡山队员的努力，可可西里地区藏羚羊数量已从不足2万只增长至7万余只。作为一线生态守护者，我会继续坚守于此，将总书记‘把青藏高原建设成为生态文明高地’的要求落实落细，用心用情用力保护高原上的一草一木，巩固生态环保成效，让国家公园成为大美青海、美丽中国的展示窗口。”', '“保护好青海生态环境，是习近平总书记强调的‘国之大者’，我们将全力筑牢青藏高原生态安全司法屏障。”近期经办了一起危害珍贵、濒危野生动物案件的西宁铁路运输法院副院长赵霞表示，“我院集中管辖三江源国家公园等区域内刑事、民事、行政一审环资案件，我们将认真贯彻实施青藏高原生态保护法，坚持用最严格的制度、最严密的法治，通过司法审判实践，守护好三江源‘中华水塔’。”', '河道是否畅通、水质是否达标……这是四川成都市武侯区农业农村和水务局工作人员罗中唯每天巡河工作的内容。', '学习了习近平总书记的重要讲话，罗中唯表示，作为基层水利人，自己和同事们将通过坚持依法治水、科学管水，提升水源涵养能力，让水清岸绿成为百姓家门口的亮丽风景。', '在青海西宁市东川工业园区内，亚洲硅业（青海）股份有限公司车间正马不停蹄地开展生产，用清洁能源生产多晶硅，可有效减少二氧化碳排放量。', '“习近平总书记强调‘着力培育体现本地特色和优势的现代化产业体系’，我们深有体会。”公司运营总裁尹东林说，将继续坚持科技研发和成果转化两手抓，推动以智能制造促绿色发展，推进企业绿色可持续发展，为青海打造国家清洁能源产业高地作出更大贡献。', '无人物流车搭载汽车零部件有序移动，一辆辆新车从生产流水线下线。在广西柳州市的上汽通用五菱精益智造工厂，一派现代化智能生产景象。', '“广泛应用新技术”“培育新质生产力”……习近平总书记的重要讲话让上汽通用五菱汽车股份有限公司总经理吕俊成深受启发。吕俊成说，基于新能源汽车产业特点，公司正在推动上下游优质要素汇集，构建新能源产业链全链生态布局，助推广西汽车产业高质量发展。', '西宁城北，元朔山麓，蓝天白云下的果洛西宁民族中学绿意葱茏。沪青两地联合创建的这所学校，满足了当地学子“上好学”的愿望。', '习近平总书记到学校考察，让高一学生尕桑才旦感到很温暖。“作为中华民族大家庭的一员，我很自豪！”回忆起今年初和30多名同学赴上海研学的经历，尕桑才旦说，“各民族同学相互学习、共同成长，既开阔了眼界，也感受到中华民族一家亲的氛围。我要努力学习、练好本领，今后做一个对国家有用的人。”', '习近平总书记到西宁第一站就来看望民族中学的老师和同学们，让青海省民族宗教事务委员会主任吴德军感受到总书记对民族工作的关心关怀。', '“我们将全面贯彻新时代党的民族工作大政方针，切实把铸牢中华民族共同体意识作为各项工作的主线扎实推进。”吴德军表示，青海将在进一步促进各民族共同富裕、构建多民族互嵌式社区、推进中华民族共有精神家园建设等方面持续发力，推动民族团结进步创建工作向更高质量迈进。', '琴声悠扬、舞姿蹁跹，在内蒙古兴安盟扎赉特旗乌兰社区，汉族、蒙古族、朝鲜族等10个民族的居民生活其乐融融。', '“习近平总书记强调‘促进各民族全方位嵌入、广泛交往交流交融’，这正是我们努力的方向。”乌兰社区党支部书记刘庆杰说，将把民族团结工作与社区管理服务有机结合，营造各民族群众共居共学、共建共享、共事共乐的社区环境，让各民族携手共建幸福家园，厚植浓浓“石榴情”。', '“在一场场解说中，每当看到参观者对中华民族、中华文化有了更深的了解，我都感到很高兴。”讲解员李佳说，自己将牢记习近平总书记要求，扎根本职岗位，做一名有温度的讲解员，把更多中华民族共同体故事讲给大家听，助力铸牢中华民族共同体意识，有形有感有效构筑中华民族共有精神家园。', '仲夏时节，青海海东市互助土族自治县红崖子沟乡老幼村，村民们正忙着收割冷凉蔬菜。利用当地昼夜温差大、日照充足等优势种植的冷凉蔬菜在市场上颇受欢迎，为村民们增收致富提供了保障。', '“习近平总书记强调‘乡村振兴要突出农牧民增收这个重点’，为我们继续探索村集体经济增收方式注入了信心。”老幼村党支部书记杨润说，将带领大家进一步发展好当地特色绿色有机农业，让村民们腰包更鼓，建设宜居宜业和美乡村，不断提升大家的幸福感。', '“对口帮扶、产业振兴是凝聚人心、改善民生的重要方式，我们与当地干部群众共同打造起农文旅体融合的乡村产业项目，走出一条以文塑旅、以旅促农的新路，有效拓宽群众致富渠道。”来自山东东营市的援疆干部、塔孜洪乡党委副书记刘志胜表示，将牢记习近平总书记要求，围绕增强基本公共服务的均衡性可及性开展帮扶工作，最大程度满足当地群众对美好生活的向往。', '漫步在辽宁沈阳市沈河区多福社区，服务老年人的健康驿站、老年活动中心，提供给孩子们的社区幸福教育课堂等一应俱全。', '“‘一老一小’等民生实事始终是习近平总书记的关切事，也是我们日常工作的重点之一。”多福社区党委书记樊月介绍，近年来，在全市统筹推进下，多福社区不断强化社区“一老一小”服务等工作，为居民提供“家门口”的精细管理与优质服务。“今后我们将精准聚焦居民急难愁盼问题，继续抓好社区各项暖民心的实事和民心工程，不断增进民生福祉。”樊月说。', '不久前，国网湖北省电力有限公司电力科学研究院高级工程师游力带领团队，完成了湖北荆门新港储能电站在极端条件下迅速恢复电网供电能力的试验。', '习近平总书记在考察中指出“加强防灾减灾救灾能力建设”，这让游力的使命感更强了：“电力系统正常运行，关乎国计民生。作为一线工作者，我们将按照总书记要求，加强科技攻关，保障电网稳定，提升电力服务质量，保障好人民群众生产生活需求，为经济社会高质量发展保驾护航。”', '在甘肃临夏回族自治州积石山保安族东乡族撒拉族自治县刘集乡团结村，虽然下着细雨，灾后恢复重建集中安置点的建设工地上一片忙碌。“继续做好积石山地震灾后恢复重建工作”，习近平总书记对灾区的牵挂让施工负责人马应海的工作干劲儿更足了：“我们牢记嘱托，坚持保质量、保安全、保进度，组织人员、机械等抢工期、抢进度，目前195户住宅已全部进入主体施工阶段，相关建设工作正有序推进。”', '“要真抓实学、善始善终”“持续深化整治形式主义为基层减负”……习近平总书记的重要讲话对党纪学习教育提出明确要求。', '在中央党校（国家行政学院）青年学者叶子鹏看来，通过党纪学习教育，一方面，持续深化纠“四风”树新风，为基层松绑减负，让党员干部有更多时间和精力为民办实事；另一方面，党员干部的党性观念得到增强，纪律之弦进一步绷紧，担当作为的精气神更加饱满，愿干事、真干事、干成事蔚然成风。', '习近平总书记近日在青海考察时发表重要讲话，强调坚持深化改革、扩大开放，坚持生态优先、绿色发展，坚持民族团结、共同富裕，奋力谱写中国式现代化青海篇章。']</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A42" t="n">
+        <v>23</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
           <t>习近平在青海考察时强调持续推进青藏高原生态保护和高质量发展奋力谱写中国式现代化青海篇章</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>2024-06-26</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>http://www.huozhou.gov.cn/xwzx/gwyyw/202406/t20240626_367207.html</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>['习近平在青海考察时强调 持续推进青藏高原生态保护和高质量发展 奋力谱写中国式现代化青海篇章', '新华社西宁6月20日电 中共中央总书记、国家主席、中央军委主席习近平近日在青海考察时强调，青海要认真贯彻党中央决策部署，完整准确全面贯彻新发展理念，牢牢把握青海在全国发展大局中的战略定位，充分发挥自身优势，坚持深化改革、扩大开放，坚持生态优先、绿色发展，坚持民族团结、共同富裕，在推进青藏高原生态保护和高质量发展上取得更大进展，奋力谱写中国式现代化青海篇章。', '6月18日至19日，习近平在青海省委书记陈刚和省长吴晓军陪同下，深入西宁市的学校、宗教场所等进行调研。', '18日下午，习近平首先来到果洛西宁民族中学考察。这是一所隶属于果洛藏族自治州的寄宿制中学，由上海市投资援建。习近平听取上海等东部地区援助青海教育工作和学校建设情况介绍，详细询问学生构成、课程设置、体育锻炼、普通话水平等情况，走进食堂、宿舍楼察看学生就餐和住宿条件，嘱咐食堂工作人员一定要确保学生饮食安全、营养可口。之后，他来到高一（1）班教室，观摩“新时代、新家乡”主题思政课。了解到学校将思政课内容融入日常教学，听了孩子们讲述新时代家乡的可喜变化，看了孩子们的画作，习近平十分高兴。他说，包括教育在内的东西部协作和对口支援取得显著成效，充分彰显了中国共产党领导和中国特色社会主义制度的优势，充分体现了中华民族大家庭的温暖。要把铸牢中华民族共同体意识作为学校思政课的一个重点，讲好中国共产党和中国特色社会主义的故事，讲好新时代以中国式现代化全面推进强国建设、民族复兴伟业的故事，讲好中华民族共同体和民族团结进步的故事，把中华民族共同体意识从小就植入孩子们的心灵。', '教学楼前广场上，师生们纷纷围拢过来，高声向总书记问好。习近平亲切地对大家说，我到西宁第一站就来看望老师和同学们。上海援建的这所中学，培养来自果洛牧区的各民族孩子，成效明显，意义深远。希望孩子们倍加珍惜这里的良好条件，心怀感恩、好好学习，德智体美劳全面发展，立志成为中国特色社会主义事业的接班人和建设者，努力为自己赢得人生出彩的机会。他祝孩子们学有所成、健康成长。', '随后，习近平来到位于西宁市城中区的宏觉寺。在寺前院落，宏觉寺民主管理委员会负责人向总书记敬献哈达，僧人提香炉、持宝伞迎接总书记。习近平参观青海省民族团结进步教育基地展陈等，了解寺庙历史沿革、老一辈革命家关心推动民族工作和宗教工作的情况。他走进大殿，听取寺庙加强日常管理、促进民族团结进步等情况介绍。习近平指出，宏觉寺这座千年古刹，在增进历代中央政府与藏传佛教联系方面发挥了重要的桥梁纽带作用。要保护好这份珍贵的历史文化遗产，为铸牢中华民族共同体意识、促进民族团结进步作出新贡献。要向老一辈革命家学习，把新时代党的统战工作、民族工作、宗教工作做得更好。习近平强调，以中国式现代化全面推进强国建设、民族复兴伟业，需要全国各族人民包括广大信教群众团结奋斗。希望青海藏传佛教界弘扬爱国爱教优良传统，促进宗教和顺、社会和谐、民族和睦，在中国式现代化进程中发挥积极作用。', '19日上午，习近平听取青海省委和省政府工作汇报，对青海各项工作取得的成绩给予肯定。', '习近平指出，青海承担着维护生态安全的重大使命，产业发展必须坚持有所为、有所不为，着力培育体现本地特色和优势的现代化产业体系。要有效集聚资源要素，加快建设世界级盐湖产业基地，打造国家清洁能源产业高地、国际生态旅游目的地、绿色有机农畜产品输出地。坚持科技研发和成果转化两手抓，广泛应用新技术，因地制宜改造提升传统产业、发展战略性新兴产业，培育新质生产力。进一步全面深化改革、扩大开放，优化营商环境，主动对接长江经济带发展等重大战略，推动绿色丝绸之路建设。统筹省内区域协调发展，发挥好西宁、海东、海西支撑作用，因地制宜发展县域经济、特色产业。', '习近平强调，青藏高原生态系统丰富多样、也十分脆弱，加强生态环境保护，实现生态功能最大化，是这一区域的主要任务。要始终坚持生态优先、绿色发展，认真实施青藏高原生态保护法，全面落实主体功能区规划要求，把青藏高原建设成为生态文明高地。坚持山水林田湖草沙一体化保护和系统治理，加快实施重要生态系统保护和修复重大工程，巩固提升生态环境保护成效。重中之重是把三江源这个“中华水塔”守护好，保护生物多样性，提升水源涵养能力。加强以国家公园为主体的自然保护地体系建设，打造具有国家代表性和世界影响力的自然保护地典范。有序推进重点领域节能降碳，发展生态友好型产业，加快构建新型能源体系。', '习近平指出，要切实保障和改善民生，尽力而为、量力而行，多办顺民意、惠民生、暖民心的实事，扎实解决群众急难愁盼问题。统筹谋划基本公共服务设施布局，着力增强基本公共服务的均衡性可及性。乡村振兴要突出农牧民增收这个重点，加快推进高原特色种业振兴行动，发展绿色有机农牧业，打响高原土特产品牌。推进高原美丽乡村建设，推动移风易俗。落实防止返贫监测帮扶机制，确保不发生规模性返贫。继续做好积石山地震灾后恢复重建工作，加强防灾减灾救灾能力建设。', '习近平强调，青海是我国少数民族分布集中的省份，要继续做好民族工作和宗教工作。全面贯彻新时代党的民族工作大政方针，坚持以铸牢中华民族共同体意识为主线，广泛开展民族团结进步创建工作，促进各民族全方位嵌入、广泛交往交流交融。全面贯彻新时代党的宗教工作理论和方针政策，坚持我国宗教中国化方向，依法加强宗教事务管理特别是宗教活动场所管理。', '习近平指出，目前正在开展党纪学习教育，要真抓实学、善始善终，以学纪知纪明纪促进遵纪守纪执纪。大力弘扬以改革创新为核心的时代精神和青藏高原精神，激励党员、干部进一步解放思想、转变观念，锐意进取、担当作为。坚持党性党风党纪一起抓、正风肃纪反腐相贯通，推进作风建设常态化长效化，持续深化整治形式主义为基层减负。完善一体推进不敢腐、不能腐、不想腐工作机制，以风清气正的政治生态引领形成正气充盈的社会生态。']</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A43" t="n">
+        <v>23</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
           <t>薛向阳带领小分队赴郑州无锡等地考察学习城市建设对接招商合作项目</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>2023-11-14</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>http://www.puxian.gov.cn/zzzb/pxyw/202311/t20231114_267416.html</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>['11月9日至12日，县委副书记、县长薛向阳带领小分队赴郑州、无锡等地考察学习城市建设先进经验，宣传推介蒲县，走访企业，对接洽谈项目，深化务实合作，为我县高质量发展全面提质提速蓄势赋能。副县长刘俊明参加。', '河南省登封市突出开放共享理念，变街道改造为街区改造，打通街区内部巷道微循环，将道路沿线机关事业单位院落全部打开，释放共享空间，以路扩绿，以绿连园，以园显山，最大限度扩展市民活动空间，打造了人民满意的美丽县城。薛向阳一行深入登封市街道小巷、城市游园、生态公园等地，详细了解登封市在城市建设、文旅开发方面的先进经验与做法，他指出，登封市在城市建设、文旅开发等方面的探索实践与创新，给我县城市更新工作提供了宝贵的经验，大家要认真学习登封市先进的城市规划建设管理运营理念，在开放共享、城市安全、完整社区、城市运营、公园城市等方面积极借鉴，认真思考、认真学习、认真研究，举一反三、融会贯通、学以致用，以先进理念引领城市更新提质。', '在郑州市、开封市等地，薛向阳一行来到河南博物院、河南大学等地，通过专家讲解、实地参观、会谈交流等方式，对文物开发保护、古建保护、校区建设等进行了详细了解，并就“县校合作”工作与河南大学商学院教授何静进行座谈交流，双方就增进互信，加大合作力度交换了意见和看法。薛向阳表示，希望双方在合作广度上再拓展、深度上再挖掘、力度上再强化，进一步丰富合作形式、细化合作内容，蒲县将用最大的热情、最好的政策、最优的服务持续深化拓展校地合作，为河大师生的科研、实习、创业活动提供最优质的服务、创造最优良的环境，全面谱写人才共享，互利共赢，共促高质量发展新篇章。', '在江苏省江阴市汽车配件生产企业，薛向阳一行深入生产车间进行实地参观考察，详细了解生产工艺、生产线建设、产品种类和上下游情况，召开座谈会，听取企业相关情况介绍，并就为潍柴、玉柴、重柴等大卡汽车配件、部件、总成合作项目推进情况进行了深入交流。薛向阳表示，双方合作项目基础良好、前景光明、未来可期，县委、县政府将积极向上争取更好政策，为企业发展提供便利条件，同时，将提高服务意识和水平，主动对接，专班推进，协调相关部门做好协同配合，为项目建设积极解决困难和问题，为项目加快建设提供坚实保障。并希望企业发挥自身优势，继续强化深度合作，实现转型高质量发展提质提速，“企地双方”互惠互利、合作共赢。']</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A44" t="n">
+        <v>23</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
           <t>奋发有为同心共筑中国梦习近平总书记在宁夏考察时的重要讲话激励广大干部群众真抓实干开拓奋进</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>2024-06-21</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>http://www.guxian.gov.cn/xwzx/gwyyw/202406/t20240624_366144.html</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>['奋发有为，同心共筑中国梦——习近平总书记在宁夏考察时的重要讲话激励广大干部群众真抓实干开拓奋进', '新华社北京6月21日电 题：奋发有为，同心共筑中国梦——习近平总书记在宁夏考察时的重要讲话激励广大干部群众真抓实干开拓奋进', '题：奋发有为，同心共筑中国梦——习近平总书记在宁夏考察时的重要讲话激励广大干部群众真抓实干开拓奋进', '习近平总书记近日在宁夏考察并发表重要讲话，强调统筹推进高质量发展和高水平保护、全面深化改革和扩大开放、新型城镇化和乡村振兴、民族团结和共同富裕等工作，奋力谱写中国式现代化宁夏篇章。广大干部群众认真学习领会习近平总书记重要讲话精神，表示要在以习近平同志为核心的党中央坚强领导下，坚持稳中求进工作总基调，进一步全面深化改革，为推进中国式现代化建设真抓实干、开拓奋进。', '蓝天白云下，宁夏银川市金凤区长城花园社区干净整洁，喜气洋洋。在这个多民族聚居的大型社区里，汉、回、满、蒙、藏等各族群众和睦相处、亲如一家。', '19日下午，总书记来到长城花园社区，详细了解社区发挥基层党组织作用、优化便民惠民服务、推动各族群众交往交流交融等情况。回忆起当时的情景，长城花园社区党委书记赵耐香沉浸在喜悦之中：“我们将牢记总书记嘱托，建好建强社区党组织，把服务老百姓各项工作做深做细做到位，不断巩固各族群众‘你中有我、我中有你’的一家亲格局。”', '北京西单蒙藏学校旧址里，来自福建、宁夏的民族文化展示体验项目正精彩呈现，参观者徜徉在中华民族交往交流交融的画卷中。', '“不断铸牢中华民族共同体意识”“把各族人民的心紧紧连在一起”，习近平总书记提出的重要要求，让蒙藏学校旧址相关负责人黄春锋深感责任重大，表示今后要不断开拓创新，让中华儿女充分领略中华传统文化之美，让各族群众的情感越走越近、越走越亲。', '“铸牢中华民族共同体意识系列读本”即将出版，涵盖西藏党员干部读本、西藏群众读本、西藏青年读本和西藏少儿读本等，预计发行100多万册。', '“总书记强调‘要全面贯彻新时代党的民族工作大政方针’，为我们提供了根本遵循。我们将编写更多更好的民族团结进步教材和读本，开展内容丰富形式多样的‘宣讲+’‘实践+’活动，引导各族人民进一步增强对中华民族的认同感和自豪感，牢固树立休戚与共、荣辱与共、生死与共、命运与共的共同体理念。”西藏自治区党委宣传部理论处处长石奇峰说。', '进入夏季，贵州省黔东南苗族侗族自治州天柱县注溪乡注溪村的千亩油茶长势喜人。近年来，当地群众以流转林地、土地入股、参与建设等多种方式增加收入，实现了稳定就业。', '第一时间学习了习近平总书记重要讲话，注溪村党支部书记杨天来信心十足：“我们要按照总书记要求，把各方力量广泛凝聚到一起，不断增进民生福祉，让各族群众实实在在感受到推进共同富裕在行动、在身边。”', '“总书记要求‘统筹推进森林、草原、湿地、荒漠生态保护修复和盐碱地综合治理’，为新时代防沙治沙工作指明了方向。”回想起同沙漠的不懈斗争，“全国治沙英雄”王有德表示，“我们要不断巩固和拓展防沙治沙成果，把‘三北’工程建设成牢不可破的北疆绿色长城、生态安全屏障，让‘塞上江南’越来越秀美。”', '位于山东东营的山东黄河三角洲国家级自然保护区内，各类植物向阳生长，候鸟不时从天空飞过。', '在保护区生态监测中心，高级工程师赵亚杰通过大屏幕观察水鸟繁殖状况。“近年来，国家大力推动黄河流域生态保护和高质量发展，全流域生态迈上了一个新台阶。”赵亚杰说，“总书记对黄河流域生态保护和高质量发展高度关注，我们要不断提升科研监测水平，增强智慧监管能力，用心用力保护生态环境，谱写人与自然和谐共生新篇章。”', '位于青海的黄河上游水电开发有限责任公司海南基地，一块块光伏板源源不断地产生绿色能量。', '“我们将深入贯彻落实习近平总书记关于完善生态产品价值实现机制和生态保护补偿机制的重要讲话精神，加快推进清洁能源大基地建设和新兴产业落地见效，始终坚持走生态优先、绿色发展之路。”国家电投黄河公司董事长姚小彦说。', '“促进传统产业转型升级，培育战略性新兴产业，是习近平总书记提出的明确要求。”江西省九江市工信局局长娄琦介绍，近年来，九江对沿江小化工企业分类实施关停并转搬，把发展空间留给以临港经济、数字经济为龙头的新兴产业。“未来，我们将按照总书记的要求，因地制宜发展新质生产力，引导化工企业入新链、获新生，向绿色化、精细化、高端化转型。”娄琦说。', '治国之道，富民为始。中国式现代化建设，要在实现高质量发展、推进全体人民共同富裕上不断取得更为明显的实质性进展。', '2017年9月，甘肃（兰州）国际陆港首发西部陆海新通道货运班列，打通了甘肃省从西北到西南至出海口距离最短的通道，截至目前，已累计发运国际班列477列。', '“习近平总书记强调‘坚持对内对外开放相结合’，为我们积极参与共建‘一带一路’和西部陆海新通道建设注入了强大动力。”甘肃（兰州）国际陆港管委会主任李建亮说，“我们要按照进一步全面深化改革部署，抢抓新时代推动西部大开发战略机遇，增强区域合作，不断提升内陆开放水平。”', '宁夏彭阳县闽宁现代循环农业科技示范园占地300亩，日产各类鲜菇5吨，年产值达2000万元，带动数百名当地群众实现家门口增收，成为福建与宁夏东西部协作的一项重要成果。', '“如今，闽宁协作新产业层出不穷，新投资方兴未艾，‘闽宁情’正在谱写新篇章。”福建省第十三批援宁工作队队员，彭阳县委副书记、副县长文杰说，将完善东西部协作机制，持续推动闽宁产业园建设，协调落实优惠政策，扎实推进各族人民共同富裕。', '交通便利、产业发展、环境改善……宁夏吴忠市红寺堡区，这个全国最大的易地生态移民集中安置区，迎来了从“干沙滩”到“金沙滩”的蝶变。', '“习近平总书记始终牵挂着乡村，让我们既感到心头热乎乎，也觉得肩上沉甸甸。”吴忠市红寺堡区委书记赵志锋表示，下一步要千方百计拓宽农民增收致富渠道，坚决防止发生规模性返贫，扎扎实实建设宜居宜业美丽乡村，全面推进乡村振兴。', '当前，新疆喀什地区伽师县田间地头一棵棵新梅树挂满果实。这里已成为中国最大的优质新梅生产、加工和出口基地。', '“总书记强调要走特色化、差异化的产业发展路子，说到了我们心坎儿里。”种植新梅近20年的库尔班·吾甫尔说，“未来，要沿着总书记指引的方向坚定不移走下去，建设智能生产线，引进先进保鲜技术，延长产业链、提高附加值，以推动农业现代化的方式让农民腰包更鼓、日子更甜。”', '推进中国式现代化建设，关键在党。“持续深化整治形式主义为基层减负，一体推进不敢腐、不能腐、不想腐”，习近平总书记的重要讲话令江西省赣州市赣县区纪委书记、监委主任李云飞更加明确了工作方向：“我们要坚持党性党风党纪一起抓，完善作风建设常态化长效化制度机制，以优良党风凝聚人心、引领社会风气，激励广大干部群众为推进中国式现代化建设拼搏奋斗。”']</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A45" t="n">
+        <v>23</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
           <t>习近平在宁夏考察时强调建设黄河流域生态保护和高质量发展先行区在中国式现代化建设中谱写好宁夏篇章</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>2024-06-21</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>http://www.guxian.gov.cn/xwzx/gwyyw/202406/t20240623_365910.html</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>['习近平在宁夏考察时强调：建设黄河流域生态保护和高质量发展先行区 在中国式现代化建设中谱写好宁夏篇章', '习近平在宁夏考察时强调 建设黄河流域生态保护和高质量发展先行区 在中国式现代化建设中谱写好宁夏篇章', '新华社银川6月21日电 中共中央总书记、国家主席、中央军委主席习近平近日在宁夏考察时强调，宁夏要深入贯彻新发展理念，坚持稳中求进工作总基调，以铸牢中华民族共同体意识为主线，以黄河流域生态保护和高质量发展先行区建设为牵引，统筹推进高质量发展和高水平保护、全面深化改革和扩大开放、新型城镇化和乡村振兴、民族团结和共同富裕等工作，加快建设经济繁荣、民族团结、环境优美、人民富裕的美丽新宁夏，奋力谱写中国式现代化宁夏篇章。', '6月19日，习近平结束在青海考察后，来到宁夏。当天下午，他在宁夏回族自治区党委书记梁言顺和自治区政府主席张雨浦陪同下，到银川市调研。', '6月19日至20日，中共中央总书记、国家主席、中央军委主席习近平在宁夏考察。这是19日下午，习近平在银川市金凤区长城花园社区党群服务中心便民服务厅了解社区开展便民惠民服务等情况。新华社记者 谢环驰 摄', '银川市金凤区长城花园社区是个多民族聚居的大型社区。习近平首先来到社区党群服务中心，走进便民服务厅、社区卫生站、爱心超市，听取社区工作介绍，详细了解社区发挥基层党组织作用、开展邻里活动和便民惠民服务等情况。随后，他来到社区活动室，饶有兴致地观看居民剪纸创作、舞蹈排练，同大家亲切交流，鼓励退休居民既要老有所养、老有所乐，又要老有所为。习近平指出，社区党组织是党联系基层群众的神经末梢，要在社区中发挥领导作用。社区党组织建好建强了，社区工作就有了主心骨。要坚持党建引领，紧紧围绕解决居民的急难愁盼问题，把服务老百姓的各项工作做深做细做到位。', '6月19日至20日，中共中央总书记、国家主席、中央军委主席习近平在宁夏考察。这是19日下午，习近平在银川市金凤区长城花园社区活动室考察时，同社区居民亲切交流。新华社记者 谢环驰 摄', '习近平来到社区居民赵守成家中，同一家人围坐在一起拉家常，了解他们的就业、收入、医保报销、孩子上学等情况，为他们的幸福生活点赞，鼓励孩子德智体美劳全面发展。赵守成告诉总书记，当地党委和政府十分关心社区建设，特别是在改造老旧小区、丰富居民文体生活等方面做了很多实事，各族群众在社区里和睦相处，生活过得很舒心。习近平强调，我们党是全心全意为人民服务的党，各族群众、家家户户都是我的牵挂。希望你们把家庭建设搞得更好，让日子越过越红火。', '6月19日至20日，中共中央总书记、国家主席、中央军委主席习近平在宁夏考察。这是19日下午，习近平在银川市金凤区长城花园社区居民赵守成家中，同一家人围坐在一起拉家常。新华社记者 谢环驰 摄', '傍晚时分，社区广场十分热闹，居民们看见总书记来了，纷纷围拢过来，热烈鼓掌欢迎。习近平亲切地对大家说，时隔4年，我再次来宁夏看望各族干部群众，见到大家非常高兴！中华民族是一个大家庭，各族人民要像石榴籽一样紧紧抱在一起。要不断铸牢中华民族共同体意识，把各族人民的心紧紧连在一起，把各方面的力量广泛凝聚到一起，共同推进中国式现代化，共襄中华民族伟大复兴的盛举。', '6月19日至20日，中共中央总书记、国家主席、中央军委主席习近平在宁夏考察。这是19日下午，习近平在银川市金凤区长城花园社区考察时，同社区居民亲切交流。新华社记者 谢环驰 摄', '20日上午，习近平听取宁夏回族自治区党委和政府工作汇报，对宁夏工作取得的成绩给予肯定。', '习近平指出，宁夏地理环境和资源禀赋独特，要走特色化、差异化的产业发展路子，构建体现宁夏优势、具有较强竞争力的现代化产业体系。宁夏的现代煤化工和新型材料产业，风电、光伏、氢能等清洁能源产业，葡萄酒、枸杞等特色产业，要精耕细作、持续发展。加强文化与旅游深度融合，积极发展特色旅游、全域旅游。强化科技创新和产业创新融合，加大科技成果转化应用力度，促进传统产业转型升级，培育战略性新兴产业，因地制宜发展新质生产力。宁夏北部引黄灌区、中部干旱带、南部山区各有特点，要把准各地产业发展基础、资源环境容量、开放开发潜力，加强统筹规划和产业合作，推动形成山川共济、城乡融合、区域联动的发展格局。', '习近平强调，宁夏要着力深化重点领域改革，探索具有本地特色的改革。完善市场经济基础制度，积极融入全国统一大市场建设，持续推进国资国企改革，认真落实促进民营经济发展政策，优化营商环境，激发社会投资活力。坚持对内对外开放相结合，积极参与共建“一带一路”和西部陆海新通道建设，深化与阿拉伯国家经贸合作，提高内陆开放水平。保护好黄河和贺兰山、六盘山、罗山的生态环境，是宁夏谋划改革发展的基准线，要深化资源环境要素市场化配置改革，完善生态产品价值实现机制和生态保护补偿机制，实施最严格的水资源管理制度。打好黄河“几字弯”攻坚战，统筹推进森林、草原、湿地、荒漠生态保护修复和盐碱地综合治理，让“塞上江南”越来越秀美。', '6月19日至20日，中共中央总书记、国家主席、中央军委主席习近平在宁夏考察。这是19日下午，习近平在银川市金凤区长城花园社区党群服务中心社区卫生站同医务人员亲切交流。新华社记者 谢环驰 摄', '习近平指出，要加强普惠性、基础性、兜底性民生事业建设，着力解决人民群众急难愁盼问题，扎实推进各族人民共同富裕。要把就业摆在突出位置，扎实做好高校毕业生、农民工、退役军人等重点群体就业工作。积极推进城市更新，加强老旧小区改造。顺应人口流动趋势，推动城乡融合发展，促进城乡产业发展、基础设施、公共服务一体化。全面推进乡村振兴，实施好百万移民致富提升行动，建设美丽乡村，促进乡村移风易俗。巩固拓展脱贫攻坚成果，深化定点帮扶、社会帮扶，坚决防止发生规模性返贫。抓好安全生产，加强风险隐患排查和防控，切实维护人民群众生命财产安全。', '6月19日至20日，中共中央总书记、国家主席、中央军委主席习近平在宁夏考察。这是19日下午，习近平在银川市金凤区长城花园社区活动室考察时，同社区居民亲切交流。新华社记者 燕雁 摄', '习近平强调，要全面贯彻新时代党的民族工作大政方针，努力创建铸牢中华民族共同体意识示范区。依法治理民族事务，着力构建互嵌式社会结构和社区环境，不断拓宽各民族全方位嵌入的实践路径。全面贯彻新时代党的宗教工作理论和方针政策，加强对宗教界思想政治引领。', '6月19日至20日，中共中央总书记、国家主席、中央军委主席习近平在宁夏考察。这是19日下午，习近平在银川市金凤区长城花园社区考察时，同社区居民亲切交流。新华社记者 燕雁 摄', '习近平指出，要把正在全党开展的党纪学习教育抓紧抓实、抓出成效，推动党员、干部认真学习党纪党规，在遵规守纪前提下，安心工作、放手干事，锐意进取、积极作为。要坚持党性党风党纪一起抓，完善作风建设常态化长效化制度机制，持续深化整治形式主义为基层减负，一体推进不敢腐、不能腐、不想腐，以优良党风凝聚人心、引领社会风气。']</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A46" t="n">
+        <v>23</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
           <t>习近平在宁夏考察时强调建设黄河流域生态保护和高质量发展先行区在中国式现代化建设中谱写好宁夏篇章</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>2024-06-24</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>https://www.gov.cn/yaowen/liebiao/202406/content_6958575.htm</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>['习近平在宁夏考察时强调：建设黄河流域生态保护和高质量发展先行区 在中国式现代化建设中谱写好宁夏篇章__中国政府网', '习近平在宁夏考察时强调：建设黄河流域生态保护和高质量发展先行区 在中国式现代化建设中谱写好宁夏篇章', '习近平在宁夏考察时强调 建设黄河流域生态保护和高质量发展先行区 在中国式现代化建设中谱写好宁夏篇章', '新华社银川6月21日电 中共中央总书记、国家主席、中央军委主席习近平近日在宁夏考察时强调，宁夏要深入贯彻新发展理念，坚持稳中求进工作总基调，以铸牢中华民族共同体意识为主线，以黄河流域生态保护和高质量发展先行区建设为牵引，统筹推进高质量发展和高水平保护、全面深化改革和扩大开放、新型城镇化和乡村振兴、民族团结和共同富裕等工作，加快建设经济繁荣、民族团结、环境优美、人民富裕的美丽新宁夏，奋力谱写中国式现代化宁夏篇章。', '6月19日，习近平结束在青海考察后，来到宁夏。当天下午，他在宁夏回族自治区党委书记梁言顺和自治区政府主席张雨浦陪同下，到银川市调研。', '6月19日至20日，中共中央总书记、国家主席、中央军委主席习近平在宁夏考察。这是19日下午，习近平在银川市金凤区长城花园社区党群服务中心便民服务厅了解社区开展便民惠民服务等情况。新华社记者 谢环驰 摄', '银川市金凤区长城花园社区是个多民族聚居的大型社区。习近平首先来到社区党群服务中心，走进便民服务厅、社区卫生站、爱心超市，听取社区工作介绍，详细了解社区发挥基层党组织作用、开展邻里活动和便民惠民服务等情况。随后，他来到社区活动室，饶有兴致地观看居民剪纸创作、舞蹈排练，同大家亲切交流，鼓励退休居民既要老有所养、老有所乐，又要老有所为。习近平指出，社区党组织是党联系基层群众的神经末梢，要在社区中发挥领导作用。社区党组织建好建强了，社区工作就有了主心骨。要坚持党建引领，紧紧围绕解决居民的急难愁盼问题，把服务老百姓的各项工作做深做细做到位。', '6月19日至20日，中共中央总书记、国家主席、中央军委主席习近平在宁夏考察。这是19日下午，习近平在银川市金凤区长城花园社区活动室考察时，同社区居民亲切交流。新华社记者 谢环驰 摄', '习近平来到社区居民赵守成家中，同一家人围坐在一起拉家常，了解他们的就业、收入、医保报销、孩子上学等情况，为他们的幸福生活点赞，鼓励孩子德智体美劳全面发展。赵守成告诉总书记，当地党委和政府十分关心社区建设，特别是在改造老旧小区、丰富居民文体生活等方面做了很多实事，各族群众在社区里和睦相处，生活过得很舒心。习近平强调，我们党是全心全意为人民服务的党，各族群众、家家户户都是我的牵挂。希望你们把家庭建设搞得更好，让日子越过越红火。', '6月19日至20日，中共中央总书记、国家主席、中央军委主席习近平在宁夏考察。这是19日下午，习近平在银川市金凤区长城花园社区居民赵守成家中，同一家人围坐在一起拉家常。新华社记者 谢环驰 摄', '傍晚时分，社区广场十分热闹，居民们看见总书记来了，纷纷围拢过来，热烈鼓掌欢迎。习近平亲切地对大家说，时隔4年，我再次来宁夏看望各族干部群众，见到大家非常高兴！中华民族是一个大家庭，各族人民要像石榴籽一样紧紧抱在一起。要不断铸牢中华民族共同体意识，把各族人民的心紧紧连在一起，把各方面的力量广泛凝聚到一起，共同推进中国式现代化，共襄中华民族伟大复兴的盛举。', '6月19日至20日，中共中央总书记、国家主席、中央军委主席习近平在宁夏考察。这是19日下午，习近平在银川市金凤区长城花园社区考察时，同社区居民亲切交流。新华社记者 谢环驰 摄', '20日上午，习近平听取宁夏回族自治区党委和政府工作汇报，对宁夏工作取得的成绩给予肯定。', '习近平指出，宁夏地理环境和资源禀赋独特，要走特色化、差异化的产业发展路子，构建体现宁夏优势、具有较强竞争力的现代化产业体系。宁夏的现代煤化工和新型材料产业，风电、光伏、氢能等清洁能源产业，葡萄酒、枸杞等特色产业，要精耕细作、持续发展。加强文化与旅游深度融合，积极发展特色旅游、全域旅游。强化科技创新和产业创新融合，加大科技成果转化应用力度，促进传统产业转型升级，培育战略性新兴产业，因地制宜发展新质生产力。宁夏北部引黄灌区、中部干旱带、南部山区各有特点，要把准各地产业发展基础、资源环境容量、开放开发潜力，加强统筹规划和产业合作，推动形成山川共济、城乡融合、区域联动的发展格局。', '习近平强调，宁夏要着力深化重点领域改革，探索具有本地特色的改革。完善市场经济基础制度，积极融入全国统一大市场建设，持续推进国资国企改革，认真落实促进民营经济发展政策，优化营商环境，激发社会投资活力。坚持对内对外开放相结合，积极参与共建“一带一路”和西部陆海新通道建设，深化与阿拉伯国家经贸合作，提高内陆开放水平。保护好黄河和贺兰山、六盘山、罗山的生态环境，是宁夏谋划改革发展的基准线，要深化资源环境要素市场化配置改革，完善生态产品价值实现机制和生态保护补偿机制，实施最严格的水资源管理制度。打好黄河“几字弯”攻坚战，统筹推进森林、草原、湿地、荒漠生态保护修复和盐碱地综合治理，让“塞上江南”越来越秀美。', '6月19日至20日，中共中央总书记、国家主席、中央军委主席习近平在宁夏考察。这是19日下午，习近平在银川市金凤区长城花园社区党群服务中心社区卫生站同医务人员亲切交流。新华社记者 谢环驰 摄', '习近平指出，要加强普惠性、基础性、兜底性民生事业建设，着力解决人民群众急难愁盼问题，扎实推进各族人民共同富裕。要把就业摆在突出位置，扎实做好高校毕业生、农民工、退役军人等重点群体就业工作。积极推进城市更新，加强老旧小区改造。顺应人口流动趋势，推动城乡融合发展，促进城乡产业发展、基础设施、公共服务一体化。全面推进乡村振兴，实施好百万移民致富提升行动，建设美丽乡村，促进乡村移风易俗。巩固拓展脱贫攻坚成果，深化定点帮扶、社会帮扶，坚决防止发生规模性返贫。抓好安全生产，加强风险隐患排查和防控，切实维护人民群众生命财产安全。', '6月19日至20日，中共中央总书记、国家主席、中央军委主席习近平在宁夏考察。这是19日下午，习近平在银川市金凤区长城花园社区活动室考察时，同社区居民亲切交流。新华社记者 燕雁 摄', '习近平强调，要全面贯彻新时代党的民族工作大政方针，努力创建铸牢中华民族共同体意识示范区。依法治理民族事务，着力构建互嵌式社会结构和社区环境，不断拓宽各民族全方位嵌入的实践路径。全面贯彻新时代党的宗教工作理论和方针政策，加强对宗教界思想政治引领。', '6月19日至20日，中共中央总书记、国家主席、中央军委主席习近平在宁夏考察。这是19日下午，习近平在银川市金凤区长城花园社区考察时，同社区居民亲切交流。新华社记者 燕雁 摄', '习近平指出，要把正在全党开展的党纪学习教育抓紧抓实、抓出成效，推动党员、干部认真学习党纪党规，在遵规守纪前提下，安心工作、放手干事，锐意进取、积极作为。要坚持党性党风党纪一起抓，完善作风建设常态化长效化制度机制，持续深化整治形式主义为基层减负，一体推进不敢腐、不能腐、不想腐，以优良党风凝聚人心、引领社会风气。', '中共中央总书记、国家主席、中央军委主席习近平近日在宁夏考察时强调，宁夏要深入贯彻新发展理念，坚持稳中求进工作总基调，以铸牢中华民族共同体意识为主线，以黄河流域生态保护和高质量发展先行区建设为牵引，统筹推进高质量发展和高水平保护、全面深化改革和扩大开放、新型城镇化和乡村振兴、民族团结和共同富裕等工作，加快建设经济繁荣、民族团结、环境优美、人民富裕的美丽新宁夏，奋力谱写中国式现代化宁夏篇章。']</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A47" t="n">
+        <v>23</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
           <t>习近平在重庆考察调研</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>2024-04-23</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>https://www.gov.cn/yaowen/liebiao/202404/content_6947063.htm</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>['4月22日至23日，习近平总书记在重庆市考察调研。他先后来到重庆国际物流枢纽园区、九龙坡区谢家湾街道民主村社区、重庆市数字化城市运行和治理中心，了解当地加快建设西部陆海新通道、实施城市更新和保障改善民生、提高城市治理现代化水平等情况。（文字记者：张晓松、朱基钗；摄影记者：鞠鹏、谢环驰、王晔、岳月伟）', '4月22日至23日，习近平总书记在重庆市考察调研。他先后来到重庆国际物流枢纽园区、九龙坡区谢家湾街道民主村社区、重庆市数字化城市运行和治理中心，了解当地加快建设西部陆海新通道、实施城市更新和保障改善民生、提高城市治理现代化水平等情况。']</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A48" t="n">
+        <v>23</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
           <t>对标先进经验实现共同富裕曲沃县组织相关人员赴浙江考察学习推动高质量发展建设共同富裕示范县工作</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>2023-11-19</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>http://www.quwo.gov.cn/zzzb/qwyw/202311/t20231120_269601.html</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>['对标先进经验 实现共同富裕——曲沃县组织相关人员赴浙江考察学习推动高质量发展建设共同富裕示范县工作', '按照县委县政府的安排，为了进一步优化推动高质量发展建设共同富裕示范县规划方案，借鉴先进地区经验，对标完善优化方案，11月14日至11月17日，曲沃县人大常委会主任费向前带队赴浙江省杭州市萧山区、富阳区开展了为期四天的考察学习活动，政府副县长樊奇选，县发改局、农业农村局、统计局、晋之源公司负责人及专家团队成员一行十余人参加。', '考察团一行先后考察了杭州市萧山区、富阳区在公共服务、城乡协调发展、共同富裕、产业发展、农民持续增收、村集体经济发展、未来社区、未来乡村等方面的成功经验和做法，对所到点位的产业发展模式、工作推进方式、市场运作模式等进行了深入了解。此次考察学习行程紧凑、内容丰富，达到了开拓视野、更新观念、学习经验、提升能力的目的。', '11月15日，考察团一行首先来到萧山区信息港小镇、振宁未来社区等地，学习萧山区在科技创新、智慧党建、养老配套等方面的新实践新探索。', '杭州湾信息港，坐落于国家级萧山经济技术开发区核心区块，作为萧山信息港小镇的主要载体，是萧山实施创新强区战略的主要阵地和“4286”产业载体之一，以新一代信息技术为主导，以“互联网+”、“人工智能+”为特色，重点引进软件和信息服务、互联网及互联网+产业、人工智能及人工智能+产业等信息经济产业，聚焦发展信息经济、数字经济，逐步建立起一个“智汇港”+X个“智慧谷”的发展模式。', '结合所看所学，考察团成员表示，要在战略、创新、品牌、团队上下功夫，不断开阔眼界，加大有效投入，激发创新活力，推动创新发展，努力把符合曲沃发展需要的现代产业体系做大做强。', '当天下午，考察团一行来到萧山区浦阳镇、临浦镇横一村等地。横一村金色稻田连片成势，稻田间小火车来回穿梭，鸭棚改成了咖啡厅，江南特色古柿林，梦幻般的HI稻星球，“文艺范”的星空树屋，走进横一村，就像穿越未来时空，丰富、独特的乡村业态嵌入绿水青山间，恍若置身童话世界，令人叹为观止。自2021年10月建成运营以来，已累计接待游客65万余人次。', '考察团成员纷纷表示，回去后将以本次考察学习为契机，认真学习借鉴、消化吸收浙江“千万工程”经验，尤其是学习横一村产业发展、乡村振兴的好思路、好办法，快速将学习成果转化为推动工作的强大动力。', '11月16日上午，考察团又前往杭州市富阳区春江街道八一村、富春街道宵井村等地，认真学习了该地未来乡村建设、党建引领“数字赋能+服务共享”模式以及打造制度友好、服务友好、成长友好的多元化青年发展型场景等先进经验。', '春江街道八一村作为省市区三级叠加的未来乡村，优越的地理位置和优质的公共服务，使得八一村既有青年“留量”，也有青年“流量”：留住了一批“事业在城市、生活在乡村”的候鸟式青年，也吸引了一批外来就业创业青年，凝聚起青春力量为强基共富与产业转型蓄势加油。宵井村的杭派民居被誉为藏在山里的水墨江南。“千万工程”实施20年，宵井村也实现了由乱到治的华丽蝶变，成为转型发展的示范村。', '考察团成员表示，未来社区和未来乡村是推动共同富裕从宏观到微观落地的重要载体，也是落地数字社会多跨场景的两大社会空间。我们要牢牢把握未来社区和未来乡村的家园属性、民生属性，不断丰富直面群众、满足群众需求的应用场景，让优质共享的公共服务看得见、摸得着、体会得到。', '在银湖街道朗和国际医养中心、创新中心等地，考察团详细了解了新型养老模式和电子商务模式。座谈会上，富阳区区领导张浪还详细介绍了富阳区在共同富裕建设方面的经验做法。', '朗和国际医养中心项目硬件环境设施、医疗资源、专业团队和服务理念均处于杭州养老一流水平，定位杭州“家庭式”养老范本，实现了老人家庭化居住体验与养老机构的完美融合。富阳银湖创新中心，目前已入驻130多家企业，有中国（杭州）跨境电子商务综合试验区富阳园区、杭州市留学生创业园富阳园区、杭州市级孵化器等机构平台。', '一路走、一路看、一路思考总结，大家一致认为，此次考察学习既是一次启迪思维、更新观念之行，又是一次学习借鉴、统筹谋划之旅。在加快推进共同富裕示范区建设中，两地改革创新成果好、转型升级发展快、项目推动力度强，很多好理念、好经验、好做法值得曲沃学习借鉴。要以此次考察学习为契机，进一步增强对标意识、开放意识，结合曲沃实际，将此次考察学习所得转化为具体行动，跳出固有的思维定势和路径依赖，以新视角新高度谋划推进突破性改革，在山西高质量发展建设共同富裕示范县创建中走在前、作表率。']</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A49" t="n">
+        <v>23</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
           <t>外出考察拓思路学习借鉴谋发展曲沃县委书记吴滨率党政考察团赴浙江省衢州市开展招商引资考察活动</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>2023-11-09</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>http://www.quwo.gov.cn/zzzb/qwyw/202311/t20231110_265354.html</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>['外出考察拓思路学习借鉴谋发展——曲沃县委书记吴滨率党政考察团赴浙江省衢州市开展招商引资考察活动', '为进一步贯彻落实临汾市委、市政府“冬季行动”部署要求，11月7日至9日，曲沃县委书记吴滨率领党政考察团赴浙江省开展招商引资活动，深入衢州市智造新城部分企业，考察新能源产业发展，学习借鉴招商引资工作经验，深入宣传推介曲沃，扩大和深化各领域务实合作，力争更多大项目、好项目落户曲沃，为推动高质量发展全面提质提速积蓄强劲势能。曲沃经济技术开发区党工委书记、管委会主任孟海河，县委常委、政府常务副县长于乐及县委办、县促投中心、工信、交通、能源、发改、统计等相关职能部门、晋南钢铁、通才工贸等企业负责人参加活动。', '衢州智造新城位于衢州市主城区，是国家级经济技术开发区、国家高新技术产业开发区，是四省边际最具发展活力、发展潜力和投资价值的产业高地。园区总规划面积117.21平方公里，已集聚巨化集团、', '、仙鹤股份、五洲特纸、元立集团、吉利控股、立昂微电子、韩国晓星、旺旺集团等重点企业1100余家，其中规上工业企业352家，A股上市企业7家，报会企业2家，新三板上市企业12家。', '在衢州智造新城党工委副书记、管委会常务副主任巫建民，党工委副书记郑志忠等领导的陪同下，考察团一行围绕新能源产业发展、总体规划布局、营商环境优化、产业链条打造等方面内容进行考察对接，并就如何推动我县引进和培育新兴产业，做好服务保障，推动新能源、新材料、高端装备制造项目落户我县等问题进行沟通交流。', '考察的首站，吴滨一行来到一道新能源科技股份有限公司，通过实地查看、沟通交流，详细了解了该公司发展规模并对接考察了光伏支架生产基地项目。', '一道新能源科技（衢州）有限公司成立于 2018 年 8 月，注册资本 3.07 亿元，在衢州、泰州、苏州等地建有大型光伏生产基地。该公司专业从事高效光伏电池、组件及系统应用的研发和制造及电站投资、建设、运营，是致力于全场景光伏新能源系统应用的综合服务商。考察中，吴滨一行详细了解了企业总体规模、技术创新应用等方面情况，对接', '项目以及光伏产业，并召开座谈会，与会人员围绕如何加强双方合作进行了探讨。吴滨表示，近年来，曲沃县着力推动钢铁产业转型升级，大力推动光伏等新能源建设力度，一道新能源科技公司实力雄厚，与曲沃产业发展方向相契合，希望双方能够加强合作，推动互利共赢。', '衢州鑫晟创瀛新能源有限公司是鹏辉新能源科技有限公司储能电站分公司，主要从事新能源汽车换电设施销售、电池销售、电池零配件销售、充电控制设备租赁、工程管理服务、机动车充电销售、技术开发、集中式快速充电站、新能源汽车废旧动力蓄电池回收及梯次利用等。', '在该公司生产车间，吴滨实地查看了生产线，了解了企业技术研发应用等情况，并对接考察晋南钢铁300MWh储能电站投资建设项目，双方围绕如何深化合作等事宜进行交流。考察的最后一站，吴滨一行来到了吉利衢州三电系列项目。该项目总投资约220亿元，建设年产 24GWh动力电芯、84万台套计约 70GWh 动力电池包及 17GWh 储能、121万台套电驱系列项目。项目全部达产后预计年均可实现600亿元营收，20亿元税收。主要建设内容包括：电芯、电池、电驱、储能产品生产车间、原材料、成品仓库、办公生活配套工程等。项目于2022年7月18日开工，预计 2023年四季度第一批产品下线。', '考察当中，吴滨简要介绍了曲沃经济社会发展情况。他指出，曲沃历史底蕴深厚，产业基础扎实，近年来，全县上下奋力拼搏，各项事业取得了明显成效。特别是在工业产业上，晋南钢铁集团、通才工贸公司连年入选中国企业500强、中国民营企业500强，近年来企业通过转型升级，不断发展壮大。此次前来衢州智造新城，使我们深受启发，希望双方能够加深合作交流，密切两地联系。同时，吴滨表示，曲沃诚挚欢迎各位企业家朋友前来参观考察，曲沃将持续优化营商环境，做好服务保障，为企业相关项目在曲沃落地提供良好环境。', '考察中，吴滨一行还参观了智造新城展厅，详细了解了当地产业布局、发展理念等情况。吴滨指出，通过实地考察，衢州新城一流的创新生态、精准的招商理念、强劲的发展活力和良好的发展势头给大家留下了深刻印象，为曲沃推动高质量发展全面提质提速提供了有益借鉴。我县要结合实际，找准学习借鉴先进地区的切入点，将“他山之石”转化为对各项工作的启发，尤其在营商环境打造、新兴产业引进培育等方面，要对标先进、拉高标杆，取人之长、补己之短，不断巩固提升曲沃良好的发展态势，推动曲沃高质量发展全面提质提速度。']</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A50" t="n">
+        <v>23</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
           <t>习近平在山东考察时强调以进一步全面深化改革为动力奋力谱写中国式现代化山东篇章</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>2024-05-27</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>https://www.gov.cn/yaowen/liebiao/202405/content_6953437.htm</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>['习近平在山东考察时强调：以进一步全面深化改革为动力 奋力谱写中国式现代化山东篇章__中国政府网', '习近平在山东考察时强调 以进一步全面深化改革为动力 奋力谱写中国式现代化山东篇章 蔡奇陪同考察', '5月22日至24日，中共中央总书记、国家主席、中央军委主席习近平在山东考察。这是22日下午，习近平在日照港亲切慰问港口科技工作者、运营人员、航运人员。新华社记者 谢环驰 摄', '新华社济南5月24日电 中共中央总书记、国家主席、中央军委主席习近平近日在山东考察时强调，山东要在全国发展大局中定好位、挑大梁，完整准确全面贯彻新发展理念，以进一步全面深化改革为动力，继续在服务和融入新发展格局上走在前、在增强经济社会发展创新力上走在前、在推动黄河流域生态保护和高质量发展上走在前，加快建设绿色低碳高质量发展先行区，打造高水平对外开放新高地，奋力谱写中国式现代化山东篇章。', '5月22日至24日，习近平在山东省委书记林武和省长周乃翔陪同下，先后来到日照、济南等地进行调研。', '5月22日至24日，中共中央总书记、国家主席、中央军委主席习近平在山东考察。这是22日下午，习近平在日照港察看全自动化集装箱码头作业场景。新华社记者 鞠鹏 摄', '22日下午，习近平首先来到日照港考察。日照港是重要的能源和大宗原材料中转基地，近年来推进智慧化、绿色化建设，建成顺岸开放式全自动化集装箱码头。习近平听取山东省港口发展建设和日照港规划布局等情况介绍，并察看全自动化集装箱码头作业场景。他说，日照港是改革开放后新建的港口，近年来推进科技创新，将传统港口改造升级为现代化港口，不仅货物吞吐量跻身全国前列，还积累了通过传统产业改造升级发展新质生产力的经验，值得肯定。习近平亲切慰问港口科技工作者、运营人员、航运人员，希望大家再接再厉、继续奋斗，推动日照港管理运营更上一层楼。', '5月22日至24日，中共中央总书记、国家主席、中央军委主席习近平在山东考察。这是22日下午，习近平在日照市阳光海岸绿道考察。新华社记者 鞠鹏 摄', '随后，习近平考察了日照市阳光海岸绿道。近年来，日照市对沿海裸露场地及岸线破损处进行生态修复，建成约28公里的阳光海岸绿道，为市民和游客提供了运动休闲好去处。习近平听取绿道整体建设情况介绍，察看修复治理后的海岸线生态环境，了解当地升级文旅产业、提升人民生活品质的做法和成效，并不时同市民和游客亲切交流。他指出，建设绿道应市民所需，是得民心之事。推进中国式现代化，就是要让人民群众的生活越来越好。生态环境好，老百姓就多了一份实实在在的幸福感。大家要一起动手，共同建设和呵护美好家园。', '5月22日至24日，中共中央总书记、国家主席、中央军委主席习近平在山东考察。这是22日下午，习近平在日照市阳光海岸绿道同市民亲切交流。新华社记者 谢环驰 摄', '24日上午，习近平在济南市听取了山东省委和省政府工作汇报，对山东各项工作取得的成绩给予肯定。', '习近平指出，山东在推进科技创新与产业创新深度融合、发展新质生产力、完善现代化产业体系上大有可为。要着眼国家战略需求，统筹推进传统产业改造提升、新兴产业培育壮大、未来产业超前布局，全面释放实体经济和数字经济融合效能，因地制宜发展新质生产力。要大力推动发展方式绿色低碳转型，推进绿色环保科技创新和产业发展。要深度对接区域协调发展战略，努力成为北方地区经济重要增长极。要发挥海洋资源丰富的得天独厚优势，经略海洋、向海图强，打造世界级海洋港口群，打造现代海洋经济发展高地。', '5月22日至24日，中共中央总书记、国家主席、中央军委主席习近平在山东考察。这是22日下午，习近平在日照港亲切慰问港口科技工作者、运营人员、航运人员。新华社记者 鞠鹏 摄', '习近平强调，山东要在进一步全面深化改革、推进高水平对外开放上勇争先。要聚焦推进中国式现代化，在解决制约高质量发展的突出矛盾上下功夫，在完善制度、健全机制、激发活力、增添动力上用实劲。要积极构建国际物流大通道，大力推动自由贸易区联动创新，建设好制度型开放示范区，深度融入高质量共建“一带一路”，精心打造重大国际交流合作高能级平台，努力成为畅通国内国际双循环的重要节点。', '习近平指出，山东是农业大省、粮食大省，在保障国家粮食安全方面责任重大。要深化城乡融合发展，全面推进乡村振兴，提高村庄规划编制质量和实效，大力发展现代农业，积极发展乡村特色产业和农产品加工业，延长产业链、提升价值链。推进高标准农田建设，推动实现粮食增产提质，建设更高水平的“齐鲁粮仓”。要巩固拓展脱贫攻坚成果，拓宽共同富裕路径，推动农业增效益、农民增收入、农村增活力。要坚持和发展新时代“枫桥经验”，坚持以党建引领基层治理，提高基层党组织领导基层治理能力，提升农村公共服务水平，巩固农村和谐稳定、群众安居乐业的良好局面。', '习近平强调，山东要担负起新时代的文化使命，在推动文化繁荣、建设文化强国、建设中华民族现代文明上积极作为。要坚定文化自信，深入挖掘中华优秀传统文化精华，坚持创造性转化、创新性发展，以国际孔子文化节等为载体深化文明交流互鉴，提升中华文化影响力。要保护和运用好红色资源，大力弘扬沂蒙精神，推动红色基因代代相传。要广泛践行社会主义核心价值观，持续深化城乡精神文明建设，抓好农村移风易俗，让现代文明理念在乡村深深扎根。要繁荣发展文化事业和文化产业，创新实施文化惠民工程，大力推进文化数字化，让社会主义先进文化为经济发展增动能增效益、为旅游休闲增内涵增魅力、为城乡社会增正气增活力。', '5月22日至24日，中共中央总书记、国家主席、中央军委主席习近平在山东考察。这是22日下午，习近平在日照市阳光海岸绿道同市民和游客亲切交流。新华社记者 谢环驰 摄', '习近平指出，推进中国式现代化，必须坚持党的领导、抓好党的建设。正在全党开展的党纪学习教育是今年党建工作的重点任务，各级党组织要精心组织、扎实推动、务求实效。要加强警示教育，抓好以案促学、以案说纪，让心存敬畏、手握戒尺真正成为日常自觉。要引导党员、干部全面理解和执行党的纪律，在遵规守纪前提下，安心工作、放手干事、锐意进取、积极作为，创造不负人民、不负时代的业绩。要以党纪学习教育为契机，持续深化整治形式主义为基层减负，为基层干部干事创业营造良好环境。', '习近平强调，各级党委和政府要统筹发展和安全，扎实抓好中小金融机构、地方政府债务、房地产等重点领域风险防控和化解工作，落细落实安全生产责任，及早预防可能出现的洪涝等灾害，全面加强各领域安全风险隐患排查整治，切实防患于未然，守住安全底线。', '5月22日至24日，中共中央总书记、国家主席、中央军委主席习近平在山东考察。这是23日上午，习近平在济南亲切接见驻济南部队上校以上领导干部，代表党中央和中央军委向驻济南部队全体官兵致以诚挚问候。新华社记者 李刚 摄', '5月23日上午，习近平在济南亲切接见驻济南部队上校以上领导干部，代表党中央和中央军委向驻济南部队全体官兵致以诚挚问候，并同大家合影留念。张又侠陪同接见。', '中共中央总书记、国家主席、中央军委主席习近平近日在山东考察时强调，山东要在全国发展大局中定好位、挑大梁，完整准确全面贯彻新发展理念，以进一步全面深化改革为动力，继续在服务和融入新发展格局上走在前、在增强经济社会发展创新力上走在前、在推动黄河流域生态保护和高质量发展上走在前，加快建设绿色低碳高质量发展先行区，打造高水平对外开放新高地，奋力谱写中国式现代化山东篇章。']</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A51" t="n">
+        <v>23</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
           <t>中国政府网习近平在青海考察时强调持续推进青藏高原生态保护和高质量发展奋力谱写中国式现代化青海篇章</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>2024-06-20</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>https://www.gov.cn/yaowen/liebiao/202406/content_6958386.htm</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>['习近平在青海考察时强调：持续推进青藏高原生态保护和高质量发展 奋力谱写中国式现代化青海篇章__中国政府网', '习近平在青海考察时强调：持续推进青藏高原生态保护和高质量发展 奋力谱写中国式现代化青海篇章', '习近平在青海考察时强调 持续推进青藏高原生态保护和高质量发展 奋力谱写中国式现代化青海篇章', '新华社西宁6月20日电 中共中央总书记、国家主席、中央军委主席习近平近日在青海考察时强调，青海要认真贯彻党中央决策部署，完整准确全面贯彻新发展理念，牢牢把握青海在全国发展大局中的战略定位，充分发挥自身优势，坚持深化改革、扩大开放，坚持生态优先、绿色发展，坚持民族团结、共同富裕，在推进青藏高原生态保护和高质量发展上取得更大进展，奋力谱写中国式现代化青海篇章。', '6月18日至19日，习近平在青海省委书记陈刚和省长吴晓军陪同下，深入西宁市的学校、宗教场所等进行调研。', '6月18日至19日，中共中央总书记、国家主席、中央军委主席习近平在青海考察。这是18日下午，习近平在果洛西宁民族中学食堂察看学生就餐条件。新华社记者 谢环驰 摄', '6月18日至19日，中共中央总书记、国家主席、中央军委主席习近平在青海考察。这是18日下午，习近平在果洛西宁民族中学宿舍楼察看学生住宿条件。新华社记者 岳月伟 摄', '18日下午，习近平首先来到果洛西宁民族中学考察。这是一所隶属于果洛藏族自治州的寄宿制中学，由上海市投资援建。习近平听取上海等东部地区援助青海教育工作和学校建设情况介绍，详细询问学生构成、课程设置、体育锻炼、普通话水平等情况，走进食堂、宿舍楼察看学生就餐和住宿条件，嘱咐食堂工作人员一定要确保学生饮食安全、营养可口。之后，他来到高一（1）班教室，观摩“新时代、新家乡”主题思政课。了解到学校将思政课内容融入日常教学，听了孩子们讲述新时代家乡的可喜变化，看了孩子们的画作，习近平十分高兴。他说，包括教育在内的东西部协作和对口支援取得显著成效，充分彰显了中国共产党领导和中国特色社会主义制度的优势，充分体现了中华民族大家庭的温暖。要把铸牢中华民族共同体意识作为学校思政课的一个重点，讲好中国共产党和中国特色社会主义的故事，讲好新时代以中国式现代化全面推进强国建设、民族复兴伟业的故事，讲好中华民族共同体和民族团结进步的故事，把中华民族共同体意识从小就植入孩子们的心灵。', '6月18日至19日，中共中央总书记、国家主席、中央军委主席习近平在青海考察。这是18日下午，习近平在果洛西宁民族中学高一（1）班观摩“新时代、新家乡”主题思政课时，同学生亲切交流。新华社记者 鞠鹏 摄', '6月18日至19日，中共中央总书记、国家主席、中央军委主席习近平在青海考察。这是18日下午，习近平在果洛西宁民族中学高一（1）班观摩“新时代、新家乡”主题思政课。新华社记者 鞠鹏 摄', '教学楼前广场上，师生们纷纷围拢过来，高声向总书记问好。习近平亲切地对大家说，我到西宁第一站就来看望老师和同学们。上海援建的这所中学，培养来自果洛牧区的各民族孩子，成效明显，意义深远。希望孩子们倍加珍惜这里的良好条件，心怀感恩、好好学习，德智体美劳全面发展，立志成为中国特色社会主义事业的接班人和建设者，努力为自己赢得人生出彩的机会。他祝孩子们学有所成、健康成长。', '6月18日至19日，中共中央总书记、国家主席、中央军委主席习近平在青海考察。这是18日下午，习近平在果洛西宁民族中学考察时，同师生们亲切交流。新华社记者 谢环驰 摄', '6月18日至19日，中共中央总书记、国家主席、中央军委主席习近平在青海考察。这是18日下午，习近平在果洛西宁民族中学考察时，同师生们亲切交流。新华社记者 燕雁 摄', '随后，习近平来到位于西宁市城中区的宏觉寺。在寺前院落，宏觉寺民主管理委员会负责人向总书记敬献哈达，僧人提香炉、持宝伞迎接总书记。习近平参观青海省民族团结进步教育基地展陈等，了解寺庙历史沿革、老一辈革命家关心推动民族工作和宗教工作的情况。他走进大殿，听取寺庙加强日常管理、促进民族团结进步等情况介绍。习近平指出，宏觉寺这座千年古刹，在增进历代中央政府与藏传佛教联系方面发挥了重要的桥梁纽带作用。要保护好这份珍贵的历史文化遗产，为铸牢中华民族共同体意识、促进民族团结进步作出新贡献。要向老一辈革命家学习，把新时代党的统战工作、民族工作、宗教工作做得更好。习近平强调，以中国式现代化全面推进强国建设、民族复兴伟业，需要全国各族人民包括广大信教群众团结奋斗。希望青海藏传佛教界弘扬爱国爱教优良传统，促进宗教和顺、社会和谐、民族和睦，在中国式现代化进程中发挥积极作用。', '6月18日至19日，中共中央总书记、国家主席、中央军委主席习近平在青海考察。这是18日下午，习近平在位于西宁市城中区的宏觉寺考察。新华社记者 翟健岚 摄', '6月18日至19日，中共中央总书记、国家主席、中央军委主席习近平在青海考察。这是18日下午，习近平在位于西宁市城中区的宏觉寺考察。新华社记者 谢环驰 摄', '19日上午，习近平听取青海省委和省政府工作汇报，对青海各项工作取得的成绩给予肯定。', '习近平指出，青海承担着维护生态安全的重大使命，产业发展必须坚持有所为、有所不为，着力培育体现本地特色和优势的现代化产业体系。要有效集聚资源要素，加快建设世界级盐湖产业基地，打造国家清洁能源产业高地、国际生态旅游目的地、绿色有机农畜产品输出地。坚持科技研发和成果转化两手抓，广泛应用新技术，因地制宜改造提升传统产业、发展战略性新兴产业，培育新质生产力。进一步全面深化改革、扩大开放，优化营商环境，主动对接长江经济带发展等重大战略，推动绿色丝绸之路建设。统筹省内区域协调发展，发挥好西宁、海东、海西支撑作用，因地制宜发展县域经济、特色产业。', '习近平强调，青藏高原生态系统丰富多样、也十分脆弱，加强生态环境保护，实现生态功能最大化，是这一区域的主要任务。要始终坚持生态优先、绿色发展，认真实施青藏高原生态保护法，全面落实主体功能区规划要求，把青藏高原建设成为生态文明高地。坚持山水林田湖草沙一体化保护和系统治理，加快实施重要生态系统保护和修复重大工程，巩固提升生态环境保护成效。重中之重是把三江源这个“中华水塔”守护好，保护生物多样性，提升水源涵养能力。加强以国家公园为主体的自然保护地体系建设，打造具有国家代表性和世界影响力的自然保护地典范。有序推进重点领域节能降碳，发展生态友好型产业，加快构建新型能源体系。', '6月18日至19日，中共中央总书记、国家主席、中央军委主席习近平在青海考察。这是18日下午，习近平在果洛西宁民族中学考察时，向师生们挥手致意。新华社记者 鞠鹏 摄', '习近平指出，要切实保障和改善民生，尽力而为、量力而行，多办顺民意、惠民生、暖民心的实事，扎实解决群众急难愁盼问题。统筹谋划基本公共服务设施布局，着力增强基本公共服务的均衡性可及性。乡村振兴要突出农牧民增收这个重点，加快推进高原特色种业振兴行动，发展绿色有机农牧业，打响高原土特产品牌。推进高原美丽乡村建设，推动移风易俗。落实防止返贫监测帮扶机制，确保不发生规模性返贫。继续做好积石山地震灾后恢复重建工作，加强防灾减灾救灾能力建设。', '6月18日至19日，中共中央总书记、国家主席、中央军委主席习近平在青海考察。这是18日下午，习近平在果洛西宁民族中学考察时，同师生们亲切交流。新华社记者 岳月伟 摄', '习近平强调，青海是我国少数民族分布集中的省份，要继续做好民族工作和宗教工作。全面贯彻新时代党的民族工作大政方针，坚持以铸牢中华民族共同体意识为主线，广泛开展民族团结进步创建工作，促进各民族全方位嵌入、广泛交往交流交融。全面贯彻新时代党的宗教工作理论和方针政策，坚持我国宗教中国化方向，依法加强宗教事务管理特别是宗教活动场所管理。', '习近平指出，目前正在开展党纪学习教育，要真抓实学、善始善终，以学纪知纪明纪促进遵纪守纪执纪。大力弘扬以改革创新为核心的时代精神和青藏高原精神，激励党员、干部进一步解放思想、转变观念，锐意进取、担当作为。坚持党性党风党纪一起抓、正风肃纪反腐相贯通，推进作风建设常态化长效化，持续深化整治形式主义为基层减负。完善一体推进不敢腐、不能腐、不想腐工作机制，以风清气正的政治生态引领形成正气充盈的社会生态。', '习近平强调，青海要认真贯彻党中央决策部署，完整准确全面贯彻新发展理念，牢牢把握青海在全国发展大局中的战略定位，充分发挥自身优势，坚持深化改革、扩大开放，坚持生态优先、绿色发展，坚持民族团结、共同富裕，在推进青藏高原生态保护和高质量发展上取得更大进展，奋力谱写中国式现代化青海篇章。']</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A52" t="n">
+        <v>23</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
           <t>在更高起点上推动高质量发展习近平总书记在青海宁夏考察时的重要讲话激励我省广大党员干部真抓实干开拓奋进</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>2024-06-24</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>https://www.shanxi.gov.cn/ywdt/sxyw/202406/t20240624_9593731.shtml</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>['连日来我省广大党员干部深入学习领会习近平总书记在青海、宁夏考察时的重要讲话精神。大家一致认为，习近平总书记的重要讲话，为山西紧扣推进中国式现代化这个主题，在更高起点上着力推动高质量发展指明了前进方向。纷纷表示，要切实在学懂、弄通、做实上持续下功夫，扛牢习近平总书记和党中央赋予山西的重大使命，将学习、工作热情转化为攻坚克难、干事创业的强大动力，推动全省各项事业不断提高，为奋力谱写中国式现代化山西篇章做出贡献。', '“产业发展必须坚持有所为、有所不为，着力培育体现本地特色和优势的现代化产业体系”“因地制宜改造提升传统产业、发展战略性新兴产业，培育新质生产力”“走特色化、差异化的产业发展路子”……考察期间，习近平总书记围绕培育现代化产业体系作出重要指示，为推动高质量发展、发展新质生产力提供了科学指南和根本遵循。', '结合山西实际，我省在培育现代化产业体系、加快新质生产力布局发展中更加注重创新驱动发展、绿色低碳发展、体制机制创新和因地制宜，既积极布局发展新兴产业、未来产业，同时加快改造提升传统产业。', '晋城市工信局（国资委）党委书记、党组书记、局长席学武说，要把推进新型工业化作为发展新质生产力的根本途径，用足用好产业链、专业镇、产业集群三大平台，大力改造提升煤炭、煤层气、电力、钢铁、化工、铸造六大优势产业，发展壮大光机电、高端装备制造、现代消费品、废弃资源综合利用四大新兴产业，培育布局机器人、氢能与储能等未来产业，加速产业集群集聚，塑造发展新动能新优势。', '永和县紧扣沿黄板块发展定位，围绕糯高粱、永和枣羊、药用酸枣、天然气、文旅等特色优势产业，谋划实施一批带动性强、贡献率高、发展前景广、产业链长的好项目、大项目，全力推动特优农业提质增效、能源工业提速增量、文旅服务提档增值，构筑具有永和特色的现代化产业体系。该县县委书记高永贤表示：“将加快建设黄河流域生态治理保护‘样板县’、有机旱作特色农业‘示范县’、全省新型能源工业‘领跑县’、文旅产业融合发展‘品牌县’。”', '作为国家战略科技力量，煤炭高效低碳利用全国重点实验室正在围绕煤炭煤焦化、煤气化、煤制油等关键科学和工程技术问题，开展基础研究、技术开发和成果转化。“习近平总书记的重要讲话，是对科研人员的极大鼓励。”该实验室副主任白进说，将加快推进煤化工智能化技术、煤制油产品技术迭代、煤基固废规模化利用技术示范及转化，为山西因地制宜发展新型煤基产业提供助力。', '“始终坚持生态优先、绿色发展”“完善生态产品价值实现机制和生态保护补偿机制，实施最严格的水资源管理制度”“坚持山水林田湖草沙一体化保护和系统治理，加快实施重要生态系统保护和修复重大工程，巩固提升生态环境保护成效”……习近平总书记始终高度重视生态文明建设，引领推动生态文明建设向纵深推进。', '黄河流域生态保护和高质量发展是习近平总书记亲自谋划的重大国家战略，“一泓清水入黄河”是习近平总书记寄予山西的殷切期盼。山西始终坚持把生态文明建设摆在全局工作的突出位置，深入实施“一泓清水入黄河”工程，全省生态环境质量持续明显改善。数据显示，今年1至4月，我省黄河流域优良水体比例提升到91.5%，同比提升12.2个百分点。', '省生态环境厅综合处处长李婕说，作为黄河中游重要省份，山西将深入贯彻落实《黄河流域生态保护和高质量发展规划纲要》，坚持山水林田湖草沙系统治理，协同推进减污降碳扩绿增长，深入实施“一泓清水入黄河”生态保护工程，加快让汾河母亲河水量丰起来、水质好起来、风光美起来。', '近日，我省申报的“山西省忻州市黄河‘几字弯’重点生态攻坚区历史遗留废弃矿山生态修复示范工程”和“山西省朔州市国家‘三北’工程重点地区历史遗留废弃矿山生态修复示范工程”在国家级竞争性评审中成功入选。省自然资源厅国土空间生态修复处处长曾波说：“要持续推进实施‘山水工程’，以流域为单元，实施系统治理、综合治理、源头治理，加快实施重要生态系统保护和修复重大工程，助推我省黄河流域生态保护和高质量发展。”', '地处毛乌素沙漠边缘的偏关县，近年来生态建设成效显著，国土绿化率由1977年底的不足4%增加到40%。该县县委书记杨晓宏说：“我们坚决扛起黄河入晋第一县‘首站首责’，坚持山水林田湖草沙一体化保护和治理，按山系与流域整沟规划、新旧工程衔接、网带片点一体化推进，把实施好‘一泓清水入黄河’工程作为推动高质量发展全面提质提速的‘一号工程’，咬定青山不放松，为建设美丽山西作出贡献。”', '近日，行业首台甲醇增程挖掘机TZ245EM在太重问世，这是继纯电、全电、氢能之后，太重又一款新能源动力挖掘机产品，是太重积极投身新技术研发、践行“双碳”目标的重要成果。太重集团技术中心党委书记、主任程东生表示：“太重将抓住黄河流域生态保护和高质量发展先行区建设的重大机遇，不断提升企业工程机械行业绿色化水平，全面建设国际一流企业，为中国式现代化山西实践增光添彩。”', '习近平总书记强调，要切实保障和改善民生，尽力而为、量力而行，多办顺民意、惠民生、暖民心的实事，扎实解决群众急难愁盼问题。', '今年1至5月，全省城镇新增就业20.49万人，完成目标任务的45.53%，各类重点群体就业总体稳定。省人社厅党组书记、厅长常建忠表示：“我们将抓牢抓实就业这个最基本的民生，深入落实就业优先战略，完善重点群体就业支持政策，依托重点产业链、特色专业镇、开发区等平台载体大力拓展就业岗位，推进就业公共服务覆盖到全省所有行政村和社区，拿出更多促进高校毕业生就业的工作举措，坚持外出就业和就地就近就业并重促进农民工就业，针对就业困难群体开展精准帮扶，统筹推进退役军人、妇女等群体就业工作，确保零就业家庭动态清零。”', '易地搬迁群众是规模性返贫风险较高的特殊群体。近年来，娄烦县牢牢守住不发生规模性返贫底线，把持续推进易地扶贫搬迁后续扶持工作作为巩固拓展脱贫攻坚成果的重要抓手之一，不断扶持壮大特色产业。“我们将在乡镇易地搬迁点优先入库实施一批风险低、效益突出的规模产业，如成功引进密集型就业企业在安置区落地发展。”娄烦县农业农村和水务局党组书记、常务副局长高文辉说，全县易地扶贫搬迁安置点后续产业发展实现了光伏产业全覆盖，易地搬迁脱贫家庭至少有一名劳动力就业。', '太原市把老旧小区改造作为民生工程、发展工程大力推动，2024年开工改造老旧小区668个，涉及1052.3万平方米、14.2万户、3454栋楼，同步海绵城市建设将完成建成区44%以上的面积达到目标要求的任务，推动城市品质提升。太原市委住建工委书记曹炬表示，太原将统筹安排改造计划、科学制定改造方案，坚持问题导向、目标导向，改造前问需于民、形成共识，改造中问计于民、达成共建，改造后问效于民、实现共评，切实保证改造效果，不断增强人民群众获得感幸福感安全感。', '习近平总书记赴青海、宁夏考察，贯穿着“铸牢中华民族共同体意识”这一主线。“铸牢中华民族共同体意识是新时代党的民族工作和民族地区各项工作的主线，是民族团结进步价值理念的高度凝练。”省委统战部主持日常工作的副部长师帅表示，要紧紧围绕铸牢中华民族共同体意识主线，塑“有形”之魂、行“有感”之举、用“有效”之方，画好新时代民族工作“同心圆”，把各族人民的心紧紧连在一起，把各方面的力量广泛凝聚到一起，共同团结奋斗，共同繁荣发展。', '习近平总书记强调，要把正在全党开展的党纪学习教育抓紧抓实、抓出成效。我省始终紧扣一个“实”字，扎实开展党纪学习教育。省委高质量举办省委理论学习中心组（扩大）读书班、召开全省警示教育会、开展省委理论学习中心组专题学习研讨等，为各级开展党纪学习教育树立了标杆、做出了示范。各级党组织细化工作安排，形成工作任务，明确牵头部门、时间节点，统筹抓好学习研讨、警示教育、解读培训，推动党纪学习教育走深走实。', '晋中市榆次区委常委、组织部部长马兰平说：“我们通过区领导带头，引领带动1400余个党组织、3.8万余名党员充分利用理论学习中心组、‘三会一课’、主题党日、辅导讲座等形式，原原本本、逐章逐条学习条例内容，引导党员干部用心学纪、准确知纪、立规明纪、遵规守纪。”', '夏县纪委监委针对不同群体，量身定制纪律教育“套餐”，通过到庭审现场、廉政教育基地等阵地现场学纪，召开警示教育大会、编印《忏悔书汇编》、观看警示教育片等案例学纪，加深党员干部对党纪的理解和敬畏。夏县县委常委、纪委书记、县监委主任卫国表示：“我们将继续以学纪知纪明纪促进遵纪守纪执纪，持续深化纠‘四风’、树新风，教育引导全县党员干部遵规守纪、安心工作、放手干事，让愿干事、真干事、干成事蔚然成风。”（杨文俊 贺锴 王利强 陈俊琦 高建华 邓伟强 丁园 晋帅妮 杜鹃 程国媛 沈佳 李全宏 郭玉琴 郭慧聪）']</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A53" t="n">
+        <v>23</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
           <t>岳元春一行到我县考察学习推进农文旅融合发展经验做法</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>2023-11-08</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>http://www.yicheng.gov.cn/zzzb/ycyw/202311/t20231108_263979.html</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>['11月6日，太原市晋源区政协党组书记、主席岳元春一行到我县考察学习推进农文旅融合发展经验做法，县政协主席、政法委书记刘生明，县政协副主席张新民、贾永强，秘书长梁俊陪同。', '岳元春一行先后到四圣宫、楸树街、香菇产业区、县博物馆，通过实地考察、听取汇报等方式，详细了解我县农文旅融合发展、传统历史文化价值、产业运营等情况。', '考察团对我县农文旅融合发展过程中的成功经验和做法表示赞同。认为我县有得天独厚的资源禀赋，农业和文化产业发展特色鲜明，农文旅融合发展有成效、有亮点、有特色。他们表示，将以此次考察为契机，充分学习借鉴我县的好经验、好做法，对标先进、取长补短，今后将进一步加强沟通、深化两地政协间合作交流，共同探索农文旅融合发展新路子，努力实现优势互补、合作共赢。']</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A54" t="n">
+        <v>23</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
           <t>我国首艘深远海多功能科学考察及文物考古船出坞</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>2024-04-21</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>https://www.gov.cn/yaowen/liebiao/202404/content_6946517.htm</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>['新华社广州4月20日电（记者 田建川）我国首艘深远海多功能科学考察及文物考古船20日在广州出坞。该船由我国自主设计和建造，它的建造出坞，标志着我国在冰区深海科考装备和船舶设计自主可控方面取得重要进展。', '4月20日，深远海多功能科学考察及文物考古船在广州出坞（无人机照片）。新华社发（钟伟 摄）', '这艘可进行深海科学考察及文物考古、夏季可进行极区海域考察的新型多功能科考船舶，具备无限制水域航行、载人深潜、深海探测等功能，可为深远海地质、环境和生命科学相关前沿问题研究提供所需的样品和环境数据，支持深海核心技术装备的海上试验与应用。', '这艘深远海多功能科学考察及文物考古船总投资约8亿元，建造内容包括船舶系统、载人深潜水面支持系统和综合科考作业系统。该船续航力15000海里、载员80人。此次出坞后，将开展设备调试和系统联调、船舶海试和科考设备海试等，预计于2025年完工交船投入海上作业。未来将成为我国多体系融合、多学科交叉、协同行动创新的开放共享型海上平台。', '该船由我国自主设计和建造，它的建造出坞，标志着我国在冰区深海科考装备和船舶设计自主可控方面取得重要进展。']</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A55" t="n">
+        <v>23</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
           <t>迈出新步伐展现新作为习近平总书记在山东考察时的重要讲话激励广大干部群众抓改革促发展</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>2024-05-25</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>https://www.gov.cn/yaowen/liebiao/202405/content_6953483.htm</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>['迈出新步伐 展现新作为——习近平总书记在山东考察时的重要讲话激励广大干部群众抓改革促发展__中国政府网', '迈出新步伐 展现新作为——习近平总书记在山东考察时的重要讲话激励广大干部群众抓改革促发展', '新华社北京5月24日电 题：迈出新步伐 展现新作为——习近平总书记在山东考察时的重要讲话激励广大干部群众抓改革促发展', '题：迈出新步伐 展现新作为——习近平总书记在山东考察时的重要讲话激励广大干部群众抓改革促发展', '习近平总书记近日在山东考察时发表重要讲话，强调以进一步全面深化改革为动力，奋力谱写中国式现代化山东篇章。广大干部群众认真学习领会重要讲话精神，表示要以习近平新时代中国特色社会主义思想为指引，实干担当、锐意进取，以奋发有为的姿态推动中国式现代化取得新进展、开创新局面。', '山东潍坊，潍柴集团的生产车间内，一台台机器人开足马力，清洁能源发动机装配线持续满负荷运转。', '学习了习近平总书记的重要讲话，潍柴集团董事长谭旭光说：“正是紧紧依靠改革，潍柴集团从濒临破产发展成为全球知名发动机企业。我们要按照总书记的要求，拿出更大决心和信心，持续推进改革，不断激发企业创新发展的新活力。”', '浙江杭州，每日互动股份有限公司的大屏上，一道道“绿波”连接真实的城市交通——通过大数据实时优化红绿灯时长，道路更加通畅。', '“习近平总书记强调以进一步全面深化改革为动力，我们深有体会。”公司创始人方毅说，“企业是改革的受益者，也是参与者。得益于浙江省进行的深化数据知识产权改革，公司四项数据产品获得了知识产权登记证书，将有效防止产品被侵权、滥用。我们积极拥护改革、全力投入改革，将紧抓发展机遇、释放数据动能，争当发展新质生产力的生力军。”', '广州市科学技术局成果转化与区域创新处处长李家华，正在为完善科技成果从研发端向企业端的转化机制忙碌。“在解决制约高质量发展的突出矛盾上下功夫，在完善制度、健全机制、激发活力、增添动力上用实劲。总书记的明确要求为我们指明了工作方向。”李家华说，将聚焦科技成果转化中的难点、堵点和痛点，持续打通“高速路”，把科技创新这一“最大变量”转化为经济社会发展的“最大增量”。', '重庆团结村中心站，一列列满载货物的西部陆海新通道铁海联运班列从这里驶出。“总书记不久前在重庆考察时嘱咐我们把西部陆海新通道这一标志性项目建设好、运营好，带动西部和内陆地区高水平对外开放。这一次总书记再次强调‘打造高水平对外开放新高地’，我们更感重任在肩。”重庆市政府口岸物流办主任杨琳表示，将持续完善通道合作共建机制，更好发挥辐射带动效应，助力西部地区形成更高水平、更大范围的对外开放新格局。', '黄海之滨，山东日照港全自动化集装箱码头上，无人驾驶的集装箱卡车往来穿梭，一派繁忙中却鲜见工作人员的身影。', '“习近平总书记对日照港通过传统产业改造升级发展新质生产力的经验表示肯定，我们很受鼓舞。”山东省港口集团董事长霍高原说，“过去40年间，港口从简单的机械化逐渐向电气化，再向自动化、智能化发展。未来我们要按照总书记的要求继续奋斗，围绕培育新质生产力，自立自强提升科技创新水平，加快建设世界一流的海洋港口。”', '湖北武汉西郊，岚图汽车工厂内，快速运行的柔性生产线可满足所有车型的混线生产。岚图汽车CEO卢放说：“习近平总书记指出，全面释放实体经济和数字经济融合效能，因地制宜发展新质生产力。新能源汽车产业是国家战略性新兴产业之一，我们要坚决贯彻落实总书记重要讲话精神，着眼国家战略需求，继续加快培育新质生产力，提升本地产业链供应链韧性和安全水平，加快发展新能源与智能网联汽车，增强核心竞争力。”', '北京脑科学与类脑研究所二层的实验室里，所长罗敏敏正在加快推进高性能侵入式脑机接口系统的开发。', '习近平总书记对于发展新质生产力的要求，让罗敏敏印象深刻：“脑机接口是未来产业的布局之一，涉及电极、芯片、算法、软件、材料等多个环节。我们将按照总书记指示，只争朝夕，进一步突破关键核心技术。”', '夏日阳光下，石榴园花开正艳。山东省枣庄市现代农业产业体系石榴创新团队首席专家安广池，正忙着在果园里研究石榴新品种。', '“习近平总书记一直心系‘三农’，这次又提出大力发展现代农业，积极发展乡村特色产业和农产品加工业，延长产业链、提升价值链。我们将谨记总书记的要求，在农业领域加强创新和科研，不断推动农业增产丰收，带动更多乡亲致富。”安广池说。', '“真没想到在这里拍婚纱照时能见到习近平总书记，感觉总书记特别亲切，很关心我们的生活。”30岁的日照市民张振华说，“这些年日照加大对海岸线生态修复，风景美了，大家都来运动休闲，有了实实在在的幸福感。总书记说，推进中国式现代化，就是要让人民群众的生活越来越好。我听了心里特别踏实，也对未来充满期待。”', '内蒙古巴彦淖尔市磴口县境内的乌兰布和沙漠，蓝色光伏板下，新地村村民杨少兵正忙着管护一排排梭梭苗。', '“习近平总书记说‘大家要一起动手，共同建设和呵护美好家园’，真是说到了我们心坎儿里。”杨少兵说，“光伏治沙既能发电‘生金’，又能治理荒漠化。看着梭梭一点点长起来，干一天还能有200元左右的收入，我感到很有盼头，希望生态环境越来越好，大家日子越过越红火。”', '“总书记对生态治理、绿色发展的重视一以贯之。”歙县人民法院深渡人民法庭庭长汪朝亮刚刚结束对一起破坏新安江流域环境的案件审理。他说：“我们将把总书记的要求落到实际工作中，继续以最严格的司法保护新安江生态，在呵护一江碧水的同时，让沿江百姓生活品质不断提升。”', '走进云南大理苍山脚下的周城村，大大小小蓝白相间的扎染布随风飘动，吸引了诸多游客前来游览。', '“习近平总书记强调，‘深入挖掘中华优秀传统文化精华，坚持创造性转化、创新性发展’，对我们提出了更高要求。”白族扎染技艺非遗传承人段银开说，接下来要扩大白族扎染市场，吸引更多年轻人加入，把这门手艺传承下去，让乡亲们生活越过越好。']</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A56" t="n">
+        <v>23</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
           <t>党纪学习教育每日一课丨对干扰巡视巡察工作的处分规定有哪些</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>2024-05-13</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>https://mp.weixin.qq.com/s/3H-FycicAF6PlYabFYX4pA</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>['深入推进农业供给侧结构性改革 加快培育农业农村发展新动能 开创农业现代化建设新局面', '《中国共产党纪律处分条例》规定，干扰巡视巡察工作或者不落实巡视巡察整改要求，属于违反政治纪律的行为，对直接责任者和领导责任者，视情节轻重给予相应处分。', '，是加强党的建设的重要举措，是从严治党、维护党纪的重要手段，是加强党内监督的重要形式。', '不允许任何部门、任何单位、任何人以任何形式干扰巡视巡察工作、不落实巡视巡察整改要求。', '然而，在巡视巡察工作中发现，一些被巡视巡察地区（单位）党员、干部害怕自己的违纪违法行为被发现，想方设法不配合或者干扰巡视巡察工作。', '一些被巡视巡察地区(单位)党员、干部组织领导巡视整改不力，落实巡视整改要求不到位，敷衍应付、虚假整改等。', '为严肃处理上述相关问题，《中国共产党纪律处分条例》衔接《中国共产党巡视工作条例》的规定，以严格的纪律处分作为手段，保障巡视巡察制度和要求的落实，促进发挥巡视巡察利剑作用。', '此外，新修订的《中国共产党纪律处分条例》还在工作纪律中规定，泄露、扩散或者打探、窃取党组织关于巡视巡察等尚未公开事项或者其他应当保密的内容的，视情节轻重给予相应处分。']</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A57" t="n">
+        <v>23</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
           <t>习近平在重庆考察时强调进一步全面深化改革开放不断谱写中国式现代化重庆篇章</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>2024-04-29</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>https://h.xinhuaxmt.com/vh512/share/11985341?d=134d828&amp;channel=weixin</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>['习近平在重庆考察时强调 进一步全面深化改革开放 不断谱写中国式现代化重庆篇章 - 新华社客户端', '新华社重庆4月24日电 中共中央总书记、国家主席、中央军委主席习近平近日在重庆考察时强调，重庆要对标新时代新征程党的中心任务和党中央赋予的使命，充分发挥比较优势、后发优势，进一步全面深化改革开放，主动服务和融入新发展格局，着力推动高质量发展，奋力打造新时代西部大开发重要战略支点、内陆开放综合枢纽，在发挥“三个作用”上展现更大作为，不断谱写中国式现代化重庆篇章。', '4月22日至24日，习近平在中共中央政治局委员、重庆市委书记袁家军和市长胡衡华陪同下，深入物流园区、城市社区、数字化城市运行和治理中心等进行考察调研。', '4月22日至24日，中共中央总书记、国家主席、中央军委主席习近平在重庆考察。这是22日下午，习近平在重庆国际物流枢纽园区西部陆海新通道重庆无水港运营调度中心考察。', '22日下午，习近平首先考察了重庆国际物流枢纽园区。他来到西部陆海新通道重庆无水港运营调度中心，听取新通道建设情况汇报。习近平强调，物流是实体经济的“筋络”。建设西部陆海新通道，对于推动形成“陆海内外联动、东西双向互济”的对外开放格局具有重要意义。各有关方面要齐心协力，把这一标志性项目建设好、运营好，带动西部和内陆地区高水平对外开放。物流园区要积极运用先进技术，不断创新联运模式，提高科学管理水平，在建设现代物流体系中发挥更大作用。', '4月22日至24日，中共中央总书记、国家主席、中央军委主席习近平在重庆考察。这是22日下午，习近平在重庆国际物流枢纽园区重庆铁路集装箱中心站，同货车司机、列车司机、装卸工人、场站管理人员等亲切交流。', '4月22日至24日，中共中央总书记、国家主席、中央军委主席习近平在重庆考察。这是22日下午，习近平在重庆国际物流枢纽园区重庆铁路集装箱中心站考察。', '随后，习近平来到重庆铁路集装箱中心站，听取货物集散、运输路径、运营成本和效益等介绍，同货车司机、列车司机、装卸工人、场站管理人员等亲切交流，询问他们的工作强度、劳动保护、节假日休息和收入情况。习近平说，大家在物流一线，也是在对外开放一线，通过你们的辛勤劳动，很多商品跨越山海、走向世界，你们的工作很有意义。推动西部大开放、促进西部大开发，物流很重要，大家要继续努力，不断创造新的业绩，作出新的贡献。', '4月22日至24日，中共中央总书记、国家主席、中央军委主席习近平在重庆考察。这是22日下午，习近平参观重庆科技创新和产业发展成果展示。', '习近平还听取了重庆推动成渝地区双城经济圈建设情况汇报，参观了重庆科技创新和产业发展成果展示。习近平表示，建设成渝地区双城经济圈是党中央作出的重大战略决策。重庆、四川两地要紧密合作，不断提升发展能级，共同唱好新时代西部“双城记”。支柱产业是发展新质生产力的主阵地。重庆的制造业有自身的结构特点、有相应的优势，希望重庆牢牢抓住科技创新这个“牛鼻子”，扬优势、补短板，抓当前、谋未来，坚定不移、久久为功，奋力推动制造业高质量发展。', '4月22日至24日，中共中央总书记、国家主席、中央军委主席习近平在重庆考察。这是22日下午，习近平在九龙坡区谢家湾街道民主村社区考察。', '4月22日至24日，中共中央总书记、国家主席、中央军委主席习近平在重庆考察。这是22日下午，习近平在九龙坡区谢家湾街道民主村社区考察时，同正在社区食堂就餐的群众亲切交流。', '九龙坡区谢家湾街道民主村社区是一个老小区，2022年初启动更新改造项目并纳入全国有关试点。习近平来到这里，察看小区改造和便民服务情况，听取提升基层治理效能、为基层减负情况介绍。他还走进社区食堂，同正在就餐的群众亲切交流，鼓励社区食堂实现可持续发展。习近平指出，老旧小区改造是城市更新的一个重点，也是一项民生工程，既要保留历史记忆和特色风貌，又要解决居民关切的实际问题。要总结推广这方面的成功经验，更好惠及广大社区居民。城市治理的很多工作要靠基层党组织这个战斗堡垒和社区这个平台去落实，要厘清城市社区职责事项，继续推动资源下沉、完善服务设施，强化网格化管理、信息化支撑，提高社区精细化治理、精准化服务水平。', '4月22日至24日，中共中央总书记、国家主席、中央军委主席习近平在重庆考察。这是22日下午，习近平在九龙坡区谢家湾街道民主村社区考察时，同社区居民亲切交流。', '离开时，社区居民纷纷围拢过来欢送总书记。习近平对大家说，中国式现代化，民生为大。党和政府的一切工作，都是为了老百姓过上更加幸福的生活。希望各级党委和政府都能为解决民生问题投入更多的财力物力，每年办一些民生实事，不断增强人民群众的获得感幸福感安全感。', '4月22日至24日，中共中央总书记、国家主席、中央军委主席习近平在重庆考察。这是23日上午，习近平在重庆市数字化城市运行和治理中心考察。', '23日上午，习近平考察了重庆市数字化城市运行和治理中心，听取当地加快城市数字化转型、探索超大城市治理新路等情况汇报，观看系统应用演示。习近平指出，治理体系和治理能力现代化是中国式现代化的应有之义。强化数字赋能、推进城市治理现代化，要科学规划建设大数据平台和网络系统，强化联合指挥和各方协同，切实提高执行力。城市治理涉及方方面面，首要的是以“时时放心不下”的责任感，做好预案、精准管控、快速反应，有效处置各类事态，确保城市安全有序运行。希望你们不断探索，积累新的经验。', '24日上午，习近平听取了重庆市委和市政府工作汇报，对重庆各项工作取得的成绩给予肯定。', '习近平指出，重庆制造业基础较好，科教人才资源丰富，要着力构建以先进制造业为骨干的现代化产业体系。深入实施制造业重大技术改造升级和大规模设备更新工程，加快传统产业转型升级，积极培育具有国际先进水平和竞争力的战略性新兴产业。加强重大科技攻关，强化科技创新和产业创新深度融合，积极培育新业态新模式新动能，因地制宜发展新质生产力。积极推进成渝地区双城经济圈建设，更好发挥全国高质量发展的重要增长极和新的动力源作用。大力推动绿色发展，建设美丽重庆，筑牢长江上游重要生态屏障。', '习近平强调，重庆要以敢为人先的勇气，全面深化改革，扩大高水平对外开放。坚持和落实“两个毫不动摇”，一手抓深化国企改革、培育一批核心竞争力强的国有企业，一手抓促进民营经济发展壮大、激发各类经营主体活力。积极融入全国统一大市场建设，主动融入和服务国家重大战略，在推动共建“一带一路”、长江经济带、西部陆海新通道联动发展中发挥更大作用。主动对接高标准国际经贸规则，营造市场化法治化国际化一流营商环境。', '习近平指出，重庆是我国辖区面积和人口规模最大的城市，要深入践行人民城市理念，积极探索超大城市现代化治理新路子。加快智慧城市建设步伐，构建城市运行和治理智能中枢，建立健全“大综合一体化”城市综合治理体制机制，让城市治理更智能、更高效、更精准。扎实推进党建引领基层治理，坚持和发展新时代“枫桥经验”，深化城乡精神文明建设，推进移风易俗，提高全社会文明程度。全面推进韧性城市建设，有效提升防灾减灾救灾能力。', '习近平强调，重庆集大城市、大农村、大山区、大库区于一体，要大力推进城乡融合发展。积极推进以县（区）城为重要载体的新型城镇化建设，有序引导、依法规范城市工商资本和科技、人才下乡，助力乡村全面振兴。抓牢抓实粮食生产，依山就势发展生态特色农业。学好用好“千万工程”经验，因地制宜开展乡村建设，聚焦现阶段农民群众需求强烈、能抓得住、抓几年就能见到成效的重点实事，抓一件成一件，让农民群众可感可及、得到实惠。巩固拓展脱贫攻坚成果，确保不发生规模性返贫。', '习近平指出，要毫不放松坚持党的领导、加强党的建设。巩固拓展主题教育成果，建立健全长效机制，推动党员、干部特别是领导干部增强政治能力、提高工作水平，真抓实干、积极进取、担当作为。持续深化整治形式主义为基层减负，为基层干部干事创业创造良好条件。扎实开展党纪学习教育，引导党员、干部真正把纪律规矩转化为政治自觉、思想自觉、行动自觉。一以贯之反对和惩治腐败，不断铲除腐败滋生的土壤和条件，营造风清气正的政治生态。', '虽然没见到领导，知道他来了，也很激动。祝愿祖国越来越好，人民有信仰、国家有力量、民族有希望！加油，重庆崽儿有实力！', '新华社客户端提供的所有原创内容与设计均受相关法律保护，为新华社客户端及/或相关权利人专属所有或持有。未经许可或明确书面授权，任何人不得复制、转载、摘编、修改、链接新华社客户端内容，违反上述声明者，我们将依法追究其相关法律责任。', '新华社全民拍欢迎广大网民爆料，爆料内容请严格遵守国家法律法规，我们将根据审核制度，及时调查追踪。']</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A58" t="n">
+        <v>23</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
           <t>习近平在重庆考察时强调进一步全面深化改革开放不断谱写中国式现代化重庆篇章</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>2024-05-06</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>http://ylbzj.linfen.gov.cn/ylzx/ddjs/202405/t20240506_346402.html</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>['习近平在重庆考察时强调 进一步全面深化改革开放 不断谱写中国式现代化重庆篇章-党的建设-临汾市医疗保障局', '中共中央总书记、国家主席、中央军委主席习近平近日在重庆考察时强调，重庆要对标新时代新征程党的中心任务和党中央赋予的使命，充分发挥比较优势、后发优势，进一步全面深化改革开放，主动服务和融入新发展格局，着力推动高质量发展，奋力打造新时代西部大开发重要战略支点、内陆开放综合枢纽，在发挥“三个作用”上展现更大作为，不断谱写中国式现代化重庆篇章。', '4月22日至24日，习近平在中共中央政治局委员、重庆市委书记袁家军和市长胡衡华陪同下，深入物流园区、城市社区、数字化城市运行和治理中心等进行考察调研。', '22日下午，习近平首先考察了重庆国际物流枢纽园区。他来到西部陆海新通道重庆无水港运营调度中心，听取新通道建设情况汇报。习近平强调，物流是实体经济的“筋络”。建设西部陆海新通道，对于推动形成“陆海内外联动、东西双向互济”的对外开放格局具有重要意义。各有关方面要齐心协力，把这一标志性项目建设好、运营好，带动西部和内陆地区高水平对外开放。物流园区要积极运用先进技术，不断创新联运模式，提高科学管理水平，在建设现代物流体系中发挥更大作用。', '随后，习近平来到重庆铁路集装箱中心站，听取货物集散、运输路径、运营成本和效益等介绍，同货车司机、列车司机、装卸工人、场站管理人员等亲切交流，询问他们的工作强度、劳动保护、节假日休息和收入情况。习近平说，大家在物流一线，也是在对外开放一线，通过你们的辛勤劳动，很多商品跨越山海、走向世界，你们的工作很有意义。推动西部大开放、促进西部大开发，物流很重要，大家要继续努力，不断创造新的业绩，作出新的贡献。', '习近平还听取了重庆推动成渝地区双城经济圈建设情况汇报，参观了重庆科技创新和产业发展成果展示。习近平表示，建设成渝地区双城经济圈是党中央作出的重大战略决策。重庆、四川两地要紧密合作，不断提升发展能级，共同唱好新时代西部“双城记”。支柱产业是发展新质生产力的主阵地。重庆的制造业有自身的结构特点、有相应的优势，希望重庆牢牢抓住科技创新这个“牛鼻子”，扬优势、补短板，抓当前、谋未来，坚定不移、久久为功，奋力推动制造业高质量发展。', '九龙坡区谢家湾街道民主村社区是一个老小区，2022年初启动更新改造项目并纳入全国有关试点。习近平来到这里，察看小区改造和便民服务情况，听取提升基层治理效能、为基层减负情况介绍。他还走进社区食堂，同正在就餐的群众亲切交流，鼓励社区食堂实现可持续发展。习近平指出，老旧小区改造是城市更新的一个重点，也是一项民生工程，既要保留历史记忆和特色风貌，又要解决居民关切的实际问题。要总结推广这方面的成功经验，更好惠及广大社区居民。城市治理的很多工作要靠基层党组织这个战斗堡垒和社区这个平台去落实，要厘清城市社区职责事项，继续推动资源下沉、完善服务设施，强化网格化管理、信息化支撑，提高社区精细化治理、精准化服务水平。', '离开时，社区居民纷纷围拢过来欢送总书记。习近平对大家说，中国式现代化，民生为大。党和政府的一切工作，都是为了老百姓过上更加幸福的生活。希望各级党委和政府都能为解决民生问题投入更多的财力物力，每年办一些民生实事，不断增强人民群众的获得感幸福感安全感。', '23日上午，习近平考察了重庆市数字化城市运行和治理中心，听取当地加快城市数字化转型、探索超大城市治理新路等情况汇报，观看系统应用演示。习近平指出，治理体系和治理能力现代化是中国式现代化的应有之义。强化数字赋能、推进城市治理现代化，要科学规划建设大数据平台和网络系统，强化联合指挥和各方协同，切实提高执行力。城市治理涉及方方面面，首要的是以“时时放心不下”的责任感，做好预案、精准管控、快速反应，有效处置各类事态，确保城市安全有序运行。希望你们不断探索，积累新的经验。', '24日上午，习近平听取了重庆市委和市政府工作汇报，对重庆各项工作取得的成绩给予肯定。', '习近平指出，重庆制造业基础较好，科教人才资源丰富，要着力构建以先进制造业为骨干的现代化产业体系。深入实施制造业重大技术改造升级和大规模设备更新工程，加快传统产业转型升级，积极培育具有国际先进水平和竞争力的战略性新兴产业。加强重大科技攻关，强化科技创新和产业创新深度融合，积极培育新业态新模式新动能，因地制宜发展新质生产力。积极推进成渝地区双城经济圈建设，更好发挥全国高质量发展的重要增长极和新的动力源作用。大力推动绿色发展，建设美丽重庆，筑牢长江上游重要生态屏障。', '习近平强调，重庆要以敢为人先的勇气，全面深化改革，扩大高水平对外开放。坚持和落实“两个毫不动摇”，一手抓深化国企改革、培育一批核心竞争力强的国有企业，一手抓促进民营经济发展壮大、激发各类经营主体活力。积极融入全国统一大市场建设，主动融入和服务国家重大战略，在推动共建“一带一路”、长江经济带、西部陆海新通道联动发展中发挥更大作用。主动对接高标准国际经贸规则，营造市场化法治化国际化一流营商环境。', '习近平指出，重庆是我国辖区面积和人口规模最大的城市，要深入践行人民城市理念，积极探索超大城市现代化治理新路子。加快智慧城市建设步伐，构建城市运行和治理智能中枢，建立健全“大综合一体化”城市综合治理体制机制，让城市治理更智能、更高效、更精准。扎实推进党建引领基层治理，坚持和发展新时代“枫桥经验”，深化城乡精神文明建设，推进移风易俗，提高全社会文明程度。全面推进韧性城市建设，有效提升防灾减灾救灾能力。', '习近平强调，重庆集大城市、大农村、大山区、大库区于一体，要大力推进城乡融合发展。积极推进以县（区）城为重要载体的新型城镇化建设，有序引导、依法规范城市工商资本和科技、人才下乡，助力乡村全面振兴。抓牢抓实粮食生产，依山就势发展生态特色农业。学好用好“千万工程”经验，因地制宜开展乡村建设，聚焦现阶段农民群众需求强烈、能抓得住、抓几年就能见到成效的重点实事，抓一件成一件，让农民群众可感可及、得到实惠。巩固拓展脱贫攻坚成果，确保不发生规模性返贫。', '习近平指出，要毫不放松坚持党的领导、加强党的建设。巩固拓展主题教育成果，建立健全长效机制，推动党员、干部特别是领导干部增强政治能力、提高工作水平，真抓实干、积极进取、担当作为。持续深化整治形式主义为基层减负，为基层干部干事创业创造良好条件。扎实开展党纪学习教育，引导党员、干部真正把纪律规矩转化为政治自觉、思想自觉、行动自觉。一以贯之反对和惩治腐败，不断铲除腐败滋生的土壤和条件，营造风清气正的政治生态。']</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A59" t="n">
+        <v>23</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
           <t>临汾市大学生乡村医生专项计划年公开招聘体检考察公告</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>2024-04-23</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>http://wjw.linfen.gov.cn/zzzb/bmyw_10596/202404/t20240423_342365.html</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>['临汾市大学生乡村医生专项计划2024年公开 招聘体检考察公告-部门要闻_10596-临汾市卫生健康委员会', '体检标准按照《关于修订公务员录用体检通用标准试行及公务员录用体检操作手册试行有关内容的通知》（人社部发〔', '2016〕140号）执行。考生对体检项目结果有疑问时，可以在接到体检结论通知之日起7日内提交复检申请，体检结果以复检结论为准。对因怀孕不能全部完成体检项目的，按国家相关政策执行。', '1.考生需持本人有效身份证原件按时报到。凡证件与本人不符或无证件者，不得参加体检。迟到或未参加体检的视为自动放弃聘用资格。', '2.考生须空腹参加体检，体检前注意休息，请勿进食、饮水、饮酒，避免剧烈运动；佩戴框架眼镜，禁止佩戴隐形眼镜；体检时尽可能穿宽松便装，避免化妆，避免穿连衣裙、连袜裤、带钢托的文胸、带金属片的内衣等；体检结束后，请配合医生认真核对确定完成所有检查项目，勿漏检，否则取消聘用资格。', '4.女性受检者月经期间请勿做妇科及尿检检查；怀孕或可能怀孕考生勿做妇科及X光等项目的检查，统一进行登记，待经期或孕期完毕后统一补检。其他考生不安排补检。', '2024年4月28日前将考察需提供材料交至考生报考岗位所在县（市）卫生健康和体育局基层卫生股。', '“四个意识”、坚定“四个自信”、做到“两个维护”，热爱中国共产党、热爱祖国、热爱人民等政治要求。全面了解考察人选政治素质、道德品行、能力素质、心理素质、学习和工作表现、遵纪守法、廉洁自律、岗位匹配度以及是否需要回避等方面的情况。', '2.本人政审及现实表现材料1份。由相关部门出具关于本人在思想政治素质、道德品质、遵纪守法等各方面表现情况的现实表现材料。档案在学校的应届毕业生由所在学校出具，未就业人员（含档案不在学校的应届毕业生）由户籍所在地村（居、社区）出具。', '4.个人征信情况1份。由本人在征信中心官方网站、商业银行网上银行、手机APP和自助柜员机打印个人征信报告相关材料。', '5.家庭成员政审材料1份。家庭成员包括父母、配偶、子女、兄弟姐妹等长期同本人一起生活的亲属，需提供所在单位出具的政治审查材料，无工作单位的由户籍所在地村（居、社区）出具。']</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A60" t="n">
+        <v>23</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
           <t>党纪学习教育对干扰巡视巡察工作的处分规定有哪些</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>2024-04-26</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>http://www.linfen.gov.cn/canlian/zwgk/gzdt/202405/t20240529_356648.html</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>['《中国共产党纪律处分条例》规定，干扰巡视巡察工作或者不落实巡视巡察整改要求，属于违反政治纪律的行为，对直接责任者和领导责任者，视情节轻重给予相应处分。情节较轻的，给予警告或者严重警告处分；情节较重的，给予撤销党内职务或者留党察看处分；情节严重的，给予开除党籍处分。', '巡视是党章赋予的重要职责，是加强党的建设的重要举措，是从严治党、维护党纪的重要手段，是加强党内监督的重要形式。不允许任何部门、任何单位、任何人以任何形式干扰巡视巡察工作、不落实巡视巡察整改要求。', '然而，在巡视巡察工作中发现，一些被巡视巡察地区（单位）党员、干部害怕自己的违纪违法行为被发现，想方设法不配合或者干扰巡视巡察工作。《中国共产党巡视工作条例》中相关情形有：有的隐瞒不报或者故意向巡视组提供虚假情况；有的拒绝或者不按照要求向巡视组提供有关文件资料；有的指使、强令有关单位或者人员干扰、阻挠巡视工作，或者诬告、陷害他人；有的甚至对反映问题的干部群众进行威胁、打击、报复、陷害等。一些被巡视巡察地区(单位)党员、干部组织领导巡视整改不力，落实巡视整改要求不到位，敷衍应付、虚假整改等。', '为严肃处理上述相关问题，《中国共产党纪律处分条例》衔接《中国共产党巡视工作条例》的规定，以严格的纪律处分作为手段，保障巡视巡察制度和要求的落实，促进发挥巡视巡察利剑作用。', '此外，新修订的《中国共产党纪律处分条例》还在工作纪律中规定，泄露、扩散或者打探、窃取党组织关于巡视巡察等尚未公开事项或者其他应当保密的内容的，视情节轻重给予相应处分。']</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A61" t="n">
+        <v>23</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
           <t>习近平在视察陆军军医大学时强调面向战场面向部队面向未来努力建设世界一流军医大学</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>2024-04-26</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>https://www.gov.cn/yaowen/liebiao/202404/content_6947433.htm</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>['习近平在视察陆军军医大学时强调：面向战场面向部队面向未来 努力建设世界一流军医大学__中国政府网', '习近平在视察陆军军医大学时强调：面向战场面向部队面向未来 努力建设世界一流军医大学', '习近平在视察陆军军医大学时强调 面向战场面向部队面向未来 努力建设世界一流军医大学', '新华社重庆4月25日电（记者 梅常伟）中共中央总书记、国家主席、中央军委主席习近平4月23日到陆军军医大学视察，强调要深入贯彻新时代强军思想，全面落实新时代军事教育方针，面向战场、面向部队、面向未来，提高办学育人水平和卫勤保障能力，努力建设世界一流军医大学。', '4月23日，中共中央总书记、国家主席、中央军委主席习近平到陆军军医大学视察。这是习近平察看战伤急救器材和学员操作演示。新华社记者 李刚 摄', '上午9时45分许，习近平来到陆军军医大学，首先了解大学基本情况和战场医疗救治重点学科情况，察看战伤急救器材和学员操作演示。陆军军医大学有着光荣历史传承，在长期办学实践中形成了高原军事医学、战创伤医学、烧伤医学等鲜明特色和优势。2017年调整组建以来，大学坚持姓军为战，推进创新发展，出色完成军事斗争卫勤保障、新冠疫情防控等一系列重大任务。习近平对陆军军医大学建设和完成任务情况给予肯定。', '习近平强调，陆军军医大学是我军医学类高等教育院校，是全军卫勤力量体系的重要组成部分。要坚持立德树人、为战育人，深化教育教学改革，培养德才兼备的新时代红色军医。要大力推进特色医学科研创新，巩固传统优势，抢占发展前沿，勇攀军事医学高峰。要加强卫勤保障各项建设，有力服务部队战斗力，服务官兵身心健康。', '4月23日，中共中央总书记、国家主席、中央军委主席习近平到陆军军医大学视察。这是习近平亲切接见陆军军医大学官兵代表。新华社记者 李刚 摄', '习近平强调，要落实全面从严治党要求，加强党的创新理论武装，抓好党纪学习教育，持续深化医疗卫生行业整肃治理，确保大学高度集中统一和纯洁巩固。要狠抓依法治校、从严治校，严格教育管理，做好抓基层打基础工作，激发全校师生员工干事创业积极性，齐心协力开创大学建设新局面。', '中共中央总书记、国家主席、中央军委主席习近平4月23日到陆军军医大学视察，强调要深入贯彻新时代强军思想，全面落实新时代军事教育方针，面向战场、面向部队、面向未来，提高办学育人水平和卫勤保障能力，努力建设世界一流军医大学。']</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A62" t="n">
+        <v>23</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
           <t>习近平在广西南宁市考察调研</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>2023-12-15</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>https://www.gov.cn/yaowen/liebiao/202312/content_6920354.htm</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>['14日上午，习近平总书记在广西南宁市考察调研。他先后来到中国—东盟信息港股份有限公司和良庆区蟠龙社区，围绕中国—东盟经贸合作和信息化建设应用，健全城市社区治理体系、加强民族团结工作等进行实地调研。（文字记者：林晖；摄影记者：谢环驰、王晔、岳月伟）', '14日上午，习近平总书记在广西南宁市考察调研。他先后来到中国—东盟信息港股份有限公司和良庆区蟠龙社区，围绕中国—东盟经贸合作和信息化建设应用，健全城市社区治理体系、加强民族团结工作等进行实地调研。']</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A63" t="n">
+        <v>23</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
           <t>人民日报评论员打造一支让党中央放心让人民群众满意的纪检监察铁军论学习贯彻习近平总书记二十届中央纪委三次全会重要讲话精神</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>2024-01-14</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>https://www.gov.cn/yaowen/liebiao/202401/content_6925879.htm</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>['人民日报评论员：打造一支让党中央放心、让人民群众满意的纪检监察铁军——论学习贯彻习近平总书记二十届中央纪委三次全会重要讲话精神__中国政府网', '人民日报评论员：打造一支让党中央放心、让人民群众满意的纪检监察铁军——论学习贯彻习近平总书记二十届中央纪委三次全会重要讲话精神', '“纪检监察机关是推进党的自我革命的重要力量，肩负特殊政治责任和光荣使命任务”。在二十届中央纪委三次全会上，习近平总书记对纪检监察干部队伍寄予殷切期望、提出明确要求，强调“努力做自我革命的表率、遵规守纪的标杆，打造一支让党中央放心、让人民群众满意的纪检监察铁军”。', '党的二十大以来，在以习近平同志为核心的党中央坚强领导下，中央纪委国家监委和各级纪检监察机关牢记习近平总书记“新班子、新气象、新局面、新作为”的期望要求，以全面贯彻党的二十大精神为主线，以推动全党坚定拥护“两个确立”、坚决做到“两个维护”为使命责任，以推动解决大党独有难题、健全全面从严治党体系为目标方向，以开展学习贯彻习近平新时代中国特色社会主义思想主题教育和全国纪检监察干部队伍教育整顿为重点，深学习、实调研、抓落实，始终以严的基调、严的措施、严的氛围强化政治监督、正风肃纪反腐，纪检监察工作高质量发展取得新进展新成效，为全面建设社会主义现代化国家提供有力保障。', '以中国式现代化全面推进强国建设、民族复兴伟业，对纵深推进全面从严治党、党的自我革命提出了新的更高要求。习近平总书记关于党的自我革命的重要思想，是新时代新征程深入推进全面从严治党、党风廉政建设和反腐败斗争的根本遵循，为做好新征程纪检监察工作提供了强大思想武器和科学行动指南。当前，最关键就是要深入学习贯彻这一重要思想，怀着深厚感情、怀着坚定信仰、怀着强烈使命深学细悟，准确把握这一重要思想的精髓要义、实践要求，自觉贯彻到纪检监察工作全过程各方面。2024年是中华人民共和国成立75周年，是实现“十四五”规划目标任务的关键一年。要坚决落实全面从严治党战略方针，坚持稳中求进工作总基调，忠诚履行党章和宪法赋予的职责，推动健全全面从严治党体系，纵深推进正风肃纪反腐，纵深推进新征程纪检监察工作高质量发展。', '“必须始终做到绝对忠诚、绝对可靠、绝对纯洁”，这是习近平总书记着眼于纪检监察机关更好肩负政治责任和使命任务提出的明确要求。要深刻认识到，纪检监察机关是政治机关，首先必须政治过硬，忠诚是纪检监察机关与生俱来的政治基因。要巩固拓展教育整顿成果，进一步筑牢政治忠诚，任何时候任何情况下都要同党中央同心同德，把增强“四个意识”、坚定“四个自信”、做到“两个维护”转化成听党指挥、为党尽责的实际行动。纪检监察机关因党而生、为党而战，斗争是天然的品格、工作的常态。要坚持原则、勇于亮剑，敢斗善斗、担当尽责，坚定不移正风肃纪反腐，推动全面从严治党向纵深发展。打铁必须自身硬，自身硬首先要自身廉。要加强纪检监察干部队伍建设，常态化清除害群之马，坚决防治“灯下黑”，发扬彻底自我革命精神深化纪检监察机关自身建设，打造纪检监察铁军，真正做到让党中央放心、让人民群众满意。', '全面从严治党永远在路上，党的自我革命永远在路上，纪检监察工作任重而道远。更加紧密地团结在以习近平同志为核心的党中央周围，勠力同心、忠诚履职，以一往无前的奋斗姿态、永不懈怠的精神状态推进新征程纪检监察工作高质量发展，以永远在路上的坚韧执着把党的自我革命进行到底，就一定能为以中国式现代化全面推进强国建设、民族复兴伟业提供坚强保障。']</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A64" t="n">
+        <v>23</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
           <t>尧都区年补充招聘事业单位工作人员大学毕业生到村社区工作及公开招聘专职社区工作者面试成绩和入围体检考察人员公告</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>2024-01-20</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>http://www.yaodu.gov.cn/zzzb/tzgg_9507/202401/t20240120_307185.html</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>['尧都区2023年补充招聘事业单位工作人员、大学毕业生到村（社区）工作及公开招聘专职社区工作者面试成绩和入围体检、考察人员公告', '根据尧都区2023年招聘工作安排，现将面试成绩和入围体检、考察人员名单公布，具体见附件。']</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A65" t="n">
+        <v>23</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
           <t>幸福的歌声希望的田野习近平总书记考察广西纪实</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>2023-12-18</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>https://www.gov.cn/yaowen/liebiao/202312/content_6920703.htm</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>['12月14日至15日，习近平总书记在结束对越南的国事访问后，来到与越南山水相依的广西壮族自治区考察。', '一年多前，习近平总书记在参加党的二十大广西代表团讨论时，对广西的发展寄予了“五个更大”的殷切期望：“在推动边疆民族地区高质量发展上展现更大作为，在服务和融入新发展格局上取得更大突破，在推动绿色发展上实现更大进展，在维护国家安全上作出更大贡献，在推进全面从严治党上取得更大成效。”', '进企业、入社区、下农田、看工厂……两天时间里，习近平总书记一路边走边看。所到之处，各族儿女心手相牵、团结奋进，幸福的歌声回荡在希望的田野上。', '“广西是我国少数民族人口最多的自治区，同时是革命老区、边疆地区，在中国式现代化建设中肩负重要使命。”习近平总书记考察期间的重要讲话，为建设新时代中国特色社会主义壮美广西进一步指明前进方向。', '“一湾相挽十一国，良性互动东中西”，这是广西独特区位优势的生动写照。作为我国与东盟唯一海陆相连的区域，昔日的祖国西南边陲，正发展成为我国面向东盟开放合作的前沿枢纽。', '14日上午，习近平总书记广西考察第一站，来到位于中国（广西）自由贸易试验区南宁片区的中国－东盟信息港股份有限公司。', '2023年12月12日，中国－东盟信息港股份有限公司员工在工作中。新华社记者 陆波岸 摄', '3年前，习近平总书记在第十七届中国－东盟博览会和中国－东盟商务与投资峰会开幕式上致辞时明确表示：“中方愿同东盟一道建设中国－东盟信息港，推动数字互联互通，打造‘数字丝绸之路’。”', '历经多年建设，中国－东盟信息港正努力打造面向东盟的国际通信大通道、大数据资源应用服务大枢纽、新一代信息技术应用示范高地、数字经济开放合作集聚区和人文交流合作中心。', '展厅里，一项项建设成果吸引着总书记的目光：既有芯片、内存、硬盘等硬件产品，也有基于北斗卫星导航的各种应用终端，还有与东南亚各国签订的合作协议、各类数字信息应用场景等。', '刚从越南访问归来的习近平总书记，对中国与东盟各领域间的合作寄予厚望：“这次访问越南，两国达成了一系列合作共识和协议。要乘势而上，推动中国与越南、与东盟友好合作再上新台阶。”', '推进高水平开放，既要有数字信息的互联互通，也要有交通基础设施的互联互通。展厅里，摆放着一个大型基础设施建设沙盘：平陆运河。这一西部陆海新通道骨干工程，建成后将在我国西南地区开辟一条由西江干流向南入海的大通道。', '“通江达海、江海联运，这是广西未来发展的潜力所在。”总书记叮嘱，要高标准、高质量建设平陆运河，提高江铁海多式联运能力和自动化水平。', '这是2023年11月25日拍摄的平陆运河途经钦州市区的航道（无人机照片）。新华社记者 张爱林 摄', '近年来，广西与东盟国家间贸易发展迅速，今年上半年货物贸易进出口总值同比增长43.2%，与东盟进出口同比增长92.6%，东盟已连续23年成为广西最大的贸易伙伴。', '展厅一侧，摆放着琳琅满目的广西与东盟国家间贸易商品：泰国椰青、越南青芒、柬埔寨棕榈糖、老挝香米、马来西亚咖啡，广西的茶叶、螺蛳粉、日用陶瓷、小家电等等。', '工作人员介绍，这些东南亚商品在广西备受欢迎，广西产品在东南亚也广受好评。总书记不时点头赞许。', '背靠大西南、毗邻粤港澳、面向东南亚，沿海沿江沿边的广西区位优势独特。总书记曾经指出，“广西发展的潜力在开放，后劲也在开放”“要立足独特区位，释放‘海’的潜力，激发‘江’的活力，做足‘边’的文章”。', '这次到广西考察，总书记又强调，广西“持续扩大对内对外开放很有必要、大有潜力”，叮嘱广西“解放思想、创新求变，向海图强、开放发展”。', '在钦州集装箱中心站，铁海联运班列整装待发（2023年11月24日摄，无人机照片）。新华社记者 张爱林 摄', '“做活广西高质量发展这盘棋，棋眼就在扩大开放上。”总书记勉励广西：“深化拓展与东盟国家的各领域合作，积极服务建设中国－东盟命运共同体，主动作为、加快发展”。', '八桂大地，民族团结之花处处绽放。以壮、汉、瑶、苗、侗、仫佬、毛南、回、京、彝、水、仡佬等12个世居民族为代表的各族儿女，共同生活在广西这片美丽富饶的土地上。', '位于南宁市良庆区的蟠龙社区，就是这样一个多民族聚居的社区。社区常住人口约2.7万人，共有10多个民族的兄弟姐妹在此安居乐业，少数民族人口约占三成。', '14日上午，习近平总书记来到蟠龙社区党群服务中心，详细了解社区如何围绕共居共学、共建共享、共事共乐“六共”目标，做好民族团结进步工作。', '剪纸、银饰、团扇、铜鼓、毬丝……一个个别具民族特色的工艺品，精彩别致、赏心悦目，总书记走上前去仔细察看。他拿起桌上绣着精美图案的壮医药锤，称赞“很有特色”。', '沿着台阶拾级而上，总书记来到二楼文体活动室。只见社区的书法爱好者正在挥毫泼墨，他们的作品苍劲有力：“爱我中华”“厚德载物”“海纳百川”……', '“书法既能提高文化素养、陶冶心情，又能养浩然之气。你们写的‘厚德载物’，就是中华文化精神的一个重要体现。”总书记深情地对大家说：“我们都有一颗中国心，希望国家繁荣富强，就像你们写的作品一样，‘爱我中华’！”', '文体活动室另一边，身着民族服装的社区群众正在排练合唱节目。看到总书记来了，大家热情地向总书记献上一曲极具地方特色的民歌《幸福嘹嘹啰》。', '“一到广西，就想起山歌了。”总书记亲切地对大家说：“广西少数民族兄弟姐妹阳光热情、多才多艺。”', '看到社区群众身着绚丽多彩的民族服装，总书记一一询问他们都是哪个民族的，民族服装都有什么特点。', '“各族群众唱歌跳舞在一起，生活居住在一起，工作奋斗在一起，中华民族像石榴籽一样紧紧抱在一起。”总书记叮嘱：“广西建设铸牢中华民族共同体意识示范区，要从基层社区抓起，通过扎实的社区建设、有效的社区服务、丰富的社区活动，营造各族人民一家亲的浓厚氛围，把民族团结搞得更好。”', '迎着大家热切的目光，总书记坚定地说：“中华民族是团结奋斗的民族。天上不会掉馅饼，幸福不是从天降，要靠我们自己的努力。构建具有战略意义的中越命运共同体，将更有利于广西的开放发展，壮美广西前景光明。大家一起努力，一定会有更光明的未来！”', '14日下午，习近平总书记来到这里，登上田间的八角楼二楼远眺。只见一根根足有两三米高的甘蔗笔直挺立在辽阔的田野间，空气中弥漫着甘蔗特有的清香。', '不远处，几台甘蔗收割机隆隆作响。当得知大型甘蔗收割机一天能收割180吨至200吨甘蔗，相当于180个人工的工作量，总书记连连称赞。', '2023年12月14日，在广西来宾市国家现代农业产业园黄安优质“双高”糖料蔗基地，农民驾驶农机收割甘蔗（无人机照片）。新华社记者 周华 摄', '来自广西农科院甘蔗研究所的技术专家，向总书记介绍甘蔗育种情况。原种、生根瓶苗、丛栽苗、假植苗……总书记一个样品一个样品看过去，详细了解糖料蔗栽培种植技术。', '广西自主选育的甘蔗品种高糖高产、适应性广，桂糖42号、桂柳05136等品种在全国的种植面积名列前茅。总书记对此表示肯定：“我们自己选育的甘蔗品种已经成为优良品种，还有相应的机收技术，你们为国家糖业发展作出了贡献！”', '2023年12月12日，在广西来宾市兴宾区小平阳镇，农民在收割甘蔗（无人机照片）。新华社记者 周华 摄', '总书记走进甘蔗林。40岁的蔗农霍佳丽兴奋地向总书记汇报，今年自己家里种了10亩甘蔗，亩产有7吨多，预计今年能收入近4万元。', '“这么算下来，一年能有10多万了。祝愿乡亲们的生活像甘蔗一样甜蜜！”总书记欣慰地说。', '2023年12月12日，在广西来宾市兴宾区小平阳镇，蔗农在砍收甘蔗。新华社记者 胡星宇 摄', '离开甘蔗林，总书记乘车来到镇上的一家制糖企业——广西来宾东糖凤凰有限公司，详细了解压榨、制炼等制糖工艺和作业流程。', '甘蔗全身都是宝。企业展厅里，展示着丰富多样的甘蔗深加工产品，除了白砂糖、冰糖、红糖等常见的糖产品，糖蜜可生产酵母、焦糖色素，蔗渣可生产环保餐具、纸巾，蔗叶可作饲料、生物质发电原料……', '广西糖料蔗种植面积、食糖产量已连续32个榨季居全国第一位，连续19个榨季占全国60%左右，是维护我国食糖安全的主阵地。', '2023年12月12日，广西来宾小平阳湘桂制糖有限公司的工作人员在检测糖浆样品。新华社记者 周华 摄', '“我到各地考察，都要看看我们国家规划布局上有代表性的产品。在来宾，甘蔗就是代表。今天来这里看到甘蔗种植和糖业发展格局，心里更托底了。”总书记说。', '“这些年，国家出台了很多鼓励甘蔗种植的政策，蔗农种蔗积极性大大提高。推进广西糖业高质量发展，守好全国人民的‘糖罐子’，你们肩负重担。”', '言语间，总书记语重心长：“农业生产布局关乎发展与安全。种植面积要稳定，品种、技术也要提高，把这个特色优势产业做强做大。国家支持你们，你们也要把这件事抓好，为千家万户送去甜蜜。”', '广西农业资源丰富、条件优越，不仅是全国的“糖罐子”，也是全国有名的“菜篮子”“果盘子”，发展现代特色农业前景广阔。', '2023年12月13日，在广西来宾市兴宾区大湾镇双诚牧业有限公司，工人在粉碎甘蔗尾叶，准备制作饲料。新华社记者 周华 摄', '2023年12月13日，在广西来宾市兴宾区大湾镇双诚牧业有限公司，工人驾驶车辆给牛投撒以甘蔗尾叶为主要原料的饲料。新华社记者 周华 摄', '15日上午在听取自治区党委和政府工作汇报时，习近平总书记再次谈及广西发展现代特色农业的优势所在：“广西雨热充沛，农业生产条件好。要发挥广西林果蔬畜糖等特色资源丰富的优势，大力发展现代特色农业产业，让更多‘桂字号’农业品牌叫响大江南北。”']</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A66" t="n">
+        <v>23</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
           <t>习近平在广西考察时强调解放思想创新求变向海图强开放发展奋力谱写中国式现代化广西篇章</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>2023-12-15</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>https://mp.weixin.qq.com/s/P9SrKjQwrwREae3qJ1AWgA</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>['习近平在广西考察时强调 解放思想创新求变向海图强开放发展 奋力谱写中国式现代化广西篇章', '中共中央总书记、国家主席、中央军委主席习近平近日在广西考察时强调，广西要完整、准确、全面贯彻新发展理念，牢牢把握高质量发展这个首要任务和构建新发展格局这个战略任务，发挥自身优势，以铸牢中华民族共同体意识为主线，解放思想、创新求变，向海图强、开放发展，努力在推动边疆民族地区高质量发展上展现更大作为，在建设新时代中国特色社会主义壮美广西上不断取得新进展，奋力谱写中国式现代化广西篇章。', '12月13日，习近平结束对越南的国事访问回到国内。14日至15日，在广西壮族自治区党委书记刘宁和自治区政府主席蓝天立陪同下，先后到南宁、来宾等地，深入对外开放项目、社区、农村、企业等进行调研。', '14日上午，习近平首先考察了位于南宁市的中国－东盟信息港股份有限公司。习近平详细了解中国－东盟信息港建设运营、中国－东盟经贸合作等情况，结合平陆运河沙盘听取西部陆海新通道骨干工程建设汇报。习近平指出，建设中国－东盟信息港，是推动共建“一带一路”、加强我国与东盟国家互联互通的一项重要举措。广西要主动作为、发挥支点作用，加强信息化建设和应用，为推进高水平对外开放、促进同东盟合作不断注入新动力。', '南宁市良庆区蟠龙社区是一个多民族聚居社区。习近平来到社区党群服务中心，听取现场工作人员关于开展主题教育、促进便民惠企、举办民族特色活动等情况介绍，对他们坚持党建引领聚合力、服务为本促发展的做法表示肯定。在文体活动室，他饶有兴致地观看社区居民习练书法、合唱民歌，同大家亲切交流，鼓励社区充分利用人才、场地等资源，开展更多健康有益、启智润心的文化活动，以此激发更大的正能量。习近平指出，社区是基层自治的基本单元，是国家治理体系的基层基础。通过社区这个平台，办好“一老一小”等民生实事和公共事务，积极回应群众关切，是中国特色基层治理的显著优势，要把这一优势发挥好。建设多民族群众互嵌式社区，是促进各族群众交往交流交融的重要途径。广西建设铸牢中华民族共同体意识示范区，要从基层社区抓起，通过扎实的社区建设、有效的社区服务、丰富的社区活动，营造各族人民一家亲的浓厚氛围，把民族团结搞得更好。', '离开社区时，各族群众热情欢送总书记。习近平亲切地对大家说，我昨天结束对越南的国事访问，直接来广西考察调研。构建具有战略意义的中越命运共同体，将更有利于广西的开放发展，壮美广西前景光明。广西作为我国少数民族人口最多的自治区，各族人民同顶一片天、同耕一垌田、同饮一江水、同建一家园。全面建设社会主义现代化国家，一个民族都不能少。希望社区各族群众多来往，大家互帮互助，交知心朋友，做和睦邻居，共同建设幸福家园。', '14日下午，习近平到来宾市考察调研。在国家现代农业产业园黄安优质“双高”糖料蔗基地，习近平察看万亩甘蔗林和机械化作业收割场景，听取基地情况介绍。他走进甘蔗林，详细了解甘蔗良种繁育技术要领，同蔗农、农机手和农技人员亲切交流。习近平指出，广西是我国蔗糖主产区，要把这一特色优势产业做强做大，为保障国家糖业安全、促进蔗农增收致富发挥更大作用。要积极培育和推广良种、提高机械化作业水平，建设好现代农业产业园。要探索建立更加稳定的利益联结机制，让广大农民共享农村改革和发展成果。他祝愿乡亲们的生活像甘蔗一样甜蜜。', '随后，习近平到来宾东糖凤凰有限公司考察。他进入生产车间察看制糖工艺和作业流程，在公司展厅了解糖业产品种类及市场份额和发展趋势。他强调，我国糖业面临激烈的国际竞争，要按照高端化、智能化、绿色化要求，加大科技创新力度，延伸产业链、提高附加值，不断提质、降本、增效，推动高质量发展。离开企业时，习近平热情地对前来欢送的员工们说，食糖是重要的副食品，大家为此辛勤劳动，为千家万户送去了“甜蜜”。希望大家不断学习新技术、采用新工艺，为糖业发展作出新贡献。', '15日上午，习近平听取广西壮族自治区党委和政府工作汇报，对广西各项工作取得的成绩给予肯定。', '习近平指出，推动广西高质量发展，必须做好强产业的文章，加快构建现代化产业体系。要立足资源禀赋和产业基础，聚焦优势产业，集中优势资源，打造若干体现广西特色和优势、具有较大规模和较强带动力的支柱产业。把科技创新摆到更加突出的位置，深化教育科技人才综合改革，加强科教创新和产业创新融合，加强关键核心技术攻关，加大技术改造和产品升级力度。充分利用沿海沿江的优势，大力发展海洋经济、临港产业。加快产业结构优化调整，推动产业体系绿色转型，发展壮大林业产业、文旅产业、养老产业、大健康产业，让生态优势不断转化为发展优势。', '习近平强调，广西要持续扩大对内对外开放。要增强内外联动，构建更有活力的开放型经济体系。主动服务国家重大战略，对接沿海发达地区产业新布局，有序承接产业梯度转移，加快北部湾经济区和珠江－西江经济带开发开放，把广西打造成为粤港澳大湾区的重要战略腹地。要共建西部陆海新通道，实施一批重大交通基础设施项目，高标准、高质量建设平陆运河，高水平打造北部湾国际门户港，提高江铁海多式联运能力和自动化水平。积极服务建设中国－东盟命运共同体，深化拓展与东盟国家在商贸、劳务、产业、科技、教育等领域合作，打造国内国际双循环市场经营便利地，深度融入共建“一带一路”。', '习近平指出，乡村振兴是建设农业强国的基础性工程，要落实规划、扎实推进。要全面落实粮食安全党政同责，坚持稳面积、增单产两手发力，实现粮食均衡增产。发挥广西林果蔬畜糖等特色资源丰富的优势，大力发展现代特色农业产业，让更多“桂字号”农业品牌叫响大江南北。既要鼓励工商资本下乡，又要把住底线，防止占用耕地搞非农化、非粮化经营。加快完善乡村治理体系，改善农村基础设施、公共服务、人居环境，提升村庄整体风貌和农民生活品质。巩固拓展脱贫攻坚成果，建立农村低收入人口常态化帮扶机制，防止出现规模性返贫。', '习近平强调，广西要把铸牢中华民族共同体意识作为自治区各项工作的主线，作为推进民族团结进步创建工作的根本方向，巩固发展各族人民团结奋斗的良好局面。要把持续扎根铸牢共同体意识落实到经济、教育、就业、社区建设、文化建设和干部队伍建设等各项工作中，继续在民族团结进步上走在全国前列。要尽力而为、量力而行、久久为功，着力解决好就业、教育、医疗、住房、养老、托幼等民生问题，逐步缩小城乡差距、区域差距、民族差距，扎实推进共同富裕。持续推进新时代兴边富民行动。', '习近平指出，坚持和加强党的全面领导，是做好各项工作的根本保证。要坚决贯彻落实党中央决策部署，加强领导班子建设，不断提高干部队伍素质和能力，激励党员干部廉洁从政、干净干事。第二批主题教育处于尾声，要善始善终，建立健全以学铸魂、以学增智、以学正风、以学促干的长效机制。', '习近平强调，岁末年初，各级党委和政府要切实做好市场供应、民生保障，精细化抓好安全生产，注意解决农民工欠薪问题，确保人民群众节日欢乐祥和。近几天，我国华北、黄淮等地区普遍出现中到大雪，对人民群众生产生活秩序造成一定影响，各地、各有关部门要密切关注，采取有力措施，努力把灾害带来的影响降到最低。', '王毅、李干杰、何立峰、王小洪及中央和国家机关有关部门负责同志陪同考察，主题教育中央第十一巡回指导组负责同志参加汇报会。', '12月15日上午，习近平在南宁亲切接见驻南宁部队上校以上领导干部，代表党中央和中央军委向驻南宁部队全体官兵致以诚挚问候，并同大家合影留念。张又侠陪同接见。']</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A67" t="n">
+        <v>23</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
           <t>习近平在广西来宾市考察调研</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>2023-12-15</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>https://www.gov.cn/yaowen/liebiao/202312/content_6920400.htm</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>['14日下午，习近平总书记在广西来宾市考察调研。他先后来到来宾市国家现代农业产业园黄安优质“双高”糖料蔗基地和东糖凤凰有限公司，了解甘蔗良种繁育、种植收成、糖产业发展等情况。（文字记者：林晖；摄影记者：谢环驰、王晔、燕雁、岳月伟）', '14日下午，习近平总书记在广西来宾市考察调研。他先后来到来宾市国家现代农业产业园黄安优质“双高”糖料蔗基地和东糖凤凰有限公司，了解甘蔗良种繁育、种植收成、糖产业发展等情况。']</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A68" t="n">
+        <v>23</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
           <t>传达学习贯彻习近平总书记黑龙江考察和新时代推动东北全面振兴座谈会重要讲话精神省委书记蓝佛安主持召开省委常委会会议暨中心组学习会</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>2023-09-12</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>https://www.shanxi.gov.cn/jrtt/202309/t20230912_9303782.shtml</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>['传达学习贯彻习近平总书记黑龙江考察和新时代推动东北全面振兴座谈会重要讲话精神 - 山西省人民政府', '9月11日，省委召开常委会会议暨理论学习中心组学习会，传达学习习近平总书记在黑龙江考察时的重要讲话精神和在新时代推动东北全面振兴座谈会上的重要讲话精神，传达学习李强总理致2023年太原能源低碳发展论坛贺信精神，研究我省贯彻落实意见，审议通过《关于支持太原市建设国家区域中心城市更好发挥龙头带动作用的意见》《关于支持大同市打造对接京津冀协同发展桥头堡的意见》。省委书记蓝佛安主持会议并讲话。', '大家一致认为，习近平总书记在黑龙江考察时的重要讲话，既是对黑龙江工作的针对性指导，也是为各地推动高质量发展的定向领航。习近平总书记在新时代推动东北全面振兴座谈会上的重要讲话，从党和国家事业发展全局的战略高度，深刻阐述东北地区肩负的重要使命，深入分析东北振兴面临新的重大机遇，对新时代新征程推动东北全面振兴作出部署，为东北走出一条高质量发展、可持续振兴的新路子指明了前进方向、提供了根本遵循，对我省加快转型发展具有重要指导意义。要认真学习领会，结合我省实际抓好贯彻落实。', '会议指出，要牢牢把握山西在国家发展大局中的战略地位，以进一步加快转型发展的“66831”工作体系为牵引，充分发挥比较优势，持续锻造发展长板，坚定扛牢维护国家“五大安全”等方面重大责任，更好对接和融入国家统一大市场，不断开创山西高质量发展新局面。要加快推动制造业振兴升级，着眼促进产业链创新链深度融合，进一步深化科技体制改革，在能源、高端装备制造、新材料等特色优势产业和产业优势领域深耕细作，全力打造现代化产业体系。要深入推动农业“特”“优”发展，落实好高标准农田、水浇地、设施农业等建设任务，持续提高农业综合生产能力和防灾减灾能力，着力打造优质杂粮、优质畜产品、特色果品蔬菜供应基地。要大力推动文旅康养产业融合发展，深化文旅康养产业供给侧结构性改革，持续将我省文化优势、生态优势、康养优势转化为发展胜势。要持续营造良好营商环境，增强市场意识、服务意识，落实“三无”“三可”要求，加快建设高标准市场体系，构建亲清新型政商关系。要积极推动高水平对外开放，深度融入京津冀协同发展、“一带一路”等国家重大战略，深化要素流动型开放，稳步扩大制度型开放，持续提升开放平台能级。要科学谋划、精心组织好第二批主题教育，更加注重理论武装、分类指导、强基固本、统筹协调、领导指导，确保抓出高质量好效果。', '会议指出，李强总理为2023年太原能源低碳发展论坛发来贺信，充分体现了党中央、国务院对山西工作的高度重视和亲切关怀，是对我省推进能源革命的重要指导。要以习近平总书记提出的能源安全新战略为根本遵循，认真落实李强总理贺信要求，坚定扛牢能源保供政治责任，深入推进“五大基地”建设和能源产业“五个一体化”融合发展，有序开展碳达峰山西行动，切实为全球能源革命贡献山西智慧。会议充分肯定本届太原论坛取得的丰硕成果，强调要全面总结筹备举办过程中的好经验好做法，持续强化论坛成果跟踪转化，进一步提升太原论坛作为国家级、国际性、专业化论坛的影响力。', '会议指出，进一步支持太原、大同高质量发展，是落实国家区域发展战略的重大举措，是事关山西高质量发展和对外开放大局的重大部署。太原市要强化省会意识，发挥比较优势，在山西中部城市群建设、服务融入新发展格局、建设宜居宜业城市和构建现代化产业体系、高水平创新体系、高标准市场体系、现代化基础设施体系等方面发挥龙头作用，全面增强城市辐射能级和服务能级，全力建设国家区域中心城市，更好在全省经济社会发展大局中挑大梁、当引领、作示范。大同市要充分发挥紧邻京津冀等比较优势，聚焦战略定位，在科技成果转化、柔性引才用才、信息数据服务、旅游休闲消费、物流设施建设、高标准市场体系建设等方面有效承接京津冀协同发展溢出效应，引领带动全省高质量发展。各有关部门要进一步强化政策配套和要素保障，完善有关工作机制，鼓励支持太原、大同两市先行先试、改革探索，推动各项任务落地见效。', '省委常委，省人大常委会、省政府、省政协负责同志，省法院院长、省检察院检察长出席会议。省直有关部门主要负责同志参加会议。']</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A69" t="n">
+        <v>23</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
           <t>临汾职业技术学院党委委员副院长侯静涛一行在临汾经济开发区考察</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>2023-12-16</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>http://kfq.linfen.gov.cn/zzzb/kfqyw/202312/t20231218_288694.html</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>['临汾职业技术学院党委委员、副院长侯静涛一行在临汾经济开发区考察-开发区要闻-临汾经济开发区网站', '12月15日，临汾职业技术学院党委委员、副院长侯静涛一行27人在临汾经济开发区考察。临汾经济开发区党工委委员、组织和人力资源部部长高鹏飞，组织和人力资源部、人才人力资源服务有限公司相关负责人一同参加。', '考察组一行在山西华翔集团股份有限公司、晶旭新能源科技有限公司、尧兴新能源科技有限公司、中部智造科技有限公司，与企业负责人就建立机器人培训基地、智能制造、学生实习就业等校企合作项目进行深入交流，为后续制定详细的校企合作方案打下了坚实基础。', '高鹏飞代表党工委、管委会对侯静涛一行表示欢迎，并详细介绍了临汾经济开发区的基本情况、企业特点和人才需求。他强调，开发区尊重人才、爱惜人才、重用人才，尤其是能力突出、思维活泛、执行力强的技术技能型人才。希望双方保持密切沟通，积极对接相关工作，为学生实习就业和校企合作提供支持，促进校企协同育人，实现互惠共赢。', '侯静涛表示，学院将以产业需求为导向、以学生综合能力素质培养为目标、以实训实践为手段。希望双方实现校企优势互补、共育共享，促进学校教学与产业企业深度对接，让产教真实融合，让校企合作真正落到实处，给企业带来显而易见的成效，为推动临汾高质量发展作出积极贡献。']</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A70" t="n">
+        <v>23</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
           <t>锻造支撑强军胜战的过硬保障能力习近平主席视察陆军军医大学时的重要讲话为全军卫勤力量建设注入强劲动力</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>2024-04-28</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>https://www.gov.cn/yaowen/liebiao/202404/content_6947997.htm</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>['锻造支撑强军胜战的过硬保障能力——习近平主席视察陆军军医大学时的重要讲话为全军卫勤力量建设注入强劲动力__中国政府网', '锻造支撑强军胜战的过硬保障能力——习近平主席视察陆军军医大学时的重要讲话为全军卫勤力量建设注入强劲动力', '新华社北京4月27日电 题：锻造支撑强军胜战的过硬保障能力——习近平主席视察陆军军医大学时的重要讲话为全军卫勤力量建设注入强劲动力', '题：锻造支撑强军胜战的过硬保障能力——习近平主席视察陆军军医大学时的重要讲话为全军卫勤力量建设注入强劲动力', '中共中央总书记、国家主席、中央军委主席习近平4月23日到陆军军医大学视察，强调要深入贯彻新时代强军思想，全面落实新时代军事教育方针，面向战场、面向部队、面向未来，提高办学育人水平和卫勤保障能力，努力建设世界一流军医大学。全军特别是卫勤系统官兵深刻体悟、认真学习领会讲话精神，表示要牢记统帅勉励嘱托，聚焦练兵备战，加快创新发展，全面提高卫勤保障能力，努力为打好实现建军一百年奋斗目标攻坚战、开创国防和军队现代化新局面提供坚强支撑。', '陆军军医大学是我军医学类高等教育院校，是全军卫勤力量体系的重要组成部分，有着光荣历史传承。近年来，大学坚持姓军为战，推进创新发展，出色完成军事斗争卫勤保障、新冠疫情防控等一系列重大任务。视察中，习主席深入了解有关情况，亲切接见官兵代表，对大学建设和完成任务情况给予肯定。', '“习主席亲临学校视察并发表重要讲话，为大学建设指明了前进方向、提供了根本遵循。”陆军军医大学党委把学习贯彻讲话精神作为首要政治任务，第一时间召开党委常委会研究部署贯彻落实措施。党委一班人一致表示，将锚定建设世界一流军医大学目标，坚持不懈用党的创新理论铸魂育人，始终把准办学方向，推进特色医学科研创新，加强卫勤保障各项建设，坚持为战而医、为战而研，狠抓依法治校、从严治校，培养更多德才兼备的新时代红色军医，为强军胜战作出更大贡献。', '中国工程院院士、陆军特色医学中心研究员蒋建新，是视察当天汇报战场医疗救治重点学科建设发展情况的专家之一。他表示，要瞄准未来战争，聚焦服务强军打赢，加强科研攻关，突破战创伤医学领域前瞻性、颠覆性关键技术，打造我军新质卫勤保障力量，用更多优质科研成果，回报统帅关怀厚爱。', '“我和同学一起作了器材操作演示，习主席看得很细、问得很细，对基层战伤急救能力建设非常关心，还询问了我们的学习情况。我觉得很亲切很温暖，也感到肩上沉甸甸的责任。”陆军军医大学学员邓宇豪说，将利用在校的点滴时间，学好理论知识，练精救治本领，扎根一线，守护好官兵健康。', '嘱托殷殷，号令催征。这次视察，习主席就大力推进特色医学科研创新、加强卫勤保障各项建设等作出一系列重要指示，明确要求“有力服务部队战斗力，服务官兵身心健康”。从院校到部队，从高原到海岛，广大官兵表示，将结合岗位职能、融入正在开展的工作，把统帅重要指示转化为服务官兵、保障打赢实际行动。', '空军军医大学教授胡文东一行刚从基层调研回来，新一批师生又出发赴南部战区多支部队开展医疗巡诊服务，实地调研基层卫勤保障人才需求。大家表示，要聚焦航空卫勤保障前沿，加强航空航天医学领域核心技术科研攻关，紧贴未来战场培养人塑造人，确保专业医学人才从院校走向部队、走向战场。', '梳理充实高原病防治办法、向院校专家请教医疗救治技术……新疆军区某合成团军医张扬连续第5年担负高原驻训卫勤保障任务，在处置急性高原反应、高原肺水肿等方面积累了丰富经验。他表示，将想方设法把准备工作做得更充分，确保指战员的身体健康。', '北部战区陆军某海防旅军医皮浩驻守在黄海前哨上的苏山岛。由于远离陆地就医不便，战友们偶尔感冒发烧、不小心磕碰扭伤，都是由他第一时间处理。皮浩说，下一步将结合海岛环境特点，把急救设备和药品配得更齐全，经常普及医疗卫生知识，让大家以良好的身心状态守护祖国海疆。', '南部战区海军某驱逐舰支队聚焦海上卫勤保障重难点问题集智攻关；联勤保障部队第984医院携手军地知名专家，帮带基层部队医务人员提升战救技能；武警湖南总队医院深化战时紧急机动、野战医院开设等课目演练筹备；陆军某边防旅开展战场救护训练，重点提升火线救治能力和转运后送效率……', '联勤保障部队卫勤局勉闻光表示，贯彻习主席重要讲话精神，要按照平战一体、战训一致要求，完善应急应战方案，加强针对性训练演练，打造平时保健康、战时善救治的过硬人才队伍，持续深化行业整肃治理、纯正医德医风，不断提高服务官兵满意度、支撑打赢贡献率。']</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A71" t="n">
+        <v>23</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
           <t>抓当前谋未来在推进中国式现代化进程中展现更大作为习近平总书记在重庆考察时的重要讲话鼓舞人心凝聚前行力量</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>2024-04-25</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>https://www.gov.cn/yaowen/liebiao/202404/content_6947407.htm</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>['抓当前、谋未来，在推进中国式现代化进程中展现更大作为——习近平总书记在重庆考察时的重要讲话鼓舞人心、凝聚前行力量__中国政府网', '抓当前、谋未来，在推进中国式现代化进程中展现更大作为——习近平总书记在重庆考察时的重要讲话鼓舞人心、凝聚前行力量', '新华社北京4月24日电 题：抓当前、谋未来，在推进中国式现代化进程中展现更大作为——习近平总书记在重庆考察时的重要讲话鼓舞人心、凝聚前行力量', '题：抓当前、谋未来，在推进中国式现代化进程中展现更大作为——习近平总书记在重庆考察时的重要讲话鼓舞人心、凝聚前行力量', '习近平总书记近日在重庆考察并发表重要讲话，强调进一步全面深化改革开放，不断谱写中国式现代化重庆篇章。广大干部群众认真学习领会重要讲话精神，表示要在习近平新时代中国特色社会主义思想指引下，立足本职岗位，真抓实干、积极进取、担当作为，为以中国式现代化全面推进强国建设、民族复兴伟业作出新的更大贡献。', '走进位于重庆市沙坪坝区的重庆国际物流枢纽园区，各式各样的集装箱整齐码放，橙黄色的吊车作业繁忙。', '“习近平总书记强调，物流是实体经济的‘筋络’。作为重庆推动西部陆海新通道建设的重要承载地，物流园区必须发挥更大作用、作出更大贡献。”重庆市政府口岸物流办主任杨琳说，下一步将围绕提升运输量和货值、降低成本的目标，加快建设重庆枢纽港产业园，努力把通道的物流优势转化为西部地区高质量发展的经济优势、开放优势。', '“总书记说我们的工作‘很有意义’，这对于我们一线工人来说，既是鼓励、也是鞭策。”现场聆听习近平总书记重要讲话，中国铁路成都局集团有限公司重庆机务段电力机车司机江彤心情格外激动，“作为一名中欧班列司机，我将在未来的工作中立足本职岗位、扎实提升业务，撸起袖子加油干！”', '“习近平总书记对成渝地区双城经济圈建设提出明确要求，为两地继续紧密合作、协同发展指明了方向。”四川省发展改革委副主任刘兆奎说，川渝两省市将继续以重大项目为抓手，全面加强财政、金融、土地、产业、人才、投资等领域配套政策协同，促进区域资源高效衔接、产业紧密互动，共同唱好新时代西部“双城记”。', '“高质量发展是新时代推动西部大开发形成新格局的首要任务和硬道理。”重庆市综合经济研究院院长丁瑶认为，落实好习近平总书记重要讲话精神，必须坚持区域协调发展“一盘棋”，以敢为人先的勇气，全面深化改革，扩大高水平对外开放，努力打造能够落实国家重大战略的示范项目，助力形成多极点支撑、多层次互动、网络化发展的区域经济新格局。', '科技创新是发展新质生产力的核心要素。必须以科技创新为抓手，不断开辟发展新领域新赛道、塑造发展新动能新优势。', '“习近平总书记希望重庆牢牢抓住科技创新这个‘牛鼻子’，作为一名制造业从业者，我深感重任在肩。”长安汽车董事长朱华荣表示，未来企业将继续坚持以科技创新为引领，专注智能驾驶、智能座舱、电池、软件、智能制造等核心领域，推动汽车产品革新，在实现企业高质量可持续发展的同时，也为社会创造更大的价值。', '千里之外，广西美斯达集团有限公司的生产车间内，一台台新款潜孔钻机正排队装车，准备远销海外。', '“总书记强调要着力构建以先进制造业为骨干的现代化产业体系，让我们下一步的发展思路更加清晰。”广西美斯达集团有限公司董事长黄康华说，接下来将继续推进企业全球发展布局，不断突破核心零部件“卡脖子”问题，强化科技创新和产业创新深度融合，不断提升企业在国际市场上的竞争力。', '在吉林长春，吉林大学汽车工程学院教授靳立强正在带领研发团队结合一汽集团等大型车企的技术需求，开展自动轮智行底盘技术研发。“习近平总书记再次对因地制宜发展新质生产力提出重要要求，指出支柱产业是发展新质生产力的主阵地。我们将按照总书记的指示，结合地方产业特色，发挥产业优势，因地制宜推进科研成果转化，形成产学研良性循环，让更多优秀的‘种子’破土而出，长成参天大树。”', '“打好关键核心技术攻坚战，才能为培育发展新质生产力提供新动能。”云南贵金属集团副总经理周利民表示，将深入学习贯彻习近平总书记重要讲话精神，持续发挥科技创新引领作用，加快推进产业化、数字化、绿色化、国际化建设，提高生产效率和质量水平，强化更具有竞争力的全产业链发展模式。', '走进重庆九龙坡区谢家湾街道民主村社区，街巷道路亮堂而整齐，党群服务中心、社区会客厅等配套设施成为居民生活休闲的好去处。', '“总书记的关怀令我们感到十分温暖，在民主村居住了30年，这里一点一滴的变化我都看在眼里、记在心上。”75岁的退休居民陈代蓉说，“以前这里环境脏乱差，城市更新行动实施后，道路平整了、环境整洁了，我们的幸福感也更强了。相信在未来，我们的日子会更红火、更精彩。”', '“‘中国式现代化，民生为大。’作为一名基层工作者，我们的工作成效直接关系着人民群众的获得感、幸福感、安全感。”河北省石家庄市中华南大街社区负责人范润丰说，“我们将进一步加强社区养老服务网络建设，推动养老服务扩容提质，积极打造社区15分钟养老服务圈，让更多老人安享‘住在自家、乐在社区’的幸福晚年。”', '“推进城市治理现代化关系着每一名居民的日常生活，也是建设国际化大都市的必由之路。”重庆市大数据应用发展管理局局长代小红说，“我们将落实好总书记的各项要求，着力构建全局‘一屏掌控’、政令‘一键智达’、执行‘一贯到底’、监督‘一览无余’的数字化协同工作场景，推动城市运行和治理全域覆盖、全程感知、全时响应，让城市更聪明、更智慧。”', '在上海，城市数字化转型正加速推进。上海市城市管理行政执法局局长徐志虎表示，将进一步推动数据分析系统升级换代，结合视频监控、大数据算法等技术手段，提升对占道堆物、跨门营业、共享单车乱停放等问题的先行发现率，进一步提升上海城管执法科学化精细化智能化水平，助力推动城市治理现代化。', '只有不断整治形式主义为基层减负，才能不断激励广大党员干部担当作为，进一步密切党同人民群众的血肉联系。', '“习近平总书记再次对整治形式主义为基层减负工作提出要求，彰显党中央对营造风清气正政治生态的坚定决心。”浙江省仙居县下各镇党委委员李奕说，下一步要结合正在开展的党纪学习教育，增强纪律意识、提升纪律自觉，持续加强对文山会海、督查检查考核过多过频等“老问题”的整治力度，同时紧盯形式主义新动向新表现，不断把基层减负工作抓出新成效，让减负成果更好惠及人民群众。']</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A72" t="n">
+        <v>23</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
           <t>推动西部大开发是一项世纪工程习近平总书记在重庆考察并主持召开新时代推动西部大开发座谈会纪实</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>2024-04-26</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>https://www.gov.cn/yaowen/liebiao/202404/content_6947622.htm</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>['推动西部大开发是一项世纪工程——习近平总书记在重庆考察并主持召开新时代推动西部大开发座谈会纪实__中国政府网', '推动西部大开发是一项世纪工程——习近平总书记在重庆考察并主持召开新时代推动西部大开发座谈会纪实', '新华社重庆4月25日电 题：推动西部大开发是一项世纪工程——习近平总书记在重庆考察并主持召开新时代推动西部大开发座谈会纪实', '题：推动西部大开发是一项世纪工程——习近平总书记在重庆考察并主持召开新时代推动西部大开发座谈会纪实', '4月22日至24日，重庆。一场调研、一次座谈会，共同聚焦于新时代推动西部大开发。由点及面去运筹，由面到点去落子。', '习近平总书记这次调研，看重庆的物流园区，着眼开放；观科技创新和产业发展成果展示，谋划创新；到社区、“城市大脑”，思考推进城市治理现代化的新路子。开放、创新、城市治理等领域，也都因西部大开发这项国家战略发生了巨变。', '这是党的十八大后，习近平总书记首次主持召开西部大开发主题的座谈会，也是党的二十大后第八次召开区域协调发展的专题会议。大漠戈壁、雪域高原、巍巍群山、滚滚江河……长久以来，对占我国国土面积七成多的西部地区，总书记倾注了许多心血，饱含着深厚的感情与希望：', '“推动西部大开发是一项世纪工程。我们要保持战略定力，继续脚踏实地、埋头苦干、稳扎稳打，在中国式现代化建设中奋力谱写西部大开发新篇章！”', '以开放促开发，是地域广袤、发展水平迥异的西部地区共同的夙愿。当40多年前，改革开放的春风吹绿了东部和南方沿海，西部也在翘首期盼更多机遇。', '格局决定思路。2013年的秋天，共建“一带一路”倡议提出，西部地区也由此澎湃出新的发展势能。', '园区内，西部陆海新通道重庆无水港运营调度中心。大屏幕上的地图，以重庆为坐标点，绘就了联通世界的“大动脉”：向西，中欧班列直抵欧洲；向北，“渝满俄”铁路纵贯南北；向东，长江黄金水道联通中部地区和长三角；向南，西部陆海新通道跨山越海。', '西部陆海新通道，这是习近平总书记近期考察中，多次关注的一条贸易线。“这条通道有哪些成本优势？效益如何？”“沿途还有什么障碍？”现场，总书记问得细致。', '“从重庆到广西钦州，再过马六甲海峡，比沿长江黄金水道，经东部沿海再南下节约了十多天甚至二十天。”', '多少年来，滔滔江水带着西南各地的山货土产顺流而下，东南的布匹棉纱，伴着铿锵的川江号子溯流而上。而今，铁路、公路、航线辐射八方，也将重庆的发展放在中国、放在欧亚大陆、放在世界的视野下去考量。', '“物流是实体经济的‘筋络’。”习近平总书记有感而发，“建设西部陆海新通道，对于推动形成‘陆海内外联动、东西双向互济’的对外开放格局具有重要意义。要把这一标志性项目建设好、运营好，带动西部和内陆地区高水平对外开放，形成交叉联网的枢纽。”', '园区内，重庆铁路集装箱中心站昼夜吞吐不息。过去这里是个不起眼的小站，如今因中欧班列和西部陆海新通道联通世界。铁轨、火车、集装箱，国内市场和国际市场、中国经济和世界经济深度融合。', '十年前，习近平总书记在德国杜伊斯堡，见证了最先开行的中欧班列“渝新欧”的强劲运力。火车正是从重庆这座车站出发，向西、再向西，越山岭、穿戈壁、过边境，古老的丝绸之路重焕生机。', '这些年，西部陆海新通道的“朋友圈”不断扩容。西部地区与周边13个国家接壤，边境线长达1.8万多公里。南向、北联、东融、西合，又何止重庆一地？座谈会上，每一个省份都列出了开放的成绩单：陕西，去年对中亚国家进出口总额增长178%；新疆，去年外贸进出口总额增长45.9%；广西北部湾“一湾相挽十一国”，平陆运河的建设如火如荼，建成后将成为西南地区最便捷的水运出海通道。', '开放，对于西部来说，不仅是拧成一股绳走出去，也是发展实力的一把量尺，要到国际市场上去经风雨。', '拥有我国41个工业大类中的39个、全部31个制造业大类，重庆是当之无愧的制造重镇。从新中国成立初期的三线建设，到改革开放后的工业振兴，再到新时代高质量发展的提质增效，共同铸就了开放的底气。', '中德合资研发的氢动力发动机、技术领先的纳米时栅、我国最大型号船舶涡轮增压器、我国首台“大排量小型化活塞式发动机”，还有首创三位一体技术的血液透析机……琳琅满目的创新创造，都在传递着新质生产力之于开放的意义。', '听闻研制的海上风电机组整机国产化率99%，习近平总书记很是感慨：“当年我在福建工作的时候，中国还没有海上风电。曾几何时啊！”', '“重庆的制造业有自身的结构特点、有相应的优势。家财万贯不如一技在身。盯准了就持续干，坚定不移、久久为功。”', '重庆，中国最年轻的直辖市，集大城市、大农村、大山区、大库区于一体。8.24万平方公里、38个区县、3000多万人口，区域协调发展、城乡融合发展任务十分繁重，面前摆着探索西部地区现代化建设之路的一道考题。', '九龙坡区谢家湾街道民主村社区，曾是远近闻名的“老破小”，房子差、管网旧、污水多、配套缺。22日傍晚，总书记走进小区。', '青石板、红砖房、黄桷树，敞亮的社区会客厅、功能齐全的党群服务中心，还有饭菜飘香的社区食堂。', '饭碗里，盛着民心。见到总书记走进来，老人、孩子们都兴奋地站起身来，掌声、笑声、问候声此起彼伏。总书记微笑着和大家唠起家常。', '食堂门前，过去是个排水渠，后来变成了臭水沟。经过治理，成为居民们休闲的小广场。这一切的变化，都源于社区2022年初启动的更新改造项目并纳入全国有关试点。', '“中国式现代化，民生为大。党和政府的一切工作，都是为了老百姓过上更加幸福的生活。”习近平总书记语重心长地说，“党中央很关心的一件事，就是把老旧小区改造好。改旧换新，完善服务设施。希望各级党委和政府都能为解决民生问题投入更多的财力物力，每年办一些民生实事，不断增强人民群众的获得感幸福感安全感。”', '基层减负，事关民生福祉，镜鉴党的作风。在社区的党群服务中心，总书记看到了一份报表。', '“‘渝快政’APP上有一个全市的一表通智能报表应用，以前我们要填很多报表，有些信息差不多，总是在重复填写。之前我们一年要报上百张表，现在只需要报12张表。”', '5年前，同是4月，也在重庆。总书记当时也谈到了整治形式主义、官僚主义：“让基层干部从繁文缛节、文山会海、迎来送往中解脱出来。”那一年，是党中央确定的“基层减负年”。', '减负赋能，治理提效，5年攻坚见韧性、显实效。这一次，习近平总书记深刻指出，“为基层减负要明确权责，不能什么事都压给基层，基层该承担哪些工作，要把职责事项搞清楚。”', '减负，减掉的是形式主义的桎梏，增添的是实干担当的精气神。在考察第三天召开的市委和市政府汇报会上，总书记又谈到了为基层减负：', '“前天去九龙坡，我问社区党委书记，现在负担重不重。她说，过去填很多报表，通过报表开展工作。那不行。不能形式大于内容，表面大于实效。形式主义少一些、真抓实干多一些，矛盾也会少一些，实绩也会多一些。这个事情要坚持不懈地抓下去。”', '23日上午，重庆市数字化城市运行和治理中心。习近平总书记考察了重庆的“城市大脑”。', '过去散落各处的数据，聚合、赋能。水、电、气、讯、桥、隧、轨道、管网等城市体征指标一目了然，重庆在探索实现超大城市治理体系整体重构。', '相关同志讲述了去年一次山体滑坡预警的案例，并视频连线了刚处置完一场火灾的北碚支队的消防员。', '习近平总书记思考良多：“治理体系和治理能力现代化是中国式现代化的应有之义。这个问题我是非常关注的。”“城市治理涉及方方面面，首要的是以‘时时放心不下’的责任感，做好预案、精准管控、快速反应，有效处置各类事态，确保城市安全有序运行。”', '对“城市大脑”观感深刻，总书记在之后的考察中又数次提起城市治理课题：“信息化时代，要加快智慧城市建设步伐，构建城市运行和治理智能中枢，建立健全‘大综合一体化’城市综合治理体制机制，让城市治理更智能、更高效、更精准。”', '统筹区域协调发展从来都是一个重大问题。迢迢民族复兴路的关键一程，它在治国理政的大架构中被置于前所未有的醒目位置。', '探究原因，正如习近平总书记所说，“区域一体化乃大势所趋”。循势而行，顺势而为，随着调研的深入、布局的精准，一幅战略图跃然纸上。', '党的二十大后，围绕区域协调发展主题，总书记接连主持召开座谈会。从京津冀到长三角，从东北振兴到中部崛起，从长江经济带发展到西部大开发，区域协调发展战略在960多万平方公里大地上相连成势。', '1999年，“西部大开发”第一次出现在党中央的文件中。之后，这一战略融汇时代特征，持续而深刻地塑造着壮阔的西部地区。', '20年后的2019年，党中央、国务院再度推出《关于新时代推进西部大开发形成新格局的指导意见》。万字重磅长文，定义了“大保护、大开放、高质量发展”的新格局。', '座谈会上，说到这里，总书记总结道：“西部大开发作为国家战略，是一以贯之的。没有任何动摇，更没有削弱，而是不断加强和完善。我们现在还在继续推动这项工作。久久为功，自强不息，止于至善。”', '而这一次，座谈会进一步锁定新格局，也将“一张蓝图绘到底”再一次夯实：“要一以贯之抓好党中央推动西部大开发政策举措的贯彻落实，进一步形成大保护、大开放、高质量发展新格局，提升区域整体实力和可持续发展能力，在中国式现代化建设中奋力谱写西部大开发新篇章。”', '“在全国改革发展稳定大局中举足轻重”，这是西部的战略地位。关注、关怀西部，是使命使然，也是情怀所在。', '“我们党从这里走来。”在西部的红色沃土上，他一次次前往革命纪念地瞻仰，感悟取之不尽、用之不竭的力量源泉。', '总书记一直牵挂着西部，那里“革命老区、民族地区、边疆地区、贫困地区多”。党的十八大后，“30多次到西部调研，而且每次都有针对性地提出一些要求”。', '新时代推动西部大开发，习近平总书记盘点这些年沉甸甸的成绩，也深刻分析亟待解决的短板和困难：“看看咱们的家底，梳理梳理咱们的长短板。”', '党的十八大后，习近平新时代中国特色社会主义思想在实践中不断形成、丰富和拓新。这六个“坚持”所蕴含的思想理念，融汇于习近平经济思想、习近平生态文明思想、总体国家安全观等蔚为大观的思想体系之中，在西部地区因地制宜、因时就势，焕发出盎然生机。', '谈到“要加快传统产业技术改造”，习近平总书记深刻指出：“传统产业不能说是落后产业，传统产业里面也有新质生产力，也有高科技。”', '说到煤炭等能源行业的发展，总书记拿“窝窝头”和“精面细面”打比喻：“先吃饱肚子再吃好。我们要实事求是，既不能放慢绿色低碳发展步伐，也不能太理想化，首先要保证能源供应。”', '总书记十分关心成渝地区双城经济圈建设。占全国1.9%的这方沃土，产出了占比超6%的地区生产总值。如何唱好新时代西部“双城记”？习近平总书记寄望川渝两地“紧密合作，不断提升发展能级”。', '“抓好党纪学习教育。”习近平总书记敲响警钟，“温水煮青蛙，前车之鉴不可忘却，每个人还是要好好复习一下。脑子里要有个‘紧箍咒’。反腐败永远在路上，没有敬畏感就会迷了道。”', '自我革命的坚韧，映射出如磐的初心。聚阳才能生焰，握指才能成拳。西部大开发的磅礴伟业是党领导人民来创造的。', '“打造忠诚干净担当的高素质专业化干部队伍。”总书记叮嘱，“关心关爱基层干部特别是条件艰苦地区干部，激励干部锐意进取、大胆开拓、担当作为”，“加强年轻干部在西部地区的培养锻炼”。']</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A73" t="n">
+        <v>23</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
           <t>习近平在湖南长沙市考察调研</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>2024-03-20</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>https://mp.weixin.qq.com/s/N-xZF-ErvfZ-3wjVBx__ZA</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>['18日下午，习近平总书记在湖南省长沙市，先后考察了湖南第一师范学院（城南书院校区）和巴斯夫杉杉电池材料有限公司，了解学校用好红色资源、坚持立德树人和当地加快发展新质生产力、扩大高水平对外开放等情况。']</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A74" t="n">
+        <v>23</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
           <t>中国政府网习近平在重庆考察时强调进一步全面深化改革开放不断谱写中国式现代化重庆篇章</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>2024-04-24</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>https://www.gov.cn/yaowen/liebiao/202404/content_6947266.htm</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>['习近平在重庆考察时强调：进一步全面深化改革开放 不断谱写中国式现代化重庆篇章__中国政府网', '习近平在重庆考察时强调 进一步全面深化改革开放 不断谱写中国式现代化重庆篇章 蔡奇陪同考察', '新华社重庆4月24日电 中共中央总书记、国家主席、中央军委主席习近平近日在重庆考察时强调，重庆要对标新时代新征程党的中心任务和党中央赋予的使命，充分发挥比较优势、后发优势，进一步全面深化改革开放，主动服务和融入新发展格局，着力推动高质量发展，奋力打造新时代西部大开发重要战略支点、内陆开放综合枢纽，在发挥“三个作用”上展现更大作为，不断谱写中国式现代化重庆篇章。', '4月22日至24日，习近平在中共中央政治局委员、重庆市委书记袁家军和市长胡衡华陪同下，深入物流园区、城市社区、数字化城市运行和治理中心等进行考察调研。', '4月22日至24日，中共中央总书记、国家主席、中央军委主席习近平在重庆考察。这是22日下午，习近平在重庆国际物流枢纽园区西部陆海新通道重庆无水港运营调度中心考察。', '22日下午，习近平首先考察了重庆国际物流枢纽园区。他来到西部陆海新通道重庆无水港运营调度中心，听取新通道建设情况汇报。习近平强调，物流是实体经济的“筋络”。建设西部陆海新通道，对于推动形成“陆海内外联动、东西双向互济”的对外开放格局具有重要意义。各有关方面要齐心协力，把这一标志性项目建设好、运营好，带动西部和内陆地区高水平对外开放。物流园区要积极运用先进技术，不断创新联运模式，提高科学管理水平，在建设现代物流体系中发挥更大作用。', '4月22日至24日，中共中央总书记、国家主席、中央军委主席习近平在重庆考察。这是22日下午，习近平在重庆国际物流枢纽园区重庆铁路集装箱中心站，同货车司机、列车司机、装卸工人、场站管理人员等亲切交流。', '随后，习近平来到重庆铁路集装箱中心站，听取货物集散、运输路径、运营成本和效益等介绍，同货车司机、列车司机、装卸工人、场站管理人员等亲切交流，询问他们的工作强度、劳动保护、节假日休息和收入情况。习近平说，大家在物流一线，也是在对外开放一线，通过你们的辛勤劳动，很多商品跨越山海、走向世界，你们的工作很有意义。推动西部大开放、促进西部大开发，物流很重要，大家要继续努力，不断创造新的业绩，作出新的贡献。', '习近平还听取了重庆推动成渝地区双城经济圈建设情况汇报，参观了重庆科技创新和产业发展成果展示。习近平表示，建设成渝地区双城经济圈是党中央作出的重大战略决策。重庆、四川两地要紧密合作，不断提升发展能级，共同唱好新时代西部“双城记”。支柱产业是发展新质生产力的主阵地。重庆的制造业有自身的结构特点、有相应的优势，希望重庆牢牢抓住科技创新这个“牛鼻子”，扬优势、补短板，抓当前、谋未来，坚定不移、久久为功，奋力推动制造业高质量发展。', '4月22日至24日，中共中央总书记、国家主席、中央军委主席习近平在重庆考察。这是22日下午，习近平在九龙坡区谢家湾街道民主村社区考察。', '九龙坡区谢家湾街道民主村社区是一个老小区，2022年初启动更新改造项目并纳入全国有关试点。习近平来到这里，察看小区改造和便民服务情况，听取提升基层治理效能、为基层减负情况介绍。他还走进社区食堂，同正在就餐的群众亲切交流，鼓励社区食堂实现可持续发展。习近平指出，老旧小区改造是城市更新的一个重点，也是一项民生工程，既要保留历史记忆和特色风貌，又要解决居民关切的实际问题。要总结推广这方面的成功经验，更好惠及广大社区居民。城市治理的很多工作要靠基层党组织这个战斗堡垒和社区这个平台去落实，要厘清城市社区职责事项，继续推动资源下沉、完善服务设施，强化网格化管理、信息化支撑，提高社区精细化治理、精准化服务水平。', '4月22日至24日，中共中央总书记、国家主席、中央军委主席习近平在重庆考察。这是22日下午，习近平在九龙坡区谢家湾街道民主村社区考察时，同正在社区食堂就餐的群众亲切交流。', '离开时，社区居民纷纷围拢过来欢送总书记。习近平对大家说，中国式现代化，民生为大。党和政府的一切工作，都是为了老百姓过上更加幸福的生活。希望各级党委和政府都能为解决民生问题投入更多的财力物力，每年办一些民生实事，不断增强人民群众的获得感幸福感安全感。', '4月22日至24日，中共中央总书记、国家主席、中央军委主席习近平在重庆考察。这是22日下午，习近平在九龙坡区谢家湾街道民主村社区考察时，同社区居民亲切交流。', '23日上午，习近平考察了重庆市数字化城市运行和治理中心，听取当地加快城市数字化转型、探索超大城市治理新路等情况汇报，观看系统应用演示。习近平指出，治理体系和治理能力现代化是中国式现代化的应有之义。强化数字赋能、推进城市治理现代化，要科学规划建设大数据平台和网络系统，强化联合指挥和各方协同，切实提高执行力。城市治理涉及方方面面，首要的是以“时时放心不下”的责任感，做好预案、精准管控、快速反应，有效处置各类事态，确保城市安全有序运行。希望你们不断探索，积累新的经验。', '4月22日至24日，中共中央总书记、国家主席、中央军委主席习近平在重庆考察。这是23日上午，习近平在重庆市数字化城市运行和治理中心考察。', '24日上午，习近平听取了重庆市委和市政府工作汇报，对重庆各项工作取得的成绩给予肯定。', '习近平指出，重庆制造业基础较好，科教人才资源丰富，要着力构建以先进制造业为骨干的现代化产业体系。深入实施制造业重大技术改造升级和大规模设备更新工程，加快传统产业转型升级，积极培育具有国际先进水平和竞争力的战略性新兴产业。加强重大科技攻关，强化科技创新和产业创新深度融合，积极培育新业态新模式新动能，因地制宜发展新质生产力。积极推进成渝地区双城经济圈建设，更好发挥全国高质量发展的重要增长极和新的动力源作用。大力推动绿色发展，建设美丽重庆，筑牢长江上游重要生态屏障。', '4月22日至24日，中共中央总书记、国家主席、中央军委主席习近平在重庆考察。这是22日下午，习近平参观重庆科技创新和产业发展成果展示。', '习近平强调，重庆要以敢为人先的勇气，全面深化改革，扩大高水平对外开放。坚持和落实“两个毫不动摇”，一手抓深化国企改革、培育一批核心竞争力强的国有企业，一手抓促进民营经济发展壮大、激发各类经营主体活力。积极融入全国统一大市场建设，主动融入和服务国家重大战略，在推动共建“一带一路”、长江经济带、西部陆海新通道联动发展中发挥更大作用。主动对接高标准国际经贸规则，营造市场化法治化国际化一流营商环境。', '习近平指出，重庆是我国辖区面积和人口规模最大的城市，要深入践行人民城市理念，积极探索超大城市现代化治理新路子。加快智慧城市建设步伐，构建城市运行和治理智能中枢，建立健全“大综合一体化”城市综合治理体制机制，让城市治理更智能、更高效、更精准。扎实推进党建引领基层治理，坚持和发展新时代“枫桥经验”，深化城乡精神文明建设，推进移风易俗，提高全社会文明程度。全面推进韧性城市建设，有效提升防灾减灾救灾能力。', '习近平强调，重庆集大城市、大农村、大山区、大库区于一体，要大力推进城乡融合发展。积极推进以县（区）城为重要载体的新型城镇化建设，有序引导、依法规范城市工商资本和科技、人才下乡，助力乡村全面振兴。抓牢抓实粮食生产，依山就势发展生态特色农业。学好用好“千万工程”经验，因地制宜开展乡村建设，聚焦现阶段农民群众需求强烈、能抓得住、抓几年就能见到成效的重点实事，抓一件成一件，让农民群众可感可及、得到实惠。巩固拓展脱贫攻坚成果，确保不发生规模性返贫。', '习近平指出，要毫不放松坚持党的领导、加强党的建设。巩固拓展主题教育成果，建立健全长效机制，推动党员、干部特别是领导干部增强政治能力、提高工作水平，真抓实干、积极进取、担当作为。持续深化整治形式主义为基层减负，为基层干部干事创业创造良好条件。扎实开展党纪学习教育，引导党员、干部真正把纪律规矩转化为政治自觉、思想自觉、行动自觉。一以贯之反对和惩治腐败，不断铲除腐败滋生的土壤和条件，营造风清气正的政治生态。', '中共中央总书记、国家主席、中央军委主席习近平近日在重庆考察时强调，重庆要对标新时代新征程党的中心任务和党中央赋予的使命，充分发挥比较优势、后发优势，进一步全面深化改革开放，主动服务和融入新发展格局，着力推动高质量发展，奋力打造新时代西部大开发重要战略支点、内陆开放综合枢纽，在发挥“三个作用”上展现更大作为，不断谱写中国式现代化重庆篇章。']</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A75" t="n">
+        <v>23</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
           <t>市卫健委机关党委召开专题会议传达学习市委第五巡察组巡察反馈会议精神</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>2024-04-17</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>http://wjw.linfen.gov.cn/zzzb/bmyw_10596/202404/t20240417_340296.html</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>['市卫健委机关党委召开专题会议 传达学习市委第五巡察组巡察反馈会议精神-部门要闻_10596-临汾市卫生健康委员会', '4月12日下午，市卫健委机关党委召开传达学习市委第五巡察组巡察反馈意见专题会议。机关党委书记毛崇澜主持会议并传达精神。', '会议集中学习了《市委第五巡察组关于对市卫生健康委员会党组开展专项巡察的反馈意见》《董凤妮同志的表态发言》和反馈会议精神，进一步领会巡察整改工作的重大意义，并就抓好巡察整改工作作出具体安排。', '会议强调，要充分认识巡察整改的重要性，清醒看到当前卫健工作及队伍建设中存在的问题，切实扛起巡察整改的政治责任。一是思想上高度重视，以高站位对待整改。要深刻认识巡察反馈意见的严肃性和整改落实的紧迫性，以最坚决的态度、最果断的行动、最严格的纪律抓好整改工作。二是提高政治站位，以高标准落实整改。全委上下要态度坚定、行动坚决，坚持不懈把全面从严治党向纵深推进，以高度政治责任感和历史使命感，多措并举全力助推廉政建设，认真圆满完成问题整改工作。三是机制上健全完善，以高水平巩固成效。坚持', '“当下改”与“长久立”相结合，把巡察整改的过程转化为推动卫健工作创新发展的生动实践，融入日常工作、融入深化改革、融入全面从严治党、融入卫健队伍建设，不断推动各项工作再上新台阶。']</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A76" t="n">
+        <v>23</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
           <t>习近平在湖南考察农村基层减负情况</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>2024-03-20</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>https://www.gov.cn/yaowen/liebiao/202403/content_6940385.htm</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>['19日下午，习近平总书记来到湖南省常德市鼎城区谢家铺镇港中坪村考察调研。村干部向总书记汇报了这些年当地农村基层减负情况：村部的牌子减少了，要求村里开的证明、给村里交办的事少了，村干部手机上的微信工作群也少了，基层干部有了更多时间和精力为老百姓服务。习近平指出，党中央明确要求为基层减负，坚决整治形式主义、官僚主义问题，要精兵简政，继续把这项工作抓下去。（文字记者：张晓松、朱基钗；摄影记者：鞠鹏、燕雁）', '\u200b19日下午，习近平总书记来到湖南省常德市鼎城区谢家铺镇港中坪村考察调研。村干部向总书记汇报了这些年当地农村基层减负情况：村部的牌子减少了，要求村里开的证明、给村里交办的事少了，村干部手机上的微信工作群也少了，基层干部有了更多时间和精力为老百姓服务。习近平指出，党中央明确要求为基层减负，坚决整治形式主义、官僚主义问题，要精兵简政，继续把这项工作抓下去。']</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A77" t="n">
+        <v>23</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
           <t>习近平在湖南长沙市考察调研</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>2024-03-19</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>https://www.gov.cn/yaowen/liebiao/202403/content_6940070.htm</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>['18日下午，习近平总书记在湖南省长沙市，先后考察了湖南第一师范学院（城南书院校区）和巴斯夫杉杉电池材料有限公司，了解学校用好红色资源、坚持立德树人和当地加快发展新质生产力、扩大高水平对外开放等情况。（文字记者：张晓松、朱基钗；摄影记者：鞠鹏、谢环驰、燕雁、王晔）', '\u200b18日下午，习近平总书记在湖南省长沙市，先后考察了湖南第一师范学院（城南书院校区）和巴斯夫杉杉电池材料有限公司，了解学校用好红色资源、坚持立德树人和当地加快发展新质生产力、扩大高水平对外开放等情况。']</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A78" t="n">
+        <v>23</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
           <t>习近平在四川考察时强调推动新时代治蜀兴川再上新台阶奋力谱写中国式现代化四川新篇章返京途中在陕西汉中考察</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>2023-07-31</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>https://mp.weixin.qq.com/s/BfMKY_2yg10FVCwo0Dla9A</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>['习近平在四川考察时强调 推动新时代治蜀兴川再上新台阶 奋力谱写中国式现代化四川新篇章 返京途中在陕西汉中考察', '中共中央总书记、国家主席、中央军委主席习近平近日在四川考察时强调，全面学习贯彻党的二十大精神，要牢牢把握新时代新征程党的中心任务，牢牢把握中国式现代化的科学内涵和本质要求，牢牢把握高质量发展这个首要任务，把贯彻新发展理念、构建新发展格局、促进共同富裕贯穿经济社会发展各方面全过程，深入推进发展方式、发展动力、发展领域、发展质量变革，开创我国高质量发展新局面。四川要进一步从全国大局把握自身的战略地位和战略使命，立足本地实际，明确发展思路和主攻方向，锻长板、补短板，努力在提高科技创新能力、建设现代化产业体系、推进乡村振兴、加强生态环境治理等方面实现新突破，推动新时代治蜀兴川再上新台阶，奋力谱写中国式现代化四川新篇章。', '7月25日至27日，习近平在四川省委书记王晓晖和省长黄强陪同下，先后来到广元、德阳等地进行调研。', '25日下午，习近平首先来到广元市剑阁县考察了翠云廊。这里是古代关中平原通往四川盆地古蜀道的重要路段，有迄今保存最完好的古代人工栽植驿道古柏群。习近平听取古蜀道发展历程、翠云廊整体情况介绍，沿古道步行察看千年古柏长势，详细询问历史上植柏护柏情况。他指出，这片全世界最大的人工古柏林，之所以能够延续得这么久、保护得这么好，得益于明代开始颁布实行“官民相禁剪伐”、“交树交印”等制度，一直沿袭至今、相习成风，更得益于当地百姓世代共同守护。这启示我们，抓生态文明建设必须搭建好制度框架，抓好制度执行，同时充分调动广大人民群众的积极性主动性创造性，巩固发展新时代生态文明建设成果。临行前，他嘱咐当地负责同志，要把古树名木保护好，把中华优秀传统文化传承好。', '位于德阳市广汉市西北鸭子河南岸的三星堆遗址，代表了数千年前的古蜀文明面貌和发展水平，是同时期长江流域文化内涵最丰富、面积最大的都城遗址。26日下午，习近平来到三星堆博物馆新馆，参观“世纪逐梦”、“巍然王都”、“天地人神”等展陈，了解三星堆遗址发掘历程和古蜀文明成果。在三星堆博物馆文物保护与修复馆，习近平走进文保修复工作区，仔细察看文物保护修复工作流程细节和最新技术，同现场工作人员亲切交流。习近平指出，三星堆遗址考古成果在世界上是叫得响的，展现了四千多年前的文明成果，为中华文明多元一体、古蜀文明与中原文明相互影响等提供了更为有力的考古实证。文物保护修复是一项长期任务，要加大国家支持力度，加强人才队伍建设，发扬严谨细致的工匠精神，一件一件来，久久为功，做出更大成绩。习近平代表党中央，对三星堆博物馆新馆的落成使用表示热烈祝贺，向广大考古工作者表示衷心感谢和崇高敬意！', '27日上午，习近平听取了四川省委和省政府工作汇报，对四川各项工作取得的成绩给予肯定，希望四川在推进科技创新和科技成果转化上同时发力，在建设现代化产业体系上精准发力，在推进乡村振兴上全面发力，在筑牢长江黄河上游生态屏障上持续发力。', '习近平指出，以科技创新开辟发展新领域新赛道、塑造发展新动能新优势，是大势所趋，也是高质量发展的迫切要求，必须依靠创新特别是科技创新实现动力变革和动能转换。四川要发挥高校和科研机构众多、创新人才集聚的优势和产业体系较为完善、产业基础雄厚的优势，在科技创新和科技成果转化上同时发力。要完善科技创新体系，积极对接国家战略科技力量和资源，优化完善创新资源布局，努力攻克一批关键核心技术，着力打造西部地区创新高地。', '习近平强调，四川是我国发展的战略腹地，在国家发展大局特别是实施西部大开发战略中具有独特而重要的地位。要依托制造业的独特优势，积极服务国家产业链供应链安全，高质量对接东部沿海地区产业新布局。要把发展特色优势产业和战略性新兴产业作为主攻方向，加快改造提升传统产业，前瞻部署未来产业，促进数字经济与实体经济深度融合，构建富有四川特色和优势的现代化产业体系。要科学规划建设新型能源体系，促进水风光氢天然气等多能互补发展。要强化粮食和战略性矿产资源等生产供应，打造保障国家重要初级产品供给战略基地。要坚持“川渝一盘棋”，加强成渝区域协同发展，构筑向西开放战略高地和参与国际竞争新基地，尽快成为带动西部高质量发展的重要增长极和新的动力源。', '习近平指出，要巩固脱贫攻坚成果，把乡村振兴摆在治蜀兴川的突出位置，更好扛起粮食、生猪、油料等重要农产品稳产保供责任。要抓住种子和耕地两个要害，加强良种和良田的配套，打造新时代更高水平的“天府粮仓”。要在产业发展、乡村建设、乡村治理等方面，聚焦群众反映强烈、能抓得住、抓几年就能见到成效的几件事，集中资源，加快突破，形成标志性成果。要学习运用浙江“千万工程”经验，聚焦小切口，锲而不舍、久久为功。农村宅基地改革要守住底线。要把住土地流转关，不能借流转之机搞“非农化”。要加强社会保障体系城乡统筹，推动基本公共服务城乡均等化。', '习近平强调，四川是长江上游重要的水源涵养地、黄河上游重要的水源补给区，也是全球生物多样性保护重点地区，要把生态文明建设这篇大文章做好。要坚持山水林田湖草沙一体化保护和系统治理，强化国土空间管控和负面清单管理，严格落实自然保护地、生态保护红线监管制度。要加快建立以国家公园为主体的自然保护地体系。要推行草原森林河流湖泊湿地休养生息。要加快调整优化产业结构、能源结构、交通运输结构、用地结构，推进资源集约节约利用，积极倡导绿色低碳生产生活方式。要以更高标准打好蓝天、碧水、净土保卫战，积极探索生态产品价值实现机制，完善生态保护补偿机制，提升生态环境治理现代化水平。', '习近平指出，四川是自然灾害频发之地，要健全应急管理体系，加强应急力量建设，形成长效机制，系统提升防灾减灾救灾能力。7、8月份长江流域进入主汛期，要全面落实防汛救灾主体责任，做好防汛抗洪救灾各项应对准备工作。要科学救灾，防止发生次生灾害，最大限度减少人员伤亡和财产损失，尽快恢复正常生产生活秩序。要落实落细安全生产责任制，全面排查安全生产隐患，坚决防范和遏制重特大安全生产事故发生，切实保障人民生命财产安全。', '习近平强调，第一批主题教育只剩下一个多月时间，各级党组织要落实党中央部署，善始善终、慎终如始，务求实效。要对主题教育的实效进行科学、客观评估。检验理论学习成效，要看党的创新理论是否入心见行、党员干部是否做到善思善用；检验调查研究成效，要看是否摸清社情民意、是否解决实际问题；检验推动发展成效，要看高质量发展是否有新突破、人民生活品质是否有新提升；检验检视整改成效，要看问题症结是否找准、整改整治是否到位；检验干部队伍教育整顿成效，要看思想不纯和组织不纯现象是否纠正、政治隐患是否消除。评估成效要用事实说话，开门抓评估，让群众评价，确保评估客观真实。评估主题教育成效，很重要的一个方面是看形式主义、官僚主义是否得到有效解决，要对形式主义、官僚主义的东西来一次检视，分析根源，对症下药，切实改出实效。要开好领导班子专题民主生活会和基层党组织组织生活会，结合学查改开展批评和自我批评。', '习近平十分关心汉江流域历史文化传承和生态保护。7月29日，在返京途中，习近平走下列车，在陕西省委书记赵一德、省长赵刚陪同下，来到汉中市考察。习近平参观汉中市博物馆有关历史文物展陈，了解汉中历史文化、文物保护情况。他指出，文物承载灿烂文明，传承历史文化，维系民族精神。要发挥好博物馆保护、传承、研究、展示人类文明的重要作用，守护好中华文脉，并让文物活起来，扩大中华文化的影响力。汉中藤编等非物质文化遗产久负盛名，要发展壮大特色产业，更好带动群众增收致富。离开博物馆时，附近的乡亲们围拢过来热情欢呼“总书记好”。习近平亲切地对大家说，我在2008年汶川大地震抗震救灾时来过汉中，这些年一直牵挂着这里。这次来，看到这里发展变化很大，城市井然有序，很欣慰。他祝愿大家工作好、生活好、家庭幸福。', '途中，习近平考察了地处汉江汉中城区段的天汉湿地公园，称赞这里是市民“幸福园”。习近平强调，汉江及其支流是南水北调中线工程的主要水源汇集区和供给地，保护好这一区域的湿地资源责任重大、意义深远。生态公园建设要顺应自然，加强湿地生态系统的整体性保护和系统性修复，促进生态保护同生产生活相互融合，努力建设环境优美、绿色低碳、宜居宜游的生态城市。', '李干杰、何立峰及中央和国家机关有关部门负责同志陪同考察，主题教育中央第十二指导组负责同志参加汇报会。']</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A79" t="n">
+        <v>23</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
           <t>省人大常委会党组召开扩大会议传达学习贯彻习近平总书记考察山西重要指示精神</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>2023-05-20</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>http://www.shanxi.gov.cn/ywdt/sxyw/202305/t20230520_8584056.shtml</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>['省人大常委会党组召开扩大会议传达学习贯彻习近平总书记考察山西重要指示精神 - 山西省人民政府', '5月18日下午，省人大常委会党组召开扩大会议，传达学习习近平总书记考察山西重要指示精神，传达省委常委会扩大会议暨理论学习中心组学习会精神，安排部署贯彻落实事宜。省人大常委会党组书记、副主任罗清宇主持并讲话，党组成员、副主任贺天才、张志川、吴俊清出席，副主任谢红列席。', '与会同志一致认为，在全党深入开展学习贯彻习近平新时代中国特色社会主义思想主题教育、全面建设社会主义现代化国家开局起步的关键时期，在我省学习贯彻党的二十大精神、加快推进高质量发展和现代化建设的关键阶段，习近平总书记再次深入我省考察，为我们把舵领航、指引方向，充分体现了对山西工作的高度重视、对全省人民的关心厚爱。习近平总书记考察期间作出的重要指示，具有很强的政治性、战略性、指导性、针对性，为做好新时代新征程山西工作指明了前进方向、提供了思想武器、注入了强大动力。在省委坚强领导下，全省上下必将沿着习近平总书记指引的方向夺取新的更大胜利。', '会议强调，省人大及其常委会要将学习贯彻好习近平总书记考察山西重要指示精神作为当前最重要的政治任务，深刻领会习近平总书记重要指示的核心要义、精神实质、丰富内涵、实践要求，坚定捍卫“两个确立”，坚决做到“两个维护”，始终在思想上政治上行动上同以习近平同志为核心的党中央保持高度一致。要将习近平总书记重要指示和殷切期望转化为干事创业的强大动力和实际成效，自觉对标习近平总书记指示要求，紧紧围绕省委中心工作，开展好人大立法、监督、代表工作，完成好黄河流域生态保护、文物保护、现代化产业体系建设等领域的立法、执法检查等任务，为推动全省高质量发展提供有力的法治保障。要将学习贯彻习近平总书记考察山西重要指示精神列入主题教育的重要学习内容，精心安排部署，掀起学习热潮，教育引导全体党员干部牢记领袖嘱托，以求真务实的优良作风、苦干实干的工作劲头、清正廉洁的良好作风推进人大工作，交出让省委满意、让全省人民满意的优秀答卷。（杨文）']</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A80" t="n">
+        <v>23</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
           <t>习近平在湖南考察时强调坚持改革创新求真务实奋力谱写中国式现代化湖南篇章</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>2024-03-21</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>https://www.gov.cn/yaowen/liebiao/202403/content_6940751.htm</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>['习近平在湖南考察时强调：坚持改革创新求真务实 奋力谱写中国式现代化湖南篇章__中国政府网', '习近平在湖南考察时强调 坚持改革创新求真务实 奋力谱写中国式现代化湖南篇章 蔡奇陪同考察', '3月18日至21日，中共中央总书记、国家主席、中央军委主席习近平在湖南考察。这是18日下午，习近平在中德合资企业巴斯夫杉杉电池材料有限公司考察。新华社记者 燕雁 摄', '3月18日至21日，中共中央总书记、国家主席、中央军委主席习近平在湖南考察。这是19日下午，习近平在常德市鼎城区谢家铺镇港中坪村，同种粮大户、农技人员、基层干部亲切交流。新华社记者 鞠鹏 摄', '新华社长沙3月21日电 中共中央总书记、国家主席、中央军委主席习近平近日在湖南考察时强调，湖南要牢牢把握自身在构建新发展格局中的战略定位，坚持稳中求进工作总基调，坚持高质量发展不动摇，坚持改革创新、求真务实，在打造国家重要先进制造业高地、具有核心竞争力的科技创新高地、内陆地区改革开放高地上持续用力，在推动中部地区崛起和长江经济带发展中奋勇争先，奋力谱写中国式现代化湖南篇章。', '3月18日至21日，习近平在湖南省委书记沈晓明和省长毛伟明陪同下，先后来到长沙、常德等地，深入学校、企业、历史文化街区、乡村等进行调研。', '3月18日至21日，中共中央总书记、国家主席、中央军委主席习近平在湖南考察。这是18日下午，习近平在湖南第一师范学院（城南书院校区）考察。新华社记者 谢环驰 摄', '18日下午，习近平来到湖南第一师范学院（城南书院校区）考察。该校前身是创办于宋代的城南书院，近代以来培养了一批老一辈无产阶级革命家和名师大家。习近平参观青年毛泽东主题展览，了解学院发展沿革和用好红色资源等情况。在学院大厅，习近平同师生代表亲切交流。他说，国家要强大，必须办好教育。一师是开展爱国主义教育、传承红色基因的好地方，要把这一红色资源保护运用好。学校要立德树人，教师要当好大先生，不仅要注重提高学生知识文化素养，更要上好思政课，教育引导学生明德知耻，树牢社会主义核心价值观，立报国强国大志向，努力成为堪当强国建设、民族复兴大任的栋梁之材。', '3月18日至21日，中共中央总书记、国家主席、中央军委主席习近平在湖南考察。这是18日下午，习近平在湖南第一师范学院（城南书院校区）考察时，同师生代表亲切交流。新华社记者 鞠鹏 摄', '随后，习近平来到巴斯夫杉杉电池材料有限公司考察。这是一家主营锂离子电池正极材料研发、生产和销售的中德合资企业。习近平听取当地加快发展新质生产力、扩大高水平对外开放等情况介绍，察看企业产品展示，了解材料性能测试情况和电池生产流程。他强调，科技创新、高质量发展是企业不断成长壮大、立于不败之地的关键所在，民营企业、合资企业在这方面都可以大有作为。中国开放的大门会越开越大，我们愿意同世界各国加强交流合作，欢迎更多外国企业来华投资发展。', '3月18日至21日，中共中央总书记、国家主席、中央军委主席习近平在湖南考察。这是19日上午，习近平在常德河街考察时，同店主和游客亲切交流。新华社记者 王晔 摄', '19日，习近平到常德市考察调研。位于沅江江畔的常德河街历史悠久，曾毁于1943年的常德战役。近年来，常德市复原老河街风貌，将此地打造成为历史文化街区。当天上午，习近平来到常德河街，察看各种特色小吃、特产、特色工艺品，同店主和游客亲切交流，并欣赏非物质文化遗产技艺展示，详细了解常德老城街道修复利用、城市规划、水环境综合治理等情况。习近平指出，多姿多彩的地方特色传统文化，共同构成璀璨的中华文明，也助推经济社会发展。常德是有文化传承的地方，这里的丝弦、高腔、号子等要以适当载体传承好利用好，与时俱进发展好。', '3月18日至21日，中共中央总书记、国家主席、中央军委主席习近平在湖南考察。这是19日上午，习近平在常德河街考察。新华社记者 谢环驰 摄', '湖南是全国13个粮食主产省之一，水稻播种面积、总产量均居全国第一。当天下午，习近平来到常德市鼎城区谢家铺镇港中坪村，走进当地粮食生产万亩综合示范片区，察看秧苗培育和春耕备耕进展，听取高质量推进农业现代化情况介绍，并同种粮大户、农技人员、基层干部一笔一笔算投入产出账。习近平强调，我国有14亿多人口，粮食安全必须靠我们自己保证，中国人的饭碗应该主要装中国粮。要建设好高标准农田，推行适度规模经营，加强政策支持和示范引领，加大良种、良机、良法推广力度，在精耕细作上下功夫，进一步把粮食单产和品质提上去，让种粮也能够致富，进而吸引更多农户参与发展现代化大农业，真正把中国特色农业现代化之路走稳走扎实。', '3月18日至21日，中共中央总书记、国家主席、中央军委主席习近平在湖南考察。这是19日下午，习近平在常德市鼎城区谢家铺镇港中坪村走进田间，察看秧苗培育和春耕备耕进展。新华社记者 王晔 摄', '习近平随后来到种粮大户戴宏家中，察看农机具和春耕物资准备，并前往村党群服务中心了解当地为基层减负、提升基层治理效能等情况。他指出，要坚决整治形式主义、官僚主义问题，精兵简政，持之以恒抓好这项工作。他勉励基层干部在产业发展和乡村治理上群策群力，不断干出让农民群众认可的实绩。', '离开时，村民们纷纷围拢过来欢送总书记。习近平满怀深情地对大家说，党中央高度重视“三农”工作，一定会采取切实有力的政策举措，回应老百姓的关切和需求，把乡村振兴的美好蓝图变为现实。掌声在村庄久久回荡。', '3月18日至21日，中共中央总书记、国家主席、中央军委主席习近平在湖南考察。这是19日下午，习近平在常德市鼎城区谢家铺镇港中坪村考察时，同乡亲们亲切交流。新华社记者 鞠鹏 摄', '21日上午，习近平听取了湖南省委和省政府工作汇报，对湖南各项工作取得的成绩给予肯定。', '习近平指出，科技创新是发展新质生产力的核心要素。要在以科技创新引领产业创新方面下更大功夫，主动对接国家战略科技力量，积极引进国内外一流研发机构，提高关键领域自主创新能力。强化企业科技创新主体地位，促进创新链产业链资金链人才链深度融合，推动科技成果加快转化为现实生产力。聚焦优势产业，强化产业基础再造和重大技术装备攻关，继续做大做强先进制造业，推动产业高端化、智能化、绿色化发展，打造国家级产业集群。', '3月18日至21日，中共中央总书记、国家主席、中央军委主席习近平在湖南考察。这是18日下午，习近平在中德合资企业巴斯夫杉杉电池材料有限公司考察。新华社记者 谢环驰 摄', '习近平强调，进一步全面深化改革要突出问题导向，着力解决制约构建新发展格局和推动高质量发展的卡点堵点问题、发展环境和民生领域的痛点难点问题、有悖社会公平正义的焦点热点问题，有效防范化解重大风险，不断为经济社会发展增动力、添活力。湖南要加强改革系统集成，更好参与全国统一大市场建设，全面融入中部地区崛起和长江经济带发展战略，深度融入共建“一带一路”，稳步扩大制度型开放，高标准建设好自由贸易试验区，着力打造中非经贸深度合作先行区。', '习近平指出，推进乡村全面振兴是新时代新征程“三农”工作的总抓手。湖南要扛起维护国家粮食安全的重任，抓住种子和耕地两个要害，加快种业、农机关键核心技术攻关。坚持大农业观、大食物观，积极发展特色农业和农产品加工业，提升农业产业化水平。深入推进城乡融合发展，壮大县域经济，畅通城乡要素双向流动，科学统筹乡村基础设施和公共服务布局。切实加强乡村精神文明建设，大力推动移风易俗。健全党组织领导的自治、法治、德治相结合的基层治理体系，坚持和发展新时代“枫桥经验”。落实防止返贫监测帮扶机制，坚决守住不发生规模性返贫的底线。', '3月18日至21日，中共中央总书记、国家主席、中央军委主席习近平在湖南考察。这是18日下午，习近平在湖南第一师范学院（城南书院校区）考察时，同师生代表亲切交流。新华社记者 王晔 摄', '习近平强调，湖南要更好担负起新的文化使命，在建设中华民族现代文明中展现新作为。保护好、运用好红色资源，加强革命传统和爱国主义教育，引导广大干部群众发扬优良传统、赓续红色血脉，践行社会主义核心价值观，培育时代新风新貌。探索文化和科技融合的有效机制，加快发展新型文化业态，形成更多新的文化产业增长点。推进文化和旅游深度融合，守护好三湘大地的青山绿水、蓝天净土，把自然风光和人文风情转化为旅游业的持久魅力。', '3月18日至21日，中共中央总书记、国家主席、中央军委主席习近平在湖南考察。这是19日下午，习近平在常德市鼎城区谢家铺镇港中坪村党群服务中心了解当地为基层减负、提升基层治理效能等情况。新华社记者 燕雁 摄', '习近平指出，推动高质量发展、推进中国式现代化，必须加强和改进党的建设。要巩固拓展主题教育成果，建立健全长效机制，树立和践行正确政绩观，持续深化整治形式主义为基层减负。组织开展好党纪学习教育，引导党员干部学纪、知纪、明纪、守纪，督促领导干部树立正确权力观，公正用权、依法用权、为民用权、廉洁用权。', '3月18日至21日，中共中央总书记、国家主席、中央军委主席习近平在湖南考察。这是20日上午，习近平在长沙亲切接见驻长沙部队上校以上领导干部，代表党中央和中央军委向驻长沙部队全体官兵致以诚挚问候。新华社记者 李刚 摄', '3月20日上午，习近平在长沙亲切接见驻长沙部队上校以上领导干部，代表党中央和中央军委向驻长沙部队全体官兵致以诚挚问候，并同大家合影留念。张又侠陪同接见。', '中共中央总书记、国家主席、中央军委主席习近平近日在湖南考察时强调，湖南要牢牢把握自身在构建新发展格局中的战略定位，坚持稳中求进工作总基调，坚持高质量发展不动摇，坚持改革创新、求真务实，在打造国家重要先进制造业高地、具有核心竞争力的科技创新高地、内陆地区改革开放高地上持续用力，在推动中部地区崛起和长江经济带发展中奋勇争先，奋力谱写中国式现代化湖南篇章。']</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A81" t="n">
+        <v>23</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
           <t>奋勇争先谱写中国式现代化新篇章习近平总书记在湖南考察时的重要讲话指明方向凝聚力量</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>2024-03-23</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>https://www.gov.cn/yaowen/liebiao/202403/content_6940826.htm</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>['奋勇争先，谱写中国式现代化新篇章——习近平总书记在湖南考察时的重要讲话指明方向、凝聚力量__中国政府网', '奋勇争先，谱写中国式现代化新篇章——习近平总书记在湖南考察时的重要讲话指明方向、凝聚力量', '新华社北京3月21日电题：奋勇争先，谱写中国式现代化新篇章——习近平总书记在湖南考察时的重要讲话指明方向、凝聚力量', '题：奋勇争先，谱写中国式现代化新篇章——习近平总书记在湖南考察时的重要讲话指明方向、凝聚力量', '习近平总书记近日在湖南考察时发表重要讲话。广大干部群众认真学习领会讲话精神，表示要以习近平新时代中国特色社会主义思想为指引，坚定信心、真抓实干，奋发有为、开拓进取，为开创高质量发展新局面、谱写中国式现代化新篇章而努力奋斗，把强国建设、民族复兴伟业不断推向前进。', '“现场聆听习近平总书记的重要讲话，我深感重任在肩。”湖南第一师范学院物理与化学学院院长许兰说，学校拥有丰富的红色资源、深厚的历史底蕴，在教学过程中始终坚持立德树人根本任务，“我将牢记总书记的嘱托，不忘为党育人、为国育才使命，既向学生传授专业知识，也持续优化课程思政内容，培养更多德智体美劳全面发展的社会主义建设者和接班人。”', '“习近平总书记2020年来到岳麓书院同师生们亲切交流，这次考察又对高校学子寄予厚望。我感到人生的目标更加清晰。”湖南大学岳麓书院学生芦熹鸣说，“青年学生就应该满怀勤学奋进、矢志报国之心。我要苦练基本功、树立报国志，将充沛的学术热情与拳拳赤子之心结合起来，不负党和国家的培养与期待。”', '新征程上，既要全面贯彻党的教育方针，以教育之强夯实国家富强之基；也要突出科技创新引领，加快实现高水平科技自立自强。', '“科技创新、高质量发展是企业不断成长壮大、立于不败之地的关键所在，总书记勉励我们‘可以大有作为’。我们要在未来的工作中把握好发展新质生产力的实践要求，增加研发投入，加强技术创新，让产品更好地走向世界，为发展新质生产力、推进高质量发展作出更大贡献。”巴斯夫杉杉电池材料有限公司首席运营官暨首席技术官彭文杰说。', '数百公里之外，中国科学技术大学信息科学技术学院实验室内，肖鹏教授正带领团队进行相关实验工作。近年来，他所在团队致力于智能成像方法研究与仪器研制，形成了集人才培养、技术创新和产业支撑为一体的产学研用平台。', '“聚焦国家战略需求，为国培养拔尖创新人才，是我的不懈追求。”肖鹏说，“我要按照总书记的要求，继续肩负好立德树人、培养人才重任，加强教育科技人才一体化发展，同时注重把科技创新成果应用到产业链上，为发展新质生产力贡献教育和科技力量。”', '“多姿多彩的地方特色传统文化，共同构成璀璨的中华文明”，习近平总书记的重要讲话，令潘氏艺术木雕非遗传承人潘能辉思考良多。“总书记十分关注中华优秀传统文化的传承和弘扬，我们这些非遗传承人倍感振奋。我要持续探索木雕技艺与文化的融合发展，创作出更多反映湖南山水人文、传统风俗的作品，让承载历史文脉、寄托人们对美好生活向往的非遗技艺发扬光大。”潘能辉说。', '“习近平总书记来到湖南考察特别关注文化，这令我们感受到总书记深厚的文化情怀。”湖南省文化和旅游厅党组书记、厅长李爱武说，“我们将深入挖掘湖南的文化特色，发扬优良传统，培育时代新风新貌，推动湖湘文化创造性转化创新性发展，在建设中华民族现代文明中展现新作为。”', '“形成更多新的文化产业增长点”“推进文化和旅游深度融合”……习近平总书记提出的重要要求，令黑龙江省哈尔滨市市长张起翔更加明确了工作方向。', '“一段时间以来，我们深入挖掘哈尔滨多元文化荟萃、中西文化交融特色，推动文旅融合高质量发展。接下来，我们将对全市文旅资源进行一体化规划、市场化整合，让‘尔滨’文旅产业高质量发展的成色更足、名片更亮。”张起翔说。', '青铜器、陶器、玉器、甲骨……不久前，位于河南安阳的殷墟博物馆新馆正式开馆。截至目前，已有数万名游客走进这里，近距离感受悠久的中华文明。', '“未来，我们将持续通过博物馆创新表达，生动呈现商文明在中华文明乃至人类文明发展史上的重要地位和作用，增强民族自信心和凝聚力，扩大中华文化的影响力，更好担负起新的文化使命。”殷墟博物馆常务副馆长赵清荣说。', '正值春耕备耕关键时期，常德市鼎城区谢家铺镇港中坪村粮食生产万亩综合示范片区，一派繁忙景象。', '回忆起同总书记交流的场景，种粮大户戴宏难掩激动：“总书记来到我家中，察看农机具和春耕物资准备，亲切的关怀让我心里热乎乎的。如今，我们享受着育秧补贴、良种补贴、耕地地力保护补贴，农业现代化水平不断提高，种粮的劲头更足了。我要牢记总书记的要求，多种田、把田种好，今年力争再获丰收。”', '常德市农业农村局局长蒋颖群说：“接下来，我们将从价格、补贴、保险等方面强化政策举措，让农民种粮有钱挣、能得利，同时大力推进农业机械化、智能化，给农业现代化插上科技的翅膀，让我们的‘米袋子’始终稳得住。”', '青海柴达木盆地察尔汗盐湖，一艘艘采盐船游弋其间，远处生产车间内机械隆隆作响，一袋袋钾肥从这里生产装运，供应农民抢抓农时，“喂饱”庄稼。', '“为了保障春耕备耕，我们提前生产，确保钾肥及时到达全国各地春耕一线。”青海盐湖工业股份有限公司采盐船船长梁战军表示，“我们要按照总书记重要讲话精神，持续开足马力，全力保障钾肥供应，为春耕备耕提供有力支撑，为新一年的好收成贡献力量。”', '湖南省水利厅厅长罗毅君说：“总书记要求湖南要扛起维护国家粮食安全的重任。水利是农业的命脉，我们要从水源储蓄、水资源配置以及节约用水等方面综合施策，不断加强区域内水资源的优化调度，把各项工作做得更好更实，为全年粮食丰收夯实水利根基。”', '在常德市鼎城区谢家铺镇港中坪村党群服务中心门口，一块“鼎城区下沉乡村政府服务事项清单”展板清晰列出了65项村级受理、办结事项，大门上“一件事一次办”的标识格外醒目。', '“习近平总书记非常了解基层工作的重要性和困扰基层工作的种种难题，我深受感动。”港中坪村党支部书记段德喜介绍，去年以来村部挂牌数从近40块减少到12块，20多项证明不再需要村里开具，村干部的微信工作群、政务App打卡任务等都大幅缩减。“工作观念变了，作风实了，走村入户的时间更多了，群众的满意度也更高了。”', '在江苏省南京市浦口区，人社等部门贯彻为基层减负工作理念，主动将职能前移打造“家门口”就业服务站，为解决当地群众就业难题提供便利。', '“针对为基层减负、提升基层治理效能，总书记提出明确要求。基层负担减轻了，为民服务的定位更突出了。”浦口区百合社区劳保协理员雷永梅介绍，过去社区工作人员只能带着居民去参加招聘会，路途遥远、后续流程长。如今，居民在家门口就能了解到招聘信息，还能完成面试等一系列流程。“我们将继续聚焦群众急难愁盼的问题，主动担当、积极作为，为社区居民提供更多帮助，不断干出让大家认可的成绩。”', '走进河北省衡水市饶阳县饶阳镇端午村，通村入户路笔直平坦，房前屋后干净整洁，人居环境整治工作成效显著。', '“文山会海、迎来送往少了，基层干部有了更多时间进村入户开展调研，切实推动了农村污水、厕所、坑塘治理等实际问题的解决。”饶阳镇党委书记纪卫兵说，下一步将继续聚焦基层干部反映强烈的形式主义、官僚主义问题精准发力，筑牢思想政治根基、健全体制机制，让基层干部有更多的时间奔一线、办实事、抓落实。', '“习近平总书记要求基层干部在产业发展和乡村治理上群策群力，我们深受启发。”湖南省委办公厅副主任、湖南省级层面整治形式主义为基层减负专项工作机制办公室主任周卫龙表示，将聚焦“减负”和“赋能”两个关键词，重点开展“政绩工程”“形象工程”等9方面专项整治，推动基层减负工作走深走实，不断提升基层治理效能，让人民群众幸福感更强、满意度更高。']</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A82" t="n">
+        <v>23</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
           <t>刘泳带队考察学习临汾城市双品质建设工作</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>2023-10-14</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>http://www.guxian.gov.cn/zzzb/gxyw/202310/t20231016_253771.html</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>['采他山之石以攻玉，纳百家之长以厚己。10月14日，利用周六一下午的时间，县委副书记、政府县长刘泳带队考察学习临汾城市“双品质”建设工作。他强调，要持续深入学习贯彻党的二十大精神和习近平总书记考察调研山西重要讲话重要指示精神，全面落实省市部署要求，紧紧围绕县委“1234”工作重心，锚定“一城一区一园四地”战略定位，坚持“人民城市人民建、人民城市为人民”重要理念，进一步更新观念、拓宽视野、创新思维，不断完善城市功能，提升城市品位，努力让广大群众生活得更方便、更舒心、更美好。县委常委、宣传部部长李国锋，副县长周兴，县发改、住建、自然资源、文明办、园林中心等部门及岳阳镇主要负责同志参加。', '山西建筑产业现代化园区一期项目位于尧都区贾得新兴产业园内，整体投产后将形成古建筑构件加工能力1万立方米、钢结构构件生产能力5.2万吨、风电塔筒生产能力4万吨、高性能混凝土20万立方米，预计年可实现产值4.7亿元、税收4200多万元、就业岗位500个，并带动国家每年一次的“中国古建论坛”落户临汾，使临汾成为全省乃至全国的古建材料重要输出地。在尧都区委常委、副区长马平，副区长孔令泽，尧都高新区党工委书记、管委会主任赖兴国的热情陪同下，考察团一行来到贾得新兴产业园山西建投临汾建筑产业有限公司，先后参观新能源装备制造车间、古建营造车间，在带锯加工区、数控带锯加工区、数控车园区、精细加工区、成品堆放区，津津有味观摩古建雕刻工艺流程，更是被精美的国色天香、荷花、云龙等图案雀替吸引目光，纷纷驻足讨论要精心构思、科学规划，将我县的牡丹文化、相如文化等文化元素巧妙融入到城市建筑设计中，统筹实现文化、经济、社会效益相结合，确保县城既不失古香古韵、又彰显精致大气。', '临汾市城市管理局党组书记、局长马健对考察团的到来表示热烈欢迎，并亲切陪同考察团先后来到贡院街靓城提质工程、财神楼街。', '贡院街靓城提质工程西起原山西师范大学校门，东至迎春南街，全长1.9公里，主要建设内容包括道路改造、给排水、中水、照明、绿化、交通设施、电力、热力及其他附属工程等。“街道整体风格是什么样”“工期用了多久”“周边商铺如何调节”，考察团一行沿贡院东街边走边看边问，认真听取项目负责人介绍，并不时插话交流，认真了解工程项目概况、设计方案、工期进展、整体风貌、车道设置、供暖供水、融资渠道等情况，不禁感慨整体施工质量又快又好，并表示通过实地考察，进一步看到了差距不足，要主动学习先进理念和成功经验，对标先进、补齐短板，持续提升城市建设品质。', '财神楼街作为靓城提质四条示范街之一，北起解放路，南至贡院街，全长860米，不仅有古城地标性建筑财神楼，更是网红时尚拍照打卡地，整体设计风格以怀旧为主，大到建筑、门楣，小到花窗、家具，都蕴含着中国雕花的古老韵味。置身其中，既能感受到浓浓的城市烟火气息，更能体悟到中国古建筑文化的博大精深。夕阳映照下，购物的人群、玩耍的儿童、闲坐着的老人......考察团成员不时举起手机拍照记录，感受悠闲和谐的生活节奏。', '随后，在五一东路配套基础设施景观节点，考察团认真听取市政府工程建设服务中心主任杨文关于项目“一带、三段、多点”的总体构思介绍，尤其是了解到项目采取结合五一路拆迁现状，将沿街潜力空间作为主题文化展示核，串接街巷与节点建筑，通过景观塑造、风貌再现、特色文化功能植入等方式营造主题文化线路和节点，在居民区密集地段增设休憩场地，打造绿色长廊，为市民群众提供尺度适宜、设计合理的休憩空间的理念后，大家纷纷表示，要学习借鉴工作方法，创新工作思路，充分满足群众观赏和休闲娱乐需求，打造更加精致宜居的城市生活环境。', '古城公园三期建设项目工程位于临汾市尧都区鼓楼西街与中大街交叉口东北角，建设范围为南侧自鼓楼西大街开始，北接古城公园二期地块，东至古城墙保护范围线，西至常兴中街，总面积47026㎡，主要建设内容为硬质铺装工程、景观绿化工程及其他附属工程等。考察团结合我县国家园林县城、全国文明城市创建工作，着重就设计理念、特色景观、树木种类、绿化养护等进行了充分沟通交流。', '夜色降临，考察团成员意犹未尽站在路边交流心得感受，大家一致认为，这次考察重点突出、内容丰富，进一步认清了差距、开拓了眼界、增进了交流、促进了合作，下一步，将借鉴先进经验做法，加快谋划城建高质量发展，不断增强群众的幸福感和获得感。（王 琬）', '夜色降临，考察团成员意犹未尽站在路边交流心得感受，大家一致认为，这次考察重点突出、内容丰富，进一步认清了差距、开拓了眼界、增进了交流、促进了合作，下一步，将借鉴先进经验做法，加快谋划城建高质量发展，不断增强群众的幸福感和获得感。']</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A83" t="n">
+        <v>23</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
           <t>站到更高起点挺起中部脊梁习近平总书记考察湖南并主持召开新时代推动中部地区崛起座谈会纪实</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>2024-03-23</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>https://www.gov.cn/yaowen/liebiao/202403/content_6941008.htm</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>['站到更高起点 挺起中部“脊梁”——习近平总书记考察湖南并主持召开新时代推动中部地区崛起座谈会纪实__中国政府网', '站到更高起点 挺起中部“脊梁”——习近平总书记考察湖南并主持召开新时代推动中部地区崛起座谈会纪实', '新华社长沙3月22日电 题：站到更高起点 挺起中部“脊梁”——习近平总书记考察湖南并主持召开新时代推动中部地区崛起座谈会纪实', '到更高起点 挺起中部“脊梁”——习近平总书记考察湖南并主持召开新时代推动中部地区崛起座谈会纪实', '全国两会结束不到一周，习近平总书记赴湖南考察，并在长沙主持召开新时代推动中部地区崛起座谈会。', '党的二十大以来，总书记亲自主持召开了高标准高质量推进雄安新区建设、深入推进京津冀协同发展、加强荒漠化综合防治和推进“三北”等重点生态工程建设、新时代推动东北全面振兴、进一步推动长江经济带高质量发展、深入推进长三角一体化发展等区域发展座谈会，这次新时代推动中部地区崛起座谈会是第7场推动区域发展战略落实的座谈会。“下一步我们还要召开推动西部大开发、黄河流域生态保护和高质量发展等方面的座谈会，这些会议一届开一次，一个一个抓起来，一轮一轮抓下去，久久为功、步步深入，必有所成……”看准了就持续抓下去、不成功决不罢休，是总书记抓工作的定力、韧劲和方法。', '2020年总书记考察湖南时曾有感而发：“我们现在都是在一些具有历史意义的时间节点上。”那时，“十三五”即将收官，“十四五”即将开局。2024年，我们即将迎来新中国75周年华诞，实现“十四五”规划目标任务也进入关键一年。在新的历史节点上召开这次座谈会，是中部地区崛起战略在更高起点上新的出发。', '中部6省以约占全国十分之一的国土面积，承载了约四分之一的人口数量，创造着约五分之一的经济总量，是我国重要粮食生产基地、能源原材料基地、现代装备制造及高技术产业基地和综合交通运输枢纽，在全国具有举足轻重的地位。', '5年前，总书记在江西南昌主持召开推动中部地区崛起工作座谈会，擘画了开创中部地区崛起新局面的宏伟蓝图。“这5年步步为营、稳扎稳打，向着正确的方向持续走下来，成绩很大，成效很明显。”', '5年过去，中部地区发展站到了更高起点上。总书记在这次座谈会上为新时代推动中部地区崛起指明了方向。总书记的话充满信心和力量：“我相信，相关工作思路和举措通过大家的认真领会形成因地制宜的具体方案，并在6省全面推开，中部地区加快崛起又会迎来新一轮高潮。”', '正是春耕备耕时节，习近平总书记19日下午来到常德市鼎城区谢家铺镇粮食生产万亩综合示范片区。', '当地负责同志介绍，示范片区采用“五统一、两利用”技术模式——统一优良品种、统一机插机抛、统一机械深施肥、统一绿色防控、统一物化技术，利用田埂种植大豆、利用冬闲田种绿肥，早稻、晚稻两季亩产达到1152.3公斤。', '一旁的稻田里人们正在育秧，秧盘上的种子刚刚播下。“你们这里什么时候开始插秧？”总书记走上前仔细察看，并同在场的种粮大户、农技人员等亲切交流。', '在场的种粮大户陈帅宇是一名“90后”返乡大学生，带头成立了一个合作社，承包了2800多亩水稻田。总书记和他攀谈起来：“大学学什么的？回来多久了？”', '“肯定继续干下去，现在国家对种粮的支持力度很大，我们越干越有劲了！”小伙子高声回答。', '希望的田野上，活跃着青春的身影。他们接过父辈的重任，用新的理念和技术打开新的天地。', '离开稻田，习近平总书记来到港中坪村种粮大户戴宏家中看望。院子里，为春耕准备的插秧机、抛秧机、喷洒农药用的无人机，以及种子、化肥、农药等农资一应俱全。', '戴宏告诉总书记，自己承包了480多亩水田，全部种植双季稻，去年种田纯收入55万多元，政府还补贴了7万多元。', '“湖广熟，天下足。”八百里洞庭浩浩汤汤，湘资沅澧绵延流淌，滋润出湖湘大地的沃野粮仓。', '“我常说，中国人的饭碗要牢牢端在自己手里，而且里面应该主要装中国粮。我们14亿多人靠谁都不行。现在生活好了，也千万不能忘记这一点。”总书记的话给村民们吃了“定心丸”，“党中央会继续鼓励支持我们广大农村走农业现代化的道路，继续完善这方面的政策，让种粮也能够致富，让广大农民生活芝麻开花节节高，不断过上更幸福更美好的生活。”', '湖南在扛稳国家粮食安全方面担当重任——以占全国2.8%的耕地生产了占全国4.4%的粮食，水稻面积和产量均居全国第一。', '21日上午，在听取湖南省委和省政府工作汇报时，总书记从粮食安全谈到粮食的损失浪费问题：“我在农村插队时，扛麦子都不能换肩，换肩抖一下，麦子就会掉下来浪费了。现在粮食损失有不少在机收上，要改进机械，避免粗放作业。”', '他要求湖南全面落实粮食安全党政同责，抓住种子和耕地两个要害，守牢耕地红线，坚决遏止耕地“非农化”和基本农田“非粮化”。', '在20日下午召开的新时代推动中部地区崛起座谈会上，中部6省主要负责同志不约而同谈到粮食生产和粮食安全问题。', '听了大家发言，习近平总书记强调，要把保障国家粮食安全摆在突出位置，守住耕地这个命根子，抓住种子这个要害，实施粮食产能提升行动，加快种业、农机关键核心技术攻关，加大高标准农田建设投入和管护力度，加强农业种质资源保护利用。同时，坚持大农业观、大食物观，积极发展特色农业和农产品加工业，提升农业产业化水平。', '教育、科技、人才是全面建设社会主义现代化国家的基础性、战略性支撑。对于统筹教育、科技、人才工作，习近平总书记有着深远考量和战略部署。', '如何把教育、科技、人才优势转化为发展优势，是习近平总书记始终关注的一个重要问题。近年来，总书记到中部地区各省考察，每到一地，都着重强调这个问题。', '一师前身是创办于南宋年间的城南书院，因承续千载文脉而厚重，更因近代以来培养出一批老一辈无产阶级革命家和名师大家而闻名。', '校训“要做人民的先生，先做人民的学生”，为一师学生毛泽东所题；校风“实事求是，不自以为是”，为一师老师徐特立所写。中国共产党人的风范，浸润在字里行间，引发总书记的深思。', '湖湘大地，红色热土，一大批优秀中国共产党人从这里走向历史的舞台，灿若群星、光彩夺目。', '学校展厅里，一张张百年前学生们参加体育锻炼、义务劳动、野外演习、社会实践等的老照片，展现出一师坚持“三育并重”“身心并完”，以让学生全面发展的先进办学理念。', '对此，习近平总书记深有感触：“我们现在的学校教育也要重视这个问题，不要流于只教知识。”', '习近平总书记对大家说：“在我们国家积贫积弱的年代，当时一批爱国者就觉得中国要强大就要办教育。”', '总书记语重心长：“学校的办学宗旨，既要提高学生的文化素质，又要引导学生立志报国。现在，世界又处于一个百年未有之大变局，我国正在以中国式现代化全面推进强国建设、民族复兴伟业，当代青年学子正当其时。在这个时候，我们更有责任共同把教育办好、把学生培养好，为推进中国式现代化培养一批批栋梁之材。”', '中部地区文化底蕴深厚，有700多所高校，在校生占全国的30%。为现代化建设提供强大动力，既要坚持教育优先发展，也要坚持科技自立自强、人才引领驱动。', '“培育和发展新质生产力，是推动中部地区加快崛起的新动能。”在新时代推动中部地区崛起座谈会上，习近平总书记指出，要更加重视科技创新和产业创新的深度融合，发挥中部地区科教资源富集的优势，强化企业创新主体地位，加快科技成果向现实生产力转化。', '离开一师，总书记来到巴斯夫杉杉电池材料有限公司。这是一家主营锂离子电池正极材料研发、生产和销售的中德合资技术创新企业，产品应用于电动汽车、手机等多个领域。', '在企业展厅里察看产品展示，走进综合分析室、电池技术中心，总书记深入了解企业研发情况。', '总书记强调：“科技创新、高质量发展是企业不断成长壮大、立于不败之地的关键所在，民营企业、合资企业在这方面都可以大有作为。”', '离开公司时，习近平总书记同公司德方负责人亲切交流，关切询问企业经营还有什么需要解决的问题。', '这位负责人表示，企业得到当地政府的很大支持，这里机会很多，发展很有潜力，希望和中国的团队一起让湖南制造的电池材料走向全球。', '“中国开放的大门会越开越大，我们愿意同世界各国加强交流合作，欢迎更多外国企业来华投资发展。当前，我们把高科技领域作为发展的重点。我们愿意和各国企业加强合作，共同发展。相信你们在这里一定会有一个非常好的前景！”总书记说。', '中部地区制造业门类齐全，是我国重要的现代装备制造和高技术产业基地，这是推动中部地区崛起的硬核实力。', '总书记明确指出，中部地区要立足实体经济这个根基，做大做强先进制造业，积极推进新型工业化，改造提升传统产业，培育壮大新兴产业，超前布局建设未来产业，加快构建以先进制造业为支撑的现代化产业体系。', '总书记要求中部地区，深化要素市场化改革，完善市场经济基础制度，全面清理纠正地方保护行为，推动各种生产力要素跨区域合理流动和优化配置，更好参与全国统一大市场建设。', '总书记强调，要稳步扩大制度型开放，深度融入共建“一带一路”，主动对接新亚欧大陆桥、西部陆海新通道，高标准建设自由贸易试验区，打造更多高能级对外开放合作平台，在联通国内国际双循环方面发挥更大作用。', '常德河街历史悠久，曾毁于1943年的常德战役。近年来，通过修复重建，成为留住历史记忆、传承城市文脉的重要载体。', '一场春雨过后，阳光格外温暖。街道两旁商铺林立，土特产品、饮食小吃、特色工艺品琳琅满目，古香古色又不失烟火气息。', '沿着麻石板路，总书记步行察看河街风貌，进商铺、询物价、唠家常，不时同店主、游客、市民亲切交流。', '街边，一名小伙子正在制作擂茶。陶钵里，一根山胡椒棒来回研磨，将生米、生姜、茶叶等食材捣碎混合，煮成当地招待客人的必备饮品。总书记走上前，观看擂茶制作。', '在观看了当地非物质文化遗产技艺展示后，总书记指出，多姿多彩的地方特色传统文化，共同构成璀璨的中华文明，也助推经济社会发展。常德是有文化传承的地方，这里的丝弦、高腔、号子等要以适当载体传承好利用好，与时俱进发展好。', '人文与经济互促互荣，文化传承与经济发展相得益彰，这是湖南发展乃至中部地区崛起的应有之义。', '“悠久的历史文化、厚重的革命文化、活跃的现代文化，是湖南增强文化软实力的丰富资源和深厚基础。”总书记强调，要更好担负起新的文化使命，传承历史文化，赓续革命文化，发展社会主义先进文化，使湖湘文化在新时代实现新发展、呈现新气象，在建设中华民族现代文明中展现新作为。', '微风轻拂，水清岸绿。在常德河街，总书记来到穿紫河畔，听取当地水环境综合治理等情况。', '当地负责同志介绍，近年来，常德实施河湖连通、系统治理，沅澧两水干流断面水质连续4年保持Ⅱ类及以上，河湖沿岸的滨水风光带，成为市民群众休闲锻炼的好去处。在西洞庭湖国家级自然保护区，消失已久的江豚、中华鲟、黑鹳等国家一级保护动物又回来了，吸引了大量观光游客，湖区周边居民收入也增加了。', '“沅有芷兮澧有兰”“芳草鲜美，落英缤纷”，独特的历史文化、优美的生态环境，是一个地方的最佳名片。', '习近平总书记指出，推进文化和旅游深度融合，守护好三湘大地的青山绿水、蓝天净土，把自然风光和人文风情转化为旅游业的持久魅力。', '总书记进一步提出“加快建设美丽中部”的明确要求，强调要持续深入打好污染防治攻坚战，加强长江、黄河、淮河等大江大河和鄱阳湖、洞庭湖等重要湖泊生态环境系统治理、综合治理、协同治理，完善生态产品价值实现机制，推进产业生态化和生态产业化。', '从《关于解决形式主义突出问题为基层减负的通知》提出一条条硬杠杠、实举措，到启动中央层面整治形式主义为基层减负专项工作机制进一步抓好落实；从确定“基层减负年”，到通报曝光形式主义、官僚主义典型案例……在习近平总书记亲自部署下，一系列举措推动基层减负工作走深走实。', '关键之年，如何进一步为基层减负、提升基层治理效能，让广大基层干部轻装上阵、奋发作为？', '总书记在天津考察时指出“持续整治形式主义为基层减负，引导广大党员干部真抓实干、开拓进取，全力推动党中央决策部署落实落地”；在参加全国两会江苏代表团审议时强调“坚决纠治形式主义、官僚主义，切实为基层减负，激发全党全社会创造活力，提振党员干部干事创业的精气神”……', '在港中坪村党群服务中心院子里，村党支部书记段德喜向总书记汇报了切身感受到的变化：“我们村部最多的时候有38块牌子，现在只有12块了。”', '总书记转身看去，只见港中坪村支部委员会、村民委员会、村务监督委员会、经济合作社4块牌子，清晰简洁。', '段德喜告诉总书记，现在需要村里开的证明少了，原来最多的时候有20多项，包括死亡证明、出生证明等，现在多数都不用了，职能部门交办的事也少了。村干部手机上的微信工作群也从最多时的30多个减为现在的4个。大家有更多时间和精力为老百姓服务了。', '总书记点头肯定。他指出，党中央明确要求为基层减负，要坚决整治形式主义、官僚主义问题，精兵简政，持之以恒把这项工作抓下去。', '在听取湖南省委和省政府工作汇报时，习近平总书记进一步强调，要巩固拓展主题教育成果，建立健全长效机制，树立和践行正确政绩观，持续深化整治形式主义为基层减负，不断改进领导作风和工作作风。“抓任何工作，给群众办任何事情，都要实事求是。”', '乘着新时代的春风，湖湘大地奋勇争先，中部地区生机勃勃，奋力谱写中国式现代化的新篇章。']</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A84" t="n">
+        <v>23</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
           <t>站到更高起点挺起中部脊梁习近平总书记考察湖南并主持召开新时代推动中部地区崛起座谈会纪实</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>2024-03-25</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>http://www.daning.gov.cn/xwzx/gwyyw/202403/t20240325_330913.html</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>['站到更高起点挺起中部“脊梁”——习近平总书记考察湖南并主持召开新时代推动中部地区崛起座谈会纪实', '全国两会结束不到一周，习近平总书记赴湖南考察，并在长沙主持召开新时代推动中部地区崛起座谈会。', '党的二十大以来，总书记亲自主持召开了高标准高质量推进雄安新区建设、深入推进京津冀协同发展、加强荒漠化综合防治和推进“三北”等重点生态工程建设、新时代推动东北全面振兴、进一步推动长江经济带高质量发展、深入推进长三角一体化发展等区域发展座谈会，这次新时代推动中部地区崛起座谈会是第7场推动区域发展战略落实的座谈会。“下一步我们还要召开推动西部大开发、黄河流域生态保护和高质量发展等方面的座谈会，这些会议一届开一次，一个一个抓起来，一轮一轮抓下去，久久为功、步步深入，必有所成……”看准了就持续抓下去、不成功决不罢休，是总书记抓工作的定力、韧劲和方法。', '2020年总书记考察湖南时曾有感而发：“我们现在都是在一些具有历史意义的时间节点上。”那时，“十三五”即将收官，“十四五”即将开局。2024年，我们即将迎来新中国75周年华诞，实现“十四五”规划目标任务也进入关键一年。在新的历史节点上召开这次座谈会，是中部地区崛起战略在更高起点上新的出发。', '中部6省以约占全国十分之一的国土面积，承载了约四分之一的人口数量，创造着约五分之一的经济总量，是我国重要粮食生产基地、能源原材料基地、现代装备制造及高技术产业基地和综合交通运输枢纽，在全国具有举足轻重的地位。', '5年前，总书记在江西南昌主持召开推动中部地区崛起工作座谈会，擘画了开创中部地区崛起新局面的宏伟蓝图。“这5年步步为营、稳扎稳打，向着正确的方向持续走下来，成绩很大，成效很明显。”', '5年过去，中部地区发展站到了更高起点上。总书记在这次座谈会上为新时代推动中部地区崛起指明了方向。总书记的话充满信心和力量：“我相信，相关工作思路和举措通过大家的认真领会形成因地制宜的具体方案，并在6省全面推开，中部地区加快崛起又会迎来新一轮高潮。”', '正是春耕备耕时节，习近平总书记19日下午来到常德市鼎城区谢家铺镇粮食生产万亩综合示范片区。', '当地负责同志介绍，示范片区采用“五统一、两利用”技术模式——统一优良品种、统一机插机抛、统一机械深施肥、统一绿色防控、统一物化技术，利用田埂种植大豆、利用冬闲田种绿肥，早稻、晚稻两季亩产达到1152.3公斤。', '一旁的稻田里人们正在育秧，秧盘上的种子刚刚播下。“你们这里什么时候开始插秧？”总书记走上前仔细察看，并同在场的种粮大户、农技人员等亲切交流。', '在场的种粮大户陈帅宇是一名“90后”返乡大学生，带头成立了一个合作社，承包了2800多亩水稻田。总书记和他攀谈起来：“大学学什么的？回来多久了？”', '“肯定继续干下去，现在国家对种粮的支持力度很大，我们越干越有劲了！”小伙子高声回答。', '希望的田野上，活跃着青春的身影。他们接过父辈的重任，用新的理念和技术打开新的天地。', '离开稻田，习近平总书记来到港中坪村种粮大户戴宏家中看望。院子里，为春耕准备的插秧机、抛秧机、喷洒农药用的无人机，以及种子、化肥、农药等农资一应俱全。', '戴宏告诉总书记，自己承包了480多亩水田，全部种植双季稻，去年种田纯收入55万多元，政府还补贴了7万多元。', '“湖广熟，天下足。”八百里洞庭浩浩汤汤，湘资沅澧绵延流淌，滋润出湖湘大地的沃野粮仓。', '“我常说，中国人的饭碗要牢牢端在自己手里，而且里面应该主要装中国粮。我们14亿多人靠谁都不行。现在生活好了，也千万不能忘记这一点。”总书记的话给村民们吃了“定心丸”，“党中央会继续鼓励支持我们广大农村走农业现代化的道路，继续完善这方面的政策，让种粮也能够致富，让广大农民生活芝麻开花节节高，不断过上更幸福更美好的生活。”', '湖南在扛稳国家粮食安全方面担当重任——以占全国2.8%的耕地生产了占全国4.4%的粮食，水稻面积和产量均居全国第一。', '21日上午，在听取湖南省委和省政府工作汇报时，总书记从粮食安全谈到粮食的损失浪费问题：“我在农村插队时，扛麦子都不能换肩，换肩抖一下，麦子就会掉下来浪费了。现在粮食损失有不少在机收上，要改进机械，避免粗放作业。”', '他要求湖南全面落实粮食安全党政同责，抓住种子和耕地两个要害，守牢耕地红线，坚决遏止耕地“非农化”和基本农田“非粮化”。', '在20日下午召开的新时代推动中部地区崛起座谈会上，中部6省主要负责同志不约而同谈到粮食生产和粮食安全问题。', '听了大家发言，习近平总书记强调，要把保障国家粮食安全摆在突出位置，守住耕地这个命根子，抓住种子这个要害，实施粮食产能提升行动，加快种业、农机关键核心技术攻关，加大高标准农田建设投入和管护力度，加强农业种质资源保护利用。同时，坚持大农业观、大食物观，积极发展特色农业和农产品加工业，提升农业产业化水平。', '教育、科技、人才是全面建设社会主义现代化国家的基础性、战略性支撑。对于统筹教育、科技、人才工作，习近平总书记有着深远考量和战略部署。', '如何把教育、科技、人才优势转化为发展优势，是习近平总书记始终关注的一个重要问题。近年来，总书记到中部地区各省考察，每到一地，都着重强调这个问题。', '一师前身是创办于南宋年间的城南书院，因承续千载文脉而厚重，更因近代以来培养出一批老一辈无产阶级革命家和名师大家而闻名。', '校训“要做人民的先生，先做人民的学生”，为一师学生毛泽东所题；校风“实事求是，不自以为是”，为一师老师徐特立所写。中国共产党人的风范，浸润在字里行间，引发总书记的深思。', '湖湘大地，红色热土，一大批优秀中国共产党人从这里走向历史的舞台，灿若群星、光彩夺目。', '学校展厅里，一张张百年前学生们参加体育锻炼、义务劳动、野外演习、社会实践等的老照片，展现出一师坚持“三育并重”“身心并完”，以让学生全面发展的先进办学理念。', '对此，习近平总书记深有感触：“我们现在的学校教育也要重视这个问题，不要流于只教知识。”', '习近平总书记对大家说：“在我们国家积贫积弱的年代，当时一批爱国者就觉得中国要强大就要办教育。”', '总书记语重心长：“学校的办学宗旨，既要提高学生的文化素质，又要引导学生立志报国。现在，世界又处于一个百年未有之大变局，我国正在以中国式现代化全面推进强国建设、民族复兴伟业，当代青年学子正当其时。在这个时候，我们更有责任共同把教育办好、把学生培养好，为推进中国式现代化培养一批批栋梁之材。”', '中部地区文化底蕴深厚，有700多所高校，在校生占全国的30%。为现代化建设提供强大动力，既要坚持教育优先发展，也要坚持科技自立自强、人才引领驱动。', '“培育和发展新质生产力，是推动中部地区加快崛起的新动能。”在新时代推动中部地区崛起座谈会上，习近平总书记指出，要更加重视科技创新和产业创新的深度融合，发挥中部地区科教资源富集的优势，强化企业创新主体地位，加快科技成果向现实生产力转化。', '离开一师，总书记来到巴斯夫杉杉电池材料有限公司。这是一家主营锂离子电池正极材料研发、生产和销售的中德合资技术创新企业，产品应用于电动汽车、手机等多个领域。', '在企业展厅里察看产品展示，走进综合分析室、电池技术中心，总书记深入了解企业研发情况。', '总书记强调：“科技创新、高质量发展是企业不断成长壮大、立于不败之地的关键所在，民营企业、合资企业在这方面都可以大有作为。”', '离开公司时，习近平总书记同公司德方负责人亲切交流，关切询问企业经营还有什么需要解决的问题。', '这位负责人表示，企业得到当地政府的很大支持，这里机会很多，发展很有潜力，希望和中国的团队一起让湖南制造的电池材料走向全球。', '“中国开放的大门会越开越大，我们愿意同世界各国加强交流合作，欢迎更多外国企业来华投资发展。当前，我们把高科技领域作为发展的重点。我们愿意和各国企业加强合作，共同发展。相信你们在这里一定会有一个非常好的前景！”总书记说。', '中部地区制造业门类齐全，是我国重要的现代装备制造和高技术产业基地，这是推动中部地区崛起的硬核实力。', '总书记明确指出，中部地区要立足实体经济这个根基，做大做强先进制造业，积极推进新型工业化，改造提升传统产业，培育壮大新兴产业，超前布局建设未来产业，加快构建以先进制造业为支撑的现代化产业体系。', '总书记要求中部地区，深化要素市场化改革，完善市场经济基础制度，全面清理纠正地方保护行为，推动各种生产力要素跨区域合理流动和优化配置，更好参与全国统一大市场建设。', '总书记强调，要稳步扩大制度型开放，深度融入共建“一带一路”，主动对接新亚欧大陆桥、西部陆海新通道，高标准建设自由贸易试验区，打造更多高能级对外开放合作平台，在联通国内国际双循环方面发挥更大作用。', '常德河街历史悠久，曾毁于1943年的常德战役。近年来，通过修复重建，成为留住历史记忆、传承城市文脉的重要载体。', '一场春雨过后，阳光格外温暖。街道两旁商铺林立，土特产品、饮食小吃、特色工艺品琳琅满目，古香古色又不失烟火气息。', '沿着麻石板路，总书记步行察看河街风貌，进商铺、询物价、唠家常，不时同店主、游客、市民亲切交流。', '街边，一名小伙子正在制作擂茶。陶钵里，一根山胡椒棒来回研磨，将生米、生姜、茶叶等食材捣碎混合，煮成当地招待客人的必备饮品。总书记走上前，观看擂茶制作。', '在观看了当地非物质文化遗产技艺展示后，总书记指出，多姿多彩的地方特色传统文化，共同构成璀璨的中华文明，也助推经济社会发展。常德是有文化传承的地方，这里的丝弦、高腔、号子等要以适当载体传承好利用好，与时俱进发展好。', '人文与经济互促互荣，文化传承与经济发展相得益彰，这是湖南发展乃至中部地区崛起的应有之义。', '“悠久的历史文化、厚重的革命文化、活跃的现代文化，是湖南增强文化软实力的丰富资源和深厚基础。”总书记强调，要更好担负起新的文化使命，传承历史文化，赓续革命文化，发展社会主义先进文化，使湖湘文化在新时代实现新发展、呈现新气象，在建设中华民族现代文明中展现新作为。', '微风轻拂，水清岸绿。在常德河街，总书记来到穿紫河畔，听取当地水环境综合治理等情况。', '当地负责同志介绍，近年来，常德实施河湖连通、系统治理，沅澧两水干流断面水质连续4年保持Ⅱ类及以上，河湖沿岸的滨水风光带，成为市民群众休闲锻炼的好去处。在西洞庭湖国家级自然保护区，消失已久的江豚、中华鲟、黑鹳等国家一级保护动物又回来了，吸引了大量观光游客，湖区周边居民收入也增加了。', '“沅有芷兮澧有兰”“芳草鲜美，落英缤纷”，独特的历史文化、优美的生态环境，是一个地方的最佳名片。', '习近平总书记指出，推进文化和旅游深度融合，守护好三湘大地的青山绿水、蓝天净土，把自然风光和人文风情转化为旅游业的持久魅力。', '总书记进一步提出“加快建设美丽中部”的明确要求，强调要持续深入打好污染防治攻坚战，加强长江、黄河、淮河等大江大河和鄱阳湖、洞庭湖等重要湖泊生态环境系统治理、综合治理、协同治理，完善生态产品价值实现机制，推进产业生态化和生态产业化。', '从《关于解决形式主义突出问题为基层减负的通知》提出一条条硬杠杠、实举措，到启动中央层面整治形式主义为基层减负专项工作机制进一步抓好落实；从确定“基层减负年”，到通报曝光形式主义、官僚主义典型案例……在习近平总书记亲自部署下，一系列举措推动基层减负工作走深走实。', '关键之年，如何进一步为基层减负、提升基层治理效能，让广大基层干部轻装上阵、奋发作为？', '总书记在天津考察时指出“持续整治形式主义为基层减负，引导广大党员干部真抓实干、开拓进取，全力推动党中央决策部署落实落地”；在参加全国两会江苏代表团审议时强调“坚决纠治形式主义、官僚主义，切实为基层减负，激发全党全社会创造活力，提振党员干部干事创业的精气神”……', '在港中坪村党群服务中心院子里，村党支部书记段德喜向总书记汇报了切身感受到的变化：“我们村部最多的时候有38块牌子，现在只有12块了。”', '总书记转身看去，只见港中坪村支部委员会、村民委员会、村务监督委员会、经济合作社4块牌子，清晰简洁。', '段德喜告诉总书记，现在需要村里开的证明少了，原来最多的时候有20多项，包括死亡证明、出生证明等，现在多数都不用了，职能部门交办的事也少了。村干部手机上的微信工作群也从最多时的30多个减为现在的4个。大家有更多时间和精力为老百姓服务了。', '总书记点头肯定。他指出，党中央明确要求为基层减负，要坚决整治形式主义、官僚主义问题，精兵简政，持之以恒把这项工作抓下去。', '在听取湖南省委和省政府工作汇报时，习近平总书记进一步强调，要巩固拓展主题教育成果，建立健全长效机制，树立和践行正确政绩观，持续深化整治形式主义为基层减负，不断改进领导作风和工作作风。“抓任何工作，给群众办任何事情，都要实事求是。”', '乘着新时代的春风，湖湘大地奋勇争先，中部地区生机勃勃，奋力谱写中国式现代化的新篇章。']</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A85" t="n">
+        <v>23</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
           <t>深入学习贯彻习近平总书记在第三届一带一路国际合作高峰论坛开幕式上主旨演讲和在江西考察时重要讲话精神金湘军主持召开省委常委会会议暨中心组学习会</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>2023-10-21</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>https://www.shanxi.gov.cn/ywdt/zwhd/202310/t20231021_9407487.shtml</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>['深入学习贯彻习近平总书记在第三届“一带一路”国际合作高峰论坛开幕式上主旨演讲和在江西考察时重要讲话精神 - 山西省人民政府', '深入学习贯彻习近平总书记在第三届“一带一路”国际合作高峰论坛开幕式上主旨演讲和在江西考察时重要讲话精神', '10月20日，省委召开常委会会议暨理论学习中心组学习会，深刻领会习近平总书记在第三届“一带一路”国际合作高峰论坛开幕式上的主旨演讲精神，传达学习习近平总书记在江西考察时和在进一步推动长江经济带高质量发展座谈会上的重要讲话精神，研究我省贯彻落实意见。省委副书记、省长金湘军主持会议并讲话。', '大家一致认为，习近平总书记提出的共建“一带一路”宏伟倡议，深刻洞察人类社会发展规律，贯通历史、现实和未来，为人类社会发展指明了美好前景，充分彰显了以实际行动推动实现世界各国的现代化、同各国一道为解决全人类问题作出更大贡献的大国担当。习近平总书记在第三届“一带一路”国际合作高峰论坛开幕式上的主旨演讲，回顾10年伟大历程，深刻总结三个方面的重要经验，郑重宣布中国支持高质量共建“一带一路”的八项行动，擘画未来发展蓝图，为各国携手同行现代化之路、在推动构建人类命运共同体大道上阔步前进指明了正确方向。会议强调，要深入学习贯彻习近平总书记主旨演讲精神和关于共建“一带一路”的重要论述精神，扛牢打造内陆地区对外开放新高地重大使命，主动服务国家外交工作大局，积极融入“一带一路”大商圈，加强与沿线国家（地区）的交流合作和民间交往，在构建立体互联互通网络、促进绿色发展、推动科技创新等方面积极谋划作为，努力在高质量共建“一带一路”行动中作出更多山西贡献。要用足用好我省比较优势，着力提升各类开放平台能级，加快高标准市场体系建设，积极营造良好营商环境，持续深化要素流动型开放，稳步扩大制度型开放，积极对接京津冀协同发展等国家重大战略，进一步加快高水平对外开放步伐。', '会议指出，习近平总书记在江西考察时的重要讲话，围绕构建现代化产业体系、深化改革开放、加快农业农村现代化、推进共同富裕、开展主题教育等提出重要要求，具有很强的政治性、战略性、针对性和指导性，对于我们推进中国式现代化山西实践具有重要意义。要聚焦制造业振兴升级主攻方向，以产业链、专业镇、开发区等为抓手，加快推动传统产业改造升级和战略性新兴产业发展壮大，全力构建现代化产业体系。要进一步深化改革开放，加快建设内陆地区对外开放新高地，更好服务和融入新发展格局。要更好统筹城乡发展，加快农村一二三产业融合发展，巩固拓展脱贫攻坚成果，全面推进乡村振兴。要更好统筹发展和安全，自觉在保障国家能源安全、粮食安全、重要产业链供应链安全等方面发挥积极作用。要持续推动主题教育走深走实，总结运用第一批主题教育成功经验，高质量开展第二批主题教育，用太行精神、吕梁精神砥砺党员干部，以实干担当推动高质量发展。', '会议指出，党的十八大以来，习近平总书记站在实现中华民族伟大复兴和永续发展的战略高度，亲自擘画国家“江河战略”，走遍长江、黄河上中下游省区市，聚焦大江大河的生态保护和系统治理作出一系列根本性、开创性、长远性决策部署，指引长江经济带和黄河流域步入高质量发展轨道。习近平总书记在进一步推动长江经济带高质量发展座谈会上的重要讲话，从强国建设和民族复兴的全局高度，对进一步推动长江经济带高质量发展作出谋划部署，对我们推动黄河流域生态保护和高质量发展具有重要意义。要一体学习领会习近平总书记关于长江经济带高质量发展、关于黄河流域生态保护和高质量发展的重要讲话精神，深刻把握国家“江河战略”的重大意义、丰富内涵、实践要求，把保护黄河流域生态作为谋划发展、推动高质量发展的基准线，全力打好“一泓清水入黄河”、黄河干流流经县生态环境综合治理、汾河谷地污染治理等标志性战役，统筹抓好水土流失治理、绿色低碳转型发展等各方面工作，加快建设黄河流域生态保护和高质量发展重要实验区。要加强与沿黄省份的协同发展，共同抓好大保护、协同推进大治理，不断提升黄河流域高质量发展水平，为黄河永续造福中华民族作出山西贡献。', '省委常委，省人大常委会、省政府、省政协负责同志，省检察院检察长出席会议。省直有关部门主要负责同志列席会议。']</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A86" t="n">
+        <v>23</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
           <t>深入学习贯彻习近平总书记关于党的自我革命的重要思想纵深推进新征程纪检监察工作高质量发展在中国共产党第二十届中央纪律检查委员会第三次全体会议上的工作报告</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>2024-02-26</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>https://www.gov.cn/yaowen/liebiao/202402/content_6934131.htm</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>['深入学习贯彻习近平总书记关于党的自我革命的重要思想 纵深推进新征程纪检监察工作高质量发展——在中国共产党第二十届中央纪律检查委员会第三次全体会议上的工作报告__中国政府网', '深入学习贯彻习近平总书记关于党的自我革命的重要思想 纵深推进新征程纪检监察工作高质量发展——在中国共产党第二十届中央纪律检查委员会第三次全体会议上的工作报告', '深入学习贯彻习近平总书记关于党的自我革命的重要思想 纵深推进新征程纪检监察工作高质量发展 ——在中国共产党第二十届中央纪律检查委员会第三次全体会议上的工作报告', '纵深推进新征程纪检监察工作高质量发展 ——在中国共产党第二十届中央纪律检查委员会第三次全体会议上的工作报告', '这次全会的主要任务是：深入学习贯彻习近平新时代中国特色社会主义思想，全面贯彻落实党的二十大和二十届二中全会精神，回顾2023年纪检监察工作，部署2024年任务。今天上午，习近平总书记发表重要讲话，深刻阐述党的自我革命的重要思想，对纵深推进全面从严治党、党风廉政建设和反腐败斗争作出战略部署，为做好新征程纪检监察工作指明了方向。我们要认真学习领会，坚决贯彻落实。', '2023年是全面贯彻党的二十大精神的开局之年，也是三年新冠疫情防控转段后经济恢复发展的一年。面对错综复杂的国际环境和艰巨繁重的国内改革发展稳定任务，以习近平同志为核心的党中央团结带领全党全国人民，凝心聚力、攻坚克难，全面推进中国式现代化，引领中华民族伟大复兴号巨轮破浪前行。中央纪委国家监委和各级纪检监察机关牢记习近平总书记“新班子、新气象、新局面、新作为”的期望要求，以全面贯彻党的二十大精神为主线，以推动全党深刻领悟“两个确立”的决定性意义、坚决做到“两个维护”为使命责任，以推动解决大党独有难题、健全全面从严治党体系为目标方向，以开展学习贯彻习近平新时代中国特色社会主义思想主题教育和全国纪检监察干部队伍教育整顿为重点，深学习、实调研、抓落实，始终以严的基调、严的措施、严的氛围强化政治监督、正风肃纪反腐，纪检监察工作高质量发展取得新进展新成效，为全面建设社会主义现代化国家提供有力保障。', '紧紧围绕党的二十大战略部署，立足职能职责，加强系统谋划，做实调查研究，在强国建设、民族复兴新征程上找准职责定位、扎实履职尽责。', '完整、准确、全面把握党的二十大精神。中央纪委常委会把学习党的二十大精神作为履职的第一课，建立常态化学习机制，举办二十届中央纪委委员研讨班，准确把握党的二十大确定的重要思想、重要观点、重大战略、重大举措。在全系统兴起学习热潮，开展多形式、分层次的全员培训，共举办培训班5.1万个、培训267.9万人次。浓墨重彩宣传新时代党和国家事业取得的历史性成就、发生的历史性变革，深入解读党的二十大关于推进党的自我革命、全面从严治党的部署要求，统一思想、凝聚力量。', '聚焦重点难题深入调查研究。围绕“时刻保持解决大党独有难题的清醒和坚定，坚定不移推动健全全面从严治党体系”开展课题研究，引领全系统深刻把握职责所系、使命所在。全面梳理党的二十大和二十届中央纪委二次全会重点任务，列出12个方面重要问题，中央纪委常委领题调研，把握工作规律，破解工作难题。中央纪委国家监委各派驻（派出）机构和各省区市纪委监委领导班子共开展课题调研736项，通过调研明确思路、完善举措，形成制度规范。', '着眼五年谋篇布局。加强整体谋划，研究制定一届任期内推进纪检监察工作高质量发展的任务书。协助党中央修订《中央反腐败协调小组工作规则》、首次制定《中央反腐败协调小组工作规划（2023－2027年）》，首次制定《中央反腐败协调小组反腐败国际追逃追赃和跨境腐败治理2023－2027年目标任务》，推动制定《中央巡视工作规划（2023－2027年）》。制定《中央纪委国家监委法规制度制定工作五年规划（2023－2027年）》、《中央纪委国家监委数字纪检监察体系建设规划（2023－2027年）》，稳步推进贯彻实施。', '统筹抓好主题教育和教育整顿，将学习教育、检视整治贯穿始终，以更高标准、更严要求纯洁思想、纯洁组织，努力打造忠诚干净担当、敢于善于斗争的纪检监察铁军。', '用心用情深学细悟习近平新时代中国特色社会主义思想。中央纪委常委会制定并严格执行“第一议题”制度，跟进传达学习习近平总书记重要讲话和重要指示批示精神53次，开展7次集体学习，举办为期7天的驻委领导读书班，带领全系统带着感情、带着信仰、带着使命，读原著、学原文、悟原理，自觉用以武装头脑、指导实践、统领纪检监察一切工作。突出政治教育、党性教育，坚持常委会和班子成员领学、机关党委督学、基层党支部研学、党小组促学、党员自学“五学联动”机制，各级纪检监察机关主要负责人带头讲主题党课、作廉政教育报告，在全系统开展集中轮训，在以学铸魂、以学增智、以学正风、以学促干上见实效。', '坚定不移扛起“两个维护”的重大政治责任。认真贯彻加强和维护党中央集中统一领导的若干规定，严格执行请示报告制度，重大事项、重大案件、重要工作及时主动向党中央和习近平总书记请示报告，以实际行动体现对党忠诚、听党指挥、为党尽责。健全政治要件闭环落实机制，对习近平总书记重要指示批示逐项研究推进，确保件件落实。严明政治纪律和政治规矩，严肃查处对党不忠诚不老实的两面派、两面人。全国纪检监察机关处分违反政治纪律人员8890人，其中中管干部34人。', '严管严治锻造纪检监察铁军。强化组织领导，严格督导指导，层层传导压力，刀刃向内自查自纠、整改整治、清理门户。制定《纪检监察干部网络行为十条禁令》。开展纪检监察干部网络言行、压件不查、违规办案、案件质量问题、重复举报化解不力等专项整治，制定《关于严禁纪检监察干部违规饮酒的规定》。制定纪检监察干部选拔任用、轮岗交流、谈心谈话、离岗离职从业限制等制度，规范干部选育管用。聘任国家监委第二届特约监察员，自觉接受各方面监督。深入开展警示教育，出版发行《纪检监察干部违纪违法典型案例警示录》。组织开展新时代纪检监察系统先进典型集中宣讲，编辑出版先进典型风采录。将中国监察学会更名为中国纪检监察协会并进行换届，设置“利剑基金”关爱干部职工，制定出台开展及时性表彰奖励实施意见，教育引导干部铸就政治忠诚、勇于担当作为。', '（三）紧紧围绕党的二十大战略部署强化政治监督，保障全面建设社会主义现代化国家开好局、起好步', '把坚持党中央集中统一领导、落实党的二十大决策部署作为政治监督中心任务，推进政治监督具体化、精准化、常态化，保障党中央政令畅通。', '具体化确定监督任务。围绕以中国式现代化全面推进中华民族伟大复兴的宏伟蓝图，聚焦贯彻新发展理念、构建新发展格局、推动高质量发展等战略部署，实化细化政治监督内容。指导各省区市纪委监委结合实际确定年度政治监督重点，分板块推动各派驻（派出）机构紧扣监督单位职责抓实政治监督任务，“一校一策”督促中管高校纪检监察机构开展政治监督，形成上下联动推动落实党的二十大精神的良好局面。', '精准化纠治突出问题。聚焦贯彻党中央决策部署有令不行、有禁不止，搞部门和地方保护主义现象，就违规违法管理使用医保基金、违规占用耕地、瞒报矿难、劳务派遣单位截留滞留稳岗返还资金等问题持续跟踪督导，准确把握问题性质、后果和影响，推动整改整治。深入查找问题背后的失职失责、违纪违法行为，及时发现处置。', '常态化推动贯彻落实。围绕党中央和习近平总书记作出的党和国家机构改革、科技创新、防汛救灾、安全生产和防范化解重大风险等决策部署，及时跟进、主动作为，强化全过程全链条监督。坚持定期盘点、动态问效，健全台账管理、督查问责、“回头看”等制度，确保监督责任不空转、工作推进不断档、整改整治有实效。', '坚持无禁区、全覆盖、零容忍，紧盯重点问题、重点领域、重点对象，紧盯新型腐败和隐性腐败，一体推进不敢腐、不能腐、不想腐，全面巩固来之不易的压倒性胜利。', '坚决清除系统性腐败风险隐患。深化金融反腐，严肃查处范一飞、刘连舸、李晓鹏、唐双宁等腐败分子。聚焦国企、高校、体育、烟草等领域腐败问题加大惩治力度，深化粮食购销领域腐败问题专项整治，配合开展统计造假专项治理、全国医药领域腐败问题集中整治。中央纪委国家监委立案审查调查董云虎、孙志刚、韩勇等中管干部87人，全国纪检监察机关共立案62.6万件，留置2.6万人，给予党纪政务处分61万人。深入解剖麻雀，开展辽宁系列腐败案件专题调研，调研报告印发各地区各部门，制作播出警示教育片。深入剖析足球领域腐败和行风问题，推动严查彻查、彻底整顿，健全足球健康发展体制机制。专题研究治理国家集成电路产业投资基金腐败、领导干部为亲友谋利等问题，推动堵塞漏洞、完善监管。', '着力查处群众身边“蝇贪蚁腐”。深入整治就业创业、教育医疗、养老社保、生态环保、安全生产、食品药品安全、执法司法等领域群众反映强烈的突出问题。开展乡村振兴领域不正之风和腐败问题专项整治，严查涉黑涉恶腐败以及充当黑恶势力“保护伞”问题。全国纪检监察机关共查处民生领域腐败和作风问题7.7万起，给予党纪政务处分7.5万人。', '深化受贿行贿一起查。加大对行贿行为惩治力度，全国共立案审查调查行贿人员1.7万人。推动完善惩处行贿相关法律法规，统筹推进全国行贿人信息库建设，为精准惩治行贿提供制度依据和基础支撑。', '深化反腐败国际合作。举办第三届“一带一路”国际合作高峰论坛廉洁丝绸之路专题论坛，与6个国家签署反腐败合作谅解备忘录。集中力量查办跨境腐败案件，追赃挽损102亿元，“天网2023”行动追回外逃人员1624人。', '把中央八项规定作为长期有效的铁规矩、硬杠杠，持续从严、一抓到底，紧盯重点、靶向施治，推动化风成俗。', '一刻不停狠刹享乐主义、奢靡之风。提级查处、公开通报青海省6名正厅级领导干部在参加学习贯彻党的二十大精神培训班期间顶风违纪典型案例，专题通报交通运输部、国家卫生健康委下属单位以培训为名组织公款旅游问题，对“四风”问题开展明察暗访、重点通报。推进党风政风监督信息综合平台建设，查处一批隐蔽、隐性公款享乐奢靡问题。全国共查处享乐主义、奢靡之风问题6.2万个，批评教育和处理8.3万人。', '突出重点纠治形式主义、官僚主义。着力纠治落实党中央决策部署不担当不用力、执行政策措施“一刀切”、基层治理不作为乱作为、“新官不理旧账”、漠视侵害群众利益等问题，公开通报10起加重基层负担典型案例。全国共查处形式主义、官僚主义问题4.6万个，批评教育和处理7.1万人。', '纠树并举促进作风建设常态长效。强化元旦、春节、“五一”、中秋、国庆等重要节点监督，加大对在职领导干部违反中央八项规定精神典型案例公开通报的力度。推动中央有关部门完善公务接待等相关制度规定。围绕政策制定、考核检查、问责奖惩等环节完善细化制度，着力破解形式主义、官僚主义定性难、查处难问题。加强新时代廉洁文化建设，大力弘扬新风正气。', '把纪律建设摆在更加突出位置，明方向、立规矩、正风气、强免疫，促进从严管理监督和鼓励担当作为相统一。', '强化经常性纪律教育。完善纪法教育进课堂方式，推动党委（党组）理论学习中心组和各级党校（行政学院）、干部学院把党章党规党纪教育作为必修课。加大年轻干部教育管理监督力度，采取走访调研、座谈交流、廉政谈话等多种方式，将教育融入日常监督。编辑严重违纪违法干部忏悔录，分层分类开展警示教育。', '坚决维护纪律刚性。对违反党纪的问题，发现一起查处一起。严明组织纪律、换届纪律，完成全国和省级人大、政府、政协换届人选党风廉政意见回复工作，中央纪委国家监委全年共回复意见2666人次。紧盯重特大安全事故严肃追责问责，围绕湖南长沙居民自建房倒塌事故、河南安阳火灾事故、内蒙古新井煤业坍塌事故、北京长峰医院火灾事故、宁夏银川燃气爆炸事故等问责中管干部10人。全国共问责党组织2317个、党员领导干部和监察对象4.3万人。', '全面贯彻中央巡视工作方针，推动巡视工作深化发展，巡视震慑力和穿透力不断增强，有力传导了严的基调。', '坚定不移深化政治巡视。在党中央领导下推动修订巡视工作条例，进一步健全巡视体制机制、责任体系。召开全国巡视工作会议，统筹安排常规巡视、巡视“回头看”和机动巡视，“三箭齐发”、同向发力。组织开展两轮中央巡视，共巡视57家中管企业、5家中管金融企业、7家中央和国家机关单位党组织，高质量完成对中管企业党组织巡视全覆盖。', '强化巡视整改和成果运用。逐项研究梳理习近平总书记听取巡视汇报时的重要指示要求，提出工作建议，坚决推动落实。连续两轮共对7家单位开展巡视“回头看”，对62家单位开展整改测评，强化立行立改、边巡边查。建立巡视整改会商机制，增强整改监督合力。向党中央、国务院分管领导同志和有关部门移交工作建议26件，推动深化改革、完善制度。', '深化巡视巡察上下联动。加强对地方和中央单位巡视巡察工作指导，省、市、县三级共巡视巡察23.1万个党组织，182家中央单位对2.7万个党组织开展内部巡视巡察。结合中央巡视开展专项检查，推动提升巡视质效。', '以制度建设为重点深化纪检监察体制改革，推动完善党和国家监督体系，为全面从严治党提供有力支撑。', '持续推进纪检监察体制改革。经党中央批准，整合设立纪检监察体制改革专项小组，制定《2023年深化纪检监察体制改革工作要点》。推进派驻机构改革，调整完善党和国家机构改革中央一级涉改部门纪检监察机构设置，健全“组组”协同监督、“室组”联动监督、“室组地”联合办案机制，逐步扩大派驻机构监察权行使。深化中管高校纪检监察体制改革，推进省级纪委监委向省属高校和国有企业派驻纪检监察组试点。制定与审计监督贯通协同机制的工作流程，中央纪委国家监委开展《审计要情》移交线索大起底并加强跟踪督办，充分发挥审计在反腐治乱方面的重要作用。制定加强基层纪检监察监督若干意见，健全以县级统筹为主的片区协作、提级监督、交叉检查工作机制。', '健全纪检监察法规制度体系。推进制度完善，协助党中央修订纪律处分条例，进一步严明政治纪律和政治规矩。加强制度供给，形成问题线索处置、案件质量评查、提出纪检监察建议、办理跨境腐败案件等制度成果30项。促进制度“瘦身”，对涉及纪检监察工作的297件法规文件研究提出清理意见。深化制度阐释，配合有关单位研究制定职务犯罪适用法律有关问题的解释，开展基层执纪执法业务巡讲。', '保障制度机制有效运行。深化监察官法实施，完成市县监察官等级首次确定工作。加快构建数字纪检监察体系，深入推进大数据、信息化建设，着力解决数据重复填报等难点堵点问题，以科技赋能正风肃纪反腐各项工作。', '在以习近平同志为核心的党中央坚强领导下，各级党组织切实履行管党治党政治责任，全面从严治党和反腐败斗争持续发力，良好政治生态不断巩固发展。同时必须清醒看到，全面从严治党还远未到大功告成的时候，党面临的“四大考验”、“四种危险”长期存在，党内“四个不纯”突出问题依然存在，腐败问题产生的土壤和条件尚未根除，给新征程全面从严治党带来了现实挑战。纪检监察队伍在理论修养和政治素养、斗争精神和斗争本领、规范化法治化正规化建设等方面还有差距，“灯下黑”等问题还不同程度存在。对这些问题，必须高度重视，切实加以解决。', '党的十八大以来，习近平总书记带领全党以前所未有的决心力度推进全面从严治党，创造性提出一系列具有原创性、标志性的新理念新思想新战略，形成习近平总书记关于党的自我革命的重要思想，指引百年大党开辟了自我革命的新境界。在这次中央纪委全会上，习近平总书记深刻总结新时代全面从严治党丰富实践经验和重要理论成果，深刻阐述党的自我革命的重要思想，科学回答关于党的自我革命的三个重大问题，明确提出推进自我革命“九个以”的实践要求。这是我们党坚持“两个结合”推进理论创新取得的新成果，是习近平新时代中国特色社会主义思想的新篇章，标志着我们党对马克思主义政党建设规律、共产党执政规律的认识达到新高度。', '这一重要思想深刻回答了我们党“为什么要自我革命”的重大问题，指明了确保全党永葆初心、担当使命的根本任务。习近平总书记深刻指出，我们党追求的理想崇高而神圣，肩负的使命艰巨而繁重。要领导14亿多人民以中国式现代化全面推进强国建设、民族复兴伟业，战胜前进道路上各种风险挑战，必须把党建设好建设强。自我革命成效直接关系党能否永远不变质、不变色、不变味，决定中国特色社会主义事业成败。新征程上，只有通过自我革命不断祛杂质、强免疫、壮筋骨，才能经受住“四大考验”、抵御住“四种危险”、解决好“四个不纯”，确保党始终成为坚强领导核心，更好以自我革命引领社会革命。', '这一重要思想深刻回答了我们党“为什么能自我革命”的重大问题，坚定了全党用好“第二个答案”、解决大党独有难题的信心决心。习近平总书记深刻指出，党的性质宗旨、初心使命决定了我们党始终代表最广大人民根本利益。正是因为不谋私利，我们党才有了彻底的自我革命精神，才能从不讳疾忌医、敢于直面问题，人民群众才会真心实意帮助我们修正错误。新征程上，只有始终坚持一切为了人民、一切依靠人民，更加自觉把自我监督和人民监督有机统一起来，才能实现自律和他律良性互动、相得益彰。', '这一重要思想深刻回答了我们党“怎样推进自我革命”的重大问题，展现了党永葆生机活力、走好新的赶考之路的光明前景。习近平总书记深刻阐述推进党的自我革命的根本保证、根本目的、根本遵循、战略目标、主攻方向、有效途径、重要着力点、重要抓手和强大动力，深刻指出全面从严治党是新时代党的自我革命的伟大实践，反腐败是最彻底的自我革命，为推进党的自我革命提供了行动指南。新征程上，只有准确把握“九个以”的实践要求，坚定不移全面从严治党，推动党的各方面建设有机衔接、协调联动，才能全面推进党的自我净化、自我完善、自我革新、自我提高，确保党始终成为时代先锋、民族脊梁。', '纪检监察机关是推进党的自我革命的重要力量，必须深入学习领悟习近平总书记关于党的自我革命的重要思想，自觉把这一重要思想贯彻到纪检监察工作全过程各方面。要怀着深厚感情深学细悟，深刻体悟习近平总书记强烈历史主动精神、非凡理论勇气、卓越政治智慧，深刻体悟习近平总书记“我将无我、不负人民”的境界情怀，始终忠诚于党、忠诚于人民、忠诚于马克思主义、忠诚于纪检监察事业，真心爱党、时刻忧党、坚定护党、全力兴党。要怀着坚定信仰深学细悟，深刻体悟习近平总书记提出党的自我革命的重要思想是从全局、长远、大势、规律上作出的战略考量，始终坚信在党中央和习近平总书记带领下我们党完全能够依靠自身力量解决自身问题，进一步增强政治认同、思想认同、理论认同、情感认同，以永远在路上的坚韧和执着把党的自我革命进行到底。要怀着强烈使命深学细悟，深刻体悟党中央和习近平总书记明确的目标任务、赋予的职责使命，带头贯彻自我革命要求，强化斗争精神和斗争本领养成，把纪检监察工作思路举措搞得更加科学、更加严密、更加有效，推动全党把每条战线、每个环节的自我革命抓具体、抓深入。', '2024年是中华人民共和国成立75周年，是实现“十四五”规划目标任务的关键一年。做好今年工作，要坚持以习近平新时代中国特色社会主义思想为指导，全面贯彻落实党的二十大和二十届二中全会精神，深入学习贯彻习近平总书记关于党的自我革命的重要思想，坚决落实全面从严治党战略方针，深刻领悟“两个确立”的决定性意义，增强“四个意识”、坚定“四个自信”、做到“两个维护”，坚持稳中求进工作总基调，巩固拓展主题教育和教育整顿成果，忠诚履行党章和宪法赋予的职责，推动健全全面从严治党体系，纵深推进正风肃纪反腐，纵深推进新征程纪检监察工作高质量发展，为全面推进中国式现代化提供坚强保障。', '学深悟透习近平新时代中国特色社会主义思想是一个日积月累、常学常新的过程，必须在真学真懂真信真用上下功夫，使党的创新理论真正融会于心、见之于行。要在深化上持续用力，健全并严格执行“第一议题”制度、集体学习制度，把学习贯彻习近平新时代中国特色社会主义思想特别是习近平总书记关于党的自我革命的重要思想作为纪检监察干部教育培训主题主线，全方位、深层次、多角度宣传解读，切实增强学习的系统性、针对性、实效性。在内化上持续用力，把握好这一重要思想的世界观和方法论，坚持好、运用好贯穿其中的立场观点方法，深刻领会其中的道理学理哲理，从中汲取奋进力量。在转化上持续用力，紧密结合纪检监察工作实践，强化调查研究和专题研讨，自觉从党的创新理论中找理念、找思路、找方法、找举措，不断把学习成果转化为正风肃纪反腐的实际成效。', '“两个维护”是党的最高政治原则和根本政治规矩。必须把“两个维护”作为政治监督根本任务，推动全党深刻领悟“两个确立”的决定性意义，始终把“两个维护”体现在实际行动上。', '把严明党的政治纪律和政治规矩摆在突出位置。聚焦政治忠诚，及时发现、着力解决“七个有之”问题，坚决纠治“低级红”、“高级黑”。聚焦政治安全，对在党内搞政治团伙、小圈子、利益集团的人决不手软，及时消除政治隐患。聚焦政治责任，把监督重点放在推动各级党委（党组）和领导干部特别是“一把手”担当领导责任上。聚焦政治立场，督促党员干部坚决站稳党性立场和人民立场，始终为党尽责、为民造福。聚焦党内政治生活，督促各级党组织落实民主集中制，进一步增强政治功能和组织功能。', '紧紧围绕党中央大政方针和习近平总书记重要指示批示加强政治监督。坚持党中央重大决策部署到哪里，政治监督就跟进到哪里，把政治监督和日常监督紧密结合，保持高度的政治敏锐性，从政治上看、政治上查，把准政治方向、落实政治要求，善于从工作偏差中发现政治问题，从倾向性苗头性问题中发现政治端倪。研究制定纪检监察机关开展政治监督工作办法，开展提高政治监督能力专题培训。常态化开展党中央重大决策部署和习近平总书记重要指示批示落实情况“回头看”，健全对跨地区跨部门重大战略的协同监督机制，确保贯彻到位。', '反腐败斗争已经进入深水区，绝对不能回头、不能松懈、不能慈悲，必须持续发力、纵深推进，一体推进不敢腐、不能腐、不想腐，同时发力、同向发力、综合发力，不断铲除腐败滋生的土壤和条件。', '强化反腐败高压态势，纵深推进“不敢腐”。坚持态度不变、力度不减、重心不偏，继续紧盯重点问题、重点领域、重点对象、新型腐败和隐性腐败，把严惩政商勾连的腐败作为攻坚战重中之重，坚决防止利益集团、权势团体向政治领域渗透。坚持个案查处与系统整治相结合，深化整治金融、国企、能源、烟草、医药、基建工程和招投标等权力集中、资金密集、资源富集领域的腐败。坚持向基层延伸，坚决惩治群众身边腐败问题，瞄准教育、就业、医疗等民生领域的痛点难点开展集中整治；深化乡村振兴领域不正之风和腐败问题专项整治，推进扫黑除恶“打伞破网”常态化机制化。坚持统筹国际国内两个战场，持续开展“天网行动”，加大追逃追赃力度，加强“一带一路”廉洁建设，集中整治跨境腐败问题。', '强化以案促改、以案促治，纵深推进“不能腐”。常态化做好查办案件“后半篇文章”，做到既善于发现问题又善于推动解决问题。加强类案分析，提出有针对性、说服力的整改意见，督促协同有关部门开展专项治理。完善纪检监察建议的提出、督办、反馈和回访监督机制，增强刚性约束，防止“一发了之”。推动重点领域体制机制改革，促进完善公共资源配置、公共资产交易、公共产品生产等领域市场运行机制，加快推动新兴领域治理机制建设，把权力关进制度的笼子。', '强化正反两方面教育，纵深推进“不想腐”。把新时代廉洁文化建设融入党的宣传思想文化工作，充分挖掘优秀传统廉洁文化丰富内容，积极宣传廉洁理念、廉洁典型，注重家庭家教家风建设。创新警示教育方式，深刻剖析典型案例，建立健全以案说德、以案说纪、以案说法、以案说责机制，推动形成廉荣贪耻的社会氛围。', '强化受贿行贿一起查，纵深推进铲除“围猎”这个政治生态污染源。严惩行贿行为，坚决查处那些老是拉干部下水、危害一方的行贿人，完善对重点行贿人的联合惩戒机制，通报典型案例以正视听。严查利益链条，加大对行贿所获不正当利益的追缴和纠正力度，加大对政商“旋转门”、“逃逸式辞职”治理力度，严惩政治骗子，强化对行贿、介绍行贿、洗钱等腐败关联犯罪的全链条惩治。', '强化完善反腐败工具箱，纵深推进反腐败能力建设。坚定扛起反腐败职责，有力有效协助党委组织协调反腐败工作，继续加大审计等移送问题线索查处力度。坚持用法治思维和法治方式惩治腐败，持续推进反腐败国家立法，研究制定反跨境腐败法，推动用好缺席审判和违法所得没收程序。建立腐败预警惩治联动机制，加大对新型腐败和隐性腐败的甄别和查处力度。', '制定实施中央八项规定，是我们党在新时代的徙木立信之举，赢得了党心民心，厚植了执政根基，必须常抓不懈、久久为功，坚决筑牢中央八项规定堤坝。', '坚决防止享乐主义、奢靡之风反弹回潮。对违规吃喝开展专项整治，严查“吃公函”、“吃食堂”、“吃老板”、“吃下级”等问题，坚决防止金融、国企等单位公务接待“特殊论”。有效防治隐形变异现象，精准发现、从严处理“快递送礼”以及借培训考察、党建活动等名义公款旅游问题。健全风腐同查同治工作机制，既“由风查腐”，防止“以风盖腐”，深挖不正之风背后的请托办事、利益输送等腐败问题，又“由腐纠风”，细查腐败背后的享乐奢靡等作风问题。', '重拳纠治干部群众反映强烈的形式主义、官僚主义。坚持从领导机关抓起、领导干部改起，以抓好“关键少数”促进党风政风根本好转。紧盯影响党中央决策部署落实落地现象，坚决纠治口号响落实差、搞本位主义、做表面文章等问题。紧盯影响高质量发展的不作为乱作为现象，深入整治贪大求洋、任性决策、敷衍塞责、冷硬横推等问题。紧盯加重基层负担现象，持续纠治文山会海、督查检查调研扎堆、工作过度留痕、任务层层加码、“指尖上的形式主义”等问题。紧盯权力观扭曲、政绩观错位现象，着力纠治急功近利、竭泽而渔、劳民伤财搞政绩工程、数据造假等问题。完善细化对形式主义、官僚主义的惩戒机制，推动党员干部多在实效上用真功夫、少在形式上动歪脑筋。', '纪律是管党治党的“戒尺”，必须把严的标准树立起来、把严的纪律执行起来，推动广大党员干部切实养成纪律自觉。', '以学习贯彻新修订的纪律处分条例为契机加强纪律教育。认真开展党纪学习教育，深入学习习近平总书记关于党的纪律建设的重要论述，延伸学习应知应会党内法规和国家法律清单，推动党员干部把遵规守纪刻印在心。坚持经常性和集中性教育相结合，举办省部级干部党风廉政建设专题研讨班，开展领导干部纪律教育专题培训。加大对年轻干部、新提任干部的纪法培训、廉政提醒力度，特别是重要岗位干部要做到纪法轮训全覆盖，着力解决对党规党纪不上心、不了解、不掌握等问题。', '以准确规范运用“四种形态”为导向严格纪律执行。准确把握政策策略，注重纪法情理贯通融合，把思想政治工作贯穿始终。加强对运用“四种形态”情况的动态分析与监督检查，及时发布典型案例，推动精准定性量纪执法。推动“三个区分开来”具体化、规范化，依法依规严肃查处诬告陷害行为，促进党员干部廉而有为、勤勉敬业，促进全党既有秩序又有活力。', '以压紧压实政治责任为抓手凝聚管党治党合力。督促党委（党组）切实担负主体责任，党组织主要负责人切实担负第一责任人责任，领导班子成员认真履行“一岗双责”，严格执行纪律，坚持抓早抓小，敢于动真碰硬。推动党委（党组）主体责任、纪委（纪检组）监督责任、职能部门监管职责同向发力，健全各负其责、统一协调的责任格局。推动把责任落实、开展纪律建设情况列入模范机关创建和党建述职评议考核内容。完善问责制度及程序，健全重点领域重点问题问责提级审核、问责案件评查等制度，防止和纠正问责不力、问责泛化、“求快不求准”等问题。', '巡视本质是上级党组织对下级党组织履行党的领导职能责任的政治监督。必须坚守政治巡视定位，深入查找政治偏差，更好发挥巡视综合监督作用。', '扎实推进巡视全覆盖。统筹部署2024年巡视巡察重点工作，坚持板块轮动、整体推进，打破常规套路，穿插运用多种方式，深入探索提级巡视、联动巡视，不断提高巡视发现问题的能力和水平。持续完善巡视巡察工作格局，加强对省区市巡视工作的指导督导，建立对中央单位内部巡视分板块、分行业指导的工作机制。召开对村巡察工作推进会，全面推动市县巡察向基层延伸。', '学习贯彻巡视工作条例。深入开展宣传解读和政策辅导，加强督促检查，推动条例要求落实落地。加强配套制度建设，协助党中央修订《被巡视党组织配合中央巡视工作规定》，修订《中央巡视组工作规则》等，健全巡视组组长、副组长选配机制，进一步提升巡视工作制度化规范化水平。', '优化巡视整改工作机制。建立覆盖巡视整改全周期的责任体系和制度流程，研究探索整改评估机制、问责机制。建设应用巡视整改监督管理平台，加强统筹协调、跟踪督促、汇总分析，对矛盾集中、问题突出单位采取整顿的方式抓整改，对重点问题整改情况集中开展监督检查。', '规范化、法治化、正规化是纪检监察工作高质量发展的内在要求和重要保障。必须持续深化纪检监察体制改革，不断健全法规制度，增强纪检监察工作的严肃性、权威性和公信力。', '完善系统集成、协同高效的纪检监察工作体系。加强内部力量统筹，完善纪委监委机关内设机构设置、职能配置、力量配备。推进纪检监察工作双重领导体制具体化、程序化、制度化，健全重要情况请示报告制度，完善市县两级纪委监委查办案件提级管辖和指定管辖制度。深化派驻机构改革，加强直接领导、统一管理，制定加强中管高校纪检监察机构与地方纪委监委联合开展审查调查的意见，指导各省区市纪委监委开展向省属高校和国有企业派驻纪检监察组试点，在垂管系统省级以下单位开展涉嫌职务犯罪案件管辖和监察措施使用改革试点。持续完善“组组”协同监督、“室组”联动监督、“室组地”联合办案机制。加强机关事业单位、企业等基层纪委建设。深化数据资源开发利用，建设纪检监察一体化工作平台，推动数字技术深度融入纪检监察各项业务，促进全要素覆盖、全流程贯通、全领域标准、全系统共享。', '健全科学严密、系统完备的纪检监察法规制度体系。一体履行党内法规和监察法规制定职责，协助党中央修订《党组讨论和决定党员处分事项工作程序规定（试行）》、《农村基层干部廉洁履行职责若干规定（试行）》等。围绕一体推进不敢腐、不能腐、不想腐，推进作风建设常态化长效化等完善基础性法规制度。加强监督执纪执法标准化建设，制定或修订纪检监察机关开展诫勉工作办法等，进一步规范涉案财物管理，加强案件质量评查，确保执纪执法权正确行使。', '推动健全党统一领导、全面覆盖、权威高效的监督体系。完善纪检监察专责监督体系，持续推进纪律监督、监察监督、派驻监督、巡视监督统筹衔接常态化制度化。完善以党内监督为主导、各类监督贯通协调机制。加强纪法衔接，完善监察执法与刑事司法衔接机制，促进监察机关与司法机关、执法部门在办理职务违法犯罪案件中互相配合、互相制约。自觉接受人大监督，依法有序做好国家监委向全国人大常委会报告专项工作。完善基层监督体系，优化基层纪检监察机构设置，统筹用好县乡监督力量，推动加大基层监督办案力度。聚焦“关键少数”，完善加强对“一把手”和领导班子监督的制度措施。', '面对伟大而艰巨的党的自我革命事业，必须以彻底的自我革命精神锻造高素质专业化纪检监察队伍。中央纪委常委会要带头加强自身建设，认真贯彻民主集中制，严于律己、严负其责、严管所辖，带动全系统做自我革命的表率、遵规守纪的标杆，永葆忠诚干净担当、敢于善于斗争的铁军本色。', '在思想上勇于自我革命。坚持常扫心灵灰尘、常清思想垃圾，坚决防止信仰迷茫、精神迷失；坚决防止西方腐朽价值观念的侵蚀。贯彻实施纪检监察系统教育培训工作规划，积极稳妥推进纪检监察学科建设，常态化开展政治教育、党性教育，弘扬伟大建党精神，继承纪检监察机关光荣传统，始终做到绝对忠诚、绝对可靠、绝对纯洁。做深做实干部政治素质考察，引导干部不断提高政治判断力、政治领悟力、政治执行力。', '在作风上勇于自我革命。坚持牢记“三个务必”、践行“三严三实”，坚决防止爱惜羽毛、当“好好先生”；坚决防止瞻前顾后、患得患失、给自己留后路；坚决防止马虎懈怠、简单任性。始终保持战略定力、坚定斗争意志，坚持原则、勇于亮剑，敢斗善斗、担当尽责，在重大政治原则和大是大非问题上旗帜鲜明、无私无畏，在同歪风邪气和腐败现象作斗争时，不信邪、不怕鬼、不怕压。树立正确政绩观，坚持实事求是、客观公正，严格依规依纪依法，深入细致做好各项工作。', '在廉洁上勇于自我革命。坚持自身硬首先要自身廉，坚决防止执纪违纪、执法违法，利用监督执纪执法权和职务影响力谋取私利；坚决防止放弃原则、清廉失守，损害纪检监察机关公信力和党的形象。常态化检视干部队伍存在的突出问题，找准纪检监察权力运行风险背后的深层次原因，抓到底、改到位、治到根。坚持刀刃向内清除害群之马，坚决防治“灯下黑”。用好身边人身边事，引导纪检监察干部以案为鉴、守牢底线。严格管好家人亲属，永葆清正廉洁。', '在严管上勇于自我革命。坚持以严的标准审视自己，坚决防止“护犊子”心态，对问题睁一只眼闭一只眼；坚决防止“带病提拔”、“带病上岗”。坚持党管干部原则，树牢选人用人正确导向，着力选拔长期奋战在艰苦岗位，关键时刻能扛重活、敢打硬仗、业绩突出的干部，探索建立纪检监察干部“上派下挂”机制和人才库，有序开展干部轮岗交流，完善年轻干部培养选拔链条。切实履行自身建设主体责任，全面了解掌握干部思想状况，发现问题敢抓敢管，对不适合在纪检监察岗位工作的干部及时调整，做细做实对干部的经常性监督。主动邀请特约监察员参与有关工作，更好发挥监督作用。坚持严管厚爱结合，完善监察官职业保障配套制度，激励干部安心履职、担当作为。', '同志们，全面从严治党永远在路上，党的自我革命永远在路上，纪检监察工作使命光荣、任重道远。让我们更加紧密团结在以习近平同志为核心的党中央周围，勠力同心、忠诚履职，以一往无前的奋斗姿态、永不懈怠的精神状态推进新征程纪检监察工作高质量发展，为以中国式现代化全面推进强国建设、民族复兴伟业提供坚强保障！']</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A87" t="n">
+        <v>23</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
           <t>深入学习贯彻习近平总书记关于党的自我革命的重要思想纵深推进新征程纪检监察工作高质量发展在中国共产党第二十届中央纪律检查委员会第三次全体会议上的工作报告</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>2024-02-25</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>http://www.guxian.gov.cn/xwzx/gwyyw/202403/t20240304_322255.html</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>['深入学习贯彻习近平总书记关于党的自我革命的重要思想 纵深推进新征程纪检监察工作高质量发展——在中国共产党第二十届中央纪律检查委员会第三次全体会议上的工作报告', '深入学习贯彻习近平总书记关于党的自我革命的重要思想 纵深推进新征程纪检监察工作高质量发展 ——在中国共产党第二十届中央纪律检查委员会第三次全体会议上的工作报告', '纵深推进新征程纪检监察工作高质量发展 ——在中国共产党第二十届中央纪律检查委员会第三次全体会议上的工作报告', '这次全会的主要任务是：深入学习贯彻习近平新时代中国特色社会主义思想，全面贯彻落实党的二十大和二十届二中全会精神，回顾2023年纪检监察工作，部署2024年任务。今天上午，习近平总书记发表重要讲话，深刻阐述党的自我革命的重要思想，对纵深推进全面从严治党、党风廉政建设和反腐败斗争作出战略部署，为做好新征程纪检监察工作指明了方向。我们要认真学习领会，坚决贯彻落实。', '2023年是全面贯彻党的二十大精神的开局之年，也是三年新冠疫情防控转段后经济恢复发展的一年。面对错综复杂的国际环境和艰巨繁重的国内改革发展稳定任务，以习近平同志为核心的党中央团结带领全党全国人民，凝心聚力、攻坚克难，全面推进中国式现代化，引领中华民族伟大复兴号巨轮破浪前行。中央纪委国家监委和各级纪检监察机关牢记习近平总书记“新班子、新气象、新局面、新作为”的期望要求，以全面贯彻党的二十大精神为主线，以推动全党深刻领悟“两个确立”的决定性意义、坚决做到“两个维护”为使命责任，以推动解决大党独有难题、健全全面从严治党体系为目标方向，以开展学习贯彻习近平新时代中国特色社会主义思想主题教育和全国纪检监察干部队伍教育整顿为重点，深学习、实调研、抓落实，始终以严的基调、严的措施、严的氛围强化政治监督、正风肃纪反腐，纪检监察工作高质量发展取得新进展新成效，为全面建设社会主义现代化国家提供有力保障。', '紧紧围绕党的二十大战略部署，立足职能职责，加强系统谋划，做实调查研究，在强国建设、民族复兴新征程上找准职责定位、扎实履职尽责。', '完整、准确、全面把握党的二十大精神。中央纪委常委会把学习党的二十大精神作为履职的第一课，建立常态化学习机制，举办二十届中央纪委委员研讨班，准确把握党的二十大确定的重要思想、重要观点、重大战略、重大举措。在全系统兴起学习热潮，开展多形式、分层次的全员培训，共举办培训班5.1万个、培训267.9万人次。浓墨重彩宣传新时代党和国家事业取得的历史性成就、发生的历史性变革，深入解读党的二十大关于推进党的自我革命、全面从严治党的部署要求，统一思想、凝聚力量。', '聚焦重点难题深入调查研究。围绕“时刻保持解决大党独有难题的清醒和坚定，坚定不移推动健全全面从严治党体系”开展课题研究，引领全系统深刻把握职责所系、使命所在。全面梳理党的二十大和二十届中央纪委二次全会重点任务，列出12个方面重要问题，中央纪委常委领题调研，把握工作规律，破解工作难题。中央纪委国家监委各派驻（派出）机构和各省区市纪委监委领导班子共开展课题调研736项，通过调研明确思路、完善举措，形成制度规范。', '着眼五年谋篇布局。加强整体谋划，研究制定一届任期内推进纪检监察工作高质量发展的任务书。协助党中央修订《中央反腐败协调小组工作规则》、首次制定《中央反腐败协调小组工作规划（2023－2027年）》，首次制定《中央反腐败协调小组反腐败国际追逃追赃和跨境腐败治理2023－2027年目标任务》，推动制定《中央巡视工作规划（2023－2027年）》。制定《中央纪委国家监委法规制度制定工作五年规划（2023－2027年）》、《中央纪委国家监委数字纪检监察体系建设规划（2023－2027年）》，稳步推进贯彻实施。', '统筹抓好主题教育和教育整顿，将学习教育、检视整治贯穿始终，以更高标准、更严要求纯洁思想、纯洁组织，努力打造忠诚干净担当、敢于善于斗争的纪检监察铁军。', '用心用情深学细悟习近平新时代中国特色社会主义思想。中央纪委常委会制定并严格执行“第一议题”制度，跟进传达学习习近平总书记重要讲话和重要指示批示精神53次，开展7次集体学习，举办为期7天的驻委领导读书班，带领全系统带着感情、带着信仰、带着使命，读原著、学原文、悟原理，自觉用以武装头脑、指导实践、统领纪检监察一切工作。突出政治教育、党性教育，坚持常委会和班子成员领学、机关党委督学、基层党支部研学、党小组促学、党员自学“五学联动”机制，各级纪检监察机关主要负责人带头讲主题党课、作廉政教育报告，在全系统开展集中轮训，在以学铸魂、以学增智、以学正风、以学促干上见实效。', '坚定不移扛起“两个维护”的重大政治责任。认真贯彻加强和维护党中央集中统一领导的若干规定，严格执行请示报告制度，重大事项、重大案件、重要工作及时主动向党中央和习近平总书记请示报告，以实际行动体现对党忠诚、听党指挥、为党尽责。健全政治要件闭环落实机制，对习近平总书记重要指示批示逐项研究推进，确保件件落实。严明政治纪律和政治规矩，严肃查处对党不忠诚不老实的两面派、两面人。全国纪检监察机关处分违反政治纪律人员8890人，其中中管干部34人。', '严管严治锻造纪检监察铁军。强化组织领导，严格督导指导，层层传导压力，刀刃向内自查自纠、整改整治、清理门户。制定《纪检监察干部网络行为十条禁令》。开展纪检监察干部网络言行、压件不查、违规办案、案件质量问题、重复举报化解不力等专项整治，制定《关于严禁纪检监察干部违规饮酒的规定》。制定纪检监察干部选拔任用、轮岗交流、谈心谈话、离岗离职从业限制等制度，规范干部选育管用。聘任国家监委第二届特约监察员，自觉接受各方面监督。深入开展警示教育，出版发行《纪检监察干部违纪违法典型案例警示录》。组织开展新时代纪检监察系统先进典型集中宣讲，编辑出版先进典型风采录。将中国监察学会更名为中国纪检监察协会并进行换届，设置“利剑基金”关爱干部职工，制定出台开展及时性表彰奖励实施意见，教育引导干部铸就政治忠诚、勇于担当作为。', '（三）紧紧围绕党的二十大战略部署强化政治监督，保障全面建设社会主义现代化国家开好局、起好步', '把坚持党中央集中统一领导、落实党的二十大决策部署作为政治监督中心任务，推进政治监督具体化、精准化、常态化，保障党中央政令畅通。', '具体化确定监督任务。围绕以中国式现代化全面推进中华民族伟大复兴的宏伟蓝图，聚焦贯彻新发展理念、构建新发展格局、推动高质量发展等战略部署，实化细化政治监督内容。指导各省区市纪委监委结合实际确定年度政治监督重点，分板块推动各派驻（派出）机构紧扣监督单位职责抓实政治监督任务，“一校一策”督促中管高校纪检监察机构开展政治监督，形成上下联动推动落实党的二十大精神的良好局面。', '精准化纠治突出问题。聚焦贯彻党中央决策部署有令不行、有禁不止，搞部门和地方保护主义现象，就违规违法管理使用医保基金、违规占用耕地、瞒报矿难、劳务派遣单位截留滞留稳岗返还资金等问题持续跟踪督导，准确把握问题性质、后果和影响，推动整改整治。深入查找问题背后的失职失责、违纪违法行为，及时发现处置。', '常态化推动贯彻落实。围绕党中央和习近平总书记作出的党和国家机构改革、科技创新、防汛救灾、安全生产和防范化解重大风险等决策部署，及时跟进、主动作为，强化全过程全链条监督。坚持定期盘点、动态问效，健全台账管理、督查问责、“回头看”等制度，确保监督责任不空转、工作推进不断档、整改整治有实效。', '坚持无禁区、全覆盖、零容忍，紧盯重点问题、重点领域、重点对象，紧盯新型腐败和隐性腐败，一体推进不敢腐、不能腐、不想腐，全面巩固来之不易的压倒性胜利。', '坚决清除系统性腐败风险隐患。深化金融反腐，严肃查处范一飞、刘连舸、李晓鹏、唐双宁等腐败分子。聚焦国企、高校、体育、烟草等领域腐败问题加大惩治力度，深化粮食购销领域腐败问题专项整治，配合开展统计造假专项治理、全国医药领域腐败问题集中整治。中央纪委国家监委立案审查调查董云虎、孙志刚、韩勇等中管干部87人，全国纪检监察机关共立案62.6万件，留置2.6万人，给予党纪政务处分61万人。深入解剖麻雀，开展辽宁系列腐败案件专题调研，调研报告印发各地区各部门，制作播出警示教育片。深入剖析足球领域腐败和行风问题，推动严查彻查、彻底整顿，健全足球健康发展体制机制。专题研究治理国家集成电路产业投资基金腐败、领导干部为亲友谋利等问题，推动堵塞漏洞、完善监管。', '着力查处群众身边“蝇贪蚁腐”。深入整治就业创业、教育医疗、养老社保、生态环保、安全生产、食品药品安全、执法司法等领域群众反映强烈的突出问题。开展乡村振兴领域不正之风和腐败问题专项整治，严查涉黑涉恶腐败以及充当黑恶势力“保护伞”问题。全国纪检监察机关共查处民生领域腐败和作风问题7.7万起，给予党纪政务处分7.5万人。', '深化受贿行贿一起查。加大对行贿行为惩治力度，全国共立案审查调查行贿人员1.7万人。推动完善惩处行贿相关法律法规，统筹推进全国行贿人信息库建设，为精准惩治行贿提供制度依据和基础支撑。', '深化反腐败国际合作。举办第三届“一带一路”国际合作高峰论坛廉洁丝绸之路专题论坛，与6个国家签署反腐败合作谅解备忘录。集中力量查办跨境腐败案件，追赃挽损102亿元，“天网2023”行动追回外逃人员1624人。', '把中央八项规定作为长期有效的铁规矩、硬杠杠，持续从严、一抓到底，紧盯重点、靶向施治，推动化风成俗。', '一刻不停狠刹享乐主义、奢靡之风。提级查处、公开通报青海省6名正厅级领导干部在参加学习贯彻党的二十大精神培训班期间顶风违纪典型案例，专题通报交通运输部、国家卫生健康委下属单位以培训为名组织公款旅游问题，对“四风”问题开展明察暗访、重点通报。推进党风政风监督信息综合平台建设，查处一批隐蔽、隐性公款享乐奢靡问题。全国共查处享乐主义、奢靡之风问题6.2万个，批评教育和处理8.3万人。', '突出重点纠治形式主义、官僚主义。着力纠治落实党中央决策部署不担当不用力、执行政策措施“一刀切”、基层治理不作为乱作为、“新官不理旧账”、漠视侵害群众利益等问题，公开通报10起加重基层负担典型案例。全国共查处形式主义、官僚主义问题4.6万个，批评教育和处理7.1万人。', '纠树并举促进作风建设常态长效。强化元旦、春节、“五一”、中秋、国庆等重要节点监督，加大对在职领导干部违反中央八项规定精神典型案例公开通报的力度。推动中央有关部门完善公务接待等相关制度规定。围绕政策制定、考核检查、问责奖惩等环节完善细化制度，着力破解形式主义、官僚主义定性难、查处难问题。加强新时代廉洁文化建设，大力弘扬新风正气。', '把纪律建设摆在更加突出位置，明方向、立规矩、正风气、强免疫，促进从严管理监督和鼓励担当作为相统一。', '强化经常性纪律教育。完善纪法教育进课堂方式，推动党委（党组）理论学习中心组和各级党校（行政学院）、干部学院把党章党规党纪教育作为必修课。加大年轻干部教育管理监督力度，采取走访调研、座谈交流、廉政谈话等多种方式，将教育融入日常监督。编辑严重违纪违法干部忏悔录，分层分类开展警示教育。', '坚决维护纪律刚性。对违反党纪的问题，发现一起查处一起。严明组织纪律、换届纪律，完成全国和省级人大、政府、政协换届人选党风廉政意见回复工作，中央纪委国家监委全年共回复意见2666人次。紧盯重特大安全事故严肃追责问责，围绕湖南长沙居民自建房倒塌事故、河南安阳火灾事故、内蒙古新井煤业坍塌事故、北京长峰医院火灾事故、宁夏银川燃气爆炸事故等问责中管干部10人。全国共问责党组织2317个、党员领导干部和监察对象4.3万人。', '全面贯彻中央巡视工作方针，推动巡视工作深化发展，巡视震慑力和穿透力不断增强，有力传导了严的基调。', '坚定不移深化政治巡视。在党中央领导下推动修订巡视工作条例，进一步健全巡视体制机制、责任体系。召开全国巡视工作会议，统筹安排常规巡视、巡视“回头看”和机动巡视，“三箭齐发”、同向发力。组织开展两轮中央巡视，共巡视57家中管企业、5家中管金融企业、7家中央和国家机关单位党组织，高质量完成对中管企业党组织巡视全覆盖。', '强化巡视整改和成果运用。逐项研究梳理习近平总书记听取巡视汇报时的重要指示要求，提出工作建议，坚决推动落实。连续两轮共对7家单位开展巡视“回头看”，对62家单位开展整改测评，强化立行立改、边巡边查。建立巡视整改会商机制，增强整改监督合力。向党中央、国务院分管领导同志和有关部门移交工作建议26件，推动深化改革、完善制度。', '深化巡视巡察上下联动。加强对地方和中央单位巡视巡察工作指导，省、市、县三级共巡视巡察23.1万个党组织，182家中央单位对2.7万个党组织开展内部巡视巡察。结合中央巡视开展专项检查，推动提升巡视质效。', '以制度建设为重点深化纪检监察体制改革，推动完善党和国家监督体系，为全面从严治党提供有力支撑。', '持续推进纪检监察体制改革。经党中央批准，整合设立纪检监察体制改革专项小组，制定《2023年深化纪检监察体制改革工作要点》。推进派驻机构改革，调整完善党和国家机构改革中央一级涉改部门纪检监察机构设置，健全“组组”协同监督、“室组”联动监督、“室组地”联合办案机制，逐步扩大派驻机构监察权行使。深化中管高校纪检监察体制改革，推进省级纪委监委向省属高校和国有企业派驻纪检监察组试点。制定与审计监督贯通协同机制的工作流程，中央纪委国家监委开展《审计要情》移交线索大起底并加强跟踪督办，充分发挥审计在反腐治乱方面的重要作用。制定加强基层纪检监察监督若干意见，健全以县级统筹为主的片区协作、提级监督、交叉检查工作机制。', '健全纪检监察法规制度体系。推进制度完善，协助党中央修订纪律处分条例，进一步严明政治纪律和政治规矩。加强制度供给，形成问题线索处置、案件质量评查、提出纪检监察建议、办理跨境腐败案件等制度成果30项。促进制度“瘦身”，对涉及纪检监察工作的297件法规文件研究提出清理意见。深化制度阐释，配合有关单位研究制定职务犯罪适用法律有关问题的解释，开展基层执纪执法业务巡讲。', '保障制度机制有效运行。深化监察官法实施，完成市县监察官等级首次确定工作。加快构建数字纪检监察体系，深入推进大数据、信息化建设，着力解决数据重复填报等难点堵点问题，以科技赋能正风肃纪反腐各项工作。', '在以习近平同志为核心的党中央坚强领导下，各级党组织切实履行管党治党政治责任，全面从严治党和反腐败斗争持续发力，良好政治生态不断巩固发展。同时必须清醒看到，全面从严治党还远未到大功告成的时候，党面临的“四大考验”、“四种危险”长期存在，党内“四个不纯”突出问题依然存在，腐败问题产生的土壤和条件尚未根除，给新征程全面从严治党带来了现实挑战。纪检监察队伍在理论修养和政治素养、斗争精神和斗争本领、规范化法治化正规化建设等方面还有差距，“灯下黑”等问题还不同程度存在。对这些问题，必须高度重视，切实加以解决。', '党的十八大以来，习近平总书记带领全党以前所未有的决心力度推进全面从严治党，创造性提出一系列具有原创性、标志性的新理念新思想新战略，形成习近平总书记关于党的自我革命的重要思想，指引百年大党开辟了自我革命的新境界。在这次中央纪委全会上，习近平总书记深刻总结新时代全面从严治党丰富实践经验和重要理论成果，深刻阐述党的自我革命的重要思想，科学回答关于党的自我革命的三个重大问题，明确提出推进自我革命“九个以”的实践要求。这是我们党坚持“两个结合”推进理论创新取得的新成果，是习近平新时代中国特色社会主义思想的新篇章，标志着我们党对马克思主义政党建设规律、共产党执政规律的认识达到新高度。', '这一重要思想深刻回答了我们党“为什么要自我革命”的重大问题，指明了确保全党永葆初心、担当使命的根本任务。习近平总书记深刻指出，我们党追求的理想崇高而神圣，肩负的使命艰巨而繁重。要领导14亿多人民以中国式现代化全面推进强国建设、民族复兴伟业，战胜前进道路上各种风险挑战，必须把党建设好建设强。自我革命成效直接关系党能否永远不变质、不变色、不变味，决定中国特色社会主义事业成败。新征程上，只有通过自我革命不断祛杂质、强免疫、壮筋骨，才能经受住“四大考验”、抵御住“四种危险”、解决好“四个不纯”，确保党始终成为坚强领导核心，更好以自我革命引领社会革命。', '这一重要思想深刻回答了我们党“为什么能自我革命”的重大问题，坚定了全党用好“第二个答案”、解决大党独有难题的信心决心。习近平总书记深刻指出，党的性质宗旨、初心使命决定了我们党始终代表最广大人民根本利益。正是因为不谋私利，我们党才有了彻底的自我革命精神，才能从不讳疾忌医、敢于直面问题，人民群众才会真心实意帮助我们修正错误。新征程上，只有始终坚持一切为了人民、一切依靠人民，更加自觉把自我监督和人民监督有机统一起来，才能实现自律和他律良性互动、相得益彰。', '这一重要思想深刻回答了我们党“怎样推进自我革命”的重大问题，展现了党永葆生机活力、走好新的赶考之路的光明前景。习近平总书记深刻阐述推进党的自我革命的根本保证、根本目的、根本遵循、战略目标、主攻方向、有效途径、重要着力点、重要抓手和强大动力，深刻指出全面从严治党是新时代党的自我革命的伟大实践，反腐败是最彻底的自我革命，为推进党的自我革命提供了行动指南。新征程上，只有准确把握“九个以”的实践要求，坚定不移全面从严治党，推动党的各方面建设有机衔接、协调联动，才能全面推进党的自我净化、自我完善、自我革新、自我提高，确保党始终成为时代先锋、民族脊梁。', '纪检监察机关是推进党的自我革命的重要力量，必须深入学习领悟习近平总书记关于党的自我革命的重要思想，自觉把这一重要思想贯彻到纪检监察工作全过程各方面。要怀着深厚感情深学细悟，深刻体悟习近平总书记强烈历史主动精神、非凡理论勇气、卓越政治智慧，深刻体悟习近平总书记“我将无我、不负人民”的境界情怀，始终忠诚于党、忠诚于人民、忠诚于马克思主义、忠诚于纪检监察事业，真心爱党、时刻忧党、坚定护党、全力兴党。要怀着坚定信仰深学细悟，深刻体悟习近平总书记提出党的自我革命的重要思想是从全局、长远、大势、规律上作出的战略考量，始终坚信在党中央和习近平总书记带领下我们党完全能够依靠自身力量解决自身问题，进一步增强政治认同、思想认同、理论认同、情感认同，以永远在路上的坚韧和执着把党的自我革命进行到底。要怀着强烈使命深学细悟，深刻体悟党中央和习近平总书记明确的目标任务、赋予的职责使命，带头贯彻自我革命要求，强化斗争精神和斗争本领养成，把纪检监察工作思路举措搞得更加科学、更加严密、更加有效，推动全党把每条战线、每个环节的自我革命抓具体、抓深入。', '2024年是中华人民共和国成立75周年，是实现“十四五”规划目标任务的关键一年。做好今年工作，要坚持以习近平新时代中国特色社会主义思想为指导，全面贯彻落实党的二十大和二十届二中全会精神，深入学习贯彻习近平总书记关于党的自我革命的重要思想，坚决落实全面从严治党战略方针，深刻领悟“两个确立”的决定性意义，增强“四个意识”、坚定“四个自信”、做到“两个维护”，坚持稳中求进工作总基调，巩固拓展主题教育和教育整顿成果，忠诚履行党章和宪法赋予的职责，推动健全全面从严治党体系，纵深推进正风肃纪反腐，纵深推进新征程纪检监察工作高质量发展，为全面推进中国式现代化提供坚强保障。', '学深悟透习近平新时代中国特色社会主义思想是一个日积月累、常学常新的过程，必须在真学真懂真信真用上下功夫，使党的创新理论真正融会于心、见之于行。要在深化上持续用力，健全并严格执行“第一议题”制度、集体学习制度，把学习贯彻习近平新时代中国特色社会主义思想特别是习近平总书记关于党的自我革命的重要思想作为纪检监察干部教育培训主题主线，全方位、深层次、多角度宣传解读，切实增强学习的系统性、针对性、实效性。在内化上持续用力，把握好这一重要思想的世界观和方法论，坚持好、运用好贯穿其中的立场观点方法，深刻领会其中的道理学理哲理，从中汲取奋进力量。在转化上持续用力，紧密结合纪检监察工作实践，强化调查研究和专题研讨，自觉从党的创新理论中找理念、找思路、找方法、找举措，不断把学习成果转化为正风肃纪反腐的实际成效。', '“两个维护”是党的最高政治原则和根本政治规矩。必须把“两个维护”作为政治监督根本任务，推动全党深刻领悟“两个确立”的决定性意义，始终把“两个维护”体现在实际行动上。', '把严明党的政治纪律和政治规矩摆在突出位置。聚焦政治忠诚，及时发现、着力解决“七个有之”问题，坚决纠治“低级红”、“高级黑”。聚焦政治安全，对在党内搞政治团伙、小圈子、利益集团的人决不手软，及时消除政治隐患。聚焦政治责任，把监督重点放在推动各级党委（党组）和领导干部特别是“一把手”担当领导责任上。聚焦政治立场，督促党员干部坚决站稳党性立场和人民立场，始终为党尽责、为民造福。聚焦党内政治生活，督促各级党组织落实民主集中制，进一步增强政治功能和组织功能。', '紧紧围绕党中央大政方针和习近平总书记重要指示批示加强政治监督。坚持党中央重大决策部署到哪里，政治监督就跟进到哪里，把政治监督和日常监督紧密结合，保持高度的政治敏锐性，从政治上看、政治上查，把准政治方向、落实政治要求，善于从工作偏差中发现政治问题，从倾向性苗头性问题中发现政治端倪。研究制定纪检监察机关开展政治监督工作办法，开展提高政治监督能力专题培训。常态化开展党中央重大决策部署和习近平总书记重要指示批示落实情况“回头看”，健全对跨地区跨部门重大战略的协同监督机制，确保贯彻到位。', '反腐败斗争已经进入深水区，绝对不能回头、不能松懈、不能慈悲，必须持续发力、纵深推进，一体推进不敢腐、不能腐、不想腐，同时发力、同向发力、综合发力，不断铲除腐败滋生的土壤和条件。', '强化反腐败高压态势，纵深推进“不敢腐”。坚持态度不变、力度不减、重心不偏，继续紧盯重点问题、重点领域、重点对象、新型腐败和隐性腐败，把严惩政商勾连的腐败作为攻坚战重中之重，坚决防止利益集团、权势团体向政治领域渗透。坚持个案查处与系统整治相结合，深化整治金融、国企、能源、烟草、医药、基建工程和招投标等权力集中、资金密集、资源富集领域的腐败。坚持向基层延伸，坚决惩治群众身边腐败问题，瞄准教育、就业、医疗等民生领域的痛点难点开展集中整治；深化乡村振兴领域不正之风和腐败问题专项整治，推进扫黑除恶“打伞破网”常态化机制化。坚持统筹国际国内两个战场，持续开展“天网行动”，加大追逃追赃力度，加强“一带一路”廉洁建设，集中整治跨境腐败问题。', '强化以案促改、以案促治，纵深推进“不能腐”。常态化做好查办案件“后半篇文章”，做到既善于发现问题又善于推动解决问题。加强类案分析，提出有针对性、说服力的整改意见，督促协同有关部门开展专项治理。完善纪检监察建议的提出、督办、反馈和回访监督机制，增强刚性约束，防止“一发了之”。推动重点领域体制机制改革，促进完善公共资源配置、公共资产交易、公共产品生产等领域市场运行机制，加快推动新兴领域治理机制建设，把权力关进制度的笼子。', '强化正反两方面教育，纵深推进“不想腐”。把新时代廉洁文化建设融入党的宣传思想文化工作，充分挖掘优秀传统廉洁文化丰富内容，积极宣传廉洁理念、廉洁典型，注重家庭家教家风建设。创新警示教育方式，深刻剖析典型案例，建立健全以案说德、以案说纪、以案说法、以案说责机制，推动形成廉荣贪耻的社会氛围。', '强化受贿行贿一起查，纵深推进铲除“围猎”这个政治生态污染源。严惩行贿行为，坚决查处那些老是拉干部下水、危害一方的行贿人，完善对重点行贿人的联合惩戒机制，通报典型案例以正视听。严查利益链条，加大对行贿所获不正当利益的追缴和纠正力度，加大对政商“旋转门”、“逃逸式辞职”治理力度，严惩政治骗子，强化对行贿、介绍行贿、洗钱等腐败关联犯罪的全链条惩治。', '强化完善反腐败工具箱，纵深推进反腐败能力建设。坚定扛起反腐败职责，有力有效协助党委组织协调反腐败工作，继续加大审计等移送问题线索查处力度。坚持用法治思维和法治方式惩治腐败，持续推进反腐败国家立法，研究制定反跨境腐败法，推动用好缺席审判和违法所得没收程序。建立腐败预警惩治联动机制，加大对新型腐败和隐性腐败的甄别和查处力度。', '制定实施中央八项规定，是我们党在新时代的徙木立信之举，赢得了党心民心，厚植了执政根基，必须常抓不懈、久久为功，坚决筑牢中央八项规定堤坝。', '坚决防止享乐主义、奢靡之风反弹回潮。对违规吃喝开展专项整治，严查“吃公函”、“吃食堂”、“吃老板”、“吃下级”等问题，坚决防止金融、国企等单位公务接待“特殊论”。有效防治隐形变异现象，精准发现、从严处理“快递送礼”以及借培训考察、党建活动等名义公款旅游问题。健全风腐同查同治工作机制，既“由风查腐”，防止“以风盖腐”，深挖不正之风背后的请托办事、利益输送等腐败问题，又“由腐纠风”，细查腐败背后的享乐奢靡等作风问题。', '重拳纠治干部群众反映强烈的形式主义、官僚主义。坚持从领导机关抓起、领导干部改起，以抓好“关键少数”促进党风政风根本好转。紧盯影响党中央决策部署落实落地现象，坚决纠治口号响落实差、搞本位主义、做表面文章等问题。紧盯影响高质量发展的不作为乱作为现象，深入整治贪大求洋、任性决策、敷衍塞责、冷硬横推等问题。紧盯加重基层负担现象，持续纠治文山会海、督查检查调研扎堆、工作过度留痕、任务层层加码、“指尖上的形式主义”等问题。紧盯权力观扭曲、政绩观错位现象，着力纠治急功近利、竭泽而渔、劳民伤财搞政绩工程、数据造假等问题。完善细化对形式主义、官僚主义的惩戒机制，推动党员干部多在实效上用真功夫、少在形式上动歪脑筋。', '纪律是管党治党的“戒尺”，必须把严的标准树立起来、把严的纪律执行起来，推动广大党员干部切实养成纪律自觉。', '以学习贯彻新修订的纪律处分条例为契机加强纪律教育。认真开展党纪学习教育，深入学习习近平总书记关于党的纪律建设的重要论述，延伸学习应知应会党内法规和国家法律清单，推动党员干部把遵规守纪刻印在心。坚持经常性和集中性教育相结合，举办省部级干部党风廉政建设专题研讨班，开展领导干部纪律教育专题培训。加大对年轻干部、新提任干部的纪法培训、廉政提醒力度，特别是重要岗位干部要做到纪法轮训全覆盖，着力解决对党规党纪不上心、不了解、不掌握等问题。', '以准确规范运用“四种形态”为导向严格纪律执行。准确把握政策策略，注重纪法情理贯通融合，把思想政治工作贯穿始终。加强对运用“四种形态”情况的动态分析与监督检查，及时发布典型案例，推动精准定性量纪执法。推动“三个区分开来”具体化、规范化，依法依规严肃查处诬告陷害行为，促进党员干部廉而有为、勤勉敬业，促进全党既有秩序又有活力。', '以压紧压实政治责任为抓手凝聚管党治党合力。督促党委（党组）切实担负主体责任，党组织主要负责人切实担负第一责任人责任，领导班子成员认真履行“一岗双责”，严格执行纪律，坚持抓早抓小，敢于动真碰硬。推动党委（党组）主体责任、纪委（纪检组）监督责任、职能部门监管职责同向发力，健全各负其责、统一协调的责任格局。推动把责任落实、开展纪律建设情况列入模范机关创建和党建述职评议考核内容。完善问责制度及程序，健全重点领域重点问题问责提级审核、问责案件评查等制度，防止和纠正问责不力、问责泛化、“求快不求准”等问题。', '巡视本质是上级党组织对下级党组织履行党的领导职能责任的政治监督。必须坚守政治巡视定位，深入查找政治偏差，更好发挥巡视综合监督作用。', '扎实推进巡视全覆盖。统筹部署2024年巡视巡察重点工作，坚持板块轮动、整体推进，打破常规套路，穿插运用多种方式，深入探索提级巡视、联动巡视，不断提高巡视发现问题的能力和水平。持续完善巡视巡察工作格局，加强对省区市巡视工作的指导督导，建立对中央单位内部巡视分板块、分行业指导的工作机制。召开对村巡察工作推进会，全面推动市县巡察向基层延伸。', '学习贯彻巡视工作条例。深入开展宣传解读和政策辅导，加强督促检查，推动条例要求落实落地。加强配套制度建设，协助党中央修订《被巡视党组织配合中央巡视工作规定》，修订《中央巡视组工作规则》等，健全巡视组组长、副组长选配机制，进一步提升巡视工作制度化规范化水平。', '优化巡视整改工作机制。建立覆盖巡视整改全周期的责任体系和制度流程，研究探索整改评估机制、问责机制。建设应用巡视整改监督管理平台，加强统筹协调、跟踪督促、汇总分析，对矛盾集中、问题突出单位采取整顿的方式抓整改，对重点问题整改情况集中开展监督检查。', '规范化、法治化、正规化是纪检监察工作高质量发展的内在要求和重要保障。必须持续深化纪检监察体制改革，不断健全法规制度，增强纪检监察工作的严肃性、权威性和公信力。', '完善系统集成、协同高效的纪检监察工作体系。加强内部力量统筹，完善纪委监委机关内设机构设置、职能配置、力量配备。推进纪检监察工作双重领导体制具体化、程序化、制度化，健全重要情况请示报告制度，完善市县两级纪委监委查办案件提级管辖和指定管辖制度。深化派驻机构改革，加强直接领导、统一管理，制定加强中管高校纪检监察机构与地方纪委监委联合开展审查调查的意见，指导各省区市纪委监委开展向省属高校和国有企业派驻纪检监察组试点，在垂管系统省级以下单位开展涉嫌职务犯罪案件管辖和监察措施使用改革试点。持续完善“组组”协同监督、“室组”联动监督、“室组地”联合办案机制。加强机关事业单位、企业等基层纪委建设。深化数据资源开发利用，建设纪检监察一体化工作平台，推动数字技术深度融入纪检监察各项业务，促进全要素覆盖、全流程贯通、全领域标准、全系统共享。', '健全科学严密、系统完备的纪检监察法规制度体系。一体履行党内法规和监察法规制定职责，协助党中央修订《党组讨论和决定党员处分事项工作程序规定（试行）》、《农村基层干部廉洁履行职责若干规定（试行）》等。围绕一体推进不敢腐、不能腐、不想腐，推进作风建设常态化长效化等完善基础性法规制度。加强监督执纪执法标准化建设，制定或修订纪检监察机关开展诫勉工作办法等，进一步规范涉案财物管理，加强案件质量评查，确保执纪执法权正确行使。', '推动健全党统一领导、全面覆盖、权威高效的监督体系。完善纪检监察专责监督体系，持续推进纪律监督、监察监督、派驻监督、巡视监督统筹衔接常态化制度化。完善以党内监督为主导、各类监督贯通协调机制。加强纪法衔接，完善监察执法与刑事司法衔接机制，促进监察机关与司法机关、执法部门在办理职务违法犯罪案件中互相配合、互相制约。自觉接受人大监督，依法有序做好国家监委向全国人大常委会报告专项工作。完善基层监督体系，优化基层纪检监察机构设置，统筹用好县乡监督力量，推动加大基层监督办案力度。聚焦“关键少数”，完善加强对“一把手”和领导班子监督的制度措施。', '面对伟大而艰巨的党的自我革命事业，必须以彻底的自我革命精神锻造高素质专业化纪检监察队伍。中央纪委常委会要带头加强自身建设，认真贯彻民主集中制，严于律己、严负其责、严管所辖，带动全系统做自我革命的表率、遵规守纪的标杆，永葆忠诚干净担当、敢于善于斗争的铁军本色。', '在思想上勇于自我革命。坚持常扫心灵灰尘、常清思想垃圾，坚决防止信仰迷茫、精神迷失；坚决防止西方腐朽价值观念的侵蚀。贯彻实施纪检监察系统教育培训工作规划，积极稳妥推进纪检监察学科建设，常态化开展政治教育、党性教育，弘扬伟大建党精神，继承纪检监察机关光荣传统，始终做到绝对忠诚、绝对可靠、绝对纯洁。做深做实干部政治素质考察，引导干部不断提高政治判断力、政治领悟力、政治执行力。', '在作风上勇于自我革命。坚持牢记“三个务必”、践行“三严三实”，坚决防止爱惜羽毛、当“好好先生”；坚决防止瞻前顾后、患得患失、给自己留后路；坚决防止马虎懈怠、简单任性。始终保持战略定力、坚定斗争意志，坚持原则、勇于亮剑，敢斗善斗、担当尽责，在重大政治原则和大是大非问题上旗帜鲜明、无私无畏，在同歪风邪气和腐败现象作斗争时，不信邪、不怕鬼、不怕压。树立正确政绩观，坚持实事求是、客观公正，严格依规依纪依法，深入细致做好各项工作。', '在廉洁上勇于自我革命。坚持自身硬首先要自身廉，坚决防止执纪违纪、执法违法，利用监督执纪执法权和职务影响力谋取私利；坚决防止放弃原则、清廉失守，损害纪检监察机关公信力和党的形象。常态化检视干部队伍存在的突出问题，找准纪检监察权力运行风险背后的深层次原因，抓到底、改到位、治到根。坚持刀刃向内清除害群之马，坚决防治“灯下黑”。用好身边人身边事，引导纪检监察干部以案为鉴、守牢底线。严格管好家人亲属，永葆清正廉洁。', '在严管上勇于自我革命。坚持以严的标准审视自己，坚决防止“护犊子”心态，对问题睁一只眼闭一只眼；坚决防止“带病提拔”、“带病上岗”。坚持党管干部原则，树牢选人用人正确导向，着力选拔长期奋战在艰苦岗位，关键时刻能扛重活、敢打硬仗、业绩突出的干部，探索建立纪检监察干部“上派下挂”机制和人才库，有序开展干部轮岗交流，完善年轻干部培养选拔链条。切实履行自身建设主体责任，全面了解掌握干部思想状况，发现问题敢抓敢管，对不适合在纪检监察岗位工作的干部及时调整，做细做实对干部的经常性监督。主动邀请特约监察员参与有关工作，更好发挥监督作用。坚持严管厚爱结合，完善监察官职业保障配套制度，激励干部安心履职、担当作为。', '同志们，全面从严治党永远在路上，党的自我革命永远在路上，纪检监察工作使命光荣、任重道远。让我们更加紧密团结在以习近平同志为核心的党中央周围，勠力同心、忠诚履职，以一往无前的奋斗姿态、永不懈怠的精神状态推进新征程纪检监察工作高质量发展，为以中国式现代化全面推进强国建设、民族复兴伟业提供坚强保障！']</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A88" t="n">
+        <v>23</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
           <t>临汾市注册在岗大学生乡村医生年公开招聘面试成绩及体检考察有关事项的公告</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>2024-03-13</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>http://wjw.linfen.gov.cn/zzzb/bmyw_10596/202403/t20240313_326374.html</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>['临汾市注册在岗大学生乡村医生2024年公开招聘面试成绩及体检考察有关事项的公告-部门要闻_10596-临汾市卫生健康委员会', '根据《临汾市注册在岗大学生乡村医生2024年公开招聘公告》要求及面试结果，现将面试成绩及体检考察有关事项公告如下：', '市注册在岗大学生乡村医生2024年公开招聘公告》要求及面试结果，现将面试成绩及体检考察有关事项公告如下：', '临汾市注册在岗大学生乡村医生2024年公开招聘面试已于2024年3月13日结束。本次体检考察对象为面试成绩合格的注册在岗大学生乡村医生。面试成绩及体检名单见附件1。', '日结束。本次体检考察对象为面试成绩合格的注册在岗大学生乡村医生。面试成绩及体检名单见附件1。', '考生需于2024年3月18日7：30前，在临汾市卫生健康委员会（临汾市向阳路82号）集合报到，集合后统一前往体检医院，费用由考生自理。', '体检标准按照《关于修订公务员录用体检通用标准试行及公务员录用体检操作手册试行有关内容的通知》（人社部发〔2016〕140号）执行。考生对体检项目结果有疑问时，可以在接到体检结论通知之日起7日内提交复检申请，体检结果以复检结论为准。对因怀孕不能全部完成体检项目的，按国家相关政策执行。', '1.考生需持本人有效身份证原件按时报到。凡证件与本人不符或无证件者，不得参加体检。迟到或未参加体检的视为自动放弃聘用资格。', '2.考生须空腹参加体检，体检前注意休息，请勿进食、饮水、饮酒，避免剧烈运动；佩戴框架眼镜，禁止佩戴隐形眼镜；体检时尽可能穿宽松便装，避免化妆，避免穿连衣裙、连袜裤、带钢托的文胸、带金属片的内衣等；体检结束后，请配合医生认真核对确定完成所有检查项目，勿漏检，否则取消聘用资格。', '4.女性受检者月经期间请勿做妇科及尿检检查；怀孕或可能怀孕考生勿做妇科及X光等项目的检查，统一进行登记，待经期或孕期完毕后统一补检。其他考生不安排补检。', '具体考察时间安排由临汾市卫生健康委员会确定，并提前电话通知考生本人，请考生务必保持通讯畅通。', '重点考察人选政治素质、道德品行、能力素质、心理素质、学习和工作表现、遵纪守法、廉洁自律、岗位匹配度以及是否需要回避等方面的情况。', '1.临汾市注册在岗大学生乡村医生公开招聘人员考察表（附件2）正反打印，表中信息需与报名表一致。', '注册在岗大学生乡村医生公开招聘人员考察表（附件2）正反打印，表中信息需与报名表一致。', '如有疑问请及时与临汾市卫生健康委员会联系。如因考生个人原因无法进行考察的，责任自负。', '附件1：临汾市注册在岗大学生乡村医生2024年公开招聘面试成绩及体检人员名单.xlsx']</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A89" t="n">
+        <v>23</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
           <t>山西省卫健委一行在北京大学中国人民大学考察交流</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>2024-01-13</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>https://www.shanxi.gov.cn/ywdt/sxyw/202401/t20240113_9482614.shtml</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>['1月12日，山西省卫生健康委党组书记、主任张波带队赴北京大学、中国人民大学进行考察交流。北京大学党委常委、副校长董志勇，中国人口学会会长、中国人民大学人口与发展研究中心主任翟振武等出席活动。', '北京大学是中国近现代第一所国立综合性大学，在全国乃至世界享有盛誉。在北京大学临湖轩，张波主任与董志勇副校长就加强委校合作进行了深入交流。张波对北京大学长期以来给予山西卫生健康事业的大力支持与帮助表示感谢。他说，近年来，山西省委、省政府高度重视卫生健康工作，把保障人民健康放在优先发展的战略位置，纳入全省经济社会转型发展和民生建设大局统筹推进。山西省卫生健康委按照省委、省政府“建高地、兜网底、提能力”总体布局和安排，扭住重大项目、人才科技、“一老一小”等关键，大力发展优质医疗资源，全面推动“健康山西”建设，积极构建事业发展新格局。希望北京大学继续发挥人才优势、科研优势、专业优势、医疗优势，在人口发展、学科建设、人才培养、科技创新、健康服务、深化医改等领域支持山西卫生健康事业。', '董志勇代表北京大学对张波主任一行来访表示欢迎。他表示，北京大学与山西联系紧密，有良好的合作基础，将与山西医疗卫生领域进一步加强务实交流，力争在智库建设、战略研究、人才培养、科技创新、国际交流、健康服务等全方位深化拓展丰富合作内容，以高水平协作机制助力山西卫生健康事业高质量发展。', '中国人民大学是一所以人文社会科学为主的综合性研究型全国重点大学，是我国人文社会科学高等教育领域的一面旗帜，尤其是人口与发展领域学科门类齐全，师资力量雄厚，培养体系完整，在学科建设、科学研究、人才培养、资政启民等方面均具有重要影响。张波一行与翟振武、段成荣、宋健等部分人口领域知名专家学者进行了座谈交流。双方同意携手建立全新的、更加紧密的合作关系，以交流为平台，以项目为纽带，借助中国人民大学雄厚的专业力量，深化委校人口与经济社会发展等重大问题研究，为山西人口高质量发展提供决策参考。', '山西省卫生健康委相关负责人，北京大学、中国人民大学相关部门负责人及相关领域专家一同参加活动。']</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A90" t="n">
+        <v>23</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
           <t>尧都区年补充招聘事业单位工作人员大学毕业生到村社区工作及公开招聘专职社区工作者体检考察公告</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>2024-01-23</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>http://www.yaodu.gov.cn/xwzx/tzgg/202401/t20240123_308203.html</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>['尧都区2023年补充招聘事业单位工作人员、大学毕业生到村（社区）工作及公开招聘专职社区工作者体检、考察公告', '尧都区2023年补充招聘事业单位工作人员、大学毕业生到村（社区）工作入围体检、考察环节的10名考生及公开招聘专职社区工作者的110名考生（具体名单见附件）。', '请考生按规定时间到尧都区人民医院体检中心集合，体检费用考生自理，由体检医院按照国家规定的收费标准向考生统一收取。', '1.考生需持本人有效身份证、面试通知单和1张近期一寸红底免冠照片，到指定医院体检。凡证件与本人不符或证件不全的考生，不得参加体检。凡迟到30分钟或未按规定时间、地点报到的，视为自愿放弃。', '2.体检应保持平和心态，不要过于紧张，不要熬夜。体检前，要注意饮食，不要吃过多油腻、不易消化的食物，不饮酒，不要服用对肝、肾功能有损害的药物。避免剧烈运动和情绪激动，保证充足睡眠，以免影响体检结果。体检前8-12小时内应禁食、禁水，保持空腹。', '3.要注意个人卫生。体检当日请着轻便服装，请勿佩戴首饰，勿穿有金属扣子的内衣裤，勿穿连衣裙、连体裤、长筒袜及胸口带有金属、水钻、亮片等饰品的衣服（物品），请勿化妆、佩戴美瞳及隐形眼镜。', '4.体检期间实行封闭管理，考生应严格遵守体检纪律，接受工作人员的统一管理，不准携带各种通讯、电子设备进行体检，已带入医院的按要求统一存放，接受工作人员检测。考生亲属及其他无关人员不得前往体检地点，考生不得以任何方式与外界联系，违者取消聘用资格。', '5.在体检过程中，考生一律佩戴各组抽签顺序号，不得向医务人员透露本人姓名、报考岗位等信息；不得弄虚作假、不得隐瞒病史，一经发现有舞弊行为的，取消其聘用资格。', '6.女性考生月经期间勿做妇科及尿液检查，统一进行登记，待经期完毕后再补检。怀孕或可能已受孕的考生，事先告知医护人员，勿做X光及妇科检查。', '考察工作从2024年1月29日开始，届时具体事项将电话通知考生，请考生务必保持通讯畅通，如有通讯方式变更请及时与尧都区委组织部联系。']</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A91" t="n">
+        <v>23</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
           <t>中化学城市投资有限公司来浮考察座谈</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>2024-01-28</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>http://www.fushan.gov.cn/xwzx/zwyw/202401/t20240130_310890.html</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>['1月26日，中化学城市投资公司山西区域总经理赵炜一行在我县考察座谈。县委常委、政府副县长盖勇，县委常委、宣传部长梁博出席座谈会，县发改工信和科技商务局、规划和自然资源局、生态环境分局、应急管理局、农业农村和水利局、城建和交通局、促投中心、产业集聚区、水务公司、发展建设公司主要负责人参加会议。', '座谈会上，梁博介绍了我县县情概况和天坛化工园区基本情况，赵炜介绍了公司基本情况及合作投资意向，与会人员就自身资源优势、投资环境、发展定位等进行交流探讨。', '盖勇代表县委、县政府对中化学城市投资有限公司一行的到来表示欢迎，他指出，我县文化底蕴深厚，区位交通优越，资源禀赋丰富，县委、县政府紧紧围绕高质量发展，打造一流营商环境，以优惠的政策、高效的服务、安全稳定的环境，为项目落地和企业发展创造良好条件。目前，我县正处于项目建设的加速期，发展前景广阔，发展潜力巨大，希望此次考察双方能深入对接交流，充分发挥各自优势，谋求合作切入点，在全方位、广领域、多层次上寻求突破，以高质量项目推动高质量发展 ，实现互惠互利、企地互赢、共同发展。', '赵炜表示，下一步中化学城市投资有限公司将在浮山继续进行深入考察，整合各方资源力量，加强沟通，深入对接合作事宜，并积极发挥企业优势，疏通双方全方位合作路径，找准合作切入点，提高合作效益，推进多层次合作共赢，助力地方经济社会高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A92" t="n">
+        <v>23</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
           <t>县委副书记县长杜斌带队在北京电影学院影视文化产业创新园参观考察</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>2024-01-28</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>https://mp.weixin.qq.com/s/ELla2LEko372S8i2DiAV3Q</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>['近日，县委副书记、县长杜斌带队在北京电影学院影视文化产业创新园参观考察，并慰问襄汾参加央视《“四海同春”2024全球华侨华人春节大联欢》节目录制的丁陶鼍鼓表演团演职人员。副县长李晓斌、樊国琴参加活动。', '在参观北京电影学院影视文化产业创新园时，杜斌一行认真听取相关情况介绍，详细了解园区的整体发展、运营模式。据了解，北京电影学院影视文化产业创新园平房园区2017年投入运营，是北京市首批市级文化创意产业园区和市级众创空间。开园以来，多档央视、地方卫视、网络平台的综艺节目在此完成拍摄制作，组织各类文化交流活动近千场，以文化内容生产为核心，孵化了百余家文化小微企业。', '杜斌指出，襄汾县文化底蕴深厚、文旅资源丰富，要坚定发展信心，认真学习借鉴北京电影学院文创园在规划建设、产业融合等方面的经验做法，结合襄汾实际加以吸收及创新，积极培育新型文化业态与消费模式，加快推动襄汾文旅产业高质量发展。', '考察期间，杜斌专程前往北京电影学院星影录制中心，慰问襄汾参加央视《“四海同春”2024全球华侨华人春节大联欢》晚会节目录制的丁陶鼍鼓表演团演职人员。他强调，鼍鼓演出体现着尧文化的传承，大家在舞台上的表现，代表着襄汾形象、代表着襄汾精神、代表着襄汾水平，要在思想上高度重视，深刻认识参加此次活动的重大意义。要调整心态，全力以赴，精益求精，向观众呈现具有襄汾地方特色的精彩展演。同时相关部门要做好后勤服务，为演出圆满成功提供坚强保障。']</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A93" t="n">
+        <v>23</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
           <t>充满信心把日子过得更好习近平总书记在天津考察时的重要讲话激励广大干部群众凝心聚力勇敢奋进</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>2024-02-03</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>https://www.gov.cn/yaowen/liebiao/202402/content_6929862.htm</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>['“充满信心，把日子过得更好”——习近平总书记在天津考察时的重要讲话激励广大干部群众凝心聚力勇敢奋进__中国政府网', '“充满信心，把日子过得更好”——习近平总书记在天津考察时的重要讲话激励广大干部群众凝心聚力勇敢奋进', '新华社北京2月2日电 题：“充满信心，把日子过得更好”——习近平总书记在天津考察时的重要讲话激励广大干部群众凝心聚力勇敢奋进', '题：“充满信心，把日子过得更好”——习近平总书记在天津考察时的重要讲话激励广大干部群众凝心聚力勇敢奋进', '“国泰民安，民安才能国泰，党中央和各级党委、政府时刻记挂着大家的安危冷暖”“大家对新的一年要充满信心，把日子过得更好”，甲辰春节即将到来之际，习近平总书记2月1日至2日赴天津看望慰问基层干部群众，向全国各族人民致以美好的新春祝福。', '真挚而深情的话语，给广大干部群众送来节日的温暖，激励实干信心、凝聚奋进力量。大家表示，新时代新征程上，要在习近平新时代中国特色社会主义思想指引下，勇担使命、开拓进取，全面建设社会主义现代化国家，奋力谱写中国式现代化新篇章。', '2月2日，正逢农历北方小年，天津市西青区辛口镇第六埠村随处可见喜气洋洋的“中国红”，街道两边的树上缀满了红彤彤的小灯笼。', '“去年，我们这里遭了洪水，大片土地被淹。这次总书记来到我家，一笔一笔帮我们算灾情损失和灾后生产发展、就业增收账，嘘寒问暖、无微不至，让我们心里暖意洋洋。”第六埠村村民杜洪刚说。', '杜洪刚经营着10多亩地，2个大棚种植的蔬菜即将丰收。“洪水退去后，政府第一时间帮助村民们翻修大棚，很快就恢复生产，补贴款和保险赔付也及时发放了。党和政府关怀备至，让我们过个幸福年。”', '作为天津市重要“菜篮子”保障基地之一，西青区辛口镇因灾受损的蔬菜大棚如今已经恢复元气，重燃“绿色”的希望。', '习近平总书记的深切关怀，让天津市西青区委书记朱财斌备受鼓舞：“我们将加快推进高标准农田建设，谋划实施老旧棚室提升改造，抓好蔬菜粮食稳产保供，有序恢复特色乡村旅游项目，多措并举带动父老乡亲增产、增收，过上更加美好的新生活。”', '房屋鳞次栉比，道路整洁干净，不少村民的院子里挂起彩灯……黑龙江省尚志市老街基乡龙王庙村，这个去年同样遭受过洪涝灾害的村庄，如今面貌焕然一新。', '“我们牢记总书记的嘱托，坚持以人民为中心，确保百姓在天冷之前就住上暖屋子，过上祥和、温暖的新年。”龙王庙村第一书记刘力嘉说，村子率先完成168栋受损房屋重建置换维修工作，基础设施及时恢复，重建或修复育苗大棚100余栋，全力为2024年春耕生产打好基础。“新的一年，我们要倍加努力，通过成立合作社等具体举措，让村民日子越过越好。”', '春节将至，甘肃省积石山县的震后安置点年味渐浓。红色小福字连成的挂件随处可见。有的安置点在排演春节节目，妇女们编练广场舞，孩子们表演诗朗诵。', '“总书记说，依靠自己的双手重建美好家园，创造幸福生活。总书记的话激励我在龙年以生龙活虎的干劲把日子过得越来越好。”来自大河家镇陈家村的吴志林准备过了年开始维修加固自家房子，“现在镇上基本都复工复产了，我爱人每天去镇上蛋糕店帮工。开春以后，大规模的重建就要动工，男人们都希望多学点技能，自家重建能用上，还能在家门口就近就业。”如今，吴志林已从安置点办的电焊培训班拿到结业证书，正备考初级焊工证。', '喜庆的灯笼、红色的门楼、热闹的舞狮表演……古色古香的天津古文化街上一派节日气象。桂发祥十八街麻花、果仁张、泥人张、杨柳青年画等特色店铺，吸引着八方来客。', '“要保护和利用好历史文化街区，使其在现代化大都市建设中绽放异彩。”现场聆听了习近平总书记的叮嘱，天津市南开区委书记马珊珊思考良多，“历史文化街区蕴含丰富的历史价值和城市独特的文化底蕴，只有激活历史文化街区的生命力，才能充分彰显城市特色风貌，延续城市文脉、提升城市文化软实力。”', '佳节临近，江苏苏州平江路上铺开年味大集。一条用国家级非遗苏州灯彩技艺打造的“金龙”，引来众多游客围观拍照。', '“农历新年是龙年，龙在中华文化中有着勇敢奋进、活力无穷、吉祥如意等多重寓意，寄托着美好的愿景。”习近平总书记的一席话，给出身苏绣世家的潘乃舒带来不少灵感。', '“总书记关心着优秀传统文化的继承和弘扬。我们这些非遗传承人充满干劲。我要接好传承苏绣的接力棒，结合龙年元素，创作更多受年轻人喜爱的作品，进一步保护好、弘扬好苏绣文化。”潘乃舒说。', '千里之外，一场精彩的“陕北过大年”活动正在陕西省榆林市绥德县吉镇镇综合文化站前举行。高亢的唢呐声中，男女老少扭起秧歌，民俗活动热闹非常。', '“以文化人、以文惠民、以文润城、以文兴业”，习近平总书记的话令绥德县副县长李光辉更加明确了工作方向。', '“近年来，绥德县在发展‘旅游+’新业态和推动‘红色绥德’建设上取得诸多成效，文旅产业正在成为推动绥德县域经济高质量发展的新引擎。”李光辉说，“我们要沿着总书记指明的方向，加强历史文化遗产和红色文化资源保护，打造具有鲜明特色和深刻内涵的文化品牌，持续推动文旅产业多元化发展。”', '“习近平总书记强调对中国革命战争史要学而时习之。”平津战役纪念馆馆长姚剑波感慨地说，“总书记春节前夕来到红色场馆，令人感受到浓浓的家国情怀。作为全国爱国主义教育示范基地、全国青少年教育基地，我们今后要着力让红色资源走出纪念馆，走向学校、走向社会，让更多人懂得珍惜来之不易的红色江山，增强前行的力量。”', '2月2日，天津港“智慧零碳”码头上，往返中国与欧洲的集装箱货轮紧张作业，数十台人工智能运输机器人往来穿梭，将来自京津冀的各类产品快速装船……作为京津冀海上门户，2023年，天津港集装箱吞吐量连续跨越6个百万箱台阶，增速持续保持世界十大港口前列。', '“总书记希望天津聚焦经济建设这一中心工作和高质量发展这一首要任务，以推进京津冀协同发展为战略牵引，这也是我们天津港应该承担的职责。”认真学习习近平总书记的重要讲话，天津港集团党委书记、董事长褚斌振奋地表示，站在新的起点上，天津港将努力打造绿色港口、智慧港口、枢纽港口“升级版”，助力增强京津冀城市群整体竞争力。', '从交通路网不断织密，到海河流域治理持续推进……近年来，京津双城联动不断拓展广度和深度，推动一系列重点领域协调发展呈现新气象。', '“要加强与北京的科技创新协同和产业体系融合，合力建设世界级先进制造业集群。”习近平总书记的话让北京市发展改革委主任、市京津冀协同办主任杨秀玲对下一步工作有了更清晰的认识。', '“下一步，我们将以改革开放作为事业发展的根本动力，进一步推动‘新两翼’建设协同发力，唱好京津‘双城记’，把北京科技创新优势和天津先进制造研发优势结合起来，共同推动京津冀产业链图谱落地，在发展新质生产力上勇争先、善作为，推动先进制造业集群向‘世界级’迈进。”杨秀玲说。', '冬日的雄安新区，启动区建设工地上塔吊林立，“金芦苇”造型的中国中化大厦如今每过7天便“长高”一层。远处，东西轴线、雄忻高铁、京雄快线等重大工程加快建设。', '“总书记在考察时提出积极实施城市更新行动，增强发展潜力、优化发展空间，推动城市业态、功能、品质不断提升。这为现代化城市建设提供了根本遵循。”雄安新区启动（起步）区指挥部常务副指挥长王占龙说。', '“把保障居民安居乐业作为头等大事”“让人民群众不断有新的获得感”，习近平总书记的一番话说到了河北省保定市唐县居民朱剑涛的心坎里。', '“这几年，从开通定制快巴提升跨省上班族通勤效率，到异地就医实现‘一卡通行’，从生活变化的点点滴滴中，大家真切地感受到，共产党就是给人民办事的，我们的日子一定会一天更比一天好。”朱剑涛说。']</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A94" t="n">
+        <v>23</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
           <t>中共中央政治局召开会议习近平主持审议中央政治局常委会听取和研究全国人大常委会国务院全国政协最高人民法院最高人民检察院党组工作汇报和中央书记处工作报告的综合情况报告关于在全党深入开展学习贯彻习近平新时代中国特色社会主义思想主题教育总结报告</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>2024-01-31</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>http://www.xinhuanet.com/mrdx/2024-02/01/c_1310763090.htm</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>['审议《中央政治局常委会听取和研究全国人大常委会、国务院、全国政协、最高人民法院、最高人民检察院党组工作汇报和中央书记处工作报告的综合情况报告》《关于在全党深入开展学习贯彻习近平新时代中国特色社会主义思想主题教育总结报告》《关于巩固拓展学习贯彻习近平新时代中国特色社会主义思想主题教育成果的意见》《中国共产党巡视工作条例》', '新华社北京1月31日电中共中央政治局1月31日召开会议，审议《中央政治局常委会听取和研究全国人大常委会、国务院、全国政协、最高人民法院、最高人民检察院党组工作汇报和中央书记处工作报告的综合情况报告》《关于在全党深入开展学习贯彻习近平新时代中国特色社会主义思想主题教育总结报告》《关于巩固拓展学习贯彻习近平新时代中国特色社会主义思想主题教育成果的意见》和《中国共产党巡视工作条例》。中共中央总书记习近平主持会议。', '会议对党的二十大以来全国人大常委会、国务院、全国政协、最高人民法院、最高人民检察院党组和中央书记处的工作给予充分肯定，同意其对2024年的工作安排。会议认为，党的二十大以来，5家党组坚持以习近平新时代中国特色社会主义思想为指导，围绕党和国家工作全局履职尽责，切实加强党组自身建设，为推动经济发展、保持社会稳定作出了积极贡献，各方面工作实现了良好开局。中央书记处在中央政治局、中央政治局常委会领导下，积极主动作为，在推动党中央决策部署落实、加强党内法规制度建设、指导群团建设和改革等方面做了大量有效工作。', '会议强调，2024年是新中国成立75周年，是实现“十四五”规划目标任务的关键一年，全国人大常委会、国务院、全国政协、最高人民法院、最高人民检察院党组要以习近平新时代中国特色社会主义思想为指导，坚持党中央集中统一领导这个最高政治原则，紧紧围绕推进中国式现代化这个最大的政治，持续抓好党的二十大战略部署的贯彻落实。要抓好高质量发展这个首要任务，深化改革开放，确保中央经济工作会议确定的重点任务落地落实，推动经济实现质的有效提升和量的合理增长。要树牢造福人民的政绩观，增进民生福祉，维护社会公平正义。要统筹高质量发展和高水平安全，坚持底线思维，增强斗争意识，提高斗争本领。要认真履行全面从严治党主体责任，带头贯彻执行中央八项规定及其实施细则精神，以身作则、率先垂范，把党的自我革命抓具体、抓深入。中央书记处要强化政治担当，扎实履职尽责，加强自身建设，继续高质量完成好党中央交办的各项任务。', '会议指出，学习贯彻习近平新时代中国特色社会主义思想主题教育启动以来，全党紧扣“学思想、强党性、重实践、建新功”总要求，聚焦主题主线，明确目标任务，突出以学铸魂、以学增智、以学正风、以学促干，与做好开局之年工作紧密结合，着力解决制约高质量发展问题、群众急难愁盼问题、党的建设突出问题，达到预期目的，取得明显成效。', '会议强调，要持续加强理论武装，教育引导党员干部通过坚持学习党的创新理论，悟规律、明方向、学方法、增智慧，固本培元、凝心铸魂；要持续推动解决问题，继续抓好整改整治、建章立制，让人民群众切实感受到解决问题的实际成效；要持续改进作风，落实“四下基层”，走好新时代群众路线，纠治形式主义、官僚主义，切实抓好整治形式主义为基层减负工作；要持续夯实基层基础，推进以党建引领基层治理，充分发挥基层党组织战斗堡垒作用和党员先锋模范作用；要持续抓好落实，重实干、做实功、求实效，更好将主题教育成果转化为推动高质量发展的成效。各级党委（党组）要把巩固拓展主题教育成果作为重大政治任务，扛起主体责任，不折不扣抓好落实。', '会议指出，党的十八大以来，我们党先后3次修订《中国共产党巡视工作条例》，不断推动巡视工作深化发展，完善党的自我革命制度规范体系。要坚持政治巡视定位，把“两个维护”作为根本任务，紧盯权力和责任，紧盯“一把手”和领导班子，紧盯群众反映强烈的问题，推进政治监督具体化、精准化、常态化。要在强化巡视整改上见真章、求实效，压实整改责任，完善整改机制，综合用好巡视成果，深化标本兼治。要充分发挥巡视综合监督作用，加强巡视与其他监督的贯通协调，形成监督合力。要以巡视带巡察，发挥上下联动的系统优势，扎牢织密监督网。要抓好《条例》学习宣传贯彻，加强巡视队伍自身建设，不断提高巡视工作规范化水平。']</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A95" t="n">
+        <v>23</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
           <t>西北农林科技大学头雁导师回访团到我县考察</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>2024-01-10</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>http://www.yicheng.gov.cn/xwzx/zwyw/202401/t20240110_301566.html</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>['1月9日，由西北农林科技大学农学院研究员张睿带领的“头雁”导师回访团到我县邦正农业实地考察，指导小麦种植、粮贸加工和畜牧养殖工作。省农技中心副主任齐永红等省市县相关部门负责人陪同，我县参加全省“头雁”培育的其他人员参加座谈会。', '张睿一行深入田间地头，实地查看了土壤剖面和小麦苗情，参观了共享牛场，通过实时监控了解畜牧养殖情况。', '座谈会上，县农业农村局业务人员介绍了我县农业产业概况。导师团专家们对邦正农业的发展模式给予肯定，对产业经营管理、技术推广应用、产业壮大发展等方面存在的问题提出具体意见和建议。希望邦正农业脚踏实地、保持朝气、科学规划、全面发展，积极学习借鉴全省先进典型经验，不断做大做强。', '此次“头雁”导师回访为邦正农业提供了宝贵的经验和建议，也为我县农业发展注入了新活力，有助于我县在未来发挥自身优势，推进高标准农田建设，为农业现代化作出更大贡献。']</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A96" t="n">
+        <v>23</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
           <t>李青雁张可新带队赴临汾经济技术开发区考察学习</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>http://www.huozhou.gov.cn/zzzb/hzyw/202309/t20230915_242544.html</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>['9月13日，市委书记李青雁，市委副书记、市长张可新带队在临汾经济技术开发区考察学习，推介我市投资环境和产业优势，共谋高质量发展大计。', '霍州经济技术开发区党工委书记、管委会主任张伟兴，市委常委、市委办公室主任吕文博，政府副市长胡文杰，霍州经济技术开发区党工委副书记、管委会常务副主任张卫东，霍州经济技术开发区管委会副主任马魁东、梁冰一同考察学习，经开区职能部门、市发改局、市自然资源局、市行政审批局等相关部门负责人参加考察学习。', '临汾经济技术开发区党工委书记、管委会主任白建成在出席考察学习交流座谈会中，向李青雁、张可新一行详细介绍了临汾经济开发区一年多来，在经济发展、项目建设、招商引资、优化营商环境等方面的做法和成效；临汾经济开发区规划和自然资源分局、行政审批服务部负责人介绍了标准地储备、出让及优化审批流程等工作情况；双方参会人员就管运分离、全代办服务、承诺制、专项债等方面的工作开展交流探讨。', '考察学习期间，白建成、张可新代表临汾经济开发区管委会和霍州市人民政府签订区域合作战略协议；胡文杰代表霍州市人民政府分别与三一重能股份有限公司、临汾市清洁能源开发集团有限公司签订合作协议。', '白建成在签约仪式中说，临汾、霍州携手合作，是深入贯彻落实临汾市委五届六次全会精神和李云峰书记讲话精神的具体实践，是牢牢把握临汾市大有可为的战略机遇期，主动融入全市发展大局的有力举措。下一步，期望双方通过加强合作为区域经济协同发展提供示范样板，通过深度对接充分搭建产业互补和资源共享的交流平台，通过深化沟通交流机制推进务实合作实现互利共赢。在合作中既要充分发挥各自优势，也要以他山之石琢己身之玉，着力补齐发展短板。期待在双方共同努力下，共绘发展蓝图、共架合作之桥、实现优势互补，以更加优异的成绩为临汾市高质量发展全面提质提速贡献力量。', '李青雁希望双方以此次签约为契机，充分发挥临汾开发区区位交通、金融资本、招商引资、平台搭建、项目储备、营商环境等方面的优势和霍州市自然资源、农业开发、土地要素、新能源指标、文旅资源、特色农产品等方面优势，在产业基础、公共基础设施建设、市场清洁、智能制造、数字产业等领域进行深度合作，建立起畅通有效的沟通机制，早日实现互利共赢。', '在考察学习中，李青雁、张可新一行来到临汾经济开发区甘亭工业园区临宜环保科技产业园、晶旭年产100万千瓦光伏组件项目、山西中部智造科技有限公司、中联恒创光电新能源产业园中园、甘亭污水处理厂和临汾经济开发区数字产业园进行实地考察调研，深入了解临汾经济技术开发区的发展历程、重点企业、产业结构、招商政策以及一区多园的管理机制等情况。']</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A97" t="n">
+        <v>23</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
           <t>在推动高质量发展上展现更大作为习近平总书记在广西考察时的重要讲话提振信心催人奋进</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>2023-12-16</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>https://www.gov.cn/yaowen/liebiao/202312/content_6920593.htm</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>['在推动高质量发展上展现更大作为——习近平总书记在广西考察时的重要讲话提振信心、催人奋进__中国政府网', '在推动高质量发展上展现更大作为——习近平总书记在广西考察时的重要讲话提振信心、催人奋进', '新华社北京12月15日电 题：在推动高质量发展上展现更大作为——习近平总书记在广西考察时的重要讲话提振信心、催人奋进', '题：在推动高质量发展上展现更大作为——习近平总书记在广西考察时的重要讲话提振信心、催人奋进', '“牢牢把握高质量发展这个首要任务和构建新发展格局这个战略任务”“努力在推动边疆民族地区高质量发展上展现更大作为”……', '习近平总书记近日在广西考察时发表的重要讲话，令各行各业干部群众备受鼓舞、信心倍增。大家表示，要坚持以习近平新时代中国特色社会主义思想为指引，把坚持高质量发展作为新时代的硬道理，解放思想、创新求变，凝心聚力、实干担当，把中国式现代化宏伟蓝图一步步变成美好现实。', '作为今年中央经济工作会议之后的首次地方考察，“高质量发展”是习近平总书记此次广西之行的关键词。', '“总书记强调，推动广西高质量发展，必须做好强产业的文章，加快构建现代化产业体系。这为我们未来加快推进新型工业化理清了思路、指明了方向。”广西壮族自治区工业和信息化厅厅长王永超说，广西正在谋划实施新一轮工业振兴三年行动，加快建设现代化产业体系，下一步将努力打造更多体现广西特色和优势、具有较大规模和较强带动力的支柱产业，不断增强沿边地区内生发展动力，以广西高质量发展助力推进中国式现代化。', '临近年底，安徽伏碳科技有限公司正在紧锣密鼓进行“电解二氧化碳转化装备”商业化运行前的各项准备工作。', '“习近平总书记指出，把科技创新摆到更加突出的位置。‘电解二氧化碳转化装备’正是安徽推动科技创新的典型代表。”安徽合肥高新区管委会副主任吕长富说，“未来我们将把‘创新路’和‘创业路’融合起来，为培育和发展新质生产力、推动安徽高质量发展作出更大贡献。”', '习近平总书记提出的“让生态优势不断转化为发展优势”，让湖南省环境保护科学研究院院长罗岳平深有感触。他表示，通过实施水生植被修复工程，洞庭湖部分水域加快从“水下荒漠”向“水下森林”转变。如今，人鸟和谐的生态画卷为当地带来了更多游客。“总书记的要求让我们更有信心持续推动洞庭湖产业体系绿色转型，让洞庭湖的生态优势不断转化为更大的发展优势。”', '“以产业升级助推高质量发展，以科技创新服务高质量发展，以生态优势赋能高质量发展。”国务院发展研究中心研究员龙海波说，新时代新征程上，我们要以习近平总书记重要讲话精神为根本遵循，牢牢把握高质量发展这个首要任务，为全面推进中国式现代化提供更加强劲的发展动力。', '位于广西凭祥的友谊关，一辆辆满载水果的进口货车与装满零部件的出口货车相向而行。据统计，今年前三季度，凭祥市外贸进出口额同比增长超40%。', '“习近平总书记提出，要‘主动服务国家重大战略’‘把广西打造成为粤港澳大湾区的重要战略腹地’。这指引我们要进一步解放思想、创新求变，更好服务和融入新发展格局。”凭祥市委书记武晓辉表示，凭祥将依托地处中越边境的独特位置，积极对接沿海发达地区产业新布局，全力建设产业园区，有序承接产业梯度转移，推进智慧口岸等一批重要基础设施项目建设，打造凭祥至南宁、越南北部经济区2小时产业链供应链经济圈，为促进中国与东盟国家的跨境合作发挥更大作用。', '冬日寒潮中，位于上海自贸试验区临港新片区的滴水湖金融湾正加快建设，将于2024年全面交付使用。', '上海自贸试验区临港新片区管委会制度处干部魏增涛表示，习近平总书记在广西强调“要增强内外联动，构建更有活力的开放型经济体系”。我们将深入贯彻总书记重要讲话精神，坚定不移进行制度创新，深化电信、金融、医疗等领域开放，为扩大高水平开放提供更多上海实践支撑。', '广西壮族自治区大数据发展局中国—东盟信息港建设管理处处长张海平表示，习近平总书记围绕“积极服务建设中国—东盟命运共同体”作出重要部署，我们将牢记总书记嘱托，把握合作共建中国—东盟信息港新机遇，充分发挥广西前沿窗口作用，推动数字丝绸之路从中国延伸到东盟各国，助力推动边疆民族地区高质量发展。', '正值甘蔗榨季，广西来宾国家现代农业产业园黄安优质“双高”糖料蔗基地里，蔗林在微风中泛起绿浪。', '“习近平总书记向我询问了种植甘蔗的情况，非常关心我们农民的收入和生活。”来宾市凤凰镇新隆村村民莫崇虚家里种有45亩甘蔗，年收入可达12万元。“总书记说要让广大农民共享农村改革和发展成果，我有信心今后种出更多高产高糖的好甘蔗，把生活过得更甜蜜。”', '“一根甘蔗两头甜”，一头连着蔗农，一头连着制糖企业。广西是全国最大的糖料种植基地和食糖主产区，糖料蔗种植面积和食糖产量连续19个榨季占全国60%左右。', '“延伸产业链、提高附加值”“不断提质、降本、增效”，总书记的殷殷嘱托让广西来宾东糖集团党委书记林伟民感觉重任在肩。他表示，下一步企业将继续引进新工艺、新设备、新技术，提升竞争力和产品质量。', '“此次在广西，总书记提到大力发展现代特色农业产业，让我们备受鼓舞。”甘肃定西马铃薯研究所负责人李进福表示，过去其貌不扬的小土豆，如今在这里成为联农带农、助力乡村振兴的大产业。“我们将在做好种薯繁育基础上，进一步延链补链强链，带领更多农民就业和致富。”', '“乡村振兴是建设农业强国的基础性工程，总书记强调要落实规划、扎实推进，这对乡村振兴提出了更加明确的要求。”中国人民大学农业与农村发展学院教授汪三贵表示，未来要在一二三产业融合、培养新型经营主体、强化技术支撑和加强基础设施建设等方面综合发力，进一步提升乡村产业效率和质量，更多更好惠及农村发展和农民增收。', '“习近平总书记强调，广西要把铸牢中华民族共同体意识作为自治区各项工作的主线。这为我们做好下一步工作指明方向。”广西壮族自治区民族宗教事务委员会党组书记、主任李振林表示，广西将把持续扎根铸牢共同体意识落实到经济社会发展全过程各方面，倾力建设中华民族共有精神家园、共同富裕幸福家园、守望相助和谐家园、边疆稳定平安家园，进一步擦亮“全国民族团结进步示范区”金字招牌。', '走进广西南宁市良庆区蟠龙社区党群服务中心的展示厅，映入眼帘的是社区各族群众身着民族服饰练唱嘹啰山歌、舞香火龙、举办长桌宴等特色活动的照片。', '现场聆听总书记讲话，蟠龙社区党委书记刘雁琳十分激动。“总书记指出，社区是基层自治的基本单元，是国家治理体系的基层基础。我们将以满足群众多样化需求为出发点和落脚点，以润物细无声的方式开展社区服务，确保社区各族群众像亲人一样交往、交流、交融。”刘雁琳说。', '习近平总书记强调，要尽力而为、量力而行、久久为功，着力解决好就业、教育、医疗、住房、养老、托幼等民生问题。', '“总书记的重要讲话，将指引我们更有针对性地为老年人做好服务。”黑龙江省哈尔滨市安康社会福利院院长陈宏说，作为一家现代化综合性养老机构，安康社会福利院将不断创新服务，最大程度满足各个层次老年人的多样化需求，让“快乐养老”帮助老年人健康生活。', '“习近平总书记提出，持续推进新时代兴边富民行动。我们将在党中央坚强领导下，更好发挥基层党支部战斗堡垒作用，认真贯彻落实好富民兴疆工作部署要求，扶持发展假发、手套、家具等特色产业，用‘小产业’带动各族群众增收致富，让各族人民心手相牵，共创美好未来。”新疆喀什地区英吉沙县萨罕镇党委书记邓军说。（记者 韩洁、叶昊鸣、黄垚、魏弘毅、向志强、汪奇文）']</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A98" t="n">
+        <v>23</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
           <t>临汾市农业农村局赴晋城市长治市开展考察学习活动</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>2023-08-25</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>https://mp.weixin.qq.com/s/Ad1uhkJTe05FR_SxvzC8OA</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>['深入推进农业供给侧结构性改革 加快培育农业农村发展新动能 开创农业现代化建设新局面', '8月22日至23日，市农业农村局考察组赴晋城市、长治市就农村集体产权流转交易、集体“三资”管理、新型农村集体经济发展等方面进行考察学习。考察组由市农业农村局副局长李俊带队，市现代发展中心主任王加兴、安泽县、霍州市、洪洞县、蒲县农业农村局及市现代农业发展中心相关科室参加考察。', '考察组采取实地考察、座谈交流等方式进行考察学习。在晋城市城区农村产权交易中心，考察组观摩学习了农村产权交易工作制度、交易流程、交易案例等，并就工作推进过程中遇到的难点进行了交流探讨。在泽州县巴公镇靳庄村考察村民有偿退出老旧宅基地壮大集体经济，在大阳镇调研了六村联建大阳古镇盘活土地壮大集体经济情况。在高平市陈区镇铁炉村考察“支部领办合作社+校地合作研发+黄梨全产业链融合”模式，打造“铁炉贡梨”金字招盘，撬动村集体经济发展。', '在长治市店上镇考察壶关红太阳公司发展万亩露地西红柿发展新型农村集体经济。在壶关县集电镇岭东村考察该村成立乡村旅游专业合作社，村集体入股文旅公司，带动集体经济发展新路子。在潞城区南垂村听取了党支部书记关于农村集体资产“清化收”、村级集体经济发展等方面的情况汇报，就村集体资产管理、产业发展、机制创新、乡村治理等方面进行了交流探讨。', '考察组表示，要以此次考察学习为契机，认真学习借鉴晋城市、长治市的好思路、好经验、好做法，结合我市实际，推进农村集体产权流转交易，探索多样化的发展模式，发展新型农村集体经济，提高我市农村集体经济收入再上新台阶。']</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A99" t="n">
+        <v>23</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
           <t>中国政府网习近平在广西考察时强调解放思想创新求变向海图强开放发展奋力谱写中国式现代化广西篇章</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>2023-12-15</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>https://www.gov.cn/yaowen/liebiao/202312/content_6920518.htm</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>['习近平在广西考察时强调：解放思想创新求变向海图强开放发展 奋力谱写中国式现代化广西篇章__中国政府网', '习近平在广西考察时强调：解放思想创新求变向海图强开放发展 奋力谱写中国式现代化广西篇章', '习近平在广西考察时强调 解放思想创新求变向海图强开放发展 奋力谱写中国式现代化广西篇章 蔡奇陪同考察', '12月14日至15日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是14日上午，习近平在南宁市良庆区蟠龙社区考察时，同社区各族群众亲切交流。新华社记者 谢环驰 摄', '12月14日至15日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是14日下午，习近平在来宾市国家现代农业产业园黄安优质“双高”糖料蔗基地考察时，同蔗农、农机手和农技人员亲切交流。新华社记者 谢环驰 摄', '新华社南宁12月15日电 中共中央总书记、国家主席、中央军委主席习近平近日在广西考察时强调，广西要完整、准确、全面贯彻新发展理念，牢牢把握高质量发展这个首要任务和构建新发展格局这个战略任务，发挥自身优势，以铸牢中华民族共同体意识为主线，解放思想、创新求变，向海图强、开放发展，努力在推动边疆民族地区高质量发展上展现更大作为，在建设新时代中国特色社会主义壮美广西上不断取得新进展，奋力谱写中国式现代化广西篇章。', '12月13日，习近平结束对越南的国事访问回到国内。14日至15日，在广西壮族自治区党委书记刘宁和自治区政府主席蓝天立陪同下，先后到南宁、来宾等地，深入对外开放项目、社区、农村、企业等进行调研。', '12月14日至15日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是14日上午，习近平在南宁市考察中国—东盟信息港股份有限公司，了解中国—东盟经贸合作等情况。新华社记者 谢环驰 摄', '14日上午，习近平首先考察了位于南宁市的中国－东盟信息港股份有限公司。习近平详细了解中国－东盟信息港建设运营、中国－东盟经贸合作等情况，结合平陆运河沙盘听取西部陆海新通道骨干工程建设汇报。习近平指出，建设中国－东盟信息港，是推动共建“一带一路”、加强我国与东盟国家互联互通的一项重要举措。广西要主动作为、发挥支点作用，加强信息化建设和应用，为推进高水平对外开放、促进同东盟合作不断注入新动力。', '12月14日至15日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是14日上午，习近平在南宁市良庆区蟠龙社区党群服务中心考察。新华社记者 燕雁 摄', '12月14日至15日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是14日上午，习近平在南宁市良庆区蟠龙社区党群服务中心文体活动室同社区居民亲切交流。新华社记者 谢环驰 摄', '南宁市良庆区蟠龙社区是一个多民族聚居社区。习近平来到社区党群服务中心，听取现场工作人员关于开展主题教育、促进便民惠企、举办民族特色活动等情况介绍，对他们坚持党建引领聚合力、服务为本促发展的做法表示肯定。在文体活动室，他饶有兴致地观看社区居民习练书法、合唱民歌，同大家亲切交流，鼓励社区充分利用人才、场地等资源，开展更多健康有益、启智润心的文化活动，以此激发更大的正能量。习近平指出，社区是基层自治的基本单元，是国家治理体系的基层基础。通过社区这个平台，办好“一老一小”等民生实事和公共事务，积极回应群众关切，是中国特色基层治理的显著优势，要把这一优势发挥好。建设多民族群众互嵌式社区，是促进各族群众交往交流交融的重要途径。广西建设铸牢中华民族共同体意识示范区，要从基层社区抓起，通过扎实的社区建设、有效的社区服务、丰富的社区活动，营造各族人民一家亲的浓厚氛围，把民族团结搞得更好。', '12月14日至15日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是14日上午，习近平在南宁市良庆区蟠龙社区考察时，同社区各族群众亲切交流。新华社记者 燕雁 摄', '离开社区时，各族群众热情欢送总书记。习近平亲切地对大家说，我昨天结束对越南的国事访问，直接来广西考察调研。构建具有战略意义的中越命运共同体，将更有利于广西的开放发展，壮美广西前景光明。广西作为我国少数民族人口最多的自治区，各族人民同顶一片天、同耕一垌田、同饮一江水、同建一家园。全面建设社会主义现代化国家，一个民族都不能少。希望社区各族群众多来往，大家互帮互助，交知心朋友，做和睦邻居，共同建设幸福家园。', '12月14日至15日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是14日下午，习近平在来宾市国家现代农业产业园黄安优质“双高”糖料蔗基地考察。新华社记者 王晔 摄', '14日下午，习近平到来宾市考察调研。在国家现代农业产业园黄安优质“双高”糖料蔗基地，习近平察看万亩甘蔗林和机械化作业收割场景，听取基地情况介绍。他走进甘蔗林，详细了解甘蔗良种繁育技术要领，同蔗农、农机手和农技人员亲切交流。习近平指出，广西是我国蔗糖主产区，要把这一特色优势产业做强做大，为保障国家糖业安全、促进蔗农增收致富发挥更大作用。要积极培育和推广良种、提高机械化作业水平，建设好现代农业产业园。要探索建立更加稳定的利益联结机制，让广大农民共享农村改革和发展成果。他祝愿乡亲们的生活像甘蔗一样甜蜜。', '12月14日至15日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是14日下午，习近平在来宾东糖凤凰有限公司考察。新华社记者 谢环驰 摄', '随后，习近平到来宾东糖凤凰有限公司考察。他进入生产车间察看制糖工艺和作业流程，在公司展厅了解糖业产品种类及市场份额和发展趋势。他强调，我国糖业面临激烈的国际竞争，要按照高端化、智能化、绿色化要求，加大科技创新力度，延伸产业链、提高附加值，不断提质、降本、增效，推动高质量发展。离开企业时，习近平热情地对前来欢送的员工们说，食糖是重要的副食品，大家为此辛勤劳动，为千家万户送去了“甜蜜”。希望大家不断学习新技术、采用新工艺，为糖业发展作出新贡献。', '12月14日至15日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是14日下午，习近平在来宾东糖凤凰有限公司考察时，同企业员工亲切交流。新华社记者 谢环驰 摄', '15日上午，习近平听取广西壮族自治区党委和政府工作汇报，对广西各项工作取得的成绩给予肯定。', '习近平指出，推动广西高质量发展，必须做好强产业的文章，加快构建现代化产业体系。要立足资源禀赋和产业基础，聚焦优势产业，集中优势资源，打造若干体现广西特色和优势、具有较大规模和较强带动力的支柱产业。把科技创新摆到更加突出的位置，深化教育科技人才综合改革，加强科教创新和产业创新融合，加强关键核心技术攻关，加大技术改造和产品升级力度。充分利用沿海沿江的优势，大力发展海洋经济、临港产业。加快产业结构优化调整，推动产业体系绿色转型，发展壮大林业产业、文旅产业、养老产业、大健康产业，让生态优势不断转化为发展优势。', '12月14日至15日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是14日上午，习近平在南宁市考察中国—东盟信息港股份有限公司，结合平陆运河沙盘听取西部陆海新通道骨干工程建设汇报。新华社记者 谢环驰 摄', '习近平强调，广西要持续扩大对内对外开放。要增强内外联动，构建更有活力的开放型经济体系。主动服务国家重大战略，对接沿海发达地区产业新布局，有序承接产业梯度转移，加快北部湾经济区和珠江－西江经济带开发开放，把广西打造成为粤港澳大湾区的重要战略腹地。要共建西部陆海新通道，实施一批重大交通基础设施项目，高标准、高质量建设平陆运河，高水平打造北部湾国际门户港，提高江铁海多式联运能力和自动化水平。积极服务建设中国－东盟命运共同体，深化拓展与东盟国家在商贸、劳务、产业、科技、教育等领域合作，打造国内国际双循环市场经营便利地，深度融入共建“一带一路”。', '12月14日至15日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是14日下午，习近平在来宾市国家现代农业产业园黄安优质“双高”糖料蔗基地考察时，同蔗农、农机手和农技人员亲切交流。新华社记者 王晔 摄', '习近平指出，乡村振兴是建设农业强国的基础性工程，要落实规划、扎实推进。要全面落实粮食安全党政同责，坚持稳面积、增单产两手发力，实现粮食均衡增产。发挥广西林果蔬畜糖等特色资源丰富的优势，大力发展现代特色农业产业，让更多“桂字号”农业品牌叫响大江南北。既要鼓励工商资本下乡，又要把住底线，防止占用耕地搞非农化、非粮化经营。加快完善乡村治理体系，改善农村基础设施、公共服务、人居环境，提升村庄整体风貌和农民生活品质。巩固拓展脱贫攻坚成果，建立农村低收入人口常态化帮扶机制，防止出现规模性返贫。', '习近平强调，广西要把铸牢中华民族共同体意识作为自治区各项工作的主线，作为推进民族团结进步创建工作的根本方向，巩固发展各族人民团结奋斗的良好局面。要把持续扎根铸牢共同体意识落实到经济、教育、就业、社区建设、文化建设和干部队伍建设等各项工作中，继续在民族团结进步上走在全国前列。要尽力而为、量力而行、久久为功，着力解决好就业、教育、医疗、住房、养老、托幼等民生问题，逐步缩小城乡差距、区域差距、民族差距，扎实推进共同富裕。持续推进新时代兴边富民行动。', '习近平指出，坚持和加强党的全面领导，是做好各项工作的根本保证。要坚决贯彻落实党中央决策部署，加强领导班子建设，不断提高干部队伍素质和能力，激励党员干部廉洁从政、干净干事。第二批主题教育处于尾声，要善始善终，建立健全以学铸魂、以学增智、以学正风、以学促干的长效机制。', '习近平强调，岁末年初，各级党委和政府要切实做好市场供应、民生保障，精细化抓好安全生产，注意解决农民工欠薪问题，确保人民群众节日欢乐祥和。近几天，我国华北、黄淮等地区普遍出现中到大雪，对人民群众生产生活秩序造成一定影响，各地、各有关部门要密切关注，采取有力措施，努力把灾害带来的影响降到最低。', '王毅、李干杰、何立峰、王小洪及中央和国家机关有关部门负责同志陪同考察，主题教育中央第十一巡回指导组负责同志参加汇报会。', '12月14日至15日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是15日上午，习近平在南宁亲切接见驻南宁部队上校以上领导干部，代表党中央和中央军委向驻南宁部队全体官兵致以诚挚问候。新华社记者 李刚 摄', '12月15日上午，习近平在南宁亲切接见驻南宁部队上校以上领导干部，代表党中央和中央军委向驻南宁部队全体官兵致以诚挚问候，并同大家合影留念。张又侠陪同接见。', '中共中央总书记、国家主席、中央军委主席习近平近日在广西考察时强调，广西要完整、准确、全面贯彻新发展理念，牢牢把握高质量发展这个首要任务和构建新发展格局这个战略任务，发挥自身优势，以铸牢中华民族共同体意识为主线，解放思想、创新求变，向海图强、开放发展，努力在推动边疆民族地区高质量发展上展现更大作为，在建设新时代中国特色社会主义壮美广西上不断取得新进展，奋力谱写中国式现代化广西篇章。']</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A100" t="n">
+        <v>23</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
           <t>习近平在上海考察时强调聚焦建设五个中心重要使命加快建成社会主义现代化国际大都市返京途中在江苏盐城考察</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>2023-12-04</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>https://h.xinhuaxmt.com/vh512/share/11793712?d=134b423&amp;channel=weixin</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>['习近平在上海考察时强调 聚焦建设“五个中心”重要使命 加快建成社会主义现代化国际大都市 返京途中在江苏盐城考察 - 新华社客户端', '习近平在上海考察时强调 聚焦建设“五个中心”重要使命 加快建成社会主义现代化国际大都市 返京途中在江苏盐城考察', '新华社上海/江苏盐城12月3日电 中共中央总书记、国家主席、中央军委主席习近平近日在上海考察时强调，上海要完整、准确、全面贯彻新发展理念，围绕推动高质量发展、构建新发展格局，聚焦建设国际经济中心、金融中心、贸易中心、航运中心、科技创新中心的重要使命，以科技创新为引领，以改革开放为动力，以国家重大战略为牵引，以城市治理现代化为保障，勇于开拓、积极作为，加快建成具有世界影响力的社会主义现代化国际大都市，在推进中国式现代化中充分发挥龙头带动和示范引领作用。', '11月28日至12月2日，习近平在中共中央政治局委员、上海市委书记陈吉宁和市长龚正陪同下，先后来到金融机构、科技创新园区、保障性租赁住房项目等进行调研。', '11月28日至12月2日，中共中央总书记、国家主席、中央军委主席习近平在上海考察。这是11月28日下午，习近平在上海期货交易所考察。', '11月28日至12月2日，中共中央总书记、国家主席、中央军委主席习近平在上海考察。这是11月28日下午，习近平在上海期货交易所考察。新华社记者 王晔 摄', '28日下午，习近平一下列车就前往上海期货交易所考察。他结合电子屏幕和重要上市品种交割品展示，听取交易所增强全球资源配置能力、服务实体经济和国家战略等情况介绍，了解交易所日常资金管理和交割结算等事项。习近平强调，上海建设国际金融中心目标正确、步伐稳健、前景光明，上海期货交易所要加快建成世界一流交易所，为探索中国特色期货监管制度和业务模式、建设国际金融中心作出更大贡献。', '11月28日至12月2日，中共中央总书记、国家主席、中央军委主席习近平在上海考察。这是11月28日下午，习近平在浦东新区张江科学城参观上海科技创新成果展。', '11月28日至12月2日，中共中央总书记、国家主席、中央军委主席习近平在上海考察。这是11月28日下午，习近平在浦东新区张江科学城参观上海科技创新成果展。新华社记者 王晔 摄', '11月28日至12月2日，中共中央总书记、国家主席、中央军委主席习近平在上海考察。这是11月28日下午，习近平在浦东新区张江科学城参观上海科技创新成果展时，同科研人员代表亲切交流。新华社记者 鞠鹏 摄', '习近平随后乘车来到浦东新区张江科学城，参观上海科技创新成果展。他结合视频短片了解上海市科技创新整体情况，走进展厅详细察看基础研究、人工智能、生物医药等领域的科技创新成果展示，并同科研人员代表亲切交流。习近平指出，推进中国式现代化离不开科技、教育、人才的战略支撑，上海在这方面要当好龙头，加快向具有全球影响力的科技创新中心迈进。要着力造就大批胸怀使命感的尖端人才，为他们发挥聪明才智创造良好条件。', '11月28日至12月2日，中共中央总书记、国家主席、中央军委主席习近平在上海考察。这是11月29日下午，习近平在闵行区新时代城市建设者管理者之家考察时，在社区宿舍型出租房源租户的住房，了解在此居住的城市一线工作者的生活状况。', '11月28日至12月2日，中共中央总书记、国家主席、中央军委主席习近平在上海考察。这是11月29日下午，习近平在闵行区新时代城市建设者管理者之家公共厨房考察。新华社记者 谢环驰 摄', '11月28日至12月2日，中共中央总书记、国家主席、中央军委主席习近平在上海考察。这是11月29日下午，习近平在闵行区新时代城市建设者管理者之家，同社区居民亲切交流。新华社记者 王晔 摄', '11月28日至12月2日，中共中央总书记、国家主席、中央军委主席习近平在上海考察。这是11月29日下午，习近平在闵行区新时代城市建设者管理者之家，同社区居民亲切交流。新华社记者 谢环驰 摄', '11月28日至12月2日，中共中央总书记、国家主席、中央军委主席习近平在上海考察。这是11月29日下午，习近平在闵行区新时代城市建设者管理者之家，向社区居民挥手致意。新华社记者 申宏 摄', '11月28日至12月2日，中共中央总书记、国家主席、中央军委主席习近平在上海考察。这是11月29日下午，习近平在闵行区新时代城市建设者管理者之家，向社区居民挥手致意。新华社记者 王晔 摄', '近年来，上海市加快保障性租赁住房建设，为许多来沪新市民、青年人和一线务工人员提供了住房保障。29日下午，习近平到闵行区新时代城市建设者管理者之家考察。听了当地加大保障性租赁住房筹措建设力度、构建“一张床、一间房、一套房”多层次租赁住房供应体系的情况介绍，习近平给予充分肯定。他先后走进社区住宅型、宿舍型出租房源租户的住房和公共厨房、公共洗衣房等共享空间，仔细了解在此居住的城市一线工作者的生活状况。总书记无微不至的殷切关怀，让在场所有人感动。离开时，社区居民纷纷围拢过来欢送总书记。习近平说，看到来自五湖四海的建设者在这里安居乐业，感到很高兴。城市不仅要有高度，更要有温度。我们的社会主义就是要走共同富裕的路子。外来务工人员来上海作贡献，同样是城市的主人。要践行人民城市理念，不断满足人民群众对住房的多样化、多元化需求，确保外来人口进得来、留得下、住得安、能成业。', '12月1日上午，习近平听取了上海市委和市政府工作汇报，对上海各项工作取得的成绩给予肯定。', '习近平指出，加快建设“五个中心”，是党中央赋予上海的重要使命。上海要以此为主攻方向，统筹牵引经济社会发展各方面工作，坚持整体谋划、协同推进，重点突破、以点带面，持续提升城市能级和核心竞争力。要以科技创新为引领，加强关键核心技术攻关，促进传统产业转型升级，加快培育世界级高端产业集群，加快构建现代化产业体系，不断提升国际经济中心地位和全球经济治理影响力。要加强现代金融机构和金融基础设施建设，实施高水平金融对外开放，更好服务实体经济、科技创新和共建“一带一路”。要深入实施自由贸易试验区提升战略，推动国际贸易中心提质升级。要加快补齐高端航运服务等方面的短板，提升航运资源全球配置能力。要推进高水平人才高地建设，营造良好创新生态。要加强同长三角区域联动，更好发挥辐射带动作用。', '习近平强调，上海作为我国改革开放的前沿阵地和深度链接全球的国际大都市，要在更高起点上全面深化改革开放，增强发展动力和竞争力。要全方位大力度推进首创性改革、引领性开放，加强改革系统集成，扎实推进浦东新区综合改革试点，在临港新片区率先开展压力测试，稳步扩大规则、规制、管理、标准等制度型开放，深入推进跨境服务贸易和投资高水平开放，提升制造业开放水平，进一步提升虹桥国际开放枢纽能级，继续办好进博会等双向开放大平台，加快形成具有国际竞争力的政策和制度体系。要坚持“两个毫不动摇”，深化国资国企改革，落实保障民营企业公平参与市场竞争的政策措施，打造国际一流营商环境，激发各类经营主体活力，增强对国内外高端资源的吸引力。', '习近平指出，要全面践行人民城市理念，充分发挥党的领导和社会主义制度的显著优势，充分调动人民群众积极性主动性创造性，在城市规划和执行上坚持一张蓝图绘到底，加快城市数字化转型，积极推动经济社会发展全面绿色转型，全面推进韧性安全城市建设，努力走出一条中国特色超大城市治理现代化的新路。要把增进民生福祉作为城市建设和治理的出发点和落脚点，把全过程人民民主融入城市治理现代化，构建人人参与、人人负责、人人奉献、人人共享的城市治理共同体，打通服务群众的“最后一公里”，认真解决涉及群众切身利益的问题，坚持和发展新时代“枫桥经验”，完善基层治理体系，筑牢社会和谐稳定的基础。', '习近平强调，要贯彻新时代中国特色社会主义文化思想，深化文化体制改革，激发文化创新创造活力，大力提升文化软实力。坚持不懈用新时代中国特色社会主义思想凝心铸魂，广泛践行社会主义核心价值观，巩固马克思主义在意识形态领域的指导地位，在各种文化交汇融合中进一步壮大主流价值、主流舆论、主流文化。要注重传承城市文脉，加强文物和文化遗产保护，传承弘扬红色文化，深入实施文化惠民工程，扎实推进群众性精神文明创建，深化拓展新时代文明实践中心建设，推进书香社会建设，全面提升市民文明素质和城市文明程度。', '习近平指出，坚持党的领导是中国式现代化的本质要求，也是根本保证。上海是我们党的诞生地，要用好一大会址等红色资源，弘扬伟大建党精神，教育引导广大党员、干部牢记“三个务必”，在新征程上开拓创新、奋发进取、真抓实干。要贯彻新时代党的组织路线，落实新时代好干部标准，建设一支与社会主义现代化国际大都市相匹配的高素质专业化干部队伍。要把握超大城市特点，创新基层党建工作思路和模式，完善党的基层组织体系。要坚决反对和惩治腐败，一体推进不敢腐、不能腐、不想腐，保持风清气正的政治生态。第二批主题教育临近收官，要坚持标准不降、劲头不松，把主题教育同各方面工作结合起来，做到两手抓、两不误、两促进。', '12月3日，中共中央总书记、国家主席、中央军委主席习近平在上海考察结束返京途中，来到江苏省盐城市参观新四军纪念馆。', '12月3日上午，在返京途中，习近平在江苏省委书记信长星和省长许昆林陪同下，来到盐城市参观新四军纪念馆。展厅里，一张张照片、一份份史料、一件件文物、一个个模拟实景，完整展现了新四军浴火重生、浴血奋战的光辉历史。习近平不时驻足察看、同大家交流。他强调，新四军的历史充分说明，民心向背决定着历史的选择，江山就是人民、人民就是江山。这是开展革命传统教育、爱国主义教育的生动教材，要用好这一教材，教育引导党员、干部传承发扬不怕困难、不畏艰险，勇于斗争、敢于胜利的精神，紧紧依靠人民，把强国建设、民族复兴伟业不断推向前进。', '李干杰、何立峰及中央和国家机关有关部门负责同志陪同分别参加上述有关活动，主题教育中央第五巡回指导组负责同志参加汇报会。', '上海所在的长三角地区，是中国经济发展最活跃、开放程度最高、创新能力最强的区域之一。', '新华社客户端提供的所有原创内容与设计均受相关法律保护，为新华社客户端及/或相关权利人专属所有或持有。未经许可或明确书面授权，任何人不得复制、转载、摘编、修改、链接新华社客户端内容，违反上述声明者，我们将依法追究其相关法律责任。', '新华社全民拍欢迎广大网民爆料，爆料内容请严格遵守国家法律法规，我们将根据审核制度，及时调查追踪。']</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A101" t="n">
+        <v>23</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
           <t>习近平在上海考察时强调聚焦建设五个中心重要使命加快建成社会主义现代化国际大都市返京途中在江苏盐城考察</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>2023-12-06</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>https://h.xinhuaxmt.com/vh512/share/11791799?d=134b421&amp;channel=weixin</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="G101" t="inlineStr">
         <is>
           <t>['新华社北京12月1日电 国务院总理李强12月1日主持召开国务院常务会议，听取推动高质量发展综合督查情况汇报，研究明确关于加快内外贸一体化发展的若干措施，讨论《中华人民共和国矿产资源法（修订草案）》，研究生物育种产业化有关工作。', '会议充分肯定了推动高质量发展综合督查工作取得的积极成效，指出此次督查发现的问题集中反映了企业群众的急难愁盼和工作推进的堵点难点。要聚焦推动高质量发展，督促有关方面对照督查发现的问题一项一项抓好整改，举一反三改进相关工作，切实推动党中央决策部署落地落实。要高度重视、深入研究督查中收集到的意见建议，在制定出台有关政策措施时积极予以吸收。', '会议指出，加快内外贸一体化发展是构建新发展格局、推动高质量发展的内在要求。要对标国际先进水平，加快调整完善国内相关规则、规制、管理、标准等，促进内外贸标准衔接、检验认证衔接、监管衔接，推进内外贸产品同线同标同质。要聚焦企业需求和市场反馈及时优化政策，切实打通阻碍内外贸一体化的关键堵点，助力企业在国内国际两个市场顺畅切换。要优化内外贸一体化发展环境，落实好相关财政金融支持政策，共同促进内外贸高质量发展。', '会议讨论并原则通过《中华人民共和国矿产资源法（修订草案）》，决定将修订草案提请全国人大常委会审议。会议指出，矿产资源是经济社会发展的重要物质基础，根据形势变化适时修订矿产资源法，对于依法开发保护矿产资源、保障国家战略资源安全十分必要。要加快推进勘探开发和增储上产，深化国际合作，加强储备体系建设，夯实矿产资源保障基础。要大力开展技术装备创新，推进产业绿色化、智能化发展，提升矿产资源产业链韧性和竞争力。', '会议听取生物育种产业化有关情况汇报，强调要进一步细化完善相关措施，在严格监管、严控风险前提下，稳慎有序推进相关工作。', '这次会议强调着重于提高我国内外贸易标准质量，这正是当前中国经济转型升级所需要关注之处。', '新华社客户端提供的所有原创内容与设计均受相关法律保护，为新华社客户端及/或相关权利人专属所有或持有。未经许可或明确书面授权，任何人不得复制、转载、摘编、修改、链接新华社客户端内容，违反上述声明者，我们将依法追究其相关法律责任。', '新华社全民拍欢迎广大网民爆料，爆料内容请严格遵守国家法律法规，我们将根据审核制度，及时调查追踪。']</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A102" t="n">
+        <v>23</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
           <t>习近平在上海考察调研</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>2023-11-30</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="F102" t="inlineStr">
         <is>
           <t>https://www.gov.cn/yaowen/liebiao/202311/content_6917701.htm</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
+      <c r="G102" t="inlineStr">
         <is>
           <t>['28日至29日，习近平总书记在上海市考察调研。他先后考察上海期货交易所、上海科技创新成果展、闵行区新时代城市建设者管理者之家，了解上海增强国际金融中心竞争力、推进国际科技创新中心建设、保障性租赁住房建设等情况。（文字记者：张晓松、朱基钗；摄影记者：鞠鹏、谢环驰、王晔、申宏）', '11月28日至29日，习近平总书记在上海市考察调研。他先后考察上海期货交易所、上海科技创新成果展、闵行区新时代城市建设者管理者之家，了解上海增强国际金融中心竞争力、推进国际科技创新中心建设、保障性租赁住房建设等情况。']</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A103" t="n">
+        <v>23</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
           <t>习近平总书记赴上海考察并主持召开深入推进长三角一体化发展座谈会纪实</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="E103" t="inlineStr">
         <is>
           <t>2023-12-06</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
+      <c r="F103" t="inlineStr">
         <is>
           <t>https://www.gov.cn/yaowen/liebiao/202312/content_6918468.htm</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
+      <c r="G103" t="inlineStr">
         <is>
           <t>['新华社上海12月4日电 题：努力创造令世界刮目相看的新奇迹——习近平总书记赴上海考察并主持召开深入推进长三角一体化发展座谈会纪实', '题：努力创造令世界刮目相看的新奇迹——习近平总书记赴上海考察并主持召开深入推进长三角一体化发展座谈会纪实', '万里长江如同一条巨龙飞向浩瀚大海，上海恰似高昂的龙头，以腾空之势不可阻挡地奋勇向前。这是上海地理位置的形象描绘，也是其经济地位的生动写照。', '11月末12月初，习近平总书记来到上海考察。这次来，他心里装着深入推进长三角一体化发展，这个事关中国发展全局的大战略；装着加快建设“五个中心”，这项党中央赋予上海的重要使命；牵挂着人民追求更加美好生活的大事小情。', '总书记一路走来，无论是考察上海期货交易所、上海科技创新成果展、闵行区新时代城市建设者管理者之家，还是主持召开深入推进长三角一体化发展座谈会，看的、问的、想的、讲的，都没有离开这些话题。', '“把上海建设成为‘五个中心’，是党中央全面研判国内国际形势、统筹把握改革发展大局作出的重大决策，是党中央赋予上海的重要使命。”习近平总书记高瞻远瞩。', '从1992年10月党的十四大提出把上海建成“一个龙头、三个中心”，到后来的“四个中心”，到2014年5月习近平总书记在上海考察时明确提出“五个中心”建设的总体框架，再到2017年底国家明确上海“五个中心”的功能定位、2023年10月中央政治局常委会会议审议通过《关于支持上海加快“五个中心”建设的意见》。这项重大决策的形成经历了一个不断拓展和深化的过程。', '这一过程也是上海在国家发展大局中不断承担更多、更大、更重使命的过程。正因如此，习近平同志在上海工作时就指出：“我们必须把上海未来发展放在中央对上海发展的战略定位上，放在经济全球化的大趋势下，放在全国发展的大格局中，放在国家对长江三角洲区域发展的总体部署中来思考和谋划。”', '有大视野才有大格局，有大格局才有大作为。总书记这席话，充分展现了对“五个中心”建设战略谋划的高点站位和远大追求。', '在上海“五个中心”建设中，浦东是前沿阵地。2007年3月，担任上海市委书记仅一周，习近平同志就开启19个区县的全面调研，第一站到的是浦东。这一次，习近平总书记到上海考察，第一站还是浦东。', '浦东的变化可谓翻天覆地。“烂泥渡路”不见了，映入眼帘的是繁华的商圈、密集的金融机构、林立的研发大楼、往来穿梭的车船……这里就像一颗强劲搏动的心脏，源源不断地向四周输送着金融血脉和发展动能。', '在上海期货交易所，总书记走进期货交易大厅，屏幕上红绿相间的数据，跳动着指导上下游成千上万家企业投资交易的“上海价格”。', '上市品种交割品的展台上，原油、纸浆、橡胶、铜、铝、镍……这家交易所还是个“90后”，成立不过20多年，却成绩斐然，成交规模多年来位居世界前列，成为全球第三大期货交易市场。', '国内橡胶资源曾十分匮乏，有“一粒胶种一两黄金”之说。而今日，我国成为全球橡胶的主产国之一，“上海胶”全球定价中心加快形成。总书记听了颇为感慨：每一个期货品种背后都有一个行业支撑，上期所的跨越发展离不开中国国力的蒸蒸日上。', '对上海国际航运中心的建设和发展，总书记关心了多年。听闻集运指数（欧线）期货于今年8月上市，成为我国首个服务类和现金交割的期货品种，总书记表示肯定。', '往事如潮。习近平总书记的思绪回溯到16年前。他对大家说：“我在上海工作时，抽了一天的时间，跑了好几家金融机构，其中就包括上期所。当时期货还在摸索阶段，现在已经在亚洲、在国际上举足轻重了。我们也因此看到上海建设国际金融中心目标正确、步伐稳健、前景光明。要再接再厉。”', '对科技创新，总书记始终放在心头。离开上海期货交易所，他来到张江科学城参观上海科技创新成果展。蓝天梦、创新药、智能造、未来车……令人目不暇接，怦然心动。', '习近平总书记细致察看每一个展位，在智能机器人面前停下了脚步。他饶有兴致地看着一个机器人“秀”起灵活的“手指”，脚步稳当地“走”过来。“这项技术在国际上处于什么水准？”“从实用的情况看，已经铺开了吗？”问得细致，思得周密。', '看完展览，总书记有感而发：“上海取得的这些科技创新成果，让我感到很踏实，有了更大的信心、更足的底气。”', '从一颗螺丝钉也要进口，到大国重器彰显大国底气，历经几十载的拼搏奋斗，我国科技事业发生了历史性、整体性、格局性变化。展厅里，来自各行各业的科研人员代表齐聚一堂。总书记语重心长地说：“推进中国式现代化离不开科技、教育、人才的战略支撑，上海在这方面要当好龙头，加快向具有全球影响力的科技创新中心迈进。”', '从当年的“两弹一星”到今天的科研领域硕果累累，江山代有才人出。总书记抚今追昔：“要着力造就大批胸怀使命感的尖端人才，为他们发挥聪明才智创造良好条件。”', '书写“五个中心”建设华章，需要有凌云之笔。“在推进中国式现代化中充分发挥龙头带动和示范引领作用”，这是习近平总书记对上海的新期待，也成为上海“五个中心”的功能新定位。随着“五个中心”建设的加速推进，上海这颗“东方明珠”，必将绽放出更加璀璨的光芒。', '党的十九大闭幕不久，习近平总书记带领中共中央政治局常委同志到上海中共一大会址瞻仰，重温我们党的梦想启航。他在“作始也简，将毕也钜”的字迹前凝思，在一幅清末《时局图》前喟叹，在巨幅党旗前重温入党誓词。', '曾经，建筑密、人口稠、房屋挤、道路窄、绿化少，“大城市病”一直困扰着上海。当年在上海工作，习近平同志就放心不下市民的住房困难。周末，他常到老旧小区去走一走，到里弄去转一转，琢磨琢磨那些“老大难”问题怎么办。', '这次，习近平总书记专程到外来人口占比高的闵行区，来看一看新时代城市建设者管理者之家。加大保障性租赁住房筹措建设力度，上海的步子又稳又快。现在全市累计建设完成31.6万套（间），距离“十四五”时期计划新增建设筹措47万套（间）的目标越来越近。', '郑岚予大学毕业后，在上海工作了两年多，在这里租了一套两室一厅。她和母亲热情地将总书记迎进租赁的新居。', '“租金贵不贵？”“不贵，住得很舒服。”推窗见景，屋内布置得很温馨，郑岚予笑容灿烂，“感谢党和政府，让我在上海有了一个家。”', '“一张床、一间房、一套房”的多层次租赁住房供应体系，正让更多“新上海人”实现“安居梦”。', '这里住着敬老院的两名护理员。书桌、冰箱、洗衣机、电磁炉等生活设施一应俱全。租户钱丽丽来沪十多年，一度为租房难、租房贵而发愁。今天，她欣喜地说：“这里租金便宜，卫生间的热水都是24小时的，上下班路上只花十来分钟。我们很满意。”', '隔壁是个四人间。租户都是附近物业公司的保安。他们向总书记打开了话匣子：“这里有公共的厨房、洗衣房、浴室，还有会客室，外面有羽毛球场、篮球场，蛮好、蛮好！”', '来自山东临沂的苏元宝说：“再发展一下，我就把老婆孩子接过来，在这里租个一居室。”来自安徽宿州的吴涛说：“我想考个证书，再找个女朋友，在这里安个家。”', '“好啊！扎根，落户，发展。”总书记微笑着说，“你们也是上海的建设者、贡献者，所以上海也要关心你们。”', '“我在上海工作的时候，到闵行来调研了一天。这次再到闵行来，看到整个面貌焕然一新。”习近平总书记言辞谆谆，“城市不仅要有高度，更要有温度。我们的社会主义就是要走共同富裕的路子。外来务工人员来上海作贡献，同样是城市的主人。要践行人民城市理念，不断满足人民群众对住房的多样化、多元化需求，确保外来人口进得来、留得下、住得安、能成业。”', '一个城市的温度，在不弃微末的建设中累积，靠不舍昼夜的发展去呵护。室内、室外，上海在紧凑的空间里腾挪，努力给百姓多一些公共区域。这座城市，公园加速“生长”，5年间从243座增加到了670座。总书记深刻指出：“把上海这样一个超大城市建设好、治理好，要有大格局、大思路，也要有精细化思维和‘绣花’功夫。”', '在推进中国式现代化的进程中，习近平总书记的目光始终望向人民：“建设具有世界影响力的社会主义现代化国际大都市，核心要义是‘社会主义现代化’”，城市建设“要体现社会主义现代化的鲜明特征和人民城市的本质属性”。', '在浙江工作时，他就为推进长三角一体化发展积极努力；在上海工作时，主动挑起龙头带动的担子；到中央工作后，推动长三角一体化发展上升为国家战略。此后，总书记分别于2020年8月和这一次，主持召开两场以长三角一体化发展为主题的座谈会。', '在总书记的亲自谋划、持续推进下，长三角一体化发展取得显著成效。这次座谈会，与会者拿出的发展成绩单，为推进长三角一体化发展的重要意义提供了有说服力的注解：', '多年来，长三角地区生产总值占全国比重保持在1/4左右，对全国经济增长的贡献率约30%。', '总书记将京津冀协同发展、长三角一体化发展、粤港澳大湾区建设，比喻为引领中国发展的“三大引擎”，其中长三角是我国经济最活跃、开放程度最高、创新能力最强的区域之一，是我国最具影响力和带动力的增长极和动力源之一。“推动长三角一体化发展取得新的重大突破，在中国式现代化中走在前列，更好发挥先行探路、引领示范、辐射带动作用”，这是党中央给长三角一体化发展定出的新目标。', '时隔三年的前后两次座谈会，从“扎实推进”到“深入推进”，会议名称的差别背后，是党中央对这项国家战略持续深化升级的要求。如何抓？总书记给出了答案：“紧扣一体化和高质量这两个关键词”。', '座谈会上的新部署，看一域，亦观全局；看当下，亦谋长远。总书记提出四个统筹、五大举措，如弈子，思虑深远。', '四个统筹蕴含深刻系统观念：“统筹科技创新和产业创新”“统筹龙头带动和各扬所长”“统筹硬件联通和机制协同”“统筹生态环保和经济发展”。', '五大举措彰显深远战略考量：长三角要“加强科技创新和产业创新跨区域协同”“加快完善一体化发展体制机制”“积极推进高层次协同开放”“加强生态环境共保联治”“着力提升安全发展能力”。', '两相对照，创新、机制、协同、生态……这些词汇的重叠使用，鲜明昭示着长三角的下一步发展走向、战略举措，导向十分清晰。', '长三角一体化发展，绝不只是形式上的组合，而是一次由表及里的重塑，是一场深刻的变革。上海、江苏、浙江、安徽在错位发展、联动发展中发挥各自比较优势，相互取长补短，壮大整体实力，不是简单地做加法，而是在做乘法。', '看创新，长三角汇聚了国家许多压箱底的战略科技力量。如何疏堵点、破卡点，把“大胆闯、大胆试、自主改”的改革创新化为区域活力？总书记指明方向：“构建更加紧密的区域创新共同体和产业发展共同体。”', '看开放，得区位之优势，有开埠兴市之先机。长三角区域一直是改革开放前沿，视域广阔，吞吐万千。总书记强调：“推进以制度型开放为重点的高水平对外开放”“努力成为畅通我国经济大循环的强大引擎和联通国内国际双循环的战略枢纽”。', '看生态，长三角区域产业富集、城市密集、人口聚集，生态空间相对拥挤，资源环境承载压力大。这次座谈会，总书记基于现状，鼓励三省一市加强生态保护红线无缝衔接，加强节能减排降碳区域政策协同，健全生态补偿机制，建设区域绿色制造体系，在建设人与自然和谐共生的现代化中发挥示范作用。', '总书记嘱咐大家：“推进长三角一体化发展是一篇大文章，要下大功夫，更靠长功夫。要坚持稳中求进，脚踏实地、埋头苦干，一任接着一任干，一步一个脚印往前走。”', '“只要认准是正确的事情，就一以贯之、坚持不懈干下去，决不半途而废，决不南辕北辙，决不回头倒退。推进长三角一体化发展等重大战略就要这样，一步一步往前走、一项一项往前推。”', '积跬步以至千里。这次座谈会，将引领长三角一体化发展进入一个深化升级的新阶段。在万千瞩目中，三省一市已开始新的奋斗，合奏一场高质量发展盛大协奏曲。']</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A104" t="n">
+        <v>23</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
           <t>习近平在北京河北考察灾后恢复重建工作</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
+      <c r="E104" t="inlineStr">
         <is>
           <t>2023-11-13</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
+      <c r="F104" t="inlineStr">
         <is>
           <t>https://www.gov.cn/yaowen/liebiao/202311/content_6914766.htm</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
+      <c r="G104" t="inlineStr">
         <is>
           <t>['习近平在北京河北考察灾后恢复重建工作时强调 再接再厉抓好灾后恢复重建 确保广大人民群众安居乐业温暖过冬 蔡奇陪同考察', '新华社北京/河北保定11月10日电 中共中央总书记、国家主席、中央军委主席习近平10日在北京、河北考察灾后恢复重建工作时强调，各级党委和政府、各有关方面要认真贯彻落实党中央决策部署，再接再厉抓好灾后恢复重建，确保广大人民群众安居乐业、温暖过冬。要始终坚持以人民为中心，坚持系统观念，坚持求真务实、科学规划、合理布局，抓紧补短板、强弱项，加快完善防洪工程体系、应急管理体系，不断提升防灾减灾救灾能力。', '今年7月底8月初，华北、黄淮等地出现极端降雨，引发洪涝和地质灾害，造成北京、河北等地重大人员伤亡。习近平一直牵挂着受灾群众，高度重视防汛抗洪救灾和灾后恢复重建工作，多次作出重要指示批示，要求有关地方和部门全力保障人民群众生命财产安全，尽快恢复灾区正常生产生活秩序。9月上旬，习近平前往黑龙江尚志市看望慰问受灾群众。北方入冬之际，习近平又来到北京、河北受灾较重的相关地区，看望慰问受灾群众，检查指导灾后恢复重建工作。', '11月10日，习近平在中共中央政治局委员、北京市委书记尹力和市长殷勇，河北省委书记倪岳峰和省长王正谱分别陪同下，先后来到门头沟、保定等地，实地了解灾后恢复重建情况。', '11月10日，中共中央总书记、国家主席、中央军委主席习近平在北京、河北考察灾后恢复重建工作。这是10日上午，习近平在北京门头沟永定河三家店引水枢纽考察。新华社记者 燕雁 摄', '永定河三家店引水枢纽是永定河官厅山峡段控制性工程。10日上午，习近平来到这里，听取北京市水系、永定河修复治理、拦河闸运行等情况汇报，了解灾后恢复重建进展。习近平指出，门头沟、房山等山区地带山高谷深，连续强降雨容易造成特大山洪，是北京防汛抗洪的重点区域。既要建好用好水库等控制性工程，也要完善山区道路、房屋等建筑物的防洪标准，切实提高防汛抗洪能力。要立足北京水系特点、总结历史经验，针对突出问题和薄弱环节，按照“上蓄、中疏、下排、有效治洪”的原则，抓紧修复水毁设施，加强重点水利工程建设，为保障首都防洪安全提供有力支撑。', '11月10日，中共中央总书记、国家主席、中央军委主席习近平在北京、河北考察灾后恢复重建工作。这是10日上午，习近平在北京门头沟妙峰山民族学校，同师生们亲切交流。新华社发（盛佳鹏 摄）', '随后，习近平乘车来到妙峰山民族学校。今年汛期，这里作为临时避灾场所和防汛抗洪救灾人员驻地。习近平走进一间教室，孩子们正在老师的带领下开主题班会。大家争着向习爷爷展示自己以抗洪救灾为主题的手工制品，并汇报自己在洪灾面前的经历和感受，习近平听后很高兴。他说，保证受灾学生都能按时开学返校，是党中央对灾后恢复重建提出的明确要求。经过各方面共同努力，所有灾区学校都按时开学了，看到孩子们幸福的笑容，很踏实很欣慰。你们学校在这次防汛抗洪中成功避险，而且很好发挥了“安全岛”作用，要用好这一生动教材，开展安全教育，提升孩子们的安全意识和避险能力。这次抗洪救灾孩子们会终生难忘，要让他们学会感恩、立下志向，做社会主义事业的建设者和接班人。', '11月10日，中共中央总书记、国家主席、中央军委主席习近平在北京、河北考察灾后恢复重建工作。这是10日上午，习近平在北京门头沟妙峰山民族学校，亲切慰问因公牺牲烈士家属和参与防汛抗洪救灾的基层党员干部群众、消防及应急救援人员、国企职工、志愿者代表等。新华社记者 鞠鹏 摄', '11月10日，中共中央总书记、国家主席、中央军委主席习近平在北京、河北考察灾后恢复重建工作。这是10日上午，习近平在北京门头沟妙峰山民族学校，亲切慰问因公牺牲烈士家属。新华社记者 鞠鹏 摄', '11月10日，中共中央总书记、国家主席、中央军委主席习近平在北京、河北考察灾后恢复重建工作。这是10日上午，习近平在北京门头沟妙峰山民族学校，亲切慰问因公牺牲烈士家属和参与防汛抗洪救灾的基层党员干部群众、消防及应急救援人员、国企职工、志愿者代表等。新华社记者 燕雁 摄', '学校操场上，习近平亲切慰问了因公牺牲烈士家属和参与防汛抗洪救灾的基层党员干部群众、消防及应急救援人员、国企职工、志愿者代表等。习近平说，在这场抗洪抢险救灾斗争中，基层党员干部冲锋在前、勇于担当，人民解放军、武警部队官兵、消防救援队伍指战员挺身而出、向险前行，国有企业职工闻“汛”而动、紧急驰援，社会各界和志愿者积极参与、奉献爱心，书写了洪水无情人有情的人间大爱，展现了社会主义制度一方有难、八方支援的显著优势和全国人民万众一心、同舟共济的奋斗精神，涌现出许多感人故事。多名党员干部在抗洪抢险中牺牲，我们要永远怀念他们，大力宣扬他们的英勇事迹，有关方面要关心照顾好他们的家人。', '11月10日，中共中央总书记、国家主席、中央军委主席习近平在北京、河北考察灾后恢复重建工作。这是10日上午，习近平在北京门头沟妙峰山镇水峪嘴村考察时，同当地群众亲切交流。新华社记者 岳月伟 摄', '11月10日，中共中央总书记、国家主席、中央军委主席习近平在北京、河北考察灾后恢复重建工作。这是10日上午，习近平在北京门头沟妙峰山镇水峪嘴村考察时，同当地群众亲切交流。新华社记者 燕雁 摄', '11月10日，中共中央总书记、国家主席、中央军委主席习近平在北京、河北考察灾后恢复重建工作。这是10日上午，习近平在北京门头沟妙峰山镇水峪嘴村考察时，同当地群众亲切交流。新华社记者 鞠鹏 摄', '临近中午，习近平来到妙峰山镇水峪嘴村考察。在村口河边平台，习近平听取该村情况介绍，随后步行察看村容村貌，了解基础设施恢复建设提升等情况。习近平指出，大涝大灾之后，务必大建大治，大幅度提高水利设施、防汛设施水平。要坚持以人民为中心，着眼长远、科学规划，把恢复重建与推动高质量发展、推进韧性城市建设、推进乡村振兴、推进生态文明建设等紧密结合起来，有针对性地采取措施，全面提升防灾减灾救灾能力。特别要完善城乡基层应急管理组织体系，提升基层防灾避险和自救互救能力。', '11月10日，中共中央总书记、国家主席、中央军委主席习近平在北京、河北考察灾后恢复重建工作。这是10日上午，习近平在北京门头沟妙峰山镇水峪嘴村村民李盟家看望慰问，了解房屋受损、修缮和冬季取暖等情况。新华社记者 燕雁 摄', '在村民李盟家，习近平详细询问房屋受损、修缮支出、取暖等情况。习近平表示，确保受灾群众安全温暖过冬是一项硬任务。北方冬季长，山里冬天尤其冷，取暖工作务必落实落细，做到每家每户。对已经完成房屋修缮加固或重建、具备入住条件的受灾户，要指导帮助他们落实冬季取暖。对尚未完成房屋重建的受灾户，要通过投亲靠友、租房、政府安置等方式，确保他们温暖过冬。', '离开村子时，当地群众热情欢送总书记。习近平对大家说，我心里一直惦念着灾区的人民群众。共产党是为人民服务的党，永远把老百姓放在心中最高位置，无论是抢险救灾还是灾后恢复重建，都会全力以赴。希望乡亲们坚定信心，努力把家园建设得更加美好。', '11月10日，中共中央总书记、国家主席、中央军委主席习近平在北京、河北考察灾后恢复重建工作。这是10日下午，习近平在河北保定涿州市双塔街道永济秀园小区门口药店，了解经营恢复情况。新华社记者 王晔 摄', '11月10日，中共中央总书记、国家主席、中央军委主席习近平在北京、河北考察灾后恢复重建工作。这是10日下午，习近平在河北保定涿州市双塔街道永济秀园小区门口超市，了解经营恢复情况。新华社记者 王晔 摄', '今年汛期，保定涿州市遭遇特大洪涝灾害，目前已基本恢复正常生产生活秩序。10日下午，习近平来到双塔街道永济秀园小区。他首先走进小区门口的药店、超市，向商户详细询问经营恢复情况，接着来到小区热力站，了解供暖设施运行情况。习近平表示，经历这场大灾，居民和一些生产经营单位损失不少，各级党委和政府要多措并举，努力帮助受灾群众和企业、商户渡过难关。城市恢复重建要做好防灾减灾论证规划，充分考虑避险避灾，留出行洪通道和泄洪区、滞洪区，更新排水管网等基础设施，提升城市运行保障能力。', '11月10日，中共中央总书记、国家主席、中央军委主席习近平在北京、河北考察灾后恢复重建工作。这是10日下午，习近平在河北保定涿州市双塔街道永济秀园小区居民董彩英家看望慰问。新华社记者 鞠鹏 摄', '习近平走进居民董彩英家看望慰问，详细询问洪水水位、应急居住、家具家电更新、供暖、相关补助等情况。董彩英告诉总书记，在党员干部帮助下，房子已完成清理修缮并入住，温暖过冬没问题。习近平强调，城市灾后恢复重建，首要的是家家户户生活和社区居住环境的恢复。要查漏补缺，把工作进一步做细做实，基层组织、党员干部、街坊邻里、各方面专业力量和志愿者要一起努力。', '11月10日，中共中央总书记、国家主席、中央军委主席习近平在北京、河北考察灾后恢复重建工作。这是10日下午，习近平在河北保定涿州市双塔街道永济秀园小区考察时，同小区居民们亲切交流。新华社记者 殷博古 摄', '11月10日，中共中央总书记、国家主席、中央军委主席习近平在北京、河北考察灾后恢复重建工作。这是10日下午，习近平在河北保定涿州市双塔街道永济秀园小区考察时，同小区居民们亲切交流。新华社发（盛佳鹏 摄）', '离开小区时，习近平同小区居民亲切交流。习近平对大家说，涿州的这次灾情很重，那时我每天都关注着你们这里的情况，很是挂念大家。今天看到市政公共服务设施已恢复正常运转，大家的生活也已基本恢复正常，心里踏实了很多。风雨之后见彩虹。在党中央坚强领导下，只要大家齐心协力，就一定能够过上更加美好的生活。第二批主题教育正在深入开展，灾区各级党组织要把主题教育与灾后恢复重建紧密结合起来，大力弘扬抗洪救灾精神，充分发挥基层党组织战斗堡垒作用和党员干部先锋模范作用，用恢复重建成果和人民群众满意度来检验主题教育的成效。', '11月10日，中共中央总书记、国家主席、中央军委主席习近平在北京、河北考察灾后恢复重建工作。这是10日下午，习近平在河北保定涿州市刁窝镇万全庄村房屋重建施工现场考察。新华社记者 鞠鹏 摄', '刁窝镇万全庄村位于兰沟洼蓄滞洪区，今年汛期全村311户全部受灾。习近平仔细察看村道、房屋等恢复重建情况。他走进房屋重建施工现场，询问受灾损失、施工进展、租房过渡等情况，勉励他们团结一心，共渡难关，重建和美乡村。', '村民杨佩然家房屋受损较轻，已加固修缮完成并入住。习近平走进杨佩然家里，了解他们的家庭收入、修缮花销、生产恢复等情况。习近平指出，房屋修缮加固重建，是灾后恢复重建的头等大事。现在看，修缮、加固的任务已基本完成，任务最重、难度最大的还是重建。对重建户，各级党委和政府要格外关心，过渡期有特殊困难、自身无法解决居住问题的，要给予适当安置。要采取切实有效措施，防止因灾返贫。', '11月10日，中共中央总书记、国家主席、中央军委主席习近平在北京、河北考察灾后恢复重建工作。这是10日下午，习近平在河北保定涿州市刁窝镇万全庄村考察时，同村民们亲切交流。新华社记者 丁海涛 摄', '11月10日，中共中央总书记、国家主席、中央军委主席习近平在北京、河北考察灾后恢复重建工作。这是10日下午，习近平在河北保定涿州市刁窝镇万全庄村考察时，同村民们亲切交流。新华社发（盛佳鹏 摄）', '临别时，村民们高声向总书记问好。习近平对大家说，面对历史罕见的洪灾，乡亲们遭受了很大的损失，我向大家表示慰问！各级党委和政府正在多方采取措施，扎实推进灾后恢复重建。希望乡亲们自力更生、艰苦奋斗，用自己的勤劳双手，加快恢复重建、推进乡村振兴。', '11月10日，中共中央总书记、国家主席、中央军委主席习近平在北京、河北考察灾后恢复重建工作。这是10日下午，习近平在河北保定涿州市刁窝镇万全庄村村边农田察看冬小麦长势。新华社记者 王晔 摄', '11月10日，中共中央总书记、国家主席、中央军委主席习近平在北京、河北考察灾后恢复重建工作。这是10日下午，习近平在河北保定涿州市刁窝镇万全庄村村边农田察看大白菜长势。新华社发（盛佳鹏 摄）', '11月10日，中共中央总书记、国家主席、中央军委主席习近平在北京、河北考察灾后恢复重建工作。这是10日下午，习近平在河北保定涿州市刁窝镇万全庄村村边农田察看大白菜长势。新华社记者 鞠鹏 摄', '习近平还走进村边农田，察看冬小麦和大白菜长势。他指出，农业生产是灾后恢复重建的重要方面，不仅直接关系家家户户的收入，也关系国家粮食安全。要继续抓紧修复灾毁农田和农业设施，加大农资供应保障力度，加强农技指导，组织安排好今冬明春的农业生产，争取明年有个好收成。', '白沟河是大清河流域一条骨干行洪河道。习近平来到白沟河治理工程（涿州段），察看工程进展，听取河北省灾后重建重大水利工程情况汇报。习近平指出，京津冀水系相连，防汛抗洪是一盘棋，要深入研究推进京津冀地区防洪工程体系建设。坚持系统观念，统筹流域和区域，处理好上下游、左右岸、干支流关系，科学布局水库、河道、堤防、蓄滞洪区等的功能建设，整体提高京津冀地区的防洪能力。', '11月10日，中共中央总书记、国家主席、中央军委主席习近平在北京、河北考察灾后恢复重建工作。这是10日下午，习近平在河北保定涿州市白沟河治理工程（涿州段）考察时，同水利工程建设人员和曾经参加涿州抗洪救援的解放军和武警部队官兵、民兵预备役人员、消防救援队伍等方面的代表亲切交流。新华社记者 王晔 摄', '11月10日，中共中央总书记、国家主席、中央军委主席习近平在北京、河北考察灾后恢复重建工作。这是10日下午，习近平在河北保定涿州市白沟河治理工程（涿州段）考察时，同水利工程建设人员和曾经参加涿州抗洪救援的解放军和武警部队官兵、民兵预备役人员、消防救援队伍等方面的代表亲切交流。新华社记者 岳月伟 摄', '11月10日，中共中央总书记、国家主席、中央军委主席习近平在北京、河北考察灾后恢复重建工作。这是10日下午，习近平在河北保定涿州市白沟河治理工程（涿州段）考察时，同水利工程建设人员和曾经参加涿州抗洪救援的解放军和武警部队官兵、民兵预备役人员、消防救援队伍等方面的代表亲切交流。新华社发（盛佳鹏 摄）', '堤坝上，习近平亲切看望慰问水利工程建设人员和曾经参加涿州抗洪救援的解放军和武警部队官兵、民兵预备役人员、消防救援队伍等方面的代表。他说，这次抗洪救灾，各方面力量与广大人民群众风雨同舟，共同构筑起防汛救灾、守护家园的坚固防线，充分展现了我们党和国家的强大政治优势。人民群众感谢你们，党和政府感谢你们！', '返回北京前，习近平对陪同人员和当地干部说，在党中央的正确决策部署下，各级各方面采取有力有效措施，把百年一遇的洪涝灾害损失降到了最低。灾后恢复重建涉及范围广，工程项目多，资金投入大。最近中央决定增发1万亿元国债，用于支持灾后恢复重建和提升防灾减灾救灾能力的项目建设。各级党委和政府、各有关部门要坚持求真务实、科学规划、合理布局，把资金用到刀刃上，高质量推进项目建设，把各项工程建设成为民心工程、优质工程、廉洁工程。', '习近平强调，各级党委和政府、各有关方面要认真贯彻落实党中央决策部署，再接再厉抓好灾后恢复重建，确保广大人民群众安居乐业、温暖过冬。']</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A105" t="n">
+        <v>23</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
           <t>市科技局专题学习中国纪检监察报推动涉企奖补资金规范发放</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="E105" t="inlineStr">
         <is>
           <t>2023-11-24</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="F105" t="inlineStr">
         <is>
           <t>http://kjj.linfen.gov.cn/xwzx/gzdt/202311/t20231124_272310.html</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
+      <c r="G105" t="inlineStr">
         <is>
           <t>['市科技局专题学习中国纪检监察报 《推动涉企奖补资金规范发放》-工作动态-临汾市科技局', '11月20日，市科技局召开专题会议，对中国纪检监察报《推动涉企奖补资金规范发放》一文开展学习。局班子、各科室及所属事业单位负责人参加会议。', '会上，党组成员、副局长杨旭东将《推动涉企奖补资金规范发放》文章精神进行了解读，并对文中苏留昶案、郑玉连案展开了细致分析。他表示：每个干部的初心都是为人民服务，但是在长时间工作的过程中，有些干部的理想信念产生了动摇，被利益和权力蒙蔽了双眼，不仅危害了社会，最终也毁灭了自己。', '党组书记、局长王小华强调：涉企奖补资金数额大、影响深，对经济和社会发展具有牵一发而动全身的导向作用，务必严肃对待，严加监管。全局上下要认真学习文章精神，结合岗位职责抓好贯彻落实，加强资金管理，确保奖补资金的规范、高效使用。文章中一些单位出现重业务轻党建、项目资金申报审核不严的情况，重大事项搞“一言堂”，贻害无穷。我们党员干部，要通过这些事例警醒自我，永葆初心使命，压实为企业做好服务的责任，塑造风清气正的营商环境。']</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A106" t="n">
+        <v>23</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
           <t>时时放心不下的牵挂记习近平总书记在北京河北考察灾后恢复重建工作</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>2023-11-13</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
+      <c r="F106" t="inlineStr">
         <is>
           <t>http://www.guxian.gov.cn/xwzx/gwyyw/202311/t20231113_266649.html</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
+      <c r="G106" t="inlineStr">
         <is>
           <t>['新华社北京/河北保定11月11日电 题：时时放心不下的牵挂——记习近平总书记在北京河北考察灾后恢复重建工作', '今年7月底8月初，华北、黄淮等地出现极端降雨，引发洪涝和地质灾害，造成北京、河北等地重大人员伤亡。', '习近平总书记密切关注汛情，高度重视防汛抗洪救灾工作，多次作出重要指示批示，要求全力保障人民群众生命财产安全。“那段时间，我每天都关注着灾情，指导着救灾工作，心里一直惦念着受灾地区和受灾群众。”', '9月7日，正在黑龙江考察的习近平总书记，来到受灾较重的哈尔滨尚志市老街基乡龙王庙村，看望慰问受灾群众，了解灾后恢复重建进展。从东北谈到华北，总书记说：“我牵挂着受灾的地方。那些地方我之后也会去看。”', '11月10日，北方入冬之际，习近平总书记专程来到北京、河北受灾较重的门头沟区、保定涿州市，看望慰问受灾群众，检查指导灾后恢复重建工作。', '一天时间，乘汽车、换火车，行程横跨京冀两地，足迹覆盖农村、社区、学校、市政设施、水利工程，访居民、见师生、看商铺，入农户、进麦田、上大堤，冒着严寒而往，沐着夜色而归。', '“一路走下来，听到了看到了，我心里感到踏实，也是欣慰的，恢复重建工作都在按照计划进行。”', '“要继续把灾后恢复重建工作一件一件落实好，继续为推动人民生活向着更好的方向前进而努力，让老百姓今后的日子过得更好！”', '10日上午，习近平总书记乘车通过水峪嘴桥，在村口下车。岸边展板上的照片，记载了今夏洪水肆虐、洪峰过境时的景象。', '“我们现在所站的地方，当时已被洪水淹没。大水漫过水峪嘴桥的桥面。”当地负责同志告诉总书记，因转移及时，全村群众无一伤亡，但87%的房屋受损。', '走进李盟家，习近平总书记仔细察看。墙壁经过粉刷，已经看不出水淹的痕迹，一楼门窗和家具、电器也是新换的。阳光透过玻璃洒进两层小楼，亮堂堂的。', '李盟告诉总书记，当时洪水把一楼淹了，满屋都是淤泥。受灾后，政府给了补贴，一家人齐心协力恢复修缮，目前已经收拾一新。', '“共产党是为人民服务的党。现在我们国家经济实力增强了，更要为人民多做事情。祝你们生活越过越幸福。”总书记说。', '10日下午，习近平总书记来到涿州受灾较严重的双塔街道永济秀园小区，首先察看了这里的热力站。', '得知小区已于11月1日提前半个月开始供暖，总书记十分高兴：“这是应该做的，你们做得很好！”', '一进屋，就感到了暖意。看了看温度计，又摸了摸暖气片，总书记笑着说：“这温度达标了。”', '指着白墙上的水迹，董彩英告诉总书记，当时家里也进了水，家具家电和一些衣服被褥被淹了。如今在党员干部帮助下，房子已完成清理修缮，温暖过冬没问题。', '“看到你们转危为安，大灾之后生活可以照旧，而且还能提高一点，我感到很欣慰。”总书记说。', '涿州市刁窝镇万全庄村位于兰沟洼蓄滞洪区，今年汛期全村311户全部受灾，不少房子被冲倒或严重受损。', '村民付俊家新建的房子即将封顶。他热情地把总书记迎进未来的新居，详细介绍房屋内部结构：“这是朝阳的4间卧室，这是厨房，那边是卫生间……”', '付俊告诉总书记，房子受灾后，很快就收到了农房保险理赔款，钢筋、沙子、水泥等建材都有补贴优惠，政府还给担保联系了施工队，自己就下定决心尽快重建了。“党的政策好，赶上这个好时代，要不然就盖不起来了。”', '离开村子时，村民们聚拢到村道两旁，有白发老人，也有小孩子，纷纷热烈鼓掌、高声向总书记问好。', '总书记同乡亲们说：“我心里一直惦念着灾区的人民群众。今天，来这里看了看，心里踏实了，党中央的政策在各地转化为实际的举措，还是管用的。”', '总书记接着说：“我从大家的表情看到了希望。我们灾后的生活比以前还会更好。希望乡亲们自力更生、艰苦奋斗，用自己的勤劳双手，加快恢复重建、推进乡村振兴。”', '今年8月17日，就在防汛抗洪救灾斗争取得重大阶段性成果之际，习近平总书记主持召开中央政治局常委会会议，提出要认真排查总结，抓紧补短板、强弱项，进一步提升我国防灾减灾救灾能力。', '带着这样的思考，习近平总书记此次考察首站来到位于永定河官厅山峡出口处的三家店引水枢纽。', '今年夏天北京遭遇极端强降雨，永定河也迎来罕见洪峰。北京市水务局负责同志介绍，当时三家店引水枢纽调节池的最高蓄水位已经超过110米，洪水已经满溢上岸，拦河闸开启了建成以来最大泄洪流量。', '今夏洪水过后，北京市在灾后恢复重建工作中，立足治本之策，着力加强防洪工程体系建设，制定了有关总体规划，从河道疏浚修复、堤坝除险加固、布局建设水库等，致力于实现“一年基本恢复、三年全面提升、长远高质量发展”的目标。', '习近平总书记表示，经过一次灾害，就要总结经验，举一反三，使我们在防灾减灾救灾方面，有更完备的预案和更好的措施。我们现在的国力和经济实力也上来了，要用更强的力量来解决这个问题。', '村干部介绍，当地的大白菜比较有名，销售到了北京、天津等周边地区。洪水退后，村里组织大家一共抢种了1000多亩，“霜降萝卜、立冬白菜”，有的白菜已经开始收了，销路和价格都很好。', '总书记叮嘱：“灾后农业生产恢复不仅直接关系家家户户的收入，也关系国家粮食安全。党的政策好就是要让老百姓高兴。要组织安排好今冬明春的农业生产，争取明年有个好收成。”', '在永济秀园小区门口，总书记先后走进一家药店和一家超市。“当时水淹到哪了？货品损失了多少？有什么补助政策？”问得十分仔细。', '得知政府给予贷款贴息，帮助两家商铺重新走上正轨、8月底恢复营业，总书记十分高兴，勉励道：“祝你们接下来经营得比以前还要好！”', '国家发展改革委负责同志展开一幅规划图，详细介绍下一步华北地区加强水利工程建设的设想。为期3年的规划，涉及江河堤坝加固提升、病险水库除险、蓄滞洪区建设、城市排涝工程等，将系统提升华北地区防洪抗灾能力。', '“大涝大灾之后，务必大建大治，大幅度提高水利设施、防汛设施水平。中国式现代化，也包括水利现代化、应急管理现代化。”', '站在大堤上，望着宽阔的河道，总书记思虑深远：“最近中央决定增发1万亿元国债，下大功夫，花大本钱，用于支持灾后恢复重建和提升防灾减灾救灾能力的项目建设。相信通过建设，我们国家特别是北方地区的防灾减灾救灾能力会有一个大的提高。”', '此次灾情期间，妙峰山民族学校因地势较高，成为附近受灾村民安置、救援人员休整、抢险救灾物资设备中转的“安全岛”。', '暑假经历了特大洪灾的孩子们，今天用他们亲手制作的黏土作品，感谢他们心中最可爱的人。', '教学楼一层的教室里，五年级一班学生在班主任老师带领下召开主题班会。黑板上写着“感恩”“立志”四个大字，班会的主题是“我身边的抗洪救灾故事”。', '一名女生站了起来：“我的作品是救援叔叔。当时我姥爷存放东西的地方被水淹了，救援叔叔很快就赶来帮忙，他们浑身都湿透了。”', '另一名女生也拿起自己的作品：“我觉得解放军叔叔是最可爱的人。他们早出晚归，满身泥水倒头就睡，第二天天还没亮就又出去了，特别辛苦。”', '手举白衣天使的黏土作品，一名男生讲述了自己在安置点看到的场景：“有一天，一位奶奶突发心脏病，几位医生赶紧取来仪器给奶奶做检查，还询问奶奶之前的身体状况，第一时间给奶奶治病。我要好好学习，长大后做一名医生，帮助更多的人摆脱病痛。”', '“这次灾害，孩子们亲身经历，对一生都有重大影响。你们通过自己身边遇到的事，遇到的解放军、志愿者、村干部等等，就会看到，危难之际，我们党的各级组织和党员干部，都会为人民冲在第一线。”', '学校操场上，习近平总书记亲切慰问了这次抗洪抢险救灾因公牺牲的烈士刘捷、熊丽的爱人和孩子。', '习近平总书记叮嘱道：“我们要永远怀念在抗洪抢险救灾中牺牲的烈士，宣扬他们的英勇事迹，关心照顾好他们的家人。要大力弘扬抗洪救灾精神，并将其发扬光大到各个方面工作中。”', '习近平总书记亲切看望慰问水利工程建设人员、曾经参加涿州抗洪救援的解放军和武警部队官兵、民兵预备役人员、消防救援队伍等方面的代表。', '面对士气高昂的“战士们”，习近平总书记的话语充满力量：“你们是中流砥柱。中国共产党领导的队伍，都是为人民服务的队伍。沧海横流，方显英雄本色！人民群众感谢你们，党和政府感谢你们！希望同志们继续努力，再立新功！”']</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A107" t="n">
+        <v>23</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
           <t>刘泳带队赴山东省考察学习</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
+      <c r="E107" t="inlineStr">
         <is>
           <t>2023-07-31</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
+      <c r="F107" t="inlineStr">
         <is>
           <t>http://www.guxian.gov.cn/zzzb/gxyw/202308/t20230801_224365.html</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
+      <c r="G107" t="inlineStr">
         <is>
           <t>['7月27日—29日，县委副书记、政府县长刘泳带队赴山东省考察学习。他强调，要深入学习贯彻党的二十大精神和习近平总书记考察调研山西重要讲话重要指示精神，全面落实省市部署要求，紧紧围绕县委“1234”工作重心，锚定“一城一区一园四地”战略定位，虚心学习、取长补短，持续拓宽合作领域，不断提升合作质效，切实推动高质量发展全面提质提速。山西省能源局节能和科技装备处一级调研员高道平受邀参加。县经济技术开发区党工委书记、管委会主任杨晋栋，副县长周兴，县经济技术开发区党工委副书记、管委会常务副主任马玉林，县工信、发改、住建、岳阳镇、旧县镇等部门负责同志及部分企业负责人参加相关活动。', '山东能源枣庄矿业（集团）有限责任公司源于1878年创办的“中兴矿局”，后历经改制、联合重组，在2020年7月，成为新山东能源集团权属企业。近年来，枣矿集团以山东能源集团发展战略为指引，聚焦能源集团“3+3产业”体系，积极适应发展新常态、把握企业发展新趋势，科学制定 “十四五”规划，进一步调整集约产业布局，持续优化产业结构，逐步构建形成煤炭、焦化、橡胶、电力、物商等产业协同并进的良性发展格局。现已发展成为年营业收入超千亿元、利税总额超50亿元的现代企业集团。', '28日早上，在一同观看了枣矿集团专题片《大业中兴》后，枣矿集团党委委员、副总经理刘永安代表集团班子成员对考察团的到来表示热烈欢迎，并简要介绍了枣矿集团工作情况。他表示，枣矿集团将进一步加强与古县的深层次沟通交流，主动融入古县的发展战略布局，为促进双方合作项目早结硕果、推动高质量发展贡献“枣矿力量”。', '刘泳代表古县县委、县政府对枣矿集团的热情接待表示衷心感谢。他说，从齐鲁大地到古岳福地，从主业到非煤，历经140余年历史的枣矿集团，在转型突破的道路上始终步伐坚定，这份改革攻坚的勇气魄力令人十分敬佩。当前古县和枣矿同处于高质量发展的关键时期，双方的愿景高度契合，完全具备深化合作的良好基础。我们将以最足诚意、最好资源、最优服务，同各位企业家一道共同探索产业发展新路子，不断拓宽合作领域，努力实现互利共赢。', '随后，在滕州市委常委、副市长赵炜，滕州市发改局、工信局、西岗镇等部门负责同志及相关企业家的陪同下，考察团成员先后来到盛隆化工有限公司、滕州市鲁南高新科技化工园区、联泓新材料科技公司等地，现场学习开发区建设先进经验，实地参观无人区厂房建设等。', '盛隆化工有限公司是由世界500强企业的山东能源枣矿集团、宝武钢铁马钢股份公司、江苏沙钢集团三家公司合资兴建的混合所有制模式的煤化工企业。总占地面积1200亩，资产总额63.88亿元，采取“煤-焦-化-电-热-钢-贸”一体化、跨区域的循环经济发展模式。控股山西盛隆泰达新能源公司。座谈会上，双方围绕位于我县经济技术开发区，当前正在有序施工建设的山西盛隆泰达新能源有限公司192万吨/年炭化室高度7.6 米顶装焦化技术升级改造项目进行了进一步深入探讨交流，并就做好保障支持、强化延链补链等达成了一致共识。', '鲁南高科技化工园区位于滕州市木石镇、官桥镇，主导产业为煤化工、精细化工和化工新材料，园区规划面积27.72平方公里，起步区13.02平方公里，有鲁南化工、联泓新科等化工企业30家，规上化工企业13家，累计完成固定资产投资600亿元。2018年6月顺利通过山东省首批省级化工园区认定。园区内，考察团成员结合当前我县化工园区问题整改、开发区建设推进中的疑问困惑，边看边问边思考，认真学习园区“七通一平”基础设施建设、产业布局、招商引资等方面的经验做法。', '位于鲁南高科技化工园区的联泓新科深耕枣庄11年，已成长为我国新材料领域的领军企业，目前主产EVA光伏胶膜料、EVA电线电缆料、PP薄壁注塑专用料、特种表面活性剂、聚醚大单体、高性能减水剂等，在国内细分市场领域处于行业领先地位。去年，公司实现净利润8.66亿元、税收5.6亿元。在了解到该公司采取自研研发与合作开发相结合的协同创新研发模式，已拥有授权专利224项，主持、参与制修订国家和行业标准13项，承担国家高新技术研究发展计划和山东省重大科技创新工程项目的业绩后，考察团成员纷纷感叹，唯有真正强化技术创新驱动，才能为企业发展提供源源不竭的新动能。', '太行相隔、牡丹相连。同我县的“天下第一牡丹”文化旅游节一样，每年谷雨前后，菏泽牡丹迎风盛放。为了进一步取长补短，29日，考察团一行分别来到菏泽市曹州牡丹园、中国牡丹园、中国牡丹博物馆、山东浩森花木有限公司基地等地，实地考察了牡丹种植管理、儿童游玩业态、基础设施建设等情况，并通过与企业负责人深入交流，了解了菏泽牡丹从单一观赏功能走向“观赏牡丹、药用牡丹、油用牡丹、添加工牡丹”等齐头并进的产业融合之路。大家一致认为，要虚心学习菏泽牡丹在发展模式、业态打造、资金筹措、运营管理等方面的经验，结合自身实际，明确优劣势，创新方式方法，利用好市场机制，不断擦亮“天下第一牡丹”这张名片。', '单县位于苏鲁豫皖四省八县交界处，人口126.51万，面积1702平方公里，历史悠久、底蕴丰厚，古称单父，因舜帝之师单卷在此居住得名。如今更有着 “中国长寿之乡”、“国家园林县城”、“国家卫生县城”等金灿灿的名片。考察团成员冒雨先后来到口袋公园、街头小微绿地、典型示范项目、植物园等地，设身处地感受“人文、生态、宜居、精致、节约”城市建设理念及“两带、三环、五纵、四横、十园、多点”绿化空间布局，结合我县“国家园林县城”复验整改工作实际，着重学习了总量适宜、分布合理、物种多样、景观优美、生态良好的城市绿化系统构筑等。', '返程途中，考察团成员纷纷表示，此次外出考察学习受益良多、获益匪浅，下一步将因地制宜、突出特色，切实把学习成果转化为加强工作的新思路、新举措，全力推动各项工作再上新台阶。']</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A108" t="n">
+        <v>23</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
           <t>习近平在北京河北考察灾后恢复重建工作时强调再接再厉抓好灾后恢复重建确保广大人民群众安居乐业温暖过冬</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
+      <c r="E108" t="inlineStr">
         <is>
           <t>2023-11-13</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
+      <c r="F108" t="inlineStr">
         <is>
           <t>https://h.xinhuaxmt.com/vh512/share/11762137?d=134b3c6&amp;channel=weixin</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
+      <c r="G108" t="inlineStr">
         <is>
           <t>['习近平在北京河北考察灾后恢复重建工作时强调 再接再厉抓好灾后恢复重建 确保广大人民群众安居乐业温暖过冬 - 新华社客户端', '习近平在北京河北考察灾后恢复重建工作时强调 再接再厉抓好灾后恢复重建 确保广大人民群众安居乐业温暖过冬', '新华社北京/河北保定11月10日电 中共中央总书记、国家主席、中央军委主席习近平10日在北京、河北考察灾后恢复重建工作时强调，各级党委和政府、各有关方面要认真贯彻落实党中央决策部署，再接再厉抓好灾后恢复重建，确保广大人民群众安居乐业、温暖过冬。要始终坚持以人民为中心，坚持系统观念，坚持求真务实、科学规划、合理布局，抓紧补短板、强弱项，加快完善防洪工程体系、应急管理体系，不断提升防灾减灾救灾能力。', '今年7月底8月初，华北、黄淮等地出现极端降雨，引发洪涝和地质灾害，造成北京、河北等地重大人员伤亡。习近平一直牵挂着受灾群众，高度重视防汛抗洪救灾和灾后恢复重建工作，多次作出重要指示批示，要求有关地方和部门全力保障人民群众生命财产安全，尽快恢复灾区正常生产生活秩序。9月上旬，习近平前往黑龙江尚志市看望慰问受灾群众。北方入冬之际，习近平又来到北京、河北受灾较重的相关地区，看望慰问受灾群众，检查指导灾后恢复重建工作。', '11月10日，习近平在中共中央政治局委员、北京市委书记尹力和市长殷勇，河北省委书记倪岳峰和省长王正谱分别陪同下，先后来到门头沟、保定等地，实地了解灾后恢复重建情况。', '11月10日，中共中央总书记、国家主席、中央军委主席习近平在北京、河北考察灾后恢复重建工作。这是10日上午，习近平在北京门头沟永定河三家店引水枢纽考察。', '11月10日，中共中央总书记、国家主席、中央军委主席习近平在北京、河北考察灾后恢复重建工作。', '永定河三家店引水枢纽是永定河官厅山峡段控制性工程。10日上午，习近平来到这里，听取北京市水系、永定河修复治理、拦河闸运行等情况汇报，了解灾后恢复重建进展。习近平指出，门头沟、房山等山区地带山高谷深，连续强降雨容易造成特大山洪，是北京防汛抗洪的重点区域。既要建好用好水库等控制性工程，也要完善山区道路、房屋等建筑物的防洪标准，切实提高防汛抗洪能力。要立足北京水系特点、总结历史经验，针对突出问题和薄弱环节，按照“上蓄、中疏、下排、有效治洪”的原则，抓紧修复水毁设施，加强重点水利工程建设，为保障首都防洪安全提供有力支撑。', '11月10日，中共中央总书记、国家主席、中央军委主席习近平在北京、河北考察灾后恢复重建工作。这是10日上午，习近平在北京门头沟妙峰山民族学校，同师生们亲切交流。', '随后，习近平乘车来到妙峰山民族学校。今年汛期，这里作为临时避灾场所和防汛抗洪救灾人员驻地。习近平走进一间教室，孩子们正在老师的带领下开主题班会。大家争着向习爷爷展示自己以抗洪救灾为主题的手工制品，并汇报自己在洪灾面前的经历和感受，习近平听后很高兴。他说，保证受灾学生都能按时开学返校，是党中央对灾后恢复重建提出的明确要求。经过各方面共同努力，所有灾区学校都按时开学了，看到孩子们幸福的笑容，很踏实很欣慰。你们学校在这次防汛抗洪中成功避险，而且很好发挥了“安全岛”作用，要用好这一生动教材，开展安全教育，提升孩子们的安全意识和避险能力。这次抗洪救灾孩子们会终生难忘，要让他们学会感恩、立下志向，做社会主义事业的建设者和接班人。', '11月10日，中共中央总书记、国家主席、中央军委主席习近平在北京、河北考察灾后恢复重建工作。这是10日上午，习近平在北京门头沟妙峰山民族学校，亲切慰问因公牺牲烈士家属和参与防汛抗洪救灾的基层党员干部群众、消防及应急救援人员、国企职工、志愿者代表等。', '11月10日，中共中央总书记、国家主席、中央军委主席习近平在北京、河北考察灾后恢复重建工作。这是10日上午，习近平在北京门头沟妙峰山民族学校，亲切慰问因公牺牲烈士家属。新华社记者 鞠鹏 摄', '11月10日，中共中央总书记、国家主席、中央军委主席习近平在北京、河北考察灾后恢复重建工作。这是10日上午，习近平在北京门头沟妙峰山民族学校，亲切慰问因公牺牲烈士家属和参与防汛抗洪救灾的基层党员干部群众、消防及应急救援人员、国企职工、志愿者代表等。新华社记者 燕雁 摄', '学校操场上，习近平亲切慰问了因公牺牲烈士家属和参与防汛抗洪救灾的基层党员干部群众、消防及应急救援人员、国企职工、志愿者代表等。习近平说，在这场抗洪抢险救灾斗争中，基层党员干部冲锋在前、勇于担当，人民解放军、武警部队官兵、消防救援队伍指战员挺身而出、向险前行，国有企业职工闻“汛”而动、紧急驰援，社会各界和志愿者积极参与、奉献爱心，书写了洪水无情人有情的人间大爱，展现了社会主义制度一方有难、八方支援的显著优势和全国人民万众一心、同舟共济的奋斗精神，涌现出许多感人故事。多名党员干部在抗洪抢险中牺牲，我们要永远怀念他们，大力宣扬他们的英勇事迹，有关方面要关心照顾好他们的家人。', '11月10日，中共中央总书记、国家主席、中央军委主席习近平在北京、河北考察灾后恢复重建工作。这是10日上午，习近平在北京门头沟妙峰山镇水峪嘴村考察时，同当地群众亲切交流。新华社记者 岳月伟 摄', '11月10日，中共中央总书记、国家主席、中央军委主席习近平在北京、河北考察灾后恢复重建工作。这是10日上午，习近平在北京门头沟妙峰山镇水峪嘴村考察时，同当地群众亲切交流。新华社记者 燕雁 摄', '11月10日，中共中央总书记、国家主席、中央军委主席习近平在北京、河北考察灾后恢复重建工作。这是10日上午，习近平在北京门头沟妙峰山镇水峪嘴村考察时，同当地群众亲切交流。', '临近中午，习近平来到妙峰山镇水峪嘴村考察。在村口河边平台，习近平听取该村情况介绍，随后步行察看村容村貌，了解基础设施恢复建设提升等情况。习近平指出，大涝大灾之后，务必大建大治，大幅度提高水利设施、防汛设施水平。要坚持以人民为中心，着眼长远、科学规划，把恢复重建与推动高质量发展、推进韧性城市建设、推进乡村振兴、推进生态文明建设等紧密结合起来，有针对性地采取措施，全面提升防灾减灾救灾能力。特别要完善城乡基层应急管理组织体系，提升基层防灾避险和自救互救能力。', '11月10日，中共中央总书记、国家主席、中央军委主席习近平在北京、河北考察灾后恢复重建工作。这是10日上午，习近平在北京门头沟妙峰山镇水峪嘴村村民李盟家看望慰问，了解房屋受损、修缮和冬季取暖等情况。', '在村民李盟家，习近平详细询问房屋受损、修缮支出、取暖等情况。习近平表示，确保受灾群众安全温暖过冬是一项硬任务。北方冬季长，山里冬天尤其冷，取暖工作务必落实落细，做到每家每户。对已经完成房屋修缮加固或重建、具备入住条件的受灾户，要指导帮助他们落实冬季取暖。对尚未完成房屋重建的受灾户，要通过投亲靠友、租房、政府安置等方式，确保他们温暖过冬。', '离开村子时，当地群众热情欢送总书记。习近平对大家说，我心里一直惦念着灾区的人民群众。共产党是为人民服务的党，永远把老百姓放在心中最高位置，无论是抢险救灾还是灾后恢复重建，都会全力以赴。希望乡亲们坚定信心，努力把家园建设得更加美好。', '11月10日，中共中央总书记、国家主席、中央军委主席习近平在北京、河北考察灾后恢复重建工作。这是10日下午，习近平在河北保定涿州市双塔街道永济秀园小区门口药店，了解经营恢复情况。', '11月10日，中共中央总书记、国家主席、中央军委主席习近平在北京、河北考察灾后恢复重建工作。这是10日下午，习近平在河北保定涿州市双塔街道永济秀园小区门口超市，了解经营恢复情况。新华社记者 王晔 摄', '今年汛期，保定涿州市遭遇特大洪涝灾害，目前已基本恢复正常生产生活秩序。10日下午，习近平来到双塔街道永济秀园小区。他首先走进小区门口的药店、超市，向商户详细询问经营恢复情况，接着来到小区热力站，了解供暖设施运行情况。习近平表示，经历这场大灾，居民和一些生产经营单位损失不少，各级党委和政府要多措并举，努力帮助受灾群众和企业、商户渡过难关。城市恢复重建要做好防灾减灾论证规划，充分考虑避险避灾，留出行洪通道和泄洪区、滞洪区，更新排水管网等基础设施，提升城市运行保障能力。', '11月10日，中共中央总书记、国家主席、中央军委主席习近平在北京、河北考察灾后恢复重建工作。这是10日下午，习近平在河北保定涿州市双塔街道永济秀园小区居民董彩英家看望慰问。', '习近平走进居民董彩英家看望慰问，详细询问洪水水位、应急居住、家具家电更新、供暖、相关补助等情况。董彩英告诉总书记，在党员干部帮助下，房子已完成清理修缮并入住，温暖过冬没问题。习近平强调，城市灾后恢复重建，首要的是家家户户生活和社区居住环境的恢复。要查漏补缺，把工作进一步做细做实，基层组织、党员干部、街坊邻里、各方面专业力量和志愿者要一起努力。', '11月10日，中共中央总书记、国家主席、中央军委主席习近平在北京、河北考察灾后恢复重建工作。这是10日下午，习近平在河北保定涿州市双塔街道永济秀园小区考察时，同小区居民们亲切交流。', '11月10日，中共中央总书记、国家主席、中央军委主席习近平在北京、河北考察灾后恢复重建工作。这是10日下午，习近平在河北保定涿州市双塔街道永济秀园小区考察时，同小区居民们亲切交流。新华社发（盛佳鹏摄）', '离开小区时，习近平同小区居民亲切交流。习近平对大家说，涿州的这次灾情很重，那时我每天都关注着你们这里的情况，很是挂念大家。今天看到市政公共服务设施已恢复正常运转，大家的生活也已基本恢复正常，心里踏实了很多。风雨之后见彩虹。在党中央坚强领导下，只要大家齐心协力，就一定能够过上更加美好的生活。第二批主题教育正在深入开展，灾区各级党组织要把主题教育与灾后恢复重建紧密结合起来，大力弘扬抗洪救灾精神，充分发挥基层党组织战斗堡垒作用和党员干部先锋模范作用，用恢复重建成果和人民群众满意度来检验主题教育的成效。', '11月10日，中共中央总书记、国家主席、中央军委主席习近平在北京、河北考察灾后恢复重建工作。这是10日下午，习近平在河北保定涿州市刁窝镇万全庄村房屋重建施工现场考察。', '11月10日，中共中央总书记、国家主席、中央军委主席习近平在北京、河北考察灾后恢复重建工作。这是10日下午，习近平在河北保定涿州市刁窝镇万全庄村房屋重建施工现场考察。新华社记者 鞠鹏 摄', '刁窝镇万全庄村位于兰沟洼蓄滞洪区，今年汛期全村311户全部受灾。习近平仔细察看村道、房屋等恢复重建情况。他走进房屋重建施工现场，询问受灾损失、施工进展、租房过渡等情况，勉励他们团结一心，共渡难关，重建和美乡村。', '村民杨佩然家房屋受损较轻，已加固修缮完成并入住。习近平走进杨佩然家里，了解他们的家庭收入、修缮花销、生产恢复等情况。习近平指出，房屋修缮加固重建，是灾后恢复重建的头等大事。现在看，修缮、加固的任务已基本完成，任务最重、难度最大的还是重建。对重建户，各级党委和政府要格外关心，过渡期有特殊困难、自身无法解决居住问题的，要给予适当安置。要采取切实有效措施，防止因灾返贫。', '11月10日，中共中央总书记、国家主席、中央军委主席习近平在北京、河北考察灾后恢复重建工作。这是10日下午，习近平在河北保定涿州市刁窝镇万全庄村考察时，同村民们亲切交流。', '11月10日，中共中央总书记、国家主席、中央军委主席习近平在北京、河北考察灾后恢复重建工作。这是10日下午，习近平在河北保定涿州市刁窝镇万全庄村考察时，同村民们亲切交流。新华社发（盛佳鹏摄）', '临别时，村民们高声向总书记问好。习近平对大家说，面对历史罕见的洪灾，乡亲们遭受了很大的损失，我向大家表示慰问！各级党委和政府正在多方采取措施，扎实推进灾后恢复重建。希望乡亲们自力更生、艰苦奋斗，用自己的勤劳双手，加快恢复重建、推进乡村振兴。', '11月10日，中共中央总书记、国家主席、中央军委主席习近平在北京、河北考察灾后恢复重建工作。这是10日下午，习近平在河北保定涿州市刁窝镇万全庄村村边农田察看冬小麦长势。', '11月10日，中共中央总书记、国家主席、中央军委主席习近平在北京、河北考察灾后恢复重建工作。这是10日下午，习近平在河北保定涿州市刁窝镇万全庄村村边农田察看大白菜长势。新华社发（盛佳鹏摄）', '11月10日，中共中央总书记、国家主席、中央军委主席习近平在北京、河北考察灾后恢复重建工作。这是10日下午，习近平在河北保定涿州市刁窝镇万全庄村村边农田察看大白菜长势。新华社记者 鞠鹏 摄', '习近平还走进村边农田，察看冬小麦和大白菜长势。他指出，农业生产是灾后恢复重建的重要方面，不仅直接关系家家户户的收入，也关系国家粮食安全。要继续抓紧修复灾毁农田和农业设施，加大农资供应保障力度，加强农技指导，组织安排好今冬明春的农业生产，争取明年有个好收成。', '白沟河是大清河流域一条骨干行洪河道。习近平来到白沟河治理工程（涿州段），察看工程进展，听取河北省灾后重建重大水利工程情况汇报。习近平指出，京津冀水系相连，防汛抗洪是一盘棋，要深入研究推进京津冀地区防洪工程体系建设。坚持系统观念，统筹流域和区域，处理好上下游、左右岸、干支流关系，科学布局水库、河道、堤防、蓄滞洪区等的功能建设，整体提高京津冀地区的防洪能力。', '11月10日，中共中央总书记、国家主席、中央军委主席习近平在北京、河北考察灾后恢复重建工作。这是10日下午，习近平在河北保定涿州市白沟河治理工程（涿州段）考察时，同水利工程建设人员和曾经参加涿州抗洪救援的解放军和武警部队官兵、民兵预备役人员、消防救援队伍等方面的代表亲切交流。', '11月10日，中共中央总书记、国家主席、中央军委主席习近平在北京、河北考察灾后恢复重建工作。这是10日下午，习近平在河北保定涿州市白沟河治理工程（涿州段）考察时，同水利工程建设人员和曾经参加涿州抗洪救援的解放军和武警部队官兵、民兵预备役人员、消防救援队伍等方面的代表亲切交流。新华社记者 岳月伟 摄', '11月10日，中共中央总书记、国家主席、中央军委主席习近平在北京、河北考察灾后恢复重建工作。这是10日下午，习近平在河北保定涿州市白沟河治理工程（涿州段）考察时，同水利工程建设人员和曾经参加涿州抗洪救援的解放军和武警部队官兵、民兵预备役人员、消防救援队伍等方面的代表亲切交流。新华社发（盛佳鹏摄）', '堤坝上，习近平亲切看望慰问水利工程建设人员和曾经参加涿州抗洪救援的解放军和武警部队官兵、民兵预备役人员、消防救援队伍等方面的代表。他说，这次抗洪救灾，各方面力量与广大人民群众风雨同舟，共同构筑起防汛救灾、守护家园的坚固防线，充分展现了我们党和国家的强大政治优势。人民群众感谢你们，党和政府感谢你们！', '返回北京前，习近平对陪同人员和当地干部说，在党中央的正确决策部署下，各级各方面采取有力有效措施，把百年一遇的洪涝灾害损失降到了最低。灾后恢复重建涉及范围广，工程项目多，资金投入大。最近中央决定增发1万亿元国债，用于支持灾后恢复重建和提升防灾减灾救灾能力的项目建设。各级党委和政府、各有关部门要坚持求真务实、科学规划、合理布局，把资金用到刀刃上，高质量推进项目建设，把各项工程建设成为民心工程、优质工程、廉洁工程。', '新华社客户端提供的所有原创内容与设计均受相关法律保护，为新华社客户端及/或相关权利人专属所有或持有。未经许可或明确书面授权，任何人不得复制、转载、摘编、修改、链接新华社客户端内容，违反上述声明者，我们将依法追究其相关法律责任。', '新华社全民拍欢迎广大网民爆料，爆料内容请严格遵守国家法律法规，我们将根据审核制度，及时调查追踪。']</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A109" t="n">
+        <v>23</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
           <t>习近平总书记在北京河北考察灾后恢复重建工作时的重要讲话温暖民心汇聚力量</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
+      <c r="E109" t="inlineStr">
         <is>
           <t>2023-11-13</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr">
+      <c r="F109" t="inlineStr">
         <is>
           <t>https://www.gov.cn/yaowen/liebiao/202311/content_6914824.htm</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
+      <c r="G109" t="inlineStr">
         <is>
           <t>['习近平总书记在北京河北考察灾后恢复重建工作时的重要讲话温暖民心、汇聚力量__中国政府网', '新华社北京11月10日电 题：努力把家园建设得更加美好——习近平总书记在北京河北考察灾后恢复重建工作时的重要讲话温暖民心、汇聚力量', '题：努力把家园建设得更加美好——习近平总书记在北京河北考察灾后恢复重建工作时的重要讲话温暖民心、汇聚力量', '10日，习近平总书记在北京、河北考察灾后恢复重建工作时强调，再接再厉抓好灾后恢复重建，确保广大人民群众安居乐业、温暖过冬。习近平总书记的深情牵挂、殷切嘱托，让受灾地区广大干部群众深感温暖、深受鼓舞。大家表示，将坚定信心，全力以赴，努力把家园建设得更加美好。', '河北涿州，立冬过后，户外最低温度降到零摄氏度以下。双塔街道永济秀园小区的29栋居民楼里已经通上暖气，屋里暖意融融。', '“习近平总书记进屋后，很关心我们的受灾情况和现在的生活。全家人心里暖烘烘的，感觉总书记非常亲切，始终把我们老百姓装在心中。”小区居民董彩英说，在党中央坚强领导下，大家齐心协力，就一定能够过上更加美好的生活。', '今年夏天，京津冀和东北等地汛情发生后，习近平总书记一直密切关注全国汛情，始终牵挂受灾群众，走进多个受灾较重地区考察慰问。', '“真没想到习爷爷会来到我们的课堂，他听得特别仔细，还和大家互动交流。”北京市门头沟区妙峰山民族学校五年级一班的学生段进熙说。因地势相对较高，今年汛期，她所在的学校作为临时避灾场所和防汛抗洪救灾人员驻地。', '随父母在学校安置期间，一架架直升机将救援物资空投到操场的情景，让段进熙印象深刻：“我用黏土捏了一个直升机模型分享这段经历。我要按照习爷爷的教导，树立远大志向，做社会主义事业的建设者和接班人。”', '在抗洪抢险中，一批党员干部冲锋在前，涌现出许多感人故事。门头沟区龙泉镇副镇长刘捷，在劝导群众转移避险中突遇山洪，英勇牺牲。', '“习近平总书记仔细询问我们生活是否有保障，让我充分感受到了党中央的关心关怀。”泪水在刘捷的爱人刘璇眼里打转，“未来我会好好工作，督促儿子认真学习，一起努力把他爸爸舍己为人的精神传承下去。”', '中铁呼和浩特局集团有限公司包头客运段青岛车队技术员赵阳，在手机上看到习近平总书记考察的消息，心里非常感动。三个多月前，在因洪水滞留的K396次列车上，身为乘务员的赵阳哽咽喊话安抚乘客的场景感动了无数人。', '“习近平总书记说共产党是为人民服务的党，永远把老百姓放在心中最高位置。作为一名基层党员，我将把总书记的厚望重托转化为更大的工作动力。无论是抢险救灾还是日常工作，都会全力以赴。”赵阳说。', '“习近平总书记来到我们村，关心灾后的生产生活和房屋重建情况，尤其是关心我们如何过冬。我打心里感谢总书记，感谢共产党。”回想起总书记走进自己家中的那一幕，村民杨佩然激动不已。', '千里之外的黑龙江省尚志市，龙王庙村村民杨春贵对现在的生活感到踏实：“9月初总书记来看望我们的时候，家里刚贴了地砖，还在刮大白。现在房子都修好了，火炕、衣柜、橱柜都是崭新的。”', '尚志市住房和城乡建设局副局长高峰说：“房屋修缮加固重建，是灾后恢复重建的头等大事，也是习近平总书记的牵挂事。在完成房屋重建基础上，我们将持续关注受灾群众的住房、生活情况，加快重建和美乡村。”', '在新闻上看到总书记又一次走进农田考察灾后恢复生产的情况，金马镇镇长翟成更觉重任在肩：“农业生产不仅关系家家户户的收入，也关系国家粮食安全。我们将继续抓紧修复灾毁农田和农业设施，组织安排好今冬明春的农业生产，争取明年有个好收成。”', '流经河北涿州的白沟河，是大清河流域一条骨干行洪河道。10日下午，在白沟河治理工程（涿州段）施工现场，上百名工作人员正进行堤坝加固等工作。', '“尽管天气寒冷，但总书记的话让大家干劲更足。”河北省水利工程局集团有限公司第一分公司总经理赵满江说，“接下来我们将按照总书记要求，既保证工程进度，又高质量高标准进行水利工程建设，下足绣花功夫，让这些设施更好发挥防汛抗洪作用，守卫人民群众安全。”', '习近平总书记前来考察调研基础设施恢复建设情况，令北京市门头沟区妙峰山镇党委书记王垚十分振奋：“我们这里是北京防汛抗洪的重点区域之一。总书记强调大涝大灾之后，务必大建大治。我们将加快落实落细这一要求，因地制宜采取有效措施，全面提升防灾减灾救灾能力。”', '“坚持系统观念”“抓紧补短板、强弱项”，习近平总书记的殷殷嘱托让中国气象局应急减灾与公共服务司副司长王亚伟更加明确了工作方向，“接下来将通过纵向逐级提醒、横向部门协同的联动体系，进一步提升基层‘预警’到‘行动’的效率。”', '福建省南安市防汛办主任黄震宇对习近平总书记讲话中“完善城乡基层应急管理组织体系”感触很深。', '“近期我们出台了应急机制完善方案，从指挥体系、监测预报预警、防洪排涝等多方面全面提升防灾减灾救灾能力。”黄震宇表示，将建设应急救援综合信息指挥系统，借助数字化提升整体应急救灾响应速度和处理能力。', '灾后恢复重建涉及范围广，工程项目多，资金投入大。最近中央决定增发1万亿元国债，集中力量支持灾后恢复重建和提升防灾减灾救灾能力，弥补我国抵御自然灾害能力的短板弱项。', '“总书记强调要坚持求真务实、科学规划、合理布局，把资金用到刀刃上，我们深感责任重大。”国家发展改革委固定资产投资司司长罗国三说，目前增发国债项目实施工作机制已启动，正在组织各地方抓紧梳理申报一批项目。', '罗国三表示，将严格按照“资金和要素跟着项目走、项目跟着规划走”的原则，尽快选定项目并下达项目清单和安排金额，争取在11月底前将大部分国债资金安排到具体项目，压实地方和有关部门责任，把各项工程建设成为民心工程、优质工程、廉洁工程。']</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A110" t="n">
+        <v>23</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
           <t>习近平在四川考察时强调推动新时代治蜀兴川再上新台阶奋力谱写中国式现代化四川新篇章返京途中在陕西汉中考察</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
+      <c r="E110" t="inlineStr">
         <is>
           <t>2023-07-29</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr">
+      <c r="F110" t="inlineStr">
         <is>
           <t>https://www.gov.cn/yaowen/liebiao/202307/content_6895414.htm</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
+      <c r="G110" t="inlineStr">
         <is>
           <t>['习近平在四川考察时强调 推动新时代治蜀兴川再上新台阶 奋力谱写中国式现代化四川新篇章 返京途中在陕西汉中考察__中国政府网', '习近平在四川考察时强调 推动新时代治蜀兴川再上新台阶 奋力谱写中国式现代化四川新篇章 返京途中在陕西汉中考察', '习近平在四川考察时强调 推动新时代治蜀兴川再上新台阶 奋力谱写中国式现代化四川新篇章 返京途中在陕西汉中考察 蔡奇陪同考察', '7月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在四川考察。这是25日下午，习近平在广元市剑阁县翠云廊考察。', '7月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在四川考察。这是26日下午，习近平在位于德阳市广汉市的三星堆博物馆文物保护与修复馆，同现场工作人员亲切交流。', '新华社四川成都/陕西汉中7月29日电 中共中央总书记、国家主席、中央军委主席习近平近日在四川考察时强调，全面学习贯彻党的二十大精神，要牢牢把握新时代新征程党的中心任务，牢牢把握中国式现代化的科学内涵和本质要求，牢牢把握高质量发展这个首要任务，把贯彻新发展理念、构建新发展格局、促进共同富裕贯穿经济社会发展各方面全过程，深入推进发展方式、发展动力、发展领域、发展质量变革，开创我国高质量发展新局面。四川要进一步从全国大局把握自身的战略地位和战略使命，立足本地实际，明确发展思路和主攻方向，锻长板、补短板，努力在提高科技创新能力、建设现代化产业体系、推进乡村振兴、加强生态环境治理等方面实现新突破，推动新时代治蜀兴川再上新台阶，奋力谱写中国式现代化四川新篇章。', '7月25日至27日，习近平在四川省委书记王晓晖和省长黄强陪同下，先后来到广元、德阳等地进行调研。', '25日下午，习近平首先来到广元市剑阁县考察了翠云廊。这里是古代关中平原通往四川盆地古蜀道的重要路段，有迄今保存最完好的古代人工栽植驿道古柏群。习近平听取古蜀道发展历程、翠云廊整体情况介绍，沿古道步行察看千年古柏长势，详细询问历史上植柏护柏情况。他指出，这片全世界最大的人工古柏林，之所以能够延续得这么久、保护得这么好，得益于明代开始颁布实行“官民相禁剪伐”、“交树交印”等制度，一直沿袭至今、相习成风，更得益于当地百姓世代共同守护。这启示我们，抓生态文明建设必须搭建好制度框架，抓好制度执行，同时充分调动广大人民群众的积极性主动性创造性，巩固发展新时代生态文明建设成果。临行前，他嘱咐当地负责同志，要把古树名木保护好，把中华优秀传统文化传承好。', '7月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在四川考察。这是26日下午，习近平在位于德阳市广汉市的三星堆博物馆新馆参观。', '位于德阳市广汉市西北鸭子河南岸的三星堆遗址，代表了数千年前的古蜀文明面貌和发展水平，是同时期长江流域文化内涵最丰富、面积最大的都城遗址。26日下午，习近平来到三星堆博物馆新馆，参观“世纪逐梦”、“巍然王都”、“天地人神”等展陈，了解三星堆遗址发掘历程和古蜀文明成果。在三星堆博物馆文物保护与修复馆，习近平走进文保修复工作区，仔细察看文物保护修复工作流程细节和最新技术，同现场工作人员亲切交流。习近平指出，三星堆遗址考古成果在世界上是叫得响的，展现了四千多年前的文明成果，为中华文明多元一体、古蜀文明与中原文明相互影响等提供了更为有力的考古实证。文物保护修复是一项长期任务，要加大国家支持力度，加强人才队伍建设，发扬严谨细致的工匠精神，一件一件来，久久为功，做出更大成绩。习近平代表党中央，对三星堆博物馆新馆的落成使用表示热烈祝贺，向广大考古工作者表示衷心感谢和崇高敬意！', '27日上午，习近平听取了四川省委和省政府工作汇报，对四川各项工作取得的成绩给予肯定，希望四川在推进科技创新和科技成果转化上同时发力，在建设现代化产业体系上精准发力，在推进乡村振兴上全面发力，在筑牢长江黄河上游生态屏障上持续发力。', '习近平指出，以科技创新开辟发展新领域新赛道、塑造发展新动能新优势，是大势所趋，也是高质量发展的迫切要求，必须依靠创新特别是科技创新实现动力变革和动能转换。四川要发挥高校和科研机构众多、创新人才集聚的优势和产业体系较为完善、产业基础雄厚的优势，在科技创新和科技成果转化上同时发力。要完善科技创新体系，积极对接国家战略科技力量和资源，优化完善创新资源布局，努力攻克一批关键核心技术，着力打造西部地区创新高地。', '习近平强调，四川是我国发展的战略腹地，在国家发展大局特别是实施西部大开发战略中具有独特而重要的地位。要依托制造业的独特优势，积极服务国家产业链供应链安全，高质量对接东部沿海地区产业新布局。要把发展特色优势产业和战略性新兴产业作为主攻方向，加快改造提升传统产业，前瞻部署未来产业，促进数字经济与实体经济深度融合，构建富有四川特色和优势的现代化产业体系。要科学规划建设新型能源体系，促进水风光氢天然气等多能互补发展。要强化粮食和战略性矿产资源等生产供应，打造保障国家重要初级产品供给战略基地。要坚持“川渝一盘棋”，加强成渝区域协同发展，构筑向西开放战略高地和参与国际竞争新基地，尽快成为带动西部高质量发展的重要增长极和新的动力源。', '习近平指出，要巩固脱贫攻坚成果，把乡村振兴摆在治蜀兴川的突出位置，更好扛起粮食、生猪、油料等重要农产品稳产保供责任。要抓住种子和耕地两个要害，加强良种和良田的配套，打造新时代更高水平的“天府粮仓”。要在产业发展、乡村建设、乡村治理等方面，聚焦群众反映强烈、能抓得住、抓几年就能见到成效的几件事，集中资源，加快突破，形成标志性成果。要学习运用浙江“千万工程”经验，聚焦小切口，锲而不舍、久久为功。农村宅基地改革要守住底线。要把住土地流转关，不能借流转之机搞“非农化”。要加强社会保障体系城乡统筹，推动基本公共服务城乡均等化。', '习近平强调，四川是长江上游重要的水源涵养地、黄河上游重要的水源补给区，也是全球生物多样性保护重点地区，要把生态文明建设这篇大文章做好。要坚持山水林田湖草沙一体化保护和系统治理，强化国土空间管控和负面清单管理，严格落实自然保护地、生态保护红线监管制度。要加快建立以国家公园为主体的自然保护地体系。要推行草原森林河流湖泊湿地休养生息。要加快调整优化产业结构、能源结构、交通运输结构、用地结构，推进资源集约节约利用，积极倡导绿色低碳生产生活方式。要以更高标准打好蓝天、碧水、净土保卫战，积极探索生态产品价值实现机制，完善生态保护补偿机制，提升生态环境治理现代化水平。', '习近平指出，四川是自然灾害频发之地，要健全应急管理体系，加强应急力量建设，形成长效机制，系统提升防灾减灾救灾能力。7、8月份长江流域进入主汛期，要全面落实防汛救灾主体责任，做好防汛抗洪救灾各项应对准备工作。要科学救灾，防止发生次生灾害，最大限度减少人员伤亡和财产损失，尽快恢复正常生产生活秩序。要落实落细安全生产责任制，全面排查安全生产隐患，坚决防范和遏制重特大安全生产事故发生，切实保障人民生命财产安全。', '习近平强调，第一批主题教育只剩下一个多月时间，各级党组织要落实党中央部署，善始善终、慎终如始，务求实效。要对主题教育的实效进行科学、客观评估。检验理论学习成效，要看党的创新理论是否入心见行、党员干部是否做到善思善用；检验调查研究成效，要看是否摸清社情民意、是否解决实际问题；检验推动发展成效，要看高质量发展是否有新突破、人民生活品质是否有新提升；检验检视整改成效，要看问题症结是否找准、整改整治是否到位；检验干部队伍教育整顿成效，要看思想不纯和组织不纯现象是否纠正、政治隐患是否消除。评估成效要用事实说话，开门抓评估，让群众评价，确保评估客观真实。评估主题教育成效，很重要的一个方面是看形式主义、官僚主义是否得到有效解决，要对形式主义、官僚主义的东西来一次检视，分析根源，对症下药，切实改出实效。要开好领导班子专题民主生活会和基层党组织组织生活会，结合学查改开展批评和自我批评。', '7月29日，中共中央总书记、国家主席、中央军委主席习近平在四川考察结束返京途中，来到陕西省汉中市考察。这是习近平参观汉中市博物馆有关历史文物展陈。', '习近平十分关心汉江流域历史文化传承和生态保护。7月29日，在返京途中，习近平走下列车，在陕西省委书记赵一德、省长赵刚陪同下，来到汉中市考察。习近平参观汉中市博物馆有关历史文物展陈，了解汉中历史文化、文物保护情况。他指出，文物承载灿烂文明，传承历史文化，维系民族精神。要发挥好博物馆保护、传承、研究、展示人类文明的重要作用，守护好中华文脉，并让文物活起来，扩大中华文化的影响力。汉中藤编等非物质文化遗产久负盛名，要发展壮大特色产业，更好带动群众增收致富。离开博物馆时，附近的乡亲们围拢过来热情欢呼“总书记好”。习近平亲切地对大家说，我在2008年汶川大地震抗震救灾时来过汉中，这些年一直牵挂着这里。这次来，看到这里发展变化很大，城市井然有序，很欣慰。他祝愿大家工作好、生活好、家庭幸福。', '途中，习近平考察了地处汉江汉中城区段的天汉湿地公园，称赞这里是市民“幸福园”。习近平强调，汉江及其支流是南水北调中线工程的主要水源汇集区和供给地，保护好这一区域的湿地资源责任重大、意义深远。生态公园建设要顺应自然，加强湿地生态系统的整体性保护和系统性修复，促进生态保护同生产生活相互融合，努力建设环境优美、绿色低碳、宜居宜游的生态城市。', '李干杰、何立峰及中央和国家机关有关部门负责同志陪同考察，主题教育中央第十二指导组负责同志参加汇报会。']</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A111" t="n">
+        <v>23</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
           <t>开创高质量发展新局面习近平总书记在四川考察时的重要讲话激扬广大干部群众奋进力量</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
+      <c r="E111" t="inlineStr">
         <is>
           <t>2023-07-31</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr">
+      <c r="F111" t="inlineStr">
         <is>
           <t>https://www.gov.cn/yaowen/liebiao/202307/content_6895487.htm</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
+      <c r="G111" t="inlineStr">
         <is>
           <t>['开创高质量发展新局面——习近平总书记在四川考察时的重要讲话激扬广大干部群众奋进力量__中国政府网', '开创高质量发展新局面——习近平总书记在四川考察时的重要讲话激扬广大干部群众奋进力量', '新华社北京7月30日电 题：开创高质量发展新局面——习近平总书记在四川考察时的重要讲话激扬广大干部群众奋进力量', '题：开创高质量发展新局面——习近平总书记在四川考察时的重要讲话激扬广大干部群众奋进力量', '7月25日至27日，习近平总书记在四川考察时发表的重要讲话，既为推动新时代治蜀兴川提出明确要求，也为各行各业开创高质量发展新局面指明方向。', '大家表示，新时代阔步新征程，要在习近平新时代中国特色社会主义思想指引下，牢牢把握高质量发展这个首要任务，全面贯彻新发展理念，加快构建新发展格局，抓好生态文明建设，守护中华文脉，以中国式现代化全面推进中华民族伟大复兴。', '古蜀道上，翠云廊中，千年古柏诉说着人与自然和谐共生的愿景追求，蕴含着中国人的生态智慧。', '“在古蜀道翠云廊，习近平总书记屡屡驻足、详细询问。”西华师范大学历史文化学院教授、广元市蜀道文化研究会副会长蔡东洲说，“当前古柏群保护进入了最好时期，总书记的重要讲话为我们做好工作注入了信心与动力。下一步，我们将拓展科研团队，加强跨学科研究，为当地生态资源的保护、开发、利用提供更加全面的支撑，不断擦亮翠云廊这张生态文明名片。”', '抓生态文明建设必须搭建好制度框架，抓好制度执行，同时充分调动广大人民群众的积极性主动性创造性。', '习近平总书记的深切关怀，让四川省广元市委书记何树平备受鼓舞：“近年来，我们围绕‘林长制’实施了一系列措施，干部群众植树、护树、爱树的积极性不断提高。我们将认真落实好总书记的要求，不断巩固发展新时代生态文明建设成果。在此基础上，传承好中华优秀传统文化，做好文物古迹保护和活化利用，不断彰显生态价值优势和文化影响力。”', '习近平总书记十分关心汉江流域生态保护。7月29日，在返京途中，习近平总书记走下列车，来到汉中市考察。', '“总书记的到来更加坚定了我们汉中水利人守好源头水、建设‘幸福园’的决心。”陕西省汉中市水利局干部刘庭均表示，“作为一名基层水利工作者，我将和同事们落实好总书记要求，促进生态保护同生产生活相互融合，以高品质生态环境支撑高质量发展。”', '在汉中考察流域生态保护，在四川强调筑牢长江黄河上游生态屏障，习近平总书记对江河的关注，令广西壮族自治区钦州市钦北区贵台镇总河长、镇党委书记利远远深有感触。', '“一条河流绵延不绝，关系周边生态系统和谐，关系沿河人民群众福祉。”利远远说，将按照习近平总书记的要求，常态化加强河流保护与治理，让更多老百姓共享生态环境持续向好的红利。', '夏日的塞罕坝，林海苍翠连绵。眼下，塞罕坝机械林场保护地管理科科员孙朝辉正忙着开展野生动植物监测工作。', '“习近平总书记的重要讲话为进一步加强生态文明建设指明了方向。”长期从事湿地管理保护工作的孙朝辉更加坚定了信心，“我们一定要传承好绿色发展的接力棒，切实把塞罕坝60多年来接续奋斗的重要成果抚育好、管理好、保障好，让塞罕坝的绿色成为美丽中国建设中的亮丽一笔。”', '四川广汉，缓缓流淌的鸭子河滋养辉煌灿烂的三星堆文化。习近平总书记指出，三星堆遗址考古成果“为中华文明多元一体、古蜀文明与中原文明相互影响等提供了更为有力的考古实证”。', '“总书记高度肯定、十分关心三星堆遗址发掘和文物保护修复工作，让我们备感振奋。”现场聆听了总书记重要讲话，四川省文物考古研究院院长、三星堆遗址考古发掘总领队唐飞说，“我们将进一步加强人才队伍建设，推进三星堆传统修复技艺和现代科技融合发展，发扬工匠精神，久久为功，努力把文物保护修复这项长期任务做出更大成绩。”', '四川历史文化遗产丰富，近年来先后取得皮洛遗址、江口沉银遗址等一系列重大考古成果，8项非遗项目被列入联合国教科文组织非物质文化遗产名录，多处世界遗产名扬海内外。', '学习了习近平总书记重要讲话精神，四川省文物局局长王毅更加明确了今后工作的方向和重点：“我们将加大文物保护研究力度，盘活博物馆资源，推动博物馆特色化、差异化发展，为阐释、展示好博大精深的中华文化作出积极贡献，为高质量发展注入更多文化内涵、提供强大精神支撑。”', '回想起为总书记讲解的经历，汉中市博物馆讲解员贺向兵心情激动：“总书记十分了解并关切汉中历史文化和文物遗产保护工作，强调发挥好博物馆保护、传承、研究、展示人类文明的重要作用，对我们文博工作者是莫大的鞭策与激励。我们将牢记总书记嘱托，立足工作岗位，让文物说话，把博物馆一草一木、一碑一石的故事讲解好，把传承千年的历史文化传播好。”', '知所从来，方明所去。位于河南安阳殷墟遗址保护区的中国社会科学院考古研究所安阳工作站内，考古工作人员正在讨论规划洹北商城“郭城”的下一步考古发掘工作。', '“挖掘中华优秀传统文化内涵、守护好中华文脉，考古工作者大有可为。”通过新闻第一时间学习了习近平总书记重要讲话，中国社会科学院考古研究所研究员、安阳工作站副站长何毓灵表示，将依托殷墟丰富的考古实证材料，进一步加强对青铜、甲骨文字、都邑布局等方面研究，为担负起新时代新的文化使命、建设中华民族现代文明贡献考古力量。', '“希望四川在推进科技创新和科技成果转化上同时发力，在建设现代化产业体系上精准发力，在推进乡村振兴上全面发力，在筑牢长江黄河上游生态屏障上持续发力。”习近平总书记对四川的殷切嘱托，令各界备受鼓舞。', '位于成都的中国核动力研究设计院，建院50多年来坚持自主创新，成功研发了我国自主三代核电技术“华龙一号”和全球首个陆上商用模块化小堆“玲龙一号”等重大科技成果。', '“习近平总书记勉励科技创新工作，我们深感责任重大。”中国核动力研究设计院院长、党委副书记王丛林说，将加快高端人才培养，着力构建高效敏捷的研发创新模式，加大战略性原创性成果转化，做强核动力、发展先进核能、推动核技术应用，为建设新型能源体系提供更好支撑。', '祖国北疆，内蒙古自治区呼和浩特中环产业园内，科技正助力自动化生产——这里1名工程师可远程控制384台设备，批量产出一根根硅棒。', '“习近平总书记的重要讲话中再次强调建设现代化产业体系，作为高端产业园区，我们在这一方面责无旁贷。”TCL中环新能源科技股份有限公司总经理沈浩平表示，“我们将继续围绕建设现代化产业体系这一重要使命，用绿色制造、智能制造赋能产业升级，用现代产业支撑本地区发展方式、发展动力、发展领域、发展质量变革。”', '发展为了人民。习近平总书记指出，要学习运用浙江“千万工程”经验，聚焦小切口，锲而不舍、久久为功。', '浙江省杭州市萧山区梅林村，当年的“千万工程”示范村之一，20年后，又成为浙江省首批“未来乡村”试点村。', '梅林村党委书记杨燕江说：“村民的生活芝麻开花、村里的发展蒸蒸日上，这都离不开党的好政策、总书记的高瞻远瞩。我们正在用数字技术赋能基层服务治理，搭建健康、低碳、治理等50个数字应用‘小切口’。未来，我们也将聚焦群众反映强烈的领域，以满足百姓需求为目标，用乡村振兴助力中国式现代化。”', '第一批主题教育只剩下一个多月时间。在四川，习近平总书记对评估主题教育成效提出明确要求。', '“习近平总书记说，检验调查研究成效，要看是否摸清社情民意、是否解决实际问题。作为基层司法党员干部，我们更该以时时放心不下的责任感，深入群众、用心调研，了解群众的急难愁盼问题，积极实践新时代‘枫桥经验’，更好地发挥基层司法行政工作在乡村振兴和服务高质量发展中的作用，努力将主题教育成效转化为实际工作成效，用新作为扛起新使命。”江苏省南京市六合区司法局马鞍司法所所长、全国“人民满意的公务员”唐大林说。']</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A112" t="n">
+        <v>23</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
           <t>侯马市政协考察团来我县考察教育教学工作</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
+      <c r="E112" t="inlineStr">
         <is>
           <t>2023-07-24</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr">
+      <c r="F112" t="inlineStr">
         <is>
           <t>http://www.yicheng.gov.cn/xwzx/zwyw/202307/t20230724_220702.html</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
+      <c r="G112" t="inlineStr">
         <is>
           <t>['7月21日，侯马市政协副主席张凯带领政协考察团来我县考察教育教学工作，县政协主席、政法委书记刘生明，副县长高伟，县政协副主席王东东一同考察。', '考察团一行先后到中卫完小、星杰中学、北关小学、翼城中学，通过现场察看、听取汇报等方式详细了解学校管理模式、文化建设、办校特色、教育投入等具体情况，并观摩了活动室、图书室、户外场地等校园环境。', '座谈会上，刘生明对侯马市政协考察团的到来表示热烈欢迎，教科局负责人介绍了近年来我县教育教学工作情况，参会学校负责人就办学理念、管理模式等进行了深入交流。', '张凯一行对我县教育教学工作给予高度评价，考察人员纷纷表示，将以此次考察为契机，学习借鉴翼城县的好经验、好做法、好模式，结合侯马实际，促进侯马市教育工作迈上新台阶。同时希望两地今后在教育办学特色、管理经验、教育质量等方面加强交流沟通，互相借鉴先进经验，共同推动两地教育事业高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A113" t="n">
+        <v>23</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
           <t>阳泉市郊区政协考察团在曲沃学习考察</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
+      <c r="E113" t="inlineStr">
         <is>
           <t>2023-05-11</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr">
+      <c r="F113" t="inlineStr">
         <is>
           <t>http://www.quwo.gov.cn/xwzx/zwyw/202305/t20230512_187112.html</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
+      <c r="G113" t="inlineStr">
         <is>
           <t>['5月10日，阳泉市郊区政协副主席史慧明带领考察团前来曲沃县学习考察。县政协副主席李继红、王红香陪同。', '史慧明一行先后前往晋园、晋国博物馆进行参观考察。每到一处，考察团都同相关负责人仔细沟通，详细了解曲沃通过文旅融合促进乡村振兴的经验做法。在晋国博物馆，大家在讲解员的精心讲解下，对晋国历史发展与墓葬遗址的文化价值有了深刻的理解，对曲沃考古、文化历史的传承保护工作给予了充分肯定。', '此次考察中，两地交流了工作思路、交换了经验做法、加深了认识了解。双方表示，今后要进一步畅通交流渠道，相互学习，相互借鉴，共同促进两地文旅产业快速发展。']</t>
         </is>
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A114" t="n">
+        <v>23</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
           <t>习近平总书记在北京河北考察灾后恢复重建工作时的重要讲话精神激励我省广大党员干部不断提升防灾减灾救灾能力确保全省人民安居乐业温暖过冬</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
+      <c r="E114" t="inlineStr">
         <is>
           <t>2023-11-15</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr">
+      <c r="F114" t="inlineStr">
         <is>
           <t>https://www.shanxi.gov.cn/ywdt/sxyw/202311/t20231115_9426613.shtml</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
+      <c r="G114" t="inlineStr">
         <is>
           <t>['习近平总书记在北京河北考察灾后恢复重建工作时的重要讲话精神激励我省广大党员干部——', '中共中央总书记、国家主席、中央军委主席习近平11月10日在北京、河北考察灾后恢复重建工作时强调，各级党委和政府、各有关方面要认真贯彻落实党中央决策部署，再接再厉抓好灾后恢复重建，确保广大人民群众安居乐业、温暖过冬。要始终坚持以人民为中心，坚持系统观念，坚持求真务实、科学规划、合理布局，抓紧补短板、强弱项，加快完善防洪工程体系、应急管理体系，不断提升防灾减灾救灾能力。', '连日来，我省广大党员干部认真学习贯彻习近平总书记重要讲话精神，表示要坚决做好灾后重建及救助工作，进一步加强应急管理体系和防灾减灾救灾能力建设，真正把以人民为中心的执政思想落细落实，确保全省人民群众安居乐业、温暖过冬。', '“我们将认真贯彻习近平总书记在北京河北考察灾后恢复重建工作时的重要讲话精神，为推动翼城高质量发展全面提质提速奠定坚实基础。”临汾市翼城县住房和城乡建设管理局党组成员、副局长苏永旺表示。2021年罕见的强降雨天气造成洪涝灾害之后，翼城县严格按照摸排情况建立灾情统计台账，及时对接市级有关部门，科学精准做好救灾救助工作，妥善安排受灾群众生活，落实落细各项防汛救灾工作措施。结合群众意愿，因地制宜施策，通过“新建一批、装配一批、回购一批、调剂一批、转移一批”的“五个一批”举措，不仅让1675户房屋受损群众住上“安全房”，更让受灾群众住进“满意房”。下一阶段，翼城县住建系统将继续秉持人民至上、生命至上原则，联动相关部门扎实做好灾后重建后半篇文章，积极建立完善住房安全保障长效机制，提升房屋建设质量和抗灾性能，不让一户群众因灾返贫，不让一户群众居无所依，努力实现救灾重建工作与生产发展同向同行。', '2021年国庆期间，我省成功应对了有气象记录以来的最强秋汛，但同时也暴露出防洪体系上存在的短板和问题。为尽快补齐全省防洪基础设施短板，全面提升流域防洪能力，省委、省政府决定在全省实施防洪能力提升工程。防洪能力提升工程共涉及11市112县（市、区），包括200平方公里以上河流、200平方公里以下流经县城所在地河流和重要山洪沟道215条，以县为单元共规划实施项目345个，工程总投资151.7亿元，其中中央及省级投资占比70%，计划2022年—2025年完成全部项目建设任务。省水利厅河湖处处长赵立东表示：“截至目前，省水利厅已下达省级以上投资72亿元、安排项目206项，现已开工168项，开工率82%。通过系统规划防洪工程布局，完善防洪工程体系建设，将全面提升全省河道泄洪及堤防防御能力，为全省流域防洪安全提供重要保障。”', '11月10日上午，中国人民财产保险股份有限公司吕梁市分公司召开主题教育学习会，学习习近平总书记在北京河北考察灾后恢复重建工作时的重要讲话精神。针对入冬的天气变化等原因，会议对全市农业保险全覆盖的理赔工作预案部署。今年以来，为确保受损农户及时减损，吕梁分公司已赔付玉米、小麦、育肥猪、能繁母猪4个中央财政补贴型险种738.68万元；理赔省财政试点补贴型险种238.55万元；理赔核桃、小杂粮、塑料大棚等吕梁市财政补贴型8个险种3578.75万元。总经理丁鲁明表示：“习近平总书记的重要讲话精神是我们工作的强大动力。冬季发生农业灾害的可能性大，人保财险要及时发挥国有企业的担当，立足服务民生，不惧农业面临的巨大风险，积极承保农业产品，不断提高承保理赔服务，确保农业生产有保险保驾护航，全力助推乡村振兴。”', '我省广大党员干部表示，要按照习近平总书记在考察时强调的，不断完善城乡基层应急管理组织体系，着力提升基层防灾避险和自救互救能力。', '近年来，聚焦重点领域，紧盯薄弱环节，我省全力防范化解重大安全风险，建立了紧急避险转移安置群众的快速反应机制和省市县互联互通的气象风险、森林草原火险、地质灾害预警体系，配备了全省“火场应急通信系统”和无人机机群载弹灭火装备，配强了救援队伍抢险救援设施，持续实现“全灾种”统筹应对、全过程统一管理、全天候积极防范、全力量有效协调。在日前开展的专业化能力提升集中培训中，全省应急管理干部增设桌面推演环节，对突发森林火灾进行“全过程、全要素、全流程”推演，达到预期效果和以演促练、以练为战、以练促改的目的。省应急管理厅党委书记、厅长王启瑞表示，将认真贯彻落实党中央、国务院决策部署以及省委、省政府工作要求，进一步加强和完善应急管理体系建设，为全省高质量发展提供安全支撑。', '“习近平总书记在北京河北考察灾后恢复重建工作时的重要讲话精神，具有极强的政治性、战略性、指导性、针对性，是指引我们消防救援队伍奋进新征程的行动指南，为我们做好各项工作指明了前进方向、提供了根本遵循。”朔州市消防救援支队副支队长田磊表示。今年以来，朔州市消防救援支队进一步完善各类抢险救援预案，持续加强24小时应急值守，连续开展了“应急使命”水域抢险救援实战演练、高层建筑灭火救援实战演练、化工灭火编队液氨泄漏处置等实战演练，重点对拉动流程、组织指挥、作战行动、装备以及通信保障等方面进行检验，确保一声令下队伍能够快速出动，圆满完成任务。同时，集中组织开展各类抢险救援安全防事故训练，进一步规范救援程序、安全防护技巧、救援编组分工，逐一明确岗位任务，不断提升指战员应对处置能力和自我安全防护意识，坚决确保作战安全。', '为民托底、为民解困、为民服务。吕梁市交口县民政局始终坚持以人民为中心的发展思想，认真学习贯彻习近平总书记关于民政工作的重要指示批示精神，全面落实省市县决策部署，在开展常态化救助和保障的同时，全面落实“先行救助”“分级审批”、急难发生地直接实施临时救助等政策规定，健全低收入人口平台监测预警机制，优化审核确认程序，为遭遇突发性、紧迫性、临时性生活困难的城乡困难群众提供兜底保障。“习近平总书记的重要讲话精神让我们民政干部感到使命在肩。大力开展救助服务，织密民生保障网，交口县今年将乡镇临时救助金额由400元提高到1000元。”吕梁市交口县民政局党组书记、局长武丽萍表示。', '入农户、访民情、解难题、办实事……广大党员干部纷纷以群众所思所盼为动员令，为冲锋号，按照习近平总书记要求，把以人民为中心的执政思想落实到自身行动上，体现在具体工作中。', '连日来，太原市迎泽区桥东街道南内环街社区党委组织工作人员开展“访民问暖”工作，走家入户，深入居民家中了解供暖情况，征集意见和建议，全面提升社区各个小区供暖能力和服务保障水平，及时排忧解困，确保居民温暖过冬。冬季供暖事关百姓冷暖，是社区居民最关心的问题。社区党委书记杨效俊表示，我们要认真贯彻落实习近平总书记“确保广大人民群众安居乐业温暖过冬”的要求，急群众之所急，想群众之所想，用社区干部的辛苦指数不断提升群众的幸福指数。', '“我们将认真学习贯彻习近平总书记重要讲话精神，全力确保全市9万余户‘煤改电’用户取暖设备安全运行。”国网晋中供电公司运检部主任刘军说。连日来，该公司和“煤改电”售后服务中心、管护企业售后人员及村干部进村入户，对设备进行巡查调试及检修，尤其对孤寡老人等重点人群进行走访，为需要帮助的用户上门服务。农村清洁能源采暖改造，是打赢蓝天保卫战的重要举措，也是关系千家万户的民生工程。下一步，国网晋中供电公司将在持续做好“煤改电”用户配套服务工作的基础上，结合乡村振兴对电力的需求，加快推进农村配网自动化建设力度，并依托现有“配网可视化平台、PMS运维管控模块、用电信息采集”等信息化系统，逐步推动农村电网数字化、智能化转型，为建设美丽乡村注入“电动力”。', '地里的庄稼收了吗？帮扶政策兑现没？冬天家里暖和不……近日，方山县开展党员干部入户走访活动，县级层面，34名县级领导包联90个行政村和7个安置点，90个驻村单位的帮扶干部、村“两委”主干、6个镇包村干部进行编组，党员干部全部下沉到一线，对所有监测户、脱贫户、一般户进行走访全覆盖，解民忧、暖民心，坚决杜绝“搞应付”“走过场”。方山县乡村振兴局负责人王强说：“目前，全县各级干部走访农户4.8万余户，宣传各类政策40余项，收集整理群众急难愁盼问题310余个，已经解决290余个，剩余问题正在提级解决中，集中入户走访活动助群众满意度、幸福感显著提升。”（李学林 张毅 贺锴 闫书敏 高建华 晋帅妮 范珍 燕中兴 丁园 张谦 李全宏）']</t>
         </is>
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A115" t="n">
+        <v>23</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
           <t>隰县县委常委副县长王翠翠一行在临汾经济开发区学习考察交流</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
+      <c r="E115" t="inlineStr">
         <is>
           <t>2023-08-02</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr">
+      <c r="F115" t="inlineStr">
         <is>
           <t>https://mp.weixin.qq.com/s/jJq0JS5G1JQy-B4P0Isk0g</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
+      <c r="G115" t="inlineStr">
         <is>
           <t>['8月1日，隰县县委常委、副县长王翠翠，隰县现代农业产业示范区党工委副书记、管委会常务副主任王文涛带领相关职能部门在临汾经济开发区学习考察交流。党工委委员、管委会副主任田文杰，经济科技发展部、住房和城市建设部、行政审批服务部、规划和自然资源分局、生态环境分局、规划和自然资源事务中心、政务服务中心相关负责人参加。', '详细了解审批操作流程、政务服务中心布局设置、自助服务、“承诺制+标准地+全代办”工作情况等', '。座谈中，田文杰介绍了临汾经济开发区基本情况，双方围绕营商环境、招商引资、专项债政策、项目前期手续办理、项目建设等工作进行了深入交流探讨。', '田文杰对隰县考察团的到来表示热烈欢迎。他表示，隰县与临汾经济开发区是携手并进、互相帮助的兄弟县区，', '临汾经济开发区将始终坦诚以待、毫无保留，与兄弟县区加强交流、分享经验，互相启发，推动高质量发展全面提质提速再上新台阶。', '王翠翠表示，通过此次考察交流，深刻感受到临汾经济开发区蒸蒸日上、热情洋溢的精神风貌和干事创业的浓厚氛围。今后要把临汾经济开发区的好理念、好经验、好做法认真总结，联系实际，不断取长补短，奋力开创隰县工作新局面。同时也希望双方可以加强交流，建立长效沟通机制，实现优势互补、互利共赢，共同推动两地工作再上新台阶。']</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A116" t="n">
+        <v>23</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
           <t>崔绍民带队赴西安市进行招商引资考察并深入西安交通大学洽谈区校合作相关事宜</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr">
+      <c r="E116" t="inlineStr">
         <is>
           <t>2023-04-22</t>
         </is>
       </c>
-      <c r="E116" t="inlineStr">
+      <c r="F116" t="inlineStr">
         <is>
           <t>http://www.yaodu.gov.cn/xwzx/zwyw/202304/t20230424_176913.html</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
+      <c r="G116" t="inlineStr">
         <is>
           <t>['4月21日，区委书记崔绍民带队赴西安市进行招商引资考察，并深入西安交通大学，洽谈区校合作相关事宜，西安交大党委常委、副校长柴渭出席座谈。尧都高新区党工委书记、管委会主任郭忠义，区委常委、组织部长白向阳，区委常委、宣传部长郭亮，区委常委、区委办主任温济荟，副区长孔令泽等参加活动。', '在西安华合德新材料科技有限公司，考察团详细听取了公司相关负责人介绍了公司概况、研发团队及电子材料、半导体器件、新兴能源技术行业领域的研究成果和转化利用情况；随后，考察团前往北京理工大学-雷科防务（西安）创新园，重点了解了园区企业孵化模式及防务应用领域的技术应用。崔绍民还介绍了尧都区基本情况和区位、产业、基础设施等方面优势，并诚挚欢迎相关企业来尧考察和投资。', '在西安交通大学，考察团参观了西安交大西迁纪念馆，了解学校建校发展及西迁变革历史，深刻感悟伟大的“西迁精神”。之后，在西安交大兴庆校区，与校方开展了智汇临汾·才赢未来，尧都区·西安交大区校合作招才引智对接座谈，双方围绕深化区校合作、人才政策推介等方面进行了深度沟通交流。', '崔绍民在座谈中介绍了尧都区地理区位、历史文化、城市建设、资源禀赋、重点产业、营商环境及尧都高新区建设发展等相关情况，并希望以此次考察为契机，加强与西安交大的沟通联系，建立起良好的互动机制，围绕科研成果转化落地等事项，拓宽区校之间的合作空间。尧都区将以最优的营商环境、最热情周到的服务欢迎西安交大团队的到来，期待通过双方共同努力，碰撞出发展的火花，结出合作的成果。', '柴渭简要介绍了西安交大建校发展历史和人才招生等情况。他指出，西安交大是一所肩负国家民族使命的学校，我们将继续弘扬伟大的“西迁精神”，用知识技术人才为区域经济发展作出贡献。下一步，将重点关注科研方向和产业需求的双向结合，进一步加强与尧都区的人才和项目交流，为地方经济和学校自身发展作出贡献。', '座谈中，白向阳围绕智汇尧都建设、大学生实习实训、人才补贴服务等推介了我区省校合作相关人才政策，校方人员围绕加强区校合作进行了交流发言。']</t>
         </is>
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A117" t="n">
+        <v>23</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
           <t>习近平在广州市考察调研</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
+      <c r="E117" t="inlineStr">
         <is>
           <t>2023-04-13</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr">
+      <c r="F117" t="inlineStr">
         <is>
           <t>http://www.gov.cn/yaowen/2023-04/13/content_5751199.htm</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
+      <c r="G117" t="inlineStr">
         <is>
           <t>['12日，习近平总书记在广东省广州市先后考察了乐金显示广州制造基地、广汽埃安新能源汽车股份有限公司，了解当地推进高水平对外开放、推动制造业高质量发展，以及企业推进科技创新、打造自主品牌等情况，并同企业代表、科研人员、一线职工等交流。（文字记者：张晓松、朱基钗；摄影记者：鞠鹏、李学仁、燕雁、刘彬）', '12日，习近平总书记在广东省广州市先后考察了乐金显示广州制造基地、广汽埃安新能源汽车股份有限公司，了解当地推进高水平对外开放、推动制造业高质量发展，以及企业推进科技创新、打造自主品牌等情况，并同企业代表、科研人员、一线职工等交流。']</t>
         </is>
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A118" t="n">
+        <v>23</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
           <t>学思想强党性重实践建新功省公安厅省高院省检察院召开学习贯彻习近平新时代中国特色社会主义思想主题教育动员大会</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr">
+      <c r="E118" t="inlineStr">
         <is>
           <t>2023-04-19</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr">
+      <c r="F118" t="inlineStr">
         <is>
           <t>https://www.shanxi.gov.cn/ywdt/sxyw/202304/t20230419_8389134.shtml</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
+      <c r="G118" t="inlineStr">
         <is>
           <t>['【学思想 强党性 重实践 建新功】省公安厅省高院省检察院召开学习贯彻习近平新时代中国特色社会主义思想主题教育动员大会 - 山西省人民政府', '【学思想 强党性 重实践 建新功】省公安厅省高院省检察院召开学习贯彻习近平新时代中国特色社会主义思想主题教育动员大会', '连日来，省公安厅、省高院、省检察院分别召开学习贯彻习近平新时代中国特色社会主义思想主题教育动员会议，结合工作实际，对本单位深入开展主题教育进行动员部署，作出具体安排。', '4月11日，省公安厅召开学习贯彻习近平新时代中国特色社会主义思想主题教育动员大会。副省长、省公安厅厅长李成林主持会议并讲话。会议指出，省厅各级党组织和全体党员民警职工要站在捍卫“两个确立”、做到“两个维护”的政治高度，牢牢把握开展主题教育的根本任务、目标要求、工作安排和方法措施，坚决把思想和行动统一到习近平总书记重要讲话精神和党中央决策部署上来。开展好主题教育，要在党中央统一部署和省委坚强领导下，牢牢把握“学思想、强党性、重实践、建新功”的总要求，坚持学思用贯通、知信行合一，着力在学用结合、深化转化上下功夫，切实把理论学习、调查研究、推动发展、检视整改、建章立制贯通起来，着力解决理论学习、政治素质、能力本领、担当作为、工作作风、廉洁自律等六个方面的问题，努力在以学铸魂、以学增智、以学正风、以学促干上取得实实在在的成效。要坚持主题教育和中心工作两手抓、两促进，以全省公安工作现代化的优异成绩来检验主题教育的成效，为奋力谱写全面建设社会主义现代化国家山西篇章作出新的更大贡献。', '4月13日，省高院召开学习贯彻习近平新时代中国特色社会主义思想主题教育动员大会。省高院党组书记、院长冯军出席会议并讲话。会议指出，全省法院要牢牢把握开展主题教育的根本任务、目标要求、工作安排和方法措施，坚决把思想和行动统一到习近平总书记重要讲话精神和党中央决策部署及省委工作要求上来，以高度的政治自觉、思想自觉、行动自觉推进主题教育深入开展。要突出学深悟透，抓好理论学习这个首要任务，对照中央明确的12个方面重要内容、省委部署的25个重点课题，围绕“公正与效率”主题，深入基层一线把脉问诊、解剖麻雀，善于发现问题、注意解决问题，坚持融入日常、创新方式方法，进一步转变作风提高本领。要加强组织领导，统筹部署、协调推进，切实把主题教育谋划好、组织好、落实好，同全省法院中心工作结合起来，推动党员、干警将焕发出来的学习、工作热情转化为攻坚克难、干事创业的强大动力，为奋力谱写全面建设社会主义现代化国家山西篇章提供更加有力的司法服务和保障。', '4月10日，省检察院召开全省检察机关学习贯彻习近平新时代中国特色社会主义思想主题教育动员大会。省检察院党组书记、检察长杨景海出席会议并讲话。会议强调，全省检察机关要提高政治站位，站在捍卫“两个确立”、做到“两个维护”的政治高度，结合山西检察发展实践历程，更加深刻认识开展学习贯彻习近平新时代中国特色社会主义思想主题教育的重大政治意义、理论意义、实践意义，切实把思想和行动统一到习近平总书记重要讲话精神和党中央决策部署上来。领会核心要义，确保主题教育沿着正确方向前进，把握工作重点，不断把主题教育引向深入，在加强理论学习中培根铸魂、提升本领，在调查研究中改进作风、解决问题，在推动发展中对标一流、再创佳绩，在检视整改中刀刃向内、改进提升，在建章立制中巩固成果、形成常态。加强组织领导，为主题教育扎实顺利开展提供坚强保证，齐抓共管，层层压紧责任，努力建设堪当时代重任的检察铁军。 （郭宁 闫书敏 邓伟强）']</t>
         </is>
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A119" t="n">
+        <v>23</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
           <t>省公安厅省高院省检察院召开学习贯彻习近平新时代中国特色社会主义思想主题教育动员大会</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr">
+      <c r="E119" t="inlineStr">
         <is>
           <t>2023-04-19</t>
         </is>
       </c>
-      <c r="E119" t="inlineStr">
+      <c r="F119" t="inlineStr">
         <is>
           <t>http://www.lfxww.com/2023/xxgcxjp/xsxqdx/2715499.html</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
+      <c r="G119" t="inlineStr">
         <is>
           <t>['省公安厅省高院省检察院召开学习贯彻习近平新时代中国特色社会主义思想主题教育动员大会_临汾新闻网', '当前位置：临汾新闻网 &gt; 专题管理 &gt; 学习贯彻习近平新时代中国特色社会主义思想主题教育 &gt; 学思想 强党性 重实践 建新功&gt;', '&gt; 学习贯彻习近平新时代中国特色社会主义思想主题教育 &gt; 学思想 强党性 重实践 建新功&gt;', '省公安厅省高院省检察院召开学习贯彻习近平新时代中国特色社会主义思想主题教育动员大会', '连日来，省公安厅、省高院、省检察院分别召开学习贯彻习近平新时代中国特色社会主义思想主题教育动员会议，结合工作实际，对本单位深入开展主题教育进行动员部署，作出具体安排。', '4月11日，省公安厅召开学习贯彻习近平新时代中国特色社会主义思想主题教育动员大会。副省长、省公安厅厅长李成林主持会议并讲话。会议指出，省厅各级党组织和全体党员民警职工要站在捍卫“两个确立”、做到“两个维护”的政治高度，牢牢把握开展主题教育的根本任务、目标要求、工作安排和方法措施，坚决把思想和行动统一到习近平总书记重要讲话精神和党中央决策部署上来。开展好主题教育，要在党中央统一部署和省委坚强领导下，牢牢把握“学思想、强党性、重实践、建新功”的总要求，坚持学思用贯通、知信行合一，着力在学用结合、深化转化上下功夫，切实把理论学习、调查研究、推动发展、检视整改、建章立制贯通起来，着力解决理论学习、政治素质、能力本领、担当作为、工作作风、廉洁自律等六个方面的问题，努力在以学铸魂、以学增智、以学正风、以学促干上取得实实在在的成效。要坚持主题教育和中心工作两手抓、两促进，以全省公安工作现代化的优异成绩来检验主题教育的成效，为奋力谱写全面建设社会主义现代化国家山西篇章作出新的更大贡献。', '4月13日，省高院召开学习贯彻习近平新时代中国特色社会主义思想主题教育动员大会。省高院党组书记、院长冯军出席会议并讲话。会议指出，全省法院要牢牢把握开展主题教育的根本任务、目标要求、工作安排和方法措施，坚决把思想和行动统一到习近平总书记重要讲话精神和党中央决策部署及省委工作要求上来，以高度的政治自觉、思想自觉、行动自觉推进主题教育深入开展。要突出学深悟透，抓好理论学习这个首要任务，对照中央明确的12个方面重要内容、省委部署的25个重点课题，围绕“公正与效率”主题，深入基层一线把脉问诊、解剖麻雀，善于发现问题、注意解决问题，坚持融入日常、创新方式方法，进一步转变作风提高本领。要加强组织领导，统筹部署、协调推进，切实把主题教育谋划好、组织好、落实好，同全省法院中心工作结合起来，推动党员、干警将焕发出来的学习、工作热情转化为攻坚克难、干事创业的强大动力，为奋力谱写全面建设社会主义现代化国家山西篇章提供更加有力的司法服务和保障。', '4月10日，省检察院召开全省检察机关学习贯彻习近平新时代中国特色社会主义思想主题教育动员大会。省检察院党组书记、检察长杨景海出席会议并讲话。会议强调，全省检察机关要提高政治站位，站在捍卫“两个确立”、做到“两个维护”的政治高度，结合山西检察发展实践历程，更加深刻认识开展学习贯彻习近平新时代中国特色社会主义思想主题教育的重大政治意义、理论意义、实践意义，切实把思想和行动统一到习近平总书记重要讲话精神和党中央决策部署上来。领会核心要义，确保主题教育沿着正确方向前进，把握工作重点，不断把主题教育引向深入，在加强理论学习中培根铸魂、提升本领，在调查研究中改进作风、解决问题，在推动发展中对标一流、再创佳绩，在检视整改中刀刃向内、改进提升，在建章立制中巩固成果、形成常态。加强组织领导，为主题教育扎实顺利开展提供坚强保证，齐抓共管，层层压紧责任，努力建设堪当时代重任的检察铁军。 (郭宁 闫书敏 邓伟强)', '汲取奋发进取的智慧和力量——各地认真推动学习贯彻习近平新时代中国特色社会主义思想主题教育走深走实', '临汾新闻早知道 | 李云峰调研市区城建重点项目；临汾青年五四奖公示；市人民检察院招']</t>
         </is>
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A120" t="n">
+        <v>23</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
           <t>我市组织相关部门赴福建省三明市考察学习</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr">
+      <c r="E120" t="inlineStr">
         <is>
           <t>2023-02-17</t>
         </is>
       </c>
-      <c r="E120" t="inlineStr">
+      <c r="F120" t="inlineStr">
         <is>
           <t>http://wjw.linfen.gov.cn/xwzx/bmyw/202302/t20230217_142244.html</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
+      <c r="G120" t="inlineStr">
         <is>
           <t>['为贯彻落实国家和省医改办关于推广三明医改经验、持续深化医药卫生体制改革相关工作要求，', '2月10日临汾市人民政府副市长、市医改领导组副组长张潞萍带领市委编办、市财政局、市人社局、市卫健委、市医保局、市市场监管局和古县人民政府有关负责同志赴福建省三明市考察学习，谋划推动临汾市深化医药卫生体制改革工作实现新突破、取得新成效。', '在实地考察三明市第一医院后，考察组在三明市医保中心召开座谈会。会上三明市政协教科卫体委员会主任于修芹介绍三明医改经验，双方有关部门负责同志围绕深化“三医联动”综合改革、紧密型医共体建设、推进医保支付方式改革和人事薪酬制度改革、推进公立医院高质量发展等进行交流。通过考察交流，三明医改给大家带来了极大触动和深刻启发。张潞萍副市长指出三明医改真正做到了“三医”联动，充分体现出“人民至上、生命至上”理念和“敢为人先，久久为功”勇气魄力。近年来，临汾市在推进15分钟就医圈建设、DRG医保支付方式改革、县域医疗卫生一体化建设等方面取得一定成效，但还是存在一些困惑。大家要因地制宜学习借鉴三明经验，提振精神，不断激发改革内生动力，围绕医改这个目标继续前进，充分调动公立医院高质量发展的积极性，持续深化医药卫生体制改革走深走实，切实提升城市品质，增强人民群众看病就医的获得感、幸福感。']</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A121" t="n">
+        <v>23</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
           <t>赵松强带队在云南省考察学习期间召开阶段性讨论交流会</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr">
+      <c r="E121" t="inlineStr">
         <is>
           <t>2023-02-17</t>
         </is>
       </c>
-      <c r="E121" t="inlineStr">
+      <c r="F121" t="inlineStr">
         <is>
           <t>http://www.zgjx.gov.cn/xwzx/zwyw/202302/t20230218_142345.html</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
+      <c r="G121" t="inlineStr">
         <is>
           <t>['2月16日，县委书记赵松强在云南省考察学习期间召开阶段性讨论交流会，听取招商引资小分队项目考察情况汇报，现场与相关企业就乡村振兴、农文旅融合、黄河流域生态保护和高质量发展等相关项目进行落地对接。安娜、庞大懿、陕红欢等县领导参加会议。', '会上，与会人员依次发言，围绕考察学习收获，结合各自工作实际，谈认识、说体会，并提出了下一步努力方向，表达了干好今后工作的信心决心。', '赵松强对与会人员的交流发言表示充分肯定。指出，这次外出考察学习，达到了解放思想、转变观念、理清思路、推动工作的目的和效果。', '赵松强强调，要认真梳理总结考察学习成果，学习借鉴先进经验和做法，创新做好乡村振兴、农文旅融合、黄河流域生态保护和高质量发展等各项工作，全力推动吉县高质量发展。要加强与项目企业的沟通对接，强化服务意识，创新服务举措，主动跟进服务，及时协调解决企业面临的困难和问题，推动项目尽快落地实施。要结合我县实际，创新工作思路，优化营商环境，精准招商引资，吸引更多企业投资、更多项目落地，为全县经济社会高质量发展增添后劲、蓄势赋能。']</t>
         </is>
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A122" t="n">
+        <v>23</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
           <t>大宁县现代农业发展中心组织考察团赴甘肃省考察学习</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr">
+      <c r="E122" t="inlineStr">
         <is>
           <t>2023-07-25</t>
         </is>
       </c>
-      <c r="E122" t="inlineStr">
+      <c r="F122" t="inlineStr">
         <is>
           <t>http://www.daning.gov.cn/xwzx/zwyw/202307/t20230725_221098.html</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
+      <c r="G122" t="inlineStr">
         <is>
           <t>['7月19日至7月21日，大宁县现代农业发展中心组织太德乡果农赴甘肃省，就苹果产业发展进行考察学习。', '考察中，考察团一行先后前往甘肃省庆阳市宁县金农农业扶贫开发有限公司焦村基地、小康示范园基地，平凉市静宁县智慧果业科技创新产业园等地，通过实地查看、听取介绍等方式，对甘肃省苹果种植的方式、管理机制、品种选择、配套设施、产量和价格等情况进行详细全面的了解。', '通过考察学习，开阔了视野、增长了见识、拓宽了思路，进一步增强了果农种植果树的积极性。大家纷纷表示，回去后将尽快把甘肃省苹果产业发展的先进理念、经验和技术方法转化为具体实践，推动我县苹果产业高质量发展。', '大宁县现代农业发展中心高级农艺师王林冲说：“我们这次来甘肃学习矮化密植栽培模式和管理技术。通过这次学习，我们回去开展好果树管理技术培训，将大宁宁脆苹果产业做大做强。”']</t>
         </is>
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A123" t="n">
+        <v>23</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
           <t>建站将启全力备航三船保障聚焦中国第次南极科学考察队起航</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr">
+      <c r="E123" t="inlineStr">
         <is>
           <t>2023-11-03</t>
         </is>
       </c>
-      <c r="E123" t="inlineStr">
+      <c r="F123" t="inlineStr">
         <is>
           <t>https://www.gov.cn/yaowen/liebiao/202311/content_6913305.htm</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
+      <c r="G123" t="inlineStr">
         <is>
           <t>['新华社上海11月1日电 题：建站将启，全力备航，三船保障——聚焦中国第40次南极科学考察队起航', '2023年11月1日，由自然资源部组织的中国第40次南极科学考察队从上海出发。考察队由来自国内80余家单位的460多人组成，将于2024年4月上旬返回，历时5个多月，航程总计3万多海里。', '罗斯海新站建设将启、工作人员全力以赴备航、首次实现南极科考三船保障……一起来看起航前后诸多亮点。', '上午9时50分许，“雪龙”号与“雪龙2”号船从中国极地考察国内基地码头出发。向南航行数十天后，中国第40次南极科学考察队将抵达首个预定作业地点。', '罗斯海新站，中国在南极的第5个考察站，也是继长城站、中山站之后第3个南极常年考察站。按照计划，相关作业队员将于12月中旬抵达新站建设区域，并在60天内完成建设任务。', '“该站为我国首个面向太平洋扇区的考察站。”中国第40次南极科学考察队罗斯海新站队队长王哲超说，“新站建成后，考察队将以此为依托，开展大气环境、海洋基础环境、生物生态等多圈层、多学科的观监测和科学研究工作。”', '新的位置，更新设计理念。国家海洋局极地考察办公室副主任龙威介绍，新站主体设计为南十字星造型，设计理念源自中国航海家郑和下西洋用来导航的南十字星。', '此外，考察队在新站建设过程中践行“绿色考察”理念，实现节能、节水、节材，达到绿色环保建站的目的。', '中国第40次南极科学考察队领队张北辰介绍，本航次科考作业中，“雪龙”号和“雪龙2”号船将分别在东南极普里兹湾、宇航员海，西南极罗斯海、阿蒙森海及南极半岛临近海域开展生物生态、水体环境、沉积环境、大气环境及污染物分布综合调查监测。考察队还将以昆仑站、中山站、长城站为依托，开展生态系统、大气环境、雪冰环境等综合调查监测。', '10月28日，起航前4天，装满科考设备、食品等物资的集装箱被陆续吊运上船，紧张而有序的备航工作进入最后阶段。', '“备航是一项复杂的系统工程。”中国第40次南极科学考察队领队张北辰表示，概括来讲，备航共有三条线：人员线、任务线、物资线，线线要落实，步步要走好。', '人员线，从队员筛选到健康体检，从行前培训到住宿安排，务必细致到位；任务线，科考物资准备，数据样品采集计划汇交与审查，作业人员安排等要力求精确；物资线，考察队衣食住行等物资补给，科考物资准备及装船，船舶检修与维护……桩桩件件，不容有失。', '为了集中精力备航，起航前半个月，“雪龙”号系统工程师王林浩把几个月大的孩子送回外地老家，委托老人照看。', '曾去过2次南极的青年极地人范高晶，在此次科考中被首次任命为中国南极科学考察队“雪龙”号大洋队队长。“几十名预选和备选队员，作业需求要逐一沟通协调，周期上百天，平均隔天回一次家。这是挑战，对我来说更是成长。”', '为盯紧船舶维修进度，家在上海的“雪龙2”号政委陈晓东选择国庆假期值班留守，“现场看着，有问题及时处理，这样我才放心。”', '“从8月底开始，考察队每周召开一次备航协调会。”张北辰表示，在长达数月的备航工作中，多达数百名工作人员参与进各个环节，倒排工期，连续奋战，为顺利起航提供了坚实保障。', '在“雪龙”号与“雪龙2”号从上海启程的同时，执行新站建设物资运送任务的“天惠”轮货船从江苏张家港出发，中国南极科考首次实现3艘船保障。', '从“雪龙”号极地科考船服役显著增强中国极地科考能力，到中国自主建造的“雪龙2”号服役实现南极科考“双龙探极”，再到今天3船共赴南极，科考船的升级，一如中国南极事业的成长，扎实而稳健。', '科考人接续奋斗。几十年来，长城站、中山站、昆仑站、泰山站相继建成，中国科考人有了探索南极纵深的坚固后盾。', '科考事业迈向高端。昔日，参加过首次南极科考的曹建军和队员们“挖地用铁锹、冻伤很普遍、晒伤也常见”；而今，各式极地科考设备与防护装备不断升级，新型科考船为队员提供着舒适的生活环境，中国南极科考实现跨越式发展。', '参与南极全球治理的能力不断增强。1985年，中国正式成为《南极条约》协商国。2017年，国家海洋局发布《中国的南极事业》报告，其中指出，广泛开展国际交流与合作。交通运输、物资支持、医疗援助……数十次南极考察中，我国与美、俄、澳等多国互通有无，国际极地事务中的话语权和影响力显著增强。', '本次科考，考察队将实施与挪威、澳大利亚等多国合作的恩德比地航空调查任务，并与美、英、澳等国开展后勤保障方面的国际合作。', '铭记过去，奔向未来。中国第40次南极科学考察队定当不辱使命、再创佳绩，帮助人类更好地认识南极、保护南极、利用南极，为打造南极“人类命运共同体”做出新的更大的中国贡献。']</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A124" t="n">
+        <v>23</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
           <t>李青雁带队赴河北考察学习</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr">
+      <c r="E124" t="inlineStr">
         <is>
           <t>2023-07-20</t>
         </is>
       </c>
-      <c r="E124" t="inlineStr">
+      <c r="F124" t="inlineStr">
         <is>
           <t>http://www.huozhou.gov.cn/zzzb/hzyw/202307/t20230720_218997.html</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
+      <c r="G124" t="inlineStr">
         <is>
           <t>['7月16 日至18日，市委书记李青雁带队赴河北省考察学习。市委常委、白龙镇党委书记王昕光，市委常委、市委办公室主任吕文博，市委常委、宣传部部长史澎，政府副市长郭惠民及政府办、发改局、农发公司等部门负责人一同。', '在保定市曲阳陈氏定窑瓷业有限公司、陈文增定瓷艺术馆、定瓷生产车间和定州博物馆等地，李青雁一行认真观察，倾耳聆听，咨询问答，品鉴定瓷的精湛工艺及历史传承，感受定瓷文化的厚重与渊源。', '座谈会上，李青雁与定州市委副书记赵红亮、定窑非遗传承人围绕如何推进霍州窑遗址保护、综合性展示利用、霍窑工艺恢复等展开深入交流。李青雁表示，定州拥有悠久的瓷文化历史和良好的产业发展优势，对我们发展霍州窑产业具有很好的借鉴意义。今后，我们将加强与定州的沟通交流，虚心求教、深化交流、加强互动，为霍州窑展示利用做出应有的贡献。', '在五得利集团邯郸面粉有限公司，李青雁实地参观生产车间，与中国粮食行业协会、山西省粮食和物资储备局领导和五得利集团董事长丹志民及相关部门负责人进行了座谈交流，霍州市政府还与五得利集团签订了合作框架协议。', '期间，李青雁还来到石家庄市同福集团股份有限公司考察，参观了栾城同福大健康食品城、塔元庄同福乡村振兴园，并与同福集团党委书记、董事长刘山国进行了座谈。']</t>
         </is>
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A125" t="n">
+        <v>23</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
           <t>临汾市农业农村局赴运城市开展考察学习活动</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr">
+      <c r="E125" t="inlineStr">
         <is>
           <t>2023-07-25</t>
         </is>
       </c>
-      <c r="E125" t="inlineStr">
+      <c r="F125" t="inlineStr">
         <is>
           <t>https://mp.weixin.qq.com/s/6FFpertzeUhizZJHE2A4XA</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
+      <c r="G125" t="inlineStr">
         <is>
           <t>['深入推进农业供给侧结构性改革 加快培育农业农村发展新动能 开创农业现代化建设新局面', '为进一步推动我市农业农村高质量发展全面提质提速，7月20日至21日，临汾市农业农村局组织考察组赴运城市考察学习农业项目建设、项目谋划申报以及一产经济指标等工作。考察组由市农业农村局副局长李俊、三级调研员张小敏、四级调研员王锐及相关科室、事业单位同志组成。', '考察组采取实地考察、座谈交流、个别访谈等方式在临猗县、永济市考察学习，重点对智慧猪场、奶牛养殖、肉鸡养殖、蔬菜大棚、国家现代苹果产业技术体系建设、临猗枣业发展、渔业发展、小麦良种繁育基地等方面进行考察调研，详细了解运城市在农业农村高质量发展方面的经验做法以及农业项目的谋划与申报。', '在专题座谈交流会上，运城市农业农村局对我市考察组的到来表示了热烈的欢迎。考察组与运城市农业农村局就农业农村工作经验和看法进行了深入交流。', '考察组对运城市推进农业农村高质量发展方面的好经验、好做法表示充分了肯定。考察组一致认为我市要继续在人才培养上下大功夫、练足本领，充分运用好西北农林科技大学、山西农业大学等优秀的高校资源。同时要全面考虑自然禀赋和产业发展优势等，在合理合法合规前提下，高效利用好土地资源，推动更多优质项目落地临汾。', '考察组表示，要以此次考察学习为契机，认真学习借鉴运城的先进经验与成功做法，结合我市实际，以更大的决心、更强的力度、更实的举措推进临汾“三农”工作再上新台阶。同时欢迎运城市农业农村局到我市进行考察调研，希望两地能持续强化交流、深化合作，实现互融互通、互学互鉴，共同推进农业农村现代化。']</t>
         </is>
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A126" t="n">
+        <v>23</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
           <t>关于组织学习化工和危险化学品生产经营单位重大生产安全事故隐患判定标准专家判定参考建议的通知</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr">
+      <c r="E126" t="inlineStr">
         <is>
           <t>2023-11-07</t>
         </is>
       </c>
-      <c r="E126" t="inlineStr">
+      <c r="F126" t="inlineStr">
         <is>
           <t>http://yjglj.linfen.gov.cn/wjfg/tzgg/202401/t20240103_298673.html</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr">
+      <c r="G126" t="inlineStr">
         <is>
           <t>['167关于组织学习化工和危险化学品生产经营单位重大生产安全事故隐患判定标准专家判定参考建议的通知-通知公告-临汾市应急管理局', '167关于组织学习化工和危险化学品生产经营单位重大生产安全事故隐患判定标准专家判定参考建议的通知', '167关于组织学习化工和危险化学品生产经营单位重大生产安全事故隐患判定标准专家判定参考建议的通知.pdf']</t>
         </is>
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A127" t="n">
+        <v>23</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
           <t>习近平在江西考察</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr">
+      <c r="E127" t="inlineStr">
         <is>
           <t>2023-10-16</t>
         </is>
       </c>
-      <c r="E127" t="inlineStr">
+      <c r="F127" t="inlineStr">
         <is>
           <t>https://www.gov.cn/yaowen/liebiao/202310/content_6908910.htm</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
+      <c r="G127" t="inlineStr">
         <is>
           <t>['习近平在江西考察时强调：解放思想开拓进取扬长补短固本兴新 奋力谱写中国式现代化江西篇章__中国政府网', '习近平在江西考察时强调：解放思想开拓进取扬长补短固本兴新 奋力谱写中国式现代化江西篇章', '习近平在江西考察时强调 解放思想开拓进取扬长补短固本兴新 奋力谱写中国式现代化江西篇章 蔡奇陪同考察', '新华社南昌10月13日电 中共中央总书记、国家主席、中央军委主席习近平近日在江西考察时强调，要紧紧围绕新时代新征程党的中心任务，完整准确全面贯彻新发展理念，牢牢把握江西在构建新发展格局中的定位，立足江西的特色和优势，着眼高质量发展、绿色发展、低碳发展等新要求，解放思想、开拓进取，扬长补短、固本兴新，努力在加快革命老区高质量发展上走在前、在推动中部地区崛起上勇争先、在推进长江经济带发展上善作为，奋力谱写中国式现代化江西篇章。', '10月10日至13日，习近平在江西省委书记尹弘和省长叶建春陪同下，先后来到九江、景德镇、上饶等地，深入长江岸线、企业、历史文化街区、农村等进行调研。', '10月10日至13日，中共中央总书记、国家主席、中央军委主席习近平在江西考察。这是10日下午，习近平在长江国家文化公园九江城区段考察时，冒雨沿江堤步行察看沿岸风貌。新华社记者 谢环驰 摄', '10日下午，习近平来到九江市考察调研。在长江国家文化公园九江城区段，习近平登上琵琶亭远眺长江，冒雨沿江堤步行察看沿岸风貌，仔细询问长江水位、水质、航运、防洪、禁渔等情况，听取当地崩岸治理、航道疏浚、岸线生态修复等工作进展介绍。习近平指出，长江是长江经济带的纽带。无论未来长江经济带怎么发展、发展到哪个阶段，都不可能离开长江的哺育。要从人与自然和谐共生的生命共同体出发，着眼中华民族永续发展，把长江保护好。', '10月10日至13日，中共中央总书记、国家主席、中央军委主席习近平在江西考察。这是10日下午，习近平在中国石化九江分公司检验计量中心实验室考察。新华社记者 鞠鹏 摄', '习近平随后乘车来到中国石化九江分公司。他走进公司生产管控中心控制大厅和检验计量中心实验室，详细了解企业转型升级打造绿色智能工厂、推动节能减污降碳等情况，对企业开展科学检测、严格排放标准等做法表示肯定。习近平强调，破解“化工围江”，是推进长江生态环境治理的重点。要再接再厉，坚持源头管控、全过程减污降碳，大力推进数智化改造、绿色化转型，打造世界领先的绿色智能炼化企业。', '10月10日至13日，中共中央总书记、国家主席、中央军委主席习近平在江西考察。这是10日下午，习近平在中国石化九江分公司考察时，同企业员工亲切交流。新华社记者 谢环驰 摄', '实验室外，企业员工们围拢过来纷纷向总书记问好。习近平亲切地对大家说，石化产业是国民经济的重要支柱产业，希望你们按照党中央对新型工业化的部署要求，坚持绿色、智能方向，扎扎实实、奋发进取，为保障国家能源安全、推动石化工业高质量发展作出新贡献。', '10月10日至13日，中共中央总书记、国家主席、中央军委主席习近平在江西考察。这是11日上午，习近平在景德镇市陶阳里历史文化街区南麓遗址考察。新华社记者 谢环驰 摄', '10月10日至13日，中共中央总书记、国家主席、中央军委主席习近平在江西考察。这是11日上午，习近平在景德镇市陶阳里历史文化街区明清窑作群考察。新华社记者 谢环驰 摄', '11日上午，习近平来到景德镇市考察调研。在陶阳里历史文化街区，习近平先后走进南麓遗址、陶瓷博物馆、明清窑作群，饶有兴趣地了解制瓷技艺流程、陶瓷文化传承创新和对外交流等情况，同非遗传承人亲切交流，不时赞赏他们的手上功夫和工匠精神，鼓励他们秉持艺术至上，专心致志传承创新。习近平指出，中华优秀传统文化自古至今从未断流，陶瓷是中华瑰宝，是中华文明的重要名片。陶阳里历史文化街区严格遵循保护第一、修旧如旧的要求，实现了陶瓷文化保护与文旅产业发展的良性互动。要集聚各方面人才，加强创意设计和研发创新，进一步把陶瓷产业做大做强，把“千年瓷都”这张靓丽的名片擦得更亮。', '10月10日至13日，中共中央总书记、国家主席、中央军委主席习近平在江西考察。这是11日上午，习近平在景德镇市陶阳里历史文化街区考察时，同非遗传承人亲切交流。新华社记者 刘彬 摄', '10月10日至13日，中共中央总书记、国家主席、中央军委主席习近平在江西考察。这是11日上午，习近平在景德镇市陶阳里历史文化街区考察时，同非遗传承人等亲切交流。新华社记者 谢环驰 摄', '随后，习近平来到昌河飞机工业（集团）有限公司，考察了直升飞机总装车间和试飞站，详细了解企业推进技术创新和产品迭代升级的情况。他指出，航空装备是我国制造业发展的一个重点。要坚持创新驱动，在关键核心技术自主研发上下更大功夫，面向未来需求出新品，努力构建先进制造体系、打造世界一流直升机企业。', '10月10日至13日，中共中央总书记、国家主席、中央军委主席习近平在江西考察。这是11日上午，习近平在景德镇市昌河飞机工业（集团）有限公司考察。新华社记者 燕雁 摄', '11日下午，习近平来到上饶市婺源县秋口镇王村石门自然村。这里是饶河源国家湿地公园的中心区，也是极度濒危鸟类蓝冠噪鹛自然保护小区，植被多样、生态良好。习近平详细了解湿地公园和蓝冠噪鹛保护等情况。村广场上正在“晒秋”，一排排晒盘盛满红豆、玉米、辣椒等，格外喜人。美术学院师生正在采风写生，习近平驻足观看，同他们亲切交流，鼓励他们打好扎实基本功。得知当地发展特色旅游、茶产业，推进乡村振兴成效显著，习近平十分高兴。他指出，优美的自然环境本身就是乡村振兴的优质资源，要找到实现生态价值转换的有效途径，让群众得到实实在在的好处。乡村要振兴，关键是把基层党组织建好、建强。基层党组织要成为群众致富的领路人，确保党的惠民政策落地见效，真正成为战斗堡垒。', '10月10日至13日，中共中央总书记、国家主席、中央军委主席习近平在江西考察。这是11日下午，习近平在上饶市婺源县秋口镇王村石门自然村考察时，了解饶河源国家湿地公园和极度濒危鸟类蓝冠噪鹛保护等情况。新华社记者 谢环驰 摄', '10月10日至13日，中共中央总书记、国家主席、中央军委主席习近平在江西考察。这是11日下午，习近平在上饶市婺源县秋口镇王村石门自然村考察。新华社记者 谢环驰 摄', '离开村子时，村民们热情欢送总书记。习近平亲切地说，中国式现代化既要有城市的现代化，又要有农业农村现代化，我很关注乡村振兴。希望你们保护好自然生态，把传统村落风貌和现代元素结合起来，坚持中华民族的审美情趣，把乡村建设得更美丽，让日子越过越开心、越幸福！', '10月10日至13日，中共中央总书记、国家主席、中央军委主席习近平在江西考察。这是11日下午，习近平在上饶市婺源县秋口镇王村石门自然村考察时，同村民们亲切交流。新华社记者 谢环驰 摄', '13日上午，习近平听取江西省委和省政府工作汇报，对江西各项工作取得的成绩给予肯定。', '习近平指出，构建现代化产业体系，既要有雄心壮志，积极抢位发展，又要立足实际，善于错位发展。要找准定位、明确方向，整合资源、精准发力，加快传统产业改造升级，加快战略性新兴产业发展壮大，积极部署未来产业，努力构建体现江西特色和优势的现代化产业体系。有针对性地部署创新链，积极对接国家战略科技资源，突破一批关键核心技术，打造一批高新技术产业，形成在全国有影响力的产业集群。积极推进数字经济和实体经济融合，发展壮大数字经济。坚定不移走生态优先、绿色发展之路，推动全面绿色转型，打造生态文明建设高地。', '习近平强调，江西联通东西、承接南北、通江达海，多个国家重大战略叠加。要深化对内对外开放，以开放促发展，打造内陆地区改革开放高地，主动服务和融入新发展格局。大力发展口岸经济，建设长江经济带重要节点城市，打造区域性物流枢纽和商贸中心。做大做强都市圈，主动对接和服务长三角一体化发展、粤港澳大湾区建设，增强对资金、技术、人才等的吸引力。发挥生态优势和传统农业优势，打造区域性优质农副产品生产和供应基地。巩固传统商路，积极开拓新路，深度融入共建“一带一路”。深化重点领域改革，加强营商环境建设，稳步扩大规则、规制、管理、标准等制度型开放。有序扩大民间投资市场准入，推进促进公平竞争的政策实施，构建亲清统一的新型政商关系，促进民营经济健康发展。', '习近平指出，要坚持农业农村优先发展，加快农业农村现代化建设步伐，牢牢守住粮食安全底线，推进农业产业化，推动农村一二三产业融合发展，全面推进乡村振兴。坚持产业兴农、质量兴农、绿色兴农，把农业建设成为大产业，加快建设农业强省。发展林下经济，开发森林食品，培育生态旅游、森林康养等新业态。巩固拓展脱贫攻坚成果，要更多依靠产业发展，不断增强内生发展动力。围绕农村产业发展、公共服务、环境整治、乡风建设，循序渐进、久久为功，抓好办成一批实事，让群众看到新变化。', '习近平强调，确保老区人民共享改革发展成果，过上幸福生活，是推进全体人民共同富裕的底线任务。要强化就业优先政策，着力稳岗扩岗，切实做好重点群体就业工作。加强基础性、普惠性、兜底性民生建设，完善社会保障体系，健全社会救助和慈善制度，提高基本公共教育服务水平，强化城乡卫生健康服务能力，加强对防止返贫监测对象、零就业家庭等困难群体的帮扶。', '习近平指出，要总结运用第一批主题教育的成功经验，高质量开展第二批主题教育，用井冈山精神、苏区精神、长征精神砥砺党员、干部，教育引导党员、干部坚定理想信念、牢记初心使命、积极开拓进取、勇于担当作为。要把实的要求贯穿主题教育全过程，坚决防止和克服形式主义、官僚主义，实实在在抓好理论学习和调查研究，实实在在检视整改突出问题，实实在在办好惠民利民实事，用实干推动发展、取信于民。', '李干杰、何立峰及中央和国家机关有关部门负责同志陪同考察，主题教育中央第八巡回指导组负责同志参加汇报会。', '中共中央总书记、国家主席、中央军委主席习近平近日在江西考察时强调，要紧紧围绕新时代新征程党的中心任务，完整准确全面贯彻新发展理念，牢牢把握江西在构建新发展格局中的定位，立足江西的特色和优势，着眼高质量发展、绿色发展、低碳发展等新要求，解放思想、开拓进取，扬长补短、固本兴新，努力在加快革命老区高质量发展上走在前、在推动中部地区崛起上勇争先、在推进长江经济带发展上善作为，奋力谱写中国式现代化江西篇章。']</t>
         </is>
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A128" t="n">
+        <v>23</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
           <t>山西党政代表团赴安徽学习考察蓝佛安韩俊金湘军王清宪出席座谈会并参加考察</t>
         </is>
       </c>
-      <c r="D128" t="inlineStr">
+      <c r="E128" t="inlineStr">
         <is>
           <t>2023-07-20</t>
         </is>
       </c>
-      <c r="E128" t="inlineStr">
+      <c r="F128" t="inlineStr">
         <is>
           <t>http://www.guxian.gov.cn/xwzx/szfyw/202307/t20230724_220908.html</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
+      <c r="G128" t="inlineStr">
         <is>
           <t>['学习借鉴先进经验 共同谱写合作新篇山西党政代表团赴安徽学习考察蓝佛安韩俊金湘军王清宪出席座谈会并参加考察', '7月18日，山西党政代表团在科大讯飞公司考察人工智能产品研发和行业应用落地情况。山西日报记者史晓波摄', '为深入贯彻习近平总书记关于“三新一高”的重要论述精神，向安徽学习加强科技创新、扩大对外开放、优化营商环境、促进制造业高质量发展等方面的经验做法，更好服务和融入新发展格局，推动转型发展和现代化建设再上新台阶，7月18日至19日，山西党政代表团赴安徽学习考察，并召开山西省·安徽省工作交流座谈会，进一步深化两省务实合作，共同谱写晋皖两地交流合作新篇章。山西省委书记、省人大常委会主任蓝佛安，安徽省委书记、省人大常委会党组书记韩俊，山西省委副书记、省长金湘军，安徽省委副书记、省长王清宪出席座谈会并参加考察。', '近年来，安徽省聚焦打造科技创新策源地、新兴产业聚集地、改革开放新高地和经济社会发展全面绿色转型区战略目标，积极主动融入长三角一体化发展，在优化营商环境、强化科技创新、开展招商引资、发展新兴产业等方面形成了很多亮点做法。在皖期间，山西党政代表团先后到合肥、芜湖学习观摩考察，一路上广泛交流、深入思考、主动对接，为山西高质量发展取真经、谈合作、谋突破。在科大讯飞公司、科大国盾量子技术公司、安徽创新馆和中国视谷，代表团深入了解人工智能、量子通信等前沿技术和高新产业发展情况，学习安徽在高能级创新平台集聚、科技大市场培育、科创成果转化应用等方面的理念经验，对安徽创新型省份建设成效表示钦佩。在国轩高科公司、奇瑞生产基地和中电科钻石飞机公司，代表团实地感受安徽高端制造业蓬勃发展的强劲势头，学习了解安徽围绕产业链部署创新链、围绕创新链布局产业链、承接长三角一体化产业转移的经验做法，并就有关项目进行了交流对接。', '19日下午，山西省·安徽省工作交流座谈会在合肥市举行。韩俊在交流会讲话中首先代表安徽省委、省政府对山西党政代表团的到来表示热烈欢迎。他说，近年来，山西认真贯彻落实习近平总书记“走出一条产业优、质量高、效益好、可持续的发展新路”重要要求，在煤炭先进产能建设、新能源装机规模、电力市场化改革等方面走在全国前列，为中部地区高质量发展提供了宝贵经验。当前，安徽认真学习贯彻习近平总书记关于安徽工作的重要讲话重要指示精神，充分发挥创新活跃强劲、制造特色鲜明、生态资源良好、内陆腹地广阔等优势，抢抓长三角一体化发展战略机遇，全力做好“产业+科技+人才+金融”大文章，推动思想大解放、环境大优化、能力大提升、作风大转变、任务大落实，全面推进科技强省、制造强省、农业强省、人才强省、教育强省、文化强省建设，正在走出一条新时代质量更高、效益更好、结构更优、活力更足、优势充分释放的发展新路。希望两省加强能源领域合作，加强新材料、高端装备制造、节能环保等战略性新兴产业合作，在文化旅游领域联合打造精品旅游线路和旅游产品，推动重点旅游城市联合开展宣传推介活动，共同推动皖晋两省高质量发展。', '蓝佛安在讲话中向安徽长期以来对山西的支持帮助表示感谢。他说，党的十八大以来，习近平总书记先后四次莅晋考察调研，发表重要讲话、作出重要指示，为山西高质量发展和现代化建设提供了根本遵循、指明了前进方向。当前，全省上下正在牢记领袖殷殷嘱托，锚定“两个基本实现”奋斗目标，加快建设“三区三地”，奋力推动习近平总书记为山西擘画的宏伟蓝图变成美好现实。近年来，安徽省认真学习贯彻习近平总书记关于安徽工作的重要讲话重要指示精神，聚焦打造“三地一区”战略目标，抢抓长三角一体化发展战略机遇，推动各项事业发展取得显著成就，探索出很多宝贵经验，值得我们学习借鉴。历史上，晋皖两省同为华夏文明重要发祥地和重要革命老区，双方合作有渊源、有基础。进入新时代，晋皖两省一个位于黄河中游、毗邻京津冀，一个地处长江腹地、面向长三角，共享中部地区高质量发展和“一带一路”倡议机遇，共担服务和融入新发展格局的时代使命，深化合作、携手共赢具有广阔前景。希望以此次学习考察为契机，推动双方全面战略合作结出更加丰硕的成果，共同为强国建设、民族复兴做出新的更大贡献。一是聚焦科技创新和成果转化加强互动、深化合作。建立健全政产学研长效联系机制，携手推动两地科创平台加强合作，联合开展关键核心技术攻关和科技成果落地转化，共同促进创新链产业链要素链精准对接、深度融合，合力塑造发展新动能新优势。二是聚焦营商环境和对外开放加强互动、深化合作。交流借鉴在高标准市场体系建设、激发经营主体活力等方面的经验做法，在扩大制度型开放、创新招商引资和招才引智机制等方面加强交流合作，共同加快融入全国统一大市场。三是聚焦新兴产业和文旅康养加强互动、深化合作。聚焦新技术、新装备、新产品、新材料、新能源、新业态等，发挥各自优势，创新合作方式，完善产业生态，共同书写好新兴产业合作交流大文章。积极探索建立客源互换、市场共建、利益共享的区域合作新模式，打造互为重要的旅游目的地和客源地，构建优势互补、互利共赢新格局。', '山西省领导李凤岐、卢东亮、韦韬、汤志平、赵红严、杨勤荣、熊继军，安徽省领导虞爱华、张韵声、单向前参加有关活动。省直有关部门、部分省管国有企业、有关开发区主要负责同志，各市市委书记等山西党政代表团成员参加。（杨文俊）']</t>
         </is>
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A129" t="n">
+        <v>23</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
           <t>山西党政代表团赴安徽学习考察</t>
         </is>
       </c>
-      <c r="D129" t="inlineStr">
+      <c r="E129" t="inlineStr">
         <is>
           <t>2023-07-20</t>
         </is>
       </c>
-      <c r="E129" t="inlineStr">
+      <c r="F129" t="inlineStr">
         <is>
           <t>https://www.shanxi.gov.cn/ywdt/zwhd/202307/t20230720_8967627.shtml</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr">
+      <c r="G129" t="inlineStr">
         <is>
           <t>['7月18日，山西党政代表团在科大讯飞公司考察人工智能产品研发和行业应用落地情况。山西日报记者史晓波摄', '为深入贯彻习近平总书记关于“三新一高”的重要论述精神，向安徽学习加强科技创新、扩大对外开放、优化营商环境、促进制造业高质量发展等方面的经验做法，更好服务和融入新发展格局，推动转型发展和现代化建设再上新台阶，7月18日至19日，山西党政代表团赴安徽学习考察，并召开山西省·安徽省工作交流座谈会，进一步深化两省务实合作，共同谱写晋皖两地交流合作新篇章。山西省委书记、省人大常委会主任蓝佛安，安徽省委书记、省人大常委会党组书记韩俊，山西省委副书记、省长金湘军，安徽省委副书记、省长王清宪出席座谈会并参加考察。', '近年来，安徽省聚焦打造科技创新策源地、新兴产业聚集地、改革开放新高地和经济社会发展全面绿色转型区战略目标，积极主动融入长三角一体化发展，在优化营商环境、强化科技创新、开展招商引资、发展新兴产业等方面形成了很多亮点做法。在皖期间，山西党政代表团先后到合肥、芜湖学习观摩考察，一路上广泛交流、深入思考、主动对接，为山西高质量发展取真经、谈合作、谋突破。在科大讯飞公司、科大国盾量子技术公司、安徽创新馆和中国视谷，代表团深入了解人工智能、量子通信等前沿技术和高新产业发展情况，学习安徽在高能级创新平台集聚、科技大市场培育、科创成果转化应用等方面的理念经验，对安徽创新型省份建设成效表示钦佩。在国轩高科公司、奇瑞生产基地和中电科钻石飞机公司，代表团实地感受安徽高端制造业蓬勃发展的强劲势头，学习了解安徽围绕产业链部署创新链、围绕创新链布局产业链、承接长三角一体化产业转移的经验做法，并就有关项目进行了交流对接。', '19日下午，山西省·安徽省工作交流座谈会在合肥市举行。韩俊在交流会讲话中首先代表安徽省委、省政府对山西党政代表团的到来表示热烈欢迎。他说，近年来，山西认真贯彻落实习近平总书记“走出一条产业优、质量高、效益好、可持续的发展新路”重要要求，在煤炭先进产能建设、新能源装机规模、电力市场化改革等方面走在全国前列，为中部地区高质量发展提供了宝贵经验。当前，安徽认真学习贯彻习近平总书记关于安徽工作的重要讲话重要指示精神，充分发挥创新活跃强劲、制造特色鲜明、生态资源良好、内陆腹地广阔等优势，抢抓长三角一体化发展战略机遇，全力做好“产业+科技+人才+金融”大文章，推动思想大解放、环境大优化、能力大提升、作风大转变、任务大落实，全面推进科技强省、制造强省、农业强省、人才强省、教育强省、文化强省建设，正在走出一条新时代质量更高、效益更好、结构更优、活力更足、优势充分释放的发展新路。希望两省加强能源领域合作，加强新材料、高端装备制造、节能环保等战略性新兴产业合作，在文化旅游领域联合打造精品旅游线路和旅游产品，推动重点旅游城市联合开展宣传推介活动，共同推动皖晋两省高质量发展。', '蓝佛安在讲话中向安徽长期以来对山西的支持帮助表示感谢。他说，党的十八大以来，习近平总书记先后四次莅晋考察调研，发表重要讲话、作出重要指示，为山西高质量发展和现代化建设提供了根本遵循、指明了前进方向。当前，全省上下正在牢记领袖殷殷嘱托，锚定“两个基本实现”奋斗目标，加快建设“三区三地”，奋力推动习近平总书记为山西擘画的宏伟蓝图变成美好现实。近年来，安徽省认真学习贯彻习近平总书记关于安徽工作的重要讲话重要指示精神，聚焦打造“三地一区”战略目标，抢抓长三角一体化发展战略机遇，推动各项事业发展取得显著成就，探索出很多宝贵经验，值得我们学习借鉴。历史上，晋皖两省同为华夏文明重要发祥地和重要革命老区，双方合作有渊源、有基础。进入新时代，晋皖两省一个位于黄河中游、毗邻京津冀，一个地处长江腹地、面向长三角，共享中部地区高质量发展和“一带一路”战略机遇，共担服务和融入新发展格局的时代使命，深化合作、携手共赢具有广阔前景。希望以此次学习考察为契机，推动双方全面战略合作结出更加丰硕的成果，共同为强国建设、民族复兴做出新的更大贡献。一是聚焦科技创新和成果转化加强互动、深化合作。建立健全政产学研长效联系机制，携手推动两地科创平台加强合作，联合开展关键核心技术攻关和科技成果落地转化，共同促进创新链产业链要素链精准对接、深度融合，合力塑造发展新动能新优势。二是聚焦营商环境和对外开放加强互动、深化合作。交流借鉴在高标准市场体系建设、激发经营主体活力等方面的经验做法，在扩大制度型开放、创新招商引资和招才引智机制等方面加强交流合作，共同加快融入全国统一大市场。三是聚焦新兴产业和文旅康养加强互动、深化合作。聚焦新技术、新装备、新产品、新材料、新能源、新业态等，发挥各自优势，创新合作方式，完善产业生态，共同书写好新兴产业合作交流大文章。积极探索建立客源互换、市场共建、利益共享的区域合作新模式，打造互为重要的旅游目的地和客源地，构建优势互补、互利共赢新格局。', '山西省领导李凤岐、卢东亮、韦韬、汤志平、赵红严、杨勤荣、熊继军，安徽省领导虞爱华、张韵声、单向前参加有关活动。省直有关部门、部分省管国有企业、有关开发区主要负责同志，各市市委书记等山西党政代表团成员参加。（杨文俊）']</t>
         </is>
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A130" t="n">
+        <v>23</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
           <t>山西党政代表团赴陕西学习考察签订两省推动黄河流域生态保护和高质量发展战略合作框架协议</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr">
+      <c r="E130" t="inlineStr">
         <is>
           <t>2023-07-22</t>
         </is>
       </c>
-      <c r="E130" t="inlineStr">
+      <c r="F130" t="inlineStr">
         <is>
           <t>http://www.guxian.gov.cn/xwzx/szfyw/202307/t20230724_220928.html</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr">
+      <c r="G130" t="inlineStr">
         <is>
           <t>['山西党政代表团赴陕西学习考察 签订两省推动黄河流域生态保护和高质量发展战略合作框架协议', '共同开展高水平保护 携手推动高质量发展山西党政代表团赴陕西学习考察 签订两省推动黄河流域生态保护和高质量发展战略合作框架协议蓝佛安赵一德金湘军赵刚出席座谈会并参加考察', '7月20日，山西党政代表团在中国西部科技创新港考察汇聚创新资源、培育创新生态情况。山西日报记者史晓波摄', '7月21日，山西省·陕西省工作交流座谈会在西安市举行，签订两省推动黄河流域生态保护和高质量发展战略合作框架协议。山西日报记者史晓波摄', '为深入贯彻习近平总书记关于“三新一高”的重要论述精神，深入落实黄河流域生态保护和高质量发展重大国家战略，进一步做好新时代晋陕合作“大文章”，7月20日至21日，山西党政代表团赴陕西学习考察，并召开山西省·陕西省工作交流座谈会，签订两省推动黄河流域生态保护和高质量发展战略合作框架协议。山西省委书记、省人大常委会主任蓝佛安，陕西省委书记、省人大常委会主任赵一德，山西省委副书记、省长金湘军，陕西省委副书记、省长赵刚出席座谈会并参加考察。', '黄河流域生态保护和高质量发展，是习近平总书记亲自谋划、亲自部署、亲自推动的重大国家战略。晋陕两省同处黄河中游，黄河干流在两省间奔流七百余公里，共同抓好大保护、协同推进大治理是双方共同的政治责任和历史使命。此次山西党政代表团赴陕，一方面是学习考察陕西在科技创新、产业转型、现代农业、文旅融合等方面的先进经验，另一方面是加强与陕西省的工作联动，共同推动黄河流域生态保护和高质量发展走深走实。在陕期间，山西党政代表团先后来到西安市和西咸新区、杨凌农业高新技术产业示范区等地，深入秦创原综合服务中心、商汤智能科技公司、西部科技创新港、隆基乐叶光伏科技公司，学习借鉴陕西打造创新平台、深化科技管理体制改革、推动科技成果转化等方面的亮点做法；走进沣西新城总部经济园综合能源供应站、陕西煤业化工技术研究院，深入了解能源综合利用和现代煤化工产业发展情况；来到中欧班列（西安）集结中心，学习考察打造现代综合交通运输体系、推进自贸区建设、助推高水平对外开放的经验做法；考察文旅业态创新和城市夜经济发展情况；深入杨凌渭河生态公园、先正达集团技术中心试验基地、杨凌智慧农业示范园、杨凌耕地保护与质量提升创新中心，实地感受和学习陕西治渭兴水、保护生态、加强农业科技创新的经验做法。', '21日下午，山西省·陕西省工作交流座谈会在西安市举行。赵一德代表陕西省委、省政府对山西党政代表团的到来表示欢迎，向山西长期以来对陕西的大力支持表示感谢。他说，党的十八大以来，习近平总书记高度重视陕西和山西两省工作，在主持中国—中亚峰会前夕，专门听取陕西省委和省政府工作汇报，前往陕西途中专门到山西考察，为两省推动高质量发展、推进现代化建设进一步指明了前进方向。近年来，山西深入学习贯彻习近平总书记考察调研山西重要讲话重要指示精神，坚决扛起能源革命、黄河保护、文化传承等重大使命，蹚出了资源型地区经济转型综改、产业多元支撑的新路子，成就令人钦佩，经验值得学习。当前，陕西正深入学习贯彻习近平总书记历次来陕重要讲话重要指示精神，努力在西部地区发挥示范作用，奋力谱写中国式现代化建设的陕西新篇章。陕西和山西山水祖脉相依、文化根脉相亲、红色血脉相融、交通动脉相连，希望围绕构建新发展格局、高质量共建“一带一路”、黄河流域生态保护和高质量发展、关中平原城市群建设、汾渭平原大气污染治理、“三北”工程黄河“几字弯”攻坚战等重大任务，共同推进生态大保护、能源大转型、科技大创新、产业大升级、内陆大开放、区域大协同、文旅大融合，携手为强国建设、民族复兴作出新贡献。', '蓝佛安向陕西长期以来对山西的支持帮助表示感谢。他说，党的十八大以来，习近平总书记先后四次莅晋考察调研，对做好山西工作作出重要指示、寄予殷切期望，为我省高质量发展和现代化建设提供了根本遵循、指明了前进方向。当前，全省上下牢记领袖殷殷嘱托，加快“三区三地”建设，正朝着“两个基本实现”目标阔步前进。近年来，陕西省深入学习贯彻习近平总书记对陕西工作的重要指示要求，聚焦在西部地区发挥示范作用的战略定位，推动经济社会发展面貌焕然一新，探索出很多宝贵经验，值得山西学习借鉴。晋陕两省隔河相望、山水相依、人文相亲，历史上交流往来源远流长、经久不断，目前正呈现出党政互动、经贸互利、人文互惠的良好局面。面向以中国式现代化全面推进中华民族伟大复兴的宏阔征程，两省在融入和服务新发展格局上承担着许多共同任务、面临着许多共同课题。希望以此次学习考察特别是签署框架协议为契机，进一步做好新时代晋陕合作“大文章”，携手把习近平总书记为两省擘画的宏伟蓝图变成美好现实。一是在黄河流域生态保护治理上深化合作。建立健全两省间经常性会商协商、部门衔接落实等机制，合力推进晋陕大峡谷、汾渭平原等生态环境保护，共同谋划实施好黄河古贤水利枢纽工程，持续优化沿黄地区产业结构和空间布局，推动左右两岸“一泓清水入黄河”。二是在产业转型升级上深化合作。在推进制造业振兴升级、深化能源革命、发展现代高效农业上加强合作，加强园区产业对接，推进数字产业协同发展，携手建设“5G+智慧矿山”，共同做好乡村产业“土特产”文章。三是在文旅融合发展上深化合作。围绕推动中华优秀传统文化创造性转化、创新性发展，联合布局跨省域经典旅游线路，携手打造更多文旅、文创、文博产业的优质项目和知名品牌。四是在教育、科技、人才支撑上深化合作。加强科创平台、学科建设、人才培养等方面深层次交流，共同推进科技创新和成果转化，以智力和人才优势培育新的竞争优势。五是在扩大高水平对外开放上深化合作。学好陕西自贸试验区经验，加快构建高标准市场体系，用好“一带一路”开放平台，推动交通互联互通、信息共享共用，共同融入全国统一大市场，更好服务新发展格局。', '座谈会上，金湘军、赵刚分别介绍了晋陕两省经济社会发展情况，共同签署了两省推动黄河流域生态保护和高质量发展战略合作框架协议。根据协议，晋陕两省将深入学习贯彻习近平生态文明思想和习近平总书记关于黄河流域生态保护和高质量发展重要论述，按照优势互补、协同联动、互利共赢、共同发展的原则，以生态保护、水利建设、能源革命、资源型经济转型、交通基础设施、文化旅游等领域为重点全方位深化合作，共同抓好大保护、协同推进大治理，携手推动黄河流域生态保护和高质量发展不断取得新突破。', '山西省领导李凤岐、卢东亮、韦韬、汤志平、赵红严、杨勤荣、熊继军，陕西省领导方红卫、蒿慧杰、王琳、樊维斌、徐明非、钟洪江、张晓光，西安交通大学党委书记卢建军参加有关活动。省直有关部门、部分省管国有企业、有关开发区主要负责同志，各市市委书记等山西党政代表团成员参加。（杨文俊）']</t>
         </is>
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A131" t="n">
+        <v>23</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
           <t>山西党政代表团赴陕西学习考察签订两省推动黄河流域生态保护和高质量发展战略合作框架协议</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr">
+      <c r="E131" t="inlineStr">
         <is>
           <t>2023-07-24</t>
         </is>
       </c>
-      <c r="E131" t="inlineStr">
+      <c r="F131" t="inlineStr">
         <is>
           <t>https://www.shanxi.gov.cn/ywdt/zwhd/202307/t20230722_8980538.shtml</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
+      <c r="G131" t="inlineStr">
         <is>
           <t>['山西党政代表团赴陕西学习考察 签订两省推动黄河流域生态保护和高质量发展战略合作框架协议 - 山西省人民政府', '山西党政代表团赴陕西学习考察 签订两省推动黄河流域生态保护和高质量发展战略合作框架协议', '7月20日，山西党政代表团在中国西部科技创新港考察汇聚创新资源、培育创新生态情况。山西日报记者史晓波摄', '7月21日，山西省·陕西省工作交流座谈会在西安市举行，签订两省推动黄河流域生态保护和高质量发展战略合作框架协议。山西日报记者史晓波摄', '为深入贯彻习近平总书记关于“三新一高”的重要论述精神，深入落实黄河流域生态保护和高质量发展重大国家战略，进一步做好新时代晋陕合作“大文章”，7月20日至21日，山西党政代表团赴陕西学习考察，并召开山西省·陕西省工作交流座谈会，签订两省推动黄河流域生态保护和高质量发展战略合作框架协议。山西省委书记、省人大常委会主任蓝佛安，陕西省委书记、省人大常委会主任赵一德，山西省委副书记、省长金湘军，陕西省委副书记、省长赵刚出席座谈会并参加考察。', '黄河流域生态保护和高质量发展，是习近平总书记亲自谋划、亲自部署、亲自推动的重大国家战略。晋陕两省同处黄河中游，黄河干流在两省间奔流七百余公里，共同抓好大保护、协同推进大治理是双方共同的政治责任和历史使命。此次山西党政代表团赴陕，一方面是学习考察陕西在科技创新、产业转型、现代农业、文旅融合等方面的先进经验，另一方面是加强与陕西省的工作联动，共同推动黄河流域生态保护和高质量发展走深走实。在陕期间，山西党政代表团先后来到西安市和西咸新区、杨凌农业高新技术产业示范区等地，深入秦创原综合服务中心、商汤智能科技公司、西部科技创新港、隆基乐叶光伏科技公司，学习借鉴陕西打造创新平台、深化科技管理体制改革、推动科技成果转化等方面的亮点做法；走进沣西新城总部经济园综合能源供应站、陕西煤业化工技术研究院，深入了解能源综合利用和现代煤化工产业发展情况；来到中欧班列（西安）集结中心，学习考察打造现代综合交通运输体系、推进自贸区建设、助推高水平对外开放的经验做法；考察文旅业态创新和城市夜经济发展情况；深入杨凌渭河生态公园、先正达集团技术中心试验基地、杨凌智慧农业示范园、杨凌耕地保护与质量提升创新中心，实地感受和学习陕西治渭兴水、保护生态、加强农业科技创新的经验做法。', '21日下午，山西省·陕西省工作交流座谈会在西安市举行。赵一德代表陕西省委、省政府对山西党政代表团的到来表示欢迎，向山西长期以来对陕西的大力支持表示感谢。他说，党的十八大以来，习近平总书记高度重视陕西和山西两省工作，在主持中国—中亚峰会前夕，专门听取陕西省委和省政府工作汇报，前往陕西途中专门到山西考察，为两省推动高质量发展、推进现代化建设进一步指明了前进方向。近年来，山西深入学习贯彻习近平总书记考察调研山西重要讲话重要指示精神，坚决扛起能源革命、黄河保护、文化传承等重大使命，蹚出了资源型地区经济转型综改、产业多元支撑的新路子，成就令人钦佩，经验值得学习。当前，陕西正深入学习贯彻习近平总书记历次来陕重要讲话重要指示精神，努力在西部地区发挥示范作用，奋力谱写中国式现代化建设的陕西新篇章。陕西和山西山水祖脉相依、文化根脉相亲、红色血脉相融、交通动脉相连，希望围绕构建新发展格局、高质量共建“一带一路”、黄河流域生态保护和高质量发展、关中平原城市群建设、汾渭平原大气污染治理、“三北”工程黄河“几字弯”攻坚战等重大任务，共同推进生态大保护、能源大转型、科技大创新、产业大升级、内陆大开放、区域大协同、文旅大融合，携手为强国建设、民族复兴作出新贡献。', '蓝佛安向陕西长期以来对山西的支持帮助表示感谢。他说，党的十八大以来，习近平总书记先后四次莅晋考察调研，对做好山西工作作出重要指示、寄予殷切期望，为我省高质量发展和现代化建设提供了根本遵循、指明了前进方向。当前，全省上下牢记领袖殷殷嘱托，加快“三区三地”建设，正朝着“两个基本实现”目标阔步前进。近年来，陕西省深入学习贯彻习近平总书记对陕西工作的重要指示要求，聚焦在西部地区发挥示范作用的战略定位，推动经济社会发展面貌焕然一新，探索出很多宝贵经验，值得山西学习借鉴。晋陕两省隔河相望、山水相依、人文相亲，历史上交流往来源远流长、经久不断，目前正呈现出党政互动、经贸互利、人文互惠的良好局面。面向以中国式现代化全面推进中华民族伟大复兴的宏阔征程，两省在融入和服务新发展格局上承担着许多共同任务、面临着许多共同课题。希望以此次学习考察特别是签署框架协议为契机，进一步做好新时代晋陕合作“大文章”，携手把习近平总书记为两省擘画的宏伟蓝图变成美好现实。一是在黄河流域生态保护治理上深化合作。建立健全两省间经常性会商协商、部门衔接落实等机制，合力推进晋陕大峡谷、汾渭平原等生态环境保护，共同谋划实施好黄河古贤水利枢纽工程，持续优化沿黄地区产业结构和空间布局，推动左右两岸“一泓清水入黄河”。二是在产业转型升级上深化合作。在推进制造业振兴升级、深化能源革命、发展现代高效农业上加强合作，加强园区产业对接，推进数字产业协同发展，携手建设“5G+智慧矿山”，共同做好乡村产业“土特产”文章。三是在文旅融合发展上深化合作。围绕推动中华优秀传统文化创造性转化、创新性发展，联合布局跨省域经典旅游线路，携手打造更多文旅、文创、文博产业的优质项目和知名品牌。四是在教育、科技、人才支撑上深化合作。加强科创平台、学科建设、人才培养等方面深层次交流，共同推进科技创新和成果转化，以智力和人才优势培育新的竞争优势。五是在扩大高水平对外开放上深化合作。学好陕西自贸试验区经验，加快构建高标准市场体系，用好“一带一路”开放平台，推动交通互联互通、信息共享共用，共同融入全国统一大市场，更好服务新发展格局。', '座谈会上，金湘军、赵刚分别介绍了晋陕两省经济社会发展情况，共同签署了两省推动黄河流域生态保护和高质量发展战略合作框架协议。根据协议，晋陕两省将深入学习贯彻习近平生态文明思想和习近平总书记关于黄河流域生态保护和高质量发展重要论述，按照优势互补、协同联动、互利共赢、共同发展的原则，以生态保护、水利建设、能源革命、资源型经济转型、交通基础设施、文化旅游等领域为重点全方位深化合作，共同抓好大保护、协同推进大治理，携手推动黄河流域生态保护和高质量发展不断取得新突破。', '山西省领导李凤岐、卢东亮、韦韬、汤志平、赵红严、杨勤荣、熊继军，陕西省领导方红卫、蒿慧杰、王琳、樊维斌、徐明非、钟洪江、张晓光，西安交通大学党委书记卢建军参加有关活动。省直有关部门、部分省管国有企业、有关开发区主要负责同志，各市市委书记等山西党政代表团成员参加。（杨文俊）']</t>
         </is>
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A132" t="n">
+        <v>23</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
           <t>习近平在江西九江市考察调研</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr">
+      <c r="E132" t="inlineStr">
         <is>
           <t>2023-10-12</t>
         </is>
       </c>
-      <c r="E132" t="inlineStr">
+      <c r="F132" t="inlineStr">
         <is>
           <t>https://www.gov.cn/yaowen/liebiao/202310/content_6908463.htm</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr">
+      <c r="G132" t="inlineStr">
         <is>
           <t>['10日下午，习近平总书记在江西省九江市先后考察了长江国家文化公园九江城区段、中国石化九江分公司，了解当地长江国家文化公园建设、长江岸线生态修复、石化企业转型升级绿色发展等情况。（文字记者：张晓松、林晖；摄影记者：鞠鹏、谢环驰、燕雁、刘彬）', '10日下午，习近平总书记在江西省九江市先后考察了长江国家文化公园九江城区段、中国石化九江分公司，了解当地长江国家文化公园建设、长江岸线生态修复、石化企业转型升级绿色发展等情况。']</t>
         </is>
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A133" t="n">
+        <v>23</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
           <t>习近平在江西考察时强调解放思想开拓进取扬长补短固本兴新奋力谱写中国式现代化江西篇章</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr">
+      <c r="E133" t="inlineStr">
         <is>
           <t>2023-10-22</t>
         </is>
       </c>
-      <c r="E133" t="inlineStr">
+      <c r="F133" t="inlineStr">
         <is>
           <t>https://wap.peopleapp.com/article/7228754/7070290</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
+      <c r="G133" t="inlineStr">
         <is>
           <t>['习近平在江西考察时强调 解放思想开拓进取扬长补短固本兴新 奋力谱写中国式现代化江西篇章_人民日报', '习近平在江西考察时强调 解放思想开拓进取扬长补短固本兴新 奋力谱写中国式现代化江西篇章', '中共中央总书记、国家主席、中央军委主席习近平近日在江西考察时强调，要紧紧围绕新时代新征程党的中心任务，完整准确全面贯彻新发展理念，牢牢把握江西在构建新发展格局中的定位，立足江西的特色和优势，着眼高质量发展、绿色发展、低碳发展等新要求，解放思想、开拓进取，扬长补短、固本兴新，努力在加快革命老区高质量发展上走在前、在推动中部地区崛起上勇争先、在推进长江经济带发展上善作为，奋力谱写中国式现代化江西篇章。', '10月10日至13日，习近平在江西省委书记尹弘和省长叶建春陪同下，先后来到九江、景德镇、上饶等地，深入长江岸线、企业、历史文化街区、农村等进行调研。', '10日下午，习近平来到九江市考察调研。在长江国家文化公园九江城区段，习近平登上琵琶亭远眺长江，冒雨沿江堤步行察看沿岸风貌，仔细询问长江水位、水质、航运、防洪、禁渔等情况，听取当地崩岸治理、航道疏浚、岸线生态修复等工作进展介绍。习近平指出，长江是长江经济带的纽带。无论未来长江经济带怎么发展、发展到哪个阶段，都不可能离开长江的哺育。要从人与自然和谐共生的生命共同体出发，着眼中华民族永续发展，把长江保护好。', '习近平随后乘车来到中国石化九江分公司。他走进公司生产管控中心控制大厅和检验计量中心实验室，详细了解企业转型升级打造绿色智能工厂、推动节能减污降碳等情况，对企业开展科学检测、严格排放标准等做法表示肯定。习近平强调，破解“化工围江”，是推进长江生态环境治理的重点。要再接再厉，坚持源头管控、全过程减污降碳，大力推进数智化改造、绿色化转型，打造世界领先的绿色智能炼化企业。', '实验室外，企业员工们围拢过来纷纷向总书记问好。习近平亲切地对大家说，石化产业是国民经济的重要支柱产业，希望你们按照党中央对新型工业化的部署要求，坚持绿色、智能方向，扎扎实实、奋发进取，为保障国家能源安全、推动石化工业高质量发展作出新贡献。', '11日上午，习近平来到景德镇市考察调研。在陶阳里历史文化街区，习近平先后走进南麓遗址、陶瓷博物馆、明清窑作群，饶有兴趣地了解制瓷技艺流程、陶瓷文化传承创新和对外交流等情况，同非遗传承人亲切交流，不时赞赏他们的手上功夫和工匠精神，鼓励他们秉持艺术至上，专心致志传承创新。习近平指出，中华优秀传统文化自古至今从未断流，陶瓷是中华瑰宝，是中华文明的重要名片。陶阳里历史文化街区严格遵循保护第一、修旧如旧的要求，实现了陶瓷文化保护与文旅产业发展的良性互动。要集聚各方面人才，加强创意设计和研发创新，进一步把陶瓷产业做大做强，把“千年瓷都”这张靓丽的名片擦得更亮。', '随后，习近平来到昌河飞机工业（集团）有限公司，考察了直升飞机总装车间和试飞站，详细了解企业推进技术创新和产品迭代升级的情况。他指出，航空装备是我国制造业发展的一个重点。要坚持创新驱动，在关键核心技术自主研发上下更大功夫，面向未来需求出新品，努力构建先进制造体系、打造世界一流直升机企业。', '11日下午，习近平来到上饶市婺源县秋口镇王村石门自然村。这里是饶河源国家湿地公园的中心区，也是极度濒危鸟类蓝冠噪鹛自然保护小区，植被多样、生态良好。习近平详细了解湿地公园和蓝冠噪鹛保护等情况。村广场上正在“晒秋”，一排排晒盘盛满红豆、玉米、辣椒等，格外喜人。美术学院师生正在采风写生，习近平驻足观看，同他们亲切交流，鼓励他们打好扎实基本功。得知当地发展特色旅游、茶产业，推进乡村振兴成效显著，习近平十分高兴。他指出，优美的自然环境本身就是乡村振兴的优质资源，要找到实现生态价值转换的有效途径，让群众得到实实在在的好处。乡村要振兴，关键是把基层党组织建好、建强。基层党组织要成为群众致富的领路人，确保党的惠民政策落地见效，真正成为战斗堡垒。', '离开村子时，村民们热情欢送总书记。习近平亲切地说，中国式现代化既要有城市的现代化，又要有农业农村现代化，我很关注乡村振兴。希望你们保护好自然生态，把传统村落风貌和现代元素结合起来，坚持中华民族的审美情趣，把乡村建设得更美丽，让日子越过越开心、越幸福！', '13日上午，习近平听取江西省委和省政府工作汇报，对江西各项工作取得的成绩给予肯定。', '习近平指出，构建现代化产业体系，既要有雄心壮志，积极抢位发展，又要立足实际，善于错位发展。要找准定位、明确方向，整合资源、精准发力，加快传统产业改造升级，加快战略性新兴产业发展壮大，积极部署未来产业，努力构建体现江西特色和优势的现代化产业体系。有针对性地部署创新链，积极对接国家战略科技资源，突破一批关键核心技术，打造一批高新技术产业，形成在全国有影响力的产业集群。积极推进数字经济和实体经济融合，发展壮大数字经济。坚定不移走生态优先、绿色发展之路，推动全面绿色转型，打造生态文明建设高地。', '习近平强调，江西联通东西、承接南北、通江达海，多个国家重大战略叠加。要深化对内对外开放，以开放促发展，打造内陆地区改革开放高地，主动服务和融入新发展格局。大力发展口岸经济，建设长江经济带重要节点城市，打造区域性物流枢纽和商贸中心。做大做强都市圈，主动对接和服务长三角一体化发展、粤港澳大湾区建设，增强对资金、技术、人才等的吸引力。发挥生态优势和传统农业优势，打造区域性优质农副产品生产和供应基地。巩固传统商路，积极开拓新路，深度融入共建“一带一路”。深化重点领域改革，加强营商环境建设，稳步扩大规则、规制、管理、标准等制度型开放。有序扩大民间投资市场准入，推进促进公平竞争的政策实施，构建亲清统一的新型政商关系，促进民营经济健康发展。', '习近平指出，要坚持农业农村优先发展，加快农业农村现代化建设步伐，牢牢守住粮食安全底线，推进农业产业化，推动农村一二三产业融合发展，全面推进乡村振兴。坚持产业兴农、质量兴农、绿色兴农，把农业建设成为大产业，加快建设农业强省。发展林下经济，开发森林食品，培育生态旅游、森林康养等新业态。巩固拓展脱贫攻坚成果，要更多依靠产业发展，不断增强内生发展动力。围绕农村产业发展、公共服务、环境整治、乡风建设，循序渐进、久久为功，抓好办成一批实事，让群众看到新变化。', '习近平强调，确保老区人民共享改革发展成果，过上幸福生活，是推进全体人民共同富裕的底线任务。要强化就业优先政策，着力稳岗扩岗，切实做好重点群体就业工作。加强基础性、普惠性、兜底性民生建设，完善社会保障体系，健全社会救助和慈善制度，提高基本公共教育服务水平，强化城乡卫生健康服务能力，加强对防止返贫监测对象、零就业家庭等困难群体的帮扶。', '习近平指出，要总结运用第一批主题教育的成功经验，高质量开展第二批主题教育，用井冈山精神、苏区精神、长征精神砥砺党员、干部，教育引导党员、干部坚定理想信念、牢记初心使命、积极开拓进取、勇于担当作为。要把实的要求贯穿主题教育全过程，坚决防止和克服形式主义、官僚主义，实实在在抓好理论学习和调查研究，实实在在检视整改突出问题，实实在在办好惠民利民实事，用实干推动发展、取信于民。', '李干杰、何立峰及中央和国家机关有关部门负责同志陪同考察，主题教育中央第八巡回指导组负责同志参加汇报会。']</t>
         </is>
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A134" t="n">
+        <v>23</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
           <t>全国检察机关大数据法律监督模型竞赛结果揭晓学习先进典型凝聚奋进力量我省个模型获奖</t>
         </is>
       </c>
-      <c r="D134" t="inlineStr">
+      <c r="E134" t="inlineStr">
         <is>
           <t>2023-10-19</t>
         </is>
       </c>
-      <c r="E134" t="inlineStr">
+      <c r="F134" t="inlineStr">
         <is>
           <t>https://www.shanxi.gov.cn/ywdt/sxyw/202310/t20231019_9406015.shtml</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr">
+      <c r="G134" t="inlineStr">
         <is>
           <t>['10月17日，从省检察院传来消息，全国检察机关大数据法律监督模型竞赛结果10月16日揭晓，我省检察机关3个模型获奖。', '据悉，为进一步学习贯彻党的二十大精神，全面贯彻习近平法治思想，深入实施数字检察战略，赋能新时代法律监督，促进和维护公平正义，更好以检察现代化服务中国式现代化，8月至10月间，最高人民检察院组织开展了全国检察机关大数据法律监督模型竞赛，各地检察机关积极参与，共报送参赛模型568个。经初评、复评和汇报展示，分别评选出一、二、三等奖，共计69个优秀模型。', '太原市人民检察院报送的“侦查监督与协作配合机制下侦查活动全流程监督模型”获二等奖，晋城市阳城县人民检察院报送的“临时用地到期未复垦土地法律监督模型”、山西省人民检察院第五检察部等报送的“刑罚变更执行数字化检察监督模型”获三等奖。（邓伟强）']</t>
         </is>
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A135" t="n">
+        <v>23</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
           <t>习近平在江西九江市考察调研</t>
         </is>
       </c>
-      <c r="D135" t="inlineStr">
+      <c r="E135" t="inlineStr">
         <is>
           <t>2023-10-11</t>
         </is>
       </c>
-      <c r="E135" t="inlineStr">
+      <c r="F135" t="inlineStr">
         <is>
           <t>http://www.guxian.gov.cn/xwzx/gwyyw/202310/t20231012_252647.html</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr">
+      <c r="G135" t="inlineStr">
         <is>
           <t>['10日下午，习近平总书记在江西省九江市先后考察了长江国家文化公园九江城区段、中国石化九江分公司，了解当地长江国家文化公园建设、长江岸线生态修复、石化企业转型升级绿色发展等情况。（文字记者：张晓松、林晖；摄影记者：鞠鹏、谢环驰、燕雁、刘彬）']</t>
         </is>
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A136" t="n">
+        <v>23</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
           <t>李青雁带队赴侯马市和临汾市区考察学习</t>
         </is>
       </c>
-      <c r="D136" t="inlineStr">
+      <c r="E136" t="inlineStr">
         <is>
           <t>2023-07-13</t>
         </is>
       </c>
-      <c r="E136" t="inlineStr">
+      <c r="F136" t="inlineStr">
         <is>
           <t>http://www.huozhou.gov.cn/xwzx/zwyw/202307/t20230713_215715.html</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
+      <c r="G136" t="inlineStr">
         <is>
           <t>['7月10日到11日，市委书记李青雁带队赴侯马市、临汾市区考察学习城市规划建设管理工作。', '在侯马市，侯马市委副书记、市长尹明星同陈艳刚、秦海玉、郝爱民、郭建伟、郭丽华、迪磊、赵建成等领导一同参观考察。', '考察中，李青雁一行先后来到侯马市新二中、东城公园、新田路道路及片区提升改造工程、晋国古都博物馆等地，边走边看，边探讨、边交流，认真学习，用心体会，详细了解侯马市在城市规划建设中的先进理念和成功经验。', '在随后召开的城市建设工作交流座谈会上，大家一同观看了侯马城市宣传片；听取了侯马市城市建设总体情况及重点项目情况介绍；侯马国土空间规划情况介绍；新田路道路及片区提升改造工程一路九园、五片一区，路内、路外绿化及亮化、立面等总体情况介绍。并结合霍州实际，围绕城市规划建设中涉及的项目实施推动、城市开发设计理念、要素资金保障、道路景观设置、业态产业布局、征地拆迁政策、生态环境改善等方面的问题与侯马市相关部门负责人进行了面对面交流探讨。', '在临汾市区，李青雁一行听取了临汾市城市管理局局长马健和市住建局负责人的介绍，实地学习了临汾市区规划建设管理的经好经验，好做法。并通过实地考察学习、听取经验介绍、与相关部门深入交流等方式，全面了解临汾市区在街道景观绿化、道路改造升级、城市游园建设、建筑外观改善等城市靓城提质中的先进做法。特别对景观绿化中“四季有绿、三季有花、处处有景观，打造人与自然和谐共生，构建优美生态画卷”的总体规划设计作了详细了解学习。', '李青雁指出，侯马市、临汾市区的先进理念和经验值得霍州深入研究，要强化学习成果转化，转变思想观念，将他山之石和霍州实际相结合，将所思所悟转化为谋划工作的具体举措，因地制宜走出有特色、能落地的城市更新道路，为高质量发展拓空间、聚资源、塑格局，进一步推动城市品质提升。要坚持规划引领，遵循城市建设规律，做好总体规划设计，优化空间布局，彰显区域特色，完善业态结构，为城市建设和发展奠定坚实基础。要学细节，注重精细化建设和管理城市，做精做专每一片绿地公园，补齐公共服务短板，推动城市管理再上新台阶。要做足夜游文章，丰富旅游消费业态，以深厚的文化底蕴，激发城市发展活力。要以提升城市颜值和档次为目标，以满足社会和群众需求为出发点，在高质量发展中创造高品质生活，让市民在共建共享发展中有更多的获得感、幸福感。', '我市领导陈占平、田晋川、吕文博、崔亚峰、靳阳阳、陈英及市委办、市住建局、城管局、自然资源局、金融服务中心、国投公司等相关部门负责人一同考察学习。']</t>
         </is>
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A137" t="n">
+        <v>23</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
           <t>省委常委会召开扩大会议传达学习贯彻习近平总书记考察山西重要指示精神</t>
         </is>
       </c>
-      <c r="D137" t="inlineStr">
+      <c r="E137" t="inlineStr">
         <is>
           <t>2023-05-19</t>
         </is>
       </c>
-      <c r="E137" t="inlineStr">
+      <c r="F137" t="inlineStr">
         <is>
           <t>https://mp.weixin.qq.com/s/hPh5R1BWpwNwviAFmi828g</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr">
+      <c r="G137" t="inlineStr">
         <is>
           <t>['5月18日，省委常委会召开扩大会议暨理论学习中心组学习会，传达学习习近平总书记在我省考察重要指示精神和听取陕西省委、省政府工作汇报时重要讲话精神，研究贯彻落实意见。省委书记蓝佛安主持会议并讲话。', '他强调，要认真学习贯彻习近平总书记考察山西重要指示精神，深刻领悟“两个确立”的决定性意义，增强“四个意识”、坚定“四个自信”、做到“两个维护”，坚决把领袖的亲切关怀和谆谆教诲转化为感恩奋进、续写新篇的高度自觉和强大动力，坚定不移沿着习近平总书记指引的康庄大道奋勇前行，不断开创全省高质量发展和现代化建设新局面，向习近平总书记和党中央、向全省人民交上满意答卷。要把学习贯彻好习近平总书记考察山西重要指示精神作为全省当前最重要的政治任务，作为深入开展主题教育的重要内容，作为最鲜活、最生动、最直接的理论实践课程，加强组织领导，周密安排部署，迅速兴起学习贯彻热潮，把习近平总书记重要指示要求和殷切期望传达到每一名党员每一名干部，推动全省党员干部将焕发出来的学习热情转化为坚定理想、锤炼党性和指导实践、推动工作的强大力量和实际成效。', '与会同志谈体会、谈感受，大家一致认为，在全面贯彻落实党的二十大精神的开局之年，在全党深入开展学习贯彻习近平新时代中国特色社会主义思想主题教育的关键时刻，在全省上下牢记领袖殷殷嘱托、加快推动高质量发展和全面建设现代化、朝着“两个基本实现”目标阔步奋进的重要关头，习近平总书记深入我省考察，作出重要指示、寄予殷切期望。这是习近平总书记党的十八大以来第四次莅临山西，也是连续两年莅临山西，充分体现了党的领袖对老区人民一以贯之的深情厚爱、对山西地位作用一以贯之的高度重视、对我省各项工作一以贯之的关心关怀、对资源型经济转型和高质量发展一以贯之的深谋远虑、对全省干部队伍一以贯之的严管厚爱。三晋大地为之沸腾，党员干部倍感振奋，老区儿女倍加自豪。全省广大党员干部群众更加深切地感受到，是习近平总书记时刻心系山西、始终指引山西、必将成就山西。走好新征程，要深刻领会习近平总书记此次考察山西的重大意义，深刻领悟“两个确立”的决定性意义，不断增强忠诚核心、维护核心、看齐核心的政治自觉、思想自觉和行动自觉，不断增进对党的创新理论的政治认同、思想认同、理论认同、情感认同，始终在思想上政治上行动上同以习近平同志为核心的党中央保持高度一致，切实把习近平总书记对山西的关心关怀关爱转化为加快推动高质量发展和现代化建设的坚定信念、澎湃动力和巨大成效，确保习近平总书记为山西擘画的宏伟蓝图变为美好现实。', '会议指出，习近平总书记考察期间作出的重要指示，高屋建瓴、视野宏阔，思想深邃、语重心长，具有很强的政治性、战略性、指导性、针对性，为我们进一步做好山西各项工作指明了前进方向、提供了根本遵循。要认真学习领会习近平总书记重要指示的核心要义、精神实质、丰富内涵、实践要求，并与深入学习领会习近平总书记历次考察调研山西重要讲话重要指示精神贯通起来，与深入学习贯彻党的二十大精神结合起来，特别是要放在新时代党的创新理论的科学体系中深刻领悟、全面把握、坚决贯彻。', '一要坚决贯彻习近平总书记关于传承弘扬中华优秀传统文化的重大要求，认真落实新时代文物工作方针，积极参与中华文明探源工程，扎实开展重点文物保护和活化利用，加大考古人才培养力度，加强与考古科研机构的交流协作，全面提升我省文物保护利用和文化遗产保护传承水平，为实证我国百万年人类史、一万年文化史、五千多年文明史更多贡献山西力量。', '二要坚决贯彻习近平总书记关于推进生态文明建设的重大要求，坚持把保护黄河流域生态作为谋划发展、推动高质量发展的基准线，不利于黄河流域生态保护的事，坚决不能做。大力实施“一泓清水入黄河”工程，扎实抓好“两山”“七河”“五湖”生态保护修复，挖掘培育运城盐湖的生态、科研、历史文化和文旅康养价值，以更高标准打好蓝天、碧水、净土保卫战，积极稳妥推进碳达峰碳中和，为实施黄河流域生态保护和高质量发展国家战略扛牢山西责任。', '三要坚决贯彻习近平总书记关于建设现代化产业体系的重大要求，坚持制造业振兴升级主攻方向，加快传统产业高端化、智能化、绿色化升级改造，培育壮大战略性新兴产业，推进能源领域“五大基地”建设，做强做优现代能源产业集群，实施农业“特”“优”战略，促进文旅康养融合发展，大力发展数字经济，推动创新链产业链资金链人才链深度融合，在加快构建现代化产业体系中展现山西作为。', '四要坚决贯彻习近平总书记关于城乡区域协调发展、乡村全面振兴、高水平对外开放的重大要求，加快构建“一群两区三圈”城乡区域布局，扎实推进以县城为重要载体的新型城镇化建设，切实做好巩固拓展脱贫攻坚成果同乡村振兴有效衔接工作，大力发展乡村特色产业，深入推进农村人居环境整治，促进农业强、农村美、农民富。积极对接落实国家重大区域发展战略，主动融入“一带一路”大商圈，打造内陆地区对外开放新高地，在构建新发展格局中体现山西担当。', '五要坚决贯彻习近平总书记关于加强党的建设的重大要求，坚定扛起管党治党政治责任，坚持以党的政治建设为统领，深入推进新时代党的建设新的伟大工程，强化抓党建促基层治理能力提升，着力打造高素质专业化干部队伍，以严的基调正风肃纪反腐，全面建设清廉山西，以高质量党建引领保障高质量发展，在全面构建良好政治生态中交好山西答卷。', '会议强调，要全面贯彻落实党中央关于开展主题教育的部署要求，在深入、扎实上下功夫，在以学铸魂、以学增智、以学正风、以学促干上见实效，不断提升政治能力、思维能力、实践能力，增强推动高质量发展、服务群众、防范化解风险本领，锚定“两个基本实现”奋斗目标和“三区三地”建设任务，扎实抓好能源保供和能源革命、产业链“链长制”和专业镇建设、高标准市场体系打造、经营主体提升年活动、“三个一批”重点项目建设、国资国企“五提”发展、“三农”工作、生态环保、文化繁荣、民生保障、安全稳定、基层党建等方面重点任务，以推动高质量发展的新成效检验主题教育的成果。', '省委常委，省人大常委会、省政府、省政协负责同志出席会议。主题教育中央第三指导组负责同志列席会议。']</t>
         </is>
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A138" t="n">
+        <v>23</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
           <t>习近平在内蒙古考察时强调把握战略定位坚持绿色发展奋力书写中国式现代化内蒙古新篇章</t>
         </is>
       </c>
-      <c r="D138" t="inlineStr">
+      <c r="E138" t="inlineStr">
         <is>
           <t>2023-06-09</t>
         </is>
       </c>
-      <c r="E138" t="inlineStr">
+      <c r="F138" t="inlineStr">
         <is>
           <t>http://paper.people.com.cn/rmrb/html/2023-06/09/nw.D110000renmrb_20230609_1-01.htm</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
+      <c r="G138" t="inlineStr">
         <is>
           <t>['杂志 新闻战线 人民论坛 人民周刊 中国经济周刊 民生周刊 国家人文历史 中国报业', '■ 要牢牢把握党中央对内蒙古的战略定位，完整、准确、全面贯彻新发展理念，紧紧围绕推进高质量发展这个首要任务，以铸牢中华民族共同体意识为主线，坚持发展和安全并重，坚持以生态优先、绿色发展为导向，积极融入和服务构建新发展格局，在建设“两个屏障”、“两个基地”、“一个桥头堡”上展现新作为，奋力书写中国式现代化内蒙古新篇章', '■ 现在，我们要靠高水平科技自立自强、构建新发展格局来攻克科技难关。构建国内大循环是为了保证极端情况下国民经济能够正常运行，这同参与国际经济循环是不矛盾的。我们坚定不移实行高水平对外开放，敞开大门搞建设，一起合作实现共赢', '■ 要统筹山水林田湖草沙综合治理，精心组织实施京津风沙源治理、“三北”防护林体系建设等重点工程，加强生态保护红线管理，落实退耕还林、退牧还草、草畜平衡、禁牧休牧，强化天然林保护和水土保持，持之以恒推行草原森林河流湖泊湿地休养生息，加快呼伦湖、乌梁素海、岱海等水生态综合治理，加强荒漠化治理和湿地保护，加强大气、水、土壤污染防治，在祖国北疆构筑起万里绿色长城。要进一步巩固和发展“绿进沙退”的好势头，分类施策、集中力量开展重点地区规模化防沙治沙，不断创新完善治沙模式，提高治沙综合效益', '■ 从全国来看，推动全体人民共同富裕，最艰巨的任务在一些边疆民族地区。这些边疆民族地区在走向共同富裕的道路上不能掉队。要坚持以人民为中心，在发展中更加注重保障和改善民生，补齐民生短板，增进民生福祉，让各族人民实实在在感受到推进共同富裕在行动、在身边。要全面落实就业优先政策，把推动实现更加充分更高质量的就业摆在突出位置，完善政策体系，强化培训服务，精准有效实施减负稳岗扩就业各项政策措施，支持多渠道灵活就业，重点抓好高校毕业生、退役军人、农民工等群体就业。要开拓就业渠道，加强对脱贫家庭、低保家庭、零就业家庭、残疾人等困难人员就业兜底帮扶。要健全多层次社会保障体系，推动参保扩面，加大社会救助、医疗救助、低保和困难家庭保障扶持措施，发展养老事业和养老产业。要巩固拓展脱贫攻坚成果，把促进脱贫县加快发展作为主攻方向，增强脱贫地区和脱贫群众内生发展动力，坚决守住不发生规模性返贫底线。要以“时时放心不下”的责任感抓好安全生产，把制度完善起来，把责任落实下去，尽最大努力防范各类重大安全事故的发生，维护好人民群众生命财产安全', '■ 铸牢中华民族共同体意识是新时代党的民族工作的主线，也是民族地区各项工作的主线。民族地区的经济建设、政治建设、文化建设、社会建设、生态文明建设和党的建设等，都要紧紧围绕、毫不偏离这条主线。无论是出台法律法规还是政策措施，都要着眼于强化中华民族的共同性、增强中华民族共同体意识。要坚定不移全面推行使用国家统编教材，确保各民族青少年掌握和使用好国家通用语言文字。要统筹城乡建设布局规划和公共服务资源配置，创造更加完善的各族群众共居共学、共建共享、共事共乐的社会条件', '■ 通过集中教育推动全党以自我革命精神解决党风方面的突出问题，是一条重要历史经验。人民群众看主题教育是否有成效，最直观的感受是看党风方面存在的问题是否得到解决、党员干部作风是否有明显进步。要抓实以学正风，坚持目标导向和问题导向相结合、学查改相贯通，对标党风要求找差距、对表党性要求查根源、对照党纪要求明举措，增强检视整改实效。要大兴务实之风，抓好调查研究，在察实情、出实招、求实效上下功夫，把工作抓实、基础打实、步子迈实，在力戒形式主义、官僚主义上取得明显实质性进展，以这次主题教育为契机，将调查研究发扬光大。要弘扬清廉之风，教育各级领导干部牢固树立正确权力观，全面查找廉洁风险点，筑牢思想防线，坚守法纪红线。要按照“三不腐”要求健全相关制度、严格执纪，建好护栏。要养成俭朴之风，把生活作风问题作为检视整改的重要内容，督促广大党员干部保持清醒头脑，筑牢贯彻落实中央八项规定及实施细则精神的堤坝', '本报呼和浩特6月8日电 中共中央总书记、国家主席、中央军委主席习近平近日在内蒙古考察时强调，要牢牢把握党中央对内蒙古的战略定位，完整、准确、全面贯彻新发展理念，紧紧围绕推进高质量发展这个首要任务，以铸牢中华民族共同体意识为主线，坚持发展和安全并重，坚持以生态优先、绿色发展为导向，积极融入和服务构建新发展格局，在建设“两个屏障”、“两个基地”、“一个桥头堡”上展现新作为，奋力书写中国式现代化内蒙古新篇章。', '6月7日至8日，习近平在巴彦淖尔市考察并主持召开加强荒漠化综合防治和推进“三北”等重点生态工程建设座谈会后，在内蒙古自治区党委书记孙绍骋、自治区人民政府主席王莉霞陪同下，来到呼和浩特市调研。', '7日下午，习近平来到中环产业园考察。在园区展厅，习近平听取当地发展新能源新材料产业、促进产业结构优化调整、推动绿色低碳发展等情况介绍。随后，习近平来到生产车间实地察看产品生产流程，详细了解园区企业半导体和光伏材料等产品的研发生产情况。他强调，坚持绿色发展是必由之路。推动传统能源产业转型升级，大力发展绿色能源，做大做强国家重要能源基地，是内蒙古发展的重中之重。在这方面内蒙古方向明确、路子对头、前景很好，大有作为、大有前途。离开园区时，习近平亲切地对前来欢送的企业员工说，你们企业和园区办得不错，看了感到很提气。现在，我们要靠高水平科技自立自强、构建新发展格局来攻克科技难关。构建国内大循环是为了保证极端情况下国民经济能够正常运行，这同参与国际经济循环是不矛盾的。我们坚定不移实行高水平对外开放，敞开大门搞建设，一起合作实现共赢。习近平祝愿企业和员工继续努力，芝麻开花节节高，更上一层楼。', '8日上午，习近平听取内蒙古自治区党委和政府工作汇报，对内蒙古各项工作取得的成绩给予肯定。', '习近平强调，要加快优化产业结构，积极发展优势特色产业。内蒙古是国家重要能源和战略资源基地、农畜产品生产基地和我国向北开放重要桥头堡，优化产业结构必须立足这些禀赋特点和战略定位，大力发展优势特色产业，积极探索资源型地区转型发展新路径，加快构建体现内蒙古特色优势的现代化产业体系。要发挥好能源产业优势，把现代能源经济这篇文章做好。要发挥好战略资源优势，加强战略资源的保护性开发、高质化利用、规范化管理，加强能源资源的就地深加工，把战略资源产业发展好。要发挥好农牧业优势，从土地、科技、种源、水、草等方面入手，稳步优化农牧业区域布局和生产结构，推动农牧业转型发展，大力发展生态农牧业，抓好农畜产品精深加工和绿色有机品牌打造，促进一二三产业融合发展，推动农牧业高质量发展。要积极参与共建“一带一路”和中蒙俄经济走廊建设，提升对外开放水平，构筑我国向北开放的重要桥头堡，在联通国内国际双循环中发挥更大作用。要加强与京津冀、长三角、粤港澳大湾区和东三省的联通，更好融入国内国际双循环。', '习近平指出，筑牢我国北方重要生态安全屏障，是内蒙古必须牢记的“国之大者”。要统筹山水林田湖草沙综合治理，精心组织实施京津风沙源治理、“三北”防护林体系建设等重点工程，加强生态保护红线管理，落实退耕还林、退牧还草、草畜平衡、禁牧休牧，强化天然林保护和水土保持，持之以恒推行草原森林河流湖泊湿地休养生息，加快呼伦湖、乌梁素海、岱海等水生态综合治理，加强荒漠化治理和湿地保护，加强大气、水、土壤污染防治，在祖国北疆构筑起万里绿色长城。要进一步巩固和发展“绿进沙退”的好势头，分类施策、集中力量开展重点地区规模化防沙治沙，不断创新完善治沙模式，提高治沙综合效益。', '习近平强调，从全国来看，推动全体人民共同富裕，最艰巨的任务在一些边疆民族地区。这些边疆民族地区在走向共同富裕的道路上不能掉队。要坚持以人民为中心，在发展中更加注重保障和改善民生，补齐民生短板，增进民生福祉，让各族人民实实在在感受到推进共同富裕在行动、在身边。要全面落实就业优先政策，把推动实现更加充分更高质量的就业摆在突出位置，完善政策体系，强化培训服务，精准有效实施减负稳岗扩就业各项政策措施，支持多渠道灵活就业，重点抓好高校毕业生、退役军人、农民工等群体就业。要开拓就业渠道，加强对脱贫家庭、低保家庭、零就业家庭、残疾人等困难人员就业兜底帮扶。要健全多层次社会保障体系，推动参保扩面，加大社会救助、医疗救助、低保和困难家庭保障扶持措施，发展养老事业和养老产业。要巩固拓展脱贫攻坚成果，把促进脱贫县加快发展作为主攻方向，增强脱贫地区和脱贫群众内生发展动力，坚决守住不发生规模性返贫底线。要以“时时放心不下”的责任感抓好安全生产，把制度完善起来，把责任落实下去，尽最大努力防范各类重大安全事故的发生，维护好人民群众生命财产安全。', '习近平指出，铸牢中华民族共同体意识是新时代党的民族工作的主线，也是民族地区各项工作的主线。民族地区的经济建设、政治建设、文化建设、社会建设、生态文明建设和党的建设等，都要紧紧围绕、毫不偏离这条主线。无论是出台法律法规还是政策措施，都要着眼于强化中华民族的共同性、增强中华民族共同体意识。要坚定不移全面推行使用国家统编教材，确保各民族青少年掌握和使用好国家通用语言文字。要统筹城乡建设布局规划和公共服务资源配置，创造更加完善的各族群众共居共学、共建共享、共事共乐的社会条件。', '习近平强调，通过集中教育推动全党以自我革命精神解决党风方面的突出问题，是一条重要历史经验。人民群众看主题教育是否有成效，最直观的感受是看党风方面存在的问题是否得到解决、党员干部作风是否有明显进步。要抓实以学正风，坚持目标导向和问题导向相结合、学查改相贯通，对标党风要求找差距、对表党性要求查根源、对照党纪要求明举措，增强检视整改实效。要大兴务实之风，抓好调查研究，在察实情、出实招、求实效上下功夫，把工作抓实、基础打实、步子迈实，在力戒形式主义、官僚主义上取得明显实质性进展，以这次主题教育为契机，将调查研究发扬光大。要弘扬清廉之风，教育各级领导干部牢固树立正确权力观，全面查找廉洁风险点，筑牢思想防线，坚守法纪红线。要按照“三不腐”要求健全相关制度、严格执纪，建好护栏。要养成俭朴之风，把生活作风问题作为检视整改的重要内容，督促广大党员干部保持清醒头脑，筑牢贯彻落实中央八项规定及实施细则精神的堤坝。', '李干杰及中央和国家机关有关部门负责同志陪同考察，主题教育中央第一指导组负责同志参加汇报会。', '6月7日至8日，中共中央总书记、国家主席、中央军委主席习近平在内蒙古考察。这是8日上午，习近平在呼和浩特听取内蒙古自治区党委和政府工作汇报并发表重要讲话。 新华社记者 谢环驰摄', '6月7日至8日，中共中央总书记、国家主席、中央军委主席习近平在内蒙古考察。这是7日下午，习近平在呼和浩特中环产业园考察。 新华社记者 谢环驰摄', '《人民日报》（电子版）的一切内容(包括但不限于文字、图片、PDF、图表、标志、标识、商标、版面设计、专栏目录与名称、内容分类标准以及为读者提供的任何信息)仅供人民网读者阅读、学习研究使用，未经人民网股份有限公司及/或相关权利人书面授权，任何单位及个人不得将《人民日报》（电子版）所登载、发布的内容用于商业性目的，包括但不限于转载、复制、发行、制作光盘、数据库、触摸展示等行为方式，或将之在非本站所属的服务器上作镜像。否则，人民网股份有限公司将采取包括但不限于网上公示、向有关部门举报、诉讼等一切合法手段，追究侵权者的法律责任。']</t>
         </is>
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A139" t="n">
+        <v>23</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
           <t>习近平在北京育英学校考察</t>
         </is>
       </c>
-      <c r="D139" t="inlineStr">
+      <c r="E139" t="inlineStr">
         <is>
           <t>2023-06-01</t>
         </is>
       </c>
-      <c r="E139" t="inlineStr">
+      <c r="F139" t="inlineStr">
         <is>
           <t>https://www.gov.cn/yaowen/liebiao/202305/content_6884003.htm</t>
         </is>
       </c>
-      <c r="F139" t="inlineStr">
+      <c r="G139" t="inlineStr">
         <is>
           <t>['习近平在北京育英学校考察时强调 争当德智体美劳全面发展的新时代好儿童 向全国广大少年儿童祝贺“六一”国际儿童节快乐 蔡奇丁薛祥陪同考察', '5月31日上午，中共中央总书记、国家主席、中央军委主席习近平来到北京育英学校看望慰问师生，向全国广大少年儿童祝贺“六一”国际儿童节快乐。这是习近平在科学教室同小学生们亲切交流。新华社记者 王晔 摄', '新华社北京5月31日电 在“六一”国际儿童节到来之际，中共中央总书记、国家主席、中央军委主席习近平5月31日上午来到北京育英学校，看望慰问师生，向全国广大少年儿童祝贺节日。习近平强调，少年儿童是祖国的未来，是中华民族的希望。新时代中国儿童应该是有志向、有梦想，爱学习、爱劳动，懂感恩、懂友善，敢创新、敢奋斗，德智体美劳全面发展的好儿童。希望同学们立志为强国建设、民族复兴而读书，不负家长期望，不负党和人民期待。', '中共中央政治局常委、中央办公厅主任蔡奇，中共中央政治局常委、国务院副总理丁薛祥陪同考察。', '北京育英学校1948年创办于河北西柏坡，前身为“中共中央直属机关供给部育英小学校”。75年来，学校在老一辈革命家关心关怀下，全面贯彻党的教育方针，落实立德树人根本任务，推行学制创新，开展特色办学，引领学生德智体美劳全面发展。', '5月31日上午，中共中央总书记、国家主席、中央军委主席习近平来到北京育英学校看望慰问师生，向全国广大少年儿童祝贺“六一”国际儿童节快乐。这是习近平在校史馆考察。新华社记者 鞠鹏 摄', '习近平来到学校，首先走进校史馆，了解学校历史沿革、建设发展和近年来推动教育教学改革创新、落实“双减”政策要求、促进学生德智体美劳全面发展等情况。习近平指出，教育的根本任务是立德树人，培养德智体美劳全面发展的社会主义建设者和接班人。学生的理想信念、道德品质、知识智力、身体和心理素质等各方面的培养缺一不可。“双减”政策落地有一个过程，要久久为功。要引导家长、学校、社会等各方面提高认识，推动落实好“双减”工作要求，促进学生全面发展。育英学校具有光荣的革命传统和鲜明的红色基因。要加强革命传统教育，让每一位育英学校的学生牢记学校的光荣历史，铭记党的关怀，赓续红色传统，传承红色基因，从小听党话、跟党走，立志为党成才、为国奉献。', '5月31日上午，中共中央总书记、国家主席、中央军委主席习近平来到北京育英学校看望慰问师生，向全国广大少年儿童祝贺“六一”国际儿童节快乐。这是习近平在篮球场同正在上体育课的小学生们亲切交流。新华社记者 申宏 摄', '习近平步行察看校园环境。篮球场上学生们正在打篮球、跳绳，上体育课。习近平指出，提高人的健康素质，青少年是黄金期。这个阶段，长身体是第一位的，身体好了，才能为今后一生的学习工作打好基础。体育锻炼是增强少年儿童体质最有效的手段。现在生活条件好了，孩子们不是要吃得胖胖的，而是要长得壮壮的、练得棒棒的。体育锻炼要从小抓起，体育锻炼多一些，“小胖墩”、“小眼镜”就少一些。学校要把体育老师配齐配好，家庭、学校、社会等各方面都要为少年儿童增强体魄创造条件。', '5月31日上午，中共中央总书记、国家主席、中央军委主席习近平来到北京育英学校看望慰问师生，向全国广大少年儿童祝贺“六一”国际儿童节快乐。这是习近平在篮球场向正在上体育课的小学生们挥手致意。新华社记者 鞠鹏 摄', '随后，习近平来到学生农场。这里是学生开展农业种植活动的实践场所，阳光下、田垄上，一排排绿油油的菜苗生机勃勃。孩子们拿着水桶、铲子、耙子、毛笔，为西红柿、黄瓜等浇水、松土、除草、授粉。习近平强调，很多知识和道理都来自劳动、来自生活。引导孩子们从小树立劳动观念，培养劳动习惯，提高劳动能力，有利于他们更好地学习知识。现在一些城里的孩子接触农村、接触大自然少，不光“四体不勤”，而且“五谷不分”，对吃的是什么、从哪里来的、怎么来的都不知道，更体会不到“谁知盘中餐，粒粒皆辛苦”。他对同学们说，认识大自然，首先要从认识身边的植物开始。同学们栽培的各种植物，虽然书本上都有介绍，但大家亲手种、亲自培育、跟踪观察，收获肯定是不一样的。希望同学们从“学农”中感受到农作的艰辛和农民的不易，从小养成热爱劳动、珍爱粮食、尊重自然的良好习惯，为建设美丽中国作贡献。新时代生态文明建设要从娃娃抓起，通过生动活泼的劳动体验课程，让孩子亲自动手、亲身体验、自我感悟，让“绿水青山就是金山银山”的理念早早植入孩子的心灵。', '5月31日上午，中共中央总书记、国家主席、中央军委主席习近平来到北京育英学校看望慰问师生，向全国广大少年儿童祝贺“六一”国际儿童节快乐。这是习近平在学生农场同正在进行农业种植实践的小学生们亲切交流。新华社记者 鞠鹏 摄', '学校思聪楼二层科学教室不时传出欢声笑语，习近平走进教室，师生们告诉总书记，他们正在运用所学的直线运动、曲线运动、斜面运动等知识，用积木动手设计搭建过山车模型进行验证。习近平指出，科学实验课，是培养孩子们科学思维、探索未知兴趣和创新意识的有效方式。希望同学们从小树立“科技创新、强国有我”的志向，当下勇当小科学家，未来争当大科学家，为实现我国高水平科技自立自强作贡献。', '习近平随后来到五年级教师办公室，看望正在研讨备课的老师们，询问课后服务课程结构设置等情况。习近平指出，中国特色社会主义教育体系是好的，我国的基础教育在世界上是有优势的，要坚定文化自信，把自己好的东西坚持好，把国外好的东西借鉴好，与时俱进、开放发展，让孩子们有更广阔的眼界、更开阔的思路、更开放的观念，努力培养堪当民族复兴重任、勇于创造世界奇迹的国之栋梁。习近平强调，人才培养，关键在教师。广大教师要牢记为党育人、为国育才的初心使命，以人民教育家为榜样，以德立身、以德立学、以德施教。要在全社会营造尊师重教的良好风尚，让教师成为最受社会尊重和令人羡慕的职业，努力形成优秀人才争相从教、优秀教师不断涌现的良好局面。', '5月31日上午，中共中央总书记、国家主席、中央军委主席习近平来到北京育英学校看望慰问师生，向全国广大少年儿童祝贺“六一”国际儿童节快乐。这是习近平在教师办公室同教师们亲切交流。新华社记者 申宏 摄', '在学校小广场上，师生们热情欢送总书记。习近平祝愿孩子们茁壮成长、健康成才，并向全国广大少年儿童祝贺“六一”国际儿童节快乐。他说，今天我专程来北京育英学校看望大家，和小朋友们共庆“六一”儿童节。看到同学们天真活泼、朝气蓬勃，脸上洋溢着幸福的笑容，感到非常高兴。党中央始终关心关怀少年儿童的健康成长，采取了一系列政策举措，努力为孩子们健康成长创造更好环境。我相信，有中国共产党的领导和社会主义制度的显著优势，生活在中华民族大家庭里的各族儿童一定会越来越幸福，一定会拥有更加美好的未来。各级党委和政府、社会各方面要切实做好与儿童事业发展有关的各项工作，关心帮助困难家庭的孩子特别是孤儿和残疾儿童，让所有孩子都能感受到党和政府的温暖，都能有一个幸福美好的童年。', '5月31日上午，中共中央总书记、国家主席、中央军委主席习近平来到北京育英学校看望慰问师生，向全国广大少年儿童祝贺“六一”国际儿童节快乐。这是习近平在学校小广场同师生们亲切交流。新华社记者 鞠鹏 摄', '习近平对同学们说，今天的少年儿童是强国建设、民族复兴伟业的接班人和未来主力军。为在本世纪中叶把我国全面建成社会主义现代化强国，现在是我们这一代人在努力奋斗，未来要靠你们去接续奋斗。', '习近平在北京育英学校考察时强调争当德智体美劳全面发展的新时代好儿童向全国广大少年儿童祝贺“六一”国际儿童节快乐蔡奇丁薛祥陪同考察新华社北京5月31日电 在“六一”国际儿童节到来之际，中共中央总书记、国家主席、中央军委主席习近平5月31日上午来到北京育英学校。']</t>
         </is>
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A140" t="n">
+        <v>23</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
           <t>微镜头习近平总书记考察一馆一院并出席文化传承发展座谈会推动中华文明重焕荣光</t>
         </is>
       </c>
-      <c r="D140" t="inlineStr">
+      <c r="E140" t="inlineStr">
         <is>
           <t>2023-06-06</t>
         </is>
       </c>
-      <c r="E140" t="inlineStr">
+      <c r="F140" t="inlineStr">
         <is>
           <t>https://www.gov.cn/yaowen/liebiao/202306/content_6884638.htm</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr">
+      <c r="G140" t="inlineStr">
         <is>
           <t>['微镜头·习近平总书记考察“一馆一院”并出席文化传承发展座谈会 “推动中华文明重焕荣光”__中国政府网', '微镜头·习近平总书记考察“一馆一院”并出席文化传承发展座谈会 “推动中华文明重焕荣光”', '如一条波澜壮阔的长河，中华文明一路奔涌而来，流淌过这片古老而现代的土地，滋养着沿岸人民的繁衍生息，浇灌出一片勃勃生机。总书记言简意赅：', '“深厚的家国情怀与深沉的历史意识，为中华民族打下了维护大一统的人心根基，成为中华民族历经千难万险而不断复兴的精神支撑。”', '“中华文明的连续性，从根本上决定了中华民族必然走自己的路。如果不从源远流长的历史连续性来认识中国，就不可能理解古代中国，也不可能理解现代中国，更不可能理解未来中国。”', '在兰台洞库，来自山东大学文学院的杜泽逊教授，小心翼翼翻开斑驳的文津阁本《九章算术》：“它可以说是我们科技的老祖宗了，负数、分数、方程、勾股定理，在当时最领先。”', '泛黄的纸张、隽永的墨迹，无声讲述着文明星河的赓续。跨越多少春秋，历经多少沧桑，它们才来到今天。', '习近平总书记颇为感慨：“我们的祖先，在科学发萌之际，是走在前面的。千百年来，中华民族没有中断，中国文化没有中断，但在数理化上有些中断，被赶超了。”', '兰台洞库的低温，裹着墨香扑面而来。清朝年间，旷世巨著《四库全书》编纂完成后，抄写七部藏于各地。', '只有三部原本保存至今。洞库内，“四阁四库合璧”，何其璀璨又何其艰辛。话题随之落到了“合古今而集大成”的《永乐大典》上。以韵为纲，以字隶事，总书记也牵挂着它们的整理修缮。', '战乱、火灾、盗匪，铁蹄、灰烬、流落，再到尘世遗珠、怀瑾重拾。那些藏书的命运，何尝不是中华民族一段历程的写照？', '聚散沉浮，国运攸关文运。“盛世修文。”在兰台洞库，习近平总书记多次说起这个词，厚重的使命担在肩上：“在岁月侵蚀中已经失去了不少。”“但每一个时代都有一批人精心呵护它们，保留下来。到我们这个时代，一是平安稳定，一是有强烈的民族文化保护、建设的意愿，再有有这个能力。条件具备了，那就及时把这件大事办好。”', '巍巍大业、传世工程，重启于新时代的今天。因为今天，有泱泱国力托举，有太平岁月护佑，更有目光所及上下五千年的远见、矢志民族复兴伟业的担当。', '中国国家版本馆的建设，正是习近平总书记非常关注、亲自批准的项目，他视之“文明大国建设的基础工程”“利在千秋”。“我最关心的就是中华文明历经沧桑留下的最宝贵的东西。我们文化不断流，再传承，留下的这些瑰宝一定要千方百计呵护好、珍惜好。”', '“中华民族对全人类要有更大的贡献。五千多年的文明史，现在还在往前探源，我相信，我们的文明史更悠久。传到现在，要继续往下传。不要变成中国的月亮是西方过来的，中国的太阳也是西方过来的，那不行。我们的文化在这里啊！是非常文明的、进步的、先进的。将来传下去，还要传五千年，还不止五千年。”', '蘸着历史的笔墨，正在书写新的历史。座谈会上，习近平总书记瞻望未来，从新时代的新征程去端详中华文明，从中国文明的坐标去观察中国式现代化：', '“中国式现代化赋予中华文明以现代力量，中华文明赋予中国式现代化以深厚底蕴。中国式现代化是赓续古老文明的现代化，而不是消灭古老文明的现代化；是从中华大地长出来的现代化，不是照搬照抄其他国家的现代化；是文明更新的结果，不是文明断裂的产物。中国式现代化是中华民族的旧邦新命，必将推动中华文明重焕荣光。”（记者 杜尚泽）', '理解了中华文明，才能读懂中国。文化传承发展座谈会上，习近平总书记将他多年来对中华文明的深邃思考，娓娓道来。五个突出特性，排在首位的是连续性：“中华文明具有突出的连续性”。']</t>
         </is>
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A141" t="n">
+        <v>23</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
           <t>习近平在内蒙古巴彦淖尔考察并主持召开加强荒漠化综合防治和推进三北等重点生态工程建设座谈会</t>
         </is>
       </c>
-      <c r="D141" t="inlineStr">
+      <c r="E141" t="inlineStr">
         <is>
           <t>2023-06-07</t>
         </is>
       </c>
-      <c r="E141" t="inlineStr">
+      <c r="F141" t="inlineStr">
         <is>
           <t>https://www.gov.cn/yaowen/liebiao/202306/content_6884930.htm</t>
         </is>
       </c>
-      <c r="F141" t="inlineStr">
+      <c r="G141" t="inlineStr">
         <is>
           <t>['习近平在内蒙古巴彦淖尔考察并主持召开加强荒漠化综合防治和推进“三北”等重点生态工程建设座谈会__中国政府网', '习近平在内蒙古巴彦淖尔考察并主持召开加强荒漠化综合防治和推进“三北”等重点生态工程建设座谈会', '习近平在内蒙古巴彦淖尔考察并主持召开加强荒漠化综合防治和推进“三北”等重点生态工程建设座谈会时强调 勇担使命不畏艰辛久久为功 努力创造新时代中国防沙治沙新奇迹 蔡奇陪同考察并出席座谈会', '新华社内蒙古巴彦淖尔6月6日电 中共中央总书记、国家主席、中央军委主席习近平近日在内蒙古自治区巴彦淖尔市考察，主持召开加强荒漠化综合防治和推进“三北”等重点生态工程建设座谈会并发表重要讲话。他强调，加强荒漠化综合防治，深入推进“三北”等重点生态工程建设，事关我国生态安全、事关强国建设、事关中华民族永续发展，是一项功在当代、利在千秋的崇高事业。要勇担使命、不畏艰辛、久久为功，努力创造新时代中国防沙治沙新奇迹，把祖国北疆这道万里绿色屏障构筑得更加牢固，在建设美丽中国上取得更大成就。', '6月5日至6日，中共中央总书记、国家主席、中央军委主席习近平在内蒙古巴彦淖尔考察，并主持召开加强荒漠化综合防治和推进“三北”等重点生态工程建设座谈会。这是5日下午，习近平在乌梁素海考察。新华社记者 谢环驰 摄', '5日至6日，习近平在内蒙古自治区党委书记孙绍骋、自治区人民政府主席王莉霞陪同下，深入巴彦淖尔市的自然保护区、现代农业示范园区、林场、水利部门等调研。', '位于黄河“几字弯”顶部的乌梁素海，是黄河流域最大的湖泊湿地，承担着黄河水量调节、水质净化、防凌防汛等重要功能，是我国北方多个生态功能交汇区，是控制京津风沙源的天然生态屏障。5日下午，习近平来到这里，了解当地坚持山水林田湖草沙一体化保护和系统治理、促进生态环境恢复等情况，察看乌梁素海自然风貌和周边生态环境。习近平强调，治理好乌梁素海流域，对于保障我国北方生态安全具有十分重要的意义。乌梁素海治理和保护的方向是明确的，要用心治理、精心呵护，一以贯之、久久为功，守护好这颗“塞外明珠”，为子孙后代留下一个山青、水秀、空气新的美丽家园。', '6月5日至6日，中共中央总书记、国家主席、中央军委主席习近平在内蒙古巴彦淖尔考察，并主持召开加强荒漠化综合防治和推进“三北”等重点生态工程建设座谈会。这是5日下午，习近平在位于乌梁素海南岸的现代农业示范园区考察。新华社记者 谢环驰 摄', '6月5日至6日，中共中央总书记、国家主席、中央军委主席习近平在内蒙古巴彦淖尔考察，并主持召开加强荒漠化综合防治和推进“三北”等重点生态工程建设座谈会。这是5日下午，习近平在位于乌梁素海南岸的现代农业示范园区考察。新华社记者 申宏 摄', '随后，习近平来到位于乌梁素海南岸的现代农业示范园区，察看土壤、种子样品等展示，对当地开展盐碱沙荒地改良改造和综合利用，推动科学灌溉，推广现代农业表示肯定。习近平走进田间，仔细察看小麦、辣椒长势，向现场农技人员询问高标准农田建设情况。他指出，示范园区要在推广现代农业方面真正发挥作用，不断探索，找到适宜这里的品种、技术和耕种方式，成本要降下去、效益要提上来，形成可复制可推广的经验。河套地区条件得天独厚，虽然不缺水，但也要节约水资源，大力发展现代高效农业和节水产业，不能搞大水漫灌。总体上看，内蒙古的草原已经过牧了，要注意休养生息。', '6月5日至6日，中共中央总书记、国家主席、中央军委主席习近平在内蒙古巴彦淖尔考察，并主持召开加强荒漠化综合防治和推进“三北”等重点生态工程建设座谈会。这是6日上午，习近平在临河区国营新华林场考察。新华社记者 谢环驰 摄', '6日上午，习近平来到临河区国营新华林场，了解“三北”防护林体系工程建设情况。自1978年起，该林场大力治理耕地盐碱化造成的土地沙化问题，累计造林3.9万亩。在林场，习近平听取内蒙古“三北”工程建设和林场治沙造林情况介绍，并实地察看正在治理的沙地。习近平强调，人类要更好地生存和发展，就一定要防沙治沙。这是一个滚石上山的过程，稍有放松就会出现反复。像“三北”防护林体系建设这样的重大生态工程，只有在中国共产党领导下才能干成。三北地区生态非常脆弱，防沙治沙是一个长期的历史任务，我们必须持续抓好这项工作，对得起我们的祖先和后代。林场的工作很辛苦，也很有成效，要继续做好。科研工作者要把论文写在大地上，把实践中形成的真知变成论文，当党和人民需要的真博士、真专家。', '6月5日至6日，中共中央总书记、国家主席、中央军委主席习近平在内蒙古巴彦淖尔考察，并主持召开加强荒漠化综合防治和推进“三北”等重点生态工程建设座谈会。这是6日上午，习近平在临河区国营新华林场考察。新华社记者 鞠鹏 摄', '习近平随后来到河套灌区水量信息化监测中心考察。河套灌区是我国3个特大型灌区之一，现已形成完整的7级灌排体系。习近平结合沙盘、屏幕，听取当地利用信息化手段，提升河套灌区精细化管理水平，促进水资源绿色高效利用等情况介绍。习近平强调，河套灌区灌溉工程是千年基业，花了很大功夫，也很值得。要继续完善提升，提高科学分水调度水平。同时要量入为出，建立多元化投入机制，尽可能调动社会力量参与。', '6月5日至6日，中共中央总书记、国家主席、中央军委主席习近平在内蒙古巴彦淖尔考察，并主持召开加强荒漠化综合防治和推进“三北”等重点生态工程建设座谈会。这是6日上午，习近平在河套灌区水量信息化监测中心考察。新华社记者 谢环驰 摄', '6月5日至6日，中共中央总书记、国家主席、中央军委主席习近平在内蒙古巴彦淖尔考察，并主持召开加强荒漠化综合防治和推进“三北”等重点生态工程建设座谈会。这是6日上午，习近平在河套灌区水量信息化监测中心考察。新华社记者 申宏 摄', '6日下午，习近平在巴彦淖尔市主持召开加强荒漠化综合防治和推进“三北”等重点生态工程建设座谈会。自然资源部部长王广华、内蒙古自治区党委书记孙绍骋、甘肃省委书记胡昌升、宁夏回族自治区党委书记梁言顺先后发言。国务院副总理何立峰、相关省区负责同志提交了书面发言。', '听取大家发言后，习近平发表了重要讲话。他强调，党中央高度重视荒漠化防治工作，把防沙治沙作为荒漠化防治的主要任务，相继实施了“三北”防护林体系工程建设、退耕还林还草、京津风沙源治理等一批重点生态工程。经过40多年不懈努力，我国防沙治沙工作取得举世瞩目的巨大成就，重点治理区实现从“沙进人退”到“绿进沙退”的历史性转变，保护生态与改善民生步入良性循环，荒漠化区域经济社会发展和生态面貌发生了翻天覆地的变化。荒漠化和土地沙化实现“双缩减”，风沙危害和水土流失得到有效抑制，防沙治沙法律法规体系日益健全，绿色惠民成效显著，铸就了“三北精神”，树立了生态治理的国际典范。实践证明，党中央关于防沙治沙特别是“三北”等工程建设的决策是非常正确、极富远见的，我国走出了一条符合自然规律、符合国情地情的中国特色防沙治沙道路。', '6月6日，中共中央总书记、国家主席、中央军委主席习近平在内蒙古巴彦淖尔主持召开加强荒漠化综合防治和推进“三北”等重点生态工程建设座谈会并发表重要讲话。新华社记者 鞠鹏 摄', '习近平指出，荒漠化是影响人类生存和发展的全球性重大生态问题。我国是世界上荒漠化最严重的国家之一，荒漠化土地主要分布在三北地区，而且荒漠化地区与经济欠发达区、少数民族聚居区等高度耦合。荒漠化、风沙危害和水土流失导致的生态灾害，制约着三北地区经济社会发展，对中华民族的生存、发展构成挑战。当前，我国荒漠化、沙化土地治理呈现出“整体好转、改善加速”的良好态势，但沙化土地面积大、分布广、程度重、治理难的基本面尚未根本改变。这两年，受气候变化异常影响，我国北方沙尘天气次数有所增加。现实表明，我国荒漠化防治和防沙治沙工作形势依然严峻。我们要充分认识防沙治沙工作的长期性、艰巨性、反复性和不确定性，进一步提高站位，增强使命感和紧迫感。', '习近平强调，2021－2030年是“三北”工程六期工程建设期，是巩固拓展防沙治沙成果的关键期，是推动“三北”工程高质量发展的攻坚期。要完整、准确、全面贯彻新发展理念，坚持山水林田湖草沙一体化保护和系统治理，以防沙治沙为主攻方向，以筑牢北方生态安全屏障为根本目标，因地制宜、因害设防、分类施策，加强统筹协调，突出重点治理，调动各方面积极性，力争用10年左右时间，打一场“三北”工程攻坚战，把“三北”工程建设成为功能完备、牢不可破的北疆绿色长城、生态安全屏障。', '6月6日，中共中央总书记、国家主席、中央军委主席习近平在内蒙古巴彦淖尔主持召开加强荒漠化综合防治和推进“三北”等重点生态工程建设座谈会并发表重要讲话。新华社记者 谢环驰 摄', '习近平指出，要坚持系统观念，扎实推进山水林田湖草沙一体化保护和系统治理。要统筹森林、草原、湿地、荒漠生态保护修复，加强治沙、治水、治山全要素协调和管理，着力培育健康稳定、功能完备的森林、草原、湿地、荒漠生态系统。要强化区域联防联治，打破行政区域界限，实行沙漠边缘和腹地、上风口和下风口、沙源区和路径区统筹谋划，构建点线面结合的生态防护网络。要优化农林牧土地利用结构，严格实施国土空间用途管控，留足必要的生态空间，保护好来之不易的草原、森林。', '习近平强调，要突出治理重点，全力打好三大标志性战役。要全力打好黄河“几字弯”攻坚战，以毛乌素沙地、库布其沙漠、贺兰山等为重点，全面实施区域性系统治理项目，加快沙化土地治理，保护修复河套平原河湖湿地和天然草原，增强防沙治沙和水源涵养能力。要全力打好科尔沁、浑善达克两大沙地歼灭战，科学部署重大生态保护修复工程项目，集中力量打歼灭战。要全力打好河西走廊－塔克拉玛干沙漠边缘阻击战，全面抓好祁连山、天山、阿尔泰山、贺兰山、六盘山等区域天然林草植被的封育封禁保护，加强退化林和退化草原修复，确保沙源不扩散。', '习近平指出，要坚持科学治沙，全面提升荒漠生态系统质量和稳定性。要合理利用水资源，坚持以水定绿、以水定地、以水定人、以水定产，把水资源作为最大的刚性约束，大力发展节水林草。要科学选择植被恢复模式，合理配置林草植被类型和密度，坚持乔灌草相结合，营造防风固沙林网、林带及防风固沙沙漠锁边林草带等。要因地制宜、科学推广应用行之有效的治理模式。', '习近平强调，要广泛开展国际交流合作，履行《联合国防治荒漠化公约》，积极参与全球荒漠化环境治理，重点加强同周边国家的合作，支持共建“一带一路”国家荒漠化防治，引领各国开展政策对话和信息共享，共同应对沙尘灾害天气。', '6月6日，中共中央总书记、国家主席、中央军委主席习近平在内蒙古巴彦淖尔主持召开加强荒漠化综合防治和推进“三北”等重点生态工程建设座谈会并发表重要讲话。新华社记者 燕雁 摄', '习近平最后强调，实施“三北”工程是国家重大战略，要全面加强组织领导，坚持中央统筹、省负总责、市县抓落实的工作机制，完善政策机制，强化协调配合，统筹指导、协调推进相关重点工作。要健全“三北”工程资金支持和政策支撑体系，建立稳定持续的投入机制。各级党委和政府要保持战略定力，一张蓝图绘到底，一茬接着一茬干，锲而不舍推进“三北”等重点工程建设，筑牢我国北方生态安全屏障。', '李干杰等陪同考察并出席座谈会，何立峰陪同考察，马兴瑞及中央和国家机关有关部门负责同志、有关省区负责同志参加座谈会。', '中共中央总书记、国家主席、中央军委主席习近平近日在内蒙古自治区巴彦淖尔市考察,主持召开加强荒漠化综合防治和推进“三北”等重点生态工程建设座谈会并发表重要讲话。李干杰等陪同考察并出席座谈会，何立峰陪同考察，马兴瑞及中央和国家机关有关部门负责同志、有关省区负责同志参加座谈会。']</t>
         </is>
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A142" t="n">
+        <v>23</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
           <t>赓续历史文脉谱写当代华章习近平总书记考察中国国家版本馆和中国历史研究院并出席文化传承发展座谈会纪实</t>
         </is>
       </c>
-      <c r="D142" t="inlineStr">
+      <c r="E142" t="inlineStr">
         <is>
           <t>2023-06-05</t>
         </is>
       </c>
-      <c r="E142" t="inlineStr">
+      <c r="F142" t="inlineStr">
         <is>
           <t>https://www.gov.cn/yaowen/liebiao/202306/content_6884447.htm</t>
         </is>
       </c>
-      <c r="F142" t="inlineStr">
+      <c r="G142" t="inlineStr">
         <is>
           <t>['赓续历史文脉 谱写当代华章——习近平总书记考察中国国家版本馆和中国历史研究院并出席文化传承发展座谈会纪实__中国政府网', '赓续历史文脉 谱写当代华章——习近平总书记考察中国国家版本馆和中国历史研究院并出席文化传承发展座谈会纪实', '新华社北京6月3日电题：赓续历史文脉 谱写当代华章——习近平总书记考察中国国家版本馆和中国历史研究院并出席文化传承发展座谈会纪实', '题：赓续历史文脉 谱写当代华章——习近平总书记考察中国国家版本馆和中国历史研究院并出席文化传承发展座谈会纪实', '带着这样的深邃思考，6月1日至2日，习近平总书记专程到中国国家版本馆和中国历史研究院考察调研、出席文化传承发展座谈会并发表重要讲话，从党和国家事业发展全局战略高度，对中华文化传承发展的一系列重大理论和现实问题作出全面系统深入阐述，发出振奋人心的号召——', '“要坚定文化自信、担当使命、奋发有为，共同努力创造属于我们这个时代的新文化，建设中华民族现代文明。”', '建设中国国家版本馆和成立中国历史研究院，是以习近平同志为核心的党中央作出的重大决策。', '“这两个馆，两年来我一直都想去看看，但都没有找到机会。这次下定决心，用两个半天的时间，走一走、看一看。”习近平总书记说。', '1日下午，习近平总书记乘车来到离北京中心城区约40公里的燕山脚下，考察中国国家版本馆中央总馆。', '这里原是一处废弃的采石场。经过生态修复，一片气势恢弘的仿古建筑群依山就势兴建起来。', '“国家版本馆是我亲自批准的建设项目，一直非常关注。”总书记举目环视，微笑着说，“坐落在山水之间，中国古典建筑看起来很舒服。”', '步入文华堂，绕过大屏风，迎面是国家级版本陈列殿堂——国家书房。四周15组巨型书柜，陈列着近3万册新中国精品出版物，营造出中国风格的藏书空间。', '“这是我在浙江工作时候，浙江大学张曦负责的项目。先是编纂《宋画全集》，后来又扩展到‘中国历代绘画大系’。不仅在浙江当地，还和海内外广泛合作。”总书记回忆道。', '当年，正是在习近平同志亲力推动、全程支持下，历时10余年的国家重大文化工程“中国历代绘画大系”顺利出版，将穿越千年的丹青、散落全球的国宝汇聚一堂，生动呈现赫赫先秦、大汉雄风、盛唐气象、典雅宋韵、元明清风采。', '总书记的目光望向国家书房顶部中央藻井内的星空穹顶。穹顶上是一幅宋代石刻天文图，图上标注着古人观测的恒星位置，星汉灿烂、浩渺深邃。', '“选用这幅图案，传递着中国国家版本馆中央总馆‘文瀚阁’的寓意：中华文明如星空般浩瀚璀璨。”听着讲解员的说明，总书记不时点头。', '版本是传承中华优秀传统文化的载体和媒介，是中华文明源远流长、欣欣向荣的表征和见证。在文华堂二层，习近平总书记参观了“斯文在兹——中华古代文明版本展”。', '商王武丁时期的“四方风”甲骨刻辞、宋刻本《棠湖诗稿》、宋拓本《西楼苏帖》、唐写本《妙法莲华经》……一件件珍贵的甲骨、简牍、古籍文献、雕版拓片等，无不昭示着中华文明的光辉灿烂、中国传统文化的广博渊综。', '“这是一件发挥着重要政治功用的古籍版本——明代蓝格抄本《使琉球录》，它是记录钓鱼岛及其附属岛屿属于中国版图的早期版本著述。书中这样记录：十日……过平嘉山，过钓鱼屿，过黄毛屿，过赤屿……十一日夕，见古米山，乃属琉球者……”在明抄本《使琉球录》展品前，工作人员详细介绍。', '“我在福州工作的时候，就知道福州有琉球馆、琉球墓，和琉球的交往渊源很深，当时还有闽人三十六姓入琉球。”总书记强调，要加强对典籍、版本的搜集整理工作，把中华文明传承好、发展好。', '“那时候去陕北插队，在地里干活时我兜里就揣着一本《新华字典》，休息时就拿出来翻两页，一个字一个字地看。看一个字有几种发音、有几个意思，怎么用字用词才是准确的。我们写文章，一下子用五六个排比句、五六个成语就好吗？不一定，关键是要从中选出一个最准确的、最好的词，而不是‘抖书包’、‘掉书袋’。”', '“这些小人书都是全套的，我小时候都翻烂了，《岳母刺字》《牛头山》《枪挑小梁王》《双枪陆文龙》《小商河》……”总书记如数家珍，“这些小人书很有教育意义，画小人书的人功夫也深，都是大家。”', '总书记仔细观看这些作品的手稿及图书版本，感慨地说：“这些书当年都看过，激励了多少人啊。这些优秀的老作品、老片子，现在也应该拿出来看一看、放一放。”', '“兰台”二字，出自《汉书·百官公卿表》“在殿中兰台，掌图籍秘书”，正是收藏典籍的府库之意。', '兰台洞库1号库是雕版特藏库，保存着汉藏蒙满四种文字大藏经雕版。用上等梨木、红桦木制成的雕版，历经数百年风雨变迁，依然散发着独有的魅力。', '总书记缓缓走进库架深处，仔细观摩珍贵文物，感受着古老文明传承至今的气息和底蕴：“走一下，体会一下。这些雕版、典籍，蕴含着中华民族的智慧、精神、文化，更蕴含着生生不息的力量。”', '2号库里，首次同台展示了《四库全书》文渊阁、文溯阁、文津阁、文澜阁古籍真本和仿真影印版本，全面呈现《四库全书》风貌，实现“四阁四库合璧”。', '习近平总书记详细听取《四库全书》版本源流、纸张印刷、保护收藏等介绍，叮嘱工作人员：', '“我最关心的就是中华文明历经沧桑留下的最宝贵的东西。中华民族的一些典籍在岁月侵蚀中已经失去了不少，留下来的这些瑰宝一定要千方百计呵护好、珍惜好，把我们这个世界上唯一没有中断的文明继续传承下去。”', '他强调：“建设版本馆的初心就是收藏，就是在我们这个历史阶段，把自古以来能收集到的典籍资料收集全、保护好，把世界上唯一没有中断的文明继续传承下去。盛世修文，我们现在有这样的意愿和能力，要把这件大事办好。”', '中国历史研究院位于连通古今的“文化之脊”——北京中轴线北延长线上的北京奥林匹克公园中心区文化综合区，2019年成立时习近平总书记专门发来贺信，勉励大家“充分发挥知古鉴今、资政育人作用，为推动中国历史研究发展、加强中国史学研究国际交流合作作出贡献”。', '院内的中国考古博物馆，是我国第一家以考古命名的博物馆。一条“历史大道”，以时间轴的形式展示了我国历史发展的重要节点和重大事件，铭刻着中华文明的悠久历史。', '“这是一件出土于安徽蒙城新石器时代尉迟寺遗址的大口陶尊，距今大约4800年。”讲解员指着一件陶器展品，“它的特别之处是器物上有着刻画符号，分别是‘日’‘月’‘山’形。抽象的表达和组合，已经超越了简单的图画，使我们看到了汉字的雏形。而我国最早的陶器，早在16000多年前就已经出现了。”', '新石器时代“7000岁”的陶人面像、朱书文字陶扁壶、彩绘龙纹陶盘，夏代二里头遗址绿松石龙形器，商代象牙杯，周代铜牺尊……一件件精美的出土文物，生动展现了中华民族先民筚路蓝缕、以启山林的历史足迹。', '“4000多年前的东西这么精致”“这个技术在那时是很先进的”“真漂亮！制作工艺太精湛了”……总书记边走边看，由衷赞叹中国古人的聪明才智、中国古代的灿烂文明。', '“看了国家版本馆、中国历史研究院，很有收获。我更加深切感受到，中国文化源远流长，中华文明博大精深。”', '带着这样的深切体会，习近平总书记随后在中国历史研究院七层会议室出席了文化传承发展座谈会。', '会上，北京师范大学教授杨耕、北京大学副校长王博、清华大学副校长彭刚、中国社会科学院中国边疆研究所所长邢广程、中国美术家协会主席范迪安、南京大学人文社会科学资深教授莫砺锋，先后就以当代中国实践为坐标推进马克思主义基本原理同中华优秀传统文化相结合、传承中华文明推进全本《儒藏》编纂研究、在交流互鉴中推进文化传承发展、推动文化传承发展促进各民族交往交流交融、在文艺创作中弘扬中华优秀传统文化、普及古典名著弘扬传统文化作了发言。', '认真听取大家发言后，习近平总书记指出：“文化关乎国本、国运。这段时间，我一直在思考推进中国特色社会主义文化建设、建设中华民族现代文明这个重大命题，这也是召开这次座谈会的原因。”', '谈深刻把握中华文明的突出特性，总书记一口气列举了中华优秀传统文化中的诸多重要元素——', '天下为公、天下大同的社会理想，民为邦本、为政以德的治理思想，九州共贯、多元一体的大一统传统，修齐治平、兴亡有责的家国情怀，厚德载物、明德弘道的精神追求，富民厚生、义利兼顾的经济伦理，天人合一、万物并育的生态理念，实事求是、知行合一的哲学思想，执两用中、守中致和的思维方法，讲信修睦、亲仁善邻的交往之道……', '总书记强调，这些元素共同塑造出中华文明突出的连续性、创新性、统一性、包容性、和平性。', '“结合不是拼盘，不是简单的物理反应，而是深刻的化学反应，造就了一个有机统一的新的文化生命体”；', '“我们的社会主义为什么不一样？为什么能够生机勃勃充满活力？关键就在于中国特色，中国特色的关键就在于两个结合”；', '“中国特色社会主义道路，是在马克思主义指导下走出来的，也是从5000多年中华文明史中走出来的”；', '“中国式现代化是赓续古老文明的现代化，而不是消灭古老文明的现代化；是从中华大地长出来的现代化，不是照搬照抄其他国家的现代化；是文明更新的结果，而不是文明断裂的产物”……', '精辟的阐释，深刻的分析，指引人们更加深切地认识到，在5000多年中华文明深厚基础上开辟和发展中国特色社会主义，“两个结合”是必由之路。', '谈更好担负起新的文化使命，总书记总结了党的十八大以来在文化建设中提出的一系列新思想新观点新论断——', '强调坚持和加强党对宣传思想文化工作的全面领导，担负起新的文化使命，建设社会主义文化强国，铸就社会主义文化新辉煌；', '强调坚持马克思主义在意识形态领域指导地位的根本制度，推进马克思主义中国化时代化，建设具有强大凝聚力和引领力的社会主义意识形态；', '强调以社会主义核心价值观引领文化建设，广泛开展中国特色社会主义和中国梦宣传教育，使全体人民在理想信念、价值理念、道德观念上紧紧团结在一起；', '强调加快构建中国特色哲学社会科学，以我国实际为研究起点，阐释中国道路、解读中国实践、构建中国理论；', '强调推动中华优秀传统文化创造性转化、创新性发展，让中华文化展现出永久魅力和时代风采；', '强调提高新闻舆论传播力引导力影响力公信力，弘扬主旋律、传播正能量，巩固壮大奋进新时代的主流思想舆论；', '强调坚持以人民为中心的创作导向，把社会效益放在首位，推出更多增强人民精神力量的优秀作品；', '强调要像爱惜自己的生命一样保护历史文化遗产，加强文物保护利用和文化遗产保护传承，守护好中华文脉；', '强调中国式现代化是物质文明和精神文明相协调的现代化，能促进全体人民精神生活共同富裕，促进人的全面发展；', '强调过不了互联网这一关就过不了长期执政这一关，要把互联网这个变量变成事业发展的增量，培育积极健康向上向善的网络文化，建设网络文明；', '强调提升国家文化软实力和中华文化影响力，加强国际传播能力建设，讲好中国故事，推动中华文化更好走向世界；', '强调弘扬全人类共同价值，落实全球文明倡议，推动文明交流互鉴，丰富世界文明百花园，等等。', '习近平总书记指出，这些重要观点是新时代党领导文化建设实践经验的理论总结，是做好宣传思想文化工作的根本遵循，必须长期坚持贯彻、不断丰富发展。', '在新的历史起点上继续推动文化繁荣、建设文化强国、建设中华民族现代文明，必须做到坚定文化自信、秉持开放包容、坚持守正创新。', '“对历史最好的继承，就是创造新的历史；对人类文明最大的礼敬，就是创造人类文明新形态。”', '6月1日至2日，习近平总书记专程到中国国家版本馆和中国历史研究院考察调研、出席文化传承发展座谈会并发表重要讲话，从党和国家事业发展全局战略高度，对中华文化传承发展的一系列重大理论和现实问题作出全面系统深入阐述，发出振奋人心的号召。']</t>
         </is>
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A143" t="n">
+        <v>23</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
           <t>中国政府网习近平在内蒙古考察时强调把握战略定位坚持绿色发展奋力书写中国式现代化内蒙古新篇章</t>
         </is>
       </c>
-      <c r="D143" t="inlineStr">
+      <c r="E143" t="inlineStr">
         <is>
           <t>2023-06-08</t>
         </is>
       </c>
-      <c r="E143" t="inlineStr">
+      <c r="F143" t="inlineStr">
         <is>
           <t>https://www.gov.cn/yaowen/liebiao/202306/content_6885245.htm</t>
         </is>
       </c>
-      <c r="F143" t="inlineStr">
+      <c r="G143" t="inlineStr">
         <is>
           <t>['习近平在内蒙古考察时强调：把握战略定位坚持绿色发展 奋力书写中国式现代化内蒙古新篇章__中国政府网', '习近平在内蒙古考察时强调：把握战略定位坚持绿色发展 奋力书写中国式现代化内蒙古新篇章', '习近平在内蒙古考察时强调 把握战略定位坚持绿色发展 奋力书写中国式现代化内蒙古新篇章 蔡奇陪同考察', '新华社呼和浩特6月8日电 中共中央总书记、国家主席、中央军委主席习近平近日在内蒙古考察时强调，要牢牢把握党中央对内蒙古的战略定位，完整、准确、全面贯彻新发展理念，紧紧围绕推进高质量发展这个首要任务，以铸牢中华民族共同体意识为主线，坚持发展和安全并重，坚持以生态优先、绿色发展为导向，积极融入和服务构建新发展格局，在建设“两个屏障”、“两个基地”、“一个桥头堡”上展现新作为，奋力书写中国式现代化内蒙古新篇章。', '6月7日至8日，中共中央总书记、国家主席、中央军委主席习近平在内蒙古考察。这是7日下午，习近平在呼和浩特中环产业园考察。新华社记者 谢环驰 摄', '6月7日至8日，习近平在巴彦淖尔市考察并主持召开加强荒漠化综合防治和推进“三北”等重点生态工程建设座谈会后，在内蒙古自治区党委书记孙绍骋、自治区人民政府主席王莉霞陪同下，来到呼和浩特市调研。', '7日下午，习近平来到中环产业园考察。在园区展厅，习近平听取当地发展新能源新材料产业、促进产业结构优化调整、推动绿色低碳发展等情况介绍。随后，习近平来到生产车间实地察看产品生产流程，详细了解园区企业半导体和光伏材料等产品的研发生产情况。他强调，坚持绿色发展是必由之路。推动传统能源产业转型升级，大力发展绿色能源，做大做强国家重要能源基地，是内蒙古发展的重中之重。在这方面内蒙古方向明确、路子对头、前景很好，大有作为、大有前途。离开园区时，习近平亲切地对前来欢送的企业员工说，你们企业和园区办得不错，看了感到很提气。现在，我们要靠高水平科技自立自强、构建新发展格局来攻克科技难关。构建国内大循环是为了保证极端情况下国民经济能够正常运行，这同参与国际经济循环是不矛盾的。我们坚定不移实行高水平对外开放，敞开大门搞建设，一起合作实现共赢。习近平祝愿企业和员工继续努力，芝麻开花节节高，更上一层楼。', '8日上午，习近平听取内蒙古自治区党委和政府工作汇报，对内蒙古各项工作取得的成绩给予肯定。', '习近平强调，要加快优化产业结构，积极发展优势特色产业。内蒙古是国家重要能源和战略资源基地、农畜产品生产基地和我国向北开放重要桥头堡，优化产业结构必须立足这些禀赋特点和战略定位，大力发展优势特色产业，积极探索资源型地区转型发展新路径，加快构建体现内蒙古特色优势的现代化产业体系。要发挥好能源产业优势，把现代能源经济这篇文章做好。要发挥好战略资源优势，加强战略资源的保护性开发、高质化利用、规范化管理，加强能源资源的就地深加工，把战略资源产业发展好。要发挥好农牧业优势，从土地、科技、种源、水、草等方面入手，稳步优化农牧业区域布局和生产结构，推动农牧业转型发展，大力发展生态农牧业，抓好农畜产品精深加工和绿色有机品牌打造，促进一二三产业融合发展，推动农牧业高质量发展。要积极参与共建“一带一路”和中蒙俄经济走廊建设，提升对外开放水平，构筑我国向北开放的重要桥头堡，在联通国内国际双循环中发挥更大作用。要加强与京津冀、长三角、粤港澳大湾区和东三省的联通，更好融入国内国际双循环。', '6月7日至8日，中共中央总书记、国家主席、中央军委主席习近平在内蒙古考察。这是8日上午，习近平在呼和浩特听取内蒙古自治区党委和政府工作汇报并发表重要讲话。新华社记者 鞠鹏 摄', '习近平指出，筑牢我国北方重要生态安全屏障，是内蒙古必须牢记的“国之大者”。要统筹山水林田湖草沙综合治理，精心组织实施京津风沙源治理、“三北”防护林体系建设等重点工程，加强生态保护红线管理，落实退耕还林、退牧还草、草畜平衡、禁牧休牧，强化天然林保护和水土保持，持之以恒推行草原森林河流湖泊湿地休养生息，加快呼伦湖、乌梁素海、岱海等水生态综合治理，加强荒漠化治理和湿地保护，加强大气、水、土壤污染防治，在祖国北疆构筑起万里绿色长城。要进一步巩固和发展“绿进沙退”的好势头，分类施策、集中力量开展重点地区规模化防沙治沙，不断创新完善治沙模式，提高治沙综合效益。', '习近平强调，从全国来看，推动全体人民共同富裕，最艰巨的任务在一些边疆民族地区。这些边疆民族地区在走向共同富裕的道路上不能掉队。要坚持以人民为中心，在发展中更加注重保障和改善民生，补齐民生短板，增进民生福祉，让各族人民实实在在感受到推进共同富裕在行动、在身边。要全面落实就业优先政策，把推动实现更加充分更高质量的就业摆在突出位置，完善政策体系，强化培训服务，精准有效实施减负稳岗扩就业各项政策措施，支持多渠道灵活就业，重点抓好高校毕业生、退役军人、农民工等群体就业。要开拓就业渠道，加强对脱贫家庭、低保家庭、零就业家庭、残疾人等困难人员就业兜底帮扶。要健全多层次社会保障体系，推动参保扩面，加大社会救助、医疗救助、低保和困难家庭保障扶持措施，发展养老事业和养老产业。要巩固拓展脱贫攻坚成果，把促进脱贫县加快发展作为主攻方向，增强脱贫地区和脱贫群众内生发展动力，坚决守住不发生规模性返贫底线。要以“时时放心不下”的责任感抓好安全生产，把制度完善起来，把责任落实下去，尽最大努力防范各类重大安全事故的发生，维护好人民群众生命财产安全。', '习近平指出，铸牢中华民族共同体意识是新时代党的民族工作的主线，也是民族地区各项工作的主线。民族地区的经济建设、政治建设、文化建设、社会建设、生态文明建设和党的建设等，都要紧紧围绕、毫不偏离这条主线。无论是出台法律法规还是政策措施，都要着眼于强化中华民族的共同性、增强中华民族共同体意识。要坚定不移全面推行使用国家统编教材，确保各民族青少年掌握和使用好国家通用语言文字。要统筹城乡建设布局规划和公共服务资源配置，创造更加完善的各族群众共居共学、共建共享、共事共乐的社会条件。', '6月7日至8日，中共中央总书记、国家主席、中央军委主席习近平在内蒙古考察。这是8日上午，习近平在呼和浩特听取内蒙古自治区党委和政府工作汇报并发表重要讲话。新华社记者 谢环驰 摄', '习近平强调，通过集中教育推动全党以自我革命精神解决党风方面的突出问题，是一条重要历史经验。人民群众看主题教育是否有成效，最直观的感受是看党风方面存在的问题是否得到解决、党员干部作风是否有明显进步。要抓实以学正风，坚持目标导向和问题导向相结合、学查改相贯通，对标党风要求找差距、对表党性要求查根源、对照党纪要求明举措，增强检视整改实效。要大兴务实之风，抓好调查研究，在察实情、出实招、求实效上下功夫，把工作抓实、基础打实、步子迈实，在力戒形式主义、官僚主义上取得明显实质性进展，以这次主题教育为契机，将调查研究发扬光大。要弘扬清廉之风，教育各级领导干部牢固树立正确权力观，全面查找廉洁风险点，筑牢思想防线，坚守法纪红线。要按照“三不腐”要求健全相关制度、严格执纪，建好护栏。要养成俭朴之风，把生活作风问题作为检视整改的重要内容，督促广大党员干部保持清醒头脑，筑牢贯彻落实中央八项规定及实施细则精神的堤坝。', '李干杰及中央和国家机关有关部门负责同志陪同考察，主题教育中央第一指导组负责同志参加汇报会。', '中共中央总书记、国家主席、中央军委主席习近平近日在内蒙古考察时强调，要牢牢把握党中央对内蒙古的战略定位，完整、准确、全面贯彻新发展理念，紧紧围绕推进高质量发展这个首要任务，以铸牢中华民族共同体意识为主线，坚持发展和安全并重，坚持以生态优先、绿色发展为导向，积极融入和服务构建新发展格局，在建设“两个屏障”、“两个基地”、“一个桥头堡”上展现新作为，奋力书写中国式现代化内蒙古新篇章。']</t>
         </is>
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A144" t="n">
+        <v>23</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
           <t>赵松强牛永福带队赴尧都区临汾经济开发区等地考察学习</t>
         </is>
       </c>
-      <c r="D144" t="inlineStr">
+      <c r="E144" t="inlineStr">
         <is>
           <t>2023-03-29</t>
         </is>
       </c>
-      <c r="E144" t="inlineStr">
+      <c r="F144" t="inlineStr">
         <is>
           <t>http://www.zgjx.gov.cn/zzzb/jxyw/202304/t20230404_162355.html</t>
         </is>
       </c>
-      <c r="F144" t="inlineStr">
+      <c r="G144" t="inlineStr">
         <is>
           <t>['为深入贯彻省委书记蓝佛安在省管主要领导干部专题研讨班开班式上的讲话精神，认真落实市“两会”精神，按照市委书记李云峰关于“全力以赴拼抢经济”的指示要求，3月27日至28日，县委书记赵松强，县委副书记、县长牛永福带领县四大班子领导、现代农业产业示范区班子成员、各乡镇及相关单位负责人，赴尧都区、临汾经济开发区等地，考察学习数字经济发展、营商环境优化、开发区建设、民营经济壮大、城市更新、农产品交易市场运营管理、生态综合治理等工作，进一步对标先进、明确方向，持续推动县域经济高质量发展全面提质提速，奋力建设“信用、活力、数智、创新、健康”的美丽吉县、幸福家园。', '在尧都区云商产业园，赵松强、牛永福一行先后参观了世纪新龙腾、正合天、优炫凌云、丽美特、晋之风、字节跳动、百度智能云等公司，全面了解产业园各入驻企业生产经营、技术研发、市场推广、产品应用、就业带动等方面情况，就“数字吉县”打造、沿黄农文旅项目建设、信息技术人才培训等方面进行了深入交流，并诚挚邀请相关企业到吉县实地考察、洽谈合作。指出，“数字化”“智慧化”“智能化”是未来发展的必然趋势。县委经济工作会议提出要打造“数智吉县”，各级各部门要抢抓数字经济发展机遇，紧盯5G、大数据、物联网、区块链等前沿技术，抓紧谋划、主动出击，加快智慧果业、智慧种业、智慧城市、智慧乡村、智慧水利等基础设施建设，推进数字产业化、产业数字化，激活“数字经济、平台经济”引擎，让“数智”更多地参与到产业发展、政务服务、公共管理、社会治理、民生改善等多场景、各领域。', '随后，赵松强、牛永福一行先后深入尧都区刘村镇涧头村城中村改造项目及向阳西路、红枫园、中大街靓城提质改造项目现场，通过听取介绍、实地参观等方式，详细了解尧都区城市规划、棚户区改造、靓城提质、街道绿化、公共设施建设等方面工作情况。指出，近年来，市委、市政府高度重视城市建设，大力开展“靓城提质”工作，城市面貌大为改善，颜值气质不断提升，群众获得感、幸福感持续增强，为我县产城融合发展提供了鲜活经验。各相关部门要紧抓国家以县城为载体的新型城镇化建设战略，以此次考察学习为契机，学习借鉴尧都区在沿街外立面规划设计、城市景观打造等方面的经验，结合我县实际，坚持规划先行，细化工作举措，全力抓好城市更新建设及“靓城提质”工作，进一步提高城市品质、完善城市要素、丰富城市功能、优化城市管理，真正把我县打造成“绿地连片、绿树成荫、绿道联通”的园林式、服务型旅游县城。', '在市政务服务中心，赵松强、牛永福一行详细听取了行政审批大厅整体情况介绍，认真了解了“办不成事”、“一窗受理”等窗口工作情况，深入企业开办服务区、项目投资服务区，与工作人员亲切交流。强调，县行政审批局要认真学习先进经验和典型做法，全面优化窗口布局，在用好“办不成事”反映窗口作用的同时，加设投诉举报窗口，积极解决企业、群众在办理审批事项过程中的难题，全面打造企业和群众满意的政务服务环境。要围绕“三无”“三可”要求，持续深化“放管服”改革，继续推行“标准地＋承诺制”“要素跟着项目走”“领办＋代办＋专办＋一网通办”等机制，不断优化审批流程，提高审批效率，以营商环境的持续优化，推动民营经济发展壮大，为我县高质量发展全面提质提速提供坚强保障。', '在临汾经济开发区，赵松强一行先后深入城北新城（第四）污水处理厂、甘亭镇团结村“厕所革命＋污水处理”示范项目、中凌水环境设备（临汾）有限公司、临汾晶旭新能源科技有限公司、汾禾源中央厨房项目等地考察学习，并与相关企业负责人深入交流。强调，相关职能部门要认真学习城北新城（第四）污水处理厂项目建设典型做法，全力加快我县第二污水处理厂项目选址、规划编制、手续办理等工作，推动项目早日落地建设、发挥应有作用。各乡镇要学习借鉴甘亭镇“厕所革命＋污水处理”示范工程模式，积极开展试点创建，尽早在全县进行示范推广，进一步推动农村人居环境持续改善。要紧紧抓住黄河古贤水利枢纽工程即将开工建设的重大机遇，积极开展招商引资，在中央厨房建设、预制菜研发、食品安全追溯等方面，谋划建设一批好项目，为做好黄河古贤水利枢纽工程的生活物资保障供给工作奠定基础。特别是现代农业产业示范区要在搭建平台、招商引资、优化环境、项目建设等方面，充分发挥“主力军”作用，引进一批有实力、有资源、有情怀的企业，开展战略合作，形成规模效应，助力乡村振兴，打造开发区升级版。', '随后，赵松强一行深入山西宏源集团有限公司总部开展入企服务，并进行座谈交流。座谈会上，赵松强认真听取了宏源公司在壶口景区“三大中心”建设、运营管理等方面遇到的困难和问题，并现场协调解决。强调，壶口景区的生态保护和开发建设事关景区高质量发展。要全力加快壶口景区“三大中心”建设，挂图作战、倒排工期，压实责任、细化举措，确保项目按时序进度完成。要结合当前游客体验需求，不断完善景区景观要素，丰富业态布局，优化基础设施，严格景区管理，提升服务质量，全力为游客提供更加优质的游览体验。要树牢“一盘棋”思想，保持同频共振，强化协调联动，合力把壶口景区真正打造成全球知名旅游目的地。', '在晋南国际农产品物流园营销展示厅，赵松强、牛永福详细了解物流园区项目总体情况和发展现状，随后深入水果交易市场，与部分商户就水果价格、供货渠道、销售情况，特别是吉县苹果供销情况进行了深入交流。强调，相关职能部门要积极对接市场商户，帮助我县果农拓宽销售渠道，搭建起“市场＋商户＋果农”的交易平台。要围绕吉县苹果品牌建设，加强品质把控，确保市场内所销售“吉县苹果”的真实性和优质性。近期，重点要对市场内所有销售吉县苹果的商户开展一次专题调研，为信誉好、实力强的商户进行品牌授权，并与市场共同建立可溯源的监督管理体系，切实维护保障好市场、商户和果农的利益。考察结束后，赵松强、牛永福一行与浙江东日农业发展有限公司相关负责人座谈交流，开展入企服务。双方就吉县苹果全产业链建设、古贤水利枢纽工程保障供给、现代农业产业示范区“飞地”建设等项目，进行了进一步沟通对接，现场协调解决面临的困难问题，推动项目加快进度，尽早投产达效。', '在涝洰河生态建设规划展示厅和涝洰河生态公园，赵松强、牛永福一行实地考察学习了涝洰河生态综合治理经验做法。指出，生态综合治理是功在当代、利在千秋的民生工程、德政工程。各级各部门要深入学习贯彻习近平总书记关于黄河流域生态保护和高质量发展的重要指示精神，认真学习借鉴尧都区在涝洰河生态综合治理上的超前理念、科学做法和先进经验，结合我县实际，振奋精神，大干快上，全力推动第二污水处理厂、义亭河流域综合治理、黄河流域农业面源污染综合治理等项目，守护好吉县的“绿水青山”，真正实现生态效益、经济效益、社会效益的有机融合。']</t>
         </is>
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A145" t="n">
+        <v>23</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
           <t>谋长远之势行长久之策建久安之基习近平总书记赴江西考察并主持召开进一步推动长江经济带高质量发展座谈会纪实</t>
         </is>
       </c>
-      <c r="D145" t="inlineStr">
+      <c r="E145" t="inlineStr">
         <is>
           <t>2023-10-16</t>
         </is>
       </c>
-      <c r="E145" t="inlineStr">
+      <c r="F145" t="inlineStr">
         <is>
           <t>https://www.gov.cn/yaowen/liebiao/202310/content_6909233.htm</t>
         </is>
       </c>
-      <c r="F145" t="inlineStr">
+      <c r="G145" t="inlineStr">
         <is>
           <t>['谋长远之势、行长久之策、建久安之基——习近平总书记赴江西考察并主持召开进一步推动长江经济带高质量发展座谈会纪实__中国政府网', '谋长远之势、行长久之策、建久安之基——习近平总书记赴江西考察并主持召开进一步推动长江经济带高质量发展座谈会纪实', '题：谋长远之势、行长久之策、建久安之基——习近平总书记赴江西考察并主持召开进一步推动长江经济带高质量发展座谈会纪实', '江西秋意正浓。九江、景德镇、上饶，再到南昌，习近平总书记一路察实情、观进展、谋未来。', '长江经济带发展战略是党的十八大后提出的重大国家战略，覆盖沿江11个省市。这一横跨我国东中西三大板块的经济带，占有全国“半壁江山”的人口规模和经济总量。它所承载的，不仅有中国式现代化的生动实践，也有人与自然如何相处的时代答卷。', '习近平总书记念之行之，10多年来30多次来到长江沿岸。江水滚滚东逝，江岸黄了又绿，长江的模样也在日复一日的努力中改变。', '以长江经济带发展为主题的座谈会，第1次召开于近8年前。此后每隔两三年，第2次、第3次，再到这一次考察期间于南昌第4次召开座谈会。一以贯之的关注，蕴含着党中央“谋长远之势、行长久之策、建久安之基”的治国之道。', '这一次，习近平总书记在座谈会上回顾长江经济带的发展历程，颇为感慨：“做就要做好，坚定做下去。笃行不怠，一以贯之，久久为功。”', '昔日的长江之痛，是改革开放以来快速发展的生态代价。总书记曾经痛心地形容，长江“病了，而且病得还不轻”。', '2016年第一次座谈会，总书记为长江经济带发展立下规矩：“共抓大保护，不搞大开发”。', '近8年时间过去了，“保护”的成绩单有目共睹。“水质优良比例94.5%，长江干流连续3年Ⅱ类水质。”总书记感慨：“归纳一个个数字可以看出，长江经济带发展战略实施以来，取得的是战略性的效益。”', '琵琶亭上，一幅今昔对比图摆在总书记面前。治理前，当地“晴天一身灰，雨天一身泥”。江上的采砂船，江边裸露的矿坑给青山挂白、让长江蒙尘。', '望闻问切，分类施策。2021年底，长江国家文化公园建设正式启动，长江江西段被列为7个重点建设区之一。九江乘势而上，努力打造百里长江“最美岸线”。', '习近平总书记细致询问当地治污、治岸、治渔情况，叮嘱说：“长江是长江经济带的纽带。无论未来长江经济带怎么发展、发展到哪个阶段，都不可能离开长江的哺育。”', '“过去我们讲‘以GDP论英雄’，关心‘含金量’。现在思想观念转变了，认识问题可以说解决了。长江经济带因长江而生、因长江而兴，一定要认清这个因果关系。”总书记说道。', '座谈会上，总书记肯定长江禁渔取得的成绩，并要求禁渔的政策不能动摇，要坚决地继续做下去。', '总书记语重心长：“生态环境保护是一项长期任务，不能抓一阵松一阵，稍有好转又动起歪念头。现在的长江只能说是‘大病初愈’，要毫不动摇地坚持‘共抓大保护，不搞大开发’，在高水平保护上下更大功夫，为长江经济带高质量发展提供更坚实支撑。”', '在前几次座谈会上，习近平总书记深刻论述“在发展中保护、在保护中发展”的辩证关系，讲得透彻：“生态环境保护的成败归根到底取决于经济结构和经济发展方式。”', '北濒长江、南临庐山、东枕鄱湖，中国石化九江分公司在破解“化工围江”的战役中，压力重重。', '江上的问题，根子在岸上。九江石化有个“环境在线监测实时数据”，每20秒更新一次。大气、水、土壤，一栏是国标，一栏是企业实际排放情况，习近平总书记一边看，一边听企业介绍是如何“不让一滴油和一滴超标污水进入长江”，是如何力争“臭气不上天，污油不落地”。', '总书记勉励道：“标准定得高，也在一步一个脚印地干。希望你们按照党中央对新型工业化的部署要求，坚持绿色、智能方向，扎扎实实、奋发进取，为保障国家能源安全、推动石化工业高质量发展作出新贡献。”', '由点及面，着眼的是“既治已病，也治未病”：“在新型工业化建设中，我们要把绿色化、低碳化摆进去，摆到日程上，也希望工业战线有更多实际行动。”', '如果说东部海岸线宛如一张蓄势的长弓，长江经济带就是破空的锐箭。长江经济带，作为我国科技资源最富集、最具科技创新活力和科技成果转化能力的区域之一，“推动优势产业延链、新兴产业建链”有着得天独厚的条件。', '考察第2天，习近平总书记来到景德镇的昌河飞机工业（集团）有限公司。在总装车间，“航空报国 航空强国”标语分外醒目；试飞站，湛蓝苍穹下各类直升机一字儿排开，蔚为壮观。总书记登上一架直升机，细听介绍。', '“要坚持创新驱动，在关键核心技术自主研发上下更大功夫，面向未来需求出新品，努力构建先进制造体系、打造世界一流直升机企业。”', '“‘不搞大开发’是不要乱开发、低水平开发、粗放开发、破坏性开发，而是走一条高质量发展的道路、绿色低碳发展的道路。现在路子是对的，要继续走下去。”', '大江奔流而磅礴，文明沉厚而隽永。长江文化，在灿若星辰的中华文化中如一条耀眼星河。这其中，长江水浸润着瓷土，景德镇熠熠生辉。', '走进景德镇，这里有“陶阳十三里，烟火十万家”的繁盛，有“窑火夜夜明，瓷器日日出”的熙攘。', '圆的是辘轳坑，方的是陈泥池。宋元陶瓷在底层，明清陶瓷叠于上，17座马蹄窑一字儿排开，下面还埋藏着更古远的24座马蹄窑、4座蛋形窑。', '千年窑火生生不息。习近平总书记有感而发：“中华优秀传统文化自古至今从未断流，陶瓷是中华瑰宝，是中华文明的重要名片。”', '此地往西400米，昌江穿城而过。江水奔腾180里，注入鄱阳湖，继而通江达海。“行于九域，施及外洋。”历史的烟波里，景德镇的瓷器踏着海上丝路的浪花，远销世界。', '明清窑作群手工制瓷技艺长廊，陶瓷非遗传承人荟萃于此，正是“匠从八方来，器成天下走”，有的白发苍苍，有的风华正茂。他们热情地向总书记展示看家本领。', '踩泥、揉泥、拉坯、印坯、利坯、画坯、施釉、起釉……“过手七十二，方克成器。”《天工开物》的记载，也映照了今天的工匠精神。', '在景德镇，有2万多个年轻人忙碌在制瓷一线，他们的背后，撬动的是庞大的陶瓷产业链。总书记颇为感慨：', '“一辈子做一件事，祖祖辈辈干一件事，不是简单的事。要坚持走自己的路，不能见异思迁。老祖宗传下来的优秀传统文化，我们要继续攥在手里，与时俱进，让它发扬光大。”', '河流与村庄，相依了千年。饶河在附近发源，穿过村庄，绕过山峦，最终流经鄱阳湖注入长江。考察第2天的下午，习近平总书记走进上饶市婺源县秋口镇王村石门自然村。', '生态，是村子的名片。村内，古樟、苦槠、枫杨倒影青翠，还有极度濒危鸟类蓝冠噪鹛在枝头嬉闹的照片，都是人与自然和谐共生的缩影。', '4年多前，也在江西，习近平总书记指示要做好治山理水、显山露水的文章，打造美丽中国“江西样板”。', '这次到革命老区，总书记强调：“无论脱贫攻坚、全面小康，还是建设现代化、推进共同富裕，老区人民都是我们最牵挂的。”', '沿着街巷边走边看。“见老者，敬之；见幼者，爱之。”家家户户门口张贴着先贤修身治家格言。院墙彩绘，角落花草，生态和人文相映成趣。', '村里，平整的石板路串起大街小巷；村外，宽阔的高速路伸向四面八方。“古村落现在交通方便了，本地产业也发展起来，特别是旅游，很热闹。我很关注咱们下一步的发展振兴，希望芝麻开花节节高。”', '在村民热烈的掌声中，总书记亲切地说：“中国式现代化既要有城市的现代化，又要有农业农村现代化。我很关注乡村振兴。希望你们保护好自然生态，把传统村落风貌和现代元素结合起来，坚持中华民族的审美情趣，把乡村建设得更美丽，让日子越过越开心、越幸福！”', '12日召开的进一步推动长江经济带高质量发展座谈会上，总书记指出：“我们推进乡村振兴，建设美丽乡村，长江经济带很有优势。沿岸既有古村落，又有现代乡村。要将长江的历史文化、山水文化与城乡发展相融合，突出地方特色。”', '循着逶迤的江岸望去，有平畴沃野，也有峰峦竞秀；有国际门户，也有深山密林。长江经济带体量之庞大，情况之复杂，是挑战，亦是机遇。', '站在更宏阔视角，习近平总书记对长江经济带发展的思考，着眼于中国的昨天、今天和明天。', '向东，是浩渺太平洋；向西，是广袤的亚欧大陆。巨大的发展梯度，叠加一望无垠的延展空间，塑造了长江经济带巨大的韧性、潜力和回旋空间。', '长江经济带全方位对内对外开放态势正加速形成，千帆竞发、百舸争流的时代洪流中，总书记进一步强调：', '“要更好发挥长江经济带横贯东西、承接南北、通江达海的独特优势，更好联通国内国际两个市场、用好两种资源，提升国内大循环内生动力和可靠性，增强对国际循环的吸引力、推动力，为构建新发展格局提供战略支撑。”', '是各自为战、以邻为壑，还是“一盘棋”谋篇布局？鉴证着一个地方、一个部门、一支队伍的政绩观。', '习近平总书记进一步提出要求：“要坚持把强化区域协同融通作为着力点，沿江省市要坚持省际共商、生态共治、全域共建、发展共享，增强区域交通互联性、政策统一性、规则一致性、执行协同性，稳步推进生态共同体和利益共同体建设，促进区域协调发展。”', '会上，总书记亲切询问来自11个省市的负责同志，他们花了多长时间到南昌。昔日翻山越岭、跋山涉水的漫长路途，而今不过两三个小时。“你们之间交通方便，说明这些年建设成绩显著。”', '座谈会上，总书记期许长江经济带“在维护国家粮食安全、能源安全、重要产业链供应链安全、水安全等方面发挥更大作用，以一域之稳为全局之安作出贡献”。', '说粮食，责任一以贯之，“沿江省市无论是粮食主产区还是主销区、产销平衡区，都要扛牢粮食安全责任”；', '谈能源，谋划高处着眼，“坚持全国‘一盘棋’，继续深化上游地区同中下游地区的能源合作”；', '话安澜，风险未雨绸缪，“强化流域水工程统一联合调度，加强跨区域水资源丰枯调剂，提升流域防灾减灾能力”；', '大视野统筹兼顾，大思路引领方向。长江的保护与发展，总书记慎而思之、笃而行之，“谋长远之势、行长久之策、建久安之基”。']</t>
         </is>
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A146" t="n">
+        <v>23</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
           <t>大宁县现代农业发展中心组织考察团赴甘肃省考察学习</t>
         </is>
       </c>
-      <c r="D146" t="inlineStr">
+      <c r="E146" t="inlineStr">
         <is>
           <t>2023-07-07</t>
         </is>
       </c>
-      <c r="E146" t="inlineStr">
+      <c r="F146" t="inlineStr">
         <is>
           <t>http://www.daning.gov.cn/xwzx/zwyw/202307/t20230707_213122.html</t>
         </is>
       </c>
-      <c r="F146" t="inlineStr">
+      <c r="G146" t="inlineStr">
         <is>
           <t>['7月4日至7月6日，大宁县现代农业发展中心组织昕水镇果农赴甘肃省，就苹果产业发展进行考察学习。', '考察中，考察团一行先后前往甘肃省平凉市崇信县锦屏镇铜城塬子高标准矮化密植苹果园基地、黄寨镇矮化密植苹果园示范基地、崇信县苹果产销综合服务中心和静宁县智慧果业科技创新产业园等地，通过实地查看、听取介绍等方式，对甘肃省苹果种植的方式、管理机制和配套设施建设等情况进行全面考察了解。', '通过考察学习，开阔了视野、增长了见识、拓宽了思路，大家纷纷表示，回去后将尽快把甘肃省苹果产业发展的先进理念、经验和技术方法转化为具体实践，推动我县苹果产业高质量发展。', '昕水镇安古村果农席蛇平说：“我这两天到这甘肃参观学习，我学到了不少苹果树管理的新知识。回去以后呢我这下把我的小园子老果树管理的好一点，争取以后一年比一年卖的更好一点。”', '昕水镇而吉村果树技术员马海平说：“通过这次甘肃参观学习，我们真的受益匪浅，回去以后好好总结再学习。我们学到的东西给果农好好的大力推广，推广这种新型栽培模式和种植新的思路和方法，为果农更好的服务。”']</t>
         </is>
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A147" t="n">
+        <v>23</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
           <t>山西师范大学党委副书记校长许小红一行在临汾经济开发区考察</t>
         </is>
       </c>
-      <c r="D147" t="inlineStr">
+      <c r="E147" t="inlineStr">
         <is>
           <t>2023-10-05</t>
         </is>
       </c>
-      <c r="E147" t="inlineStr">
+      <c r="F147" t="inlineStr">
         <is>
           <t>https://mp.weixin.qq.com/s/a5PlH1X4XpKFqHgcC_YsXQ</t>
         </is>
       </c>
-      <c r="F147" t="inlineStr">
+      <c r="G147" t="inlineStr">
         <is>
           <t>['10月4日，山西师范大学党委副书记、校长许小红，临汾市政府督查专员任斌，临汾市气象局党组书记、局长延雪花，临汾市文联党组书记、主席元福明一行在临汾经济开发区甘亭工业园区考察交流。临汾经济开发区党工委书记、管委会主任白建成，党工委委员、管委会副主任孙星鹏一同考察。', '考察组一行实地参观了临宜环保科技产业园、晶旭新能源、尧兴新能源、中部智造、中联恒创，每到一处都与企业负责人深入交流，围绕企业发展提出意见建议。期间，白建成详细介绍了临汾经济开发区经济社会发展情况、“五个百亿级产业园区”建设情况与招商引资、项目建设等方面的主要经验做法。', '许小红对临汾经济开发区发展呈现出的强劲态势与干事创业的浓厚氛围表示赞许。她表示，临汾开发区发展前景广阔、营商环境优越，产业布局完善，希望双方能进一步加强沟通交流，探索合作领域，发挥各自优势，推进区校企合作结出更多丰硕成果，共同服务临汾高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A148" t="n">
+        <v>23</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
           <t>习近平在浙江考察时强调始终干在实处走在前列勇立潮头奋力谱写中国式现代化浙江新篇章返京途中在山东枣庄考察</t>
         </is>
       </c>
-      <c r="D148" t="inlineStr">
+      <c r="E148" t="inlineStr">
         <is>
           <t>2023-09-26</t>
         </is>
       </c>
-      <c r="E148" t="inlineStr">
+      <c r="F148" t="inlineStr">
         <is>
           <t>https://wap.peopleapp.com/article/7212764/7055718</t>
         </is>
       </c>
-      <c r="F148" t="inlineStr">
+      <c r="G148" t="inlineStr">
         <is>
           <t>['习近平在浙江考察时强调 始终干在实处走在前列勇立潮头 奋力谱写中国式现代化浙江新篇章 返京途中在山东枣庄考察_人民日报', '习近平在浙江考察时强调 始终干在实处走在前列勇立潮头 奋力谱写中国式现代化浙江新篇章 返京途中在山东枣庄考察', '中共中央总书记、国家主席、中央军委主席习近平近日在浙江考察时强调，要完整准确全面贯彻新发展理念，围绕构建新发展格局、推动高质量发展，聚焦建设共同富裕示范区、打造新时代全面展示中国特色社会主义制度优越性的重要窗口，坚持一张蓝图绘到底，持续推动“八八战略”走深走实，始终干在实处、走在前列、勇立潮头，奋力谱写中国式现代化浙江新篇章。', '9月20日至21日，习近平在浙江省委书记易炼红和省长王浩陪同下，先后来到金华、绍兴等地，深入农村、商贸市场、陈列馆、文化园区等进行调研。', '20日上午，习近平来到金华市义乌市后宅街道李祖村考察调研。近年来，李祖村人居环境大为改善，各类创业主体纷纷进驻，乡村旅游十分红火，被评为全国文明村。习近平先后在村党群服务中心、“共富市集”、扎染商铺等场所了解李祖村发展变化情况。得知李祖村年人均收入达到5.2万元，习近平十分高兴。他说，李祖村扎实推进共同富裕，是浙江“千万工程”显著成效的一个缩影，要再接再厉，在推动乡村振兴上取得更大成绩。乡村振兴为年轻人提供了展现才华的用武之地，希望更多的年轻人为乡村振兴发挥积极作用。离开村子时，当地群众簇拥到总书记身旁，热情欢送总书记。习近平对大家说，乡村振兴潜力无限、大有可为，乡亲们要努力奋斗，一起奔向共同富裕的美好明天。', '随后，习近平来到义乌国际商贸城考察。他通过电子屏幕实时了解商贸城运营及“义新欧”班列运行情况，并走进市场同商户、小企业主代表亲切交流，详细询问市场行情。他强调，义乌小商品闯出了大市场、做成了大产业，走到这一步很了不起，每个人都是参与者、建设者、贡献者。商贸城要再创新辉煌，为拓展国内国际市场、畅通国内国际双循环作出更大贡献。', '今年是毛泽东同志批示学习推广“枫桥经验”60周年。20日下午，习近平来到“枫桥经验”发源地诸暨市枫桥镇，参观枫桥经验陈列馆，了解新时代“枫桥经验”的生动实践。习近平指出，要坚持好、发展好新时代“枫桥经验”，坚持党的群众路线，正确处理人民内部矛盾，紧紧依靠人民群众，把问题解决在基层、化解在萌芽状态。', '随后，习近平乘车来到位于绍兴的浙东运河文化园考察。他步行察看古运河河道和周边历史文化遗存，详细了解浙东运河发展演变史和当地合理利用水资源、推进大运河保护等情况。习近平强调，大运河是世界上最长的人工运河，是十分宝贵的文化遗产。大运河文化是中国优秀传统文化的重要组成部分，要在保护、传承、利用上下功夫，让古老大运河焕发时代新风貌。', '21日下午，习近平听取了浙江省委和省政府工作汇报，对浙江各项工作取得的成绩给予肯定，对浙江提出了新要求。', '习近平指出，浙江要在以科技创新塑造发展新优势上走在前列。要把增强科技创新能力摆到更加突出的位置，整合科技创新力量和优势资源，在科技前沿领域加快突破。强化企业科技创新主体地位，推动创新链产业链资金链人才链深度融合，加快科技成果落地转化。把实体经济作为构建现代化产业体系的根基，引导和支持传统产业加快应用先进适用技术，推动制造业高端化、智能化、绿色化发展。深化国家数字经济创新发展试验区建设，打造一批具有国际竞争力的战略性新兴产业集群和数字产业集群。加强科技基础能力建设，深化科技体制改革，打造科创高地。从全球视野布局产业链供应链建设，不断提升产业链供应链韧性和安全水平。坚定不移推动发展方式绿色转型，建立完善绿色低碳循环发展的经济体系。', '习近平强调，浙江要在推进共同富裕中先行示范。要把缩小城乡差距、地区差距、收入差距作为主攻方向，进一步健全城乡融合发展体制机制。坚持就业优先政策，在推动传统产业转型升级和发展新兴产业中注重扩大就业容量，解决好重点群体就业问题。深化收入分配制度改革，健全多层次社会保障体系。全面推进乡村振兴，积极发展乡村特色产业，深化“千村示范、万村整治”工程。加强平安浙江、法治浙江建设，在推进基层治理体系和治理能力现代化上创造更多经验。', '习近平指出，浙江要在深化改革、扩大开放上续写新篇。要以重点领域改革为牵引，全面推进各领域体制机制创新。以服务全国、放眼全球的视野来谋划改革，稳步扩大规则、规制、管理、标准等制度型开放。发挥各种开放平台的功能作用，创新利用外资、做大外贸的方法和渠道。主动适应国际经贸规则重构走向，在服务业开放、数字化发展、环境保护等方面先行先试。坚持“两个毫不动摇”、“三个没有变”，鼓励和支持民营企业积极参与全球范围产业分工和资源配置，提升核心竞争力。', '习近平强调，浙江要在建设中华民族现代文明上积极探索。要更好担负起新时代新的文化使命，赓续历史文脉，加强文化遗产保护，推动优秀传统文化创造性转化、创新性发展。坚守中华文化立场，积极发展反映时代要求、具有时代特色的新文化，发展中华文明的现代形态。弘扬伟大建党精神，广泛培育和践行社会主义核心价值观，发展社会主义先进文化。繁荣发展文化事业和文化产业，持续推进城乡公共文化服务标准化、均等化，加强公民道德建设，推进书香社会建设。运用杭州亚运会亚残运会、世界互联网大会等窗口加强文化交流传播，不断提升中国文化感染力和中华文明影响力。', '习近平指出，要坚持和加强党的全面领导、加强和改进党的建设。树立正确政绩观，坚持立足实际、科学决策，坚持着眼长远、打牢基础，坚持干在实处、务求实效，防止形式主义、官僚主义。加强干部教育培训和实践锻炼，健全干部担当作为激励保护机制，激发干部干事创业活力，构建亲清统一的新型政商关系。各级党组织要加强对第二批主题教育的组织领导和工作指导，把握不同层级、不同领域、不同对象的特点，结合实际，分类指导，上下联动抓整改，让群众看到实效。', '9月24日下午，在返京途中，习近平在山东省委书记林武和省长周乃翔陪同下来到枣庄市考察。枣庄是我国石榴集中连片种植面积最大、品种最多、产业链最完整的地区之一。习近平来到位于峄城区的冠世榴园石榴种质资源库，察看石榴树种，了解当地石榴种植历史、种质资源收集保存和产业发展情况，并来到石榴种植园中向老乡们询问今年石榴种植、收获和收入情况。得知当地大力发展石榴深加工和石榴盆栽培育有力带动了农民增收，习近平很高兴。他指出，人们生活水平在提高，优质特产市场需求在增长，石榴产业有发展潜力。要做好品牌、提升品质，延长产业链，增强产业市场竞争力和综合效益，带动更多乡亲共同致富。祝乡亲们生活像石榴果一样红红火火。', '李干杰、何立峰、王小洪及中央和国家机关有关部门负责同志陪同分别参加上述有关活动，主题教育中央第五巡回指导组负责同志参加汇报会。']</t>
         </is>
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A149" t="n">
+        <v>23</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
           <t>中国第次北冰洋科学考察队凯旋抵沪</t>
         </is>
       </c>
-      <c r="D149" t="inlineStr">
+      <c r="E149" t="inlineStr">
         <is>
           <t>2023-09-28</t>
         </is>
       </c>
-      <c r="E149" t="inlineStr">
+      <c r="F149" t="inlineStr">
         <is>
           <t>http://www.fenxi.gov.cn/xwzx/gwyyw/202309/t20230928_248332.html</t>
         </is>
       </c>
-      <c r="F149" t="inlineStr">
+      <c r="G149" t="inlineStr">
         <is>
           <t>['27日，由自然资源部组织的中国第13次北冰洋科学考察队乘“雪龙2”号极地科考破冰船返回上海，中国第13次北冰洋科学考察任务圆满完成。', '考察队于7月12日从上海出发，历时78天，总航程1.5万余海里，顺利完成各项预定任务，在自主装备研发、新型技术应用等方面取得重要进展。', '在环境关键要素长期观监测方面，考察队共完成49个站位的海洋综合调查，布放潜标5套，开展气象探空142组，完成6个短期冰站和1个长期冰站作业，布放各类抛弃式冰基浮标26套，开展了海面气象、大气成分、气溶胶、海漂垃圾、重力、海水表层温盐、剖面海流、海洋生物声学、冰区海冰和船舶应力测试等工作，取得了大量有效数据。', '在洋中脊调查方面，考察队开展了地质地球物理海底定点观测、地球物理海面走航观测等内容，完成海底地震测量、大地电磁测量、地质取样、潜标布放等8项作业。考察队克服洋中脊区域冰情复杂等不利因素，成功完成布放和回收7台海底大地电磁仪、5台海底地震仪的任务，其中海底地震仪回收率100%，刷新高纬密集冰区回收纪录。', '在科学研究方面，考察队完成海冰、环流、黑碳等国家科技计划项目44项。考察队借助自主研发的相关观测设备，获取了浮冰漂移过程中冻结、融化、挤压破碎或断裂分离的内部信息，精细化揭示海冰热力学和动力学季节性演化特征和内在机理，为海冰模式的优化发展提供观测支持；采用前沿技术，首次开展海冰厚度无人化智能观测；首次开展多波段合成孔径雷达海冰观测，为北极海冰现场考察提供新的观测手段；获取了长时间连续的高分辨率生态环境信息，为北极快速变化下北冰洋生态系统快速响应提供科学数据支撑。', '在国际合作方面，考察队围绕大气、表层海水和沉积物中的微塑料等立体调查要素，首次在北冰洋考察中开展了中泰合作，为全球微塑料污染的研究和治理提供借鉴和参考；围绕多波束、海底地震、重力磁力等多种测量方式，进一步深化了中俄加克洋中脊地球物理合作调查，为双方共同开展北冰洋地质构造研究合作奠定了坚实的基础。', '北京时间9月5日13时55分，“雪龙2”号极地科考破冰船抵达北极点，开展了冰基浮标布放、冰芯采集、冰下观测等为主要内容的冰站调查和多参数海洋观测、浮游生物垂直拖网、大气观监测等海洋综合调查。这是我国科考船第一次抵达该区域开展相关调查和科学研究工作，填补了我国北冰洋考察在该区域的数据空白，拓展了我国北冰洋调查范围，为微塑料、黑碳等国际前沿研究提供了宝贵资料。有助于深入了解该区域海冰和洋流变化过程，进一步验证我国自主建造的破冰船破冰和调查能力，为高纬冰区航行和开展科考作业积累了宝贵经验。']</t>
         </is>
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A150" t="n">
+        <v>23</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
           <t>习近平在浙江绍兴市考察调研</t>
         </is>
       </c>
-      <c r="D150" t="inlineStr">
+      <c r="E150" t="inlineStr">
         <is>
           <t>2023-09-22</t>
         </is>
       </c>
-      <c r="E150" t="inlineStr">
+      <c r="F150" t="inlineStr">
         <is>
           <t>https://www.gov.cn/yaowen/liebiao/202309/content_6905486.htm</t>
         </is>
       </c>
-      <c r="F150" t="inlineStr">
+      <c r="G150" t="inlineStr">
         <is>
           <t>['20日下午，习近平总书记在浙江省绍兴市考察。他来到枫桥经验陈列馆，重温“枫桥经验”诞生演进历程，了解新时代“枫桥经验”创新发展情况，并前往浙东运河文化园，了解古运河发展演变历史和大运河保护及大运河国家文化公园建设等情况。（文字记者：张晓松、朱基钗；摄影记者：李学仁、谢环驰、燕雁）', '\u200b20日下午，习近平总书记在浙江省绍兴市考察。他来到枫桥经验陈列馆，重温“枫桥经验”诞生演进历程，了解新时代“枫桥经验”创新发展情况，并前往浙东运河文化园，了解古运河发展演变历史和大运河保护及大运河国家文化公园建设等情况。']</t>
         </is>
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A151" t="n">
+        <v>23</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
           <t>习近平在浙江考察时强调始终干在实处走在前列勇立潮头奋力谱写中国式现代化浙江新篇章返京途中在山东枣庄考察</t>
         </is>
       </c>
-      <c r="D151" t="inlineStr">
+      <c r="E151" t="inlineStr">
         <is>
           <t>2023-09-28</t>
         </is>
       </c>
-      <c r="E151" t="inlineStr">
+      <c r="F151" t="inlineStr">
         <is>
           <t>http://xfj.linfen.gov.cn/gzyw/gzyw_1082/202310/t20231007_249544.html</t>
         </is>
       </c>
-      <c r="F151" t="inlineStr">
+      <c r="G151" t="inlineStr">
         <is>
           <t>['习近平在浙江考察时强调 始终干在实处走在前列勇立潮头 奋力谱写中国式现代化浙江新篇章 返京途中在山东枣庄考察-工作要闻_1082-临汾市信访局', '习近平在浙江考察时强调 始终干在实处走在前列勇立潮头 奋力谱写中国式现代化浙江新篇章 返京途中在山东枣庄考察', '中共中央总书记、国家主席、中央军委主席习近平近日在浙江考察时强调，要完整准确全面贯彻新发展理念，围绕构建新发展格局、推动高质量发展，聚焦建设共同富裕示范区、打造新时代全面展示中国特色社会主义制度优越性的重要窗口，坚持一张蓝图绘到底，持续推动“八八战略”走深走实，始终干在实处、走在前列、勇立潮头，奋力谱写中国式现代化浙江新篇章。', '9月20日至21日，习近平在浙江省委书记易炼红和省长王浩陪同下，先后来到金华、绍兴等地，深入农村、商贸市场、陈列馆、文化园区等进行调研。', '20日上午，习近平来到金华市义乌市后宅街道李祖村考察调研。近年来，李祖村人居环境大为改善，各类创业主体纷纷进驻，乡村旅游十分红火，被评为全国文明村。习近平先后在村党群服务中心、“共富市集”、扎染商铺等场所了解李祖村发展变化情况。得知李祖村年人均收入达到5.2万元，习近平十分高兴。他说，李祖村扎实推进共同富裕，是浙江“千万工程”显著成效的一个缩影，要再接再厉，在推动乡村振兴上取得更大成绩。乡村振兴为年轻人提供了展现才华的用武之地，希望更多的年轻人为乡村振兴发挥积极作用。离开村子时，当地群众簇拥到总书记身旁，热情欢送总书记。习近平对大家说，乡村振兴潜力无限、大有可为，乡亲们要努力奋斗，一起奔向共同富裕的美好明天。', '随后，习近平来到义乌国际商贸城考察。他通过电子屏幕实时了解商贸城运营及“义新欧”班列运行情况，并走进市场同商户、小企业主代表亲切交流，详细询问市场行情。他强调，义乌小商品闯出了大市场、做成了大产业，走到这一步很了不起，每个人都是参与者、建设者、贡献者。商贸城要再创新辉煌，为拓展国内国际市场、畅通国内国际双循环作出更大贡献。', '今年是毛泽东同志批示学习推广“枫桥经验”60周年。20日下午，习近平来到“枫桥经验”发源地诸暨市枫桥镇，参观枫桥经验陈列馆，了解新时代“枫桥经验”的生动实践。习近平指出，要坚持好、发展好新时代“枫桥经验”，坚持党的群众路线，正确处理人民内部矛盾，紧紧依靠人民群众，把问题解决在基层、化解在萌芽状态。', '随后，习近平乘车来到位于绍兴的浙东运河文化园考察。他步行察看古运河河道和周边历史文化遗存，详细了解浙东运河发展演变史和当地合理利用水资源、推进大运河保护等情况。习近平强调，大运河是世界上最长的人工运河，是十分宝贵的文化遗产。大运河文化是中国优秀传统文化的重要组成部分，要在保护、传承、利用上下功夫，让古老大运河焕发时代新风貌。', '21日下午，习近平听取了浙江省委和省政府工作汇报，对浙江各项工作取得的成绩给予肯定，对浙江提出了新要求。', '习近平指出，浙江要在以科技创新塑造发展新优势上走在前列。要把增强科技创新能力摆到更加突出的位置，整合科技创新力量和优势资源，在科技前沿领域加快突破。强化企业科技创新主体地位，推动创新链产业链资金链人才链深度融合，加快科技成果落地转化。把实体经济作为构建现代化产业体系的根基，引导和支持传统产业加快应用先进适用技术，推动制造业高端化、智能化、绿色化发展。深化国家数字经济创新发展试验区建设，打造一批具有国际竞争力的战略性新兴产业集群和数字产业集群。加强科技基础能力建设，深化科技体制改革，打造科创高地。从全球视野布局产业链供应链建设，不断提升产业链供应链韧性和安全水平。坚定不移推动发展方式绿色转型，建立完善绿色低碳循环发展的经济体系。', '习近平强调，浙江要在推进共同富裕中先行示范。要把缩小城乡差距、地区差距、收入差距作为主攻方向，进一步健全城乡融合发展体制机制。坚持就业优先政策，在推动传统产业转型升级和发展新兴产业中注重扩大就业容量，解决好重点群体就业问题。深化收入分配制度改革，健全多层次社会保障体系。全面推进乡村振兴，积极发展乡村特色产业，深化“千村示范、万村整治”工程。加强平安浙江、法治浙江建设，在推进基层治理体系和治理能力现代化上创造更多经验。', '习近平指出，浙江要在深化改革、扩大开放上续写新篇。要以重点领域改革为牵引，全面推进各领域体制机制创新。以服务全国、放眼全球的视野来谋划改革，稳步扩大规则、规制、管理、标准等制度型开放。发挥各种开放平台的功能作用，创新利用外资、做大外贸的方法和渠道。主动适应国际经贸规则重构走向，在服务业开放、数字化发展、环境保护等方面先行先试。坚持“两个毫不动摇”、“三个没有变”，鼓励和支持民营企业积极参与全球范围产业分工和资源配置，提升核心竞争力。', '习近平强调，浙江要在建设中华民族现代文明上积极探索。要更好担负起新时代新的文化使命，赓续历史文脉，加强文化遗产保护，推动优秀传统文化创造性转化、创新性发展。坚守中华文化立场，积极发展反映时代要求、具有时代特色的新文化，发展中华文明的现代形态。弘扬伟大建党精神，广泛培育和践行社会主义核心价值观，发展社会主义先进文化。繁荣发展文化事业和文化产业，持续推进城乡公共文化服务标准化、均等化，加强公民道德建设，推进书香社会建设。运用杭州亚运会亚残运会、世界互联网大会等窗口加强文化交流传播，不断提升中国文化感染力和中华文明影响力。', '习近平指出，要坚持和加强党的全面领导、加强和改进党的建设。树立正确政绩观，坚持立足实际、科学决策，坚持着眼长远、打牢基础，坚持干在实处、务求实效，防止形式主义、官僚主义。加强干部教育培训和实践锻炼，健全干部担当作为激励保护机制，激发干部干事创业活力，构建亲清统一的新型政商关系。各级党组织要加强对第二批主题教育的组织领导和工作指导，把握不同层级、不同领域、不同对象的特点，结合实际，分类指导，上下联动抓整改，让群众看到实效。', '9月24日下午，在返京途中，习近平在山东省委书记林武和省长周乃翔陪同下来到枣庄市考察。枣庄是我国石榴集中连片种植面积最大、品种最多、产业链最完整的地区之一。习近平来到位于峄城区的冠世榴园石榴种质资源库，察看石榴树种，了解当地石榴种植历史、种质资源收集保存和产业发展情况，并来到石榴种植园中向老乡们询问今年石榴种植、收获和收入情况。得知当地大力发展石榴深加工和石榴盆栽培育有力带动了农民增收，习近平很高兴。他指出，人们生活水平在提高，优质特产市场需求在增长，石榴产业有发展潜力。要做好品牌、提升品质，延长产业链，增强产业市场竞争力和综合效益，带动更多乡亲共同致富。祝乡亲们生活像石榴果一样红红火火。', '李干杰、何立峰、王小洪及中央和国家机关有关部门负责同志陪同分别参加上述有关活动，主题教育中央第五巡回指导组负责同志参加汇报会。']</t>
         </is>
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A152" t="n">
+        <v>23</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
           <t>始终干在实处走在前列勇立潮头习近平总书记考察浙江纪实</t>
         </is>
       </c>
-      <c r="D152" t="inlineStr">
+      <c r="E152" t="inlineStr">
         <is>
           <t>2023-09-26</t>
         </is>
       </c>
-      <c r="E152" t="inlineStr">
+      <c r="F152" t="inlineStr">
         <is>
           <t>https://www.gov.cn/yaowen/liebiao/202309/content_6906294.htm</t>
         </is>
       </c>
-      <c r="F152" t="inlineStr">
+      <c r="G152" t="inlineStr">
         <is>
           <t>['新华社杭州9月25日电 题：“始终干在实处、走在前列、勇立潮头”——习近平总书记考察浙江纪实', '“我曾在浙江工作了6个年头，熟悉这里的山水草木、风土人情，参与和见证了这里的发展。”“到中央工作后，也多次回来，每次来都要走上一两个地方。”', '党的十八大后，习近平总书记第六次赴浙江，出席杭州亚运会开幕式，并先后到金华、绍兴等地，深入农村、商贸市场、陈列馆、文化园区考察调研，看望慰问基层党员、干部和群众。', '“当年浙江面临着‘成长的烦恼’，资源、环境等要素制约十分突出，高消耗、高排放的发展模式已经难以为继。”', '“20多年来，通过持之以恒实施‘八八战略’，浙江实现了从资源小省到经济大省、从环境‘压力山大’到建设美丽浙江、从率先实现总体小康到实现高水平全面小康的历史性飞跃，也为全国作出了示范。”', '“坚持系统谋划、整体推进”“坚持一张蓝图绘到底”“坚持问题导向”“坚持全面激发人民群众积极性创造性”“坚持干在实处、善作善成”……20年前省域层面的谋划，如今已在之江大地开花结果，并在省外更广阔的范围推广开来。', '“要完整准确全面贯彻新发展理念，围绕构建新发展格局、推动高质量发展，聚焦建设共同富裕示范区、打造新时代全面展示中国特色社会主义制度优越性的重要窗口，坚持一张蓝图绘到底，持续推动‘八八战略’走深走实，始终干在实处、走在前列、勇立潮头，奋力谱写中国式现代化浙江新篇章。”', '总书记的目光被她摊位上的各式手编竹篮吸引。方天宁告诉总书记，自己两年前回到村里，发动30多名村民编织竹篮，可以为他们每人每月增收2000元左右。', '方天宁说：“原来我在北京工作，我们村实施‘千万工程’后，村里的环境和氛围非常好，吸引了很多来创业的大学生，所以就选择回来了。”', '“千村示范、万村整治”工程是习近平同志在浙江工作时亲自谋划、亲自部署、亲自推动的重要战略举措。2003年以来，“千万工程”持续深化，造就了万千美丽乡村，造福了万千农民群众。', '如今，“千万工程”从浙江走向了全国，在推进乡村振兴、农业农村现代化中发挥着重要作用。', '方天宁旁边，一个晒得黝黑的小伙子名叫方志向。他从部队退伍后，回乡创办农场，栽培小盆景。', '村支书方豪龙告诉总书记，像这样的创业主体，村里有50多家，从业人员200多名，有原乡人，有返乡人，还有新农人，一半以上是大学生。', '总书记步行察看村容村貌，眼前一座座黛瓦白墙的小楼，房前屋后点缀着绿树花草，白墙上一幅幅壁画描绘着乡愁记忆和对美好未来的憧憬，透出美丽乡村的勃勃生机。', '很难想象，这个远近闻名的共同富裕示范村，曾经脏、乱、差、穷，被当地人称为没有希望的“水牛角村”。', '在“千万工程”推动下，李祖村从整治环境入手，发展产业，吸引人才，推进农文旅融合发展，在美丽生态、美丽经济、美好生活的相得益彰中，实现了华丽的转身、幸福的蝶变。', '“乡亲们好！今天来到这里，我的心情格外高兴。”习近平总书记亲切地说，“乡村振兴潜力无限、大有可为，乡亲们要努力奋斗，一起奔向共同富裕的美好明天。”', '义乌，一座建在市场上的现代化城市。在这里，可以感受浙江发展的活力，可以触摸中国乃至世界经济的脉搏。', '离开李祖村，习近平总书记来到义乌国际商贸城二区考察调研。“当时这里还是一片工地。”在浙江工作期间，习近平同志曾十多次到义乌，深入小商品市场调研，对这里的情况十分熟悉。', '商贸城入口的大屏幕向总书记展示着两张图表：一张是义乌市场采购贸易出口的实时情况，一张是“义新欧”班列运行的动态数据。', '商户代表在义乌国际商贸城的大厅进行文艺表演（2023年2月2日摄）。新华社记者 黄宗治 摄', '这些来自“世界最大小商品市场”实时变动的数据，成为反映中国乃至全球外贸及经济趋势的“晴雨表”。', '40多年来，踏着中国改革开放的大潮，义乌人从摇着拨浪鼓走街串巷，到马路边摆地摊，再到建成“买全球、卖全球”的“世界超市”，如今的义乌市场，汇集着26个大类210多万种商品，关联着全国210万企业、3200万工人。', '来自印度的客商（右）在义乌国际商贸城的一家玩具店铺内选购商品（2023年2月2日摄）。新华社记者 黄宗治 摄', '“总书记好！”“欢迎总书记来义乌！”总书记所到之处，人们纷纷从商铺中走出来，汇聚到一条条通道上，掌声、问候声、欢呼声此起彼伏。', '“27年了。”店主张吉英告诉总书记，“我们坚持时尚优雅的设计理念，走个性化、品质化的发展路线，生产的伞已经卖到了全世界100多个国家。”', '面对市场的商户、小企业主代表，习近平总书记勉励大家：“义乌作出了贡献，还要再作新贡献。你们每个人都是义乌发展的参与者、建设者、贡献者，还要继续努力、再造辉煌。”现场响起热烈的掌声。', '从新时代“枫桥经验”看群众路线：“紧紧依靠人民群众，把问题解决在基层、化解在萌芽状态”', '今年是毛泽东同志批示学习推广“枫桥经验”60周年。20日下午，习近平总书记专程来到绍兴市诸暨市枫桥镇，参观枫桥经验陈列馆。', '20年前，时任浙江省委书记的习近平同志着眼应对和解决经济快速发展和社会大转型带来的新情况、新问题，就带着思考来过枫桥。', '“浙江根据党中央精神和这里的实际情况，赋予‘枫桥经验’新的时代内涵，探索依靠人民群众正确处理新形势下人民内部矛盾的方法。”总书记回忆道。', '2003年11月，浙江省召开纪念毛泽东同志批示“枫桥经验”40周年暨创新“枫桥经验”大会。自此，建设“法治浙江”、建设“平安浙江”等一系列事关全局、着眼长远的决策部署接续出台。', '青年学子在浙江省诸暨市枫桥镇的枫桥经验陈列馆参观学习（2022年8月25日摄）。新华社记者 徐昱 摄', '时代在变、形势在变、社会矛盾的内容也在变，但依靠人民群众正确处理人民内部矛盾的方法始终没有变。', '重温“枫桥经验”诞生、演进、发展的历程，总书记深刻指出：“这里面有我们党处理问题、化解矛盾的政策策略，就是要走群众路线，紧紧依靠人民群众，把问题解决在基层、化解在萌芽状态。”', '60年来，“枫桥经验”在实践中不断丰富、持续发展，特别是党的十八大以来，形成了特色鲜明的新时代“枫桥经验”。', '辽宁沈阳牡丹社区的“三零”工作法，福建明溪县“侨乡枫桥”解纷工作法，四川成都武侯区的小区物业矛盾“信托制”解纷工作法……一个个从“枫桥经验”衍生而来的基层社会治理工作方法不断涌现。', '陈列馆外，枫溪长流，枫桥犹在。加强和创新基层社会治理，人民获得感、幸福感、安全感更加充实、更有保障、更可持续。', '绍兴城西，浙东古运河碧波荡漾，流淌着一段2500多年的水运史和绵绵不绝的中华文脉。', '浙东运河西起杭州西兴，流经绍兴，东至宁波，充分利用浙东山川形势，连通河湖、穿越阡陌、润泽沃野，滋养着两岸人民。', '拾级登上园内高拱石桥，习近平总书记举目四望。眼前，古运河流水绵延；不远处，高架桥上客货车辆疾驰而过，给人以穿越古今之感。总书记感叹道：“在这里可以畅想一下古今沧桑。”', '从杭州西兴老街流淌而过的浙东运河（2022年9月27日摄，无人机照片）。浙东运河西起杭州西兴，流经绍兴，东至宁波，充分利用浙东山川形势，连通河湖、穿越阡陌、润泽沃野，滋养着两岸人民。新华社记者 江汉 摄', '肇始于春秋山阴故水道，贯通于两晋，鼎盛于唐宋，发展于明清……走进浙东运河博物馆，总书记详细了解这段绵延千年的“运河史话”。', '这是由明代绍兴知府汤绍恩主持修建的大型挡潮排水闸，闸基以巨石砌成，石间用榫卯连接，共设28孔，“旱可蓄、涝可排、潮可挡”，改善了山会平原的水利和航运条件。', '“随着省委书记习近平宣布‘曹娥江大闸枢纽工程开工’，并启动开工按钮，顿时偌大的建设工地上一字儿排开的施工机械‘隆隆’轰鸣……钱江两岸人民盼望已久的曹娥江大闸枢纽工程正式拉开序幕”。', '总书记回忆起这段往事：“过去浙东这一带是缺水的地方，特别是舟山，一半的水都要靠这个引水工程。”', '作为河长制的发源地，浙江省率先建立省、市、县、乡、村五级河长体系，还创新探索共享共治河湖新模式，让广大群众成为治水护水的主力军。总书记强调，河长制必须一以贯之。', '治水关乎治国，水脉连着文脉。在总书记心中，大运河是祖先留给我们的宝贵遗产，是流动的文化。', '“把大运河这篇文章做好。”走出博物馆，临别前，习近平总书记专门叮嘱当地负责同志，要好好挖掘大运河文化，统筹保护好、传承好、利用好。', '总书记的话语充满着期待：“当前，浙江发展站在了一个新的起点上。希望大家继续努力，推动浙江各项事业更上一层楼，让人民群众生活芝麻开花节节高。”']</t>
         </is>
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A153" t="n">
+        <v>23</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
           <t>中国政府网习近平在浙江考察时强调始终干在实处走在前列勇立潮头奋力谱写中国式现代化浙江新篇章返京途中在山东枣庄考察</t>
         </is>
       </c>
-      <c r="D153" t="inlineStr">
+      <c r="E153" t="inlineStr">
         <is>
           <t>2023-09-26</t>
         </is>
       </c>
-      <c r="E153" t="inlineStr">
+      <c r="F153" t="inlineStr">
         <is>
           <t>https://www.gov.cn/yaowen/liebiao/202309/content_6906217.htm</t>
         </is>
       </c>
-      <c r="F153" t="inlineStr">
+      <c r="G153" t="inlineStr">
         <is>
           <t>['习近平在浙江考察时强调 始终干在实处走在前列勇立潮头 奋力谱写中国式现代化浙江新篇章 返京途中在山东枣庄考察__中国政府网', '习近平在浙江考察时强调 始终干在实处走在前列勇立潮头 奋力谱写中国式现代化浙江新篇章 返京途中在山东枣庄考察', '习近平在浙江考察时强调 始终干在实处走在前列勇立潮头 奋力谱写中国式现代化浙江新篇章 返京途中在山东枣庄考察 蔡奇陪同考察', '始终干在实处走在前列勇立潮头 奋力谱写中国式现代化浙江新篇章 返京途中在山东枣庄考察 蔡奇陪同考察', '新华社浙江杭州/山东枣庄9月25日电 中共中央总书记、国家主席、中央军委主席习近平近日在浙江考察时强调，要完整准确全面贯彻新发展理念，围绕构建新发展格局、推动高质量发展，聚焦建设共同富裕示范区、打造新时代全面展示中国特色社会主义制度优越性的重要窗口，坚持一张蓝图绘到底，持续推动“八八战略”走深走实，始终干在实处、走在前列、勇立潮头，奋力谱写中国式现代化浙江新篇章。', '9月20日至21日，习近平在浙江省委书记易炼红和省长王浩陪同下，先后来到金华、绍兴等地，深入农村、商贸市场、陈列馆、文化园区等进行调研。', '9月20日至21日，中共中央总书记、国家主席、中央军委主席习近平在浙江考察。这是20日上午，习近平在金华市义乌市后宅街道李祖村考察。新华社记者 谢环驰 摄', '9月20日至21日，中共中央总书记、国家主席、中央军委主席习近平在浙江考察。这是20日上午，习近平在金华市义乌市后宅街道李祖村考察。新华社记者 李学仁 摄', '20日上午，习近平来到金华市义乌市后宅街道李祖村考察调研。近年来，李祖村人居环境大为改善，各类创业主体纷纷进驻，乡村旅游十分红火，被评为全国文明村。习近平先后在村党群服务中心、“共富市集”、扎染商铺等场所了解李祖村发展变化情况。得知李祖村年人均收入达到5.2万元，习近平十分高兴。他说，李祖村扎实推进共同富裕，是浙江“千万工程”显著成效的一个缩影，要再接再厉，在推动乡村振兴上取得更大成绩。乡村振兴为年轻人提供了展现才华的用武之地，希望更多的年轻人为乡村振兴发挥积极作用。离开村子时，当地群众簇拥到总书记身旁，热情欢送总书记。习近平对大家说，乡村振兴潜力无限、大有可为，乡亲们要努力奋斗，一起奔向共同富裕的美好明天。', '9月20日至21日，中共中央总书记、国家主席、中央军委主席习近平在浙江考察。这是20日上午，习近平在义乌国际商贸城考察时，同商户亲切交流。新华社记者 李学仁 摄', '随后，习近平来到义乌国际商贸城考察。他通过电子屏幕实时了解商贸城运营及“义新欧”班列运行情况，并走进市场同商户、小企业主代表亲切交流，详细询问市场行情。他强调，义乌小商品闯出了大市场、做成了大产业，走到这一步很了不起，每个人都是参与者、建设者、贡献者。商贸城要再创新辉煌，为拓展国内国际市场、畅通国内国际双循环作出更大贡献。', '9月20日至21日，中共中央总书记、国家主席、中央军委主席习近平在浙江考察。这是20日上午，习近平在义乌国际商贸城考察时，同商户、小企业主代表亲切交流。新华社记者 李学仁 摄', '今年是毛泽东同志批示学习推广“枫桥经验”60周年。20日下午，习近平来到“枫桥经验”发源地诸暨市枫桥镇，参观枫桥经验陈列馆，了解新时代“枫桥经验”的生动实践。习近平指出，要坚持好、发展好新时代“枫桥经验”，坚持党的群众路线，正确处理人民内部矛盾，紧紧依靠人民群众，把问题解决在基层、化解在萌芽状态。', '9月20日至21日，中共中央总书记、国家主席、中央军委主席习近平在浙江考察。这是20日下午，习近平在诸暨市枫桥镇枫桥经验陈列馆，同当地群众亲切交流。新华社记者 燕雁 摄', '随后，习近平乘车来到位于绍兴的浙东运河文化园考察。他步行察看古运河河道和周边历史文化遗存，详细了解浙东运河发展演变史和当地合理利用水资源、推进大运河保护等情况。习近平强调，大运河是世界上最长的人工运河，是十分宝贵的文化遗产。大运河文化是中国优秀传统文化的重要组成部分，要在保护、传承、利用上下功夫，让古老大运河焕发时代新风貌。', '9月20日至21日，中共中央总书记、国家主席、中央军委主席习近平在浙江考察。这是20日下午，习近平在绍兴市浙东运河文化园考察。新华社记者 谢环驰 摄', '21日下午，习近平听取了浙江省委和省政府工作汇报，对浙江各项工作取得的成绩给予肯定，对浙江提出了新要求。', '习近平指出，浙江要在以科技创新塑造发展新优势上走在前列。要把增强科技创新能力摆到更加突出的位置，整合科技创新力量和优势资源，在科技前沿领域加快突破。强化企业科技创新主体地位，推动创新链产业链资金链人才链深度融合，加快科技成果落地转化。把实体经济作为构建现代化产业体系的根基，引导和支持传统产业加快应用先进适用技术，推动制造业高端化、智能化、绿色化发展。深化国家数字经济创新发展试验区建设，打造一批具有国际竞争力的战略性新兴产业集群和数字产业集群。加强科技基础能力建设，深化科技体制改革，打造科创高地。从全球视野布局产业链供应链建设，不断提升产业链供应链韧性和安全水平。坚定不移推动发展方式绿色转型，建立完善绿色低碳循环发展的经济体系。', '9月20日至21日，中共中央总书记、国家主席、中央军委主席习近平在浙江考察。这是20日上午，习近平在金华市义乌市后宅街道李祖村考察时，同群众亲切交流。新华社记者 李学仁 摄', '习近平强调，浙江要在推进共同富裕中先行示范。要把缩小城乡差距、地区差距、收入差距作为主攻方向，进一步健全城乡融合发展体制机制。坚持就业优先政策，在推动传统产业转型升级和发展新兴产业中注重扩大就业容量，解决好重点群体就业问题。深化收入分配制度改革，健全多层次社会保障体系。全面推进乡村振兴，积极发展乡村特色产业，深化“千村示范、万村整治”工程。加强平安浙江、法治浙江建设，在推进基层治理体系和治理能力现代化上创造更多经验。', '习近平指出，浙江要在深化改革、扩大开放上续写新篇。要以重点领域改革为牵引，全面推进各领域体制机制创新。以服务全国、放眼全球的视野来谋划改革，稳步扩大规则、规制、管理、标准等制度型开放。发挥各种开放平台的功能作用，创新利用外资、做大外贸的方法和渠道。主动适应国际经贸规则重构走向，在服务业开放、数字化发展、环境保护等方面先行先试。坚持“两个毫不动摇”、“三个没有变”，鼓励和支持民营企业积极参与全球范围产业分工和资源配置，提升核心竞争力。', '习近平强调，浙江要在建设中华民族现代文明上积极探索。要更好担负起新时代新的文化使命，赓续历史文脉，加强文化遗产保护，推动优秀传统文化创造性转化、创新性发展。坚守中华文化立场，积极发展反映时代要求、具有时代特色的新文化，发展中华文明的现代形态。弘扬伟大建党精神，广泛培育和践行社会主义核心价值观，发展社会主义先进文化。繁荣发展文化事业和文化产业，持续推进城乡公共文化服务标准化、均等化，加强公民道德建设，推进书香社会建设。运用杭州亚运会亚残运会、世界互联网大会等窗口加强文化交流传播，不断提升中国文化感染力和中华文明影响力。', '9月20日至21日，中共中央总书记、国家主席、中央军委主席习近平在浙江考察。这是20日下午，习近平在绍兴市浙东运河文化园考察。新华社记者 李学仁 摄', '习近平指出，要坚持和加强党的全面领导、加强和改进党的建设。树立正确政绩观，坚持立足实际、科学决策，坚持着眼长远、打牢基础，坚持干在实处、务求实效，防止形式主义、官僚主义。加强干部教育培训和实践锻炼，健全干部担当作为激励保护机制，激发干部干事创业活力，构建亲清统一的新型政商关系。各级党组织要加强对第二批主题教育的组织领导和工作指导，把握不同层级、不同领域、不同对象的特点，结合实际，分类指导，上下联动抓整改，让群众看到实效。', '9月24日，中共中央总书记、国家主席、中央军委主席习近平在浙江考察结束返京途中，来到山东省枣庄市考察。这是习近平在位于峄城区的冠世榴园石榴种植园了解石榴产业发展情况。新华社记者 燕雁 摄', '9月24日下午，在返京途中，习近平在山东省委书记林武和省长周乃翔陪同下来到枣庄市考察。枣庄是我国石榴集中连片种植面积最大、品种最多、产业链最完整的地区之一。习近平来到位于峄城区的冠世榴园石榴种质资源库，察看石榴树种，了解当地石榴种植历史、种质资源收集保存和产业发展情况，并来到石榴种植园中向老乡们询问今年石榴种植、收获和收入情况。得知当地大力发展石榴深加工和石榴盆栽培育有力带动了农民增收，习近平很高兴。他指出，人们生活水平在提高，优质特产市场需求在增长，石榴产业有发展潜力。要做好品牌、提升品质，延长产业链，增强产业市场竞争力和综合效益，带动更多乡亲共同致富。祝乡亲们生活像石榴果一样红红火火。', '9月24日，中共中央总书记、国家主席、中央军委主席习近平在浙江考察结束返京途中，来到山东省枣庄市考察。这是习近平在位于峄城区的冠世榴园石榴种植园同老乡们亲切交流。新华社记者 燕雁 摄', '9月24日，中共中央总书记、国家主席、中央军委主席习近平在浙江考察结束返京途中，来到山东省枣庄市考察。这是习近平在位于峄城区的冠世榴园石榴种植园同老乡们亲切交流。新华社记者 谢环驰 摄', '李干杰、何立峰、王小洪及中央和国家机关有关部门负责同志陪同分别参加上述有关活动，主题教育中央第五巡回指导组负责同志参加汇报会。', '中共中央总书记、国家主席、中央军委主席习近平近日在浙江考察时强调，要完整准确全面贯彻新发展理念，围绕构建新发展格局、推动高质量发展，聚焦建设共同富裕示范区、打造新时代全面展示中国特色社会主义制度优越性的重要窗口，坚持一张蓝图绘到底，持续推动“八八战略”走深走实，始终干在实处、走在前列、勇立潮头，奋力谱写中国式现代化浙江新篇章。']</t>
         </is>
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A154" t="n">
+        <v>23</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
           <t>张家口市政协赵满柱一行在曲沃学习考察</t>
         </is>
       </c>
-      <c r="D154" t="inlineStr">
+      <c r="E154" t="inlineStr">
         <is>
           <t>2023-06-30</t>
         </is>
       </c>
-      <c r="E154" t="inlineStr">
+      <c r="F154" t="inlineStr">
         <is>
           <t>http://www.quwo.gov.cn/xwzx/zwyw/202307/t20230703_210441.html</t>
         </is>
       </c>
-      <c r="F154" t="inlineStr">
+      <c r="G154" t="inlineStr">
         <is>
           <t>['6月30日，张家口市政协党组副书记、副主席赵满柱带队前来曲沃就乡村振兴下的文旅融合发展进行学习考察。市政协副主席张瑞萍，县政协副主席李继红、王红香陪同考察。', '赵满柱一行在晋国博物馆认真听取了讲解员的讲解，详细了解了博物馆管理运营、展陈脉络、文创产品研发等方面工作，并就加强文旅产业发展、文旅融合等方面内容与我县进行深入交流。', '赵满柱对晋国博物馆积极开发保护历史文化遗产，打造特色旅游品牌的做法给予高度评价，并表示，曲沃围绕晋国博物馆这一核心，设计构思打造了多种文化旅游活动，发挥“晋文化”优势，向游客展现了“晋文化”的历史魅力，值得学习和借鉴，考察组将充分利用此次机会，认真学习曲沃的先进经验，加强两地沟通交流，共同推动乡村振兴、文旅产业发展等工作再上新台阶。']</t>
         </is>
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A155" t="n">
+        <v>23</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
           <t>习近平在黑龙江考察时强调牢牢把握在国家发展大局中的战略定位奋力开创黑龙江高质量发展新局面</t>
         </is>
       </c>
-      <c r="D155" t="inlineStr">
+      <c r="E155" t="inlineStr">
         <is>
           <t>2023-09-12</t>
         </is>
       </c>
-      <c r="E155" t="inlineStr">
+      <c r="F155" t="inlineStr">
         <is>
           <t>https://h.xinhuaxmt.com/vh512/share/11672801?d=134b2fc&amp;channel=weixin</t>
         </is>
       </c>
-      <c r="F155" t="inlineStr">
+      <c r="G155" t="inlineStr">
         <is>
           <t>['习近平在黑龙江考察时强调 牢牢把握在国家发展大局中的战略定位 奋力开创黑龙江高质量发展新局面 - 新华社客户端', '习近平在黑龙江考察时强调 牢牢把握在国家发展大局中的战略定位 奋力开创黑龙江高质量发展新局面', '新华社哈尔滨9月8日电 中共中央总书记、国家主席、中央军委主席习近平近日在黑龙江考察时强调，要牢牢把握在国家发展大局中的战略定位，扭住推动高质量发展这个首要任务，落实好党中央关于推动东北全面振兴的决策部署，扬长补短，把资源优势、生态优势、科研优势、产业优势、区位优势转化为发展新动能新优势，建好建强国家重要商品粮生产基地、重型装备生产制造基地、重要能源及原材料基地、北方生态安全屏障、向北开放新高地，在维护国家国防安全、粮食安全、生态安全、能源安全、产业安全中积极履职尽责，在全面振兴、全方位振兴中奋力开创黑龙江高质量发展新局面。', '9月6日至8日，习近平在黑龙江省委书记许勤和省长梁惠玲陪同下，来到大兴安岭、哈尔滨等地，深入林场、乡村、高校等进行调研，前往灾后恢复重建现场看望慰问受灾群众。', '9月6日至8日，中共中央总书记、国家主席、中央军委主席习近平在黑龙江考察。这是6日下午，习近平在大兴安岭地区漠河市漠河林场自然林区考察。', '6日下午，习近平来到大兴安岭地区漠河市，考察漠河林场自然林区，察看自然林生长态势和林下作物展示，听取当地深化森林资源资产管理改革、推进生态产业化和产业生态化以及加强森林防火灭火情况介绍。习近平指出，要坚持造林与护林并重，做到未雨绸缪、防患于未然，决不能让几十年、几百年、上千年之功毁于一旦。', '9月6日至8日，中共中央总书记、国家主席、中央军委主席习近平在黑龙江考察。这是6日下午，习近平在大兴安岭地区漠河市北极村考察。', '随后，习近平乘车来到我国大陆最北端的边境临江村落北极村，仔细了解当地结合地域优势发展特色旅游、将生态优势转化成发展优势等情况。习近平强调，森林是集水库、粮库、钱库、碳库于一身的大宝库。要树立增绿就是增优势、护林就是护财富的理念，在保护的前提下让老百姓通过发展林下经济增加收入。在村民史瑞娟家的民宿小院，习近平向乡亲们了解当地发展乡村特色产业、助推兴边富民乡村振兴等情况。他指出，北极村的发展和群众的生活状况好，看了很高兴。发展旅游业是推动高质量发展的重要着力点。把大兴安岭森林护好，旅游业才有吸引力。这里的旅游资源得天独厚，地方党委和政府要提供政策支持，坚持林下经济和旅游业两业并举，让北国边塞风光、冰雪资源为乡亲们带来源源不断的收入。', '9月6日至8日，中共中央总书记、国家主席、中央军委主席习近平在黑龙江考察。这是6日下午，习近平在大兴安岭地区漠河市北极村，同村民史瑞娟一家亲切交谈。', '9月6日至8日，中共中央总书记、国家主席、中央军委主席习近平在黑龙江考察。这是6日下午，习近平在大兴安岭地区漠河市北极村村民史瑞娟家的民宿小院考察。新华社记者 鞠鹏 摄', '9月6日至8日，中共中央总书记、国家主席、中央军委主席习近平在黑龙江考察。这是6日下午，习近平在大兴安岭地区漠河市北极村考察时，同当地群众亲切交流。', '9月6日至8日，中共中央总书记、国家主席、中央军委主席习近平在黑龙江考察。这是6日下午，习近平在大兴安岭地区漠河市北极村考察时，同当地群众亲切交流。新华社记者 鞠鹏 摄', '9月6日至8日，中共中央总书记、国家主席、中央军委主席习近平在黑龙江考察。这是6日下午，习近平在大兴安岭地区漠河市北极村考察时，向当地群众挥手致意。', '离开小院时，当地群众在道路两旁热情欢送总书记。习近平亲切地对大家说，北极村前景可期。希望广大干部、群众共同努力，把乡村建设得更好、把生态保护得更好、让人民生活得更好，共同奔向中国式现代化的美好未来。', '9月6日至8日，中共中央总书记、国家主席、中央军委主席习近平在黑龙江考察。这是7日上午，习近平在遭受洪涝灾害的哈尔滨尚志市老街基乡龙王庙村，察看水稻受灾情况。', '9月6日至8日，中共中央总书记、国家主席、中央军委主席习近平在黑龙江考察。这是7日上午，习近平在遭受洪涝灾害的哈尔滨尚志市老街基乡龙王庙村，察看水毁房屋重建情况。', '习近平十分牵挂洪涝灾害地区灾后恢复重建工作和受灾群众的生活保障问题。7日上午，习近平乘车来到受灾较重的哈尔滨尚志市老街基乡龙王庙村，察看水稻受灾和水毁房屋重建情况。村民杨春贵家房屋在洪灾中进水浸泡，屋内设施受损、间墙开裂，正在修缮。习近平走进杨春贵家中，看到房屋修缮即将完毕、生产生活都有安排，感到很欣慰。习近平指出，我一直牵挂受灾群众，尚志市这次受灾较为严重，看到灾后恢复重建快速顺利，乡亲们生活有了着落、生产有了保障，心里很踏实。东北冬季来得早、时间长，要确保受灾群众安全温暖过冬，地方党委和政府要抓紧谋划，提前行动，把吃、喝、住、行、就业、教育、医疗防疫等事关群众生产生活的大小事情考虑得更细致、更周全一些，不留一丝纰漏。要抓紧修复受损房屋，加快推进灾后重建，最大程度减少农业因灾损失，确保受灾群众安心安全。', '9月6日至8日，中共中央总书记、国家主席、中央军委主席习近平在黑龙江考察。这是7日上午，在遭受洪涝灾害的哈尔滨尚志市老街基乡龙王庙村，习近平走进村民杨春贵家中，察看受损房屋修缮情况。', '9月6日至8日，中共中央总书记、国家主席、中央军委主席习近平在黑龙江考察。这是7日上午，习近平在遭受洪涝灾害的哈尔滨尚志市老街基乡龙王庙村，同当地村民和施工人员亲切交流。', '看到总书记来了，当地村民和施工人员纷纷围拢过来，向总书记问好。习近平亲切地对大家说，党和政府十分关心灾区群众，始终同大家风雨同舟、携手同行，希望乡亲们在党组织领导下齐心协力、共克时艰，努力建设美好家园。', '9月6日至8日，中共中央总书记、国家主席、中央军委主席习近平在黑龙江考察。这是7日上午，习近平在哈尔滨工程大学哈军工纪念馆考察。', '9月6日至8日，中共中央总书记、国家主席、中央军委主席习近平在黑龙江考察。这是7日上午，习近平在哈尔滨工程大学哈军工纪念馆考察。新华社记者 谢环驰 摄', '9月6日至8日，中共中央总书记、国家主席、中央军委主席习近平在黑龙江考察。这是7日上午，习近平在哈尔滨工程大学考察时，同师生代表亲切交流。', '7日上午，习近平还来到哈尔滨工程大学，了解学校发展历程和为我国国防科技事业作出的贡献，察看教学科研成果展示。习近平强调，哈尔滨工程大学要发扬“哈军工”优良传统，紧贴强国强军需要，抓好教育、科技、人才工作，为建设教育强国、科技强国、人才强国再立新功。年轻一代成为奋力拼搏、振兴中华的一代，实现第二个百年奋斗目标就充满希望。青年学子要树牢科技报国志，刻苦学习钻研，勇攀科学高峰，在推进强国建设、民族复兴伟业中绽放青春光彩。再过几天就是教师节，向全校教师致以节日祝福，祝全国广大教师节日快乐。', '8日上午，习近平听取了黑龙江省委和省政府工作汇报，对黑龙江各项工作取得的成绩给予肯定。', '习近平指出，要以科技创新引领产业全面振兴。要立足现有产业基础，扎实推进先进制造业高质量发展，加快推动传统制造业升级，发挥科技创新的增量器作用，全面提升三次产业，不断优化经济结构、调整产业结构。整合科技创新资源，引领发展战略性新兴产业和未来产业，加快形成新质生产力。提高国有企业核心竞争力，引领民营经济健康发展，打造一批产业集群，做大做强实体经济。把企业作为科技成果转化核心载体，提高科技成果落地转化率。主动对接全国产业链供应链，在优势产业和产业优势领域深耕细作，更好融入全国统一大市场，在联通国内国际双循环中发挥更大作用。坚持绿色发展，加强绿色发展技术创新，建立健全绿色低碳循环发展经济体系。', '习近平强调，黑龙江要当好国家粮食安全“压舱石”。要以发展现代化大农业为主攻方向，加快建设现代农业大基地、大企业、大产业，率先实现农业物质装备现代化、科技现代化、经营管理现代化、农业信息化、资源利用可持续化。强化数字技术和生物技术赋能，优先把黑土地建成高标准农田，切实把黑土地保护好。把发展农业科技放在更加突出的位置，统筹推进科技农业、绿色农业、质量农业、品牌农业，推进现代种业提升工程，配套推广先进适用科技和高端农机装备，发展农业循环经济。创新农业经营方式，发展规模化经营、社会化服务。打造食品和饲料产业集群，提高粮食生产综合效益。加快推进乡村振兴，让农村具备现代化生产生活条件。', '习近平指出，要大力发展特色文化旅游。把发展冰雪经济作为新增长点，推动冰雪运动、冰雪文化、冰雪装备、冰雪旅游全产业链发展。守护好森林、江河、湖泊、湿地、冰雪等原生态风貌，改善边境地区基础设施条件，积极发展边境旅游，更好地促进兴边富民、稳边固边。勇担新的文化使命，繁荣发展文化事业和文化产业，深入开展城乡精神文明建设，推进城乡公共文化服务体系一体建设，努力培育新风尚、展示新形象。', '习近平强调，要构筑我国向北开放新高地。更好统筹贸易、投资、通道和平台建设，在市场准入、要素流动、制度型开放等方面大胆探索、先行先试，形成全方位对外开放新格局。加快建设重要陆路通道、河海航道、能源管道等基础设施，完善面向东北亚开放的交通运输网络。要加强自贸试验区、综合保税区等开放平台创新发展，深度融入共建“一带一路”，积极参与区域合作。要切实做好重点领域风险防范化解工作，落实安全生产责任，坚决避免发生重特大安全生产事故。', '习近平指出，第一批主题教育已经告一段落，要抓好继续整改和建章立制工作，把主题教育探索的好经验好做法转化为长效机制。要建立健全理论学习、调查研究、推动高质量发展、密切联系群众、防止形式主义和官僚主义等长效机制，巩固发展主题教育成果。第二批主题教育已经启动，各地要坚持科学谋划、统筹安排、分类指导，确保取得实效。', '李干杰、何立峰及中央和国家机关有关部门负责同志陪同考察，主题教育中央第四巡回指导组负责同志参加汇报会。', '新华社客户端提供的所有原创内容与设计均受相关法律保护，为新华社客户端及/或相关权利人专属所有或持有。未经许可或明确书面授权，任何人不得复制、转载、摘编、修改、链接新华社客户端内容，违反上述声明者，我们将依法追究其相关法律责任。', '新华社全民拍欢迎广大网民爆料，爆料内容请严格遵守国家法律法规，我们将根据审核制度，及时调查追踪。']</t>
         </is>
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A156" t="n">
+        <v>23</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
           <t>中国第次北冰洋科学考察队驶出北极圈</t>
         </is>
       </c>
-      <c r="D156" t="inlineStr">
+      <c r="E156" t="inlineStr">
         <is>
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="E156" t="inlineStr">
+      <c r="F156" t="inlineStr">
         <is>
           <t>http://www.houma.gov.cn/xwzx/gwyyw/202309/t20230915_242672.html</t>
         </is>
       </c>
-      <c r="F156" t="inlineStr">
+      <c r="G156" t="inlineStr">
         <is>
           <t>['新华社“雪龙2”号9月14日电（记者 魏弘毅）北京时间9月14日凌晨5时33分，由自然资源部组织的中国第13次北冰洋科学考察队搭乘“雪龙2”号极地科考破冰船向南驶出北极圈，离开北极地区。', '在此之前，考察队于北京时间12日晚17时在楚科奇海域完成本航次全部科考作业项目。在位于北纬74度附近的最后一个作业站位，考察队先后进行了设备回收和底栖生物拖网作业，全程持续约2小时。', '考察队于7月24日向北穿越北极圈，并于7月26日开始本航次科考作业。在北极地区长达53天的航行中，考察队聚焦中北冰洋太平洋扇区和加克洋中脊两大区域，开展了海洋综合调查作业、海冰综合调查作业与地质和地球物理调查作业，并按照考察计划完成了科学研究计划类项目和中泰中俄国际合作项目。', '中国第13次北冰洋科学考察队领队王金辉说，相关科考作业将为进一步认识北极快速变化下的生态系统变化提供有力支撑，提升我国在北冰洋环境保护、北极快速变化响应以及海洋污染评估等方面的能力。', '此外，考察队在本航次作业期间抵达北极点区域，实现了我国科考船首次在北极点区域开展综合调查，填补了我国北冰洋考察在北极点区域调查数据的空白，有助于进一步了解该区域海冰和洋流变化过程，加深对北冰洋快速变化及其生态响应的认识，为有效应对全球气候变化对我国的影响提供数据支撑。', '王金辉介绍，返程期间，考察队将针对本航次科考作业进行总结，并梳理在作业过程中采集到的样品和数据，形成系统的总结报告。', '根据日程安排，“雪龙2”号将于9月底返抵位于上海的极地中心国内基地码头，结束本航次的全部行程。']</t>
         </is>
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A157" t="n">
+        <v>23</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
           <t>奋力谱写中国式现代化新篇章习近平总书记在浙江山东枣庄考察时的重要讲话激励广大干部群众坚定信心团结奋斗</t>
         </is>
       </c>
-      <c r="D157" t="inlineStr">
+      <c r="E157" t="inlineStr">
         <is>
           <t>2023-09-26</t>
         </is>
       </c>
-      <c r="E157" t="inlineStr">
+      <c r="F157" t="inlineStr">
         <is>
           <t>https://www.gov.cn/yaowen/liebiao/202309/content_6906296.htm</t>
         </is>
       </c>
-      <c r="F157" t="inlineStr">
+      <c r="G157" t="inlineStr">
         <is>
           <t>['奋力谱写中国式现代化新篇章——习近平总书记在浙江、山东枣庄考察时的重要讲话激励广大干部群众坚定信心团结奋斗__中国政府网', '奋力谱写中国式现代化新篇章——习近平总书记在浙江、山东枣庄考察时的重要讲话激励广大干部群众坚定信心团结奋斗', '新华社北京9月25日电题：奋力谱写中国式现代化新篇章——习近平总书记在浙江、山东枣庄考察时的重要讲话激励广大干部群众坚定信心团结奋斗', '题：奋力谱写中国式现代化新篇章——习近平总书记在浙江、山东枣庄考察时的重要讲话激励广大干部群众坚定信心团结奋斗', '习近平总书记近日在浙江、山东枣庄考察时发表的重要讲话，激励各行各业干部群众坚定信心、鼓足干劲、团结奋斗。', '大家表示，新时代新征程上，要在习近平新时代中国特色社会主义思想指引下，完整准确全面贯彻新发展理念，加快构建新发展格局、推动高质量发展，推进乡村振兴、共同富裕，建设中华民族现代文明，奋力谱写中国式现代化新篇章。', '白墙黛瓦，古树婆娑，徽派特色建筑鳞次栉比，村民庭院内繁花盛开……浙江义乌西北的李祖村，一步一景。', '“乡村振兴潜力无限、大有可为，总书记的鼓励让大家干劲十足。”李祖村党支部书记方豪龙说，正是得益于“八八战略”和“千万工程”，李祖村从偏僻落后的“水牛角村”变成了欣欣向荣的“全国文明村”，村民年人均收入由2003年的不到5000元增长到现在的5.2万元。“我们要争做乡村振兴的带头人，不仅把自己村建得更好，也要带动周边更多村庄一起奔向共同富裕的美好明天。”', '习近平总书记的深切关怀，让浙江省金华市委书记朱重烈倍受鼓舞：“我们将牢记总书记的嘱托，根据实情、发挥优势、扬长补短、再创辉煌，统筹打好‘千万工程’、乡村产业振兴、城乡区域协调发展等组合拳，迭代提升‘共富市集’、新农人、农村电商等特色举措，全力打造共同富裕先行示范市域样板。”', '在习近平总书记返京途中考察的山东枣庄石榴种植园，一棵棵石榴树枝繁叶茂、硕果累累。总书记向老乡们询问今年石榴种植、收获和收入情况，大家心里都热乎乎的。山东省枣庄市现代农业产业体系石榴创新团队首席专家安广池说：“接下来我们要加快对石榴新品种的培育和推广，加大科技赋能力度，把小石榴真正做成让更多村民增收致富的大产业。”', '正值秋收时节，关中平原瓜果飘香、“丰”景如画。陕西省宝鸡市农业农村局局长赵海斌最近忙着往返于各县区的粮食主产区，察看玉米等秋粮作物的收成。“我们要按照总书记部署要求，聚焦现代农业强市、宜居宜业和美乡村目标，深入推进现代农业高质量发展三年行动，突出粮食、乳业、猕猴桃、苹果、生猪、蔬菜等优势特色产业，扎实推进乡村振兴、共同富裕。”赵海斌说。', '义乌国际商贸城内，小商品琳琅满目，来自世界各地的采购商穿行其中。杭州亚运会的举行带来更多商机，“世界超市”更加红火。', '扎根市场20多年的老商户、义乌市体育健身用品行业协会会长王强说，习近平总书记要求商贸城要再创新辉煌，鼓舞人心、催人奋进。“今年以来义乌体育用品海外订单增长迅猛，我们有信心通过不断创新，让义乌好商品卖向全球。”', '金秋时节，之江大地活力奔涌。杭州钱塘新区前进智造园正在火热建设，未来这里将成为一个集现代化、数字化、智能化于一体的智能制造研发基地。', '“总书记的重要讲话传递出共促发展提振信心的鲜明信号。”杭州钱塘新区党工委书记金承涛说，钱塘新区是杭州乃至浙江高质量发展的产业主平台，区内民营企业超过7万家。“我们将按照总书记要求，持续用好政企直通车、亲清议事平台等载体，构建全链条、全天候、全过程的为企服务新生态，助力区域高质量发展。”', '走进天津滨海新区港东新城，一幢幢崭新的办公楼拔地而起。受益于滨海新区政务办600余项惠企改革，越来越多的企业来这里落户安家。', '习近平总书记强调“全面推进各领域体制机制创新”，滨海新区政务服务办主任李长洪深有感触：“民营经济是推动区域高质量发展的活力源泉，我们将继续通过深化改革提升服务民营企业的能力和水平，为民营经济发展壮大保驾护航。”', '全面深化改革开放，海南自贸港建设如火如荼。随着贸易投资、财税金融等方面政策不断完善，海南自贸港政策制度体系初步建立。', '“总书记的重要讲话为我们指明了方向。”海南省营商环境建设厅厅长陈际阳说，海南将以制度集成创新优化营商环境，更加关切经营主体和群众需求，努力营造公平、透明、可预期的营商环境，发挥自贸港政策优势，更好推动高水平对外开放。', '浙江诸暨枫溪江畔，枫桥经验陈列馆迎来各地参观者，以情景再现、艺术创作、电子互动等方式将“枫桥经验”一甲子的发展历程娓娓道来。', '枫桥经验陈列馆副馆长杨舒雯说：“习近平总书记对‘枫桥经验’的重视，让我感受到沉甸甸的使命感。我将立足自身岗位，不断挖掘生动的案例故事，用通俗易懂的语言，宣传阐释好‘枫桥经验’新的时代内涵，不断擦亮这块‘金字招牌’。”', '在浙江嵊州，基层干部人手一本“民情日记”，记录群众的急事、难事、发展事、致富事。嵊州市信访局局长郭叶飞说：“我们将认真落实好总书记的要求，坚持好、发展好新时代‘枫桥经验’，以‘民情日记’为切入点，正确处理人民内部矛盾，把问题解决在基层、化解在萌芽状态。”', '“枫桥经验”之所以经久不衰、永葆活力，就在于坚持党的领导这一最大优势，使党组织成为基层社会治理的“领头雁”。', '成立于2022年的江苏南京浦口区后浪创业服务中心，是浦口区民政局培育的新业态社会组织。中心负责人宋扬说：“我们将以总书记重要讲话为指引，坚持党的群众路线，进一步将党组织的服务管理触角延伸到就业创业、帮扶救助、慈善公益等社会治理工作的各个末梢，让群众在一件件实事中感受到党组织的温暖。”', '双节临近，安徽合肥淮河路步行街上霓虹闪烁，一列身着蓝马甲的队伍穿行于人流之中。这是一支由附近商户、老百姓自发成立的夜间巡逻队，同当地公安部门一起开展治安巡逻、矛盾化解、隐患排查、防范宣传等工作。', '学习了习近平总书记重要讲话，合肥市公安局庐阳分局逍遥津派出所所长邓欣冉更加明确了今后工作的方向和重点：“下一步，我们还要紧紧依靠人民群众，发动更多群众加入到群防群治队伍中来，通过专业力量与群众路线结合，真正让人民群众成为社会治理受益者、参与者、评判者，使社会治理深深扎根于人民群众之中。”', '浙江省绍兴市越城区委常委、宣传部长吴萍说：“习近平总书记指出，‘大运河文化是中国优秀传统文化的重要组成部分，要在保护、传承、利用上下功夫’。这为我们谱写好运河故事、传承好运河文明指明方向。我们将积极传承弘扬大运河文化，构筑起时空连续、文创集聚、业态多元的复合型文旅消费新空间，深入展现大运河文化的历史底蕴和时代魅力。”', '“现场聆听习近平总书记的重要讲话，我很受鼓舞。”浙江省文化和旅游厅党组书记、厅长陈广胜说，“我们将深入挖掘省域丰厚的文化文物资源价值，深化上山、河姆渡、良渚等大遗址群和温州古港遗址等研究保护利用，充分发挥之江文化中心文化惠民、文化利民功能，更好展示中华文明独特魅力。”', '国庆前夕，南昌八一起义纪念馆尝试与江西航空公司、南昌铁路局合作，通过“空中课堂”“列车课堂”的形式，向乘客讲述发生在江西的革命故事，带领游客感悟红色文化、赓续红色血脉。', '“习近平总书记在讲话中提到‘弘扬伟大建党精神’，作为一名红色文化讲解员，我将深入学习领会总书记的重要讲话精神，坚守中华文化立场，创新传播方式，用生动的解说和鲜活的形式，向来自全国各地的游客讲好红色历史，让精彩动人的革命故事传播更广，让红色文化绽放新的时代光彩。”纪念馆讲解员周甜说。', '不久前，地处云南省澜沧县惠民镇的普洱景迈山古茶林文化景观申遗成功，很多外地茶商和游客慕名而来，被当地独特而浓郁的茶文化所吸引。', '“我们将持续挖掘遗产价值，赓续历史文脉，进一步阐释中国茶文化的世界影响，推介中国茶故事和活态遗产保护的‘中国理念’。同时，鼓励引导村民特别是年轻人从事茶文化传播、茶产业发展实践，让传统茶文化在传承创新中焕发活力，更好担负起新时代新的文化使命。”普洱景迈山古茶林保护管理局局长、澜沧县委副书记张丕生说。']</t>
         </is>
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A158" t="n">
+        <v>23</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
           <t>中国第次北冰洋科学考察队抵达北极点</t>
         </is>
       </c>
-      <c r="D158" t="inlineStr">
+      <c r="E158" t="inlineStr">
         <is>
           <t>2023-09-08</t>
         </is>
       </c>
-      <c r="E158" t="inlineStr">
+      <c r="F158" t="inlineStr">
         <is>
           <t>https://www.gov.cn/yaowen/liebiao/202309/content_6902607.htm</t>
         </is>
       </c>
-      <c r="F158" t="inlineStr">
+      <c r="G158" t="inlineStr">
         <is>
           <t>['新华社“雪龙2”号9月7日电（记者 魏弘毅）北京时间2023年9月5日13时55分，由自然资源部组织的中国第13次北冰洋科学考察队搭乘“雪龙2”号极地科考破冰船在作业期间抵达北纬90度暨北极点区域。', '考察队在北极点重点围绕大气、水文、生物及海冰情况开展了冰站调查和海洋综合调查作业，填补了我国北冰洋考察在北极点区域调查数据的空白，有助于进一步了解该区域海冰和洋流变化过程，加深对北冰洋快速变化及其生态响应的认识，为有效应对全球气候变化对我国的影响提供数据支撑。', '此次科学考察是党的二十大后自然资源部组织开展的首次北冰洋科学考察活动，也是我国科考船第一次抵达北极点区域开展综合调查。考察队于今年7月12日从上海出发，预计将于9月下旬返回国内。', '北京时间2023年9月5日13时55分，由自然资源部组织的中国第13次北冰洋科学考察队搭乘“雪龙2”号极地科考破冰船在作业期间抵达北纬90度暨北极点区域。']</t>
         </is>
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A159" t="n">
+        <v>23</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
           <t>大宁县人民检察院专题传达学习全市检察工作推进会议精神</t>
         </is>
       </c>
-      <c r="D159" t="inlineStr">
+      <c r="E159" t="inlineStr">
         <is>
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="E159" t="inlineStr">
+      <c r="F159" t="inlineStr">
         <is>
           <t>http://www.daning.gov.cn/xwzx/zwyw/202309/t20230907_239206.html</t>
         </is>
       </c>
-      <c r="F159" t="inlineStr">
+      <c r="G159" t="inlineStr">
         <is>
           <t>['9月4日，大宁县人民检察院召开全体干警会议，传达学习全市检察工作推进会议精神。县人民检察院党组书记、检察长肖玲主持会议并讲话。', '会议指出，作为基层检察院，要进一步在深化、细化、实化学习贯彻落实全国大检察官研讨班、全省高级检察官研讨班精神上下功夫，结合姚江华检察长的具体讲话要求，在落实上出实招、出实效，以更好的工作作风，更高的工作标准，推动大宁检察工作再上新台阶。', '会议强调，一要强化思想认识，凝聚发展动能。二要立足检察职能，更好为大局服务。三要坚持问题导向，奋力追赶超越。四要调整工作思路，培育典型案例。五要加强作风建设，持续强基固本。']</t>
         </is>
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A160" t="n">
+        <v>23</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
           <t>安徽省政协到我县学习考察</t>
         </is>
       </c>
-      <c r="D160" t="inlineStr">
+      <c r="E160" t="inlineStr">
         <is>
           <t>2023-06-15</t>
         </is>
       </c>
-      <c r="E160" t="inlineStr">
+      <c r="F160" t="inlineStr">
         <is>
           <t>http://www.yicheng.gov.cn/zzzb/ycyw/202306/t20230615_203029.html</t>
         </is>
       </c>
-      <c r="F160" t="inlineStr">
+      <c r="G160" t="inlineStr">
         <is>
           <t>['6月13日，安徽省政协常委、社会和法制委员会主任陈晓燕带领考察团到我县围绕“把非诉讼纠纷解决机制挺在前面”等情况开展学习考察。省政协社会和法制委员会副主任韩健生，市政协副主席、民盟临汾市委主委王阿家，县委副书记、县长杨海林，县政协主席、政法委书记刘生明，县政协副主席张新民，县法院院长陈剑陪同。', '考察团一行先后到综治中心、司法局、法院等地实地考察，通过听取汇报、实地走访、观看宣传片等方式，对我县县情概况、基层治理、普法宣传、诉源治理等工作开展情况进行了详细了解。', '考察团一行同我县工作人员频频交流并对相关工作给予高度评价，一致认为，我县基层社会治理“五个一”工作法充分体现了“三治融合”在翼城的实践与成效，有效促进了基层社会治理能力现代化；《经纬剧场》特色鲜明、历久弥新，其鲜活的生命力和广泛的认知度令人赞叹；诉源治理工作构建起的一站式多元解纷和诉讼服务体系集政治效果、社会效果和法律效果于一体，成效显著、亮点突出。希望两地进一步加强交流合作，相互学习借鉴，促进优势互补，促进共同发展。']</t>
         </is>
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A161" t="n">
+        <v>23</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
           <t>习近平在河北雄安新区考察并主持召开高标准高质量推进雄安新区建设座谈会</t>
         </is>
       </c>
-      <c r="D161" t="inlineStr">
+      <c r="E161" t="inlineStr">
         <is>
           <t>2023-05-11</t>
         </is>
       </c>
-      <c r="E161" t="inlineStr">
+      <c r="F161" t="inlineStr">
         <is>
           <t>https://h.xinhuaxmt.com/vh512/share/11497978?d=134b16e&amp;channel=weixin</t>
         </is>
       </c>
-      <c r="F161" t="inlineStr">
+      <c r="G161" t="inlineStr">
         <is>
           <t>['习近平在河北雄安新区考察并主持召开高标准高质量推进雄安新区建设座谈会 - 新华社客户端', '原标题：习近平在河北雄安新区考察并主持召开高标准高质量推进雄安新区建设座谈会时强调', '5月10日，中共中央总书记、国家主席、中央军委主席习近平在河北省雄安新区考察，并主持召开高标准高质量推进雄安新区建设座谈会。这是10日下午，习近平主持召开高标准高质量推进雄安新区建设座谈会并发表重要讲话。', '新华社河北雄安新区5月10日电 中共中央总书记、国家主席、中央军委主席习近平10日在河北省雄安新区考察，主持召开高标准高质量推进雄安新区建设座谈会并发表重要讲话。他强调，雄安新区已进入大规模建设与承接北京非首都功能疏解并重阶段，工作重心已转向高质量建设、高水平管理、高质量疏解发展并举。要坚定信心，保持定力，稳扎稳打，善作善成，推动各项工作不断取得新进展。', '中共中央政治局常委、国务院总理李强，中共中央政治局常委、中央办公厅主任蔡奇，中共中央政治局常委、国务院副总理丁薛祥陪同考察并出席座谈会。', '5月10日，习近平在河北省委书记倪岳峰、省长王正谱陪同下，深入雄安新区的高铁站、社区、建设工地等，就高标准高质量推进雄安新区建设进行调研。', '5月10日，中共中央总书记、国家主席、中央军委主席习近平在河北省雄安新区考察，并主持召开高标准高质量推进雄安新区建设座谈会。这是10日上午，习近平在雄安站考察。', '5月10日，中共中央总书记、国家主席、中央军委主席习近平在河北省雄安新区考察，并主持召开高标准高质量推进雄安新区建设座谈会。这是10日上午，习近平在雄安站候车大厅同旅客亲切交流。', '当天上午，习近平乘高铁前往雄安新区，抵达后首先考察了雄安站的建设运行情况。雄安站是雄安新区开工建设的第一个重大基础设施项目，具有标志性意义。习近平先后察看站台、候车大厅、站外广场，了解雄安站建设运营和所在的昝岗片区规划建设情况。习近平指出，雄安站是雄安新区的交汇车站，要进一步完善联通雄安站和雄安新区的交通“微细血管”，提升人流物流聚集和疏散的效率。要把昝岗片区建设成为高端高新产业集聚区，让各方来客一到雄安，就能感受到雄安新区扑面而来的现代化新气象。', '5月10日，中共中央总书记、国家主席、中央军委主席习近平在河北省雄安新区考察，并主持召开高标准高质量推进雄安新区建设座谈会。这是10日上午，习近平在容东片区南文营社区党群服务中心考察。', '5月10日，中共中央总书记、国家主席、中央军委主席习近平在河北省雄安新区考察，并主持召开高标准高质量推进雄安新区建设座谈会。这是10日上午，习近平在容东片区南文营社区食堂同就餐的社区老人亲切交流。', '习近平随后乘车来到容东片区南文营社区。该社区安置了安新、容城两县回迁群众5000多人。习近平先后来到党群服务中心和社区食堂，同社区工作人员、现场办事群众、就餐的社区老人等亲切交流，仔细查看民情台账，对社区开展的便民养老服务等表示肯定。习近平强调，我一直牵挂着回迁群众，看到大家生活好，我很欣慰。建设好雄安新区，重要的是衔接好安居和乐业，让群众住得稳、过得安、有奔头。要同步推进城市治理现代化，从一开始就下好“绣花”功夫，积极推进基本公共服务均等化，构筑新时代宜业宜居的“人民之城”。', '5月10日，中共中央总书记、国家主席、中央军委主席习近平在河北省雄安新区考察，并主持召开高标准高质量推进雄安新区建设座谈会。这是10日上午，习近平在容东片区南文营社区回迁居民李敬和家中看望。', '习近平走进回迁居民李敬和家中看望。李敬和告诉总书记，2021年11月迁入新居，房子宽敞明亮，住得十分舒心，日子越过越红火。习近平强调，建设雄安新区是党中央作出的重大战略决策，大家响应国家号召，积极配合，为国家战略实施作出了贡献。他勉励年轻一代在强国建设、民族复兴的进程中，坚定信心，学好本领，造福桑梓，做社会主义事业的建设者和接班人。', '5月10日，中共中央总书记、国家主席、中央军委主席习近平在河北省雄安新区考察，并主持召开高标准高质量推进雄安新区建设座谈会。这是10日上午，习近平在容东片区南文营社区考察时向社区居民挥手致意。', '临别时，居民们高声欢呼“总书记好”，习近平向大家挥手致意。他深情地对大家说，河北是我工作过的地方，我对这里充满感情，把这里建设好是我的心愿。建设雄安新区是千年大计、国家大事，既不能心浮气躁，也不能等靠要，要踏实努力，久久为功。', '雄安城际站枢纽位于雄安新区启动区的核心位置。习近平来到雄安城际站及国贸中心项目建设现场，看沙盘、登平台，远眺建设工地，了解启动区重大基础设施项目及重点疏解项目规划建设进展情况。习近平指出，交通是现代城市的血脉。血脉畅通，城市才能健康发展。要在建设立体化综合交通网络上下功夫，在充分利用地下空间上下功夫，着力打造一个没有“城市病”的未来之城，真正把高标准的城市规划蓝图变为高质量的城市发展现实画卷。', '5月10日，中共中央总书记、国家主席、中央军委主席习近平在河北省雄安新区考察，并主持召开高标准高质量推进雄安新区建设座谈会。这是10日上午，习近平在雄安城际站及国贸中心项目建设现场考察。', '下午，习近平来到雄安会展中心雄安厅，结合沙盘、视频短片，听取雄安新区整体规划建设进展介绍，了解白洋淀生态环境治理和保护及清淤疏浚、百淀连通等工作进展情况。习近平强调，白洋淀生态环境治理和保护，功在当代、利在千秋，必须统筹谋划，扎实推进。', '随后，习近平在会展中心三层多功能厅主持召开高标准高质量推进雄安新区建设座谈会。国家发展改革委主任郑栅洁、河北省委书记倪岳峰、雄安新区党工委书记张国华先后发言。中国卫星网络集团有限公司、中国建筑集团有限公司主要负责同志提交了书面发言。', '听取大家发言后，习近平发表了重要讲话。他强调，在党中央坚强领导下，在中央有关部门和北京、天津等地大力支持下，河北省积极履行主体责任，雄安新区党工委和管委会认真履行属地责任，扎实推动各项工作，雄安新区建设取得重大阶段性成果，新区建设和发展顶层设计基本完成，基础设施建设取得重大进展，疏解北京非首都功能初见成效，白洋淀生态环境治理成效明显，深化改革开放取得积极进展，产业和创新要素聚集的条件逐步完善，回迁安置工作有序推进。短短6年里，雄安新区从无到有、从蓝图到实景，一座高水平现代化城市正在拔地而起，堪称奇迹。这些成绩是在世界百年未有之大变局、3年新冠疫情的严峻形势下取得的，殊为不易。实践证明，党中央关于建设雄安新区的重大决策是完全正确的，各方面工作是扎实有效的。', '习近平强调，要完整、准确、全面贯彻落实党中央关于建设雄安新区的战略部署，深刻领悟党中央决策的重大现实意义和深远历史意义，牢牢把握党中央关于雄安新区的功能定位、使命任务和原则要求，提高政治站位，保持历史耐心，处理好近期目标和中远期目标、城市建设速度和人口聚集规模、产业转移和产业升级、政府和市场、承接北京非首都功能疏解和城市自身发展、城市建设和周边乡村振兴等重大关系，确保雄安新区建设和发展的正确方向。', '习近平指出，要扎实推动疏解北京非首都功能各项任务落实，接续谋划第二批启动疏解的在京央企总部及二、三级子公司或创新业务板块等，着手谋划金融机构、科研院所、事业单位的疏解转移。要继续完善疏解激励约束政策体系。对有关疏解人员的子女教育、医疗、住房、薪酬、社保、医保、公积金等政策，要按照老人老办法、新人新办法的原则要求，进一步细化实化政策措施，确保疏解单位和人员享受到实实在在的好处。要坚持市场机制和政府引导相结合，项目和政策两手抓，通过市场化、法治化手段，增强非首都功能向外疏解的内生动力。', '习近平强调，要全面落实创新驱动发展战略，推动各领域改革开放前沿政策措施和具有前瞻性的创新试点示范项目在雄安落地，努力建设新功能、形成新形象、发展新产业、聚集新人才、构建新机制，使雄安新区成为新时代的创新高地和创业热土。要打造市场化、法治化、国际化一流营商环境，研究出台一揽子特殊支持政策，广泛吸引、聚集国内外力量和资本参与雄安新区建设和发展，形成人心向往、要素汇聚、合力共建、共同发展的生动局面。要广泛运用先进科学技术，着力加强科技创新能力建设，加大科技成果转化力度，积极发展新业态、新模式，培育新增长点、形成新动能，把智能、绿色、创新打造成为雄安新区的亮丽名片。要贯彻绿水青山就是金山银山的理念，坚持绿色化、低碳化发展，把雄安新区建设成为绿色发展城市典范。', '习近平指出，要优化健全雄安新区领导体制和管理机制，分阶段、分步骤、稳妥有序推动新区向城市管理体制转变。要加强新区各级领导班子和干部队伍建设，提高干部人才队伍整体素质和专业化水平。要完善新区干部考核评价机制，激励广大党员干部敢担当、勇创新、善作为。', '习近平强调，要坚持人民城市人民建、人民城市为人民，解决好雄安新区干部群众关心的切身利益问题，让人民群众从新区建设发展中感受到实实在在的获得感、幸福感。要坚持就业优先，完善就业创业引导政策，加强对新区劳动力的再就业培训。要推进城乡统筹发展，在缩小城乡差距、推动城乡融合发展、促进全体人民共同富裕上闯出一条新路来。', '习近平指出，雄安新区党工委及各级党组织要认真开展主题教育，并以此为契机，加强调查研究，推动思想大解放、能力大提升、作风大转变、工作大落实，进一步提升政治功能和组织功能。要持续纠治“四风”，一体推进不敢腐、不能腐、不想腐，以“廉洁雄安”保障“雄安质量”。', '李强在讲话中表示，高标准高质量推进雄安新区建设，最根本最关键的是要把习近平总书记重要指示和党中央决策部署学习领会好、贯彻落实好。要有“千年大计”的定力，牢牢把握雄安新区的功能定位和使命任务，稳扎稳打、久久为功。要有“只争朝夕”的干劲，把已明确的、必须做的事紧紧抓在手上，不等不拖、紧张快干，加快承接北京非首都功能疏解，扎实推进基础设施建设，着力构建现代化产业体系，充分发挥各方面积极性，推动各项工作不断取得新进展。', '丁薛祥表示，要深入学习贯彻习近平总书记重要讲话精神，把科技创新作为雄安新区高质量建设和发展的根本，着力打造自主创新和原始创新重要策源地，搭建一流创新平台，开展高水平科技创新；着力推动创新链产业链深度融合，围绕产业链部署创新链，加大科技成果转化力度，促进高新技术产业发展；着力建设京津冀协同创新共同体，创新利益分享模式，吸纳和集聚更多创新要素资源参与推动雄安新区高质量发展。', '李干杰、何立峰等陪同考察并出席座谈会，吴政隆、穆虹、姜信治及中央和国家机关有关部门、军队有关单位、河北省、雄安新区、有关企业负责同志参加座谈会。', '新华社客户端提供的所有原创内容与设计均受相关法律保护，为新华社客户端及/或相关权利人专属所有或持有。未经许可或明确书面授权，任何人不得复制、转载、摘编、修改、链接新华社客户端内容，违反上述声明者，我们将依法追究其相关法律责任。', '新华社全民拍欢迎广大网民爆料，爆料内容请严格遵守国家法律法规，我们将根据审核制度，及时调查追踪。']</t>
         </is>
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A162" t="n">
+        <v>23</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
           <t>中国政府网习近平在河北雄安新区考察并主持召开高标准高质量推进雄安新区建设座谈会</t>
         </is>
       </c>
-      <c r="D162" t="inlineStr">
+      <c r="E162" t="inlineStr">
         <is>
           <t>2023-05-11</t>
         </is>
       </c>
-      <c r="E162" t="inlineStr">
+      <c r="F162" t="inlineStr">
         <is>
           <t>http://www.gov.cn/yaowen/2023-05/10/content_5754808.htm</t>
         </is>
       </c>
-      <c r="F162" t="inlineStr">
+      <c r="G162" t="inlineStr">
         <is>
           <t>['习近平在河北雄安新区考察并主持召开高标准高质量推进雄安新区建设座谈会__中国政府网', '习近平在河北雄安新区考察并主持召开高标准高质量推进雄安新区建设座谈会时强调 坚定信心保持定力 稳扎稳打善作善成 推动雄安新区建设不断取得新进展 李强蔡奇丁薛祥陪同考察并出席座谈会', '5月10日，中共中央总书记、国家主席、中央军委主席习近平在河北省雄安新区考察，并主持召开高标准高质量推进雄安新区建设座谈会。这是10日下午，习近平主持召开高标准高质量推进雄安新区建设座谈会并发表重要讲话。新华社记者 燕雁 摄', '新华社河北雄安新区5月10日电 中共中央总书记、国家主席、中央军委主席习近平10日在河北省雄安新区考察，主持召开高标准高质量推进雄安新区建设座谈会并发表重要讲话。他强调，雄安新区已进入大规模建设与承接北京非首都功能疏解并重阶段，工作重心已转向高质量建设、高水平管理、高质量疏解发展并举。要坚定信心，保持定力，稳扎稳打，善作善成，推动各项工作不断取得新进展。', '中共中央政治局常委、国务院总理李强，中共中央政治局常委、中央办公厅主任蔡奇，中共中央政治局常委、国务院副总理丁薛祥陪同考察并出席座谈会。', '5月10日，习近平在河北省委书记倪岳峰、省长王正谱陪同下，深入雄安新区的高铁站、社区、建设工地等，就高标准高质量推进雄安新区建设进行调研。', '5月10日，中共中央总书记、国家主席、中央军委主席习近平在河北省雄安新区考察，并主持召开高标准高质量推进雄安新区建设座谈会。这是10日上午，习近平在雄安站候车大厅同旅客亲切交流。 新华社记者 申宏 摄', '5月10日，中共中央总书记、国家主席、中央军委主席习近平在河北省雄安新区考察，并主持召开高标准高质量推进雄安新区建设座谈会。这是10日上午，习近平在雄安站考察。新华社记者 李学仁 摄', '当天上午，习近平乘高铁前往雄安新区，抵达后首先考察了雄安站的建设运行情况。雄安站是雄安新区开工建设的第一个重大基础设施项目，具有标志性意义。习近平先后察看站台、候车大厅、站外广场，了解雄安站建设运营和所在的昝岗片区规划建设情况。习近平指出，雄安站是雄安新区的交汇车站，要进一步完善联通雄安站和雄安新区的交通“微细血管”，提升人流物流聚集和疏散的效率。要把昝岗片区建设成为高端高新产业集聚区，让各方来客一到雄安，就能感受到雄安新区扑面而来的现代化新气象。', '5月10日，中共中央总书记、国家主席、中央军委主席习近平在河北省雄安新区考察，并主持召开高标准高质量推进雄安新区建设座谈会。这是10日上午，习近平在容东片区南文营社区党群服务中心考察。新华社记者 李学仁 摄', '习近平随后乘车来到容东片区南文营社区。该社区安置了安新、容城两县回迁群众5000多人。习近平先后来到党群服务中心和社区食堂，同社区工作人员、现场办事群众、就餐的社区老人等亲切交流，仔细查看民情台账，对社区开展的便民养老服务等表示肯定。习近平强调，我一直牵挂着回迁群众，看到大家生活好，我很欣慰。建设好雄安新区，重要的是衔接好安居和乐业，让群众住得稳、过得安、有奔头。要同步推进城市治理现代化，从一开始就下好“绣花”功夫，积极推进基本公共服务均等化，构筑新时代宜业宜居的“人民之城”。', '5月10日，中共中央总书记、国家主席、中央军委主席习近平在河北省雄安新区考察，并主持召开高标准高质量推进雄安新区建设座谈会。这是10日上午，习近平在容东片区南文营社区食堂同就餐的社区老人亲切交流。 新华社记者 李学仁 摄', '习近平走进回迁居民李敬和家中看望。李敬和告诉总书记，2021年11月迁入新居，房子宽敞明亮，住得十分舒心，日子越过越红火。习近平强调，建设雄安新区是党中央作出的重大战略决策，大家响应国家号召，积极配合，为国家战略实施作出了贡献。他勉励年轻一代在强国建设、民族复兴的进程中，坚定信心，学好本领，造福桑梓，做社会主义事业的建设者和接班人。', '5月10日，中共中央总书记、国家主席、中央军委主席习近平在河北省雄安新区考察，并主持召开高标准高质量推进雄安新区建设座谈会。这是10日上午，习近平在容东片区南文营社区回迁居民李敬和家中看望。新华社记者 李学仁 摄', '临别时，居民们高声欢呼“总书记好”，习近平向大家挥手致意。他深情地对大家说，河北是我工作过的地方，我对这里充满感情，把这里建设好是我的心愿。建设雄安新区是千年大计、国家大事，既不能心浮气躁，也不能等靠要，要踏实努力，久久为功。', '5月10日，中共中央总书记、国家主席、中央军委主席习近平在河北省雄安新区考察，并主持召开高标准高质量推进雄安新区建设座谈会。这是10日上午，习近平在容东片区南文营社区考察时向社区居民挥手致意。新华社记者 殷博古 摄', '雄安城际站枢纽位于雄安新区启动区的核心位置。习近平来到雄安城际站及国贸中心项目建设现场，看沙盘、登平台，远眺建设工地，了解启动区重大基础设施项目及重点疏解项目规划建设进展情况。习近平指出，交通是现代城市的血脉。血脉畅通，城市才能健康发展。要在建设立体化综合交通网络上下功夫，在充分利用地下空间上下功夫，着力打造一个没有“城市病”的未来之城，真正把高标准的城市规划蓝图变为高质量的城市发展现实画卷。', '5月10日，中共中央总书记、国家主席、中央军委主席习近平在河北省雄安新区考察，并主持召开高标准高质量推进雄安新区建设座谈会。这是10日上午，习近平在雄安城际站及国贸中心项目建设现场考察。新华社记者 燕雁 摄', '下午，习近平来到雄安会展中心雄安厅，结合沙盘、视频短片，听取雄安新区整体规划建设进展介绍，了解白洋淀生态环境治理和保护及清淤疏浚、百淀连通等工作进展情况。习近平强调，白洋淀生态环境治理和保护，功在当代、利在千秋，必须统筹谋划，扎实推进。', '随后，习近平在会展中心三层多功能厅主持召开高标准高质量推进雄安新区建设座谈会。国家发展改革委主任郑栅洁、河北省委书记倪岳峰、雄安新区党工委书记张国华先后发言。中国卫星网络集团有限公司、中国建筑集团有限公司主要负责同志提交了书面发言。', '听取大家发言后，习近平发表了重要讲话。他强调，在党中央坚强领导下，在中央有关部门和北京、天津等地大力支持下，河北省积极履行主体责任，雄安新区党工委和管委会认真履行属地责任，扎实推动各项工作，雄安新区建设取得重大阶段性成果，新区建设和发展顶层设计基本完成，基础设施建设取得重大进展，疏解北京非首都功能初见成效，白洋淀生态环境治理成效明显，深化改革开放取得积极进展，产业和创新要素聚集的条件逐步完善，回迁安置工作有序推进。短短6年里，雄安新区从无到有、从蓝图到实景，一座高水平现代化城市正在拔地而起，堪称奇迹。这些成绩是在世界百年未有之大变局、3年新冠疫情的严峻形势下取得的，殊为不易。实践证明，党中央关于建设雄安新区的重大决策是完全正确的，各方面工作是扎实有效的。', '5月10日，中共中央总书记、国家主席、中央军委主席习近平在河北省雄安新区考察，并主持召开高标准高质量推进雄安新区建设座谈会。这是10日下午，习近平主持召开高标准高质量推进雄安新区建设座谈会并发表重要讲话。新华社记者 殷博古 摄', '习近平强调，要完整、准确、全面贯彻落实党中央关于建设雄安新区的战略部署，深刻领悟党中央决策的重大现实意义和深远历史意义，牢牢把握党中央关于雄安新区的功能定位、使命任务和原则要求，提高政治站位，保持历史耐心，处理好近期目标和中远期目标、城市建设速度和人口聚集规模、产业转移和产业升级、政府和市场、承接北京非首都功能疏解和城市自身发展、城市建设和周边乡村振兴等重大关系，确保雄安新区建设和发展的正确方向。', '习近平指出，要扎实推动疏解北京非首都功能各项任务落实，接续谋划第二批启动疏解的在京央企总部及二、三级子公司或创新业务板块等，着手谋划金融机构、科研院所、事业单位的疏解转移。要继续完善疏解激励约束政策体系。对有关疏解人员的子女教育、医疗、住房、薪酬、社保、医保、公积金等政策，要按照老人老办法、新人新办法的原则要求，进一步细化实化政策措施，确保疏解单位和人员享受到实实在在的好处。要坚持市场机制和政府引导相结合，项目和政策两手抓，通过市场化、法治化手段，增强非首都功能向外疏解的内生动力。', '习近平强调，要全面落实创新驱动发展战略，推动各领域改革开放前沿政策措施和具有前瞻性的创新试点示范项目在雄安落地，努力建设新功能、形成新形象、发展新产业、聚集新人才、构建新机制，使雄安新区成为新时代的创新高地和创业热土。要打造市场化、法治化、国际化一流营商环境，研究出台一揽子特殊支持政策，广泛吸引、聚集国内外力量和资本参与雄安新区建设和发展，形成人心向往、要素汇聚、合力共建、共同发展的生动局面。要广泛运用先进科学技术，着力加强科技创新能力建设，加大科技成果转化力度，积极发展新业态、新模式，培育新增长点、形成新动能，把智能、绿色、创新打造成为雄安新区的亮丽名片。要贯彻绿水青山就是金山银山的理念，坚持绿色化、低碳化发展，把雄安新区建设成为绿色发展城市典范。', '习近平指出，要优化健全雄安新区领导体制和管理机制，分阶段、分步骤、稳妥有序推动新区向城市管理体制转变。要加强新区各级领导班子和干部队伍建设，提高干部人才队伍整体素质和专业化水平。要完善新区干部考核评价机制，激励广大党员干部敢担当、勇创新、善作为。', '习近平强调，要坚持人民城市人民建、人民城市为人民，解决好雄安新区干部群众关心的切身利益问题，让人民群众从新区建设发展中感受到实实在在的获得感、幸福感。要坚持就业优先，完善就业创业引导政策，加强对新区劳动力的再就业培训。要推进城乡统筹发展，在缩小城乡差距、推动城乡融合发展、促进全体人民共同富裕上闯出一条新路来。', '习近平指出，雄安新区党工委及各级党组织要认真开展主题教育，并以此为契机，加强调查研究，推动思想大解放、能力大提升、作风大转变、工作大落实，进一步提升政治功能和组织功能。要持续纠治“四风”，一体推进不敢腐、不能腐、不想腐，以“廉洁雄安”保障“雄安质量”。', '李强在讲话中表示，高标准高质量推进雄安新区建设，最根本最关键的是要把习近平总书记重要指示和党中央决策部署学习领会好、贯彻落实好。要有“千年大计”的定力，牢牢把握雄安新区的功能定位和使命任务，稳扎稳打、久久为功。要有“只争朝夕”的干劲，把已明确的、必须做的事紧紧抓在手上，不等不拖、紧张快干，加快承接北京非首都功能疏解，扎实推进基础设施建设，着力构建现代化产业体系，充分发挥各方面积极性，推动各项工作不断取得新进展。', '丁薛祥表示，要深入学习贯彻习近平总书记重要讲话精神，把科技创新作为雄安新区高质量建设和发展的根本，着力打造自主创新和原始创新重要策源地，搭建一流创新平台，开展高水平科技创新；着力推动创新链产业链深度融合，围绕产业链部署创新链，加大科技成果转化力度，促进高新技术产业发展；着力建设京津冀协同创新共同体，创新利益分享模式，吸纳和集聚更多创新要素资源参与推动雄安新区高质量发展。', '李干杰、何立峰等陪同考察并出席座谈会，吴政隆、穆虹、姜信治及中央和国家机关有关部门、军队有关单位、河北省、雄安新区、有关企业负责同志参加座谈会。', '中共中央总书记、国家主席、中央军委主席习近平10日在河北省雄安新区考察，主持召开高标准高质量推进雄安新区建设座谈会并发表重要讲话。他强调，雄安新区已进入大规模建设与承接北京非首都功能疏解并重阶段，工作重心已转向高质量建设、高水平管理、高质量疏解发展并举。要坚定信心，保持定力，稳扎稳打，善作善成，推动各项工作不断取得新进展。']</t>
         </is>
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A163" t="n">
+        <v>23</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
           <t>张振荣张海荣带队赴翼城县考察学习</t>
         </is>
       </c>
-      <c r="D163" t="inlineStr">
+      <c r="E163" t="inlineStr">
         <is>
           <t>2023-03-03</t>
         </is>
       </c>
-      <c r="E163" t="inlineStr">
+      <c r="F163" t="inlineStr">
         <is>
           <t>https://mp.weixin.qq.com/s/4KioXOO95lrwoaD4_7yaTQ</t>
         </is>
       </c>
-      <c r="F163" t="inlineStr">
+      <c r="G163" t="inlineStr">
         <is>
           <t>['为积极探索农业生产托管新模式，发展壮大农村集体经济，拓宽农民增收途径。3月1日，县委副书记张振荣、副县长张海荣带队赴翼城县，考察学习村集体经营技术托管服务工作。', '在南北庙村，张振荣、张海荣一行实地观摩了托管农田基本情况。在新翔丰农业科技公司，通过观看主题宣传片，听取相关负责人介绍等方式，全方位、多层次了解村集体经营技术托管服务工作的发展历程、取得成效、创新发展的具体做法，并就发展特色产业，壮大集体经济实力工作进行深入交流学习。', '张振荣表示，通过此次现场交流学习，大家真切感受到了村集体经济的发展给农村带来的一系列变化，为全面发展壮大农村集体经济，增强基层组织服务群众能力水平提供了新动力，增加了新活力。下一步，襄汾将认真学习翼城县在农业生产托管方面取得的好经验、好做法，结合襄汾本地实际，进一步提升托管规模水平、抓好服务主体培育，探索具有襄汾特色的农业生产托管模式，为农村集体经济壮大提质，推动乡村振兴发挥应有的作用。']</t>
         </is>
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A164" t="n">
+        <v>23</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
           <t>考察学习开思路结对交流促发展临汾经济开发区赴武汉考察学习交流纪实</t>
         </is>
       </c>
-      <c r="D164" t="inlineStr">
+      <c r="E164" t="inlineStr">
         <is>
           <t>2023-03-03</t>
         </is>
       </c>
-      <c r="E164" t="inlineStr">
+      <c r="F164" t="inlineStr">
         <is>
           <t>https://mp.weixin.qq.com/s/xjmyURgX-0AZ98WwyspnqQ</t>
         </is>
       </c>
-      <c r="F164" t="inlineStr">
+      <c r="G164" t="inlineStr">
         <is>
           <t>['3月2日至3日，党工委委员侯剑虹，党工委委员、组织和人力资源部部长高鹏飞带领相关部门工作人员赴中南财经政法大学、中国武汉人力资源服务产业园，武汉临空港人力资源服务产业园、人力资源市场、湖北晋商商会考察学习交流。', '在中南财经政法大学工商管理学院，考察组一行与湖北省人力资源学会人才培养专业委员会会长、中南财经政法大学人力资源管理系主任、博士生导师赵琛徽，中南财经政法大学财税学院解洪涛教授，湖北省人力资源学会人才培养专委会副会长郭晓博、常务理事易晓芳、常务理事关升红和武汉文泉智谷科技有限公司总经理胡雪琴进行了交流座谈。双方围绕临汾经济开发区“五大百亿级”产业园建设、人才链壮大产业链、园区人才人力资源顶层设计、系统培训、资源整合等方面进行了深入交流、探讨，赵教授还特别介绍了浙江长兴智汇联盟TGM人才计划和安徽铜陵经济开发区人力资源管理项目，为进一步深入区校合作打下了良好的基础。会后，李雪代表人才人力资源公司向赵琛徽授予“人才引育顾问”聘书，并真诚邀请各位专家参与到开发区人才建设事业中来，改善开发区人力资源环境，为开发区引进更多高端人才。', '赵琛徽是北京大学光华管理学院管理学博士，人力资源管理国家级一流专业建设负责人和湖北省战略性新兴（支柱）产业人才培养计划人力资源管理专业负责人。近年来在权威学术期刊上发表论文', '次、政策咨询成果获得过国家、省市领导人的亲自颁奖与重要批示，获评湖北发展研究奖二、三等奖各', '2日上午，在中国武汉人力资源服务产业园，考察组一行与产业园负责人夏德龙博士以及运营方武汉博尔捷商业运营管理有限公司主要负责人进行了交流座谈，重点对园区建设及运营模式、人才引进、入园配套服务及相关政策等内容进行了交流，随后参观了园区人才服务窗口、功能室设置以及部分入园企业。', '中国武汉人力资源服务产业园由武汉人力资源和社会保障局、武汉市江汉区人民政府共同创建，是湖北首家国家级人力资源服务产业园，是第一批人力资源服务领域特色服务出口基地，产业园企业每年总营收可达150亿元，税收超2亿元。', '2日下午，考察组先后考察武汉临空港人力资源服务产业园、武汉临空港人力资源市场。考察组观摩学习了人力资源市场的服务功能和信息化建设，对产业园党建文化墙、多媒体演播厅、众创空间、交流活动中心等地进行了实地考察，并深入园区多个企业了解入驻情况、奖励政策、人才服务等方面内容。', '武汉临空港人力资源市场位于武汉市三大国家级开发区之一临空港开发区（东西湖区）五环时尚广场5号楼1至3层，总面积4396㎡，是华中地区最大、最智能的人力资源服务平台之一。', '3月3日在湖北晋商商会，考察组与湖北晋商商会秘书长刘伟，常务副会长卫永飞、副会长何鑫、陈新民，执行秘书长王群明，理事贺军军等交流座谈，重点推介了临汾经济开发区“五个百亿级”产业园区、招引方向与未来布局，希望双方能够进一步加深沟通了解，早日实现合作。', '通过此次考察学习，临汾经济开发区进一步了解了人才产业园建设的先进经验、拓宽了双招双引“朋友圈”。临汾经济开发区将以此次考察为契机，加强上下联动、完善服务体系、优化政策保障，高标准建设区人才服务产业园，为早日挺进国家级开发区方阵提供有力人才人力资源保障。']</t>
         </is>
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A165" t="n">
+        <v>23</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
           <t>东北一定能够重振雄风再创佳绩习近平总书记赴黑龙江考察并主持召开新时代推动东北全面振兴座谈会纪实</t>
         </is>
       </c>
-      <c r="D165" t="inlineStr">
+      <c r="E165" t="inlineStr">
         <is>
           <t>2023-09-10</t>
         </is>
       </c>
-      <c r="E165" t="inlineStr">
+      <c r="F165" t="inlineStr">
         <is>
           <t>https://www.gov.cn/yaowen/liebiao/202309/content_6903135.htm</t>
         </is>
       </c>
-      <c r="F165" t="inlineStr">
+      <c r="G165" t="inlineStr">
         <is>
           <t>['新华社哈尔滨9月9日电 题：“东北一定能够重振雄风、再创佳绩”——习近平总书记赴黑龙江考察并主持召开新时代推动东北全面振兴座谈会纪实', '在东北振兴战略实施20周年之际，习近平总书记再到东北。20年来，东北从转型发展的阵痛中逐渐走出，一步步迈入全面振兴蓄势待发的新阶段。', '9月6日至8日，习近平总书记赴黑龙江考察，这也是党的十八大以来他第10次踏上东北大地。', '“点”，落子黑龙江。在我国纬度最高的边境城市漠河，看林、看水、看村子，处处是绿水青山的新时代故事；在古老又青春的哈尔滨，下乡察灾情，进校观科技。总书记挂念着乡亲们的安危冷暖，也思考着攸关长远的战略安全。', '新时代、全面振兴，这些关键词所呼应的，是党的二十大报告提出的“推动东北全面振兴取得新突破”；所擘画的，是中国式现代化新征程上波澜壮阔的东北实践。', '缺油少气之时，承载着为共和国输送动能的使命；缺衣少粮之时，承载着给大江南北供给粮食的使命……', '习近平总书记在这次座谈会的讲话中，明确指出：“牢牢把握东北在维护国家‘五大安全’中的重要使命”。', '“五大安全”，早在5年前深入推进东北振兴座谈会上，总书记已清晰标注：“维护国家国防安全、粮食安全、生态安全、能源安全、产业安全”。', '东北值得这份嘱托。白山黑水的地理方位、历史积淀、资源优势、产业基础、发展潜能，无不让“五大安全”在东北落地拥有更厚实的底气。', '关于东北的优势，总书记在这次座谈会上以四句话勾勒：“东北资源条件较好，产业基础比较雄厚，区位优势独特，发展潜力巨大。”', '解放思想、转变思路、扬长避短，成绩单有目共睹。就拿粮食安全来说，这次座谈会上，几位发言的同志都提到了粮。', '黑龙江2022年粮食总产量占全国1/9，总产量、商品量、调出量、储备量均居全国第一；', '细数“东北三省及内蒙古在推动东北振兴方面取得新进展新成效”，总书记第一条就讲到了粮食：“国家粮食安全‘压舱石’作用进一步夯实，粮食产量占全国1/4，商品粮占全国1/3，调出量占全国40%。”', '黑龙江的耕种收机械化率是全国首位。总书记这次考察在省委和省政府工作汇报会上谈到现代化大农业，勉励他们“加快建设现代农业大基地、大企业、大产业”。', '再拿生态安全来说。“人与自然和谐共生的现代化”，于东北而言，带来的是可持续发展和更美好未来。', '漠河地处大兴安岭山脉北麓，如同一颗明珠镶嵌在中国这只“雄鸡”的冠顶。宽阔的黑龙江如一条玉带为城镶边。总书记走进一片原始森林。仰望，樟子松、落叶松直插云霄；俯瞰，林间迎风怒放的有杜鹃、绣线菊、蔓越莓。红的果、绿的叶。', '崇山峻岭，层峦叠翠。红豆、蓝莓、山核桃、偃松塔、黑木耳、毛尖蘑、刺五加……果、菌、药、菜等山珍琳琅满目。“都是宝啊，地上地下都是宝。”总书记有感而发，“森林是集水库、粮库、钱库、碳库于一身的大宝库。”“增绿就是增优势、护林就是护财富。”', '安不忘危。总书记叮嘱要坚持不懈做好防火工作。“要坚持造林与护林并重，做到未雨绸缪、防患于未然。”他生动地说：“应该说是未‘火’绸缪。”', '“绿水青山就是金山银山、冰天雪地也是金山银山”，在漠河有着鲜活的诠释。村民史瑞娟家的民宿小院有8间房，游客络绎不绝，今年到现在就已经赚了近20万元。', '“要始终把人民安居乐业、安危冷暖放在心上”。灾区的那些人、那些事，习近平总书记时时放心不下。', '这次考察，总书记惦念着到灾情严重的村子看一看。前段时间，黑龙江的极端降雨，一直牵动着他的心。', '先看田，再入户。观村容村貌，更察乡亲们的急难愁盼。那些倒伏的稻、冲毁的屋，无声诉说着这里经历过的惊心动魄。', '省委和省政府工作汇报会上，总书记指出：“灾区下一步的考验就是温暖过冬，要尽快恢复灾区正常生产生活秩序。”', '“切实抓好灾后恢复重建各项工作，确保受灾群众温暖过冬，确保灾区学生有学上，尽快恢复灾区正常生产生活秩序。”', '“些小吾曹州县吏，一枝一叶总关情。”总书记多次引用：“我们共产党人对人民群众的疾苦更要有这样的情怀。”', '“更加关注补齐民生领域短板，让人民群众共享东北振兴成果”。回望一次次东北之行，从延边的海兰江畔，到伊春的林场；从抚顺的采煤沉陷区，到赤峰马鞍山村的“多民族之家”……习近平总书记牵挂着老百姓的日子过得好不好。', '史瑞娟，这个梦想着将民宿小院打造成连锁店的漠河姑娘；杨春贵，这个憧憬着明年的田地一定能有好收成的受灾汉子……他们都是东北振兴伟大事业中的普通一员，也是黑土地上涌现出的拼搏者、创业者、奉献者。', '上次召开深入推进东北振兴座谈会，习近平总书记讲起东北这块土地上诞生的精神。大庆精神（铁人精神）、北大荒精神……再向时间长河深处追溯，东北抗联精神里，有抗日英雄杨靖宇、赵一曼，也有在战斗中流尽最后一滴血的烈士们……百年征程，一代又一代人接续前行、不懈求索。', '适逢第一批、第二批主题教育衔接联动之际，习近平总书记在哈尔滨召开的两个会议上都对抓好主题教育提出了要求。', '要深化理论学习，总书记讲得透彻：“理论学习是坚定理想信念的根本途径。党员、干部无论是政治上犯错误，还是经济上搞腐败，根子上都是理想信念出了问题。我们党除了最广大人民的根本利益，没有自己的特殊利益，党的根本宗旨是全心全意为人民服务。”', '两场座谈会对照，厚望一以贯之，举措接续有力。从“深入推进”到“新时代推动”，从“东北振兴”到“东北全面振兴”，会议主题的这些措辞变化，也昭示着新形势、新机遇和由之而来的新思路、新举措。', '这次座谈会上，习近平总书记强调：“努力走出一条高质量发展、可持续振兴的新路子，奋力谱写东北全面振兴新篇章。”', '过去，东北的辉煌依托的也是新中国建设的时代机遇。“一五”计划，我国工业建设的指导思想是“完善一个，铺开大网”。一个，就是东北。', '第一批解放牌载重汽车、第一架喷气式飞机、第一艘万吨巨轮、第一辆内燃机车、第一块“的确良”……东北地区成为新中国工业的摇篮。', '再之后，改革开放大潮奔涌、东南沿海百舸争流，东北的脚步慢了，长期积累的体制性、结构性矛盾日渐显现。', '党的十八大以来，总书记在持续思考中谋划着东北的振兴发展，以“加减乘除”生动破题。在深入推进东北振兴座谈会上，瞄准重点领域，抓住关键环节。一盘大棋，落棋弈子。', '这一次座谈会上，五条要求部署高屋建瓴，既围绕新机遇，也针对老问题；既有传承，更有开创。', '条条都有的放矢，针对的都是短板弱项。比如“人口”这一条。人口、人才流失，一度是东北之痛，也是总书记的关切。东三省出了些实招，比如辽宁，深入实施“兴辽英才计划”，2022年“带土移植”高水平人才团队238个。比如吉林，高级职称人才从净流出转向净流入，高端人才连续两年实现进大于出。比如黑龙江，去年出台人才政策60条，一年来引进海内外高端人才数量为前6年总和的5.8倍。', '哈尔滨工程大学，红色的沃土，人才的摇篮。七十载春华秋实，“永不褪色的国家队”正青春。7日，习近平总书记来到这里，走进一段筚路蓝缕的历史，走近一群踌躇满志的师生。总书记寄语：“年轻一代成为奋力拼搏、振兴中华的一代，实现第二个百年奋斗目标就充满希望。青年学子要树牢科技报国志，刻苦学习钻研，勇攀科学高峰，在推进强国建设、民族复兴伟业中绽放青春光彩。”', '这次座谈会上，几位发言的同志都讲到了“老字号”“原字号”“新字号”三篇大文章的进展成效。三种“字号”，是总书记谋划东北现代化产业体系建设时的几个关注点。', '各地都亮出了进度表：辽宁，先进装备制造等三个万亿级产业基地和航空装备、机器人等22个重点产业集群加快建设；吉林，科研物质条件指数提升到全国第5位，科技促进经济社会发展指数提升至全国第11位；黑龙江，“新字号”高新技术企业比2012年增长5.5倍……重型装备、载人航天、深海探测、国防军工，上天入海。', '一批国之重器，一批破解“卡脖子”技术的创新成果，诞生于白山黑水间。松花江畔、辽河之滨、蒙东草原……主动对接国家战略需求，筑牢实体经济，深耕科技创新，攻坚产业升级，新动能集聚成势。', '党中央对东北寄予厚望。习近平总书记坚定地说：“相信在强国建设、民族复兴新征程中，东北一定能够重振雄风、再创佳绩！”']</t>
         </is>
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A166" t="n">
+        <v>23</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
           <t>奋力开创高质量发展新局面习近平总书记在黑龙江考察时的重要讲话激励广大干部群众勇毅前行</t>
         </is>
       </c>
-      <c r="D166" t="inlineStr">
+      <c r="E166" t="inlineStr">
         <is>
           <t>2023-09-09</t>
         </is>
       </c>
-      <c r="E166" t="inlineStr">
+      <c r="F166" t="inlineStr">
         <is>
           <t>https://www.gov.cn/yaowen/liebiao/202309/content_6903046.htm</t>
         </is>
       </c>
-      <c r="F166" t="inlineStr">
+      <c r="G166" t="inlineStr">
         <is>
           <t>['奋力开创高质量发展新局面——习近平总书记在黑龙江考察时的重要讲话激励广大干部群众勇毅前行__中国政府网', '奋力开创高质量发展新局面——习近平总书记在黑龙江考察时的重要讲话激励广大干部群众勇毅前行', '新华社北京9月8日电 题：奋力开创高质量发展新局面——习近平总书记在黑龙江考察时的重要讲话激励广大干部群众勇毅前行', '题：奋力开创高质量发展新局面——习近平总书记在黑龙江考察时的重要讲话激励广大干部群众勇毅前行', '9月6日至8日，习近平总书记在黑龙江考察时发表重要讲话，既对黑龙江在全面振兴、全方位振兴中开创高质量发展新局面提出明确定位要求、作出决策部署，也为各地各行各业推动高质量发展定向领航。', '大家表示，今年是全面贯彻党的二十大精神开局之年，要在习近平新时代中国特色社会主义思想指引下，扭住推动高质量发展这个首要任务，全面贯彻新发展理念，加快构建新发展格局，奋力开创高质量发展新局面。', '“习近平总书记来我们村，走进我家，关心我们灾后的生活，和我们拉家常，感觉特别温暖。”回想起温暖的一幕，黑龙江省尚志市老街基乡龙王庙村村民杨春贵难掩激动。', '杨春贵说：“受灾后，政府工作人员几次来查看房屋受损情况，发了被褥、电饭锅和各种食物，我心里踏实多了。我们要坚定信心、战胜困难。我现在要抓紧把房子收拾好，尽自己的一份力，相信日子会逐渐好起来。”', '“总书记来到受洪涝灾害较重的老街基乡龙王庙村，在农田察看水稻受灾情况，对加快推进灾后重建作出重要指示，让我们更感到肩上沉甸甸的责任。”尚志市委书记刘海涛说，目前全市正在抢抓农田道路、灌渠等基础设施修复，确保受灾群众尽快恢复生产，确保农作物应收尽收、颗粒归仓。', '一分耕耘，一分收获。当前距离秋粮大面积收获还有20天左右，还要过秋旱、秋涝、病虫害等多个关口。', '“习近平总书记强调把发展农业科技放在更加突出的位置，这说到了我们农民的心坎里，给我们打了气、鼓了劲。”河北省邢台市南和区贾宋镇北杨庄村的种粮大户杨春杰说。', '今年杨春杰种了500亩玉米，受前期洪涝影响，有300多亩地势低洼地块过水，经过及时排水和追肥，并采取“一喷多促”技术措施，目前玉米已基本恢复正常生长。', '“下一步，我准备再喷施一遍杀菌剂和叶面肥，提高抗逆、抗病能力，延长籽粒灌浆时间。”杨春杰说，“有了政府支持和农业专家的靠前指导，大伙对今年丰收有信心。”', '粮食安全是“国之大者”。秋粮是全年粮食生产的大头。在秋粮产量形成的关键时期，各地各部门正全力以赴，确保实现全年粮食产量保持在1.3万亿斤以上的目标。', '在山东省齐河县30万亩粮食绿色优质高产高效（吨半粮）示范区，茂密的玉米植株一望无际。', '“习近平总书记强调统筹推进科技农业、绿色农业、质量农业、品牌农业，让我们倍感振奋。我们要坚决落实‘书记抓粮’、全域推动‘保地稳粮’、高效推进‘集约种粮’、创新赋能‘科技增粮’、突出抓好‘减损节粮’、聚力实施‘产业兴粮’。”齐河县委书记孙修炜说。', '黑龙江省漠河市北极村，地处中国最北端。近年来，当地依托地域特点大力发展旅游兴边富民，偏僻小村逐渐热闹起来，村民也实现从“因北而贫”到“因北而兴”的转变。', '“总书记和蔼可亲，和我们一家人坐在一起唠着家常，关心我们的民宿经营收入、孩子教育等情况。”同习近平总书记交流后，村里民宿经营者史瑞娟激动的心情久久难以平静。', '今年暑假期间，史瑞娟家经营的雪人木屋民宿几乎天天爆满。未来，她打算提升民宿硬件设施，扩大经营规模，让来这里的游客得到更优质的服务，依托旅游把日子过得越来越红火。', '现场聆听了习近平总书记的重要指示，漠河市副市长、北极镇党委书记文竹发展的信心更足了。“把发展冰雪经济作为新增长点，推动冰雪运动、冰雪文化、冰雪装备、冰雪旅游全产业链发展，总书记为我们指明了方向。”她说，一定牢记总书记嘱托，守护好森林、江河、湖泊、湿地、冰雪等原生态风貌，真正将生态优势转化成发展优势，带动老百姓受益。', '初秋的吉林省长春市马鞍山村，群山环绕，环境怡人。每到周末，很多市民驱车一个多小时来到这里，登山野餐、亲子度假。', '马鞍山村党总支书记赵世龙表示，马鞍山村曾是吉林省省级贫困村，村民靠开采矿石为生。近年来通过转变发展思路，依托山水资源和靠近省会长春的地理优势，带动农文旅产业发展，打造“城市后花园”。', '“如今绿水青山是我们村发展的金字招牌，不仅改变了村庄的生态环境，也带动了村集体收入增长。”赵世龙说，要按照总书记的要求，走好可持续发展道路。', '学习了习近平总书记关于积极发展边境旅游，更好地促进兴边富民、稳边固边的重要讲话后，云南省临沧市凤庆县安石村党总支书记、村委会主任陈维菊十分振奋。', '陈维菊说，这几年安石村挖掘提炼独特的茶文化，吸引游客体验观光，带动了乡村旅游蓬勃发展。今后要立足做好茶文章，把资源优势变成发展优势，持续带动老百姓增收致富。', '7日上午，习近平总书记在哈尔滨工程大学考察时强调，抓好教育、科技、人才工作，为建设教育强国、科技强国、人才强国再立新功。', '现场聆听习近平总书记的重要讲话，哈尔滨工程大学校长姚郁深感重任在肩。他说：“总书记的讲话是对我们的肯定，更是鞭策。”“哈工程”要落实总书记重要讲话精神，在科研和育人上面向未来，培养领军人才，持续做好科研成果转化和落地，支撑和引领高质量发展。', '做大做强实体经济是一个大国发展的战略考量。加快建设以实体经济为支撑的现代化产业体系，关键要靠创新。', '习近平总书记强调，要以科技创新引领产业全面振兴。中国吉林一汽解放商用车开发院整车开发首席工程师刘会神深有感触地说：“我国汽车产业稳健发展、新能源汽车突飞猛进，靠的就是创新。经过对上百个关键零部件研究验证、迭代创新，解放商用车寿命从80万公里提高到150万公里。下一步要加快研发升级、完善生态体系、加大新能源布局。”', '第一时间学习了习近平总书记的重要讲话，深圳汉诺医疗科技有限公司董事长刘洋对“整合科技创新资源，引领发展战略性新兴产业和未来产业”这句话印象深刻。刘洋说：“我们将牢记总书记嘱托，聚合产业链创新力量，持续加大核心材料和零部件研发。在产业优势领域精耕细作，实现自主可控，把重要医疗装备产业链主动权掌握在自己手中。”', '暮色四合，华灯初上。安徽省合肥市西郊聚变堆园区实验室内，中国科学院合肥物质科学研究院等离子体物理研究所副研究员徐玉平正带领团队进行关键材料研发攻关。', '“总书记提出加快形成新质生产力，对我们而言就是要加快关键领域核心技术的开发应用。”徐玉平说，作为一名从事材料技术研发的科研工作者，他将和团队加快关键材料的自主设计、制造，齐心协力攀登科技高峰，服务国家战略、支撑产业发展。', '8月30日，我国最北自贸区中国（黑龙江）自由贸易试验区迎来挂牌四周年。位于哈尔滨片区的黑龙江新经济产业园，已有200多家企业入驻，覆盖生物经济、数字经济、文化创意、现代金融等行业。', '“习近平总书记的重要讲话为我国向北开放指明方向，激发了我们进一步做好产业园区的信心力量。”负责产业园运营的黑龙江宏仁新科产业发展有限公司行政总监杨卓夫说，下一步，他们将进一步加强自贸试验区开放平台的创新发展，更好搭建贸易、投资的通道和平台，帮助更多中国制造企业从这里出发，开拓海外市场。', '长春兴隆铁路口岸国际陆港场站，集装箱整齐摆放，工作人员繁忙作业，一排排中国一汽生产的乘用车等待装箱。', '习近平总书记强调要“加快建设重要陆路通道、河海航道、能源管道等基础设施”，让长春国际陆港发展有限公司总经理戴伟更加明确了今后工作的方向和重点。', '“我们要以总书记重要讲话为指引，不断完善口岸建设、改善口岸服务，成为中外企业往来贸易的重要枢纽，不断提高东北老工业基地参与全球经济的程度。”戴伟说。', '内蒙古甘其毛都口岸位于中蒙边境巴彦淖尔市乌拉特中旗境内，是全国货运量最大的公路口岸。', '“我们将按照习近平总书记谋划的战略定位，找准发展的着力点和突破口，深谋实干、持续用力，优化完善开放平台布局，服务‘一带一路’高质量发展。”甘其毛都口岸管委会副主任贺其叶勒图说。', '第一批主题教育告一段落，第二批主题教育已经启动。在黑龙江考察中，习近平总书记对建立健全长效机制、巩固发展主题教育成果提出明确要求。', '学习领会总书记重要讲话精神，黑龙江省农业农村厅种植业管理处处长姜庆海表示，要以主题教育为契机，凝聚奋进力量，将主题教育成果融入到维护国家粮食安全的具体实践，在进一步为国家多种粮、种好粮的实践中再立新功。']</t>
         </is>
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A167" t="n">
+        <v>23</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
           <t>中国政府网习近平在黑龙江考察时强调牢牢把握在国家发展大局中的战略定位奋力开创黑龙江高质量发展新局面</t>
         </is>
       </c>
-      <c r="D167" t="inlineStr">
+      <c r="E167" t="inlineStr">
         <is>
           <t>2023-09-09</t>
         </is>
       </c>
-      <c r="E167" t="inlineStr">
+      <c r="F167" t="inlineStr">
         <is>
           <t>https://www.gov.cn/yaowen/liebiao/202309/content_6903032.htm</t>
         </is>
       </c>
-      <c r="F167" t="inlineStr">
+      <c r="G167" t="inlineStr">
         <is>
           <t>['习近平在黑龙江考察时强调：牢牢把握在国家发展大局中的战略定位 奋力开创黑龙江高质量发展新局面__中国政府网', '习近平在黑龙江考察时强调：牢牢把握在国家发展大局中的战略定位 奋力开创黑龙江高质量发展新局面', '习近平在黑龙江考察时强调 牢牢把握在国家发展大局中的战略定位 奋力开创黑龙江高质量发展新局面 蔡奇陪同考察', '新华社哈尔滨9月8日电 中共中央总书记、国家主席、中央军委主席习近平近日在黑龙江考察时强调，要牢牢把握在国家发展大局中的战略定位，扭住推动高质量发展这个首要任务，落实好党中央关于推动东北全面振兴的决策部署，扬长补短，把资源优势、生态优势、科研优势、产业优势、区位优势转化为发展新动能新优势，建好建强国家重要商品粮生产基地、重型装备生产制造基地、重要能源及原材料基地、北方生态安全屏障、向北开放新高地，在维护国家国防安全、粮食安全、生态安全、能源安全、产业安全中积极履职尽责，在全面振兴、全方位振兴中奋力开创黑龙江高质量发展新局面。', '9月6日至8日，习近平在黑龙江省委书记许勤和省长梁惠玲陪同下，来到大兴安岭、哈尔滨等地，深入林场、乡村、高校等进行调研，前往灾后恢复重建现场看望慰问受灾群众。', '9月6日至8日，中共中央总书记、国家主席、中央军委主席习近平在黑龙江考察。这是6日下午，习近平在大兴安岭地区漠河市漠河林场自然林区考察。新华社记者 殷博古 摄', '6日下午，习近平来到大兴安岭地区漠河市，考察漠河林场自然林区，察看自然林生长态势和林下作物展示，听取当地深化森林资源资产管理改革、推进生态产业化和产业生态化以及加强森林防火灭火情况介绍。习近平指出，要坚持造林与护林并重，做到未雨绸缪、防患于未然，决不能让几十年、几百年、上千年之功毁于一旦。', '9月6日至8日，中共中央总书记、国家主席、中央军委主席习近平在黑龙江考察。这是6日下午，习近平在大兴安岭地区漠河市北极村考察。新华社记者 殷博古 摄', '9月6日至8日，中共中央总书记、国家主席、中央军委主席习近平在黑龙江考察。这是6日下午，习近平在大兴安岭地区漠河市北极村，同村民史瑞娟一家亲切交谈。新华社记者 鞠鹏 摄', '随后，习近平乘车来到我国大陆最北端的边境临江村落北极村，仔细了解当地结合地域优势发展特色旅游、将生态优势转化成发展优势等情况。习近平强调，森林是集水库、粮库、钱库、碳库于一身的大宝库。要树立增绿就是增优势、护林就是护财富的理念，在保护的前提下让老百姓通过发展林下经济增加收入。在村民史瑞娟家的民宿小院，习近平向乡亲们了解当地发展乡村特色产业、助推兴边富民乡村振兴等情况。他指出，北极村的发展和群众的生活状况好，看了很高兴。发展旅游业是推动高质量发展的重要着力点。把大兴安岭森林护好，旅游业才有吸引力。这里的旅游资源得天独厚，地方党委和政府要提供政策支持，坚持林下经济和旅游业两业并举，让北国边塞风光、冰雪资源为乡亲们带来源源不断的收入。', '9月6日至8日，中共中央总书记、国家主席、中央军委主席习近平在黑龙江考察。这是6日下午，习近平在大兴安岭地区漠河市北极村考察时，同当地群众亲切交流。新华社记者 殷博古 摄', '9月6日至8日，中共中央总书记、国家主席、中央军委主席习近平在黑龙江考察。这是6日下午，习近平在大兴安岭地区漠河市北极村考察时，向当地群众挥手致意。新华社记者 鞠鹏 摄', '离开小院时，当地群众在道路两旁热情欢送总书记。习近平亲切地对大家说，北极村前景可期。希望广大干部、群众共同努力，把乡村建设得更好、把生态保护得更好、让人民生活得更好，共同奔向中国式现代化的美好未来。', '9月6日至8日，中共中央总书记、国家主席、中央军委主席习近平在黑龙江考察。这是7日上午，习近平在遭受洪涝灾害的哈尔滨尚志市老街基乡龙王庙村，察看水稻受灾情况。新华社记者 殷博古 摄', '9月6日至8日，中共中央总书记、国家主席、中央军委主席习近平在黑龙江考察。这是7日上午，习近平在遭受洪涝灾害的哈尔滨尚志市老街基乡龙王庙村，察看水稻受灾情况。新华社记者 谢环驰 摄', '习近平十分牵挂洪涝灾害地区灾后恢复重建工作和受灾群众的生活保障问题。7日上午，习近平乘车来到受灾较重的哈尔滨尚志市老街基乡龙王庙村，察看水稻受灾和水毁房屋重建情况。村民杨春贵家房屋在洪灾中进水浸泡，屋内设施受损、间墙开裂，正在修缮。习近平走进杨春贵家中，看到房屋修缮即将完毕、生产生活都有安排，感到很欣慰。习近平指出，我一直牵挂受灾群众，尚志市这次受灾较为严重，看到灾后恢复重建快速顺利，乡亲们生活有了着落、生产有了保障，心里很踏实。东北冬季来得早、时间长，要确保受灾群众安全温暖过冬，地方党委和政府要抓紧谋划，提前行动，把吃、喝、住、行、就业、教育、医疗防疫等事关群众生产生活的大小事情考虑得更细致、更周全一些，不留一丝纰漏。要抓紧修复受损房屋，加快推进灾后重建，最大程度减少农业因灾损失，确保受灾群众安心安全。', '9月6日至8日，中共中央总书记、国家主席、中央军委主席习近平在黑龙江考察。这是7日上午，习近平在遭受洪涝灾害的哈尔滨尚志市老街基乡龙王庙村，察看水毁房屋重建情况。新华社记者 殷博古 摄', '9月6日至8日，中共中央总书记、国家主席、中央军委主席习近平在黑龙江考察。这是7日上午，在遭受洪涝灾害的哈尔滨尚志市老街基乡龙王庙村，习近平走进村民杨春贵家中，察看受损房屋修缮情况。新华社记者 殷博古 摄', '看到总书记来了，当地村民和施工人员纷纷围拢过来，向总书记问好。习近平亲切地对大家说，党和政府十分关心灾区群众，始终同大家风雨同舟、携手同行，希望乡亲们在党组织领导下齐心协力、共克时艰，努力建设美好家园。', '9月6日至8日，中共中央总书记、国家主席、中央军委主席习近平在黑龙江考察。这是7日上午，习近平在遭受洪涝灾害的哈尔滨尚志市老街基乡龙王庙村，同当地村民和施工人员亲切交流。新华社记者 谢环驰 摄', '7日上午，习近平还来到哈尔滨工程大学，了解学校发展历程和为我国国防科技事业作出的贡献，察看教学科研成果展示。习近平强调，哈尔滨工程大学要发扬“哈军工”优良传统，紧贴强国强军需要，抓好教育、科技、人才工作，为建设教育强国、科技强国、人才强国再立新功。年轻一代成为奋力拼搏、振兴中华的一代，实现第二个百年奋斗目标就充满希望。青年学子要树牢科技报国志，刻苦学习钻研，勇攀科学高峰，在推进强国建设、民族复兴伟业中绽放青春光彩。再过几天就是教师节，向全校教师致以节日祝福，祝全国广大教师节日快乐。', '9月6日至8日，中共中央总书记、国家主席、中央军委主席习近平在黑龙江考察。这是7日上午，习近平在哈尔滨工程大学哈军工纪念馆考察。新华社记者 谢环驰 摄', '9月6日至8日，中共中央总书记、国家主席、中央军委主席习近平在黑龙江考察。这是7日上午，习近平在哈尔滨工程大学考察时，同师生代表亲切交流。新华社记者 谢环驰 摄', '8日上午，习近平听取了黑龙江省委和省政府工作汇报，对黑龙江各项工作取得的成绩给予肯定。', '习近平指出，要以科技创新引领产业全面振兴。要立足现有产业基础，扎实推进先进制造业高质量发展，加快推动传统制造业升级，发挥科技创新的增量器作用，全面提升三次产业，不断优化经济结构、调整产业结构。整合科技创新资源，引领发展战略性新兴产业和未来产业，加快形成新质生产力。提高国有企业核心竞争力，引领民营经济健康发展，打造一批产业集群，做大做强实体经济。把企业作为科技成果转化核心载体，提高科技成果落地转化率。主动对接全国产业链供应链，在优势产业和产业优势领域深耕细作，更好融入全国统一大市场，在联通国内国际双循环中发挥更大作用。坚持绿色发展，加强绿色发展技术创新，建立健全绿色低碳循环发展经济体系。', '习近平强调，黑龙江要当好国家粮食安全“压舱石”。要以发展现代化大农业为主攻方向，加快建设现代农业大基地、大企业、大产业，率先实现农业物质装备现代化、科技现代化、经营管理现代化、农业信息化、资源利用可持续化。强化数字技术和生物技术赋能，优先把黑土地建成高标准农田，切实把黑土地保护好。把发展农业科技放在更加突出的位置，统筹推进科技农业、绿色农业、质量农业、品牌农业，推进现代种业提升工程，配套推广先进适用科技和高端农机装备，发展农业循环经济。创新农业经营方式，发展规模化经营、社会化服务。打造食品和饲料产业集群，提高粮食生产综合效益。加快推进乡村振兴，让农村具备现代化生产生活条件。', '习近平指出，要大力发展特色文化旅游。把发展冰雪经济作为新增长点，推动冰雪运动、冰雪文化、冰雪装备、冰雪旅游全产业链发展。守护好森林、江河、湖泊、湿地、冰雪等原生态风貌，改善边境地区基础设施条件，积极发展边境旅游，更好地促进兴边富民、稳边固边。勇担新的文化使命，繁荣发展文化事业和文化产业，深入开展城乡精神文明建设，推进城乡公共文化服务体系一体建设，努力培育新风尚、展示新形象。', '习近平强调，要构筑我国向北开放新高地。更好统筹贸易、投资、通道和平台建设，在市场准入、要素流动、制度型开放等方面大胆探索、先行先试，形成全方位对外开放新格局。加快建设重要陆路通道、河海航道、能源管道等基础设施，完善面向东北亚开放的交通运输网络。要加强自贸试验区、综合保税区等开放平台创新发展，深度融入共建“一带一路”，积极参与区域合作。要切实做好重点领域风险防范化解工作，落实安全生产责任，坚决避免发生重特大安全生产事故。', '习近平指出，第一批主题教育已经告一段落，要抓好继续整改和建章立制工作，把主题教育探索的好经验好做法转化为长效机制。要建立健全理论学习、调查研究、推动高质量发展、密切联系群众、防止形式主义和官僚主义等长效机制，巩固发展主题教育成果。第二批主题教育已经启动，各地要坚持科学谋划、统筹安排、分类指导，确保取得实效。', '李干杰、何立峰及中央和国家机关有关部门负责同志陪同考察，主题教育中央第四巡回指导组负责同志参加汇报会。', '9月6日至8日，习近平来到大兴安岭、哈尔滨等地，深入林场、乡村、高校等进行调研，前往灾后恢复重建现场看望慰问受灾群众。']</t>
         </is>
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A168" t="n">
+        <v>23</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
           <t>习近平回信勉励安徽省潜山野寨中学新考取军校的同学们</t>
         </is>
       </c>
-      <c r="D168" t="inlineStr">
+      <c r="E168" t="inlineStr">
         <is>
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="E168" t="inlineStr">
+      <c r="F168" t="inlineStr">
         <is>
           <t>https://www.gov.cn/yaowen/liebiao/202308/content_6901210.htm</t>
         </is>
       </c>
-      <c r="F168" t="inlineStr">
+      <c r="G168" t="inlineStr">
         <is>
           <t>['习近平回信勉励安徽省潜山野寨中学新考取军校的同学们 铸牢忠诚品格 刻苦学习训练 锤炼过硬作风 努力成长为高素质专业化新型军事人才', '新华社北京8月31日电 中共中央总书记、国家主席、中央军委主席习近平近日给安徽省潜山野寨中学新考取军校的20名同学回信，对他们予以亲切勉励。', '习近平在回信中表示，你们把从军报国作为人生追求，今年考上了军校，开启了军旅生涯，我向你们表示祝贺。推进强军事业，需要一批又一批有志青年接续奋斗。希望你们铸牢忠诚品格，刻苦学习训练，锤炼过硬作风，努力成长为高素质专业化新型军事人才，为国防和军队现代化贡献力量。', '安徽省潜山野寨中学位于大别山革命老区，国防教育特色鲜明。今年，该校有100多名学生报考军校，其中20名分别被9所军校录取。近日，这20名同学给习主席写信，表达献身国防、矢志强军的信念和决心。', '中共中央总书记、国家主席、中央军委主席习近平近日给安徽省潜山野寨中学新考取军校的20名同学回信，对他们予以亲切勉励。']</t>
         </is>
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A169" t="n">
+        <v>23</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
           <t>习近平总书记在黑龙江考察时的重要讲话精神和在新时代推动东北全面振兴座谈会上的重要讲话精神激励我省广大干部群众奋进两个基本实现目标不断开创山西高质量发展新局面</t>
         </is>
       </c>
-      <c r="D169" t="inlineStr">
+      <c r="E169" t="inlineStr">
         <is>
           <t>2023-09-12</t>
         </is>
       </c>
-      <c r="E169" t="inlineStr">
+      <c r="F169" t="inlineStr">
         <is>
           <t>https://www.shanxi.gov.cn/ywdt/sxyw/202309/t20230912_9303780.shtml</t>
         </is>
       </c>
-      <c r="F169" t="inlineStr">
+      <c r="G169" t="inlineStr">
         <is>
           <t>['习近平总书记在黑龙江考察时的重要讲话精神和在新时代推动东北全面振兴座谈会上的重要讲话精神激励我省广大干部群众——', '东北大地秋风送爽，三晋大地丰收在望。9月6日至8日，习近平总书记在黑龙江考察，听取黑龙江省委省政府工作汇报，主持召开新时代推动东北全面振兴座谈会，发表重要讲话、作出重要指示。', '我省广大干部群众第一时间认真学习领会习近平总书记在黑龙江考察时的重要讲话精神和在新时代推动东北全面振兴座谈会上的重要讲话精神，大家纷纷表示，要贯通学习、一体贯彻习近平总书记重要讲话重要指示精神，牢牢把握新时代新征程党的中心任务，心怀“国之大者”，以进一步加快转型发展的“66831”工作体系为牵引，把准我省在全国新发展格局中的战略定位和融入路径，勇于担当作为，奋力蹚出新路，确保各项工作始终沿着正确方向前进，不断开创山西高质量发展新局面。', '习近平总书记强调，要以科技创新引领产业全面振兴。山西推动高质量发展首先是推动转型发展。近一年来，我省坚持以制造业振兴升级为主攻方向，强化科技创新引领，充分发挥比较优势，通过实施产业链“链长制”、重点专业镇建设、文旅康养产业供给侧结构性改革等，构建以实体经济为支撑的现代化产业体系，全省经济正呈现出稳中向好、转型加速的良好态势。', '“学习领会习近平总书记重要讲话精神，深感责任重大。当前，科技自立自强、关键核心技术攻坚迫在眉睫，我们要牢牢扭住自主创新这个‘牛鼻子’，积极研发新技术新材料新装备，将科研成果转化为实际生产力。”太原理工大学金属成形技术与重型装备全国重点实验室副主任王涛说，作为高校教师，要用自己的学识、阅历、经验点燃学生对真善美的向往，教育引导学生将个人理想融入国家建设之中，承担起时代赋予的历史使命。', '打造特色专业镇是振兴山西制造、推动转型发展的重要平台和抓手。我省遴选出首批十大特色专业镇，形成一揽子政策体系，分布在三晋南北的特色专业镇正如繁花绽放。9月10日，神池县第七届月饼文化节暨特色食品专业镇美食展销活动举行。“学习领会习近平总书记重要讲话精神，深受鼓舞。我们要乘着专业镇发展的东风，做精做优产品品质，积极开拓国内市场，为制造业振兴和端好粮食饭碗作出贡献。”神池合十得食品有限公司负责人谭振军说。', '省委、省政府高度重视文旅康养产业发展，从供给端发力，高质量推进资源开发、景区建设、线路设计、产品打造等工作，构建起全省域大康养、大文旅融合发展格局。山西皇城相府文化旅游有限公司董事长杨波表示，景区将以科技创新引领产业创新，加快构建现代化产业体系，加快5G+AR智慧旅游探索与创新，真正实现文化与科技深度融合，为景区发展注入新活力，为文旅康养产业发展提供新动力。', '习近平总书记怀有深厚的“三农”情怀，对“三农”工作和乡村振兴工作始终高度重视、时刻心系挂念。习近平总书记在黑龙江考察时，对“三农”工作再次作出重要指示。党的十八大以来，习近平总书记四次莅晋，有三次都深入贫困地区或脱贫地区考察调研，对脱贫攻坚、巩固成果、乡村振兴等工作作出重要指示。', '今年以来，省委进一步找准加快转型发展的路径抓手，形成了“66831”工作体系。其中“六大行动”之一就是推动农业“特”“优”发展，“六大支撑”中有两个都事关“三农”，即做好治水兴水大文章、推进以县城为重要载体的新型城镇化建设，形成了推动“三农”工作的强大合力。', '习近平总书记在黑龙江考察时，再次强调了保障国家粮食安全的重要性。省农业农村厅种植业管理处处长王圆荣表示，要把提高粮食综合生产能力放在更加突出的位置，坚持藏粮于地、藏粮于种、藏粮于机、藏粮于技，通过实施耕地质量提升行动、种业振兴行动、农机化高质量发展行动、单产提升行动等，多措并举全力提高粮食生产支持保障水平，力争全省粮食产能稳定在300亿斤以上，为国家粮食安全做出山西贡献。', '近年来，我省把巩固衔接作为全省“三农”工作的首要任务，坚持五级书记一起抓，坚决守住了不发生规模性返贫的底线，确保了全省巩固衔接工作稳步推进。“习近平总书记重要讲话精神，为民营企业立足自身特点做好巩固衔接工作指明了方向。近年来，我们大力发展‘特’‘优’农业，精心打造出帅林、白银山等多个地标品牌，产品走出三晋，享誉全国。同时，通过‘公司＋基地＋农户’合作模式，带动了10个乡镇232个村庄3200户农户实现了增收致富，为巩固衔接工作发挥出了积极作用。”山西帅林农牧发展有限公司经理郝帅林说。', '秋高气爽，层林尽染，左权县麻田镇泽城村迎来了最美的季节。村党支部书记、村委会主任赵富生说：“习近平总书记高度重视乡村振兴工作，令我们深受鼓舞。近年来，我们把文旅融合写生产业作为主导产业，主动对接、抢抓机遇，整治环境、改造民宿，打造中国北方国际写生基地，每年吸引1万人前来写生，年营业收入可达300余万元，村集体每年可获得收益30万元。”同时，泽城村还延伸核桃产业链、建设水电站增加村集体和村民收入，以产业振兴带动乡村全面振兴。', '习近平总书记强调，提高国有企业核心竞争力，引领民营经济健康发展，打造一批产业集群，做大做强实体经济。', '山西国际能源集团和韩国电力公社、德意志银行两个世界500强企业共同创立格盟国际能源有限公司，在我省最早完成集团层面国际化混改。集团董事会秘书王彦说：“习近平总书记的重要讲话，激励我们继续深化国有企业改革。下一步，我们将聚焦治理升级，全面系统理顺各治理主体的权责关系，着力构建中国特色法人治理体系、管控体系和制度体系，强化数字赋能，加快实现公司治理体系和治理能力现代化。”', '营商环境是开展经济工作的三大要件之一。“习近平总书记的重要讲话，对于山西进一步深化行政审批制度改革具有重要的指导意义。”省行政审批服务管理局行政审批管理处处长李增光说，将进一步巩固深化“一枚印章管审批”改革，全面推进“综合窗口”改革试点，深化“一业一证”改革，做深做细“一件事一次办”改革，逐项编制全省统一的标准化实施规范，努力实现“清单之外无审批、规范之外无材料”，让经营主体和人民群众办事更便捷。', '8月28日，小店区人民检察院在该区科技创新服务中心举办“知识产权保护检察法律服务站”成立仪式，围绕预防、服务、惩治、保护四个方面，为企业提供一站式绿色服务。小店区人民检察院检察长李卓英表示，设立知识产权保护检察服务站，是开展优化法治化营商环境的一个突破口，也是检察工作服务“七区”战略的缩影，我们将用工作和服务表态、用数据和案例说话，为小店深入实施“七区”战略，加快经济社会高质量发展做出更大贡献。', '“人民”二字，在习近平总书记心中有着最高的位置。在黑龙江考察时，习近平总书记在尚志市看望慰问受灾群众，希望大家坚定信心、战胜困难，早日恢复正常生产生活秩序，日子越过越红火。', '几年前，阳曲县大盂镇金家岗村脱贫户栗金连女儿在一次事故中摔断了腿，因为治疗费用急得手足无措，后来得知政府有针对脱贫户的医疗帮扶才放下心来，“因为政府的帮助，我们才不至于因病返贫。”栗金连说。阳曲县乡村振兴局副局长冯燕表示，千条万条，牢牢守住不发生规模性返贫底线是兜底的一条。“我们充分利用扶贫资金和衔接资金，积极实施就业培训、金融帮扶、到户补贴等，保障脱贫群众在新产业、新业态、新模式中实现持续增收。”冯燕说。', '就业创业是最大的民生。“习近平总书记的重要讲话，为我们做好民生保障工作提供了根本遵循。”万荣县人社局局长张文峰表示，将结合万荣实际，围绕农业产业化、工业集群化、现代服务业三个产业链条，用好“五摸清、三发布、两服务”精准就业工作机制，健全就业公共服务体系和终身职业技能培训制度，完善零工市场建设，落实落细就业帮扶政策，把事关群众就业的大小事情考虑得更细致、更周全，让群众腰包越来越鼓，收入越来越高。', '9月11日，陵川县新一期太行家政（保育员）培训班在该县创业孵化基地开班，20多名脱贫妇女学习基本护理技能。该县人社局副局长牛建武表示，今年上半年，陵川县已开展各类技能培训1500人，培训后就业率达到90%。下一步将坚持把扩大就业创业摆在突出位置，大力开展各类创业就业培训和职业技能培训，不断培树“棋源叉车工”“陵川焊工”“太行家政”等特色劳务品牌，持续为广大就业创业人群搭建优质、高效创业就业服务平台。', '习近平总书记强调，要进一步优化政治生态，营造良好营商环境。今年以来，省委结合主题教育，通过一系列举措，系统学习党的二十大精神和习近平总书记考察调研山西重要讲话重要指示精神，进一步找准了加快转型发展的路径抓手。全省党员干部群众拧成“一股绳”，铆足“一股劲”，人心力量汇聚到奋进“两个基本实现”目标的历史进程中，形成了携手并肩、和衷共济的生动局面。', '近日，吕梁市委组织部出台《在巩固衔接中激励干部担当作为的若干措施》，激励干部在巩固衔接工作中担当作为、履职尽责。文水县委常委、组织部部长刘小强表示，将在第二批主题教育中深化理论学习，用习近平新时代中国特色社会主义思想凝心铸魂，把党员干部的思想和行动统一到党中央决策部署上来，坚持正向激励、注重基层，注重在巩固衔接工作一线大力发现并使用优秀乡村干部、驻村干部，树牢干事创业用人鲜明导向。', '平顺县东寺头乡坚持党建与各项工作深度融合，不断提升党员干部服务群众能力，持续激发出干事创业的热情。“我们依托独特的山水资源发展旅游产业，民宿经济带动了群众增收致富。”乡党委书记张璞说，在党建引领下，将充分发挥自身比较优势，紧抓“康养度假”主题，因地制宜把旅游民宿建设作为经济高质量发展的排头兵，同时抓好中药材种植和加工等产业，向着乡村振兴、百姓致富的目标不懈奋斗。', '清则流长，廉则行远。2022年以来，从深思熟虑的谋划到科学缜密的设计，从脚踏实地的调研到创新务实的举措，绛县以清廉山西“五大体系”为重点全面建设清廉绛县。“我们要认真学习习近平总书记重要讲话精神，聚焦‘五清’目标，以点带面、步步推进，全面建设清廉绛县，让清廉成为新时代赶考路上‘四宜绛县’的鲜明底色。”绛县县委常委、纪委书记、监委主任王虓恒说。', '太原铁路运输中级法院党组书记、院长丁国华说：“太铁中院将认真学习贯彻习近平总书记重要讲话精神，持续抓好主题教育成果深化转化，深入总结经验做法，抓实‘从政治上看、从法治上办’，树牢能动司法理念，鼓足干事创业精气神，把主题教育激发出来的精神力量转化为推进审判工作现代化的强劲动能，在‘为大局服务、为人民司法’的实践中彰显铁法担当。”', '办好民生实事是主题教育开展的重要内容。今年省公安厅聚焦解决民生领域痛点堵点难点，把调研成果转化为工作举措，确定了20项民生实事，其中，14项已落地见效，6项正在稳步推进。省公安厅交通管理局车管处周立博表示：“我们将进一步巩固发展主题教育成果，把探索的好经验好做法转化为长效机制，积极做到促发展、保安全、惠民生、暖民心。”（杨文俊 赵向南 陈俊琦 邓伟强 高建华 闫书敏 郭宁 李全宏 王秀娟 李林霞 张婷 姚毅 安晓奕 郑璐 郑娜 李志江 马占富 郭慧聪）']</t>
         </is>
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A170" t="n">
+        <v>23</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
           <t>大宁县现代农业发展中心组织考察团赴甘肃省考察学习</t>
         </is>
       </c>
-      <c r="D170" t="inlineStr">
+      <c r="E170" t="inlineStr">
         <is>
           <t>2023-06-03</t>
         </is>
       </c>
-      <c r="E170" t="inlineStr">
+      <c r="F170" t="inlineStr">
         <is>
           <t>http://www.daning.gov.cn/xwzx/zwyw/202306/t20230605_197155.html</t>
         </is>
       </c>
-      <c r="F170" t="inlineStr">
+      <c r="G170" t="inlineStr">
         <is>
           <t>['5月30日至6月1日，大宁县现代农业发展中心组织三多乡果农赴甘肃省，就苹果产业发展进行考察学习。', '考察中，考察团一行先后前往甘肃省庆阳市宁县正洋现代生态农业科技有限公司、全国（苹果）绿色高质高效行动千亩攻关示范区，平凉市静宁县威戎智慧苹果园和智慧果业科技创新产业园等地，通过实地查看、听取介绍等方式，对甘肃省苹果种植的方式、管理机制、品种选择、配套设施、产量和价格等情况进行详细全面的了解。', '通过考察学习，开阔了视野、增长了见识、拓宽了思路，进一步增强了果农种植果树的积极性。大家纷纷表示，回去后将尽快把甘肃省苹果产业发展的先进理念、经验和技术方法转化为具体实践，推动我县苹果产业高质量发展。', '三多乡东堡村党支部副书记、村委主任刘毅凌说：“这次来甘肃考察学习，我收获很多，技术人员讲解的很细致，我也能听懂。回去之后，我将把这次考察学习到的先进做法和经验，应用到自己的果园管理中去，把自己的‘宁脆苹果’种植好，争取早点见效。”', '大宁县现代农业发展中心党支部书记冯红宁说：“我中心将以此次考察学习为契机，学习借鉴先进做法和经验，立足实际、转变观念、开拓创新，引导自身苹果产业提质增效，加快推动我县苹果产业高质量发展和乡村全面振兴。”']</t>
         </is>
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A171" t="n">
+        <v>23</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
           <t>努力成长为高素质专业化新型军事人才习近平主席给安徽省潜山野寨中学新考取军校同学的回信激励青年学子走好军旅路</t>
         </is>
       </c>
-      <c r="D171" t="inlineStr">
+      <c r="E171" t="inlineStr">
         <is>
           <t>2023-09-02</t>
         </is>
       </c>
-      <c r="E171" t="inlineStr">
+      <c r="F171" t="inlineStr">
         <is>
           <t>https://www.gov.cn/yaowen/liebiao/202309/content_6901634.htm</t>
         </is>
       </c>
-      <c r="F171" t="inlineStr">
+      <c r="G171" t="inlineStr">
         <is>
           <t>['努力成长为高素质专业化新型军事人才——习近平主席给安徽省潜山野寨中学新考取军校同学的回信激励青年学子走好军旅路__中国政府网', '努力成长为高素质专业化新型军事人才——习近平主席给安徽省潜山野寨中学新考取军校同学的回信激励青年学子走好军旅路', '新华社北京9月1日电 题：努力成长为高素质专业化新型军事人才——习近平主席给安徽省潜山野寨中学新考取军校同学的回信激励青年学子走好军旅路', '题：努力成长为高素质专业化新型军事人才——习近平主席给安徽省潜山野寨中学新考取军校同学的回信激励青年学子走好军旅路', '2023年秋季学期开学之际，中共中央总书记、国家主席、中央军委主席习近平给安徽省潜山野寨中学新考取军校的20名同学回信，对他们予以亲切勉励。', '位于大别山革命老区的野寨中学，国防教育特色鲜明。今年，该校有100多名学生报考军校，其中20名分别被9所军校录取。', '“习主席的回信，是肯定，更是激励。”收到回信，这20名已经走进军校校园、开启军旅生涯的同学由衷感到光荣、感到振奋。大家表示，一定把从军报国作为人生追求，像习主席希望的那样，铸牢忠诚品格，刻苦学习训练，锤炼过硬作风，努力成长为高素质专业化新型军事人才，为国防和军队现代化贡献力量。', '国防科技大学2023级学员叶大山说，坚决铭记从军报国的初心，勤奋学习、刻苦训练，尽快完成从地方青年到军校学员的转变，在军校这个大熔炉中成长成才，决不辜负习主席的期望嘱托。', '“要珍惜军校时光，学习新知识、掌握新装备、练就新技能。”空军第65期飞行学员聂佳睿、方新昊给自己定下奋斗目标，争取早日飞上蓝天，用青春和热血守护祖国的万里空天。', '“全校师生都很激动。”野寨中学教师范玲凤介绍，学校报考军校人数逐年上升，许多高分学生都报考了军校。“我们将牢记为党育人、为国育才的初心使命，全面培塑学生的爱国心、报国情、强国志，鼓励引导更多学生携笔从戎、报效祖国。”', '这些年，当地教育部门认真贯彻党和国家关于全面加强国防教育的部署要求，广泛开展国防知识普及、学生军训等多种形式的国防教育活动，一批中小学被评为国防教育特色学校和示范学校。安徽省教育厅体卫艺处副处长葛德连表示，将继续加强新时代国防教育特点规律研究，努力为强军兴军输送更多优秀人才。', '“推进强军事业，需要一批又一批有志青年接续奋斗。”习主席的重要指示，为军地有关部门进一步做好工作注入强大动力。正值开学季，各军队院校普遍把学习贯彻习主席回信精神与抓好新学期教学训练工作结合起来，努力锻造高素质专业化新型军事人才。', '陆军防化学院合理分配思想政治教育与军人基础、综合训练的比重，将主题教育和教育实践活动有机嵌入思想政治教育，同时抽调优秀干部和军士担任新训骨干，帮助新学员扣好军旅生涯第一粒扣子。', '空军军医大学扎实组织单兵队列动作、军事体育、轻武器射击、战伤救护等军事课目训练，举办强军故事会、院士专题报告、红色教育行军拉练等特色教育活动，打牢新学员军政素质基础。', '陆军炮兵防空兵学院组织新训骨干专题学习讨论，切实将统帅关心厚爱转化为带好新学员的实际行动和具体办法，努力当好教练员和辅导员，确保他们军旅生涯起步走得顺、走得稳。', '海军航空大学某团开展体能强化训练，圆木推举、轮胎挺举等课目轮番上演，极限考验学员体力和意志力，进一步锤炼血性胆气，帮助他们尽快完成从学员向战斗员的转变。', '这个秋天，来自全国25个省区市的数百名学生考取战略支援部队航天工程大学。学校教授蔡远文表示，要担负起立德树人、为战育人的光荣职责，做学员成长成才的指导者和引路人，为强军事业提供强有力人才支撑。', '空军航空大学某团又一批学员即将迎来首次单飞。教官们加班加点针对施训组训难点展开攻关，引导学员们以实际行动回应统帅期待，向战为战、苦训精飞，练就过硬本领，在祖国的蓝天书写对党和人民的无限忠诚。', '陆军边海防学院2020级学员李会翔和同学们还有一年就要毕业奔赴军营。他们表示，选择上军校，让激情奋斗的青春与国防事业、国家安全紧密连接在一起，感到很有价值，将抓紧宝贵时间，打牢听党话、跟党走的思想根基，练就能打仗、打胜仗的过硬本领，到备战打仗一线去、到党和人民最需要的地方去。（参与采写：金龙、王运璞、陈超、王文博、李荣鹏）', '2023年秋季学期开学之际，中共中央总书记、国家主席、中央军委主席习近平给安徽省潜山野寨中学新考取军校的20名同学回信，对他们予以亲切勉励。位于大别山革命老区的野寨中学，国防教育特色鲜明。今年，该校有100多名学生报考军校，其中20名分别被9所军校录取。']</t>
         </is>
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A172" t="n">
+        <v>23</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
           <t>年长江源冰冻圈水文与生态环境综合科学考察启动</t>
         </is>
       </c>
-      <c r="D172" t="inlineStr">
+      <c r="E172" t="inlineStr">
         <is>
           <t>2023-08-19</t>
         </is>
       </c>
-      <c r="E172" t="inlineStr">
+      <c r="F172" t="inlineStr">
         <is>
           <t>https://www.gov.cn/yaowen/liebiao/202308/content_6899125.htm</t>
         </is>
       </c>
-      <c r="F172" t="inlineStr">
+      <c r="G172" t="inlineStr">
         <is>
           <t>['新华社西宁8月19日电（记者 陈杰）长江源冰冻圈水文与生态环境综合科学考察19日在青海省启动，科考将聚焦长江源地区冰川、冻土、水文等领域的生态变化。', '本次科考依托第二次青藏高原综合科学考察任务“亚洲水塔动态变化与影响”的子专题项目，由中国科学院西北生态环境资源研究院牵头组织，中国科学院青藏高原研究所等单位参与。', '科考负责人、中科院西北研究院唐古拉山冰冻圈与环境观测研究站站长何晓波介绍，科考将以多型无人机为平台，搭载机载激光雷达、机载电磁波探地雷达以及高速视频流建模算法，在海拔5300米至6100米范围内开展冰川全域地表地形扫描、流域尺度多年冻土活动层厚度测绘、高寒山区河川径流量测量等工作。', '“在青藏高原气温迅速抬升的背景下，长江源区的冰川冻土萎缩退化加快、水源涵养功能变弱、生态环境持续脆弱。”何晓波说，冰川、冻土等冰冻圈要素的变化会直接影响长江源区水源涵养功能和高寒植被生态环境。', '本次科考将进行基于无人机平台的“云端科考”，突破地面交通局限，以安全、高效、低成本的方式实现冰川、冻土的核心参数测量，为评估长江源高寒流域水源涵养功能以及径流变化探索高效方法。', '监测发现，长江源区86%以上面积为多年冻土覆盖，发育冰川面积超1200平方公里，是我国冰冻圈要素最为集中的地区之一，也是青藏高原重要的水源涵养地。', '本次科考成果将助力第二次青藏科考从传统地面调查，提升至全域可达的低空扫描。基于多期数据，科考将揭示长江源区冰川、冻土等冰冻圈要素的水源涵养能力及对植被生态系统的影响，为长江源区的水资源安全和生态保护修复提供基础数据。', '长江源冰冻圈水文与生态环境综合科学考察19日在青海省启动，科考将聚焦长江源地区冰川、冻土、水文等领域的生态变化。']</t>
         </is>
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A173" t="n">
+        <v>23</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
           <t>中国第次北冰洋科学考察队开始地质和地球物理调查作业</t>
         </is>
       </c>
-      <c r="D173" t="inlineStr">
+      <c r="E173" t="inlineStr">
         <is>
           <t>2023-08-22</t>
         </is>
       </c>
-      <c r="E173" t="inlineStr">
+      <c r="F173" t="inlineStr">
         <is>
           <t>http://www.puxian.gov.cn/xwzx/gwyyw/202308/t20230822_232130.html</t>
         </is>
       </c>
-      <c r="F173" t="inlineStr">
+      <c r="G173" t="inlineStr">
         <is>
           <t>['北京时间8月20日下午，由自然资源部组织的中国第13次北冰洋科学考察队乘坐“雪龙2”号极地科考破冰船抵达加克洋中脊附近海域，开始地质和地球物理调查作业。', '根据计划，地质和地球物理调查首日作业主要围绕地球电磁场和地球震动信号等信息的测量展开。抵达首个作业站点后，科考队员通过布放大地电磁仪和海底地震仪收集数据，探查加克洋中脊区域的深部地质构造特征。', '自然资源部第二海洋研究所副研究员沈中延介绍，加克洋中脊是全球扩张速率最慢的洋中脊。深化对其岩石圈结构和演化过程的认知，是认识全球板块扩张机制和非岩浆大陆边缘演化的关键。', '沈中延表示，本航次基于我国以往北极航次调查成果，继续对加克洋中脊开展地质和地球物理调查，有利于为进一步揭示其独特的地质结构和岩浆运动及演化过程、探究超慢速扩张洋脊热液循环机制提供坚实基础。', '据介绍，加克洋中脊地质和地球物理调查是本航次北冰洋科考第二阶段的重点调查内容。在未来10余天时间里，科考队员将执行海底地震测量、大地电磁测量、地质取样等8项作业。在地球物理作业进行同时，考察队还将择机继续海冰综合调查作业，并预计于9月上旬完成本航次所有科考任务。']</t>
         </is>
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A174" t="n">
+        <v>23</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
           <t>临汾市科学技术局所属事业单位年公开招聘工作人员体检考察实施方案</t>
         </is>
       </c>
-      <c r="D174" t="inlineStr">
+      <c r="E174" t="inlineStr">
         <is>
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="E174" t="inlineStr">
+      <c r="F174" t="inlineStr">
         <is>
           <t>http://kjj.linfen.gov.cn/wjfg/tzgg/202309/t20230907_239543.html</t>
         </is>
       </c>
-      <c r="F174" t="inlineStr">
+      <c r="G174" t="inlineStr">
         <is>
           <t>['临汾市科学技术局所属事业单位 2023年公开招聘工作人员体检考察实施方案-通知公告-临汾市科技局', '根据《临汾市市直政府系统所属事业单位2023年公开招聘工作人员实施方案》（临人社发〔2023〕24号）和《山西省事业单位公开招聘工作人员操作程序（试行）》文件精神，通过网上报名、资格初审、笔试、资格复审及面试等环节，我局所属事业单位临汾市科技成果转化服务中心最终按1:1比例入围考生2名，并进入体检考察环节，体检考察实施方案如下：', '体检考察在市人社部门的监督指导下，由市科技成果转化服务中心及市科技局组织实施。按照德才兼备的标准和拟招聘岗位的要求，坚持公平、公正、竞争、择优的原则，坚持统一政策、统一组织、统一程序的原则，坚持保密、回避、监督的原则。', '拟定于2023年9月4日上午7︰00到指定的医院（县级及以上综合医院）进行体检，具体地点另行通知。', '（1）根据考试总成绩，按招聘岗位人数1：1的比例等额确定进入体检人选，专业技术一岗位1名，专业技术二岗位1名（详见附表）。', '（2）参照《公务员录用体检通用标准（试行）》执行。(有行业体检标准的参照行业标准)', '（2）不按规定时间、地点参加体检的人员，视为自动放弃。体检不合格的，取消聘用资格。', '（3）应聘人员对体检结果有异议的，本人可在收到体检结论之日起7个工作日内申请复查，经市科技成果转化服务中心同意后，应安排在具有体检资质的同一级别或上一级别的另一家医疗机构组织复检，以复检结果为准。', '（4）有残疾人应聘的，岗位体检条件由省级事业单位人事综合管理部门会同同级有关部门根据岗位需要和残疾人身体状况确定。', '（2）考察内容：要突出政治标准，重点考察人选是否符合增强“四个意识”、坚定“四个自信”、做到“两个维护”，热爱中国共产党、热爱祖国、热爱人民等政治要求。全面了解考察人选政治素质、道德品行、能力素质、心理素质、学习和工作表现、遵纪守法、廉洁自律、岗位匹配度以及是否需要回避等方面的情况。', '应届毕业生主要考察应聘者在校期间的学习情况、平时思想政治表现等，原则上以学校毕业鉴定等证明材料为准。已就业的毕业生，可由单位出具应聘者的思想政治表现、业务能力、工作实绩等材料。未就业的应聘者由社区或村委会出具其遵纪守法、思想政治表现等证明材料。对证明材料有疑义的，可以电话回访、函件征询或派人到应聘者所在毕业院校、社区、村委会进行实地调查。', '（3）要对报考者提供报考信息的真实性和档案进行复审、审核，对考生的应聘资格进行再次确认。', '不按规定时间、地点参加考察并提供个人完整档案的人员，视为自动放弃。迟到或缺席的考生视为自动放弃，取消考察资格。考察不合格者，取消其聘用资格。', '体检、考察不合格的不得聘用。因个人放弃体检、考察或体检、考察不合格形成的空缺岗位，市科技成果转化服务中心可从报考同一岗位且考试综合成绩合格的人员中，按综合成绩由高分到低分依次进行递补（仅递补一次）。', '经体检和考察合格的，由市科技成果转化服务中心及市科技局研究确定后，报人社部门核准后，在临汾市人力资源和社会保障局网站', '公示期满无异议的，市科技局负责将拟聘人选报市人社局备案；对反映有影响聘用的问题并查实的，不予聘用；对反映的问题一时难以查实的，待查清后再决定是否聘用。', '1、公示期满，按照干部人事管理权限报市科技局和市人社局审批后，市科技成果转化服务中心负责填写《山西省事业单位公开招聘人员登记表》，一式4份，个人档案、市科技成果转化服务中心、市科技局、人社部门各1份备案。市科技成果转化服务中心法定代表人与被聘用人员签订聘用合同，确定人事关系。', '2、所聘人员一律实行聘用制和试用期制度，试用期包括在聘用合同期限内。试用期满经考核合格后，正式聘用。考核不合格的，取消聘用。']</t>
         </is>
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A175" t="n">
+        <v>23</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
           <t>临汾市教育局所属临汾三中等所市直学校年公开招聘工作人员体检考察公告</t>
         </is>
       </c>
-      <c r="D175" t="inlineStr">
+      <c r="E175" t="inlineStr">
         <is>
           <t>2023-08-29</t>
         </is>
       </c>
-      <c r="E175" t="inlineStr">
+      <c r="F175" t="inlineStr">
         <is>
           <t>http://jyj.linfen.gov.cn/zzzb/tzgg_11311/202308/t20230829_235634.html</t>
         </is>
       </c>
-      <c r="F175" t="inlineStr">
+      <c r="G175" t="inlineStr">
         <is>
           <t>['临汾市教育局所属临汾三中等5所市直学校2023年公开招聘工作人员体检、考察公告-通知公告-临汾市教育局', '根据《临汾市市直政府系统所属事业单位2023年公开招聘工作人员实施方案》（临人社发〔2023〕24号）和《山西省事业单位公开招聘工作人员操作程序（试行）》文件精神，', '组织实施。按照德才兼备的标准和招聘岗位的要求，坚持公平、公正、竞争、择优的原则，坚持统一政策、统一组织、统一程序的原则，坚持保密、回避、监督的原则。', '体检标准及项目参照教育部教师资格认定指导中心《关于调整申请认定幼儿园教师资格人员体检标准的通知》执行，并且取得健康证；', '（1）参加体检人员须持有效期内的二代居民身份证（与报名时一致）和1张近期一寸红底免冠彩照，', '（3）应聘人员对体检结果有异议的，本人可在收到体检结论之日起7个工作日内申请复查，经招聘', '同意后，应安排在具有体检资质的同一级别或上一级别的另一家医疗机构组织复检，以复检结果为准。', '（4）有残疾人应聘的，岗位体检条件由省级事业单位人事综合管理部门会同同级有关部门根据岗位需要和残疾人身体状况确定。', '（2）考察内容：要突出政治标准，重点考察人选是否符合增强“四个意识”、坚定“四个自信”、做到“两个维护”，热爱中国共产党、热爱祖国、热爱人民等政治要求。全面了解考察人选政治素质、道德品行、能力素质、心理素质、学习和工作表现、遵纪守法、廉洁自律、岗位匹配度以及是否需要回避等方面的情况。', '应届毕业生主要考察应聘者在校期间的学习情况、平时思想政治表现等，原则上以学校毕业鉴定等证明材料为准。已就业的毕业生，可由单位出具应聘者的思想政治表现、业务能力、工作实绩等材料。未就业的应聘者由社区或村委会出具其遵纪守法、思想政治表现等证明材料。对证明材料有疑义的，可以电话回访、函件征询或派人到应聘者所在毕业院校、社区、村委会进行实地调查。', '（3）要对报考者提供报考信息的真实性和档案进行复审、审核，对考生的应聘资格进行再次确认。', '不按规定时间、地点参加考察并提供个人完整档案的人员，视为自动放弃。迟到或缺席的考生视为自动放弃，取消考察资格。考察不合格者，取消其聘用资格。', '体检、考察不合格的不得聘用。因个人放弃体检、考察或体检、考察不合格形成的空缺岗位，招聘', '可从报考同一岗位且考试综合成绩合格的人员中，按综合成绩由高分到低分依次进行递补（仅递补一次）。', '市人社局备案；对反映有影响聘用的问题并查实的，不予聘用；对反映的问题一时难以查实的，待查清后再决定是否聘用。', '市人社局审批后，用人单位负责填写《山西省事业单位公开招聘人员登记表》，一式4份，个人档案、招聘', '2、所聘人员一律实行聘用制和试用期制度，试用期包括在聘用合同期限内。试用期满经考核合格后，正式聘用。考核不合格的，取消聘用。', '临汾市教育局所属临汾三中等5所市直学校2023年公开招聘工作人员体检、考察人员名单.xlsx']</t>
         </is>
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A176" t="n">
+        <v>23</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
           <t>临汾一中第一附属学校年公开招聘教师体检考察公告</t>
         </is>
       </c>
-      <c r="D176" t="inlineStr">
+      <c r="E176" t="inlineStr">
         <is>
           <t>2023-08-22</t>
         </is>
       </c>
-      <c r="E176" t="inlineStr">
+      <c r="F176" t="inlineStr">
         <is>
           <t>http://jyj.linfen.gov.cn/wjfg/tzgg/202308/t20230822_232502.html</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr">
+      <c r="G176" t="inlineStr">
         <is>
           <t>['2023年公开招聘工作，经网上报名与资格初审、笔试、资格复审、面试等环节，现已进入体检考察阶段，共', '按照德才兼备的标准和招聘岗位的要求，坚持公平、公正、竞争、择优的原则，坚持统一政策、统一组织、统一程序的原则，坚持保密、回避、监督的原则。', '根据考生综合成绩由高分到低分的顺序排名，按照拟招聘人数1:1比例及公告规定的招聘方案，确定体检考察人选（详见附件）。体检、考察不合格的不得聘用。因个人放弃体检、考察或体检、考察不合格形成的空缺岗位，招聘学校可从报考同一岗位且考试综合成绩合格的人员中，按综合成绩由高分到低分依次进行递补（仅递补一次）。', '1.参加体检人员须持有效期内的二代居民身份证（与报名时一致）和1张近期一寸红底免冠彩照，于2023年8月2', '、参加体检人员对复检结果仍有疑义的，承担复检的医院应组织相关专家进行会诊，做出最终结论。对因怀孕不能全部完成体检项目的，按国家相关政策执行。', '考察内容：要突出政治标准，重点考察人选是否符合增强“四个意识”、坚定“四个自信”、做到“两个维护”，热爱中国共产党、热爱祖国、热爱人民等政治要求。全面了解考察人选政治素质、道德品行、能力素质、心理素质、学习和工作表现、遵纪守法、廉洁自律、岗位匹配度以及是否需要回避等方面的情况。不按规定参加考察者，视同放弃资格。', '应届毕业生主要考察应聘者在校期间的学习情况、平时思想政治表现等，原则上以学校毕业鉴定等证明材料为准。已就业的毕业生，可由单位出具应聘者的思想政治表现、业务能力、工作实绩等材料。未就业的应聘者由社区或村委会出具其遵纪守法、思想政治表现等证明材料。对证明材料有疑义的，可以电话回访、函件征询或派人到应聘者所在毕业院校、社区、村委会进行实地调查。同时要对报考者提供报考信息的真实性和档案进行复审、审核，对考生的应聘资格进行再次确认。', '体检、考察不合格的不得聘用。因个人放弃体检、考察或体检、考察不合格形成的空缺岗位，招聘学校可从报考同一岗位且考试综合成绩合格的人员中，按综合成绩由高分到低分依次进行递补（仅递补一次）。', '根据笔试、面试、体检、考察结果，确定拟聘用人员，拟聘用人员名单在市教育局网站公示7个工作日。公示拟聘人员内容包括：招聘岗位，招聘数量，招聘专业，姓名、性别、出生年月、毕业院校、所学专业、学历（学位）、考试综合成绩、排名等信息。拟聘人员公示期满后不得进行递补。', '公示期满无异议的，市教育局将拟聘人选报市人社局备案；对反映有影响聘用的问题并查实的，不予聘用；对反映的问题一时难以查实的，待查清后再决定是否聘用。', '招聘学校法人代表与聘用人员签订聘用合同，为聘用人员办理聘用手续。聘用人员实行试用期制度，试用期不合格的，解除聘用关系。', '考生应诚信报考。对进入体检、考察及以后环节提出放弃的，接到聘用通知后无正当理由、未在规定时间内持相关材料报到的，取消其相应的资格，并记入诚信档案，三年内不得再次报考市直学校各类招聘。']</t>
         </is>
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A177" t="n">
+        <v>23</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
           <t>稷山县来我县考察学习农业生产托管</t>
         </is>
       </c>
-      <c r="D177" t="inlineStr">
+      <c r="E177" t="inlineStr">
         <is>
           <t>2023-05-29</t>
         </is>
       </c>
-      <c r="E177" t="inlineStr">
+      <c r="F177" t="inlineStr">
         <is>
           <t>http://www.yicheng.gov.cn/xwzx/zwyw/202305/t20230529_194024.html</t>
         </is>
       </c>
-      <c r="F177" t="inlineStr">
+      <c r="G177" t="inlineStr">
         <is>
           <t>['5月25日，稷山县副县长翟廷伟带队考察学习我县农业生产托管工作，副县长高伟一同考察。', '考察组一行先后到南北庙村、石桥村、新翔丰农业科技有限公司观摩村集体农业生产托管，了解农业生产托管平台建设情况，并召开座谈会进行交流学习。', '考察组对我县农业生产托管工作给予高度评价，认为围绕破解“谁来种地”“怎么种地”等难题，探索形成的政府搭台、金融助力、保险护航、主体唱戏、群众参与的农业生产托管服务“翼城模式”成效明显，值得借鉴和进一步推广。', '座谈中，双方深入交流，希望两地进一步加强沟通、互相学习，共同推动农业生产托管可持续发展，促进农业节本增效，推动乡村振兴取得新进展、农业农村现代化迈出新步伐。']</t>
         </is>
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A178" t="n">
+        <v>23</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
           <t>中国第次北冰洋科学考察队完成第一阶段作业任务</t>
         </is>
       </c>
-      <c r="D178" t="inlineStr">
+      <c r="E178" t="inlineStr">
         <is>
           <t>2023-08-12</t>
         </is>
       </c>
-      <c r="E178" t="inlineStr">
+      <c r="F178" t="inlineStr">
         <is>
           <t>https://www.gov.cn/yaowen/liebiao/202308/content_6897996.htm</t>
         </is>
       </c>
-      <c r="F178" t="inlineStr">
+      <c r="G178" t="inlineStr">
         <is>
           <t>['新华社“雪龙2”号8月12日电（记者 魏弘毅）北京时间8月11日17时50分，随着最后一项海水样品采集作业的完成，中国第13次北冰洋科学考察的第一阶段任务——中北冰洋太平洋扇区大洋科考主要作业任务全部结束。', '中国第13次北冰洋科学考察中北冰洋太平洋扇区大洋科考作业于7月26日开始。在长达17天的作业中，考察队乘坐“雪龙2”号极地科考破冰船，围绕物理海洋、海洋化学、海洋生物等多门相关学科，执行了大气、海冰、海洋和底质环境调查、生物群落和资源调查以及污染物监测等10余项作业项目。', '中国第13次北冰洋科学考察队领队王金辉介绍，整体来看，本阶段大洋科考作业达成如下目标：', '基本完成中北冰洋太平洋扇区的生态环境调查和海冰综合调查。考察队获取了大量大气、海水、沉积物、海洋生物、海冰等方面的现场监测数据和样品标本，通过海水和沉积物样品培养分离130株北极菌株，提取68份海洋生物基因标本，采集环境DNA样品9份，进一步丰富了极地基因库和海洋生物标本。', '部分科技计划项目的现场试验取得阶段性成果。气溶胶散射激光雷达、海冰多波段SAR雷达等国产技术装备得以在北冰洋科考中应用和验证。', '极地科考国际合作稳步推进。中国和泰国科学家就北冰洋微塑料调查开展合作，完成了水体、沉积物的微塑料样品采集，为微塑料这一热门环境问题研究提供助力。', '王金辉表示，中北冰洋太平洋扇区大洋科考作业的成果将为进一步认识北极快速变化下的生态系统变化提供有力支撑，从而有效提升我国在北冰洋环境保护、北极快速变化响应以及海洋污染评估等方面的能力。', '根据计划，考察队下阶段将驶往位于北纬85度附近的加克洋中脊区域，抵达后将开展洋中脊地质和地球物理相关专业的调查工作。航行期间将根据海冰情况择机开展海冰综合调查。海冰综合调查作业主要任务包括冰基浮标布放、海冰采样、冰上试验等内容，预计将于8月下旬结束。', '北京时间8月11日17时50分，随着最后一项海水样品采集作业的完成，中国第13次北冰洋科学考察的第一阶段任务——中北冰洋太平洋扇区大洋科考主要作业任务全部结束。']</t>
         </is>
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A179" t="n">
+        <v>23</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
           <t>省直部门传达学习贯彻习近平总书记考察山西重要指示精神牢记嘱托感恩奋进担当作为真抓实干</t>
         </is>
       </c>
-      <c r="D179" t="inlineStr">
+      <c r="E179" t="inlineStr">
         <is>
           <t>2023-05-30</t>
         </is>
       </c>
-      <c r="E179" t="inlineStr">
+      <c r="F179" t="inlineStr">
         <is>
           <t>https://www.shanxi.gov.cn/ywdt/sxyw/202305/t20230530_8647060.shtml</t>
         </is>
       </c>
-      <c r="F179" t="inlineStr">
+      <c r="G179" t="inlineStr">
         <is>
           <t>['连日来，省直各部门多种形式传达学习贯彻习近平总书记在我省考察重要指示精神和听取陕西省委、省政府工作汇报时重要讲话精神，传达学习省委常委会扩大会议暨理论学习中心组学习会精神，交流学习体会，结合工作实际，对本单位、本系统学习贯彻落实工作进行具体安排。大家一致认为，习近平总书记在我省考察期间作出的重要指示，高屋建瓴、视野宏阔，思想深邃、语重心长，具有很强的政治性、战略性、指导性、针对性，为进一步做好工作、更好服务全省大局指明了前进方向、提供了根本遵循。大家一致表示，要把学习贯彻好习近平总书记考察山西重要指示精神作为当前最重要的政治任务，作为深入开展主题教育的重要内容，牢记嘱托、感恩奋进，担当作为、真抓实干，推动党员干部将焕发出来的学习热情转化为坚定理想、锤炼党性和指导实践、推动工作的强大力量和实际成效。', '5月19日，省委政研室召开室务会（扩大）会议暨中心组理论学习会议，指出，要把学习贯彻好习近平总书记考察山西重要指示精神作为当前最重要的政治任务，推动主题教育走深走实，进一步增强感恩奋进、团结奋斗、踔厉奋发的动力。要切实掌握强大思想武器，运用科学思想方法，全面提升各项能力，紧密结合工作实际，聚焦群众急难愁盼问题更加深入细致地开展调查研究，聚焦小切口大牵引更加精准有效地提出政策建议，聚焦年度重点改革任务更加系统协同地抓好改革落实，推动调研工作、政策建议、深化改革有机结合、一体推进，促进室办整体工作全面提质增效，为奋进“两个基本实现”目标贡献智慧和力量。', '5月19日，省机关事务管理局理论学习中心组开展集体学习。会议强调，要着力提升机关事务治理体系和治理能力现代化水平，推动管理、服务、保障等全面深入改革。要多措并举做好公共机构节能降耗这篇“大文章”，有效实施节约战略，倡导绿色消费，推进资源节约集约利用。要扎实推进乡村振兴，做好驻村帮扶、消费帮扶等。要加强对市县机关事务部门的指导督促，全面对标国管局、中直管理局，学习借鉴其他省市典型经验做法，确保始终处于全国第一方阵。要深入开展主题教育，扎实做好集中统一管理、服务保障、为民办实事等工作，确保全局主题教育高标准高质量开展、持续走深走实。', '5月19日，省人社厅党组召开会议传达学习。会议强调，要把学习贯彻习近平总书记考察山西重要指示精神与人力资源和社会保障具体工作相结合，真正在做实做优上下功夫。要牢固树立群众观念，端正态度，改进作风，聚焦民生关切，做到精细施策、精准发力，切实解民忧、纾民困、暖民心，持续增强群众的获得感、幸福感、安全感。要把学习贯彻好习近平总书记考察山西重要指示精神同人社部门深入开展主题教育相结合，真正在以学铸魂、以学增智、以学正风、以学促干上见实效。要以此次主题教育为契机，着力解决工作中的难点和堵点，以推动高质量发展的新成效检验主题教育成果。', '5月23日，省委军民融合办召开会议传达学习。会议指出，要把学习贯彻好习近平总书记考察山西重要指示精神作为当前最重要的政治任务，作为深入开展主题教育的重要内容，深刻感悟习近平新时代中国特色社会主义思想的强大真理力量和实践伟力，以更加坚定拥护“两个确立”、坚决做到“两个维护”的高度自觉，在全面学习、全面把握、全面落实上下功夫、见实效。要坚决贯彻习近平总书记关于建设现代化产业体系的重大要求，紧紧围绕我省战略性新兴产业、未来产业发展方向，大力推进国防科技工业创新体系建设，加快推进创新链产业链资金链人才链深度融合，在推动高质量发展、加快建设现代化产业体系中作出更大贡献。', '5月19日，省信访局党组理论中心组专题学习了习近平总书记考察山西重要指示精神。指出，要精准研判信访形势，科学识别风险动向，打好化解矛盾、防范风险的主动仗，不断增强工作的前瞻性、针对性、实效性。要全面落实《信访工作条例》，依法规范信访工作秩序，深化信访工作体制机制改革，探索信访业务流程再造，严格信访事项办理程序，切实提高信访工作标准化、规范化、法治化水平。要深入开展矛盾纠纷风险隐患排查，着力开展信访问题源头预防，切实解决好信访突出问题，以实际行动践行“为民解难、为党分忧”的政治责任，为全省经济社会发展创造和谐稳定的社会环境。', '近日，省妇联召开会议传达学习。会议要求，全省各级妇联要将学习贯彻好习近平总书记考察山西重要指示精神作为当前最重要的政治任务，作为主题教育的重要内容，不断提升政治能力、思维能力、实践能力，主动把妇联工作放到构建新发展格局、推进中国式现代化山西实践的工作大局中去部署、去开展。要立足妇联职能，发挥妇联优势，进一步拓展巾帼系列活动，更好发挥基层妇联执委、巾帼志愿者作用，团结引领广大妇女在文物保护利用、文化遗产保护、黄河流域生态保护和高质量发展中担当作为、建功立业，以助力推动转型发展的新实践检验主题教育成果，以妇联工作新成效回报习近平总书记的关怀厚爱。', '5月22日，省侨联召开会议传达学习。会议强调，要将学习贯彻的成效切实转化为做好工作的新理念、新思路、新举措。要结合侨联工作实际，围绕传承弘扬中华优秀传统文化、乡村全面振兴、高水平对外开放等重大任务，着力推动“中国华侨国际文化交流基地”申报工作，发挥好交流基地的作用，强化侨联文化品牌建设；开展“侨与乡村振兴”系列活动，扎实推进活动落地落实，取得成效；充分发挥独特作用，在海外联谊、引资引智、为侨服务等方面开拓创新、履职尽责，深化“双招双引”平台建设，广泛团结和凝聚侨界力量，在服务全省高质量发展大局中贡献力量。（闫书敏 高建华 杨文俊 郭宁 邓伟强）']</t>
         </is>
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A180" t="n">
+        <v>23</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
           <t>省法院省检察院召开会议传达学习贯彻省委十二届六次全会精神</t>
         </is>
       </c>
-      <c r="D180" t="inlineStr">
+      <c r="E180" t="inlineStr">
         <is>
           <t>2023-08-17</t>
         </is>
       </c>
-      <c r="E180" t="inlineStr">
+      <c r="F180" t="inlineStr">
         <is>
           <t>http://www.shanxi.gov.cn/ywdt/sxyw/202308/t20230817_9142709.shtml</t>
         </is>
       </c>
-      <c r="F180" t="inlineStr">
+      <c r="G180" t="inlineStr">
         <is>
           <t>['连日来，省法院、省检察院分别召开会议，传达学习省委十二届六次全会精神，交流学习体会，按照省委要求部署，结合工作实际，对本部门学习贯彻落实工作进行具体安排。', '省高院党组书记、院长冯军主持召开党组（扩大）会议，传达学习省委十二届六次全会精神，研究贯彻落实意见。冯军强调，全省法院要深刻领会习近平总书记对山西转型发展重要指示要求的真理力量和实践伟力，深刻领会省委十二届六次全会的重大意义和精神实质，切实把思想和行动统一到省委决策部署上来。要切实找准服务保障建设转型综改试验区、开展能源革命综合改革试点、打造内陆地区对外开放新高地等重大使命的切入点，司法助力产业转型升级，全面平等保护各类市场主体，依法维护民营企业产权和企业家权益，持续推进优化法治化营商环境工作提质增效。要围绕“公正与效率”主题，以“如我在诉”的情感和共鸣，用心用情用力办好每一起案件，加快推进审判理念、审判机制、审判体系、审判管理现代化，为我省进一步加快转型发展、奋进“两个基本实现”目标贡献法院智慧和力量。', '省检察院召开党组扩大会议，传达学习省委十二届六次全会精神，研究落实举措。省检察院党组书记、检察长杨景海主持会议并讲话。会议强调，全省检察机关要提高政治站位，切实把思想和行动统一到省委决策部署和省委十二届六次全会精神上来，要把学习贯彻全会精神作为当前和今后一个时期的重要政治任务，结合主题教育深入、广泛、全面地组织开展学习，要切实增强学习运用党的创新理论推动转型发展的政治自觉、思想自觉和行动自觉，坚决贯彻落实全会作出的各项重大决策部署；要对照全会部署要求，时刻牢记“国之大者”，依法能动履行法律监督职责，在法治轨道上找准服务保障转型发展大局的切入点和结合点；要运用法治力量，不断提升法律监督能力，努力为奋进“两个基本实现”目标、奋力谱写中国式现代化山西篇章作出更大贡献。（邓伟强 闫书敏）']</t>
         </is>
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A181" t="n">
+        <v>23</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
           <t>王林波霍俊波带领考察团赴乡宁县考察学习</t>
         </is>
       </c>
-      <c r="D181" t="inlineStr">
+      <c r="E181" t="inlineStr">
         <is>
           <t>2023-05-25</t>
         </is>
       </c>
-      <c r="E181" t="inlineStr">
+      <c r="F181" t="inlineStr">
         <is>
           <t>http://www.fenxi.gov.cn/xwzx/zwyw/202305/t20230529_194575.html</t>
         </is>
       </c>
-      <c r="F181" t="inlineStr">
+      <c r="G181" t="inlineStr">
         <is>
           <t>['5月23日，县委书记王林波，县委副书记、政府县长霍俊波带领考察团赴乡宁县考察学习转型发展、乡村振兴、专业镇建设、重点项目建设等方面的好做法、好经验，进一步解放思想、转变观念、改进作风，将“他山之石”化作奋进的不竭动力，为我县推动高质量发展提质提速打开思路、拓宽路径。乡宁县委书记杨建军，县委副书记、政府县长李永芳等领导参加考察。', '考察团一行先后前往乡宁县戎子酒庄、昌宁镇龙鼻村省级乡村振兴示范村、乡宁生态文化旅游示范区黄河特色生态产业园紫砂陶小镇、乡宁老城区等地。通过实地考察观摩、听取相关情况介绍和交流座谈的方式，详细了解了乡宁县在企业转型发展、乡村振兴、专业镇建设和城市建设等方面工作开展情况。', '考察团认为，乡宁县立足实际在推动产业发展、谋划城乡发展、培育壮大产业、着力改善民生上定位高、思路清、举措实，项目建设体量大、发展机制活、工作劲头足，此次考察开阔了视野，拓展了思路。大家纷纷表示，将以此次考察为契机，认真学习兄弟县先进的发展思路、超前的发展意识和干事创业的决心，对照先进寻不足，依托资源谋发展，结合我县实际，将学到的经验做法运用到乡村振兴、特色产业发展、城乡建设等方面工作中，为汾西高质量发展全面提质提速作出积极贡献。同时，希望两地进一步加深相互了解，加强沟通交流，深化务实合作，实现资源互补，携手开创经济社会高质量发展新局面。']</t>
         </is>
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A182" t="n">
+        <v>23</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
           <t>省公安厅省法院省检察院分别召开会议学习贯彻习近平总书记考察山西重要指示精神牢记领袖教诲交上满意答卷</t>
         </is>
       </c>
-      <c r="D182" t="inlineStr">
+      <c r="E182" t="inlineStr">
         <is>
           <t>2023-05-26</t>
         </is>
       </c>
-      <c r="E182" t="inlineStr">
+      <c r="F182" t="inlineStr">
         <is>
           <t>https://www.shanxi.gov.cn/ywdt/sxyw/202305/t20230526_8622148.shtml</t>
         </is>
       </c>
-      <c r="F182" t="inlineStr">
+      <c r="G182" t="inlineStr">
         <is>
           <t>['连日来，省公安厅、省法院、省检察院分别召开会议，传达学习贯彻习近平总书记在我省考察重要指示精神和听取陕西省委、省政府工作汇报时重要讲话精神，传达学习省委常委会扩大会议暨理论学习中心组学习会精神，并结合工作实际，对本部门学习贯彻落实进行安排部署。大家一致表示，这次考察充分体现了习近平总书记对山西工作的高度重视、对山西发展的深情牵挂、对山西人民的关怀厚爱，让我们倍感振奋、备受激励，进一步坚定了我们做好山西工作、办好山西事情的信心决心。习近平总书记在考察山西期间作出的重要指示，具有很强的政治性、战略性、指导性、针对性，是我们做好各项工作的科学指引、根本遵循和行动指南。副省长，省公安厅党委书记、厅长李成林，省检察院党组书记、检察长杨景海参加。', '5月19日，省公安厅召开党委扩大会议暨理论学习中心组专题学习会。会议指出，在全面贯彻党的二十大精神的开局之年，在全党深入开展学习贯彻习近平新时代中国特色社会主义思想主题教育的关键时刻，习近平总书记深入我省考察，作出重要指示、寄予殷切期望，全省广大公安民警辅警倍感振奋、倍加自豪，一定要认真学习贯彻习近平总书记考察山西重要指示精神，深刻领悟“两个确立”的决定性意义，增强“四个意识”、坚定“四个自信”、做到“两个维护”，不断增强忠诚核心、维护核心、看齐核心的政治自觉、思想自觉和行动自觉，不断增进对党的创新理论的政治认同、思想认同、理论认同、情感认同，始终在思想上政治上行动上同以习近平同志为核心的党中央保持高度一致，切实把习近平总书记对山西的关心关怀关爱转化为加快推动全省公安工作高质量发展和现代化建设的坚定信念、澎湃动力和巨大成效。', '5月24日，省法院召开党组理论学习中心组（扩大）学习会。会议指出，要带着崇敬、带着感情、带着信仰、带着责任使命，认真学习领会习近平总书记考察山西重要指示精神，与深入学习领会习近平总书记历次考察调研山西重要讲话重要指示精神贯通起来，与深入学习贯彻党的二十大精神结合起来，特别是要放在新时代党的创新理论的科学体系中深刻领悟、全面把握、坚决贯彻。要聚焦“公正与效率”主题，不折不扣把习近平总书记关于文物保护利用、黄河流域生态文明建设、现代化产业发展、乡村全面振兴、党的建设等重要指示精神落到实处。要坚持好、运用好习近平新时代中国特色社会主义思想的世界观方法论和贯穿其中的立场观点方法，切实找准服务优化法治化营商环境的切入点、结合点，以能动履职展现人民法院的担当作为。', '5月23日，省检察院召开党组扩大会议。会议指出，全省检察机关要认真学习贯彻习近平总书记考察山西重要指示精神，深刻领悟“两个确立”的决定性意义，增强“四个意识”、坚定“四个自信”、做到“两个维护”，助力创新驱动发展，构建山西检察知识产权保护新格局。深入践行司法为民，用心用情办好检察为民实事。坚持绿色发展理念，推动黄河流域生态保护和高质量发展。积极参与中华文明探源工程，切实加强文物保护工作。扎实开展学习贯彻习近平新时代中国特色社会主义思想主题教育，在以学铸魂、以学增智、以学正风、以学促干上见实效。要从党的科学理论中悟规律、明方向、学方法、增智慧，认真做好调查研究的后半篇文章，切实把调研成果转化为解决问题、促进发展的实际成效，在全面构建良好政治生态中交好山西检察答卷。（闫书敏 郭宁 邓伟强）']</t>
         </is>
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A183" t="n">
+        <v>23</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
           <t>清徐县考察团在我县就特色小镇建设乡村振兴工作进行考察学习并开展招商引资</t>
         </is>
       </c>
-      <c r="D183" t="inlineStr">
+      <c r="E183" t="inlineStr">
         <is>
           <t>2023-05-23</t>
         </is>
       </c>
-      <c r="E183" t="inlineStr">
+      <c r="F183" t="inlineStr">
         <is>
           <t>http://www.xiangning.gov.cn/xwzx/zwyw/202305/t20230525_193161.html</t>
         </is>
       </c>
-      <c r="F183" t="inlineStr">
+      <c r="G183" t="inlineStr">
         <is>
           <t>['清徐县考察团在我县就特色小镇建设 乡村振兴工作进行考察学习并开展招商引资-政务要闻-乡宁县人民政府办公室', '5月21日，清徐县委副书记、县长、清徐经济开发区党工委书记李福贵带领考察团在我县就特色小镇建设、乡村振兴工作进行考察学习并开展招商引资。县委副书记、县人民政府县长李永芳会见考察团并一同考察，乡宁示范区党工委副书记、管委会副主任武红权陪同考察。', '考察团一行先后来到紫砂陶小镇华廷陶瓷文化有限公司、示范区党群服务中心、景韵鸿鹄紫砂工艺有限公司和昌宁镇龙鼻村省级乡村振兴示范村以及戎子酒庄葡萄基地展览馆、地下酒窖文化展区、生产灌装车间等地。通过实地考察观摩、听取相关情况介绍和现场交流的方式，详细了解了我县在特色小镇建设、乡村振兴等方面工作开展情况。', '考察团对我县在推进特色小镇建设和乡村振兴等工作中取得的成效给予高度评价，其经验做法值得学习借鉴。考察团认为此次考察学习，开阔了视野，找到了差距，解放了思想，并纷纷表示要以此次考察为契机，对照先进寻不足，依托资源谋发展，同时希望今后两地要进一步加深相互了解，加强沟通交流，深化务实合作，实现资源互补，携手开创经济社会高质量发展新局面。']</t>
         </is>
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A184" t="n">
+        <v>23</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
           <t>深入学习贯彻习近平总书记对千万工程经验重要批示精神审议通过关于深入学习贯彻习近平总书记考察山西重要指示精神进一步推动主题教育走深走实的意见等文件省委书记蓝佛安主持召开省委常委会会议暨中心组学习会</t>
         </is>
       </c>
-      <c r="D184" t="inlineStr">
+      <c r="E184" t="inlineStr">
         <is>
           <t>2023-05-26</t>
         </is>
       </c>
-      <c r="E184" t="inlineStr">
+      <c r="F184" t="inlineStr">
         <is>
           <t>https://www.shanxi.gov.cn/ywdt/zwhd/202305/t20230526_8622150.shtml</t>
         </is>
       </c>
-      <c r="F184" t="inlineStr">
+      <c r="G184" t="inlineStr">
         <is>
           <t>['审议通过《关于深入学习贯彻习近平总书记考察山西重要指示精神 进一步推动主题教育走深走实的意见》等文件 省委书记蓝佛安主持召开省委常委会会议暨中心组学习会', '5月24日，省委召开常委会会议暨理论学习中心组学习会，传达学习贯彻习近平总书记对“千万工程”经验的重要批示精神，研究部署习近平总书记重要指示批示贯彻落实情况“回头看”工作，审议通过《关于深入学习贯彻习近平总书记考察山西重要指示精神进一步推动主题教育走深走实的意见》及奋力实现“一泓清水入黄河”行动方案、奋力推动文物事业高质量发展行动方案，部署政法工作队伍建设等工作。省委书记蓝佛安主持会议并讲话。', '会议指出，“千万工程”是习近平总书记在浙江工作期间亲自谋划、亲自部署、亲自推动的一项重大决策，充分彰显了习近平总书记推进改善农村人居环境、建设美丽乡村的远见卓识和战略眼光。习近平总书记对“千万工程”带动乡村全面振兴经验的重要批示，高屋建瓴、内涵丰富、意义深远，为我们建设宜居宜业和美乡村、夯实基层基础进一步指明了前进方向、提供了根本遵循。要深刻领会把握习近平总书记重要批示精神，深入学习推广“千万工程”经验做法，坚持因地制宜、系统谋划、综合施策，进一步完善组织领导的体制机制，突出党建引领，强化统筹协调，健全政策体系，扎实抓好环境整治、产业振兴、基层治理、激发活力等方面重点任务，实现农业生产、农村建设、乡村生活生态良性循环，全力推动农业强、农村美、农民富。要将“千万工程”经验作为主题教育学习案例教材，学习掌握所蕴含的理念方法，教育激励广大党员干部特别是基层干部、“三农”干部强化使命担当、提升能力本领，在全面推进乡村振兴生动实践中贡献力量、建功立业。', '会议指出，常态化开展习近平总书记重要指示批示精神贯彻落实情况“回头看”，是一项重大政治任务和长期战略任务。要从增强“四个意识”、坚定“四个自信”、做到“两个维护”的政治高度，扛牢抓实贯彻落实习近平总书记重要指示批示精神的政治责任，第一时间传达学习、研究贯彻措施，跟进完善工作台账，扣紧工作闭环链条，不折不扣抓好贯彻落实，确保机制到位、部署到位、落实到位、效果到位。要把“回头看”工作作为推动习近平总书记重要指示批示精神和党中央重大决策部署贯彻落实的重要抓手，经常性检点督促贯彻落实工作，定期开展回访调研，贯通督查督办和政治监督，持续巩固拓展工作成效，进一步提升抓落实的质量和效果。', '会议指出，深入学习贯彻习近平总书记考察山西重要指示精神是全省当前最重要的政治任务。各级党委（党组）要牢记习近平总书记殷殷嘱托，按照省委关于贯彻落实工作的安排部署，结合推动主题教育走深走实，聚焦建设转型综改试验区、开展能源革命综合改革试点、打造内陆地区对外开放新高地、强化黄河流域生态保护和文物保护等重大使命、重要工作，明确任务、强化担当、狠抓落实，确保习近平总书记为山西擘画的宏伟蓝图变为美好现实，以实际行动捍卫“两个确立”、做到“两个维护”。要深入实施黄河流域生态保护和高质量发展国家战略，扎实抓好“两山”“七河”“五湖”生态保护修复，统筹推进水资源、水环境、水生态等方面治理，奋力实现“一泓清水入黄河”，全面提升全省生态环境治理现代化水平，加快建设黄河流域生态保护和高质量发展重要实验区。要深入贯彻新时代文物工作方针，积极参与中华文明探源考古研究，扎实开展重点文物保护工程，加强博物馆和文物人才队伍建设，牢牢守住文物安全底线，创新活化利用方式，全面提升文物保护利用和文化遗产保护传承水平。', '会议指出，要深入学习贯彻习近平新时代中国特色社会主义思想特别是习近平法治思想，全面落实政法领导干部学习贯彻习近平新时代中国特色社会主义思想锻造政法铁军专题研讨班精神，巩固深化政法队伍教育整顿成果，教育引导广大政法干警深刻领悟“两个确立”的决定性意义，打牢绝对忠诚、绝对纯洁、绝对可靠的思想根基，确保政法工作队伍永不变质、永不变色、永不变味。各级政法机关要坚持围绕中心、服务大局，着力提高维护社会政治大局稳定特别是政治安全的能力，扎实做好营造法治化营商环境、加强基层社会综合治理、促进社会公平正义等重点工作，为建设更高水平的平安山西和法治山西作出更大贡献，为全省高质量发展和现代化建设提供有力保障。', '省委常委，省人大常委会、省政府、省政协负责同志，省检察院检察长出席会议。省直有关部门负责同志参加会议。']</t>
         </is>
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A185" t="n">
+        <v>23</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
           <t>省委召开全省领导干部会议深入学习贯彻习近平总书记考察山西重要指示精神牢记嘱托感恩奋进担当作为真抓实干不断开创全省高质量发展和现代化建设新局面蓝佛安讲话金湘军主持孙立成出席</t>
         </is>
       </c>
-      <c r="D185" t="inlineStr">
+      <c r="E185" t="inlineStr">
         <is>
           <t>2023-05-29</t>
         </is>
       </c>
-      <c r="E185" t="inlineStr">
+      <c r="F185" t="inlineStr">
         <is>
           <t>https://www.shanxi.gov.cn/ywdt/zwhd/202305/t20230527_8628702.shtml</t>
         </is>
       </c>
-      <c r="F185" t="inlineStr">
+      <c r="G185" t="inlineStr">
         <is>
           <t>['深入学习贯彻习近平总书记考察山西重要指示精神 牢记嘱托 感恩奋进 担当作为 真抓实干 不断开创全省高质量发展和现代化建设新局面 - 山西省人民政府', '深入学习贯彻习近平总书记考察山西重要指示精神 牢记嘱托 感恩奋进 担当作为 真抓实干 不断开创全省高质量发展和现代化建设新局面', '5月25日，省委召开全省领导干部会议，对深入学习贯彻习近平总书记考察山西重要指示精神进一步作出安排部署。省委书记蓝佛安出席会议并讲话。他强调，要坚持以习近平新时代中国特色社会主义思想为指导，全面贯彻党的二十大精神和习近平总书记考察调研山西重要讲话重要指示精神，牢记领袖殷殷嘱托，感恩奋进、担当作为，顽强拼搏、真抓实干，朝着“两个基本实现”目标阔步前行，不断开创全省高质量发展和现代化建设新局面。省委副书记、省长金湘军主持会议，主题教育中央第三指导组副组长孙立成，省委副书记商黎光，省政协主席吴存荣出席会议。', '蓝佛安指出，习近平总书记心系山西发展、牵挂老区人民。5月16日下午，习近平总书记在前往陕西西安主持中国—中亚峰会途中，走下列车先后考察了我省运城博物馆和运城盐湖。这是党的十八大以来习近平总书记第四次亲临山西考察，也是连续两年亲临山西考察。习近平总书记这次莅晋考察，对做好山西工作作出重要指示、寄予殷切期望，为我们走好新征程进一步指明了前进方向、提供了根本遵循。连日来，广大干部群众通过各种方式学习习近平总书记重要指示精神，充分抒发对人民领袖的崇敬和爱戴之情，全省上下兴起了学习贯彻热潮。走好新征程，我们要深刻领会习近平总书记此次考察山西重要指示精神的核心要义、精神实质、丰富内涵和实践要求，与深入学习领会党的二十大精神结合起来，与深入学习领会习近平总书记历次考察调研山西重要讲话重要指示精神贯通起来，与深入学习领会习近平总书记在陕西等省份考察重要讲话精神联系起来，真正做到一体贯通、系统学习、全面把握、坚决贯彻，进一步增强捍卫“两个确立”、做到“两个维护”的政治自觉、思想自觉、行动自觉，切实把习近平总书记对山西的关怀关爱、谆谆教诲转化为加快推动高质量发展和现代化建设的坚定信念、澎湃动力和巨大成效。', '蓝佛安在讲话中回顾了山西在习近平总书记亲切关怀指导下走过的不平凡历程，系统重温了习近平总书记赋予我省的转型发展、能源革命和黄河流域生态保护、文物保护等重大使命任务。他指出，党的领袖对山西工作的重要指示和殷切期望，是全省上下必须扛牢的重大政治责任。要进一步提高政治站位，从党和人民的立场、党和国家工作大局出发想问题、作决策、办事情，勇于担当作为，积极探索经验，奋力蹚出新路。他强调，转型综改是山西推动高质量发展和现代化建设的路径突破和动力牵引，要锚定转型方向，发挥自身优势，抓住重要时间窗口，坚持用非常之力、下恒久之功，拿出非常的战略谋划、工作抓手、要素保障和改革开放之举，系统谋划、扎实推进，依靠顽强斗争打开转型发展新天地。能源革命是山西作为综合能源基地的职责所系和优势所在，要坚守“五大基地”定位，坚持清洁高效低碳绿色方向，落实好能源保供责任，推动煤电联营等取得实质性进展，持续推进能源结构优化调整，做强做优现代能源产业集群，在能源革命综合改革试点上不断取得新突破。实现“一泓清水入黄河”事关山西人民生态福祉，要深入贯彻习近平生态文明思想，扎实开展“两山七河一流域”生态修复治理，坚决打好蓝天、碧水、净土保卫战，抓好水资源利用、水污染防治、水生态治理，确保到2025年汾河流域国考断面全部达到优良水质，着力打造黄河流域生态保护和高质量发展重要实验区。文物保护事关传承弘扬中华优秀传统文化，要认真贯彻新时代文物工作方针，扎实开展重点文物保护工程，集中力量开展人类起源和发展、中华文明探源工程等方面重大课题研究，加强文物保护和考古人才队伍建设，积极发展文博、文创、文旅产业，为坚定文化自信作出山西贡献。', '蓝佛安指出，推进中国式现代化山西实践，必须牢牢把握高质量发展这个首要任务，完整、准确、全面贯彻新发展理念，主动服务和融入新发展格局，奋力开创全省各项事业发展新局面。一要聚焦经济社会发展目标，加强经济运行监测调度，推动实施扩大内需战略同深化供给侧结构性改革有机结合，落实好促进民间投资政策，发挥好消费基础性作用，努力实现经济质的有效提升和量的合理增长。二要聚焦制造业振兴升级主攻方向，用好产业链“链长制”、特色专业镇、开发区等抓手平台，加快传统产业高端化、智能化、绿色化升级改造，培育壮大战略性新兴产业，大力促进文旅康养深度融合发展，培育发展数字经济，加快建设现代化产业体系。三要聚焦打造内陆地区对外开放新高地，积极对接落实京津冀协同发展等国家重大区域发展战略，主动融入“一带一路”大商圈，持续创优“三无”“三可”营商环境，稳步扩大制度型开放，以高水平开放推动高质量发展。四要聚焦建设高标准市场体系，营造公平竞争的市场环境，打造更加便捷的交易流通渠道，深化要素市场化配置改革，深入开展经营主体提升年活动，促进经营主体提质增效、提速扩量、提档升级。五要聚焦强化科技创新支撑引领，大力实施高等教育高质量发展“百亿工程”，加快完善科技创新体系，强化企业科技创新主体地位，打造科技成果转移转化高地，积极推广柔性引才模式，促进教育、科技、人才同向发力。六要聚焦城乡融合发展，加快推进以县城为重要载体的新型城镇化建设，深入实施农业“特”“优”发展战略，狠抓巩固拓展脱贫攻坚成果同乡村振兴有效衔接，促进城乡相互支撑、扎实推动共同富裕。七要聚焦增强人民群众获得感幸福感安全感，打好稳就业扩就业政策组合拳，实施好17项民生政策提标扩面，办好12件民生实事，持续开展安全生产重点领域专项整治行动，把以人民为中心的发展思想落实到位。八要聚焦实现政治生态持久风清气正，坚决扛牢管党治党政治责任，以党的政治建设为统领，全面加强党的各方面建设，推动常态化抓党建促基层治理能力提升，持之以恒正风肃纪反腐，全面建设清廉山西。', '蓝佛安指出，确保习近平总书记为我们擘画的宏伟蓝图变为美好现实，全省干部队伍的精神状态、能力素质、作风形象至关重要。要勇开解放思想之先，持续强化“四敢”导向，牢固树立“五种理念”，在打破思维定式、转变思想观念上下更大功夫。要提升干事创业之能，不断增强推动高质量发展本领、服务群众本领、防范化解风险本领。要大兴调查研究之风，深入基层、深入一线、深入群众，真正把情况摸清、把问题找准、把对策提实。要坚守久久为功之志，树立和践行正确政绩观，一任接着一任干，一张蓝图绘到底，下定决心办好办成一批打基础、利长远、惠民生、防风险的大事要事。要凝聚真抓实干之力，强化以上率下，用好抓落实工作体系和工作专班机制，确保各项任务落地落实。', '蓝佛安强调，要把深入学习贯彻习近平总书记考察山西重要指示精神作为当前最重要的政治任务，作为深入开展主题教育的重要内容，精心组织学习培训，深入进行研究阐释，广泛开展宣传活动，持续兴起学习宣传贯彻热潮。要加强对开展主题教育的组织领导，党委（党组）主要负责同志当好第一责任人，突出目标导向和问题导向相统一，在深入、扎实上下功夫，在以学铸魂、以学增智、以学正风、以学促干上求实效，推动全省主题教育不断走深走实。', '金湘军在主持会议时指出，要按照省委部署要求，持续兴起学习宣传贯彻习近平总书记考察山西重要指示精神热潮，推动主题教育走深走实。要矢志不渝感恩奋进，深刻领悟“两个确立”的决定性意义，进一步增强“四个意识”，坚定“四个自信”，做到“两个维护”。要一体贯通学深悟透，准确把握核心要义，切实把习近平总书记对山西的重要指示转化为推动工作的思路举措。要振奋精神担当作为，牢牢把握高质量发展首要任务，扎实抓好能源保供、制造业振兴升级、高水平对外开放、高标准市场体系建设、科技创新、民生保障等重点工作，全力完成经济社会发展目标任务，不断开创全省高质量发展和现代化建设新局面。', '会议以视频方式开到县一级。主题教育中央第三指导组成员，现职省级领导同志，武警山西总队主要负责同志，部分省级老同志出席会议。省委主题教育领导小组及办公室成员，省委主题教育巡回指导组组长，省直各单位、部分中央驻晋单位、驻并省管国有企业和本专科院校主要负责同志，省各民主党派、工商联主要负责人在主会场参加会议。（杨文）']</t>
         </is>
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A186" t="n">
+        <v>23</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
           <t>省委常委所在部门召开会议学习贯彻习近平总书记考察山西重要指示精神</t>
         </is>
       </c>
-      <c r="D186" t="inlineStr">
+      <c r="E186" t="inlineStr">
         <is>
           <t>2023-05-21</t>
         </is>
       </c>
-      <c r="E186" t="inlineStr">
+      <c r="F186" t="inlineStr">
         <is>
           <t>http://www.shanxi.gov.cn/ywdt/sxyw/202305/t20230521_8590439.shtml</t>
         </is>
       </c>
-      <c r="F186" t="inlineStr">
+      <c r="G186" t="inlineStr">
         <is>
           <t>['省委常委所在部门分别召开会议学习贯彻习近平总书记考察山西重要指示精神 - 山西省人民政府', '连日来，省委常委所在部门分别召开会议，传达学习习近平总书记在我省考察重要指示精神和听取陕西省委、省政府工作汇报时重要讲话精神，按照省委要求部署，结合工作实际，对本部门学习贯彻落实工作进行具体安排。省委常委王拥军、徐广国、张吉福、陈安丽、李凤岐、郑连生分别提出要求，参加传达学习。', '5月19日，省纪委召开常委会扩大会议强调，全省各级纪检监察机关要认真落实“第一议题”制度，深入学习领会习近平总书记重要讲话重要指示精神，深刻感悟党的领袖对山西的关怀关爱和殷殷嘱托，坚定不移沿着习近平总书记指引的方向前进。要立足职能职责，强化政治监督，督促推动全省各级党组织和党员干部更加坚定拥护“两个确立”、做到“两个维护”，自觉对标对表、积极履职尽责，不折不扣把习近平总书记关于文物保护利用、黄河流域生态文明建设、现代化产业发展、乡村全面振兴、党的建设等重要指示精神落到实处。要扎实开展主题教育，带着崇敬、带着感情、带着信仰、带着责任使命，学深悟透习近平新时代中国特色社会主义思想，做好深化、内化、转化工作，把主题教育成果转化为深化正风肃纪反腐、全面建设清廉山西的实际行动，为推动高质量发展清障护航，在全面构建良好政治生态中交好山西答卷。', '5月19日，省委办公厅召开会议要求，把学习贯彻习近平总书记重要指示精神作为当前最重要政治任务，按照省委常委会扩大会议部署，充分发挥职能作用，扎实做好各项工作。强调全厅上下要认真学习贯彻习近平总书记在我省考察重要指示精神，作为深入开展主题教育的重要内容，深刻领悟“两个确立”的决定性意义，增强“四个意识”、坚定“四个自信”、做到“两个维护”。要坚持对表对标，更好发挥政治把关、参谋助手、统筹协调、督促检查和服务保障作用，着力推动习近平总书记重要指示精神及省委部署落地落实。要全面增强本领，锻造过硬作风，进一步提升“三服务”质量和水平，当好省委的“坚强前哨”和“巩固后院”，为不断开创全省高质量发展和现代化建设新局面作出新的更大贡献。', '5月18日，省委组织部召开部务会扩大会议暨中心组学习会议指出，全省组织部门要按照省委常委会扩大会议的部署要求，站在捍卫“两个确立”、做到“两个维护”的政治高度，深刻领会习近平总书记考察山西重大意义，认真抓好重要指示精神的贯彻落实；要胸怀“两个大局”、心怀“国之大者”，紧密结合省委重大战略部署，持续抓好干部队伍建设，建强基层战斗堡垒，创新人才政策体系，以高质量组织工作服务保障高质量发展。强调要把习近平总书记考察山西重要指示精神，作为主题教育理论学习、干部教育培训重要内容；紧紧围绕转型发展、能源革命，组织开展集中学习、交流研讨；开展典型案例解剖式调研，扎实推进突出问题专项整治，确保主题教育深入开展、取得实效。', '5月18日，省委宣传部召开部务会议指出，习近平总书记莅临我省考察调研，对山西工作作出重要指示，对山西发展寄予殷切期望，体现了习近平总书记对山西的关怀关爱，为做好各项工作指明了前进方向。要把学习宣传贯彻习近平总书记考察调研山西重要指示精神，作为当前和今后一个时期的头等大事和首要政治任务，迅速兴起学习宣传贯彻热潮。要按照习近平总书记重要指示精神，深入实施中华文明探源工程，扎实开展重点文物保护工作，做好活化利用和阐释推广，全面提升文物保护利用和文化遗产保护传承水平，为探索中华文明起源、坚定文化自信作出山西贡献。', '5月18日，省委统战部召开部务会（扩大）会议指出，习近平总书记在我省考察作出的重要指示，高屋建瓴、视野宏阔，思想深邃、语重心长，具有很强的政治性、战略性、指导性、针对性，为进一步做好统战工作、更好服务全省大局指明了前进方向、提供了根本遵循。全省统一战线要在省委的坚强领导下，抓住主题教育契机，深入学习贯彻习近平新时代中国特色社会主义思想，特别是习近平总书记十八大以来四次莅临山西考察调研重要讲话重要指示精神，不断开创统战工作新局面。要立足工作实际，明确方向任务、系统谋划部署、细化落实举措，在补短板、提质效上下功夫，在敢担当、善作为上作表率，推进工作项目化、项目责任化、责任时效化，全面提升统战工作成效，推动各领域统战工作高质量发展，为奋力谱写全面建设社会主义现代化国家山西篇章作出新的更大贡献。', '5月18日，省委政法委召开委务扩大会议强调，全省政法机关要把学习贯彻习近平总书记考察调研山西重要指示精神作为当前最重要的政治任务，牢记“政法姓党”的属性，深刻领悟“两个确立”的决定性意义，不断增强“四个意识”、坚定“四个自信”、做到“两个维护”。要结合当前开展的主题教育，将学习贯彻的成效切实转化为做好工作的新理念、新思路、新举措，着眼全省大局，立足政法职能，认真履行防风险、保安全、护稳定、促发展职能作用，锻造过硬政法铁军，推进政法工作现代化，努力建设更高水平的平安山西、法治山西，为全省高质量发展和现代化建设提供坚强保障。（陈俊琦 李炼 邓伟强 杨文俊）']</t>
         </is>
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A187" t="n">
+        <v>23</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
           <t>省政协党组召开扩大会议传达学习贯彻习近平总书记考察山西重要指示精神</t>
         </is>
       </c>
-      <c r="D187" t="inlineStr">
+      <c r="E187" t="inlineStr">
         <is>
           <t>2023-05-20</t>
         </is>
       </c>
-      <c r="E187" t="inlineStr">
+      <c r="F187" t="inlineStr">
         <is>
           <t>http://www.shanxi.gov.cn/ywdt/sxyw/202305/t20230520_8584057.shtml</t>
         </is>
       </c>
-      <c r="F187" t="inlineStr">
+      <c r="G187" t="inlineStr">
         <is>
           <t>['省政协党组召开扩大会议传达学习贯彻习近平总书记考察山西重要指示精神 - 山西省人民政府', '5月19日，省政协党组召开扩大会议，传达学习习近平总书记在我省考察重要指示精神和听取陕西省委、省政府工作汇报时重要讲话精神，贯彻省委部署要求，研究政协落实举措。省政协党组书记、主席吴存荣主持会议并讲话。', '会议指出，习近平总书记在我省考察作出的重要指示，高屋建瓴、视野宏阔，思想深邃、语重心长，具有很强的政治性、战略性、指导性、针对性，为进一步做好政协工作、更好服务全省大局指明了前进方向、提供了根本遵循。习近平总书记时刻心系山西、始终指引山西、必将成就山西。党的十八大以来，习近平总书记四次莅临山西，充分体现了党的领袖对老区人民一以贯之的深情厚爱、对山西地位作用一以贯之的高度重视、对我省各项工作一以贯之的关心关怀、对资源型经济转型和高质量发展一以贯之的深谋远虑、对全省干部队伍一以贯之的严管厚爱。要深刻领会习近平总书记此次考察山西的重大意义，深刻领悟“两个确立”的决定性意义，增强“四个意识”、坚定“四个自信”、做到“两个维护”，牢记领袖谆谆嘱托，矢志不渝感恩奋进。要把学习贯彻习近平总书记考察山西重要指示精神作为当前最重要的政治任务，作为主题教育的重要内容，放在新时代党的创新理论的科学体系中深刻领悟、全面把握，在结合上深思考、在落实上下功夫，不断提高政治能力、思维能力、实践能力，在以学铸魂、以学增智、以学正风、以学促干等方面不断取得实效。要全面贯彻习近平总书记考察山西提出的重大要求，落实省委各项部署，围绕传承弘扬中华优秀传统文化、推进生态文明建设、建设现代化产业体系、城乡区域协调发展、乡村全面振兴、高水平对外开放等重大任务，大兴调查研究，精心组织协商，深入议政建言，广泛凝聚共识，积极助力我省高质量发展和现代化建设。（邓伟强）']</t>
         </is>
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A188" t="n">
+        <v>23</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
           <t>习近平在四川考察调研</t>
         </is>
       </c>
-      <c r="D188" t="inlineStr">
+      <c r="E188" t="inlineStr">
         <is>
           <t>2023-07-27</t>
         </is>
       </c>
-      <c r="E188" t="inlineStr">
+      <c r="F188" t="inlineStr">
         <is>
           <t>https://www.gov.cn/yaowen/liebiao/202307/content_6894467.htm</t>
         </is>
       </c>
-      <c r="F188" t="inlineStr">
+      <c r="G188" t="inlineStr">
         <is>
           <t>['25日下午和26日下午，习近平总书记在四川省广元市、德阳市分别考察了翠云廊古蜀道、三星堆博物馆，了解当地推进历史文化传承、加强生态文明建设和历史文化遗址发掘研究、文物保护修复等情况。（文字记者：朱基钗、林晖；摄影记者：鞠鹏、谢环驰、李涛）', '7月\u200b25日下午和26日下午，习近平总书记在四川省广元市、德阳市分别考察了翠云廊古蜀道、三星堆博物馆，了解当地推进历史文化传承、加强生态文明建设和历史文化遗址发掘研究、文物保护修复等情况。']</t>
         </is>
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A189" t="n">
+        <v>23</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
+          <t>临汾市</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
           <t>中国第次北冰洋科学考察队正式开始大洋科考作业</t>
         </is>
       </c>
-      <c r="D189" t="inlineStr">
+      <c r="E189" t="inlineStr">
         <is>
           <t>2023-07-28</t>
         </is>
       </c>
-      <c r="E189" t="inlineStr">
+      <c r="F189" t="inlineStr">
         <is>
           <t>https://www.gov.cn/yaowen/liebiao/202307/content_6894849.htm</t>
         </is>
       </c>
-      <c r="F189" t="inlineStr">
+      <c r="G189" t="inlineStr">
         <is>
           <t>['7月26日拍摄的中国第13次北冰洋科学考察队即将布放下水的CTD。新华社记者 魏弘毅 摄', '新华社“雪龙2”号7月27日电（记者 魏弘毅）经过15天的海上航行，中国第13次北冰洋科学考察队于北京时间26日下午抵达位于楚科奇海的首个作业站点，正式开始了大洋科考作业。首站作业持续约5小时30分钟，于当天22时30分左右结束，基本涵盖本次北冰洋科考大部分常规作业项目。', '7月26日，中国第13次北冰洋科学考察队队员在CTD旁进行海水采样。新华社记者 魏弘毅 摄', '7月26日，中国第13次北冰洋科学考察队队员在实验室中对采样海水进行处理。新华社记者 魏弘毅 摄', '根据预定作业计划，首站大洋科考作业在舯甲板、艉甲板和9层甲板展开。舯甲板作业包含CTD（温盐深多参数海洋观测系统）、采水作业、浮游生物垂直拖网采样与海洋光学观测。在艉甲板则先后进行了颗粒物剖面观测、箱式沉积采样、微塑料拖网采样、底栖生物拖网作业、潜标及波浪浮标布放。9层甲板作业项目为气象探空气球布放。', '7月26日，中国第13次北冰洋科学考察队队员进行微塑料拖网采样作业。新华社记者 魏弘毅 摄', '7月26日，中国第13次北冰洋科学考察队队员准备进行箱式沉积采样作业。新华社记者 魏弘毅 摄', '7月26日，中国第13次北冰洋科学考察队队员在采集箱式沉积采样获取的海洋底质样品。新华社记者 魏弘毅 摄', '7月26日，中国第13次北冰洋科学考察队队员在执行气象探空气球布放作业。新华社记者 魏弘毅 摄', '考察队大洋队队长陈超介绍说，此次考察队下设的大洋队由来自相关单位与高校共45名科研人员组成，他们是实施大洋科考作业的主体。科研人员根据作业内容区分，编为水文环境、水体化学、大气环境、舯部生物、艉部生物、污染与沉积、地质与地球物理、海冰环境8个组别。', '7月26日拍摄的中国第13次北冰洋科学考察队队员采集到的部分底栖生物样品。新华社记者 魏弘毅 摄', '考察队领队王金辉表示，本次北冰洋科考作业时间为40余天，时间较为紧凑，且相比前两次科考任务量增多，尤其在冰雪观测、浮标潜标作业等方面承担了更多的工作。与往次北冰洋科考相比，本次北极圈内航线浮冰偏多、海雾偏大，客观上增加了相关作业难度。', '王金辉表示，考察队将通过加强任务协调、开展同步作业等方式，抵消复杂冰情、恶劣天气造成的不利影响。在后续作业中，考察队将继续围绕水文、大气、生物等学科领域，加紧推进作业进度，力争圆满完成各项科考任务。', '经过15天的海上航行，中国第13次北冰洋科学考察队于北京时间7月26日下午抵达位于楚科奇海的首个作业站点，正式开始了大洋科考作业。']</t>
         </is>
